--- a/Templates/SIOP-RSLIL-v2.1.xlsx
+++ b/Templates/SIOP-RSLIL-v2.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr codeName="EsteLivro" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="842" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="842" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -10837,7 +10837,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -11433,7 +11433,7 @@
   </sheetPr>
   <dimension ref="A1:N99"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -13744,7 +13744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>

--- a/Templates/SIOP-RSLIL-v2.1.xlsx
+++ b/Templates/SIOP-RSLIL-v2.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr codeName="EsteLivro" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="842" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="842" firstSheet="1" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -313,7 +313,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="843">
   <si>
     <t>Id</t>
   </si>
@@ -469,9 +469,6 @@
   </si>
   <si>
     <t>requires</t>
-  </si>
-  <si>
-    <t>supports</t>
   </si>
   <si>
     <t>conflicts</t>
@@ -4355,7 +4352,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="23.25">
       <c r="A1" s="47" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B1" s="45"/>
       <c r="C1" s="46"/>
@@ -4369,78 +4366,78 @@
     </row>
     <row r="2" spans="1:10" ht="23.25">
       <c r="A2" s="70" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E2" s="46"/>
     </row>
     <row r="4" spans="1:10" ht="26.25">
       <c r="A4" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="41" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="41" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="41" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -4487,7 +4484,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="23.25">
       <c r="A1" s="41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -4507,7 +4504,7 @@
     </row>
     <row r="4" spans="1:8" ht="23.25">
       <c r="A4" s="176" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B4" s="176"/>
       <c r="C4" s="176"/>
@@ -4520,7 +4517,7 @@
     <row r="5" spans="1:8" ht="57" customHeight="1"/>
     <row r="6" spans="1:8" ht="31.5" customHeight="1">
       <c r="A6" s="213" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B6" s="213" t="s">
         <v>1</v>
@@ -4529,19 +4526,19 @@
         <v>3</v>
       </c>
       <c r="D6" s="213" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E6" s="213" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="213" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G6" s="215" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H6" s="214" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="45" customHeight="1">
@@ -4556,10 +4553,10 @@
     </row>
     <row r="8" spans="1:8" ht="33.75" customHeight="1">
       <c r="A8" s="15" t="s">
+        <v>560</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>561</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>562</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="14"/>
@@ -4570,10 +4567,10 @@
     </row>
     <row r="9" spans="1:8" ht="33.75" customHeight="1">
       <c r="A9" s="15" t="s">
+        <v>560</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>561</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>562</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="14"/>
@@ -4718,7 +4715,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="23.25">
       <c r="A1" s="41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B1" s="4"/>
       <c r="E1" s="4"/>
@@ -4743,7 +4740,7 @@
     </row>
     <row r="4" spans="1:11" ht="23.25">
       <c r="A4" s="176" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B4" s="176"/>
       <c r="C4" s="176"/>
@@ -4759,7 +4756,7 @@
     <row r="6" spans="1:11" ht="30.75" customHeight="1"/>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
       <c r="A7" s="213" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B7" s="213" t="s">
         <v>1</v>
@@ -4768,28 +4765,28 @@
         <v>3</v>
       </c>
       <c r="D7" s="215" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E7" s="215" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F7" s="217" t="s">
+        <v>145</v>
+      </c>
+      <c r="G7" s="217" t="s">
         <v>146</v>
-      </c>
-      <c r="G7" s="217" t="s">
-        <v>147</v>
       </c>
       <c r="H7" s="213" t="s">
         <v>7</v>
       </c>
       <c r="I7" s="213" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J7" s="219" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K7" s="214" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="31.5" customHeight="1">
@@ -4807,10 +4804,10 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="15" t="s">
+        <v>562</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>563</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>564</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="13"/>
@@ -4824,10 +4821,10 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="15" t="s">
+        <v>792</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>793</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>794</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="13"/>
@@ -4841,10 +4838,10 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="15" t="s">
+        <v>792</v>
+      </c>
+      <c r="B11" s="15" t="s">
         <v>793</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>794</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="13"/>
@@ -4858,10 +4855,10 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="15" t="s">
+        <v>792</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>793</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>794</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="13"/>
@@ -4875,10 +4872,10 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="15" t="s">
+        <v>792</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>793</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>794</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="13"/>
@@ -4892,10 +4889,10 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="15" t="s">
+        <v>792</v>
+      </c>
+      <c r="B14" s="15" t="s">
         <v>793</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>794</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="13"/>
@@ -4909,10 +4906,10 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="15" t="s">
+        <v>792</v>
+      </c>
+      <c r="B15" s="15" t="s">
         <v>793</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>794</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="13"/>
@@ -4926,10 +4923,10 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="15" t="s">
+        <v>792</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>793</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>794</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="13"/>
@@ -4943,10 +4940,10 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="15" t="s">
+        <v>792</v>
+      </c>
+      <c r="B17" s="15" t="s">
         <v>793</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>794</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="13"/>
@@ -4960,10 +4957,10 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="15" t="s">
+        <v>792</v>
+      </c>
+      <c r="B18" s="15" t="s">
         <v>793</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>794</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="13"/>
@@ -5037,7 +5034,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="23.25">
       <c r="A1" s="41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B1" s="4"/>
     </row>
@@ -5056,7 +5053,7 @@
     </row>
     <row r="4" spans="1:8" ht="23.25">
       <c r="A4" s="176" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B4" s="176"/>
       <c r="C4" s="176"/>
@@ -5069,7 +5066,7 @@
     <row r="6" spans="1:8" ht="30.75" customHeight="1"/>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
       <c r="A7" s="213" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B7" s="213" t="s">
         <v>1</v>
@@ -5078,19 +5075,19 @@
         <v>3</v>
       </c>
       <c r="D7" s="215" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E7" s="213" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="213" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G7" s="213" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H7" s="214" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1">
@@ -5105,20 +5102,20 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="15" t="s">
+        <v>794</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>796</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>795</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>797</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>796</v>
-      </c>
       <c r="D9" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="14"/>
@@ -5248,8 +5245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5264,7 +5261,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B1" s="41"/>
     </row>
@@ -5285,7 +5282,7 @@
     </row>
     <row r="4" spans="1:6" ht="23.25">
       <c r="A4" s="176" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B4" s="176"/>
       <c r="C4" s="176"/>
@@ -5299,13 +5296,13 @@
     </row>
     <row r="6" spans="1:6" ht="31.5" customHeight="1">
       <c r="A6" s="210" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B6" s="211"/>
       <c r="C6" s="211"/>
       <c r="D6" s="212"/>
       <c r="E6" s="206" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F6" s="206" t="s">
         <v>3</v>
@@ -5313,11 +5310,11 @@
     </row>
     <row r="7" spans="1:6" ht="15.75">
       <c r="A7" s="209" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B7" s="209"/>
       <c r="C7" s="209" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D7" s="209"/>
       <c r="E7" s="207"/>
@@ -5357,10 +5354,10 @@
         <v>YYY</v>
       </c>
       <c r="E9" s="123" t="s">
-        <v>52</v>
+        <v>839</v>
       </c>
       <c r="F9" s="122" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="49" customFormat="1" ht="38.25" customHeight="1">
@@ -5381,10 +5378,10 @@
         <v>ZZZ</v>
       </c>
       <c r="E10" s="123" t="s">
-        <v>53</v>
+        <v>841</v>
       </c>
       <c r="F10" s="122" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="49" customFormat="1" ht="38.25" customHeight="1">
@@ -5394,7 +5391,7 @@
       <c r="D11" s="122"/>
       <c r="E11" s="123"/>
       <c r="F11" s="122" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="49" customFormat="1" ht="38.25" customHeight="1">
@@ -5404,7 +5401,7 @@
       <c r="D12" s="122"/>
       <c r="E12" s="123"/>
       <c r="F12" s="122" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="49" customFormat="1" ht="38.25" customHeight="1">
@@ -5414,7 +5411,7 @@
       <c r="D13" s="122"/>
       <c r="E13" s="123"/>
       <c r="F13" s="122" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="49" customFormat="1" ht="38.25" customHeight="1">
@@ -5424,7 +5421,7 @@
       <c r="D14" s="122"/>
       <c r="E14" s="123"/>
       <c r="F14" s="122" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="49" customFormat="1" ht="38.25" customHeight="1">
@@ -5434,7 +5431,7 @@
       <c r="D15" s="122"/>
       <c r="E15" s="123"/>
       <c r="F15" s="122" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
   </sheetData>
@@ -5446,7 +5443,7 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:D7"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:E15">
       <formula1>GoalDependencyType</formula1>
     </dataValidation>
@@ -5485,7 +5482,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="13.5" customHeight="1">
@@ -5510,7 +5507,7 @@
     </row>
     <row r="4" spans="1:12" ht="23.25">
       <c r="A4" s="176" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B4" s="176"/>
       <c r="C4" s="176"/>
@@ -5529,13 +5526,13 @@
     </row>
     <row r="6" spans="1:12" ht="13.5" customHeight="1">
       <c r="A6" s="201" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B6" s="202"/>
     </row>
     <row r="7" spans="1:12" ht="13.5" customHeight="1">
       <c r="A7" s="241" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" s="242"/>
       <c r="C7" s="198"/>
@@ -5544,7 +5541,7 @@
     </row>
     <row r="8" spans="1:12" ht="13.5" customHeight="1">
       <c r="A8" s="243" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B8" s="244"/>
       <c r="C8" s="198"/>
@@ -5559,7 +5556,7 @@
     </row>
     <row r="10" spans="1:12" ht="21" customHeight="1">
       <c r="A10" s="89" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B10" s="90"/>
       <c r="C10" s="90"/>
@@ -5575,7 +5572,7 @@
     </row>
     <row r="11" spans="1:12" ht="25.5" customHeight="1">
       <c r="A11" s="85" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B11" s="85" t="s">
         <v>1</v>
@@ -5587,7 +5584,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="91" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F11" s="231"/>
       <c r="G11" s="231"/>
@@ -5599,7 +5596,7 @@
     </row>
     <row r="12" spans="1:12" ht="18.75" customHeight="1">
       <c r="D12" s="238" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E12" s="239"/>
       <c r="F12" s="239"/>
@@ -5612,7 +5609,7 @@
     </row>
     <row r="13" spans="1:12" ht="18.75" customHeight="1">
       <c r="D13" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>1</v>
@@ -5624,24 +5621,24 @@
         <v>8</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>9</v>
       </c>
       <c r="K13" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="L13" s="9" t="s">
         <v>192</v>
-      </c>
-      <c r="L13" s="9" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="18.75" customHeight="1">
       <c r="D14" s="238" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E14" s="239"/>
       <c r="F14" s="239"/>
@@ -5654,13 +5651,13 @@
     </row>
     <row r="15" spans="1:12" ht="18.75" customHeight="1">
       <c r="D15" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G15" s="245"/>
       <c r="H15" s="246"/>
@@ -5671,7 +5668,7 @@
     </row>
     <row r="16" spans="1:12" ht="18.75" customHeight="1">
       <c r="D16" s="238" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E16" s="239"/>
       <c r="F16" s="239"/>
@@ -5684,10 +5681,10 @@
     </row>
     <row r="17" spans="1:13" ht="18.75" customHeight="1">
       <c r="D17" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E17" s="234" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F17" s="235"/>
       <c r="G17" s="235"/>
@@ -5702,16 +5699,16 @@
         <v>15</v>
       </c>
       <c r="B18" s="97" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C18" s="98" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D18" s="96" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E18" s="99" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F18" s="221"/>
       <c r="G18" s="222"/>
@@ -5725,16 +5722,16 @@
       <c r="A19" s="226"/>
       <c r="B19" s="226"/>
       <c r="C19" s="237" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>12</v>
@@ -5747,13 +5744,13 @@
       </c>
       <c r="J19" s="24"/>
       <c r="K19" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L19" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="18.75" customHeight="1">
@@ -5761,16 +5758,16 @@
       <c r="B20" s="233"/>
       <c r="C20" s="237"/>
       <c r="D20" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="G20" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H20" s="24"/>
       <c r="I20" s="24">
@@ -5778,10 +5775,10 @@
       </c>
       <c r="J20" s="24"/>
       <c r="K20" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L20" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="18.75" customHeight="1">
@@ -5789,10 +5786,10 @@
       <c r="B21" s="233"/>
       <c r="C21" s="237"/>
       <c r="D21" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2" t="s">
@@ -5800,14 +5797,14 @@
       </c>
       <c r="H21" s="24"/>
       <c r="I21" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J21" s="24"/>
       <c r="K21" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L21" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="18.75" customHeight="1">
@@ -5815,40 +5812,40 @@
       <c r="B22" s="233"/>
       <c r="C22" s="237"/>
       <c r="D22" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H22" s="24">
         <v>10.199999999999999</v>
       </c>
       <c r="I22" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J22" s="24"/>
       <c r="K22" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L22" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="18.75" customHeight="1">
       <c r="A23" s="233"/>
       <c r="B23" s="233"/>
       <c r="C23" s="237" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F23" s="24">
         <v>1</v>
@@ -5860,7 +5857,7 @@
       <c r="K23" s="237"/>
       <c r="L23" s="237"/>
       <c r="M23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="18.75" customHeight="1">
@@ -5868,10 +5865,10 @@
       <c r="B24" s="233"/>
       <c r="C24" s="237"/>
       <c r="D24" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F24" s="24">
         <v>1</v>
@@ -5888,10 +5885,10 @@
       <c r="B25" s="233"/>
       <c r="C25" s="237"/>
       <c r="D25" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F25" s="24">
         <v>1</v>
@@ -5907,13 +5904,13 @@
       <c r="A26" s="233"/>
       <c r="B26" s="233"/>
       <c r="C26" s="226" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E26" s="228" t="s">
         <v>214</v>
-      </c>
-      <c r="E26" s="228" t="s">
-        <v>215</v>
       </c>
       <c r="F26" s="229"/>
       <c r="G26" s="229"/>
@@ -5923,7 +5920,7 @@
       <c r="K26" s="229"/>
       <c r="L26" s="230"/>
       <c r="M26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" customHeight="1">
@@ -5931,10 +5928,10 @@
       <c r="B27" s="227"/>
       <c r="C27" s="227"/>
       <c r="D27" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E27" s="228" t="s">
         <v>208</v>
-      </c>
-      <c r="E27" s="228" t="s">
-        <v>209</v>
       </c>
       <c r="F27" s="229"/>
       <c r="G27" s="229"/>
@@ -5963,16 +5960,16 @@
         <v>16</v>
       </c>
       <c r="B29" s="97" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C29" s="98" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D29" s="96" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E29" s="99" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F29" s="221"/>
       <c r="G29" s="222"/>
@@ -5984,16 +5981,16 @@
     </row>
     <row r="30" spans="1:13" ht="18.75" customHeight="1">
       <c r="C30" s="237" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>12</v>
@@ -6004,25 +6001,25 @@
       </c>
       <c r="J30" s="24"/>
       <c r="K30" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L30" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="18.75" customHeight="1">
       <c r="C31" s="237"/>
       <c r="D31" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="G31" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H31" s="24"/>
       <c r="I31" s="24">
@@ -6030,19 +6027,19 @@
       </c>
       <c r="J31" s="24"/>
       <c r="K31" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L31" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="18.75" customHeight="1">
       <c r="C32" s="237"/>
       <c r="D32" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2" t="s">
@@ -6050,55 +6047,55 @@
       </c>
       <c r="H32" s="24"/>
       <c r="I32" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J32" s="24"/>
       <c r="K32" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L32" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="18.75" customHeight="1">
       <c r="C33" s="237"/>
       <c r="D33" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H33" s="24"/>
       <c r="I33" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J33" s="24"/>
       <c r="K33" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L33" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="18.75" customHeight="1">
       <c r="A35" s="96" t="s">
+        <v>215</v>
+      </c>
+      <c r="B35" s="97" t="s">
         <v>216</v>
       </c>
-      <c r="B35" s="97" t="s">
+      <c r="C35" s="98" t="s">
         <v>217</v>
       </c>
-      <c r="C35" s="98" t="s">
-        <v>218</v>
-      </c>
       <c r="D35" s="96" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E35" s="99" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F35" s="221"/>
       <c r="G35" s="222"/>
@@ -6110,16 +6107,16 @@
     </row>
     <row r="36" spans="1:12" ht="18.75" customHeight="1">
       <c r="C36" s="237" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>12</v>
@@ -6130,25 +6127,25 @@
       </c>
       <c r="J36" s="24"/>
       <c r="K36" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L36" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="18.75" customHeight="1">
       <c r="C37" s="237"/>
       <c r="D37" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="G37" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H37" s="24"/>
       <c r="I37" s="24">
@@ -6156,19 +6153,19 @@
       </c>
       <c r="J37" s="24"/>
       <c r="K37" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L37" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="18.75" customHeight="1">
       <c r="C38" s="237"/>
       <c r="D38" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2" t="s">
@@ -6176,49 +6173,49 @@
       </c>
       <c r="H38" s="24"/>
       <c r="I38" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J38" s="24"/>
       <c r="K38" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L38" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="18.75" customHeight="1">
       <c r="C39" s="237"/>
       <c r="D39" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H39" s="24"/>
       <c r="I39" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J39" s="24"/>
       <c r="K39" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L39" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="18.75" customHeight="1">
       <c r="C40" s="237" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F40" s="24">
         <v>1</v>
@@ -6233,10 +6230,10 @@
     <row r="41" spans="1:12" ht="18.75" customHeight="1">
       <c r="C41" s="237"/>
       <c r="D41" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F41" s="24">
         <v>1</v>
@@ -6251,10 +6248,10 @@
     <row r="42" spans="1:12" ht="18.75" customHeight="1">
       <c r="C42" s="237"/>
       <c r="D42" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F42" s="24">
         <v>1</v>
@@ -6347,7 +6344,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="7.5" customHeight="1"/>
@@ -6367,7 +6364,7 @@
     </row>
     <row r="4" spans="1:9" ht="20.25" customHeight="1">
       <c r="A4" s="70" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B4" s="71"/>
       <c r="C4" s="73"/>
@@ -6387,13 +6384,13 @@
     </row>
     <row r="7" spans="1:9" s="93" customFormat="1" ht="14.25" customHeight="1">
       <c r="A7" s="94" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E7" s="248"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="252" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9" s="252"/>
       <c r="C9" s="252"/>
@@ -6403,7 +6400,7 @@
     </row>
     <row r="10" spans="1:9" ht="15.75">
       <c r="A10" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>1</v>
@@ -6412,65 +6409,65 @@
         <v>3</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1">
       <c r="A11" s="24" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B11" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="D11" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="E11" s="24" t="s">
         <v>66</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>67</v>
       </c>
       <c r="F11" s="24" t="str">
         <f>A12</f>
         <v>a.Operator</v>
       </c>
       <c r="G11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1">
       <c r="A12" s="24" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B12" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="C12" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="C12" s="25" t="s">
-        <v>189</v>
-      </c>
       <c r="D12" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1">
       <c r="A13" s="24" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
@@ -6495,7 +6492,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="249" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B16" s="250"/>
       <c r="C16" s="250"/>
@@ -6505,7 +6502,7 @@
     </row>
     <row r="17" spans="1:7" ht="15.75">
       <c r="A17" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>1</v>
@@ -6514,46 +6511,46 @@
         <v>3</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="24" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B18" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="35" t="s">
-        <v>103</v>
-      </c>
       <c r="D18" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E18" s="52" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F18" s="52"/>
       <c r="G18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="12" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -6615,7 +6612,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="8.25" customHeight="1"/>
@@ -6643,7 +6640,7 @@
     </row>
     <row r="4" spans="1:18" ht="23.25">
       <c r="A4" s="176" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B4" s="176"/>
       <c r="C4" s="176"/>
@@ -6670,12 +6667,12 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="96" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="15.75" customHeight="1">
       <c r="A9" s="254" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9" s="255"/>
       <c r="C9" s="255"/>
@@ -6696,7 +6693,7 @@
     </row>
     <row r="10" spans="1:18" ht="33" customHeight="1">
       <c r="A10" s="260" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B10" s="260" t="s">
         <v>1</v>
@@ -6705,10 +6702,10 @@
         <v>3</v>
       </c>
       <c r="D10" s="260" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E10" s="257" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F10" s="258"/>
       <c r="G10" s="259"/>
@@ -6716,26 +6713,26 @@
         <v>30</v>
       </c>
       <c r="I10" s="262" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J10" s="263"/>
       <c r="K10" s="257" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L10" s="259"/>
       <c r="M10" s="257" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N10" s="259"/>
       <c r="O10" s="100" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P10" s="253" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Q10" s="253"/>
       <c r="R10" s="214" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="33" customHeight="1">
@@ -6744,32 +6741,32 @@
       <c r="C11" s="261"/>
       <c r="D11" s="261"/>
       <c r="E11" s="103" t="s">
+        <v>237</v>
+      </c>
+      <c r="F11" s="103" t="s">
         <v>238</v>
       </c>
-      <c r="F11" s="103" t="s">
+      <c r="G11" s="103" t="s">
         <v>239</v>
-      </c>
-      <c r="G11" s="103" t="s">
-        <v>240</v>
       </c>
       <c r="H11" s="261"/>
       <c r="I11" s="101" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J11" s="101" t="s">
         <v>23</v>
       </c>
       <c r="K11" s="100" t="s">
+        <v>241</v>
+      </c>
+      <c r="L11" s="101" t="s">
         <v>242</v>
       </c>
-      <c r="L11" s="101" t="s">
-        <v>243</v>
-      </c>
       <c r="M11" s="100" t="s">
+        <v>141</v>
+      </c>
+      <c r="N11" s="100" t="s">
         <v>142</v>
-      </c>
-      <c r="N11" s="100" t="s">
-        <v>143</v>
       </c>
       <c r="O11" s="100"/>
       <c r="P11" s="102" t="s">
@@ -6782,48 +6779,48 @@
     </row>
     <row r="12" spans="1:18" ht="107.25" customHeight="1">
       <c r="A12" s="60" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B12" s="56" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C12" s="60" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D12" s="56" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E12" s="60" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F12" s="60" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G12" s="60"/>
       <c r="H12" s="60"/>
       <c r="I12" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J12" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="M12" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="N12" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="K12" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="M12" s="50" t="s">
-        <v>133</v>
-      </c>
-      <c r="N12" s="50" t="s">
-        <v>132</v>
-      </c>
       <c r="O12" s="50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P12" s="107" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q12" s="11" t="s">
         <v>24</v>
@@ -6832,32 +6829,32 @@
     </row>
     <row r="13" spans="1:18" ht="47.25" customHeight="1">
       <c r="A13" s="15" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B13" s="106" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D13" s="56"/>
       <c r="E13" s="60" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F13" s="60"/>
       <c r="G13" s="60" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H13" s="15"/>
       <c r="I13" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J13" s="15"/>
       <c r="K13" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="15"/>
@@ -6888,7 +6885,7 @@
     </row>
     <row r="15" spans="1:18" ht="18" customHeight="1">
       <c r="A15" s="254" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15" s="255"/>
       <c r="C15" s="255"/>
@@ -6909,7 +6906,7 @@
     </row>
     <row r="16" spans="1:18" ht="33" customHeight="1">
       <c r="A16" s="260" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B16" s="260" t="s">
         <v>1</v>
@@ -6918,10 +6915,10 @@
         <v>3</v>
       </c>
       <c r="D16" s="260" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E16" s="257" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F16" s="258"/>
       <c r="G16" s="259"/>
@@ -6929,26 +6926,26 @@
         <v>30</v>
       </c>
       <c r="I16" s="262" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J16" s="263"/>
       <c r="K16" s="257" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L16" s="259"/>
       <c r="M16" s="257" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N16" s="259"/>
       <c r="O16" s="100" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P16" s="253" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Q16" s="253"/>
       <c r="R16" s="214" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="33" customHeight="1">
@@ -6957,32 +6954,32 @@
       <c r="C17" s="261"/>
       <c r="D17" s="261"/>
       <c r="E17" s="103" t="s">
+        <v>237</v>
+      </c>
+      <c r="F17" s="103" t="s">
         <v>238</v>
       </c>
-      <c r="F17" s="103" t="s">
+      <c r="G17" s="103" t="s">
         <v>239</v>
-      </c>
-      <c r="G17" s="103" t="s">
-        <v>240</v>
       </c>
       <c r="H17" s="261"/>
       <c r="I17" s="101" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J17" s="101" t="s">
         <v>23</v>
       </c>
       <c r="K17" s="100" t="s">
+        <v>241</v>
+      </c>
+      <c r="L17" s="101" t="s">
         <v>242</v>
       </c>
-      <c r="L17" s="101" t="s">
-        <v>243</v>
-      </c>
       <c r="M17" s="100" t="s">
+        <v>141</v>
+      </c>
+      <c r="N17" s="100" t="s">
         <v>142</v>
-      </c>
-      <c r="N17" s="100" t="s">
-        <v>143</v>
       </c>
       <c r="O17" s="100"/>
       <c r="P17" s="102" t="s">
@@ -6995,7 +6992,7 @@
     </row>
     <row r="18" spans="1:18" ht="21" customHeight="1">
       <c r="A18" s="60" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B18" s="56"/>
       <c r="C18" s="57"/>
@@ -7017,7 +7014,7 @@
     </row>
     <row r="19" spans="1:18" ht="21" customHeight="1">
       <c r="A19" s="60" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B19" s="56"/>
       <c r="C19" s="57"/>
@@ -7039,7 +7036,7 @@
     </row>
     <row r="20" spans="1:18" ht="21" customHeight="1">
       <c r="A20" s="60" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B20" s="56"/>
       <c r="C20" s="57"/>
@@ -7061,7 +7058,7 @@
     </row>
     <row r="21" spans="1:18" ht="21" customHeight="1">
       <c r="A21" s="60" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B21" s="56"/>
       <c r="C21" s="57"/>
@@ -7157,7 +7154,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="23.25">
@@ -7177,7 +7174,7 @@
     </row>
     <row r="4" spans="1:10" ht="23.25">
       <c r="A4" s="176" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B4" s="176"/>
       <c r="C4" s="176"/>
@@ -7191,23 +7188,23 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
       <c r="A8" s="40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="16.5" customHeight="1"/>
     <row r="10" spans="1:10" ht="16.5" customHeight="1">
       <c r="A10" s="267" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B10" s="267"/>
       <c r="C10" s="267"/>
@@ -7221,12 +7218,12 @@
     </row>
     <row r="11" spans="1:10" ht="16.5" customHeight="1">
       <c r="A11" s="268" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" s="268"/>
       <c r="C11" s="268"/>
       <c r="D11" s="269" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E11" s="269"/>
       <c r="F11" s="269"/>
@@ -7246,16 +7243,16 @@
         <v>27</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>25</v>
@@ -7264,36 +7261,36 @@
         <v>26</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="48.75" customHeight="1">
       <c r="A13" s="59" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B13" s="59" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C13" s="59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D13" s="13">
         <v>1</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H13" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="I13" s="11" t="s">
         <v>135</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>136</v>
       </c>
       <c r="J13" s="12">
         <v>2</v>
@@ -7307,22 +7304,22 @@
         <v>2</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16.5" customHeight="1">
@@ -7339,13 +7336,13 @@
         <v>29</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F15" s="44" t="s">
         <v>28</v>
       </c>
       <c r="G15" s="44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H15" s="44" t="s">
         <v>25</v>
@@ -7354,25 +7351,25 @@
         <v>26</v>
       </c>
       <c r="J15" s="44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16.5" customHeight="1">
       <c r="A16" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="59" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>94</v>
-      </c>
-      <c r="B16" s="59" t="s">
-        <v>114</v>
-      </c>
-      <c r="C16" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>95</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
@@ -7384,11 +7381,11 @@
       <c r="B17" s="265"/>
       <c r="C17" s="266"/>
       <c r="D17" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
@@ -7449,7 +7446,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="23.25">
@@ -7469,7 +7466,7 @@
     </row>
     <row r="4" spans="1:10" ht="23.25">
       <c r="A4" s="176" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B4" s="176"/>
       <c r="C4" s="176"/>
@@ -7483,23 +7480,23 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
       <c r="A8" s="40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="16.5" customHeight="1"/>
     <row r="10" spans="1:10" ht="16.5" customHeight="1">
       <c r="A10" s="267" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B10" s="267"/>
       <c r="C10" s="267"/>
@@ -7513,12 +7510,12 @@
     </row>
     <row r="11" spans="1:10" ht="16.5" customHeight="1">
       <c r="A11" s="268" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" s="268"/>
       <c r="C11" s="268"/>
       <c r="D11" s="269" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E11" s="269"/>
       <c r="F11" s="269"/>
@@ -7538,16 +7535,16 @@
         <v>27</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>25</v>
@@ -7556,36 +7553,36 @@
         <v>26</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="48.75" customHeight="1">
       <c r="A13" s="54" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B13" s="54" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C13" s="54" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D13" s="13">
         <v>1</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H13" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="I13" s="11" t="s">
         <v>135</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>136</v>
       </c>
       <c r="J13" s="12">
         <v>2</v>
@@ -7599,22 +7596,22 @@
         <v>2</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16.5" customHeight="1">
@@ -7631,13 +7628,13 @@
         <v>29</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F15" s="44" t="s">
         <v>28</v>
       </c>
       <c r="G15" s="44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H15" s="44" t="s">
         <v>25</v>
@@ -7646,25 +7643,25 @@
         <v>26</v>
       </c>
       <c r="J15" s="44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16.5" customHeight="1">
       <c r="A16" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>94</v>
-      </c>
-      <c r="B16" s="54" t="s">
-        <v>114</v>
-      </c>
-      <c r="C16" s="54" t="s">
-        <v>100</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>95</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
@@ -7676,11 +7673,11 @@
       <c r="B17" s="265"/>
       <c r="C17" s="266"/>
       <c r="D17" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
@@ -7720,8 +7717,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:M86"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F32" sqref="B32:F32"/>
+    <sheetView topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7737,7 +7734,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="23.25" customHeight="1">
@@ -7747,24 +7744,24 @@
       </c>
       <c r="B3" s="48"/>
       <c r="C3" s="163" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D3" s="164"/>
       <c r="E3" s="164"/>
       <c r="F3" s="165"/>
       <c r="H3" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>394</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="23.25">
       <c r="A4" s="74" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B4" s="74"/>
       <c r="C4" s="166"/>
@@ -7774,7 +7771,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="17" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B6" s="27"/>
       <c r="C6" s="27"/>
@@ -7786,80 +7783,80 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>479</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>476</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="H7" s="18" t="s">
         <v>478</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>480</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>477</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>481</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="D8" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>482</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>484</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="18" t="s">
         <v>487</v>
       </c>
-      <c r="G8" s="18" t="s">
-        <v>488</v>
-      </c>
       <c r="H8" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>782</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="F9" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>779</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>798</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>783</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>784</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>785</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="27.75" customHeight="1">
@@ -7874,7 +7871,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="17" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
@@ -7886,19 +7883,19 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>801</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="E12" s="2" t="s">
         <v>802</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>803</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="18"/>
@@ -7909,16 +7906,16 @@
         <v>49</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>799</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>800</v>
-      </c>
       <c r="D13" s="18" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="18"/>
@@ -7926,13 +7923,13 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>836</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>837</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -7942,16 +7939,16 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>836</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>837</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>838</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -7960,25 +7957,25 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B16" s="18" t="s">
+        <v>830</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>831</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>832</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>833</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>834</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>835</v>
-      </c>
       <c r="G16" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H16" s="2"/>
     </row>
@@ -7996,28 +7993,28 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>805</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>806</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>807</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="18" t="s">
         <v>808</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="H19" s="18" t="s">
         <v>809</v>
-      </c>
-      <c r="H19" s="18" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -8025,16 +8022,16 @@
         <v>43</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>811</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>812</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>813</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>814</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -8088,22 +8085,22 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="C26" s="18" t="s">
         <v>816</v>
       </c>
-      <c r="C26" s="18" t="s">
-        <v>817</v>
-      </c>
       <c r="D26" s="18" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -8117,45 +8114,45 @@
         <v>49</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F27" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>824</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>825</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="I27" s="2" t="s">
         <v>826</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="J27" s="2" t="s">
         <v>827</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="K27" s="2" t="s">
         <v>828</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="L27" s="18" t="s">
         <v>829</v>
-      </c>
-      <c r="L27" s="18" t="s">
-        <v>830</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="2"/>
@@ -8183,48 +8180,48 @@
         <v>50</v>
       </c>
       <c r="B31" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="E31" s="22" t="s">
         <v>260</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>259</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>261</v>
       </c>
       <c r="F31" s="22"/>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B32" s="12" t="s">
+        <v>838</v>
+      </c>
+      <c r="C32" s="12" t="s">
         <v>839</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="D32" s="12" t="s">
         <v>840</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="E32" s="12" t="s">
         <v>841</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="F32" s="12" t="s">
         <v>842</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B33" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="12" t="s">
         <v>54</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>55</v>
       </c>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
@@ -8248,20 +8245,20 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B38" s="87"/>
       <c r="C38" s="88"/>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -8301,22 +8298,22 @@
         <v>10</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="F42" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="G42" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>18</v>
@@ -8331,10 +8328,10 @@
         <v>14</v>
       </c>
       <c r="L42" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -8348,13 +8345,13 @@
         <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
@@ -8366,7 +8363,7 @@
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B45" s="32"/>
       <c r="C45" s="33"/>
@@ -8377,30 +8374,30 @@
         <v>8</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C46" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="D46" s="22" t="s">
         <v>152</v>
-      </c>
-      <c r="D46" s="22" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="C47" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D47" s="2"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B49" s="173"/>
       <c r="C49" s="174"/>
@@ -8416,25 +8413,25 @@
         <v>8</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="D50" t="s">
         <v>161</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>162</v>
-      </c>
-      <c r="E50" t="s">
-        <v>163</v>
       </c>
       <c r="F50" t="s">
         <v>24</v>
       </c>
       <c r="G50" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H50" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -8442,10 +8439,10 @@
         <v>27</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -8455,7 +8452,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B54" s="159"/>
       <c r="C54" s="160"/>
@@ -8469,27 +8466,27 @@
         <v>8</v>
       </c>
       <c r="B55" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="C55" s="52" t="s">
+      <c r="D55" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="D55" s="52" t="s">
+      <c r="E55" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="E55" s="52" t="s">
-        <v>110</v>
-      </c>
       <c r="F55" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="G55" s="52" t="s">
         <v>115</v>
-      </c>
-      <c r="G55" s="52" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B57" s="161"/>
       <c r="C57" s="162"/>
@@ -8501,13 +8498,13 @@
         <v>8</v>
       </c>
       <c r="B58" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="C58" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="C58" s="52" t="s">
+      <c r="D58" s="52" t="s">
         <v>113</v>
-      </c>
-      <c r="D58" s="52" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -8626,7 +8623,7 @@
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B71" s="32"/>
       <c r="C71" s="33"/>
@@ -8636,23 +8633,23 @@
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B72" s="12" t="s">
         <v>51</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E72" s="12"/>
       <c r="F72" s="12"/>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B74" s="32"/>
       <c r="C74" s="33"/>
@@ -8670,58 +8667,58 @@
         <v>8</v>
       </c>
       <c r="B75" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C75" s="22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D75" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E75" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="F75" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="F75" s="22" t="s">
+      <c r="G75" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="G75" s="22" t="s">
+      <c r="H75" s="22" t="s">
         <v>234</v>
-      </c>
-      <c r="H75" s="22" t="s">
-        <v>235</v>
       </c>
       <c r="I75" s="22"/>
       <c r="J75" s="22" t="s">
         <v>24</v>
       </c>
       <c r="K75" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B76" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="C76" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="C76" s="22" t="s">
-        <v>231</v>
-      </c>
       <c r="D76" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="E76" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="E76" s="22" t="s">
+      <c r="F76" s="22" t="s">
         <v>227</v>
-      </c>
-      <c r="F76" s="22" t="s">
-        <v>228</v>
       </c>
       <c r="G76" s="22" t="s">
         <v>24</v>
       </c>
       <c r="H76" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I76" s="22"/>
       <c r="J76" s="22"/>
@@ -8729,28 +8726,28 @@
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B77" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="C77" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="C77" s="22" t="s">
+      <c r="D77" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="D77" s="22" t="s">
+      <c r="E77" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="E77" s="22" t="s">
-        <v>174</v>
-      </c>
       <c r="F77" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G77" s="22" t="s">
         <v>24</v>
       </c>
       <c r="H77" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I77" s="22"/>
       <c r="J77" s="22"/>
@@ -8758,25 +8755,25 @@
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B78" s="12" t="s">
         <v>51</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F78" s="12"/>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B80" s="32"/>
       <c r="C80" s="33"/>
@@ -8791,59 +8788,59 @@
         <v>8</v>
       </c>
       <c r="B81" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="C81" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="C81" s="22" t="s">
-        <v>168</v>
-      </c>
       <c r="D81" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="E81" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="E81" s="22" t="s">
+      <c r="F81" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="F81" s="22" t="s">
+      <c r="G81" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="G81" s="22" t="s">
-        <v>225</v>
-      </c>
       <c r="H81" s="22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B82" s="12" t="s">
         <v>51</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E82" s="12"/>
       <c r="F82" s="12"/>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B85" s="32"/>
       <c r="C85" s="33"/>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="B86" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="B86" s="22" t="s">
+      <c r="C86" s="22" t="s">
         <v>253</v>
-      </c>
-      <c r="C86" s="22" t="s">
-        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -8888,7 +8885,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="7.5" customHeight="1">
@@ -8913,7 +8910,7 @@
     </row>
     <row r="4" spans="1:12" ht="23.25">
       <c r="A4" s="176" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B4" s="176"/>
       <c r="C4" s="176"/>
@@ -8940,15 +8937,15 @@
       <c r="C6" s="183"/>
       <c r="D6" s="184"/>
       <c r="E6" s="185" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F6" s="185"/>
       <c r="G6" s="185" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H6" s="185"/>
       <c r="I6" s="181" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J6" s="181"/>
       <c r="K6" s="181"/>
@@ -8956,54 +8953,54 @@
     </row>
     <row r="7" spans="1:12" ht="31.5">
       <c r="A7" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B7" s="26" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E7" s="26" t="s">
+        <v>491</v>
+      </c>
+      <c r="F7" s="26" t="s">
         <v>492</v>
       </c>
-      <c r="F7" s="26" t="s">
-        <v>493</v>
-      </c>
       <c r="G7" s="26" t="s">
+        <v>491</v>
+      </c>
+      <c r="H7" s="26" t="s">
         <v>492</v>
       </c>
-      <c r="H7" s="26" t="s">
-        <v>493</v>
-      </c>
       <c r="I7" s="26" t="s">
+        <v>495</v>
+      </c>
+      <c r="J7" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="J7" s="26" t="s">
+      <c r="K7" s="26" t="s">
         <v>497</v>
       </c>
-      <c r="K7" s="26" t="s">
-        <v>498</v>
-      </c>
       <c r="L7" s="152" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="33.75" customHeight="1">
       <c r="A8" s="11" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E8" s="134">
         <v>42339</v>
@@ -9016,22 +9013,22 @@
       </c>
       <c r="H8" s="134"/>
       <c r="I8" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J8" s="14" t="s">
+        <v>498</v>
+      </c>
+      <c r="K8" s="14" t="s">
         <v>499</v>
       </c>
-      <c r="K8" s="14" t="s">
-        <v>500</v>
-      </c>
       <c r="L8" s="14" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="46.5" customHeight="1"/>
     <row r="10" spans="1:12" ht="21" customHeight="1">
       <c r="A10" s="177" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B10" s="178"/>
       <c r="C10" s="178"/>
@@ -9047,7 +9044,7 @@
     </row>
     <row r="11" spans="1:12" ht="94.5" customHeight="1">
       <c r="A11" s="179" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B11" s="180"/>
       <c r="C11" s="180"/>
@@ -9063,7 +9060,7 @@
     </row>
     <row r="14" spans="1:12" ht="21" customHeight="1">
       <c r="A14" s="177" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B14" s="178"/>
       <c r="C14" s="178"/>
@@ -9079,7 +9076,7 @@
     </row>
     <row r="15" spans="1:12" ht="249.75" customHeight="1">
       <c r="A15" s="179" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B15" s="180"/>
       <c r="C15" s="180"/>
@@ -9146,7 +9143,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="7.5" customHeight="1">
@@ -9166,7 +9163,7 @@
     </row>
     <row r="4" spans="1:7" ht="23.25">
       <c r="A4" s="176" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B4" s="176"/>
       <c r="C4" s="176"/>
@@ -9180,7 +9177,7 @@
     </row>
     <row r="6" spans="1:7" ht="31.5">
       <c r="A6" s="79" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B6" s="79" t="s">
         <v>1</v>
@@ -9189,57 +9186,57 @@
         <v>3</v>
       </c>
       <c r="D6" s="79" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E6" s="79" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F6" s="79" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G6" s="79" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="81" customHeight="1">
       <c r="A7" s="114" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B7" s="115" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C7" s="115" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D7" s="116" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="118" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F7" s="116" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="G7" s="116"/>
     </row>
     <row r="8" spans="1:7" ht="30">
       <c r="A8" s="11" t="s">
+        <v>708</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>709</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>710</v>
-      </c>
       <c r="C8" s="11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F8" s="42" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="G8" s="11" t="str">
         <f t="shared" ref="G8:G13" si="0">$A$7</f>
@@ -9248,22 +9245,22 @@
     </row>
     <row r="9" spans="1:7" ht="30">
       <c r="A9" s="11" t="s">
+        <v>698</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>699</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>700</v>
-      </c>
       <c r="C9" s="11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F9" s="42" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="G9" s="11" t="str">
         <f t="shared" si="0"/>
@@ -9272,22 +9269,22 @@
     </row>
     <row r="10" spans="1:7" ht="30">
       <c r="A10" s="11" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>406</v>
-      </c>
       <c r="D10" s="42" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E10" s="42" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F10" s="42" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="G10" s="11" t="str">
         <f t="shared" si="0"/>
@@ -9296,22 +9293,22 @@
     </row>
     <row r="11" spans="1:7" ht="30">
       <c r="A11" s="11" t="s">
+        <v>700</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>701</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="C11" s="11" t="s">
         <v>702</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>703</v>
-      </c>
       <c r="D11" s="42" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E11" s="42" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F11" s="42" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="G11" s="11" t="str">
         <f t="shared" si="0"/>
@@ -9320,22 +9317,22 @@
     </row>
     <row r="12" spans="1:7" ht="30">
       <c r="A12" s="11" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F12" s="42" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="G12" s="11" t="str">
         <f t="shared" si="0"/>
@@ -9344,22 +9341,22 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="11" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>410</v>
-      </c>
       <c r="D13" s="42" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F13" s="42" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="G13" s="11" t="str">
         <f t="shared" si="0"/>
@@ -9368,43 +9365,43 @@
     </row>
     <row r="14" spans="1:7" ht="90">
       <c r="A14" s="117" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B14" s="117" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C14" s="117" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D14" s="118" t="s">
         <v>22</v>
       </c>
       <c r="E14" s="118" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F14" s="118" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="G14" s="118"/>
     </row>
     <row r="15" spans="1:7" ht="30">
       <c r="A15" s="11" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E15" s="42" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F15" s="42" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="G15" s="11" t="str">
         <f>$A$14</f>
@@ -9413,22 +9410,22 @@
     </row>
     <row r="16" spans="1:7" ht="30">
       <c r="A16" s="11" t="s">
+        <v>703</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>704</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>705</v>
-      </c>
       <c r="C16" s="11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E16" s="42" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F16" s="42" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="G16" s="11" t="str">
         <f t="shared" ref="G16:G17" si="1">$A$14</f>
@@ -9437,22 +9434,22 @@
     </row>
     <row r="17" spans="1:7" ht="30">
       <c r="A17" s="11" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B17" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>410</v>
-      </c>
       <c r="D17" s="42" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F17" s="42" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="G17" s="11" t="str">
         <f t="shared" si="1"/>
@@ -9461,43 +9458,43 @@
     </row>
     <row r="18" spans="1:7" ht="135">
       <c r="A18" s="119" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B18" s="117" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C18" s="117" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D18" s="118" t="s">
         <v>22</v>
       </c>
       <c r="E18" s="118" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F18" s="118" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="G18" s="118"/>
     </row>
     <row r="19" spans="1:7" ht="30">
       <c r="A19" s="11" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F19" s="42" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="G19" s="11" t="str">
         <f>$A$18</f>
@@ -9506,22 +9503,22 @@
     </row>
     <row r="20" spans="1:7" ht="30">
       <c r="A20" s="11" t="s">
+        <v>705</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>706</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>707</v>
-      </c>
       <c r="C20" s="11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D20" s="42" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F20" s="42" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="G20" s="11" t="str">
         <f>$A$18</f>
@@ -9530,7 +9527,7 @@
     </row>
     <row r="21" spans="1:7" ht="43.5" customHeight="1">
       <c r="A21" s="186" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B21" s="187"/>
       <c r="C21" s="187"/>
@@ -9541,64 +9538,64 @@
     </row>
     <row r="22" spans="1:7" ht="45">
       <c r="A22" s="10" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B22" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>400</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>401</v>
       </c>
       <c r="D22" s="42" t="s">
         <v>22</v>
       </c>
       <c r="E22" s="42" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F22" s="42" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="G22" s="42"/>
     </row>
     <row r="23" spans="1:7" ht="75">
       <c r="A23" s="10" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B23" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>402</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>403</v>
       </c>
       <c r="D23" s="42" t="s">
         <v>22</v>
       </c>
       <c r="E23" s="42" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F23" s="42" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="G23" s="42"/>
     </row>
     <row r="24" spans="1:7" ht="30">
       <c r="A24" s="25" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B24" s="25" t="s">
+        <v>420</v>
+      </c>
+      <c r="C24" s="25" t="s">
         <v>421</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>422</v>
       </c>
       <c r="D24" s="42" t="s">
         <v>22</v>
       </c>
       <c r="E24" s="42" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F24" s="42" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="G24" s="25"/>
     </row>
@@ -9644,7 +9641,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="7.5" customHeight="1">
@@ -9662,7 +9659,7 @@
     </row>
     <row r="4" spans="1:5" ht="23.25">
       <c r="A4" s="176" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B4" s="176"/>
       <c r="C4" s="176"/>
@@ -9674,14 +9671,14 @@
     </row>
     <row r="6" spans="1:5" ht="31.5" customHeight="1">
       <c r="A6" s="191" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B6" s="192"/>
       <c r="C6" s="189" t="s">
+        <v>425</v>
+      </c>
+      <c r="D6" s="189" t="s">
         <v>426</v>
-      </c>
-      <c r="D6" s="189" t="s">
-        <v>427</v>
       </c>
       <c r="E6" s="189" t="s">
         <v>3</v>
@@ -9689,10 +9686,10 @@
     </row>
     <row r="7" spans="1:5" ht="15.75">
       <c r="A7" s="79" t="s">
+        <v>423</v>
+      </c>
+      <c r="B7" s="79" t="s">
         <v>424</v>
-      </c>
-      <c r="B7" s="79" t="s">
-        <v>425</v>
       </c>
       <c r="C7" s="190"/>
       <c r="D7" s="190"/>
@@ -9708,13 +9705,13 @@
         <v>S.SIOP-Del</v>
       </c>
       <c r="C8" s="123" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D8" s="123" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E8" s="122" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="49" customFormat="1" ht="30">
@@ -9727,13 +9724,13 @@
         <v>S.SIOP-Mala</v>
       </c>
       <c r="C9" s="123" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D9" s="123" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E9" s="122" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="49" customFormat="1">
@@ -9746,13 +9743,13 @@
         <v>S.SAP-FI</v>
       </c>
       <c r="C10" s="123" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D10" s="123" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E10" s="121" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="49" customFormat="1" ht="30">
@@ -9765,13 +9762,13 @@
         <v>S.VisionBox</v>
       </c>
       <c r="C11" s="123" t="s">
+        <v>834</v>
+      </c>
+      <c r="D11" s="123" t="s">
         <v>835</v>
       </c>
-      <c r="D11" s="123" t="s">
-        <v>836</v>
-      </c>
       <c r="E11" s="121" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="49" customFormat="1">
@@ -9784,13 +9781,13 @@
         <v>S.SI-Legados</v>
       </c>
       <c r="C12" s="123" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D12" s="123" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E12" s="121" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="49" customFormat="1" ht="30">
@@ -9803,13 +9800,13 @@
         <v>S.VisionBox</v>
       </c>
       <c r="C13" s="123" t="s">
+        <v>834</v>
+      </c>
+      <c r="D13" s="123" t="s">
         <v>835</v>
       </c>
-      <c r="D13" s="123" t="s">
-        <v>836</v>
-      </c>
       <c r="E13" s="121" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="49" customFormat="1" ht="30">
@@ -9822,13 +9819,13 @@
         <v>S.VisionBox</v>
       </c>
       <c r="C14" s="123" t="s">
+        <v>834</v>
+      </c>
+      <c r="D14" s="123" t="s">
         <v>835</v>
       </c>
-      <c r="D14" s="123" t="s">
-        <v>836</v>
-      </c>
       <c r="E14" s="121" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="49" customFormat="1">
@@ -9889,7 +9886,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="23.25">
       <c r="A1" s="41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -9911,7 +9908,7 @@
     </row>
     <row r="3" spans="1:8" ht="23.25">
       <c r="A3" s="176" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B3" s="176"/>
       <c r="C3" s="176"/>
@@ -9924,7 +9921,7 @@
     <row r="4" spans="1:8" ht="45.75" customHeight="1"/>
     <row r="5" spans="1:8">
       <c r="A5" s="125" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B5" s="126" t="s">
         <v>1</v>
@@ -9933,24 +9930,24 @@
         <v>3</v>
       </c>
       <c r="D5" s="125" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E5" s="125" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F5" s="125" t="s">
+        <v>445</v>
+      </c>
+      <c r="G5" s="125" t="s">
+        <v>341</v>
+      </c>
+      <c r="H5" s="125" t="s">
         <v>446</v>
-      </c>
-      <c r="G5" s="125" t="s">
-        <v>342</v>
-      </c>
-      <c r="H5" s="125" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="27.75" customHeight="1">
       <c r="A6" s="193" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B6" s="194"/>
       <c r="C6" s="194"/>
@@ -9962,40 +9959,40 @@
     </row>
     <row r="7" spans="1:8" ht="86.25" customHeight="1">
       <c r="A7" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>273</v>
-      </c>
       <c r="C7" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="15" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:8" ht="51.75" customHeight="1">
       <c r="A8" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>264</v>
-      </c>
       <c r="C8" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="15" t="str">
@@ -10005,23 +10002,23 @@
     </row>
     <row r="9" spans="1:8" ht="66" customHeight="1">
       <c r="A9" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>266</v>
-      </c>
       <c r="C9" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="15" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H9" s="15" t="str">
         <f>A7</f>
@@ -10030,23 +10027,23 @@
     </row>
     <row r="10" spans="1:8" ht="96" customHeight="1">
       <c r="A10" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>345</v>
-      </c>
       <c r="C10" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="15" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H10" s="15" t="str">
         <f>A9</f>
@@ -10055,23 +10052,23 @@
     </row>
     <row r="11" spans="1:8" ht="90">
       <c r="A11" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="15" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H11" s="15" t="str">
         <f>A9</f>
@@ -10080,20 +10077,20 @@
     </row>
     <row r="12" spans="1:8" ht="105" customHeight="1">
       <c r="A12" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="C12" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>271</v>
-      </c>
       <c r="D12" s="15" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="15" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="15" t="str">
@@ -10103,7 +10100,7 @@
     </row>
     <row r="13" spans="1:8" ht="35.25" customHeight="1">
       <c r="A13" s="195" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B13" s="196"/>
       <c r="C13" s="196"/>
@@ -10115,102 +10112,102 @@
     </row>
     <row r="14" spans="1:8" ht="60">
       <c r="A14" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="B14" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="C14" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>292</v>
-      </c>
       <c r="D14" s="15" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:8" ht="45">
       <c r="A15" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="B15" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="C15" s="15" t="s">
         <v>334</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>335</v>
-      </c>
       <c r="D15" s="15" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="15" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
     </row>
     <row r="16" spans="1:8" ht="75">
       <c r="A16" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>336</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="C16" s="15" t="s">
         <v>337</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>338</v>
-      </c>
       <c r="D16" s="15" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E16" s="15"/>
       <c r="F16" s="15" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
     </row>
     <row r="17" spans="1:8" ht="90">
       <c r="A17" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>353</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>289</v>
-      </c>
       <c r="D17" s="15" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E17" s="15"/>
       <c r="F17" s="15" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
     </row>
     <row r="18" spans="1:8" ht="45">
       <c r="A18" s="15" t="s">
+        <v>450</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>456</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>452</v>
-      </c>
       <c r="D18" s="15" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E18" s="15"/>
       <c r="F18" s="15" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G18" s="15"/>
       <c r="H18" s="15" t="str">
@@ -10220,20 +10217,20 @@
     </row>
     <row r="19" spans="1:8" ht="30">
       <c r="A19" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>453</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>457</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>454</v>
-      </c>
       <c r="D19" s="15" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E19" s="15"/>
       <c r="F19" s="15" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G19" s="15"/>
       <c r="H19" s="15" t="str">
@@ -10243,23 +10240,23 @@
     </row>
     <row r="20" spans="1:8" ht="83.25" customHeight="1">
       <c r="A20" s="15" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="15" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H20" s="15" t="str">
         <f>A18</f>
@@ -10268,20 +10265,20 @@
     </row>
     <row r="21" spans="1:8" ht="45">
       <c r="A21" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E21" s="15"/>
       <c r="F21" s="15" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="15" t="str">
@@ -10291,23 +10288,23 @@
     </row>
     <row r="22" spans="1:8" ht="60">
       <c r="A22" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="C22" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="B22" s="15" t="s">
-        <v>461</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>277</v>
-      </c>
       <c r="D22" s="15" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E22" s="15"/>
       <c r="F22" s="15" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H22" s="15" t="str">
         <f>A19</f>
@@ -10316,23 +10313,23 @@
     </row>
     <row r="23" spans="1:8" ht="60">
       <c r="A23" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="C23" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="B23" s="15" t="s">
-        <v>463</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>279</v>
-      </c>
       <c r="D23" s="15" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E23" s="15"/>
       <c r="F23" s="15" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H23" s="15" t="str">
         <f>A19</f>
@@ -10341,23 +10338,23 @@
     </row>
     <row r="24" spans="1:8" ht="75">
       <c r="A24" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>463</v>
+      </c>
+      <c r="C24" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="B24" s="15" t="s">
-        <v>464</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>281</v>
-      </c>
       <c r="D24" s="15" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E24" s="15"/>
       <c r="F24" s="15" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H24" s="15" t="str">
         <f>A19</f>
@@ -10366,20 +10363,20 @@
     </row>
     <row r="25" spans="1:8" ht="75">
       <c r="A25" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="C25" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="B25" s="15" t="s">
-        <v>466</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>283</v>
-      </c>
       <c r="D25" s="15" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E25" s="15"/>
       <c r="F25" s="15" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G25" s="15"/>
       <c r="H25" s="15" t="str">
@@ -10389,23 +10386,23 @@
     </row>
     <row r="26" spans="1:8" ht="75">
       <c r="A26" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E26" s="15"/>
       <c r="F26" s="15" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H26" s="15" t="str">
         <f>A19</f>
@@ -10414,23 +10411,23 @@
     </row>
     <row r="27" spans="1:8" ht="90">
       <c r="A27" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="B27" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="C27" s="108" t="s">
         <v>286</v>
       </c>
-      <c r="C27" s="108" t="s">
-        <v>287</v>
-      </c>
       <c r="D27" s="15" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H27" s="15" t="str">
         <f>A19</f>
@@ -10439,7 +10436,7 @@
     </row>
     <row r="28" spans="1:8" ht="30.75" customHeight="1">
       <c r="A28" s="195" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B28" s="196"/>
       <c r="C28" s="196"/>
@@ -10451,138 +10448,138 @@
     </row>
     <row r="29" spans="1:8" ht="45">
       <c r="A29" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="B29" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="C29" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="C29" s="15" t="s">
-        <v>295</v>
-      </c>
       <c r="D29" s="15" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E29" s="15"/>
       <c r="F29" s="15" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
     </row>
     <row r="30" spans="1:8" ht="30">
       <c r="A30" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="B30" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="C30" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="C30" s="15" t="s">
-        <v>298</v>
-      </c>
       <c r="D30" s="15" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="15" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
     </row>
     <row r="31" spans="1:8" ht="45">
       <c r="A31" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="B31" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="C31" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="C31" s="15" t="s">
-        <v>301</v>
-      </c>
       <c r="D31" s="15" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E31" s="15"/>
       <c r="F31" s="15" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
     </row>
     <row r="32" spans="1:8" ht="30">
       <c r="A32" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="B32" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="C32" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="C32" s="15" t="s">
-        <v>304</v>
-      </c>
       <c r="D32" s="15" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="15" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
     </row>
     <row r="33" spans="1:8" ht="45">
       <c r="A33" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="B33" s="15" t="s">
         <v>305</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="C33" s="15" t="s">
         <v>306</v>
       </c>
-      <c r="C33" s="15" t="s">
-        <v>307</v>
-      </c>
       <c r="D33" s="15" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E33" s="15"/>
       <c r="F33" s="15" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
     </row>
     <row r="34" spans="1:8" ht="30">
       <c r="A34" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="C34" s="15" t="s">
         <v>428</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>429</v>
       </c>
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
       <c r="F34" s="15" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
     </row>
     <row r="35" spans="1:8" ht="112.5" customHeight="1">
       <c r="A35" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="B35" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="B35" s="15" t="s">
-        <v>309</v>
-      </c>
       <c r="C35" s="109" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E35" s="15"/>
       <c r="F35" s="15" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G35" s="15"/>
       <c r="H35" s="15" t="str">
@@ -10592,20 +10589,20 @@
     </row>
     <row r="36" spans="1:8" ht="30">
       <c r="A36" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B36" s="15" t="s">
         <v>310</v>
       </c>
-      <c r="B36" s="15" t="s">
-        <v>311</v>
-      </c>
       <c r="C36" s="15" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E36" s="15"/>
       <c r="F36" s="15" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G36" s="15"/>
       <c r="H36" s="15" t="str">
@@ -10615,20 +10612,20 @@
     </row>
     <row r="37" spans="1:8" ht="30">
       <c r="A37" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="B37" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="B37" s="15" t="s">
-        <v>313</v>
-      </c>
       <c r="C37" s="15" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E37" s="15"/>
       <c r="F37" s="15" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G37" s="15"/>
       <c r="H37" s="15" t="str">
@@ -10638,20 +10635,20 @@
     </row>
     <row r="38" spans="1:8" ht="45">
       <c r="A38" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="B38" s="15" t="s">
         <v>314</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="C38" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="C38" s="15" t="s">
-        <v>316</v>
-      </c>
       <c r="D38" s="15" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="15" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G38" s="15"/>
       <c r="H38" s="15" t="str">
@@ -10661,20 +10658,20 @@
     </row>
     <row r="39" spans="1:8" ht="105">
       <c r="A39" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="B39" s="15" t="s">
         <v>317</v>
       </c>
-      <c r="B39" s="15" t="s">
-        <v>318</v>
-      </c>
       <c r="C39" s="15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="15" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G39" s="15"/>
       <c r="H39" s="15" t="str">
@@ -10684,20 +10681,20 @@
     </row>
     <row r="40" spans="1:8" ht="33.75" customHeight="1">
       <c r="A40" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="B40" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="C40" s="109" t="s">
         <v>320</v>
       </c>
-      <c r="C40" s="109" t="s">
-        <v>321</v>
-      </c>
       <c r="D40" s="15" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E40" s="15"/>
       <c r="F40" s="15" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G40" s="15"/>
       <c r="H40" s="15" t="str">
@@ -10707,20 +10704,20 @@
     </row>
     <row r="41" spans="1:8" ht="30">
       <c r="A41" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="B41" s="15" t="s">
         <v>322</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="C41" s="109" t="s">
         <v>323</v>
       </c>
-      <c r="C41" s="109" t="s">
-        <v>324</v>
-      </c>
       <c r="D41" s="15" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E41" s="15"/>
       <c r="F41" s="15" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G41" s="15"/>
       <c r="H41" s="15" t="str">
@@ -10730,20 +10727,20 @@
     </row>
     <row r="42" spans="1:8" ht="60">
       <c r="A42" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="B42" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="C42" s="109" t="s">
         <v>326</v>
       </c>
-      <c r="C42" s="109" t="s">
-        <v>327</v>
-      </c>
       <c r="D42" s="15" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E42" s="15"/>
       <c r="F42" s="15" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G42" s="15"/>
       <c r="H42" s="15" t="str">
@@ -10753,60 +10750,60 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="B43" s="15" t="s">
         <v>329</v>
       </c>
-      <c r="B43" s="15" t="s">
-        <v>330</v>
-      </c>
       <c r="C43" s="15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E43" s="15"/>
       <c r="F43" s="15" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G43" s="15"/>
       <c r="H43" s="15"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="B44" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="B44" s="15" t="s">
-        <v>332</v>
-      </c>
       <c r="C44" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E44" s="15"/>
       <c r="F44" s="15" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G44" s="15"/>
       <c r="H44" s="15"/>
     </row>
     <row r="45" spans="1:8" ht="75">
       <c r="A45" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E45" s="15"/>
       <c r="F45" s="15" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G45" s="15"/>
       <c r="H45" s="15"/>
@@ -10870,7 +10867,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="23.25">
       <c r="A1" s="41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B1" s="4"/>
     </row>
@@ -10889,7 +10886,7 @@
     </row>
     <row r="4" spans="1:7" ht="29.25" customHeight="1">
       <c r="A4" s="176" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B4" s="176"/>
       <c r="C4" s="176"/>
@@ -10901,7 +10898,7 @@
     <row r="5" spans="1:7" ht="39" customHeight="1"/>
     <row r="6" spans="1:7" ht="18.75" customHeight="1">
       <c r="A6" s="127" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B6" s="127" t="s">
         <v>1</v>
@@ -10910,21 +10907,21 @@
         <v>3</v>
       </c>
       <c r="D6" s="127" t="s">
+        <v>182</v>
+      </c>
+      <c r="E6" s="127" t="s">
         <v>183</v>
       </c>
-      <c r="E6" s="127" t="s">
-        <v>184</v>
-      </c>
       <c r="F6" s="127" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G6" s="127" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="29.25" customHeight="1">
       <c r="A7" s="195" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B7" s="196"/>
       <c r="C7" s="196"/>
@@ -10935,57 +10932,57 @@
     </row>
     <row r="8" spans="1:7" ht="30.75" customHeight="1">
       <c r="A8" s="15" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
     <row r="9" spans="1:7" ht="23.25" customHeight="1">
       <c r="A9" s="15" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B9" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>358</v>
-      </c>
       <c r="D9" s="15" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
     <row r="10" spans="1:7" ht="51" customHeight="1">
       <c r="A10" s="15" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F10" s="15" t="str">
         <f>A9</f>
@@ -10995,19 +10992,19 @@
     </row>
     <row r="11" spans="1:7" ht="51" customHeight="1">
       <c r="A11" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F11" s="15" t="str">
         <f>A10</f>
@@ -11017,19 +11014,19 @@
     </row>
     <row r="12" spans="1:7" ht="53.25" customHeight="1">
       <c r="A12" s="15" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F12" s="15" t="str">
         <f>A10</f>
@@ -11039,19 +11036,19 @@
     </row>
     <row r="13" spans="1:7" ht="57.75" customHeight="1">
       <c r="A13" s="15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F13" s="15" t="str">
         <f>A9</f>
@@ -11061,7 +11058,7 @@
     </row>
     <row r="14" spans="1:7" ht="29.25" customHeight="1">
       <c r="A14" s="195" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B14" s="196"/>
       <c r="C14" s="196"/>
@@ -11072,38 +11069,38 @@
     </row>
     <row r="15" spans="1:7" ht="22.5" customHeight="1">
       <c r="A15" s="12" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="12" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F16" s="25" t="str">
         <f>A15</f>
@@ -11113,19 +11110,19 @@
     </row>
     <row r="17" spans="1:7" ht="30">
       <c r="A17" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B17" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>361</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>362</v>
-      </c>
       <c r="D17" s="15" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F17" s="25" t="str">
         <f>A16</f>
@@ -11135,19 +11132,19 @@
     </row>
     <row r="18" spans="1:7" ht="30">
       <c r="A18" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B18" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>363</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>364</v>
-      </c>
       <c r="D18" s="15" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F18" s="25" t="str">
         <f>A16</f>
@@ -11157,19 +11154,19 @@
     </row>
     <row r="19" spans="1:7" ht="30">
       <c r="A19" s="12" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B19" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>366</v>
-      </c>
       <c r="D19" s="15" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F19" s="25" t="str">
         <f>A16</f>
@@ -11179,19 +11176,19 @@
     </row>
     <row r="20" spans="1:7" ht="30">
       <c r="A20" s="12" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B20" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="C20" s="15" t="s">
-        <v>368</v>
-      </c>
       <c r="D20" s="15" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F20" s="25" t="str">
         <f>A16</f>
@@ -11201,19 +11198,19 @@
     </row>
     <row r="21" spans="1:7" ht="40.5" customHeight="1">
       <c r="A21" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B21" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>432</v>
       </c>
-      <c r="C21" s="15" t="s">
-        <v>433</v>
-      </c>
       <c r="D21" s="15" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F21" s="25" t="str">
         <f>A16</f>
@@ -11223,19 +11220,19 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="12" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F22" s="25" t="str">
         <f>A15</f>
@@ -11245,7 +11242,7 @@
     </row>
     <row r="23" spans="1:7" ht="29.25" customHeight="1">
       <c r="A23" s="195" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B23" s="196"/>
       <c r="C23" s="196"/>
@@ -11256,38 +11253,38 @@
     </row>
     <row r="24" spans="1:7" ht="31.5" customHeight="1">
       <c r="A24" s="15" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
     </row>
     <row r="25" spans="1:7" ht="26.25" customHeight="1">
       <c r="A25" s="15" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="15" t="str">
@@ -11297,19 +11294,19 @@
     </row>
     <row r="26" spans="1:7" ht="30" customHeight="1">
       <c r="A26" s="15" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F26" s="15"/>
       <c r="G26" s="15" t="str">
@@ -11319,19 +11316,19 @@
     </row>
     <row r="27" spans="1:7" ht="30.75" customHeight="1">
       <c r="A27" s="15" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F27" s="15"/>
       <c r="G27" s="15" t="str">
@@ -11341,19 +11338,19 @@
     </row>
     <row r="28" spans="1:7" ht="30.75" customHeight="1">
       <c r="A28" s="15" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F28" s="15"/>
       <c r="G28" s="15" t="str">
@@ -11363,19 +11360,19 @@
     </row>
     <row r="29" spans="1:7" ht="37.5" customHeight="1">
       <c r="A29" s="15" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F29" s="15"/>
       <c r="G29" s="15" t="str">
@@ -11385,19 +11382,19 @@
     </row>
     <row r="30" spans="1:7" ht="31.5" customHeight="1">
       <c r="A30" s="15" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="15" t="str">
@@ -11455,7 +11452,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B1" s="41"/>
     </row>
@@ -11475,7 +11472,7 @@
     </row>
     <row r="4" spans="1:14" ht="23.25">
       <c r="A4" s="176" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B4" s="176"/>
       <c r="C4" s="176"/>
@@ -11494,7 +11491,7 @@
     </row>
     <row r="7" spans="1:14" ht="18.75" customHeight="1">
       <c r="A7" s="199" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B7" s="199"/>
       <c r="C7" s="198"/>
@@ -11503,7 +11500,7 @@
     </row>
     <row r="8" spans="1:14" ht="18.75" customHeight="1">
       <c r="A8" s="200" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B8" s="200"/>
       <c r="C8" s="198"/>
@@ -11512,7 +11509,7 @@
     </row>
     <row r="9" spans="1:14" ht="18.75" customHeight="1">
       <c r="A9" s="204" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B9" s="204"/>
       <c r="C9" s="113"/>
@@ -11524,13 +11521,13 @@
     </row>
     <row r="11" spans="1:14" ht="18.75" customHeight="1">
       <c r="A11" s="201" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B11" s="202"/>
     </row>
     <row r="12" spans="1:14" ht="33.75" customHeight="1">
       <c r="A12" s="79" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B12" s="79" t="s">
         <v>1</v>
@@ -11539,24 +11536,24 @@
         <v>3</v>
       </c>
       <c r="D12" s="79" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E12" s="79" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F12" s="137" t="s">
+        <v>568</v>
+      </c>
+      <c r="G12" s="137" t="s">
         <v>569</v>
       </c>
-      <c r="G12" s="137" t="s">
-        <v>570</v>
-      </c>
       <c r="H12" s="158" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="33.75" customHeight="1">
       <c r="A13" s="203" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B13" s="203"/>
       <c r="C13" s="203"/>
@@ -11568,20 +11565,20 @@
     </row>
     <row r="14" spans="1:14" ht="50.25" customHeight="1">
       <c r="A14" s="147" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B14" s="146" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C14" s="144" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D14" s="144" t="str">
         <f>stakeholders!A$21</f>
         <v>stk.administradorsistema</v>
       </c>
       <c r="E14" s="144" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F14" s="145"/>
       <c r="G14" s="145"/>
@@ -11589,20 +11586,20 @@
     </row>
     <row r="15" spans="1:14" ht="44.25" customHeight="1">
       <c r="A15" s="140" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B15" s="140" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C15" s="140" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D15" s="140" t="str">
         <f>stakeholders!A$21</f>
         <v>stk.administradorsistema</v>
       </c>
       <c r="E15" s="140" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F15" s="141" t="str">
         <f>A14</f>
@@ -11619,20 +11616,20 @@
     </row>
     <row r="16" spans="1:14" ht="44.25" customHeight="1">
       <c r="A16" s="138" t="s">
+        <v>606</v>
+      </c>
+      <c r="B16" s="138" t="s">
         <v>607</v>
       </c>
-      <c r="B16" s="138" t="s">
-        <v>608</v>
-      </c>
       <c r="C16" s="138" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D16" s="138" t="str">
         <f>stakeholders!A$21</f>
         <v>stk.administradorsistema</v>
       </c>
       <c r="E16" s="138" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F16" s="18" t="str">
         <f>A15</f>
@@ -11649,20 +11646,20 @@
     </row>
     <row r="17" spans="1:14" ht="44.25" customHeight="1">
       <c r="A17" s="138" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B17" s="138" t="s">
+        <v>615</v>
+      </c>
+      <c r="C17" s="138" t="s">
         <v>616</v>
-      </c>
-      <c r="C17" s="138" t="s">
-        <v>617</v>
       </c>
       <c r="D17" s="138" t="str">
         <f>stakeholders!A$21</f>
         <v>stk.administradorsistema</v>
       </c>
       <c r="E17" s="138" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F17" s="18" t="str">
         <f>A15</f>
@@ -11679,20 +11676,20 @@
     </row>
     <row r="18" spans="1:14" ht="44.25" customHeight="1">
       <c r="A18" s="138" t="s">
+        <v>648</v>
+      </c>
+      <c r="B18" s="138" t="s">
         <v>649</v>
       </c>
-      <c r="B18" s="138" t="s">
-        <v>650</v>
-      </c>
       <c r="C18" s="138" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D18" s="138" t="str">
         <f>stakeholders!A$21</f>
         <v>stk.administradorsistema</v>
       </c>
       <c r="E18" s="138" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F18" s="18" t="str">
         <f>A15</f>
@@ -11700,7 +11697,7 @@
       </c>
       <c r="G18" s="18"/>
       <c r="H18" s="155" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="I18" s="23"/>
       <c r="J18" s="23"/>
@@ -11711,19 +11708,19 @@
     </row>
     <row r="19" spans="1:14" ht="44.25" customHeight="1">
       <c r="A19" s="142" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B19" s="142" t="s">
+        <v>576</v>
+      </c>
+      <c r="C19" s="142" t="s">
         <v>577</v>
       </c>
-      <c r="C19" s="142" t="s">
-        <v>578</v>
-      </c>
       <c r="D19" s="142" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E19" s="142" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F19" s="143" t="str">
         <f>A14</f>
@@ -11740,19 +11737,19 @@
     </row>
     <row r="20" spans="1:14" ht="44.25" customHeight="1">
       <c r="A20" s="138" t="s">
+        <v>578</v>
+      </c>
+      <c r="B20" s="138" t="s">
         <v>579</v>
       </c>
-      <c r="B20" s="138" t="s">
+      <c r="C20" s="138" t="s">
         <v>580</v>
       </c>
-      <c r="C20" s="138" t="s">
-        <v>581</v>
-      </c>
       <c r="D20" s="138" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E20" s="138" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F20" s="18" t="str">
         <f>A19</f>
@@ -11769,19 +11766,19 @@
     </row>
     <row r="21" spans="1:14" ht="44.25" customHeight="1">
       <c r="A21" s="138" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B21" s="138" t="s">
+        <v>582</v>
+      </c>
+      <c r="C21" s="138" t="s">
         <v>583</v>
       </c>
-      <c r="C21" s="138" t="s">
-        <v>584</v>
-      </c>
       <c r="D21" s="138" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E21" s="138" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F21" s="18" t="str">
         <f>A19</f>
@@ -11798,19 +11795,19 @@
     </row>
     <row r="22" spans="1:14" ht="44.25" customHeight="1">
       <c r="A22" s="138" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B22" s="138" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C22" s="138" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D22" s="138" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E22" s="138" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F22" s="18" t="str">
         <f>A19</f>
@@ -11827,19 +11824,19 @@
     </row>
     <row r="23" spans="1:14" ht="36" customHeight="1">
       <c r="A23" s="142" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B23" s="142" t="s">
+        <v>587</v>
+      </c>
+      <c r="C23" s="142" t="s">
         <v>588</v>
       </c>
-      <c r="C23" s="142" t="s">
-        <v>589</v>
-      </c>
       <c r="D23" s="142" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E23" s="142" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F23" s="143" t="str">
         <f>A14</f>
@@ -11847,24 +11844,24 @@
       </c>
       <c r="G23" s="143"/>
       <c r="H23" s="156" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="45" customHeight="1">
       <c r="A24" s="138" t="s">
+        <v>589</v>
+      </c>
+      <c r="B24" s="138" t="s">
         <v>590</v>
       </c>
-      <c r="B24" s="138" t="s">
+      <c r="C24" s="138" t="s">
         <v>591</v>
       </c>
-      <c r="C24" s="138" t="s">
-        <v>592</v>
-      </c>
       <c r="D24" s="138" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E24" s="138" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F24" s="18" t="str">
         <f>A23</f>
@@ -11872,24 +11869,24 @@
       </c>
       <c r="G24" s="18"/>
       <c r="H24" s="156" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="44.25" customHeight="1">
       <c r="A25" s="138" t="s">
+        <v>592</v>
+      </c>
+      <c r="B25" s="138" t="s">
         <v>593</v>
       </c>
-      <c r="B25" s="138" t="s">
+      <c r="C25" s="138" t="s">
         <v>594</v>
       </c>
-      <c r="C25" s="138" t="s">
-        <v>595</v>
-      </c>
       <c r="D25" s="138" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E25" s="138" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F25" s="18" t="str">
         <f>A23</f>
@@ -11897,24 +11894,24 @@
       </c>
       <c r="G25" s="18"/>
       <c r="H25" s="156" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="44.25" customHeight="1">
       <c r="A26" s="138" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B26" s="138" t="s">
+        <v>595</v>
+      </c>
+      <c r="C26" s="138" t="s">
         <v>596</v>
       </c>
-      <c r="C26" s="138" t="s">
-        <v>597</v>
-      </c>
       <c r="D26" s="138" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E26" s="138" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F26" s="18" t="str">
         <f>A23</f>
@@ -11922,24 +11919,24 @@
       </c>
       <c r="G26" s="18"/>
       <c r="H26" s="156" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="44.25" customHeight="1">
       <c r="A27" s="138" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B27" s="138" t="s">
+        <v>600</v>
+      </c>
+      <c r="C27" s="138" t="s">
         <v>601</v>
       </c>
-      <c r="C27" s="138" t="s">
-        <v>602</v>
-      </c>
       <c r="D27" s="138" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E27" s="138" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F27" s="18" t="str">
         <f>A24</f>
@@ -11947,24 +11944,24 @@
       </c>
       <c r="G27" s="18"/>
       <c r="H27" s="156" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="44.25" customHeight="1">
       <c r="A28" s="138" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B28" s="138" t="s">
+        <v>602</v>
+      </c>
+      <c r="C28" s="138" t="s">
         <v>603</v>
       </c>
-      <c r="C28" s="138" t="s">
-        <v>604</v>
-      </c>
       <c r="D28" s="138" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E28" s="138" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F28" s="18" t="str">
         <f>A24</f>
@@ -11972,12 +11969,12 @@
       </c>
       <c r="G28" s="18"/>
       <c r="H28" s="156" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="33.75" customHeight="1">
       <c r="A29" s="203" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B29" s="203"/>
       <c r="C29" s="203"/>
@@ -11989,19 +11986,19 @@
     </row>
     <row r="30" spans="1:14" ht="50.25" customHeight="1">
       <c r="A30" s="144" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B30" s="147" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C30" s="144" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D30" s="144" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E30" s="144" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F30" s="145"/>
       <c r="G30" s="145"/>
@@ -12009,19 +12006,19 @@
     </row>
     <row r="31" spans="1:14" ht="66.75" customHeight="1">
       <c r="A31" s="138" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B31" s="138" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C31" s="138" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D31" s="138" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E31" s="138" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F31" s="18" t="str">
         <f>A30</f>
@@ -12029,7 +12026,7 @@
       </c>
       <c r="G31" s="18"/>
       <c r="H31" s="155" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="I31" s="23"/>
       <c r="J31" s="23"/>
@@ -12040,19 +12037,19 @@
     </row>
     <row r="32" spans="1:14" ht="84.75" customHeight="1">
       <c r="A32" s="138" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B32" s="138" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C32" s="138" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D32" s="138" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E32" s="138" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F32" s="18" t="str">
         <f>A30</f>
@@ -12060,7 +12057,7 @@
       </c>
       <c r="G32" s="18"/>
       <c r="H32" s="155" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="I32" s="23"/>
       <c r="J32" s="23"/>
@@ -12071,19 +12068,19 @@
     </row>
     <row r="33" spans="1:14" ht="53.25" customHeight="1">
       <c r="A33" s="138" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B33" s="138" t="s">
+        <v>711</v>
+      </c>
+      <c r="C33" s="138" t="s">
         <v>712</v>
       </c>
-      <c r="C33" s="138" t="s">
-        <v>713</v>
-      </c>
       <c r="D33" s="138" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E33" s="138" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F33" s="18" t="str">
         <f>A30</f>
@@ -12100,19 +12097,19 @@
     </row>
     <row r="34" spans="1:14" ht="53.25" customHeight="1">
       <c r="A34" s="138" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B34" s="138" t="s">
+        <v>713</v>
+      </c>
+      <c r="C34" s="138" t="s">
         <v>714</v>
       </c>
-      <c r="C34" s="138" t="s">
-        <v>715</v>
-      </c>
       <c r="D34" s="138" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E34" s="138" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F34" s="18" t="str">
         <f>A30</f>
@@ -12120,7 +12117,7 @@
       </c>
       <c r="G34" s="18"/>
       <c r="H34" s="154" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="I34" s="23"/>
       <c r="J34" s="23"/>
@@ -12131,19 +12128,19 @@
     </row>
     <row r="35" spans="1:14" ht="109.5" customHeight="1">
       <c r="A35" s="138" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B35" s="138" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C35" s="138" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D35" s="138" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E35" s="138" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F35" s="18" t="str">
         <f>A30</f>
@@ -12151,7 +12148,7 @@
       </c>
       <c r="G35" s="18"/>
       <c r="H35" s="155" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="I35" s="23"/>
       <c r="J35" s="23"/>
@@ -12162,19 +12159,19 @@
     </row>
     <row r="36" spans="1:14" ht="70.5" customHeight="1">
       <c r="A36" s="138" t="s">
+        <v>625</v>
+      </c>
+      <c r="B36" s="138" t="s">
         <v>626</v>
       </c>
-      <c r="B36" s="138" t="s">
-        <v>627</v>
-      </c>
       <c r="C36" s="138" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D36" s="138" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E36" s="138" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F36" s="18" t="str">
         <f>A30</f>
@@ -12191,19 +12188,19 @@
     </row>
     <row r="37" spans="1:14" ht="35.25" customHeight="1">
       <c r="A37" s="138" t="s">
+        <v>633</v>
+      </c>
+      <c r="B37" s="138" t="s">
+        <v>695</v>
+      </c>
+      <c r="C37" s="138" t="s">
         <v>634</v>
       </c>
-      <c r="B37" s="138" t="s">
-        <v>696</v>
-      </c>
-      <c r="C37" s="138" t="s">
-        <v>635</v>
-      </c>
       <c r="D37" s="138" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E37" s="138" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F37" s="18" t="str">
         <f>A36</f>
@@ -12211,7 +12208,7 @@
       </c>
       <c r="G37" s="18"/>
       <c r="H37" s="154" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="I37" s="23"/>
       <c r="J37" s="23"/>
@@ -12222,19 +12219,19 @@
     </row>
     <row r="38" spans="1:14" ht="36.75" customHeight="1">
       <c r="A38" s="138" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B38" s="138" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C38" s="138" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D38" s="138" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E38" s="138" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F38" s="18" t="str">
         <f>A36</f>
@@ -12242,7 +12239,7 @@
       </c>
       <c r="G38" s="18"/>
       <c r="H38" s="154" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="I38" s="23"/>
       <c r="J38" s="23"/>
@@ -12253,19 +12250,19 @@
     </row>
     <row r="39" spans="1:14" ht="79.5" customHeight="1">
       <c r="A39" s="138" t="s">
+        <v>627</v>
+      </c>
+      <c r="B39" s="138" t="s">
         <v>628</v>
       </c>
-      <c r="B39" s="138" t="s">
-        <v>629</v>
-      </c>
       <c r="C39" s="138" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D39" s="138" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E39" s="138" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F39" s="18" t="str">
         <f>A30</f>
@@ -12282,7 +12279,7 @@
     </row>
     <row r="40" spans="1:14" ht="18.75" customHeight="1">
       <c r="A40" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
@@ -12294,7 +12291,7 @@
     </row>
     <row r="41" spans="1:14" ht="33.75" customHeight="1">
       <c r="A41" s="203" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B41" s="203"/>
       <c r="C41" s="203"/>
@@ -12306,19 +12303,19 @@
     </row>
     <row r="42" spans="1:14" ht="50.25" customHeight="1">
       <c r="A42" s="147" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B42" s="147" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C42" s="144" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D42" s="144" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E42" s="144" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F42" s="145"/>
       <c r="G42" s="145"/>
@@ -12326,19 +12323,19 @@
     </row>
     <row r="43" spans="1:14" ht="44.25" customHeight="1">
       <c r="A43" s="142" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B43" s="142" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C43" s="142" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D43" s="142" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E43" s="142" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F43" s="143" t="str">
         <f>A42</f>
@@ -12346,7 +12343,7 @@
       </c>
       <c r="G43" s="143"/>
       <c r="H43" s="155" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="I43" s="23"/>
       <c r="J43" s="23"/>
@@ -12357,19 +12354,19 @@
     </row>
     <row r="44" spans="1:14" ht="128.25" customHeight="1">
       <c r="A44" s="138" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B44" s="138" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C44" s="138" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D44" s="138" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E44" s="138" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F44" s="18" t="str">
         <f>A43</f>
@@ -12377,7 +12374,7 @@
       </c>
       <c r="G44" s="18"/>
       <c r="H44" s="155" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="I44" s="23"/>
       <c r="J44" s="23"/>
@@ -12388,19 +12385,19 @@
     </row>
     <row r="45" spans="1:14" ht="57" customHeight="1">
       <c r="A45" s="138" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B45" s="138" t="s">
+        <v>715</v>
+      </c>
+      <c r="C45" s="138" t="s">
         <v>716</v>
       </c>
-      <c r="C45" s="138" t="s">
-        <v>717</v>
-      </c>
       <c r="D45" s="138" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E45" s="138" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F45" s="18" t="str">
         <f>A43</f>
@@ -12408,7 +12405,7 @@
       </c>
       <c r="G45" s="18"/>
       <c r="H45" s="155" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="I45" s="23"/>
       <c r="J45" s="23"/>
@@ -12419,19 +12416,19 @@
     </row>
     <row r="46" spans="1:14" ht="57" customHeight="1">
       <c r="A46" s="138" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B46" s="138" t="s">
+        <v>673</v>
+      </c>
+      <c r="C46" s="138" t="s">
         <v>674</v>
       </c>
-      <c r="C46" s="138" t="s">
-        <v>675</v>
-      </c>
       <c r="D46" s="138" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E46" s="138" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F46" s="18" t="str">
         <f>A43</f>
@@ -12439,7 +12436,7 @@
       </c>
       <c r="G46" s="18"/>
       <c r="H46" s="155" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="I46" s="23"/>
       <c r="J46" s="23"/>
@@ -12450,19 +12447,19 @@
     </row>
     <row r="47" spans="1:14" ht="60.75" customHeight="1">
       <c r="A47" s="138" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B47" s="138" t="s">
+        <v>671</v>
+      </c>
+      <c r="C47" s="138" t="s">
         <v>672</v>
       </c>
-      <c r="C47" s="138" t="s">
-        <v>673</v>
-      </c>
       <c r="D47" s="138" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E47" s="138" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F47" s="18" t="str">
         <f>A43</f>
@@ -12470,7 +12467,7 @@
       </c>
       <c r="G47" s="18"/>
       <c r="H47" s="155" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="I47" s="23"/>
       <c r="J47" s="23"/>
@@ -12481,19 +12478,19 @@
     </row>
     <row r="48" spans="1:14" ht="60.75" customHeight="1">
       <c r="A48" s="138" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B48" s="138" t="s">
+        <v>675</v>
+      </c>
+      <c r="C48" s="138" t="s">
         <v>676</v>
       </c>
-      <c r="C48" s="138" t="s">
-        <v>677</v>
-      </c>
       <c r="D48" s="138" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E48" s="138" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F48" s="18" t="str">
         <f>A43</f>
@@ -12510,19 +12507,19 @@
     </row>
     <row r="49" spans="1:14" ht="60.75" customHeight="1">
       <c r="A49" s="138" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B49" s="138" t="s">
+        <v>677</v>
+      </c>
+      <c r="C49" s="138" t="s">
         <v>678</v>
       </c>
-      <c r="C49" s="138" t="s">
-        <v>679</v>
-      </c>
       <c r="D49" s="138" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E49" s="138" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F49" s="18" t="str">
         <f>A43</f>
@@ -12539,19 +12536,19 @@
     </row>
     <row r="50" spans="1:14" ht="60.75" customHeight="1">
       <c r="A50" s="138" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B50" s="138" t="s">
+        <v>679</v>
+      </c>
+      <c r="C50" s="138" t="s">
         <v>680</v>
       </c>
-      <c r="C50" s="138" t="s">
-        <v>681</v>
-      </c>
       <c r="D50" s="138" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E50" s="138" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F50" s="18" t="str">
         <f>A43</f>
@@ -12568,19 +12565,19 @@
     </row>
     <row r="51" spans="1:14" ht="44.25" customHeight="1">
       <c r="A51" s="142" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B51" s="142" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C51" s="142" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D51" s="142" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E51" s="142" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F51" s="143" t="str">
         <f>A42</f>
@@ -12588,7 +12585,7 @@
       </c>
       <c r="G51" s="143"/>
       <c r="H51" s="154" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="I51" s="23"/>
       <c r="J51" s="23"/>
@@ -12599,19 +12596,19 @@
     </row>
     <row r="52" spans="1:14" ht="44.25" customHeight="1">
       <c r="A52" s="138" t="s">
+        <v>638</v>
+      </c>
+      <c r="B52" s="138" t="s">
         <v>639</v>
       </c>
-      <c r="B52" s="138" t="s">
-        <v>640</v>
-      </c>
       <c r="C52" s="138" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D52" s="138" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E52" s="138" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F52" s="18" t="str">
         <f>A51</f>
@@ -12619,7 +12616,7 @@
       </c>
       <c r="G52" s="18"/>
       <c r="H52" s="154" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="I52" s="23"/>
       <c r="J52" s="23"/>
@@ -12630,19 +12627,19 @@
     </row>
     <row r="53" spans="1:14" ht="44.25" customHeight="1">
       <c r="A53" s="138" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B53" s="138" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C53" s="138" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D53" s="138" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E53" s="138" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F53" s="18" t="str">
         <f>A51</f>
@@ -12650,7 +12647,7 @@
       </c>
       <c r="G53" s="18"/>
       <c r="H53" s="154" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="I53" s="23"/>
       <c r="J53" s="23"/>
@@ -12661,19 +12658,19 @@
     </row>
     <row r="54" spans="1:14" ht="44.25" customHeight="1">
       <c r="A54" s="138" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B54" s="138" t="s">
+        <v>641</v>
+      </c>
+      <c r="C54" s="138" t="s">
         <v>642</v>
       </c>
-      <c r="C54" s="138" t="s">
-        <v>643</v>
-      </c>
       <c r="D54" s="138" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E54" s="138" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F54" s="18" t="str">
         <f>A51</f>
@@ -12681,7 +12678,7 @@
       </c>
       <c r="G54" s="18"/>
       <c r="H54" s="154" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="I54" s="23"/>
       <c r="J54" s="23"/>
@@ -12692,19 +12689,19 @@
     </row>
     <row r="55" spans="1:14" ht="44.25" customHeight="1">
       <c r="A55" s="138" t="s">
+        <v>645</v>
+      </c>
+      <c r="B55" s="138" t="s">
+        <v>647</v>
+      </c>
+      <c r="C55" s="138" t="s">
         <v>646</v>
       </c>
-      <c r="B55" s="138" t="s">
-        <v>648</v>
-      </c>
-      <c r="C55" s="138" t="s">
-        <v>647</v>
-      </c>
       <c r="D55" s="138" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E55" s="138" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F55" s="149" t="str">
         <f>A51</f>
@@ -12712,7 +12709,7 @@
       </c>
       <c r="G55" s="149"/>
       <c r="H55" s="154" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="I55" s="23"/>
       <c r="J55" s="23"/>
@@ -12723,19 +12720,19 @@
     </row>
     <row r="56" spans="1:14" ht="44.25" customHeight="1">
       <c r="A56" s="142" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B56" s="142" t="s">
+        <v>718</v>
+      </c>
+      <c r="C56" s="142" t="s">
         <v>719</v>
       </c>
-      <c r="C56" s="142" t="s">
-        <v>720</v>
-      </c>
       <c r="D56" s="142" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E56" s="142" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F56" s="143" t="str">
         <f>A42</f>
@@ -12752,19 +12749,19 @@
     </row>
     <row r="57" spans="1:14" ht="90.75" customHeight="1">
       <c r="A57" s="138" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B57" s="138" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C57" s="138" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D57" s="138" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E57" s="138" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F57" s="18" t="str">
         <f>A56</f>
@@ -12781,19 +12778,19 @@
     </row>
     <row r="58" spans="1:14" ht="61.5" customHeight="1">
       <c r="A58" s="138" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B58" s="138" t="s">
+        <v>723</v>
+      </c>
+      <c r="C58" s="138" t="s">
         <v>724</v>
       </c>
-      <c r="C58" s="138" t="s">
-        <v>725</v>
-      </c>
       <c r="D58" s="138" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E58" s="138" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F58" s="18" t="str">
         <f>A56</f>
@@ -12810,19 +12807,19 @@
     </row>
     <row r="59" spans="1:14" ht="105.75" customHeight="1">
       <c r="A59" s="138" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B59" s="138" t="s">
+        <v>726</v>
+      </c>
+      <c r="C59" s="138" t="s">
         <v>727</v>
       </c>
-      <c r="C59" s="138" t="s">
-        <v>728</v>
-      </c>
       <c r="D59" s="138" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E59" s="138" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F59" s="18" t="str">
         <f>A56</f>
@@ -12839,19 +12836,19 @@
     </row>
     <row r="60" spans="1:14" ht="44.25" customHeight="1">
       <c r="A60" s="142" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B60" s="142" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C60" s="142" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D60" s="142" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E60" s="142" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F60" s="150" t="str">
         <f>A42</f>
@@ -12868,19 +12865,19 @@
     </row>
     <row r="61" spans="1:14" ht="155.25" customHeight="1">
       <c r="A61" s="138" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B61" s="138" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C61" s="138" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D61" s="138" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E61" s="138" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F61" s="149" t="str">
         <f>A60</f>
@@ -12888,7 +12885,7 @@
       </c>
       <c r="G61" s="149"/>
       <c r="H61" s="154" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="I61" s="23"/>
       <c r="J61" s="23"/>
@@ -12899,19 +12896,19 @@
     </row>
     <row r="62" spans="1:14" ht="36" customHeight="1">
       <c r="A62" s="138" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B62" s="138" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C62" s="151" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D62" s="138" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E62" s="138" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F62" s="149" t="str">
         <f>A61</f>
@@ -12928,7 +12925,7 @@
     </row>
     <row r="63" spans="1:14" ht="50.25" customHeight="1">
       <c r="A63" s="203" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B63" s="203"/>
       <c r="C63" s="203"/>
@@ -12940,19 +12937,19 @@
     </row>
     <row r="64" spans="1:14" ht="50.25" customHeight="1">
       <c r="A64" s="147" t="s">
+        <v>630</v>
+      </c>
+      <c r="B64" s="147" t="s">
         <v>631</v>
       </c>
-      <c r="B64" s="147" t="s">
-        <v>632</v>
-      </c>
       <c r="C64" s="144" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D64" s="144" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E64" s="144" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F64" s="145"/>
       <c r="G64" s="145"/>
@@ -12960,19 +12957,19 @@
     </row>
     <row r="65" spans="1:14" ht="50.25" customHeight="1">
       <c r="A65" s="138" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B65" s="138" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C65" s="138" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D65" s="138" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E65" s="138" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F65" s="149" t="str">
         <f>A64</f>
@@ -12983,19 +12980,19 @@
     </row>
     <row r="66" spans="1:14" ht="64.5" customHeight="1">
       <c r="A66" s="138" t="s">
+        <v>665</v>
+      </c>
+      <c r="B66" s="138" t="s">
         <v>666</v>
       </c>
-      <c r="B66" s="138" t="s">
+      <c r="C66" s="138" t="s">
         <v>667</v>
       </c>
-      <c r="C66" s="138" t="s">
-        <v>668</v>
-      </c>
       <c r="D66" s="138" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E66" s="138" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F66" s="149" t="str">
         <f>A64</f>
@@ -13006,19 +13003,19 @@
     </row>
     <row r="67" spans="1:14" ht="64.5" customHeight="1">
       <c r="A67" s="138" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B67" s="138" t="s">
+        <v>734</v>
+      </c>
+      <c r="C67" s="138" t="s">
         <v>735</v>
       </c>
-      <c r="C67" s="138" t="s">
-        <v>736</v>
-      </c>
       <c r="D67" s="138" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E67" s="138" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F67" s="149" t="str">
         <f>A65</f>
@@ -13029,19 +13026,19 @@
     </row>
     <row r="68" spans="1:14" ht="126" customHeight="1">
       <c r="A68" s="138" t="s">
+        <v>736</v>
+      </c>
+      <c r="B68" s="138" t="s">
         <v>737</v>
       </c>
-      <c r="B68" s="138" t="s">
+      <c r="C68" s="138" t="s">
         <v>738</v>
       </c>
-      <c r="C68" s="138" t="s">
-        <v>739</v>
-      </c>
       <c r="D68" s="138" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E68" s="138" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F68" s="149" t="str">
         <f>A67</f>
@@ -13052,19 +13049,19 @@
     </row>
     <row r="69" spans="1:14" ht="126" customHeight="1">
       <c r="A69" s="138" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B69" s="138" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C69" s="138" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D69" s="138" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E69" s="138" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F69" s="149" t="str">
         <f>A67</f>
@@ -13075,19 +13072,19 @@
     </row>
     <row r="70" spans="1:14" ht="56.25" customHeight="1">
       <c r="A70" s="138" t="s">
+        <v>743</v>
+      </c>
+      <c r="B70" s="138" t="s">
+        <v>741</v>
+      </c>
+      <c r="C70" s="138" t="s">
         <v>744</v>
       </c>
-      <c r="B70" s="138" t="s">
-        <v>742</v>
-      </c>
-      <c r="C70" s="138" t="s">
-        <v>745</v>
-      </c>
       <c r="D70" s="138" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E70" s="138" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F70" s="149" t="str">
         <f>A67</f>
@@ -13098,19 +13095,19 @@
     </row>
     <row r="71" spans="1:14" ht="56.25" customHeight="1">
       <c r="A71" s="138" t="s">
+        <v>746</v>
+      </c>
+      <c r="B71" s="138" t="s">
+        <v>745</v>
+      </c>
+      <c r="C71" s="138" t="s">
         <v>747</v>
       </c>
-      <c r="B71" s="138" t="s">
-        <v>746</v>
-      </c>
-      <c r="C71" s="138" t="s">
-        <v>748</v>
-      </c>
       <c r="D71" s="138" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E71" s="138" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F71" s="149" t="str">
         <f>A67</f>
@@ -13121,19 +13118,19 @@
     </row>
     <row r="72" spans="1:14" ht="54.75" customHeight="1">
       <c r="A72" s="138" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B72" s="138" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C72" s="138" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D72" s="138" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E72" s="138" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F72" s="149" t="str">
         <f>A67</f>
@@ -13144,19 +13141,19 @@
     </row>
     <row r="73" spans="1:14" ht="44.25" customHeight="1">
       <c r="A73" s="142" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B73" s="142" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C73" s="142" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D73" s="142" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E73" s="142" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F73" s="150" t="str">
         <f>A64</f>
@@ -13173,19 +13170,19 @@
     </row>
     <row r="74" spans="1:14" ht="54.75" customHeight="1">
       <c r="A74" s="138" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B74" s="138" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C74" s="151" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D74" s="138" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E74" s="138" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F74" s="149" t="str">
         <f>A73</f>
@@ -13202,19 +13199,19 @@
     </row>
     <row r="75" spans="1:14" ht="51.75" customHeight="1">
       <c r="A75" s="138" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B75" s="138" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C75" s="151" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D75" s="138" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E75" s="138" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F75" s="149" t="str">
         <f>A73</f>
@@ -13231,7 +13228,7 @@
     </row>
     <row r="76" spans="1:14" ht="33.75" customHeight="1">
       <c r="A76" s="205" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B76" s="205"/>
       <c r="C76" s="205"/>
@@ -13243,41 +13240,41 @@
     </row>
     <row r="77" spans="1:14" ht="50.25" customHeight="1">
       <c r="A77" s="144" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B77" s="147" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C77" s="144" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D77" s="144" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E77" s="144" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F77" s="145"/>
       <c r="G77" s="145"/>
       <c r="H77" s="155" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="50.25" customHeight="1">
       <c r="A78" s="138" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B78" s="138" t="s">
+        <v>751</v>
+      </c>
+      <c r="C78" s="138" t="s">
         <v>752</v>
       </c>
-      <c r="C78" s="138" t="s">
-        <v>753</v>
-      </c>
       <c r="D78" s="138" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E78" s="138" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F78" s="138" t="str">
         <f>A77</f>
@@ -13285,24 +13282,24 @@
       </c>
       <c r="G78" s="138"/>
       <c r="H78" s="155" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="50.25" customHeight="1">
       <c r="A79" s="138" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B79" s="138" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C79" s="138" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D79" s="138" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E79" s="138" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F79" s="138" t="str">
         <f>A77</f>
@@ -13310,24 +13307,24 @@
       </c>
       <c r="G79" s="138"/>
       <c r="H79" s="155" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="50.25" customHeight="1">
       <c r="A80" s="138" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B80" s="138" t="s">
+        <v>756</v>
+      </c>
+      <c r="C80" s="138" t="s">
         <v>757</v>
       </c>
-      <c r="C80" s="138" t="s">
-        <v>758</v>
-      </c>
       <c r="D80" s="138" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E80" s="138" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F80" s="138" t="str">
         <f>A79</f>
@@ -13335,24 +13332,24 @@
       </c>
       <c r="G80" s="138"/>
       <c r="H80" s="155" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="50.25" customHeight="1">
       <c r="A81" s="138" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B81" s="138" t="s">
+        <v>758</v>
+      </c>
+      <c r="C81" s="138" t="s">
         <v>759</v>
       </c>
-      <c r="C81" s="138" t="s">
-        <v>760</v>
-      </c>
       <c r="D81" s="138" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E81" s="138" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F81" s="138" t="str">
         <f>A79</f>
@@ -13360,24 +13357,24 @@
       </c>
       <c r="G81" s="138"/>
       <c r="H81" s="155" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="66" customHeight="1">
       <c r="A82" s="138" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B82" s="138" t="s">
+        <v>760</v>
+      </c>
+      <c r="C82" s="138" t="s">
         <v>761</v>
       </c>
-      <c r="C82" s="138" t="s">
-        <v>762</v>
-      </c>
       <c r="D82" s="138" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E82" s="138" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F82" s="138" t="str">
         <f>A79</f>
@@ -13385,24 +13382,24 @@
       </c>
       <c r="G82" s="138"/>
       <c r="H82" s="155" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="50.25" customHeight="1">
       <c r="A83" s="138" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B83" s="138" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C83" s="138" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D83" s="138" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E83" s="138" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F83" s="138" t="str">
         <f>A77</f>
@@ -13413,19 +13410,19 @@
     </row>
     <row r="84" spans="1:8" ht="50.25" customHeight="1">
       <c r="A84" s="138" t="s">
+        <v>765</v>
+      </c>
+      <c r="B84" s="138" t="s">
         <v>766</v>
       </c>
-      <c r="B84" s="138" t="s">
+      <c r="C84" s="138" t="s">
         <v>767</v>
       </c>
-      <c r="C84" s="138" t="s">
-        <v>768</v>
-      </c>
       <c r="D84" s="138" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E84" s="138" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F84" s="138" t="str">
         <f>A77</f>
@@ -13433,24 +13430,24 @@
       </c>
       <c r="G84" s="138"/>
       <c r="H84" s="155" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="50.25" customHeight="1">
       <c r="A85" s="138" t="s">
+        <v>768</v>
+      </c>
+      <c r="B85" s="138" t="s">
         <v>769</v>
       </c>
-      <c r="B85" s="138" t="s">
+      <c r="C85" s="138" t="s">
         <v>770</v>
       </c>
-      <c r="C85" s="138" t="s">
-        <v>771</v>
-      </c>
       <c r="D85" s="138" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E85" s="138" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F85" s="138" t="str">
         <f>A84</f>
@@ -13458,24 +13455,24 @@
       </c>
       <c r="G85" s="138"/>
       <c r="H85" s="155" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="50.25" customHeight="1">
       <c r="A86" s="138" t="s">
+        <v>771</v>
+      </c>
+      <c r="B86" s="138" t="s">
         <v>772</v>
       </c>
-      <c r="B86" s="138" t="s">
+      <c r="C86" s="138" t="s">
         <v>773</v>
       </c>
-      <c r="C86" s="138" t="s">
-        <v>774</v>
-      </c>
       <c r="D86" s="138" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E86" s="138" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F86" s="138" t="str">
         <f>A84</f>
@@ -13483,24 +13480,24 @@
       </c>
       <c r="G86" s="138"/>
       <c r="H86" s="155" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="50.25" customHeight="1">
       <c r="A87" s="138" t="s">
+        <v>774</v>
+      </c>
+      <c r="B87" s="138" t="s">
         <v>775</v>
       </c>
-      <c r="B87" s="138" t="s">
+      <c r="C87" s="138" t="s">
         <v>776</v>
       </c>
-      <c r="C87" s="138" t="s">
-        <v>777</v>
-      </c>
       <c r="D87" s="138" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E87" s="138" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F87" s="138" t="str">
         <f>A77</f>
@@ -13511,7 +13508,7 @@
     </row>
     <row r="88" spans="1:8" ht="33.75" customHeight="1">
       <c r="A88" s="203" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B88" s="203"/>
       <c r="C88" s="203"/>
@@ -13523,19 +13520,19 @@
     </row>
     <row r="89" spans="1:8" ht="50.25" customHeight="1">
       <c r="A89" s="144" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B89" s="147" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C89" s="144" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D89" s="144" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E89" s="144" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F89" s="145"/>
       <c r="G89" s="145"/>
@@ -13543,19 +13540,19 @@
     </row>
     <row r="90" spans="1:8" ht="50.25" customHeight="1">
       <c r="A90" s="138" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B90" s="138" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C90" s="138" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D90" s="138" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E90" s="138" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F90" s="138" t="str">
         <f>A89</f>
@@ -13566,19 +13563,19 @@
     </row>
     <row r="91" spans="1:8" ht="50.25" customHeight="1">
       <c r="A91" s="138" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B91" s="138" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C91" s="138" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D91" s="138" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E91" s="138" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F91" s="138" t="str">
         <f>A89</f>
@@ -13589,13 +13586,13 @@
     </row>
     <row r="94" spans="1:8" ht="18.75" customHeight="1">
       <c r="A94" s="201" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B94" s="202"/>
     </row>
     <row r="95" spans="1:8" ht="33.75" customHeight="1">
       <c r="A95" s="79" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B95" s="79" t="s">
         <v>1</v>
@@ -13604,21 +13601,21 @@
         <v>3</v>
       </c>
       <c r="D95" s="79" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E95" s="79" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F95" s="137" t="s">
+        <v>568</v>
+      </c>
+      <c r="G95" s="137" t="s">
         <v>569</v>
-      </c>
-      <c r="G95" s="137" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="33.75" customHeight="1">
       <c r="A96" s="203" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B96" s="203"/>
       <c r="C96" s="203"/>
@@ -13629,38 +13626,38 @@
     </row>
     <row r="97" spans="1:14" ht="50.25" customHeight="1">
       <c r="A97" s="147" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B97" s="146" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C97" s="144" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D97" s="144" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E97" s="144" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F97" s="145"/>
       <c r="G97" s="145"/>
     </row>
     <row r="98" spans="1:14" ht="44.25" customHeight="1">
       <c r="A98" s="140" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B98" s="140" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C98" s="140" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D98" s="140" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E98" s="140" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F98" s="141" t="str">
         <f>A97</f>
@@ -13676,19 +13673,19 @@
     </row>
     <row r="99" spans="1:14" ht="44.25" customHeight="1">
       <c r="A99" s="140" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B99" s="140" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C99" s="140" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D99" s="140" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E99" s="140" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F99" s="141" t="str">
         <f>A97</f>
@@ -13747,7 +13744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -13763,7 +13760,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B1" s="41"/>
     </row>
@@ -13784,7 +13781,7 @@
     </row>
     <row r="4" spans="1:6" ht="23.25">
       <c r="A4" s="176" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B4" s="176"/>
       <c r="C4" s="176"/>
@@ -13798,13 +13795,13 @@
     </row>
     <row r="6" spans="1:6" ht="31.5" customHeight="1">
       <c r="A6" s="210" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B6" s="211"/>
       <c r="C6" s="211"/>
       <c r="D6" s="212"/>
       <c r="E6" s="206" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F6" s="206" t="s">
         <v>3</v>
@@ -13812,11 +13809,11 @@
     </row>
     <row r="7" spans="1:6" ht="15.75">
       <c r="A7" s="209" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B7" s="209"/>
       <c r="C7" s="209" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D7" s="209"/>
       <c r="E7" s="207"/>
@@ -13856,10 +13853,10 @@
         <v>Segurança nas comunicações</v>
       </c>
       <c r="E9" s="123" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="F9" s="122" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="49" customFormat="1" ht="38.25" customHeight="1">
@@ -13869,7 +13866,7 @@
       <c r="D10" s="122"/>
       <c r="E10" s="123"/>
       <c r="F10" s="122" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="49" customFormat="1" ht="38.25" customHeight="1">
@@ -13879,7 +13876,7 @@
       <c r="D11" s="122"/>
       <c r="E11" s="123"/>
       <c r="F11" s="122" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="49" customFormat="1" ht="38.25" customHeight="1">
@@ -13889,7 +13886,7 @@
       <c r="D12" s="122"/>
       <c r="E12" s="123"/>
       <c r="F12" s="122" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="49" customFormat="1" ht="38.25" customHeight="1">
@@ -13899,7 +13896,7 @@
       <c r="D13" s="122"/>
       <c r="E13" s="123"/>
       <c r="F13" s="122" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="49" customFormat="1" ht="38.25" customHeight="1">
@@ -13909,7 +13906,7 @@
       <c r="D14" s="122"/>
       <c r="E14" s="123"/>
       <c r="F14" s="122" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="49" customFormat="1" ht="38.25" customHeight="1">
@@ -13919,7 +13916,7 @@
       <c r="D15" s="122"/>
       <c r="E15" s="123"/>
       <c r="F15" s="122" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
   </sheetData>

--- a/Templates/SIOP-RSLIL-v2.1.xlsx
+++ b/Templates/SIOP-RSLIL-v2.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr codeName="EsteLivro" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="842" firstSheet="1" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="842" firstSheet="6" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -313,7 +313,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="842">
   <si>
     <t>Id</t>
   </si>
@@ -773,15 +773,6 @@
     <t>Actor Types</t>
   </si>
   <si>
-    <t>external_system</t>
-  </si>
-  <si>
-    <t>timer</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
     <t>is-specialized-from</t>
   </si>
   <si>
@@ -888,9 +879,6 @@
   </si>
   <si>
     <t>Timer1</t>
-  </si>
-  <si>
-    <t>SpecializedFrom</t>
   </si>
   <si>
     <t>NotNull</t>
@@ -2942,6 +2930,15 @@
   </si>
   <si>
     <t>Identical</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>ExternalSystem</t>
+  </si>
+  <si>
+    <t>Timer</t>
   </si>
 </sst>
 </file>
@@ -4352,7 +4349,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="23.25">
       <c r="A1" s="47" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B1" s="45"/>
       <c r="C1" s="46"/>
@@ -4432,12 +4429,12 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="41" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="41" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -4504,7 +4501,7 @@
     </row>
     <row r="4" spans="1:8" ht="23.25">
       <c r="A4" s="176" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B4" s="176"/>
       <c r="C4" s="176"/>
@@ -4517,7 +4514,7 @@
     <row r="5" spans="1:8" ht="57" customHeight="1"/>
     <row r="6" spans="1:8" ht="31.5" customHeight="1">
       <c r="A6" s="213" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B6" s="213" t="s">
         <v>1</v>
@@ -4526,19 +4523,19 @@
         <v>3</v>
       </c>
       <c r="D6" s="213" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E6" s="213" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="213" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G6" s="215" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H6" s="214" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="45" customHeight="1">
@@ -4553,10 +4550,10 @@
     </row>
     <row r="8" spans="1:8" ht="33.75" customHeight="1">
       <c r="A8" s="15" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="14"/>
@@ -4567,10 +4564,10 @@
     </row>
     <row r="9" spans="1:8" ht="33.75" customHeight="1">
       <c r="A9" s="15" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="14"/>
@@ -4740,7 +4737,7 @@
     </row>
     <row r="4" spans="1:11" ht="23.25">
       <c r="A4" s="176" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B4" s="176"/>
       <c r="C4" s="176"/>
@@ -4756,7 +4753,7 @@
     <row r="6" spans="1:11" ht="30.75" customHeight="1"/>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
       <c r="A7" s="213" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B7" s="213" t="s">
         <v>1</v>
@@ -4765,10 +4762,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="215" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E7" s="215" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F7" s="217" t="s">
         <v>145</v>
@@ -4780,13 +4777,13 @@
         <v>7</v>
       </c>
       <c r="I7" s="213" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J7" s="219" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="K7" s="214" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="31.5" customHeight="1">
@@ -4804,10 +4801,10 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="15" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="13"/>
@@ -4821,10 +4818,10 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="15" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="13"/>
@@ -4838,10 +4835,10 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="15" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="13"/>
@@ -4855,10 +4852,10 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="15" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="13"/>
@@ -4872,10 +4869,10 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="15" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="13"/>
@@ -4889,10 +4886,10 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="15" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="13"/>
@@ -4906,10 +4903,10 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="15" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="13"/>
@@ -4923,10 +4920,10 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="15" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="13"/>
@@ -4940,10 +4937,10 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="15" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="13"/>
@@ -4957,10 +4954,10 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="15" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="13"/>
@@ -5053,7 +5050,7 @@
     </row>
     <row r="4" spans="1:8" ht="23.25">
       <c r="A4" s="176" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B4" s="176"/>
       <c r="C4" s="176"/>
@@ -5066,7 +5063,7 @@
     <row r="6" spans="1:8" ht="30.75" customHeight="1"/>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
       <c r="A7" s="213" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B7" s="213" t="s">
         <v>1</v>
@@ -5075,19 +5072,19 @@
         <v>3</v>
       </c>
       <c r="D7" s="215" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E7" s="213" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="213" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G7" s="213" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H7" s="214" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1">
@@ -5102,20 +5099,20 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="15" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="14"/>
@@ -5245,7 +5242,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -5282,7 +5279,7 @@
     </row>
     <row r="4" spans="1:6" ht="23.25">
       <c r="A4" s="176" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="B4" s="176"/>
       <c r="C4" s="176"/>
@@ -5296,13 +5293,13 @@
     </row>
     <row r="6" spans="1:6" ht="31.5" customHeight="1">
       <c r="A6" s="210" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="B6" s="211"/>
       <c r="C6" s="211"/>
       <c r="D6" s="212"/>
       <c r="E6" s="206" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="F6" s="206" t="s">
         <v>3</v>
@@ -5310,11 +5307,11 @@
     </row>
     <row r="7" spans="1:6" ht="15.75">
       <c r="A7" s="209" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B7" s="209"/>
       <c r="C7" s="209" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D7" s="209"/>
       <c r="E7" s="207"/>
@@ -5354,10 +5351,10 @@
         <v>YYY</v>
       </c>
       <c r="E9" s="123" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="F9" s="122" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="49" customFormat="1" ht="38.25" customHeight="1">
@@ -5378,10 +5375,10 @@
         <v>ZZZ</v>
       </c>
       <c r="E10" s="123" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="F10" s="122" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="49" customFormat="1" ht="38.25" customHeight="1">
@@ -5391,7 +5388,7 @@
       <c r="D11" s="122"/>
       <c r="E11" s="123"/>
       <c r="F11" s="122" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="49" customFormat="1" ht="38.25" customHeight="1">
@@ -5401,7 +5398,7 @@
       <c r="D12" s="122"/>
       <c r="E12" s="123"/>
       <c r="F12" s="122" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="49" customFormat="1" ht="38.25" customHeight="1">
@@ -5411,7 +5408,7 @@
       <c r="D13" s="122"/>
       <c r="E13" s="123"/>
       <c r="F13" s="122" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="49" customFormat="1" ht="38.25" customHeight="1">
@@ -5421,7 +5418,7 @@
       <c r="D14" s="122"/>
       <c r="E14" s="123"/>
       <c r="F14" s="122" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="49" customFormat="1" ht="38.25" customHeight="1">
@@ -5431,7 +5428,7 @@
       <c r="D15" s="122"/>
       <c r="E15" s="123"/>
       <c r="F15" s="122" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
   </sheetData>
@@ -5507,7 +5504,7 @@
     </row>
     <row r="4" spans="1:12" ht="23.25">
       <c r="A4" s="176" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B4" s="176"/>
       <c r="C4" s="176"/>
@@ -5526,7 +5523,7 @@
     </row>
     <row r="6" spans="1:12" ht="13.5" customHeight="1">
       <c r="A6" s="201" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B6" s="202"/>
     </row>
@@ -5541,7 +5538,7 @@
     </row>
     <row r="8" spans="1:12" ht="13.5" customHeight="1">
       <c r="A8" s="243" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B8" s="244"/>
       <c r="C8" s="198"/>
@@ -5572,7 +5569,7 @@
     </row>
     <row r="11" spans="1:12" ht="25.5" customHeight="1">
       <c r="A11" s="85" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B11" s="85" t="s">
         <v>1</v>
@@ -5584,7 +5581,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="91" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F11" s="231"/>
       <c r="G11" s="231"/>
@@ -5596,7 +5593,7 @@
     </row>
     <row r="12" spans="1:12" ht="18.75" customHeight="1">
       <c r="D12" s="238" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E12" s="239"/>
       <c r="F12" s="239"/>
@@ -5609,7 +5606,7 @@
     </row>
     <row r="13" spans="1:12" ht="18.75" customHeight="1">
       <c r="D13" s="9" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>1</v>
@@ -5621,24 +5618,24 @@
         <v>8</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>9</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="18.75" customHeight="1">
       <c r="D14" s="238" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E14" s="239"/>
       <c r="F14" s="239"/>
@@ -5651,13 +5648,13 @@
     </row>
     <row r="15" spans="1:12" ht="18.75" customHeight="1">
       <c r="D15" s="9" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G15" s="245"/>
       <c r="H15" s="246"/>
@@ -5668,7 +5665,7 @@
     </row>
     <row r="16" spans="1:12" ht="18.75" customHeight="1">
       <c r="D16" s="238" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E16" s="239"/>
       <c r="F16" s="239"/>
@@ -5681,10 +5678,10 @@
     </row>
     <row r="17" spans="1:13" ht="18.75" customHeight="1">
       <c r="D17" s="9" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E17" s="234" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F17" s="235"/>
       <c r="G17" s="235"/>
@@ -5705,10 +5702,10 @@
         <v>121</v>
       </c>
       <c r="D18" s="96" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E18" s="99" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F18" s="221"/>
       <c r="G18" s="222"/>
@@ -5722,7 +5719,7 @@
       <c r="A19" s="226"/>
       <c r="B19" s="226"/>
       <c r="C19" s="237" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>123</v>
@@ -5744,13 +5741,13 @@
       </c>
       <c r="J19" s="24"/>
       <c r="K19" s="24" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L19" s="24" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="M19" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="18.75" customHeight="1">
@@ -5775,10 +5772,10 @@
       </c>
       <c r="J20" s="24"/>
       <c r="K20" s="24" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L20" s="24" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="18.75" customHeight="1">
@@ -5786,10 +5783,10 @@
       <c r="B21" s="233"/>
       <c r="C21" s="237"/>
       <c r="D21" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2" t="s">
@@ -5797,14 +5794,14 @@
       </c>
       <c r="H21" s="24"/>
       <c r="I21" s="24" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J21" s="24"/>
       <c r="K21" s="24" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="L21" s="24" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="18.75" customHeight="1">
@@ -5812,10 +5809,10 @@
       <c r="B22" s="233"/>
       <c r="C22" s="237"/>
       <c r="D22" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2" t="s">
@@ -5825,24 +5822,24 @@
         <v>10.199999999999999</v>
       </c>
       <c r="I22" s="24" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J22" s="24"/>
       <c r="K22" s="24" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L22" s="24" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="18.75" customHeight="1">
       <c r="A23" s="233"/>
       <c r="B23" s="233"/>
       <c r="C23" s="237" t="s">
+        <v>197</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>124</v>
@@ -5857,7 +5854,7 @@
       <c r="K23" s="237"/>
       <c r="L23" s="237"/>
       <c r="M23" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="18.75" customHeight="1">
@@ -5865,7 +5862,7 @@
       <c r="B24" s="233"/>
       <c r="C24" s="237"/>
       <c r="D24" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>124</v>
@@ -5885,10 +5882,10 @@
       <c r="B25" s="233"/>
       <c r="C25" s="237"/>
       <c r="D25" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F25" s="24">
         <v>1</v>
@@ -5904,13 +5901,13 @@
       <c r="A26" s="233"/>
       <c r="B26" s="233"/>
       <c r="C26" s="226" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E26" s="228" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F26" s="229"/>
       <c r="G26" s="229"/>
@@ -5920,7 +5917,7 @@
       <c r="K26" s="229"/>
       <c r="L26" s="230"/>
       <c r="M26" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" customHeight="1">
@@ -5928,10 +5925,10 @@
       <c r="B27" s="227"/>
       <c r="C27" s="227"/>
       <c r="D27" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E27" s="228" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F27" s="229"/>
       <c r="G27" s="229"/>
@@ -5966,10 +5963,10 @@
         <v>122</v>
       </c>
       <c r="D29" s="96" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E29" s="99" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F29" s="221"/>
       <c r="G29" s="222"/>
@@ -5981,7 +5978,7 @@
     </row>
     <row r="30" spans="1:13" ht="18.75" customHeight="1">
       <c r="C30" s="237" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>123</v>
@@ -6001,10 +5998,10 @@
       </c>
       <c r="J30" s="24"/>
       <c r="K30" s="24" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L30" s="24" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="18.75" customHeight="1">
@@ -6027,19 +6024,19 @@
       </c>
       <c r="J31" s="24"/>
       <c r="K31" s="24" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L31" s="24" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="18.75" customHeight="1">
       <c r="C32" s="237"/>
       <c r="D32" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2" t="s">
@@ -6047,23 +6044,23 @@
       </c>
       <c r="H32" s="24"/>
       <c r="I32" s="24" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J32" s="24"/>
       <c r="K32" s="24" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L32" s="24" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="18.75" customHeight="1">
       <c r="C33" s="237"/>
       <c r="D33" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2" t="s">
@@ -6071,31 +6068,31 @@
       </c>
       <c r="H33" s="24"/>
       <c r="I33" s="24" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J33" s="24"/>
       <c r="K33" s="24" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L33" s="24" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="18.75" customHeight="1">
       <c r="A35" s="96" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B35" s="97" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C35" s="98" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D35" s="96" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E35" s="99" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F35" s="221"/>
       <c r="G35" s="222"/>
@@ -6107,7 +6104,7 @@
     </row>
     <row r="36" spans="1:12" ht="18.75" customHeight="1">
       <c r="C36" s="237" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>123</v>
@@ -6127,10 +6124,10 @@
       </c>
       <c r="J36" s="24"/>
       <c r="K36" s="24" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L36" s="24" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="18.75" customHeight="1">
@@ -6153,19 +6150,19 @@
       </c>
       <c r="J37" s="24"/>
       <c r="K37" s="24" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L37" s="24" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="18.75" customHeight="1">
       <c r="C38" s="237"/>
       <c r="D38" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2" t="s">
@@ -6173,23 +6170,23 @@
       </c>
       <c r="H38" s="24"/>
       <c r="I38" s="24" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J38" s="24"/>
       <c r="K38" s="24" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L38" s="24" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="18.75" customHeight="1">
       <c r="C39" s="237"/>
       <c r="D39" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2" t="s">
@@ -6197,22 +6194,22 @@
       </c>
       <c r="H39" s="24"/>
       <c r="I39" s="24" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J39" s="24"/>
       <c r="K39" s="24" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L39" s="24" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="18.75" customHeight="1">
       <c r="C40" s="237" t="s">
+        <v>197</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>124</v>
@@ -6230,7 +6227,7 @@
     <row r="41" spans="1:12" ht="18.75" customHeight="1">
       <c r="C41" s="237"/>
       <c r="D41" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>124</v>
@@ -6248,10 +6245,10 @@
     <row r="42" spans="1:12" ht="18.75" customHeight="1">
       <c r="C42" s="237"/>
       <c r="D42" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F42" s="24">
         <v>1</v>
@@ -6324,10 +6321,10 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6364,7 +6361,7 @@
     </row>
     <row r="4" spans="1:9" ht="20.25" customHeight="1">
       <c r="A4" s="70" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B4" s="71"/>
       <c r="C4" s="73"/>
@@ -6400,7 +6397,7 @@
     </row>
     <row r="10" spans="1:9" ht="15.75">
       <c r="A10" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>1</v>
@@ -6409,18 +6406,18 @@
         <v>3</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>71</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1">
       <c r="A11" s="24" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B11" s="24" t="s">
         <v>64</v>
@@ -6429,7 +6426,7 @@
         <v>65</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>153</v>
+        <v>839</v>
       </c>
       <c r="E11" s="24" t="s">
         <v>66</v>
@@ -6439,138 +6436,120 @@
         <v>a.Operator</v>
       </c>
       <c r="G11" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1">
       <c r="A12" s="24" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>153</v>
+        <v>839</v>
       </c>
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1">
       <c r="A13" s="24" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="24" t="s">
-        <v>152</v>
+        <v>841</v>
       </c>
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1">
-      <c r="A14" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-    </row>
-    <row r="15" spans="1:9" ht="37.5" customHeight="1">
-      <c r="A15" s="80"/>
-      <c r="B15" s="81"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="82"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="249" t="s">
+    <row r="14" spans="1:9" ht="37.5" customHeight="1">
+      <c r="A14" s="80"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="82"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="249" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="250"/>
-      <c r="C16" s="250"/>
-      <c r="D16" s="250"/>
-      <c r="E16" s="250"/>
-      <c r="F16" s="251"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.75">
-      <c r="A17" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="B17" s="7" t="s">
+      <c r="B15" s="250"/>
+      <c r="C15" s="250"/>
+      <c r="D15" s="250"/>
+      <c r="E15" s="250"/>
+      <c r="F15" s="251"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75">
+      <c r="A16" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C16" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="E17" s="7" t="s">
+      <c r="D16" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>190</v>
+      <c r="F16" s="7" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="24" t="s">
+        <v>551</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>839</v>
+      </c>
+      <c r="E17" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="52"/>
+      <c r="G17" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="24" t="s">
-        <v>555</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>102</v>
-      </c>
+      <c r="A18" s="12" t="s">
+        <v>552</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="C18" s="12"/>
       <c r="D18" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="E18" s="52" t="s">
-        <v>72</v>
-      </c>
-      <c r="F18" s="52"/>
-      <c r="G18" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="12" t="s">
-        <v>556</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+        <v>840</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A15:F15"/>
     <mergeCell ref="A9:F9"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D18:D20 D11:D15">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17:D18 D11:D14">
       <formula1>ActorType</formula1>
     </dataValidation>
   </dataValidations>
@@ -6587,8 +6566,8 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="W14" sqref="W14"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6640,7 +6619,7 @@
     </row>
     <row r="4" spans="1:18" ht="23.25">
       <c r="A4" s="176" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B4" s="176"/>
       <c r="C4" s="176"/>
@@ -6693,7 +6672,7 @@
     </row>
     <row r="10" spans="1:18" ht="33" customHeight="1">
       <c r="A10" s="260" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B10" s="260" t="s">
         <v>1</v>
@@ -6702,10 +6681,10 @@
         <v>3</v>
       </c>
       <c r="D10" s="260" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E10" s="257" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F10" s="258"/>
       <c r="G10" s="259"/>
@@ -6713,7 +6692,7 @@
         <v>30</v>
       </c>
       <c r="I10" s="262" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J10" s="263"/>
       <c r="K10" s="257" t="s">
@@ -6721,18 +6700,18 @@
       </c>
       <c r="L10" s="259"/>
       <c r="M10" s="257" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="N10" s="259"/>
       <c r="O10" s="100" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="P10" s="253" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="Q10" s="253"/>
       <c r="R10" s="214" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="33" customHeight="1">
@@ -6741,13 +6720,13 @@
       <c r="C11" s="261"/>
       <c r="D11" s="261"/>
       <c r="E11" s="103" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F11" s="103" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G11" s="103" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H11" s="261"/>
       <c r="I11" s="101" t="s">
@@ -6757,10 +6736,10 @@
         <v>23</v>
       </c>
       <c r="K11" s="100" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="L11" s="101" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="M11" s="100" t="s">
         <v>141</v>
@@ -6779,7 +6758,7 @@
     </row>
     <row r="12" spans="1:18" ht="107.25" customHeight="1">
       <c r="A12" s="60" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B12" s="56" t="s">
         <v>126</v>
@@ -6788,13 +6767,13 @@
         <v>129</v>
       </c>
       <c r="D12" s="56" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E12" s="60" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F12" s="60" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G12" s="60"/>
       <c r="H12" s="60"/>
@@ -6829,7 +6808,7 @@
     </row>
     <row r="13" spans="1:18" ht="47.25" customHeight="1">
       <c r="A13" s="15" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B13" s="106" t="s">
         <v>127</v>
@@ -6839,11 +6818,11 @@
       </c>
       <c r="D13" s="56"/>
       <c r="E13" s="60" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F13" s="60"/>
       <c r="G13" s="60" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H13" s="15"/>
       <c r="I13" s="15" t="s">
@@ -6906,7 +6885,7 @@
     </row>
     <row r="16" spans="1:18" ht="33" customHeight="1">
       <c r="A16" s="260" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B16" s="260" t="s">
         <v>1</v>
@@ -6915,10 +6894,10 @@
         <v>3</v>
       </c>
       <c r="D16" s="260" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E16" s="257" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F16" s="258"/>
       <c r="G16" s="259"/>
@@ -6926,7 +6905,7 @@
         <v>30</v>
       </c>
       <c r="I16" s="262" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J16" s="263"/>
       <c r="K16" s="257" t="s">
@@ -6934,18 +6913,18 @@
       </c>
       <c r="L16" s="259"/>
       <c r="M16" s="257" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="N16" s="259"/>
       <c r="O16" s="100" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="P16" s="253" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="Q16" s="253"/>
       <c r="R16" s="214" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="33" customHeight="1">
@@ -6954,13 +6933,13 @@
       <c r="C17" s="261"/>
       <c r="D17" s="261"/>
       <c r="E17" s="103" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F17" s="103" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G17" s="103" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H17" s="261"/>
       <c r="I17" s="101" t="s">
@@ -6970,10 +6949,10 @@
         <v>23</v>
       </c>
       <c r="K17" s="100" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="L17" s="101" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="M17" s="100" t="s">
         <v>141</v>
@@ -7106,7 +7085,7 @@
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="H10:H11"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="4">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K12:L14 K18:L21">
       <formula1>actorsId</formula1>
     </dataValidation>
@@ -7174,7 +7153,7 @@
     </row>
     <row r="4" spans="1:10" ht="23.25">
       <c r="A4" s="176" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B4" s="176"/>
       <c r="C4" s="176"/>
@@ -7204,7 +7183,7 @@
     <row r="9" spans="1:10" ht="16.5" customHeight="1"/>
     <row r="10" spans="1:10" ht="16.5" customHeight="1">
       <c r="A10" s="267" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B10" s="267"/>
       <c r="C10" s="267"/>
@@ -7466,7 +7445,7 @@
     </row>
     <row r="4" spans="1:10" ht="23.25">
       <c r="A4" s="176" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B4" s="176"/>
       <c r="C4" s="176"/>
@@ -7717,8 +7696,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:M86"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7750,13 +7729,13 @@
       <c r="E3" s="164"/>
       <c r="F3" s="165"/>
       <c r="H3" s="2" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="23.25">
@@ -7771,7 +7750,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="17" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B6" s="27"/>
       <c r="C6" s="27"/>
@@ -7786,77 +7765,77 @@
         <v>148</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="E7" s="18" t="s">
         <v>475</v>
       </c>
-      <c r="E7" s="18" t="s">
-        <v>479</v>
-      </c>
       <c r="F7" s="18" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>484</v>
-      </c>
       <c r="C8" s="18" t="s">
+        <v>477</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>479</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="F8" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="G8" s="18" t="s">
         <v>483</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>487</v>
-      </c>
       <c r="H8" s="18" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>797</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>782</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="27.75" customHeight="1">
@@ -7871,7 +7850,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="17" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
@@ -7889,13 +7868,13 @@
         <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="18"/>
@@ -7906,16 +7885,16 @@
         <v>49</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>799</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>798</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>799</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>803</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>802</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="18"/>
@@ -7923,13 +7902,13 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -7939,16 +7918,16 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -7957,25 +7936,25 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="5" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B16" s="18" t="s">
+        <v>826</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>830</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>831</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>832</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>833</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>834</v>
-      </c>
       <c r="G16" s="2" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="H16" s="2"/>
     </row>
@@ -7999,22 +7978,22 @@
         <v>71</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="G19" s="18" t="s">
         <v>804</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="H19" s="18" t="s">
         <v>805</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>806</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>807</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>808</v>
-      </c>
-      <c r="H19" s="18" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -8022,16 +8001,16 @@
         <v>43</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -8088,19 +8067,19 @@
         <v>148</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="C26" s="18" t="s">
+        <v>812</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>814</v>
+      </c>
+      <c r="E26" s="18" t="s">
         <v>816</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="F26" s="18" t="s">
         <v>818</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>820</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>822</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -8114,37 +8093,37 @@
         <v>49</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>817</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>819</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="G27" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>821</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="I27" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="J27" s="2" t="s">
         <v>823</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="K27" s="2" t="s">
         <v>824</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="L27" s="18" t="s">
         <v>825</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>826</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>827</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>828</v>
-      </c>
-      <c r="L27" s="18" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -8180,16 +8159,16 @@
         <v>50</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F31" s="22"/>
     </row>
@@ -8198,19 +8177,19 @@
         <v>138</v>
       </c>
       <c r="B32" s="12" t="s">
+        <v>834</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>835</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>836</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>837</v>
+      </c>
+      <c r="F32" s="12" t="s">
         <v>838</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>839</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>840</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>841</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>842</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -8245,20 +8224,20 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="8" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B38" s="87"/>
       <c r="C38" s="88"/>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -8345,13 +8324,13 @@
         <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>60</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
@@ -8374,13 +8353,13 @@
         <v>8</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>153</v>
+        <v>839</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>151</v>
+        <v>840</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>152</v>
+        <v>841</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -8391,7 +8370,7 @@
         <v>139</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D47" s="2"/>
     </row>
@@ -8413,25 +8392,25 @@
         <v>8</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D50" t="s">
+        <v>158</v>
+      </c>
+      <c r="E50" t="s">
         <v>159</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D50" t="s">
-        <v>161</v>
-      </c>
-      <c r="E50" t="s">
-        <v>162</v>
       </c>
       <c r="F50" t="s">
         <v>24</v>
       </c>
       <c r="G50" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H50" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -8623,7 +8602,7 @@
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="20" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B71" s="32"/>
       <c r="C71" s="33"/>
@@ -8639,7 +8618,7 @@
         <v>51</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D72" s="12" t="s">
         <v>52</v>
@@ -8649,7 +8628,7 @@
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="20" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B74" s="32"/>
       <c r="C74" s="33"/>
@@ -8667,58 +8646,58 @@
         <v>8</v>
       </c>
       <c r="B75" s="22" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C75" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="D75" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="E75" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="F75" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="D75" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="E75" s="22" t="s">
-        <v>231</v>
-      </c>
-      <c r="F75" s="22" t="s">
-        <v>232</v>
-      </c>
       <c r="G75" s="22" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H75" s="22" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="I75" s="22"/>
       <c r="J75" s="22" t="s">
         <v>24</v>
       </c>
       <c r="K75" s="22" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="21" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B76" s="22" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C76" s="22" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D76" s="22" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E76" s="22" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F76" s="22" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G76" s="22" t="s">
         <v>24</v>
       </c>
       <c r="H76" s="22" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I76" s="22"/>
       <c r="J76" s="22"/>
@@ -8726,28 +8705,28 @@
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="21" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B77" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="C77" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="D77" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="E77" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="C77" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="D77" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="E77" s="22" t="s">
-        <v>173</v>
-      </c>
       <c r="F77" s="22" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G77" s="22" t="s">
         <v>24</v>
       </c>
       <c r="H77" s="22" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I77" s="22"/>
       <c r="J77" s="22"/>
@@ -8761,7 +8740,7 @@
         <v>51</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D78" s="12" t="s">
         <v>52</v>
@@ -8773,7 +8752,7 @@
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="20" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B80" s="32"/>
       <c r="C80" s="33"/>
@@ -8788,25 +8767,25 @@
         <v>8</v>
       </c>
       <c r="B81" s="22" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C81" s="22" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D81" s="22" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E81" s="22" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F81" s="22" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G81" s="22" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H81" s="22" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -8817,7 +8796,7 @@
         <v>51</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D82" s="12" t="s">
         <v>52</v>
@@ -8827,20 +8806,20 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="20" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B85" s="32"/>
       <c r="C85" s="33"/>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="21" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B86" s="22" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C86" s="22" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -8910,7 +8889,7 @@
     </row>
     <row r="4" spans="1:12" ht="23.25">
       <c r="A4" s="176" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B4" s="176"/>
       <c r="C4" s="176"/>
@@ -8937,15 +8916,15 @@
       <c r="C6" s="183"/>
       <c r="D6" s="184"/>
       <c r="E6" s="185" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="F6" s="185"/>
       <c r="G6" s="185" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="H6" s="185"/>
       <c r="I6" s="181" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="J6" s="181"/>
       <c r="K6" s="181"/>
@@ -8953,54 +8932,54 @@
     </row>
     <row r="7" spans="1:12" ht="31.5">
       <c r="A7" s="26" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B7" s="26" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="E7" s="26" t="s">
+        <v>487</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>488</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>487</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>488</v>
+      </c>
+      <c r="I7" s="26" t="s">
         <v>491</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="J7" s="26" t="s">
         <v>492</v>
       </c>
-      <c r="G7" s="26" t="s">
-        <v>491</v>
-      </c>
-      <c r="H7" s="26" t="s">
-        <v>492</v>
-      </c>
-      <c r="I7" s="26" t="s">
-        <v>495</v>
-      </c>
-      <c r="J7" s="26" t="s">
-        <v>496</v>
-      </c>
       <c r="K7" s="26" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="L7" s="152" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="33.75" customHeight="1">
       <c r="A8" s="11" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="E8" s="134">
         <v>42339</v>
@@ -9013,22 +8992,22 @@
       </c>
       <c r="H8" s="134"/>
       <c r="I8" s="14" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="L8" s="14" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="46.5" customHeight="1"/>
     <row r="10" spans="1:12" ht="21" customHeight="1">
       <c r="A10" s="177" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B10" s="178"/>
       <c r="C10" s="178"/>
@@ -9044,7 +9023,7 @@
     </row>
     <row r="11" spans="1:12" ht="94.5" customHeight="1">
       <c r="A11" s="179" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B11" s="180"/>
       <c r="C11" s="180"/>
@@ -9060,7 +9039,7 @@
     </row>
     <row r="14" spans="1:12" ht="21" customHeight="1">
       <c r="A14" s="177" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B14" s="178"/>
       <c r="C14" s="178"/>
@@ -9076,7 +9055,7 @@
     </row>
     <row r="15" spans="1:12" ht="249.75" customHeight="1">
       <c r="A15" s="179" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B15" s="180"/>
       <c r="C15" s="180"/>
@@ -9163,7 +9142,7 @@
     </row>
     <row r="4" spans="1:7" ht="23.25">
       <c r="A4" s="176" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B4" s="176"/>
       <c r="C4" s="176"/>
@@ -9177,7 +9156,7 @@
     </row>
     <row r="6" spans="1:7" ht="31.5">
       <c r="A6" s="79" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B6" s="79" t="s">
         <v>1</v>
@@ -9186,57 +9165,57 @@
         <v>3</v>
       </c>
       <c r="D6" s="79" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E6" s="79" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F6" s="79" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G6" s="79" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="81" customHeight="1">
       <c r="A7" s="114" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B7" s="115" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C7" s="115" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D7" s="116" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="118" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F7" s="116" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="G7" s="116"/>
     </row>
     <row r="8" spans="1:7" ht="30">
       <c r="A8" s="11" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F8" s="42" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="G8" s="11" t="str">
         <f t="shared" ref="G8:G13" si="0">$A$7</f>
@@ -9245,22 +9224,22 @@
     </row>
     <row r="9" spans="1:7" ht="30">
       <c r="A9" s="11" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F9" s="42" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="G9" s="11" t="str">
         <f t="shared" si="0"/>
@@ -9269,22 +9248,22 @@
     </row>
     <row r="10" spans="1:7" ht="30">
       <c r="A10" s="11" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="E10" s="42" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F10" s="42" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="G10" s="11" t="str">
         <f t="shared" si="0"/>
@@ -9293,22 +9272,22 @@
     </row>
     <row r="11" spans="1:7" ht="30">
       <c r="A11" s="11" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="E11" s="42" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F11" s="42" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="G11" s="11" t="str">
         <f t="shared" si="0"/>
@@ -9317,22 +9296,22 @@
     </row>
     <row r="12" spans="1:7" ht="30">
       <c r="A12" s="11" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F12" s="42" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="G12" s="11" t="str">
         <f t="shared" si="0"/>
@@ -9341,22 +9320,22 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="11" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F13" s="42" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="G13" s="11" t="str">
         <f t="shared" si="0"/>
@@ -9365,43 +9344,43 @@
     </row>
     <row r="14" spans="1:7" ht="90">
       <c r="A14" s="117" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B14" s="117" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C14" s="117" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D14" s="118" t="s">
         <v>22</v>
       </c>
       <c r="E14" s="118" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F14" s="118" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="G14" s="118"/>
     </row>
     <row r="15" spans="1:7" ht="30">
       <c r="A15" s="11" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="E15" s="42" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F15" s="42" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="G15" s="11" t="str">
         <f>$A$14</f>
@@ -9410,22 +9389,22 @@
     </row>
     <row r="16" spans="1:7" ht="30">
       <c r="A16" s="11" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="E16" s="42" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F16" s="42" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="G16" s="11" t="str">
         <f t="shared" ref="G16:G17" si="1">$A$14</f>
@@ -9434,22 +9413,22 @@
     </row>
     <row r="17" spans="1:7" ht="30">
       <c r="A17" s="11" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F17" s="42" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="G17" s="11" t="str">
         <f t="shared" si="1"/>
@@ -9458,43 +9437,43 @@
     </row>
     <row r="18" spans="1:7" ht="135">
       <c r="A18" s="119" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B18" s="117" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C18" s="117" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D18" s="118" t="s">
         <v>22</v>
       </c>
       <c r="E18" s="118" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F18" s="118" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="G18" s="118"/>
     </row>
     <row r="19" spans="1:7" ht="30">
       <c r="A19" s="11" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F19" s="42" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="G19" s="11" t="str">
         <f>$A$18</f>
@@ -9503,22 +9482,22 @@
     </row>
     <row r="20" spans="1:7" ht="30">
       <c r="A20" s="11" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D20" s="42" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F20" s="42" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="G20" s="11" t="str">
         <f>$A$18</f>
@@ -9527,7 +9506,7 @@
     </row>
     <row r="21" spans="1:7" ht="43.5" customHeight="1">
       <c r="A21" s="186" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B21" s="187"/>
       <c r="C21" s="187"/>
@@ -9538,64 +9517,64 @@
     </row>
     <row r="22" spans="1:7" ht="45">
       <c r="A22" s="10" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D22" s="42" t="s">
         <v>22</v>
       </c>
       <c r="E22" s="42" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F22" s="42" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="G22" s="42"/>
     </row>
     <row r="23" spans="1:7" ht="75">
       <c r="A23" s="10" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D23" s="42" t="s">
         <v>22</v>
       </c>
       <c r="E23" s="42" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F23" s="42" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="G23" s="42"/>
     </row>
     <row r="24" spans="1:7" ht="30">
       <c r="A24" s="25" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D24" s="42" t="s">
         <v>22</v>
       </c>
       <c r="E24" s="42" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F24" s="42" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="G24" s="25"/>
     </row>
@@ -9659,7 +9638,7 @@
     </row>
     <row r="4" spans="1:5" ht="23.25">
       <c r="A4" s="176" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="B4" s="176"/>
       <c r="C4" s="176"/>
@@ -9671,14 +9650,14 @@
     </row>
     <row r="6" spans="1:5" ht="31.5" customHeight="1">
       <c r="A6" s="191" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B6" s="192"/>
       <c r="C6" s="189" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D6" s="189" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E6" s="189" t="s">
         <v>3</v>
@@ -9686,10 +9665,10 @@
     </row>
     <row r="7" spans="1:5" ht="15.75">
       <c r="A7" s="79" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B7" s="79" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C7" s="190"/>
       <c r="D7" s="190"/>
@@ -9705,13 +9684,13 @@
         <v>S.SIOP-Del</v>
       </c>
       <c r="C8" s="123" t="s">
+        <v>829</v>
+      </c>
+      <c r="D8" s="123" t="s">
         <v>833</v>
       </c>
-      <c r="D8" s="123" t="s">
-        <v>837</v>
-      </c>
       <c r="E8" s="122" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="49" customFormat="1" ht="30">
@@ -9724,13 +9703,13 @@
         <v>S.SIOP-Mala</v>
       </c>
       <c r="C9" s="123" t="s">
+        <v>829</v>
+      </c>
+      <c r="D9" s="123" t="s">
         <v>833</v>
       </c>
-      <c r="D9" s="123" t="s">
-        <v>837</v>
-      </c>
       <c r="E9" s="122" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="49" customFormat="1">
@@ -9743,13 +9722,13 @@
         <v>S.SAP-FI</v>
       </c>
       <c r="C10" s="123" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="D10" s="123" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="E10" s="121" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="49" customFormat="1" ht="30">
@@ -9762,13 +9741,13 @@
         <v>S.VisionBox</v>
       </c>
       <c r="C11" s="123" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="D11" s="123" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="E11" s="121" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="49" customFormat="1">
@@ -9781,13 +9760,13 @@
         <v>S.SI-Legados</v>
       </c>
       <c r="C12" s="123" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="D12" s="123" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="E12" s="121" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="49" customFormat="1" ht="30">
@@ -9800,13 +9779,13 @@
         <v>S.VisionBox</v>
       </c>
       <c r="C13" s="123" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="D13" s="123" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="E13" s="121" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="49" customFormat="1" ht="30">
@@ -9819,13 +9798,13 @@
         <v>S.VisionBox</v>
       </c>
       <c r="C14" s="123" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="D14" s="123" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="E14" s="121" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="49" customFormat="1">
@@ -9908,7 +9887,7 @@
     </row>
     <row r="3" spans="1:8" ht="23.25">
       <c r="A3" s="176" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B3" s="176"/>
       <c r="C3" s="176"/>
@@ -9921,7 +9900,7 @@
     <row r="4" spans="1:8" ht="45.75" customHeight="1"/>
     <row r="5" spans="1:8">
       <c r="A5" s="125" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B5" s="126" t="s">
         <v>1</v>
@@ -9930,24 +9909,24 @@
         <v>3</v>
       </c>
       <c r="D5" s="125" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E5" s="125" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F5" s="125" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="G5" s="125" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H5" s="125" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="27.75" customHeight="1">
       <c r="A6" s="193" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B6" s="194"/>
       <c r="C6" s="194"/>
@@ -9959,40 +9938,40 @@
     </row>
     <row r="7" spans="1:8" ht="86.25" customHeight="1">
       <c r="A7" s="15" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="15" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:8" ht="51.75" customHeight="1">
       <c r="A8" s="15" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="15" t="str">
@@ -10002,23 +9981,23 @@
     </row>
     <row r="9" spans="1:8" ht="66" customHeight="1">
       <c r="A9" s="15" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="15" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="H9" s="15" t="str">
         <f>A7</f>
@@ -10027,23 +10006,23 @@
     </row>
     <row r="10" spans="1:8" ht="96" customHeight="1">
       <c r="A10" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>344</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>347</v>
-      </c>
       <c r="D10" s="15" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="15" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="H10" s="15" t="str">
         <f>A9</f>
@@ -10052,23 +10031,23 @@
     </row>
     <row r="11" spans="1:8" ht="90">
       <c r="A11" s="15" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="15" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H11" s="15" t="str">
         <f>A9</f>
@@ -10077,20 +10056,20 @@
     </row>
     <row r="12" spans="1:8" ht="105" customHeight="1">
       <c r="A12" s="15" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="15" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="15" t="str">
@@ -10100,7 +10079,7 @@
     </row>
     <row r="13" spans="1:8" ht="35.25" customHeight="1">
       <c r="A13" s="195" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B13" s="196"/>
       <c r="C13" s="196"/>
@@ -10112,102 +10091,102 @@
     </row>
     <row r="14" spans="1:8" ht="60">
       <c r="A14" s="15" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D14" s="15" t="s">
+        <v>804</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="F14" s="15" t="s">
         <v>808</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>812</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:8" ht="45">
       <c r="A15" s="15" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="15" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
     </row>
     <row r="16" spans="1:8" ht="75">
       <c r="A16" s="15" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="E16" s="15"/>
       <c r="F16" s="15" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
     </row>
     <row r="17" spans="1:8" ht="90">
       <c r="A17" s="15" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="E17" s="15"/>
       <c r="F17" s="15" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
     </row>
     <row r="18" spans="1:8" ht="45">
       <c r="A18" s="15" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="E18" s="15"/>
       <c r="F18" s="15" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="G18" s="15"/>
       <c r="H18" s="15" t="str">
@@ -10217,20 +10196,20 @@
     </row>
     <row r="19" spans="1:8" ht="30">
       <c r="A19" s="15" t="s">
+        <v>448</v>
+      </c>
+      <c r="B19" s="15" t="s">
         <v>452</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>456</v>
-      </c>
       <c r="C19" s="15" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="E19" s="15"/>
       <c r="F19" s="15" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="G19" s="15"/>
       <c r="H19" s="15" t="str">
@@ -10240,23 +10219,23 @@
     </row>
     <row r="20" spans="1:8" ht="83.25" customHeight="1">
       <c r="A20" s="15" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="15" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H20" s="15" t="str">
         <f>A18</f>
@@ -10265,20 +10244,20 @@
     </row>
     <row r="21" spans="1:8" ht="45">
       <c r="A21" s="15" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="E21" s="15"/>
       <c r="F21" s="15" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="15" t="str">
@@ -10288,23 +10267,23 @@
     </row>
     <row r="22" spans="1:8" ht="60">
       <c r="A22" s="15" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="E22" s="15"/>
       <c r="F22" s="15" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="H22" s="15" t="str">
         <f>A19</f>
@@ -10313,23 +10292,23 @@
     </row>
     <row r="23" spans="1:8" ht="60">
       <c r="A23" s="15" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="E23" s="15"/>
       <c r="F23" s="15" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="H23" s="15" t="str">
         <f>A19</f>
@@ -10338,23 +10317,23 @@
     </row>
     <row r="24" spans="1:8" ht="75">
       <c r="A24" s="15" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="E24" s="15"/>
       <c r="F24" s="15" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="H24" s="15" t="str">
         <f>A19</f>
@@ -10363,20 +10342,20 @@
     </row>
     <row r="25" spans="1:8" ht="75">
       <c r="A25" s="15" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="E25" s="15"/>
       <c r="F25" s="15" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="G25" s="15"/>
       <c r="H25" s="15" t="str">
@@ -10386,23 +10365,23 @@
     </row>
     <row r="26" spans="1:8" ht="75">
       <c r="A26" s="15" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="E26" s="15"/>
       <c r="F26" s="15" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="H26" s="15" t="str">
         <f>A19</f>
@@ -10411,23 +10390,23 @@
     </row>
     <row r="27" spans="1:8" ht="90">
       <c r="A27" s="15" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C27" s="108" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="H27" s="15" t="str">
         <f>A19</f>
@@ -10436,7 +10415,7 @@
     </row>
     <row r="28" spans="1:8" ht="30.75" customHeight="1">
       <c r="A28" s="195" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B28" s="196"/>
       <c r="C28" s="196"/>
@@ -10448,138 +10427,138 @@
     </row>
     <row r="29" spans="1:8" ht="45">
       <c r="A29" s="15" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="E29" s="15"/>
       <c r="F29" s="15" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
     </row>
     <row r="30" spans="1:8" ht="30">
       <c r="A30" s="15" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="15" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
     </row>
     <row r="31" spans="1:8" ht="45">
       <c r="A31" s="15" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="E31" s="15"/>
       <c r="F31" s="15" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
     </row>
     <row r="32" spans="1:8" ht="30">
       <c r="A32" s="15" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="15" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
     </row>
     <row r="33" spans="1:8" ht="45">
       <c r="A33" s="15" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="E33" s="15"/>
       <c r="F33" s="15" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
     </row>
     <row r="34" spans="1:8" ht="30">
       <c r="A34" s="15" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
       <c r="F34" s="15" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
     </row>
     <row r="35" spans="1:8" ht="112.5" customHeight="1">
       <c r="A35" s="15" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C35" s="109" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="E35" s="15"/>
       <c r="F35" s="15" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="G35" s="15"/>
       <c r="H35" s="15" t="str">
@@ -10589,20 +10568,20 @@
     </row>
     <row r="36" spans="1:8" ht="30">
       <c r="A36" s="15" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="E36" s="15"/>
       <c r="F36" s="15" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="G36" s="15"/>
       <c r="H36" s="15" t="str">
@@ -10612,20 +10591,20 @@
     </row>
     <row r="37" spans="1:8" ht="30">
       <c r="A37" s="15" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="E37" s="15"/>
       <c r="F37" s="15" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="G37" s="15"/>
       <c r="H37" s="15" t="str">
@@ -10635,20 +10614,20 @@
     </row>
     <row r="38" spans="1:8" ht="45">
       <c r="A38" s="15" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="15" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="G38" s="15"/>
       <c r="H38" s="15" t="str">
@@ -10658,20 +10637,20 @@
     </row>
     <row r="39" spans="1:8" ht="105">
       <c r="A39" s="15" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="15" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="G39" s="15"/>
       <c r="H39" s="15" t="str">
@@ -10681,20 +10660,20 @@
     </row>
     <row r="40" spans="1:8" ht="33.75" customHeight="1">
       <c r="A40" s="15" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C40" s="109" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="E40" s="15"/>
       <c r="F40" s="15" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="G40" s="15"/>
       <c r="H40" s="15" t="str">
@@ -10704,20 +10683,20 @@
     </row>
     <row r="41" spans="1:8" ht="30">
       <c r="A41" s="15" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C41" s="109" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="E41" s="15"/>
       <c r="F41" s="15" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="G41" s="15"/>
       <c r="H41" s="15" t="str">
@@ -10727,20 +10706,20 @@
     </row>
     <row r="42" spans="1:8" ht="60">
       <c r="A42" s="15" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C42" s="109" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="E42" s="15"/>
       <c r="F42" s="15" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="G42" s="15"/>
       <c r="H42" s="15" t="str">
@@ -10750,60 +10729,60 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="15" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="E43" s="15"/>
       <c r="F43" s="15" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="G43" s="15"/>
       <c r="H43" s="15"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="15" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="E44" s="15"/>
       <c r="F44" s="15" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="G44" s="15"/>
       <c r="H44" s="15"/>
     </row>
     <row r="45" spans="1:8" ht="75">
       <c r="A45" s="15" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="E45" s="15"/>
       <c r="F45" s="15" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="G45" s="15"/>
       <c r="H45" s="15"/>
@@ -10886,7 +10865,7 @@
     </row>
     <row r="4" spans="1:7" ht="29.25" customHeight="1">
       <c r="A4" s="176" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B4" s="176"/>
       <c r="C4" s="176"/>
@@ -10898,7 +10877,7 @@
     <row r="5" spans="1:7" ht="39" customHeight="1"/>
     <row r="6" spans="1:7" ht="18.75" customHeight="1">
       <c r="A6" s="127" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B6" s="127" t="s">
         <v>1</v>
@@ -10907,21 +10886,21 @@
         <v>3</v>
       </c>
       <c r="D6" s="127" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E6" s="127" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F6" s="127" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="G6" s="127" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="29.25" customHeight="1">
       <c r="A7" s="195" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B7" s="196"/>
       <c r="C7" s="196"/>
@@ -10932,57 +10911,57 @@
     </row>
     <row r="8" spans="1:7" ht="30.75" customHeight="1">
       <c r="A8" s="15" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D8" s="15" t="s">
+        <v>816</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>820</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>824</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
     <row r="9" spans="1:7" ht="23.25" customHeight="1">
       <c r="A9" s="15" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D9" s="15" t="s">
+        <v>816</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>820</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>824</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
     <row r="10" spans="1:7" ht="51" customHeight="1">
       <c r="A10" s="15" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D10" s="15" t="s">
+        <v>816</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>820</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>824</v>
       </c>
       <c r="F10" s="15" t="str">
         <f>A9</f>
@@ -10992,19 +10971,19 @@
     </row>
     <row r="11" spans="1:7" ht="51" customHeight="1">
       <c r="A11" s="15" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D11" s="15" t="s">
+        <v>816</v>
+      </c>
+      <c r="E11" s="15" t="s">
         <v>820</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>824</v>
       </c>
       <c r="F11" s="15" t="str">
         <f>A10</f>
@@ -11014,19 +10993,19 @@
     </row>
     <row r="12" spans="1:7" ht="53.25" customHeight="1">
       <c r="A12" s="15" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D12" s="15" t="s">
+        <v>816</v>
+      </c>
+      <c r="E12" s="15" t="s">
         <v>820</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>824</v>
       </c>
       <c r="F12" s="15" t="str">
         <f>A10</f>
@@ -11036,19 +11015,19 @@
     </row>
     <row r="13" spans="1:7" ht="57.75" customHeight="1">
       <c r="A13" s="15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D13" s="15" t="s">
+        <v>816</v>
+      </c>
+      <c r="E13" s="15" t="s">
         <v>820</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>824</v>
       </c>
       <c r="F13" s="15" t="str">
         <f>A9</f>
@@ -11058,7 +11037,7 @@
     </row>
     <row r="14" spans="1:7" ht="29.25" customHeight="1">
       <c r="A14" s="195" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B14" s="196"/>
       <c r="C14" s="196"/>
@@ -11069,38 +11048,38 @@
     </row>
     <row r="15" spans="1:7" ht="22.5" customHeight="1">
       <c r="A15" s="12" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="12" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B16" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>357</v>
-      </c>
       <c r="D16" s="15" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="F16" s="25" t="str">
         <f>A15</f>
@@ -11110,19 +11089,19 @@
     </row>
     <row r="17" spans="1:7" ht="30">
       <c r="A17" s="12" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="F17" s="25" t="str">
         <f>A16</f>
@@ -11132,19 +11111,19 @@
     </row>
     <row r="18" spans="1:7" ht="30">
       <c r="A18" s="12" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="F18" s="25" t="str">
         <f>A16</f>
@@ -11154,19 +11133,19 @@
     </row>
     <row r="19" spans="1:7" ht="30">
       <c r="A19" s="12" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="F19" s="25" t="str">
         <f>A16</f>
@@ -11176,19 +11155,19 @@
     </row>
     <row r="20" spans="1:7" ht="30">
       <c r="A20" s="12" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="F20" s="25" t="str">
         <f>A16</f>
@@ -11198,19 +11177,19 @@
     </row>
     <row r="21" spans="1:7" ht="40.5" customHeight="1">
       <c r="A21" s="12" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="F21" s="25" t="str">
         <f>A16</f>
@@ -11220,19 +11199,19 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="12" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="F22" s="25" t="str">
         <f>A15</f>
@@ -11242,7 +11221,7 @@
     </row>
     <row r="23" spans="1:7" ht="29.25" customHeight="1">
       <c r="A23" s="195" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B23" s="196"/>
       <c r="C23" s="196"/>
@@ -11253,38 +11232,38 @@
     </row>
     <row r="24" spans="1:7" ht="31.5" customHeight="1">
       <c r="A24" s="15" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D24" s="15" t="s">
+        <v>811</v>
+      </c>
+      <c r="E24" s="15" t="s">
         <v>815</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>819</v>
       </c>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
     </row>
     <row r="25" spans="1:7" ht="26.25" customHeight="1">
       <c r="A25" s="15" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="15" t="str">
@@ -11294,19 +11273,19 @@
     </row>
     <row r="26" spans="1:7" ht="30" customHeight="1">
       <c r="A26" s="15" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="F26" s="15"/>
       <c r="G26" s="15" t="str">
@@ -11316,19 +11295,19 @@
     </row>
     <row r="27" spans="1:7" ht="30.75" customHeight="1">
       <c r="A27" s="15" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="F27" s="15"/>
       <c r="G27" s="15" t="str">
@@ -11338,19 +11317,19 @@
     </row>
     <row r="28" spans="1:7" ht="30.75" customHeight="1">
       <c r="A28" s="15" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="F28" s="15"/>
       <c r="G28" s="15" t="str">
@@ -11360,19 +11339,19 @@
     </row>
     <row r="29" spans="1:7" ht="37.5" customHeight="1">
       <c r="A29" s="15" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="F29" s="15"/>
       <c r="G29" s="15" t="str">
@@ -11382,19 +11361,19 @@
     </row>
     <row r="30" spans="1:7" ht="31.5" customHeight="1">
       <c r="A30" s="15" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="15" t="str">
@@ -11472,7 +11451,7 @@
     </row>
     <row r="4" spans="1:14" ht="23.25">
       <c r="A4" s="176" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B4" s="176"/>
       <c r="C4" s="176"/>
@@ -11491,7 +11470,7 @@
     </row>
     <row r="7" spans="1:14" ht="18.75" customHeight="1">
       <c r="A7" s="199" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B7" s="199"/>
       <c r="C7" s="198"/>
@@ -11500,7 +11479,7 @@
     </row>
     <row r="8" spans="1:14" ht="18.75" customHeight="1">
       <c r="A8" s="200" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B8" s="200"/>
       <c r="C8" s="198"/>
@@ -11509,7 +11488,7 @@
     </row>
     <row r="9" spans="1:14" ht="18.75" customHeight="1">
       <c r="A9" s="204" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B9" s="204"/>
       <c r="C9" s="113"/>
@@ -11521,13 +11500,13 @@
     </row>
     <row r="11" spans="1:14" ht="18.75" customHeight="1">
       <c r="A11" s="201" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B11" s="202"/>
     </row>
     <row r="12" spans="1:14" ht="33.75" customHeight="1">
       <c r="A12" s="79" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B12" s="79" t="s">
         <v>1</v>
@@ -11536,24 +11515,24 @@
         <v>3</v>
       </c>
       <c r="D12" s="79" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E12" s="79" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F12" s="137" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="G12" s="137" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="H12" s="158" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="33.75" customHeight="1">
       <c r="A13" s="203" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B13" s="203"/>
       <c r="C13" s="203"/>
@@ -11565,20 +11544,20 @@
     </row>
     <row r="14" spans="1:14" ht="50.25" customHeight="1">
       <c r="A14" s="147" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B14" s="146" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C14" s="144" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="D14" s="144" t="str">
         <f>stakeholders!A$21</f>
         <v>stk.administradorsistema</v>
       </c>
       <c r="E14" s="144" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F14" s="145"/>
       <c r="G14" s="145"/>
@@ -11586,20 +11565,20 @@
     </row>
     <row r="15" spans="1:14" ht="44.25" customHeight="1">
       <c r="A15" s="140" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B15" s="140" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="C15" s="140" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="D15" s="140" t="str">
         <f>stakeholders!A$21</f>
         <v>stk.administradorsistema</v>
       </c>
       <c r="E15" s="140" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F15" s="141" t="str">
         <f>A14</f>
@@ -11616,20 +11595,20 @@
     </row>
     <row r="16" spans="1:14" ht="44.25" customHeight="1">
       <c r="A16" s="138" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B16" s="138" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="C16" s="138" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="D16" s="138" t="str">
         <f>stakeholders!A$21</f>
         <v>stk.administradorsistema</v>
       </c>
       <c r="E16" s="138" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F16" s="18" t="str">
         <f>A15</f>
@@ -11646,20 +11625,20 @@
     </row>
     <row r="17" spans="1:14" ht="44.25" customHeight="1">
       <c r="A17" s="138" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B17" s="138" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="C17" s="138" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="D17" s="138" t="str">
         <f>stakeholders!A$21</f>
         <v>stk.administradorsistema</v>
       </c>
       <c r="E17" s="138" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F17" s="18" t="str">
         <f>A15</f>
@@ -11676,20 +11655,20 @@
     </row>
     <row r="18" spans="1:14" ht="44.25" customHeight="1">
       <c r="A18" s="138" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="B18" s="138" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="C18" s="138" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D18" s="138" t="str">
         <f>stakeholders!A$21</f>
         <v>stk.administradorsistema</v>
       </c>
       <c r="E18" s="138" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F18" s="18" t="str">
         <f>A15</f>
@@ -11697,7 +11676,7 @@
       </c>
       <c r="G18" s="18"/>
       <c r="H18" s="155" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="I18" s="23"/>
       <c r="J18" s="23"/>
@@ -11708,19 +11687,19 @@
     </row>
     <row r="19" spans="1:14" ht="44.25" customHeight="1">
       <c r="A19" s="142" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B19" s="142" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C19" s="142" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="D19" s="142" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E19" s="142" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F19" s="143" t="str">
         <f>A14</f>
@@ -11737,19 +11716,19 @@
     </row>
     <row r="20" spans="1:14" ht="44.25" customHeight="1">
       <c r="A20" s="138" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B20" s="138" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C20" s="138" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D20" s="138" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E20" s="138" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F20" s="18" t="str">
         <f>A19</f>
@@ -11766,19 +11745,19 @@
     </row>
     <row r="21" spans="1:14" ht="44.25" customHeight="1">
       <c r="A21" s="138" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B21" s="138" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C21" s="138" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="D21" s="138" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E21" s="138" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F21" s="18" t="str">
         <f>A19</f>
@@ -11795,19 +11774,19 @@
     </row>
     <row r="22" spans="1:14" ht="44.25" customHeight="1">
       <c r="A22" s="138" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="B22" s="138" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C22" s="138" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="D22" s="138" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E22" s="138" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F22" s="18" t="str">
         <f>A19</f>
@@ -11824,19 +11803,19 @@
     </row>
     <row r="23" spans="1:14" ht="36" customHeight="1">
       <c r="A23" s="142" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B23" s="142" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C23" s="142" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="D23" s="142" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E23" s="142" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F23" s="143" t="str">
         <f>A14</f>
@@ -11844,24 +11823,24 @@
       </c>
       <c r="G23" s="143"/>
       <c r="H23" s="156" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="45" customHeight="1">
       <c r="A24" s="138" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B24" s="138" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="C24" s="138" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="D24" s="138" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E24" s="138" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F24" s="18" t="str">
         <f>A23</f>
@@ -11869,24 +11848,24 @@
       </c>
       <c r="G24" s="18"/>
       <c r="H24" s="156" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="44.25" customHeight="1">
       <c r="A25" s="138" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B25" s="138" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C25" s="138" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="D25" s="138" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E25" s="138" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F25" s="18" t="str">
         <f>A23</f>
@@ -11894,24 +11873,24 @@
       </c>
       <c r="G25" s="18"/>
       <c r="H25" s="156" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="44.25" customHeight="1">
       <c r="A26" s="138" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B26" s="138" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="C26" s="138" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="D26" s="138" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E26" s="138" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F26" s="18" t="str">
         <f>A23</f>
@@ -11919,24 +11898,24 @@
       </c>
       <c r="G26" s="18"/>
       <c r="H26" s="156" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="44.25" customHeight="1">
       <c r="A27" s="138" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B27" s="138" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="C27" s="138" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="D27" s="138" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E27" s="138" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F27" s="18" t="str">
         <f>A24</f>
@@ -11944,24 +11923,24 @@
       </c>
       <c r="G27" s="18"/>
       <c r="H27" s="156" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="44.25" customHeight="1">
       <c r="A28" s="138" t="s">
+        <v>595</v>
+      </c>
+      <c r="B28" s="138" t="s">
+        <v>598</v>
+      </c>
+      <c r="C28" s="138" t="s">
         <v>599</v>
       </c>
-      <c r="B28" s="138" t="s">
-        <v>602</v>
-      </c>
-      <c r="C28" s="138" t="s">
-        <v>603</v>
-      </c>
       <c r="D28" s="138" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E28" s="138" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F28" s="18" t="str">
         <f>A24</f>
@@ -11969,12 +11948,12 @@
       </c>
       <c r="G28" s="18"/>
       <c r="H28" s="156" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="33.75" customHeight="1">
       <c r="A29" s="203" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="B29" s="203"/>
       <c r="C29" s="203"/>
@@ -11986,19 +11965,19 @@
     </row>
     <row r="30" spans="1:14" ht="50.25" customHeight="1">
       <c r="A30" s="144" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B30" s="147" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="C30" s="144" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="D30" s="144" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E30" s="144" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F30" s="145"/>
       <c r="G30" s="145"/>
@@ -12006,19 +11985,19 @@
     </row>
     <row r="31" spans="1:14" ht="66.75" customHeight="1">
       <c r="A31" s="138" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B31" s="138" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="C31" s="138" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="D31" s="138" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E31" s="138" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F31" s="18" t="str">
         <f>A30</f>
@@ -12026,7 +12005,7 @@
       </c>
       <c r="G31" s="18"/>
       <c r="H31" s="155" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="I31" s="23"/>
       <c r="J31" s="23"/>
@@ -12037,19 +12016,19 @@
     </row>
     <row r="32" spans="1:14" ht="84.75" customHeight="1">
       <c r="A32" s="138" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B32" s="138" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C32" s="138" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="D32" s="138" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E32" s="138" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F32" s="18" t="str">
         <f>A30</f>
@@ -12057,7 +12036,7 @@
       </c>
       <c r="G32" s="18"/>
       <c r="H32" s="155" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="I32" s="23"/>
       <c r="J32" s="23"/>
@@ -12068,19 +12047,19 @@
     </row>
     <row r="33" spans="1:14" ht="53.25" customHeight="1">
       <c r="A33" s="138" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B33" s="138" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C33" s="138" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D33" s="138" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E33" s="138" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F33" s="18" t="str">
         <f>A30</f>
@@ -12097,19 +12076,19 @@
     </row>
     <row r="34" spans="1:14" ht="53.25" customHeight="1">
       <c r="A34" s="138" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B34" s="138" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C34" s="138" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="D34" s="138" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E34" s="138" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F34" s="18" t="str">
         <f>A30</f>
@@ -12117,7 +12096,7 @@
       </c>
       <c r="G34" s="18"/>
       <c r="H34" s="154" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="I34" s="23"/>
       <c r="J34" s="23"/>
@@ -12128,19 +12107,19 @@
     </row>
     <row r="35" spans="1:14" ht="109.5" customHeight="1">
       <c r="A35" s="138" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B35" s="138" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="C35" s="138" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="D35" s="138" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E35" s="138" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F35" s="18" t="str">
         <f>A30</f>
@@ -12148,7 +12127,7 @@
       </c>
       <c r="G35" s="18"/>
       <c r="H35" s="155" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="I35" s="23"/>
       <c r="J35" s="23"/>
@@ -12159,19 +12138,19 @@
     </row>
     <row r="36" spans="1:14" ht="70.5" customHeight="1">
       <c r="A36" s="138" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B36" s="138" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="C36" s="138" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="D36" s="138" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E36" s="138" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F36" s="18" t="str">
         <f>A30</f>
@@ -12188,19 +12167,19 @@
     </row>
     <row r="37" spans="1:14" ht="35.25" customHeight="1">
       <c r="A37" s="138" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B37" s="138" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="C37" s="138" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="D37" s="138" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E37" s="138" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F37" s="18" t="str">
         <f>A36</f>
@@ -12208,7 +12187,7 @@
       </c>
       <c r="G37" s="18"/>
       <c r="H37" s="154" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="I37" s="23"/>
       <c r="J37" s="23"/>
@@ -12219,19 +12198,19 @@
     </row>
     <row r="38" spans="1:14" ht="36.75" customHeight="1">
       <c r="A38" s="138" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B38" s="138" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="C38" s="138" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="D38" s="138" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E38" s="138" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F38" s="18" t="str">
         <f>A36</f>
@@ -12239,7 +12218,7 @@
       </c>
       <c r="G38" s="18"/>
       <c r="H38" s="154" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="I38" s="23"/>
       <c r="J38" s="23"/>
@@ -12250,19 +12229,19 @@
     </row>
     <row r="39" spans="1:14" ht="79.5" customHeight="1">
       <c r="A39" s="138" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B39" s="138" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C39" s="138" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="D39" s="138" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E39" s="138" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F39" s="18" t="str">
         <f>A30</f>
@@ -12291,7 +12270,7 @@
     </row>
     <row r="41" spans="1:14" ht="33.75" customHeight="1">
       <c r="A41" s="203" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="B41" s="203"/>
       <c r="C41" s="203"/>
@@ -12303,19 +12282,19 @@
     </row>
     <row r="42" spans="1:14" ht="50.25" customHeight="1">
       <c r="A42" s="147" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B42" s="147" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C42" s="144" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="D42" s="144" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E42" s="144" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F42" s="145"/>
       <c r="G42" s="145"/>
@@ -12323,19 +12302,19 @@
     </row>
     <row r="43" spans="1:14" ht="44.25" customHeight="1">
       <c r="A43" s="142" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B43" s="142" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="C43" s="142" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D43" s="142" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E43" s="142" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F43" s="143" t="str">
         <f>A42</f>
@@ -12343,7 +12322,7 @@
       </c>
       <c r="G43" s="143"/>
       <c r="H43" s="155" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="I43" s="23"/>
       <c r="J43" s="23"/>
@@ -12354,19 +12333,19 @@
     </row>
     <row r="44" spans="1:14" ht="128.25" customHeight="1">
       <c r="A44" s="138" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="B44" s="138" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C44" s="138" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="D44" s="138" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E44" s="138" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F44" s="18" t="str">
         <f>A43</f>
@@ -12374,7 +12353,7 @@
       </c>
       <c r="G44" s="18"/>
       <c r="H44" s="155" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="I44" s="23"/>
       <c r="J44" s="23"/>
@@ -12385,19 +12364,19 @@
     </row>
     <row r="45" spans="1:14" ht="57" customHeight="1">
       <c r="A45" s="138" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="B45" s="138" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="C45" s="138" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="D45" s="138" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E45" s="138" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F45" s="18" t="str">
         <f>A43</f>
@@ -12405,7 +12384,7 @@
       </c>
       <c r="G45" s="18"/>
       <c r="H45" s="155" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="I45" s="23"/>
       <c r="J45" s="23"/>
@@ -12416,19 +12395,19 @@
     </row>
     <row r="46" spans="1:14" ht="57" customHeight="1">
       <c r="A46" s="138" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="B46" s="138" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="C46" s="138" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="D46" s="138" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E46" s="138" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F46" s="18" t="str">
         <f>A43</f>
@@ -12436,7 +12415,7 @@
       </c>
       <c r="G46" s="18"/>
       <c r="H46" s="155" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="I46" s="23"/>
       <c r="J46" s="23"/>
@@ -12447,19 +12426,19 @@
     </row>
     <row r="47" spans="1:14" ht="60.75" customHeight="1">
       <c r="A47" s="138" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B47" s="138" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="C47" s="138" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="D47" s="138" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E47" s="138" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F47" s="18" t="str">
         <f>A43</f>
@@ -12467,7 +12446,7 @@
       </c>
       <c r="G47" s="18"/>
       <c r="H47" s="155" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="I47" s="23"/>
       <c r="J47" s="23"/>
@@ -12478,19 +12457,19 @@
     </row>
     <row r="48" spans="1:14" ht="60.75" customHeight="1">
       <c r="A48" s="138" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="B48" s="138" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="C48" s="138" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="D48" s="138" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E48" s="138" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F48" s="18" t="str">
         <f>A43</f>
@@ -12507,19 +12486,19 @@
     </row>
     <row r="49" spans="1:14" ht="60.75" customHeight="1">
       <c r="A49" s="138" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="B49" s="138" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="C49" s="138" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="D49" s="138" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E49" s="138" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F49" s="18" t="str">
         <f>A43</f>
@@ -12536,19 +12515,19 @@
     </row>
     <row r="50" spans="1:14" ht="60.75" customHeight="1">
       <c r="A50" s="138" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B50" s="138" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="C50" s="138" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="D50" s="138" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E50" s="138" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F50" s="18" t="str">
         <f>A43</f>
@@ -12565,19 +12544,19 @@
     </row>
     <row r="51" spans="1:14" ht="44.25" customHeight="1">
       <c r="A51" s="142" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B51" s="142" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C51" s="142" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="D51" s="142" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E51" s="142" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F51" s="143" t="str">
         <f>A42</f>
@@ -12585,7 +12564,7 @@
       </c>
       <c r="G51" s="143"/>
       <c r="H51" s="154" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="I51" s="23"/>
       <c r="J51" s="23"/>
@@ -12596,19 +12575,19 @@
     </row>
     <row r="52" spans="1:14" ht="44.25" customHeight="1">
       <c r="A52" s="138" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B52" s="138" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="C52" s="138" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="D52" s="138" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E52" s="138" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F52" s="18" t="str">
         <f>A51</f>
@@ -12616,7 +12595,7 @@
       </c>
       <c r="G52" s="18"/>
       <c r="H52" s="154" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="I52" s="23"/>
       <c r="J52" s="23"/>
@@ -12627,19 +12606,19 @@
     </row>
     <row r="53" spans="1:14" ht="44.25" customHeight="1">
       <c r="A53" s="138" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="B53" s="138" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="C53" s="138" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="D53" s="138" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E53" s="138" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F53" s="18" t="str">
         <f>A51</f>
@@ -12647,7 +12626,7 @@
       </c>
       <c r="G53" s="18"/>
       <c r="H53" s="154" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="I53" s="23"/>
       <c r="J53" s="23"/>
@@ -12658,19 +12637,19 @@
     </row>
     <row r="54" spans="1:14" ht="44.25" customHeight="1">
       <c r="A54" s="138" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B54" s="138" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="C54" s="138" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="D54" s="138" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E54" s="138" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F54" s="18" t="str">
         <f>A51</f>
@@ -12678,7 +12657,7 @@
       </c>
       <c r="G54" s="18"/>
       <c r="H54" s="154" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="I54" s="23"/>
       <c r="J54" s="23"/>
@@ -12689,19 +12668,19 @@
     </row>
     <row r="55" spans="1:14" ht="44.25" customHeight="1">
       <c r="A55" s="138" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B55" s="138" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="C55" s="138" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="D55" s="138" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E55" s="138" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F55" s="149" t="str">
         <f>A51</f>
@@ -12709,7 +12688,7 @@
       </c>
       <c r="G55" s="149"/>
       <c r="H55" s="154" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="I55" s="23"/>
       <c r="J55" s="23"/>
@@ -12720,19 +12699,19 @@
     </row>
     <row r="56" spans="1:14" ht="44.25" customHeight="1">
       <c r="A56" s="142" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B56" s="142" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C56" s="142" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D56" s="142" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E56" s="142" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F56" s="143" t="str">
         <f>A42</f>
@@ -12749,19 +12728,19 @@
     </row>
     <row r="57" spans="1:14" ht="90.75" customHeight="1">
       <c r="A57" s="138" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="B57" s="138" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="C57" s="138" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="D57" s="138" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E57" s="138" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F57" s="18" t="str">
         <f>A56</f>
@@ -12778,19 +12757,19 @@
     </row>
     <row r="58" spans="1:14" ht="61.5" customHeight="1">
       <c r="A58" s="138" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="B58" s="138" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="C58" s="138" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="D58" s="138" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E58" s="138" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F58" s="18" t="str">
         <f>A56</f>
@@ -12807,19 +12786,19 @@
     </row>
     <row r="59" spans="1:14" ht="105.75" customHeight="1">
       <c r="A59" s="138" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="B59" s="138" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C59" s="138" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="D59" s="138" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E59" s="138" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F59" s="18" t="str">
         <f>A56</f>
@@ -12836,19 +12815,19 @@
     </row>
     <row r="60" spans="1:14" ht="44.25" customHeight="1">
       <c r="A60" s="142" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="B60" s="142" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C60" s="142" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="D60" s="142" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E60" s="142" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F60" s="150" t="str">
         <f>A42</f>
@@ -12865,19 +12844,19 @@
     </row>
     <row r="61" spans="1:14" ht="155.25" customHeight="1">
       <c r="A61" s="138" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="B61" s="138" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="C61" s="138" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="D61" s="138" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E61" s="138" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F61" s="149" t="str">
         <f>A60</f>
@@ -12885,7 +12864,7 @@
       </c>
       <c r="G61" s="149"/>
       <c r="H61" s="154" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="I61" s="23"/>
       <c r="J61" s="23"/>
@@ -12896,19 +12875,19 @@
     </row>
     <row r="62" spans="1:14" ht="36" customHeight="1">
       <c r="A62" s="138" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="B62" s="138" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="C62" s="151" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="D62" s="138" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E62" s="138" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F62" s="149" t="str">
         <f>A61</f>
@@ -12925,7 +12904,7 @@
     </row>
     <row r="63" spans="1:14" ht="50.25" customHeight="1">
       <c r="A63" s="203" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B63" s="203"/>
       <c r="C63" s="203"/>
@@ -12937,19 +12916,19 @@
     </row>
     <row r="64" spans="1:14" ht="50.25" customHeight="1">
       <c r="A64" s="147" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B64" s="147" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="C64" s="144" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="D64" s="144" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E64" s="144" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F64" s="145"/>
       <c r="G64" s="145"/>
@@ -12957,19 +12936,19 @@
     </row>
     <row r="65" spans="1:14" ht="50.25" customHeight="1">
       <c r="A65" s="138" t="s">
+        <v>628</v>
+      </c>
+      <c r="B65" s="138" t="s">
         <v>632</v>
       </c>
-      <c r="B65" s="138" t="s">
-        <v>636</v>
-      </c>
       <c r="C65" s="138" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="D65" s="138" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E65" s="138" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F65" s="149" t="str">
         <f>A64</f>
@@ -12980,19 +12959,19 @@
     </row>
     <row r="66" spans="1:14" ht="64.5" customHeight="1">
       <c r="A66" s="138" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="B66" s="138" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="C66" s="138" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="D66" s="138" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E66" s="138" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F66" s="149" t="str">
         <f>A64</f>
@@ -13003,19 +12982,19 @@
     </row>
     <row r="67" spans="1:14" ht="64.5" customHeight="1">
       <c r="A67" s="138" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="B67" s="138" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="C67" s="138" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="D67" s="138" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E67" s="138" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F67" s="149" t="str">
         <f>A65</f>
@@ -13026,19 +13005,19 @@
     </row>
     <row r="68" spans="1:14" ht="126" customHeight="1">
       <c r="A68" s="138" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="B68" s="138" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="C68" s="138" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="D68" s="138" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E68" s="138" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F68" s="149" t="str">
         <f>A67</f>
@@ -13049,19 +13028,19 @@
     </row>
     <row r="69" spans="1:14" ht="126" customHeight="1">
       <c r="A69" s="138" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="B69" s="138" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C69" s="138" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="D69" s="138" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E69" s="138" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F69" s="149" t="str">
         <f>A67</f>
@@ -13072,19 +13051,19 @@
     </row>
     <row r="70" spans="1:14" ht="56.25" customHeight="1">
       <c r="A70" s="138" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="B70" s="138" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="C70" s="138" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="D70" s="138" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E70" s="138" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F70" s="149" t="str">
         <f>A67</f>
@@ -13095,19 +13074,19 @@
     </row>
     <row r="71" spans="1:14" ht="56.25" customHeight="1">
       <c r="A71" s="138" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="B71" s="138" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="C71" s="138" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="D71" s="138" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E71" s="138" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F71" s="149" t="str">
         <f>A67</f>
@@ -13118,19 +13097,19 @@
     </row>
     <row r="72" spans="1:14" ht="54.75" customHeight="1">
       <c r="A72" s="138" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="B72" s="138" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="C72" s="138" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="D72" s="138" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E72" s="138" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F72" s="149" t="str">
         <f>A67</f>
@@ -13141,19 +13120,19 @@
     </row>
     <row r="73" spans="1:14" ht="44.25" customHeight="1">
       <c r="A73" s="142" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="B73" s="142" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C73" s="142" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="D73" s="142" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E73" s="142" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F73" s="150" t="str">
         <f>A64</f>
@@ -13170,19 +13149,19 @@
     </row>
     <row r="74" spans="1:14" ht="54.75" customHeight="1">
       <c r="A74" s="138" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="B74" s="138" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="C74" s="151" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="D74" s="138" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E74" s="138" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F74" s="149" t="str">
         <f>A73</f>
@@ -13199,19 +13178,19 @@
     </row>
     <row r="75" spans="1:14" ht="51.75" customHeight="1">
       <c r="A75" s="138" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="B75" s="138" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="C75" s="151" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="D75" s="138" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E75" s="138" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F75" s="149" t="str">
         <f>A73</f>
@@ -13228,7 +13207,7 @@
     </row>
     <row r="76" spans="1:14" ht="33.75" customHeight="1">
       <c r="A76" s="205" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B76" s="205"/>
       <c r="C76" s="205"/>
@@ -13240,41 +13219,41 @@
     </row>
     <row r="77" spans="1:14" ht="50.25" customHeight="1">
       <c r="A77" s="144" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="B77" s="147" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C77" s="144" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="D77" s="144" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E77" s="144" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F77" s="145"/>
       <c r="G77" s="145"/>
       <c r="H77" s="155" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="50.25" customHeight="1">
       <c r="A78" s="138" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B78" s="138" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="C78" s="138" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="D78" s="138" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E78" s="138" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F78" s="138" t="str">
         <f>A77</f>
@@ -13282,24 +13261,24 @@
       </c>
       <c r="G78" s="138"/>
       <c r="H78" s="155" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="50.25" customHeight="1">
       <c r="A79" s="138" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="B79" s="138" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="C79" s="138" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="D79" s="138" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E79" s="138" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F79" s="138" t="str">
         <f>A77</f>
@@ -13307,24 +13286,24 @@
       </c>
       <c r="G79" s="138"/>
       <c r="H79" s="155" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="50.25" customHeight="1">
       <c r="A80" s="138" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="B80" s="138" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="C80" s="138" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="D80" s="138" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E80" s="138" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F80" s="138" t="str">
         <f>A79</f>
@@ -13332,24 +13311,24 @@
       </c>
       <c r="G80" s="138"/>
       <c r="H80" s="155" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="50.25" customHeight="1">
       <c r="A81" s="138" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="B81" s="138" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="C81" s="138" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="D81" s="138" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E81" s="138" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F81" s="138" t="str">
         <f>A79</f>
@@ -13357,24 +13336,24 @@
       </c>
       <c r="G81" s="138"/>
       <c r="H81" s="155" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="66" customHeight="1">
       <c r="A82" s="138" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="B82" s="138" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="C82" s="138" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="D82" s="138" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E82" s="138" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F82" s="138" t="str">
         <f>A79</f>
@@ -13382,24 +13361,24 @@
       </c>
       <c r="G82" s="138"/>
       <c r="H82" s="155" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="50.25" customHeight="1">
       <c r="A83" s="138" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="B83" s="138" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="C83" s="138" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="D83" s="138" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E83" s="138" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F83" s="138" t="str">
         <f>A77</f>
@@ -13410,19 +13389,19 @@
     </row>
     <row r="84" spans="1:8" ht="50.25" customHeight="1">
       <c r="A84" s="138" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="B84" s="138" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="C84" s="138" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="D84" s="138" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E84" s="138" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F84" s="138" t="str">
         <f>A77</f>
@@ -13430,24 +13409,24 @@
       </c>
       <c r="G84" s="138"/>
       <c r="H84" s="155" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="50.25" customHeight="1">
       <c r="A85" s="138" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="B85" s="138" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="C85" s="138" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="D85" s="138" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E85" s="138" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F85" s="138" t="str">
         <f>A84</f>
@@ -13455,24 +13434,24 @@
       </c>
       <c r="G85" s="138"/>
       <c r="H85" s="155" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="50.25" customHeight="1">
       <c r="A86" s="138" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="B86" s="138" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="C86" s="138" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="D86" s="138" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E86" s="138" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F86" s="138" t="str">
         <f>A84</f>
@@ -13480,24 +13459,24 @@
       </c>
       <c r="G86" s="138"/>
       <c r="H86" s="155" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="50.25" customHeight="1">
       <c r="A87" s="138" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="B87" s="138" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="C87" s="138" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="D87" s="138" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E87" s="138" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F87" s="138" t="str">
         <f>A77</f>
@@ -13508,7 +13487,7 @@
     </row>
     <row r="88" spans="1:8" ht="33.75" customHeight="1">
       <c r="A88" s="203" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B88" s="203"/>
       <c r="C88" s="203"/>
@@ -13520,19 +13499,19 @@
     </row>
     <row r="89" spans="1:8" ht="50.25" customHeight="1">
       <c r="A89" s="144" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="B89" s="147" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="C89" s="144" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D89" s="144" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E89" s="144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F89" s="145"/>
       <c r="G89" s="145"/>
@@ -13540,19 +13519,19 @@
     </row>
     <row r="90" spans="1:8" ht="50.25" customHeight="1">
       <c r="A90" s="138" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="B90" s="138" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C90" s="138" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="D90" s="138" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E90" s="138" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F90" s="138" t="str">
         <f>A89</f>
@@ -13563,19 +13542,19 @@
     </row>
     <row r="91" spans="1:8" ht="50.25" customHeight="1">
       <c r="A91" s="138" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B91" s="138" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C91" s="138" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="D91" s="138" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E91" s="138" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F91" s="138" t="str">
         <f>A89</f>
@@ -13586,13 +13565,13 @@
     </row>
     <row r="94" spans="1:8" ht="18.75" customHeight="1">
       <c r="A94" s="201" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B94" s="202"/>
     </row>
     <row r="95" spans="1:8" ht="33.75" customHeight="1">
       <c r="A95" s="79" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B95" s="79" t="s">
         <v>1</v>
@@ -13601,21 +13580,21 @@
         <v>3</v>
       </c>
       <c r="D95" s="79" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E95" s="79" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F95" s="137" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="G95" s="137" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="33.75" customHeight="1">
       <c r="A96" s="203" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B96" s="203"/>
       <c r="C96" s="203"/>
@@ -13626,38 +13605,38 @@
     </row>
     <row r="97" spans="1:14" ht="50.25" customHeight="1">
       <c r="A97" s="147" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B97" s="146" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C97" s="144" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="D97" s="144" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E97" s="144" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F97" s="145"/>
       <c r="G97" s="145"/>
     </row>
     <row r="98" spans="1:14" ht="44.25" customHeight="1">
       <c r="A98" s="140" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B98" s="140" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="C98" s="140" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="D98" s="140" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E98" s="140" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F98" s="141" t="str">
         <f>A97</f>
@@ -13673,19 +13652,19 @@
     </row>
     <row r="99" spans="1:14" ht="44.25" customHeight="1">
       <c r="A99" s="140" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B99" s="140" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C99" s="140" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="D99" s="140" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E99" s="140" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F99" s="141" t="str">
         <f>A97</f>
@@ -13781,7 +13760,7 @@
     </row>
     <row r="4" spans="1:6" ht="23.25">
       <c r="A4" s="176" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="B4" s="176"/>
       <c r="C4" s="176"/>
@@ -13795,13 +13774,13 @@
     </row>
     <row r="6" spans="1:6" ht="31.5" customHeight="1">
       <c r="A6" s="210" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B6" s="211"/>
       <c r="C6" s="211"/>
       <c r="D6" s="212"/>
       <c r="E6" s="206" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="F6" s="206" t="s">
         <v>3</v>
@@ -13809,11 +13788,11 @@
     </row>
     <row r="7" spans="1:6" ht="15.75">
       <c r="A7" s="209" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B7" s="209"/>
       <c r="C7" s="209" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D7" s="209"/>
       <c r="E7" s="207"/>
@@ -13853,10 +13832,10 @@
         <v>Segurança nas comunicações</v>
       </c>
       <c r="E9" s="123" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="F9" s="122" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="49" customFormat="1" ht="38.25" customHeight="1">
@@ -13866,7 +13845,7 @@
       <c r="D10" s="122"/>
       <c r="E10" s="123"/>
       <c r="F10" s="122" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="49" customFormat="1" ht="38.25" customHeight="1">
@@ -13876,7 +13855,7 @@
       <c r="D11" s="122"/>
       <c r="E11" s="123"/>
       <c r="F11" s="122" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="49" customFormat="1" ht="38.25" customHeight="1">
@@ -13886,7 +13865,7 @@
       <c r="D12" s="122"/>
       <c r="E12" s="123"/>
       <c r="F12" s="122" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="49" customFormat="1" ht="38.25" customHeight="1">
@@ -13896,7 +13875,7 @@
       <c r="D13" s="122"/>
       <c r="E13" s="123"/>
       <c r="F13" s="122" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="49" customFormat="1" ht="38.25" customHeight="1">
@@ -13906,7 +13885,7 @@
       <c r="D14" s="122"/>
       <c r="E14" s="123"/>
       <c r="F14" s="122" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="49" customFormat="1" ht="38.25" customHeight="1">
@@ -13916,7 +13895,7 @@
       <c r="D15" s="122"/>
       <c r="E15" s="123"/>
       <c r="F15" s="122" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
   </sheetData>

--- a/Templates/SIOP-RSLIL-v2.1.xlsx
+++ b/Templates/SIOP-RSLIL-v2.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr codeName="EsteLivro" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="842" firstSheet="6" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="842" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -6566,7 +6566,7 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -9844,7 +9844,7 @@
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13723,8 +13723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Templates/SIOP-RSLIL-v2.1.xlsx
+++ b/Templates/SIOP-RSLIL-v2.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr codeName="EsteLivro" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="842" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="842" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -3741,6 +3741,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3753,12 +3762,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3771,9 +3774,6 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3810,6 +3810,21 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3819,21 +3834,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3879,6 +3879,30 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3888,6 +3912,15 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3927,39 +3960,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3978,6 +3978,27 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3986,27 +4007,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4464,7 +4464,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4487,29 +4487,29 @@
       <c r="C1" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="23.25">
-      <c r="A3" s="175" t="str">
+      <c r="A3" s="178" t="str">
         <f>index!A1</f>
         <v>Especificação de Requisitos do SIOP (Sistema Integrado de Operações) - CSSFAA</v>
       </c>
-      <c r="B3" s="175"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="175"/>
+      <c r="B3" s="178"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="178"/>
+      <c r="G3" s="178"/>
+      <c r="H3" s="178"/>
     </row>
     <row r="4" spans="1:8" ht="23.25">
-      <c r="A4" s="176" t="s">
+      <c r="A4" s="179" t="s">
         <v>504</v>
       </c>
-      <c r="B4" s="176"/>
-      <c r="C4" s="176"/>
-      <c r="D4" s="176"/>
-      <c r="E4" s="176"/>
-      <c r="F4" s="176"/>
-      <c r="G4" s="176"/>
-      <c r="H4" s="176"/>
+      <c r="B4" s="179"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="179"/>
+      <c r="E4" s="179"/>
+      <c r="F4" s="179"/>
+      <c r="G4" s="179"/>
+      <c r="H4" s="179"/>
     </row>
     <row r="5" spans="1:8" ht="57" customHeight="1"/>
     <row r="6" spans="1:8" ht="31.5" customHeight="1">
@@ -4720,35 +4720,35 @@
       <c r="G1" s="4"/>
     </row>
     <row r="3" spans="1:11" ht="23.25">
-      <c r="A3" s="175" t="str">
+      <c r="A3" s="178" t="str">
         <f>index!A1</f>
         <v>Especificação de Requisitos do SIOP (Sistema Integrado de Operações) - CSSFAA</v>
       </c>
-      <c r="B3" s="175"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="175"/>
-      <c r="I3" s="175"/>
-      <c r="J3" s="175"/>
-      <c r="K3" s="175"/>
+      <c r="B3" s="178"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="178"/>
+      <c r="G3" s="178"/>
+      <c r="H3" s="178"/>
+      <c r="I3" s="178"/>
+      <c r="J3" s="178"/>
+      <c r="K3" s="178"/>
     </row>
     <row r="4" spans="1:11" ht="23.25">
-      <c r="A4" s="176" t="s">
+      <c r="A4" s="179" t="s">
         <v>506</v>
       </c>
-      <c r="B4" s="176"/>
-      <c r="C4" s="176"/>
-      <c r="D4" s="176"/>
-      <c r="E4" s="176"/>
-      <c r="F4" s="176"/>
-      <c r="G4" s="176"/>
-      <c r="H4" s="176"/>
-      <c r="I4" s="176"/>
-      <c r="J4" s="176"/>
-      <c r="K4" s="176"/>
+      <c r="B4" s="179"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="179"/>
+      <c r="E4" s="179"/>
+      <c r="F4" s="179"/>
+      <c r="G4" s="179"/>
+      <c r="H4" s="179"/>
+      <c r="I4" s="179"/>
+      <c r="J4" s="179"/>
+      <c r="K4" s="179"/>
     </row>
     <row r="6" spans="1:11" ht="30.75" customHeight="1"/>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
@@ -5049,16 +5049,16 @@
       <c r="H3" s="157"/>
     </row>
     <row r="4" spans="1:8" ht="23.25">
-      <c r="A4" s="176" t="s">
+      <c r="A4" s="179" t="s">
         <v>507</v>
       </c>
-      <c r="B4" s="176"/>
-      <c r="C4" s="176"/>
-      <c r="D4" s="176"/>
-      <c r="E4" s="176"/>
-      <c r="F4" s="176"/>
-      <c r="G4" s="176"/>
-      <c r="H4" s="176"/>
+      <c r="B4" s="179"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="179"/>
+      <c r="E4" s="179"/>
+      <c r="F4" s="179"/>
+      <c r="G4" s="179"/>
+      <c r="H4" s="179"/>
     </row>
     <row r="6" spans="1:8" ht="30.75" customHeight="1"/>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
@@ -5278,14 +5278,14 @@
       <c r="F3" s="110"/>
     </row>
     <row r="4" spans="1:6" ht="23.25">
-      <c r="A4" s="176" t="s">
+      <c r="A4" s="179" t="s">
         <v>785</v>
       </c>
-      <c r="B4" s="176"/>
-      <c r="C4" s="176"/>
-      <c r="D4" s="176"/>
-      <c r="E4" s="176"/>
-      <c r="F4" s="176"/>
+      <c r="B4" s="179"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="179"/>
+      <c r="E4" s="179"/>
+      <c r="F4" s="179"/>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1">
       <c r="A5" s="41"/>
@@ -5458,8 +5458,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD8"/>
+    <sheetView topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5486,63 +5486,63 @@
       <c r="A2" s="4"/>
     </row>
     <row r="3" spans="1:12" ht="23.25">
-      <c r="A3" s="175" t="str">
+      <c r="A3" s="178" t="str">
         <f>index!A1</f>
         <v>Especificação de Requisitos do SIOP (Sistema Integrado de Operações) - CSSFAA</v>
       </c>
-      <c r="B3" s="175"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="175"/>
-      <c r="I3" s="175"/>
-      <c r="J3" s="175"/>
-      <c r="K3" s="175"/>
-      <c r="L3" s="175"/>
+      <c r="B3" s="178"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="178"/>
+      <c r="G3" s="178"/>
+      <c r="H3" s="178"/>
+      <c r="I3" s="178"/>
+      <c r="J3" s="178"/>
+      <c r="K3" s="178"/>
+      <c r="L3" s="178"/>
     </row>
     <row r="4" spans="1:12" ht="23.25">
-      <c r="A4" s="176" t="s">
+      <c r="A4" s="179" t="s">
         <v>500</v>
       </c>
-      <c r="B4" s="176"/>
-      <c r="C4" s="176"/>
-      <c r="D4" s="176"/>
-      <c r="E4" s="176"/>
-      <c r="F4" s="176"/>
-      <c r="G4" s="176"/>
-      <c r="H4" s="176"/>
-      <c r="I4" s="176"/>
-      <c r="J4" s="176"/>
-      <c r="K4" s="176"/>
-      <c r="L4" s="176"/>
+      <c r="B4" s="179"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="179"/>
+      <c r="E4" s="179"/>
+      <c r="F4" s="179"/>
+      <c r="G4" s="179"/>
+      <c r="H4" s="179"/>
+      <c r="I4" s="179"/>
+      <c r="J4" s="179"/>
+      <c r="K4" s="179"/>
+      <c r="L4" s="179"/>
     </row>
     <row r="5" spans="1:12" ht="18.75" customHeight="1">
       <c r="A5" s="4"/>
     </row>
     <row r="6" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A6" s="201" t="s">
+      <c r="A6" s="200" t="s">
         <v>508</v>
       </c>
-      <c r="B6" s="202"/>
+      <c r="B6" s="201"/>
     </row>
     <row r="7" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A7" s="241" t="s">
+      <c r="A7" s="222" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="242"/>
-      <c r="C7" s="198"/>
-      <c r="D7" s="198"/>
+      <c r="B7" s="223"/>
+      <c r="C7" s="203"/>
+      <c r="D7" s="203"/>
       <c r="E7" s="64"/>
     </row>
     <row r="8" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A8" s="243" t="s">
+      <c r="A8" s="224" t="s">
         <v>208</v>
       </c>
-      <c r="B8" s="244"/>
-      <c r="C8" s="198"/>
-      <c r="D8" s="198"/>
+      <c r="B8" s="225"/>
+      <c r="C8" s="203"/>
+      <c r="D8" s="203"/>
       <c r="E8" s="64"/>
     </row>
     <row r="9" spans="1:12" ht="18.75" customHeight="1">
@@ -5562,10 +5562,10 @@
       <c r="F10" s="90"/>
       <c r="G10" s="90"/>
       <c r="H10" s="90"/>
-      <c r="I10" s="232"/>
-      <c r="J10" s="232"/>
-      <c r="K10" s="232"/>
-      <c r="L10" s="232"/>
+      <c r="I10" s="243"/>
+      <c r="J10" s="243"/>
+      <c r="K10" s="243"/>
+      <c r="L10" s="243"/>
     </row>
     <row r="11" spans="1:12" ht="25.5" customHeight="1">
       <c r="A11" s="85" t="s">
@@ -5583,26 +5583,26 @@
       <c r="E11" s="91" t="s">
         <v>193</v>
       </c>
-      <c r="F11" s="231"/>
-      <c r="G11" s="231"/>
-      <c r="H11" s="231"/>
-      <c r="I11" s="231"/>
-      <c r="J11" s="231"/>
-      <c r="K11" s="231"/>
-      <c r="L11" s="231"/>
+      <c r="F11" s="242"/>
+      <c r="G11" s="242"/>
+      <c r="H11" s="242"/>
+      <c r="I11" s="242"/>
+      <c r="J11" s="242"/>
+      <c r="K11" s="242"/>
+      <c r="L11" s="242"/>
     </row>
     <row r="12" spans="1:12" ht="18.75" customHeight="1">
-      <c r="D12" s="238" t="s">
+      <c r="D12" s="226" t="s">
         <v>195</v>
       </c>
-      <c r="E12" s="239"/>
-      <c r="F12" s="239"/>
-      <c r="G12" s="239"/>
-      <c r="H12" s="239"/>
-      <c r="I12" s="239"/>
-      <c r="J12" s="239"/>
-      <c r="K12" s="239"/>
-      <c r="L12" s="240"/>
+      <c r="E12" s="227"/>
+      <c r="F12" s="227"/>
+      <c r="G12" s="227"/>
+      <c r="H12" s="227"/>
+      <c r="I12" s="227"/>
+      <c r="J12" s="227"/>
+      <c r="K12" s="227"/>
+      <c r="L12" s="228"/>
     </row>
     <row r="13" spans="1:12" ht="18.75" customHeight="1">
       <c r="D13" s="9" t="s">
@@ -5634,17 +5634,17 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="18.75" customHeight="1">
-      <c r="D14" s="238" t="s">
+      <c r="D14" s="226" t="s">
         <v>197</v>
       </c>
-      <c r="E14" s="239"/>
-      <c r="F14" s="239"/>
-      <c r="G14" s="239"/>
-      <c r="H14" s="239"/>
-      <c r="I14" s="239"/>
-      <c r="J14" s="239"/>
-      <c r="K14" s="239"/>
-      <c r="L14" s="240"/>
+      <c r="E14" s="227"/>
+      <c r="F14" s="227"/>
+      <c r="G14" s="227"/>
+      <c r="H14" s="227"/>
+      <c r="I14" s="227"/>
+      <c r="J14" s="227"/>
+      <c r="K14" s="227"/>
+      <c r="L14" s="228"/>
     </row>
     <row r="15" spans="1:12" ht="18.75" customHeight="1">
       <c r="D15" s="9" t="s">
@@ -5656,40 +5656,40 @@
       <c r="F15" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="G15" s="245"/>
-      <c r="H15" s="246"/>
-      <c r="I15" s="246"/>
-      <c r="J15" s="246"/>
-      <c r="K15" s="246"/>
-      <c r="L15" s="247"/>
+      <c r="G15" s="232"/>
+      <c r="H15" s="233"/>
+      <c r="I15" s="233"/>
+      <c r="J15" s="233"/>
+      <c r="K15" s="233"/>
+      <c r="L15" s="234"/>
     </row>
     <row r="16" spans="1:12" ht="18.75" customHeight="1">
-      <c r="D16" s="238" t="s">
+      <c r="D16" s="226" t="s">
         <v>200</v>
       </c>
-      <c r="E16" s="239"/>
-      <c r="F16" s="239"/>
-      <c r="G16" s="239"/>
-      <c r="H16" s="239"/>
-      <c r="I16" s="239"/>
-      <c r="J16" s="239"/>
-      <c r="K16" s="239"/>
-      <c r="L16" s="240"/>
+      <c r="E16" s="227"/>
+      <c r="F16" s="227"/>
+      <c r="G16" s="227"/>
+      <c r="H16" s="227"/>
+      <c r="I16" s="227"/>
+      <c r="J16" s="227"/>
+      <c r="K16" s="227"/>
+      <c r="L16" s="228"/>
     </row>
     <row r="17" spans="1:13" ht="18.75" customHeight="1">
       <c r="D17" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="E17" s="234" t="s">
+      <c r="E17" s="245" t="s">
         <v>202</v>
       </c>
-      <c r="F17" s="235"/>
-      <c r="G17" s="235"/>
-      <c r="H17" s="235"/>
-      <c r="I17" s="235"/>
-      <c r="J17" s="235"/>
-      <c r="K17" s="235"/>
-      <c r="L17" s="236"/>
+      <c r="F17" s="246"/>
+      <c r="G17" s="246"/>
+      <c r="H17" s="246"/>
+      <c r="I17" s="246"/>
+      <c r="J17" s="246"/>
+      <c r="K17" s="246"/>
+      <c r="L17" s="247"/>
     </row>
     <row r="18" spans="1:13" ht="18.75" customHeight="1">
       <c r="A18" s="96" t="s">
@@ -5707,18 +5707,18 @@
       <c r="E18" s="99" t="s">
         <v>194</v>
       </c>
-      <c r="F18" s="221"/>
-      <c r="G18" s="222"/>
-      <c r="H18" s="222"/>
-      <c r="I18" s="222"/>
-      <c r="J18" s="222"/>
-      <c r="K18" s="222"/>
-      <c r="L18" s="223"/>
+      <c r="F18" s="229"/>
+      <c r="G18" s="230"/>
+      <c r="H18" s="230"/>
+      <c r="I18" s="230"/>
+      <c r="J18" s="230"/>
+      <c r="K18" s="230"/>
+      <c r="L18" s="231"/>
     </row>
     <row r="19" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A19" s="226"/>
-      <c r="B19" s="226"/>
-      <c r="C19" s="237" t="s">
+      <c r="A19" s="237"/>
+      <c r="B19" s="237"/>
+      <c r="C19" s="221" t="s">
         <v>196</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -5751,9 +5751,9 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A20" s="233"/>
-      <c r="B20" s="233"/>
-      <c r="C20" s="237"/>
+      <c r="A20" s="244"/>
+      <c r="B20" s="244"/>
+      <c r="C20" s="221"/>
       <c r="D20" s="2" t="s">
         <v>124</v>
       </c>
@@ -5779,9 +5779,9 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A21" s="233"/>
-      <c r="B21" s="233"/>
-      <c r="C21" s="237"/>
+      <c r="A21" s="244"/>
+      <c r="B21" s="244"/>
+      <c r="C21" s="221"/>
       <c r="D21" s="2" t="s">
         <v>175</v>
       </c>
@@ -5805,9 +5805,9 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A22" s="233"/>
-      <c r="B22" s="233"/>
-      <c r="C22" s="237"/>
+      <c r="A22" s="244"/>
+      <c r="B22" s="244"/>
+      <c r="C22" s="221"/>
       <c r="D22" s="2" t="s">
         <v>207</v>
       </c>
@@ -5833,9 +5833,9 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A23" s="233"/>
-      <c r="B23" s="233"/>
-      <c r="C23" s="237" t="s">
+      <c r="A23" s="244"/>
+      <c r="B23" s="244"/>
+      <c r="C23" s="221" t="s">
         <v>197</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -5847,20 +5847,20 @@
       <c r="F23" s="24">
         <v>1</v>
       </c>
-      <c r="G23" s="237"/>
-      <c r="H23" s="237"/>
-      <c r="I23" s="237"/>
-      <c r="J23" s="237"/>
-      <c r="K23" s="237"/>
-      <c r="L23" s="237"/>
+      <c r="G23" s="221"/>
+      <c r="H23" s="221"/>
+      <c r="I23" s="221"/>
+      <c r="J23" s="221"/>
+      <c r="K23" s="221"/>
+      <c r="L23" s="221"/>
       <c r="M23" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A24" s="233"/>
-      <c r="B24" s="233"/>
-      <c r="C24" s="237"/>
+      <c r="A24" s="244"/>
+      <c r="B24" s="244"/>
+      <c r="C24" s="221"/>
       <c r="D24" s="2" t="s">
         <v>205</v>
       </c>
@@ -5870,17 +5870,17 @@
       <c r="F24" s="24">
         <v>1</v>
       </c>
-      <c r="G24" s="237"/>
-      <c r="H24" s="237"/>
-      <c r="I24" s="237"/>
-      <c r="J24" s="237"/>
-      <c r="K24" s="237"/>
-      <c r="L24" s="237"/>
+      <c r="G24" s="221"/>
+      <c r="H24" s="221"/>
+      <c r="I24" s="221"/>
+      <c r="J24" s="221"/>
+      <c r="K24" s="221"/>
+      <c r="L24" s="221"/>
     </row>
     <row r="25" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A25" s="233"/>
-      <c r="B25" s="233"/>
-      <c r="C25" s="237"/>
+      <c r="A25" s="244"/>
+      <c r="B25" s="244"/>
+      <c r="C25" s="221"/>
       <c r="D25" s="2" t="s">
         <v>206</v>
       </c>
@@ -5890,67 +5890,67 @@
       <c r="F25" s="24">
         <v>1</v>
       </c>
-      <c r="G25" s="237"/>
-      <c r="H25" s="237"/>
-      <c r="I25" s="237"/>
-      <c r="J25" s="237"/>
-      <c r="K25" s="237"/>
-      <c r="L25" s="237"/>
+      <c r="G25" s="221"/>
+      <c r="H25" s="221"/>
+      <c r="I25" s="221"/>
+      <c r="J25" s="221"/>
+      <c r="K25" s="221"/>
+      <c r="L25" s="221"/>
     </row>
     <row r="26" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A26" s="233"/>
-      <c r="B26" s="233"/>
-      <c r="C26" s="226" t="s">
+      <c r="A26" s="244"/>
+      <c r="B26" s="244"/>
+      <c r="C26" s="237" t="s">
         <v>200</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E26" s="228" t="s">
+      <c r="E26" s="239" t="s">
         <v>210</v>
       </c>
-      <c r="F26" s="229"/>
-      <c r="G26" s="229"/>
-      <c r="H26" s="229"/>
-      <c r="I26" s="229"/>
-      <c r="J26" s="229"/>
-      <c r="K26" s="229"/>
-      <c r="L26" s="230"/>
+      <c r="F26" s="240"/>
+      <c r="G26" s="240"/>
+      <c r="H26" s="240"/>
+      <c r="I26" s="240"/>
+      <c r="J26" s="240"/>
+      <c r="K26" s="240"/>
+      <c r="L26" s="241"/>
       <c r="M26" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A27" s="227"/>
-      <c r="B27" s="227"/>
-      <c r="C27" s="227"/>
+      <c r="A27" s="238"/>
+      <c r="B27" s="238"/>
+      <c r="C27" s="238"/>
       <c r="D27" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E27" s="228" t="s">
+      <c r="E27" s="239" t="s">
         <v>204</v>
       </c>
-      <c r="F27" s="229"/>
-      <c r="G27" s="229"/>
-      <c r="H27" s="229"/>
-      <c r="I27" s="229"/>
-      <c r="J27" s="229"/>
-      <c r="K27" s="229"/>
-      <c r="L27" s="230"/>
+      <c r="F27" s="240"/>
+      <c r="G27" s="240"/>
+      <c r="H27" s="240"/>
+      <c r="I27" s="240"/>
+      <c r="J27" s="240"/>
+      <c r="K27" s="240"/>
+      <c r="L27" s="241"/>
     </row>
     <row r="28" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A28" s="224"/>
-      <c r="B28" s="225"/>
-      <c r="C28" s="225"/>
-      <c r="D28" s="225"/>
-      <c r="E28" s="225"/>
-      <c r="F28" s="225"/>
-      <c r="G28" s="225"/>
-      <c r="H28" s="225"/>
-      <c r="I28" s="225"/>
-      <c r="J28" s="225"/>
-      <c r="K28" s="225"/>
-      <c r="L28" s="225"/>
+      <c r="A28" s="235"/>
+      <c r="B28" s="236"/>
+      <c r="C28" s="236"/>
+      <c r="D28" s="236"/>
+      <c r="E28" s="236"/>
+      <c r="F28" s="236"/>
+      <c r="G28" s="236"/>
+      <c r="H28" s="236"/>
+      <c r="I28" s="236"/>
+      <c r="J28" s="236"/>
+      <c r="K28" s="236"/>
+      <c r="L28" s="236"/>
     </row>
     <row r="29" spans="1:13" ht="18.75" customHeight="1">
       <c r="A29" s="96" t="s">
@@ -5968,16 +5968,16 @@
       <c r="E29" s="99" t="s">
         <v>194</v>
       </c>
-      <c r="F29" s="221"/>
-      <c r="G29" s="222"/>
-      <c r="H29" s="222"/>
-      <c r="I29" s="222"/>
-      <c r="J29" s="222"/>
-      <c r="K29" s="222"/>
-      <c r="L29" s="223"/>
+      <c r="F29" s="229"/>
+      <c r="G29" s="230"/>
+      <c r="H29" s="230"/>
+      <c r="I29" s="230"/>
+      <c r="J29" s="230"/>
+      <c r="K29" s="230"/>
+      <c r="L29" s="231"/>
     </row>
     <row r="30" spans="1:13" ht="18.75" customHeight="1">
-      <c r="C30" s="237" t="s">
+      <c r="C30" s="221" t="s">
         <v>196</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -6005,7 +6005,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="18.75" customHeight="1">
-      <c r="C31" s="237"/>
+      <c r="C31" s="221"/>
       <c r="D31" s="2" t="s">
         <v>124</v>
       </c>
@@ -6031,7 +6031,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="18.75" customHeight="1">
-      <c r="C32" s="237"/>
+      <c r="C32" s="221"/>
       <c r="D32" s="2" t="s">
         <v>175</v>
       </c>
@@ -6055,7 +6055,7 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="18.75" customHeight="1">
-      <c r="C33" s="237"/>
+      <c r="C33" s="221"/>
       <c r="D33" s="2" t="s">
         <v>207</v>
       </c>
@@ -6094,16 +6094,16 @@
       <c r="E35" s="99" t="s">
         <v>194</v>
       </c>
-      <c r="F35" s="221"/>
-      <c r="G35" s="222"/>
-      <c r="H35" s="222"/>
-      <c r="I35" s="222"/>
-      <c r="J35" s="222"/>
-      <c r="K35" s="222"/>
-      <c r="L35" s="223"/>
+      <c r="F35" s="229"/>
+      <c r="G35" s="230"/>
+      <c r="H35" s="230"/>
+      <c r="I35" s="230"/>
+      <c r="J35" s="230"/>
+      <c r="K35" s="230"/>
+      <c r="L35" s="231"/>
     </row>
     <row r="36" spans="1:12" ht="18.75" customHeight="1">
-      <c r="C36" s="237" t="s">
+      <c r="C36" s="221" t="s">
         <v>196</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -6131,7 +6131,7 @@
       </c>
     </row>
     <row r="37" spans="1:12" ht="18.75" customHeight="1">
-      <c r="C37" s="237"/>
+      <c r="C37" s="221"/>
       <c r="D37" s="2" t="s">
         <v>124</v>
       </c>
@@ -6157,7 +6157,7 @@
       </c>
     </row>
     <row r="38" spans="1:12" ht="18.75" customHeight="1">
-      <c r="C38" s="237"/>
+      <c r="C38" s="221"/>
       <c r="D38" s="2" t="s">
         <v>175</v>
       </c>
@@ -6181,7 +6181,7 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="18.75" customHeight="1">
-      <c r="C39" s="237"/>
+      <c r="C39" s="221"/>
       <c r="D39" s="2" t="s">
         <v>207</v>
       </c>
@@ -6205,7 +6205,7 @@
       </c>
     </row>
     <row r="40" spans="1:12" ht="18.75" customHeight="1">
-      <c r="C40" s="237" t="s">
+      <c r="C40" s="221" t="s">
         <v>197</v>
       </c>
       <c r="D40" s="2" t="s">
@@ -6217,15 +6217,15 @@
       <c r="F40" s="24">
         <v>1</v>
       </c>
-      <c r="G40" s="237"/>
-      <c r="H40" s="237"/>
-      <c r="I40" s="237"/>
-      <c r="J40" s="237"/>
-      <c r="K40" s="237"/>
-      <c r="L40" s="237"/>
+      <c r="G40" s="221"/>
+      <c r="H40" s="221"/>
+      <c r="I40" s="221"/>
+      <c r="J40" s="221"/>
+      <c r="K40" s="221"/>
+      <c r="L40" s="221"/>
     </row>
     <row r="41" spans="1:12" ht="18.75" customHeight="1">
-      <c r="C41" s="237"/>
+      <c r="C41" s="221"/>
       <c r="D41" s="2" t="s">
         <v>205</v>
       </c>
@@ -6235,15 +6235,15 @@
       <c r="F41" s="24">
         <v>1</v>
       </c>
-      <c r="G41" s="237"/>
-      <c r="H41" s="237"/>
-      <c r="I41" s="237"/>
-      <c r="J41" s="237"/>
-      <c r="K41" s="237"/>
-      <c r="L41" s="237"/>
+      <c r="G41" s="221"/>
+      <c r="H41" s="221"/>
+      <c r="I41" s="221"/>
+      <c r="J41" s="221"/>
+      <c r="K41" s="221"/>
+      <c r="L41" s="221"/>
     </row>
     <row r="42" spans="1:12" ht="18.75" customHeight="1">
-      <c r="C42" s="237"/>
+      <c r="C42" s="221"/>
       <c r="D42" s="2" t="s">
         <v>214</v>
       </c>
@@ -6253,33 +6253,16 @@
       <c r="F42" s="24">
         <v>1</v>
       </c>
-      <c r="G42" s="237"/>
-      <c r="H42" s="237"/>
-      <c r="I42" s="237"/>
-      <c r="J42" s="237"/>
-      <c r="K42" s="237"/>
-      <c r="L42" s="237"/>
+      <c r="G42" s="221"/>
+      <c r="H42" s="221"/>
+      <c r="I42" s="221"/>
+      <c r="J42" s="221"/>
+      <c r="K42" s="221"/>
+      <c r="L42" s="221"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="33">
-    <mergeCell ref="G24:L24"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="D16:L16"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="G40:L40"/>
-    <mergeCell ref="G41:L41"/>
-    <mergeCell ref="G42:L42"/>
-    <mergeCell ref="G25:L25"/>
-    <mergeCell ref="F29:L29"/>
-    <mergeCell ref="F18:L18"/>
-    <mergeCell ref="G15:L15"/>
     <mergeCell ref="A3:L3"/>
     <mergeCell ref="A4:L4"/>
     <mergeCell ref="F35:L35"/>
@@ -6296,6 +6279,23 @@
     <mergeCell ref="D14:L14"/>
     <mergeCell ref="G23:L23"/>
     <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="G40:L40"/>
+    <mergeCell ref="G41:L41"/>
+    <mergeCell ref="G42:L42"/>
+    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="F29:L29"/>
+    <mergeCell ref="F18:L18"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="D16:L16"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G19:G22 G30:G33 G36:G39">
@@ -6566,8 +6566,8 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A5" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6618,25 +6618,25 @@
       <c r="Q3" s="72"/>
     </row>
     <row r="4" spans="1:18" ht="23.25">
-      <c r="A4" s="176" t="s">
+      <c r="A4" s="179" t="s">
         <v>502</v>
       </c>
-      <c r="B4" s="176"/>
-      <c r="C4" s="176"/>
-      <c r="D4" s="176"/>
-      <c r="E4" s="176"/>
-      <c r="F4" s="176"/>
-      <c r="G4" s="176"/>
-      <c r="H4" s="176"/>
-      <c r="I4" s="176"/>
-      <c r="J4" s="176"/>
-      <c r="K4" s="176"/>
-      <c r="L4" s="176"/>
-      <c r="M4" s="176"/>
-      <c r="N4" s="176"/>
-      <c r="O4" s="176"/>
-      <c r="P4" s="176"/>
-      <c r="Q4" s="176"/>
+      <c r="B4" s="179"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="179"/>
+      <c r="E4" s="179"/>
+      <c r="F4" s="179"/>
+      <c r="G4" s="179"/>
+      <c r="H4" s="179"/>
+      <c r="I4" s="179"/>
+      <c r="J4" s="179"/>
+      <c r="K4" s="179"/>
+      <c r="L4" s="179"/>
+      <c r="M4" s="179"/>
+      <c r="N4" s="179"/>
+      <c r="O4" s="179"/>
+      <c r="P4" s="179"/>
+      <c r="Q4" s="179"/>
     </row>
     <row r="5" spans="1:18" ht="21" customHeight="1"/>
     <row r="6" spans="1:18">
@@ -6650,56 +6650,56 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A9" s="254" t="s">
+      <c r="A9" s="261" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="255"/>
-      <c r="C9" s="255"/>
-      <c r="D9" s="255"/>
-      <c r="E9" s="255"/>
-      <c r="F9" s="255"/>
-      <c r="G9" s="255"/>
-      <c r="H9" s="255"/>
-      <c r="I9" s="255"/>
-      <c r="J9" s="255"/>
-      <c r="K9" s="255"/>
-      <c r="L9" s="255"/>
-      <c r="M9" s="255"/>
-      <c r="N9" s="255"/>
-      <c r="O9" s="255"/>
-      <c r="P9" s="255"/>
-      <c r="Q9" s="256"/>
+      <c r="B9" s="262"/>
+      <c r="C9" s="262"/>
+      <c r="D9" s="262"/>
+      <c r="E9" s="262"/>
+      <c r="F9" s="262"/>
+      <c r="G9" s="262"/>
+      <c r="H9" s="262"/>
+      <c r="I9" s="262"/>
+      <c r="J9" s="262"/>
+      <c r="K9" s="262"/>
+      <c r="L9" s="262"/>
+      <c r="M9" s="262"/>
+      <c r="N9" s="262"/>
+      <c r="O9" s="262"/>
+      <c r="P9" s="262"/>
+      <c r="Q9" s="263"/>
     </row>
     <row r="10" spans="1:18" ht="33" customHeight="1">
-      <c r="A10" s="260" t="s">
+      <c r="A10" s="254" t="s">
         <v>177</v>
       </c>
-      <c r="B10" s="260" t="s">
+      <c r="B10" s="254" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="260" t="s">
+      <c r="C10" s="254" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="260" t="s">
+      <c r="D10" s="254" t="s">
         <v>178</v>
       </c>
-      <c r="E10" s="257" t="s">
+      <c r="E10" s="258" t="s">
         <v>236</v>
       </c>
-      <c r="F10" s="258"/>
+      <c r="F10" s="260"/>
       <c r="G10" s="259"/>
-      <c r="H10" s="260" t="s">
+      <c r="H10" s="254" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="262" t="s">
+      <c r="I10" s="256" t="s">
         <v>239</v>
       </c>
-      <c r="J10" s="263"/>
-      <c r="K10" s="257" t="s">
+      <c r="J10" s="257"/>
+      <c r="K10" s="258" t="s">
         <v>79</v>
       </c>
       <c r="L10" s="259"/>
-      <c r="M10" s="257" t="s">
+      <c r="M10" s="258" t="s">
         <v>241</v>
       </c>
       <c r="N10" s="259"/>
@@ -6715,10 +6715,10 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="33" customHeight="1">
-      <c r="A11" s="261"/>
-      <c r="B11" s="261"/>
-      <c r="C11" s="261"/>
-      <c r="D11" s="261"/>
+      <c r="A11" s="255"/>
+      <c r="B11" s="255"/>
+      <c r="C11" s="255"/>
+      <c r="D11" s="255"/>
       <c r="E11" s="103" t="s">
         <v>233</v>
       </c>
@@ -6728,7 +6728,7 @@
       <c r="G11" s="103" t="s">
         <v>235</v>
       </c>
-      <c r="H11" s="261"/>
+      <c r="H11" s="255"/>
       <c r="I11" s="101" t="s">
         <v>140</v>
       </c>
@@ -6863,56 +6863,56 @@
       <c r="R14" s="77"/>
     </row>
     <row r="15" spans="1:18" ht="18" customHeight="1">
-      <c r="A15" s="254" t="s">
+      <c r="A15" s="261" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="255"/>
-      <c r="C15" s="255"/>
-      <c r="D15" s="255"/>
-      <c r="E15" s="255"/>
-      <c r="F15" s="255"/>
-      <c r="G15" s="255"/>
-      <c r="H15" s="255"/>
-      <c r="I15" s="255"/>
-      <c r="J15" s="255"/>
-      <c r="K15" s="255"/>
-      <c r="L15" s="255"/>
-      <c r="M15" s="255"/>
-      <c r="N15" s="255"/>
-      <c r="O15" s="255"/>
-      <c r="P15" s="255"/>
-      <c r="Q15" s="256"/>
+      <c r="B15" s="262"/>
+      <c r="C15" s="262"/>
+      <c r="D15" s="262"/>
+      <c r="E15" s="262"/>
+      <c r="F15" s="262"/>
+      <c r="G15" s="262"/>
+      <c r="H15" s="262"/>
+      <c r="I15" s="262"/>
+      <c r="J15" s="262"/>
+      <c r="K15" s="262"/>
+      <c r="L15" s="262"/>
+      <c r="M15" s="262"/>
+      <c r="N15" s="262"/>
+      <c r="O15" s="262"/>
+      <c r="P15" s="262"/>
+      <c r="Q15" s="263"/>
     </row>
     <row r="16" spans="1:18" ht="33" customHeight="1">
-      <c r="A16" s="260" t="s">
+      <c r="A16" s="254" t="s">
         <v>177</v>
       </c>
-      <c r="B16" s="260" t="s">
+      <c r="B16" s="254" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="260" t="s">
+      <c r="C16" s="254" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="260" t="s">
+      <c r="D16" s="254" t="s">
         <v>178</v>
       </c>
-      <c r="E16" s="257" t="s">
+      <c r="E16" s="258" t="s">
         <v>236</v>
       </c>
-      <c r="F16" s="258"/>
+      <c r="F16" s="260"/>
       <c r="G16" s="259"/>
-      <c r="H16" s="260" t="s">
+      <c r="H16" s="254" t="s">
         <v>30</v>
       </c>
-      <c r="I16" s="262" t="s">
+      <c r="I16" s="256" t="s">
         <v>239</v>
       </c>
-      <c r="J16" s="263"/>
-      <c r="K16" s="257" t="s">
+      <c r="J16" s="257"/>
+      <c r="K16" s="258" t="s">
         <v>79</v>
       </c>
       <c r="L16" s="259"/>
-      <c r="M16" s="257" t="s">
+      <c r="M16" s="258" t="s">
         <v>241</v>
       </c>
       <c r="N16" s="259"/>
@@ -6928,10 +6928,10 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="33" customHeight="1">
-      <c r="A17" s="261"/>
-      <c r="B17" s="261"/>
-      <c r="C17" s="261"/>
-      <c r="D17" s="261"/>
+      <c r="A17" s="255"/>
+      <c r="B17" s="255"/>
+      <c r="C17" s="255"/>
+      <c r="D17" s="255"/>
       <c r="E17" s="103" t="s">
         <v>233</v>
       </c>
@@ -6941,7 +6941,7 @@
       <c r="G17" s="103" t="s">
         <v>235</v>
       </c>
-      <c r="H17" s="261"/>
+      <c r="H17" s="255"/>
       <c r="I17" s="101" t="s">
         <v>140</v>
       </c>
@@ -7059,6 +7059,21 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A4:Q4"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="A9:Q9"/>
+    <mergeCell ref="A15:Q15"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:H17"/>
     <mergeCell ref="R10:R11"/>
     <mergeCell ref="R16:R17"/>
     <mergeCell ref="P16:Q16"/>
@@ -7069,21 +7084,6 @@
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="K16:L16"/>
     <mergeCell ref="M16:N16"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="A4:Q4"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A9:Q9"/>
-    <mergeCell ref="A15:Q15"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="H10:H11"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K12:L14 K18:L21">
@@ -7137,33 +7137,33 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="23.25">
-      <c r="A3" s="175" t="str">
+      <c r="A3" s="178" t="str">
         <f>index!A1</f>
         <v>Especificação de Requisitos do SIOP (Sistema Integrado de Operações) - CSSFAA</v>
       </c>
-      <c r="B3" s="175"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="175"/>
-      <c r="I3" s="175"/>
-      <c r="J3" s="175"/>
+      <c r="B3" s="178"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="178"/>
+      <c r="G3" s="178"/>
+      <c r="H3" s="178"/>
+      <c r="I3" s="178"/>
+      <c r="J3" s="178"/>
     </row>
     <row r="4" spans="1:10" ht="23.25">
-      <c r="A4" s="176" t="s">
+      <c r="A4" s="179" t="s">
         <v>503</v>
       </c>
-      <c r="B4" s="176"/>
-      <c r="C4" s="176"/>
-      <c r="D4" s="176"/>
-      <c r="E4" s="176"/>
-      <c r="F4" s="176"/>
-      <c r="G4" s="176"/>
-      <c r="H4" s="176"/>
-      <c r="I4" s="176"/>
-      <c r="J4" s="176"/>
+      <c r="B4" s="179"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="179"/>
+      <c r="E4" s="179"/>
+      <c r="F4" s="179"/>
+      <c r="G4" s="179"/>
+      <c r="H4" s="179"/>
+      <c r="I4" s="179"/>
+      <c r="J4" s="179"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="38" t="s">
@@ -7405,7 +7405,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A10" sqref="A10:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7429,33 +7429,33 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="23.25">
-      <c r="A3" s="175" t="str">
+      <c r="A3" s="178" t="str">
         <f>index!A1</f>
         <v>Especificação de Requisitos do SIOP (Sistema Integrado de Operações) - CSSFAA</v>
       </c>
-      <c r="B3" s="175"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="175"/>
-      <c r="I3" s="175"/>
-      <c r="J3" s="175"/>
+      <c r="B3" s="178"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="178"/>
+      <c r="G3" s="178"/>
+      <c r="H3" s="178"/>
+      <c r="I3" s="178"/>
+      <c r="J3" s="178"/>
     </row>
     <row r="4" spans="1:10" ht="23.25">
-      <c r="A4" s="176" t="s">
+      <c r="A4" s="179" t="s">
         <v>505</v>
       </c>
-      <c r="B4" s="176"/>
-      <c r="C4" s="176"/>
-      <c r="D4" s="176"/>
-      <c r="E4" s="176"/>
-      <c r="F4" s="176"/>
-      <c r="G4" s="176"/>
-      <c r="H4" s="176"/>
-      <c r="I4" s="176"/>
-      <c r="J4" s="176"/>
+      <c r="B4" s="179"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="179"/>
+      <c r="E4" s="179"/>
+      <c r="F4" s="179"/>
+      <c r="G4" s="179"/>
+      <c r="H4" s="179"/>
+      <c r="I4" s="179"/>
+      <c r="J4" s="179"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="38" t="s">
@@ -7697,7 +7697,7 @@
   <dimension ref="A1:M86"/>
   <sheetViews>
     <sheetView topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8871,37 +8871,37 @@
       <c r="A2" s="41"/>
     </row>
     <row r="3" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A3" s="175" t="str">
+      <c r="A3" s="178" t="str">
         <f>index!A1</f>
         <v>Especificação de Requisitos do SIOP (Sistema Integrado de Operações) - CSSFAA</v>
       </c>
-      <c r="B3" s="175"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="175"/>
-      <c r="I3" s="175"/>
-      <c r="J3" s="175"/>
-      <c r="K3" s="175"/>
-      <c r="L3" s="175"/>
+      <c r="B3" s="178"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="178"/>
+      <c r="G3" s="178"/>
+      <c r="H3" s="178"/>
+      <c r="I3" s="178"/>
+      <c r="J3" s="178"/>
+      <c r="K3" s="178"/>
+      <c r="L3" s="178"/>
     </row>
     <row r="4" spans="1:12" ht="23.25">
-      <c r="A4" s="176" t="s">
+      <c r="A4" s="179" t="s">
         <v>469</v>
       </c>
-      <c r="B4" s="176"/>
-      <c r="C4" s="176"/>
-      <c r="D4" s="176"/>
-      <c r="E4" s="176"/>
-      <c r="F4" s="176"/>
-      <c r="G4" s="176"/>
-      <c r="H4" s="176"/>
-      <c r="I4" s="176"/>
-      <c r="J4" s="176"/>
-      <c r="K4" s="176"/>
-      <c r="L4" s="176"/>
+      <c r="B4" s="179"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="179"/>
+      <c r="E4" s="179"/>
+      <c r="F4" s="179"/>
+      <c r="G4" s="179"/>
+      <c r="H4" s="179"/>
+      <c r="I4" s="179"/>
+      <c r="J4" s="179"/>
+      <c r="K4" s="179"/>
+      <c r="L4" s="179"/>
     </row>
     <row r="5" spans="1:12" ht="43.5" customHeight="1">
       <c r="A5" s="41"/>
@@ -8911,23 +8911,23 @@
       <c r="H5" s="128"/>
     </row>
     <row r="6" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A6" s="182"/>
-      <c r="B6" s="183"/>
-      <c r="C6" s="183"/>
-      <c r="D6" s="184"/>
-      <c r="E6" s="185" t="s">
+      <c r="A6" s="183"/>
+      <c r="B6" s="184"/>
+      <c r="C6" s="184"/>
+      <c r="D6" s="185"/>
+      <c r="E6" s="177" t="s">
         <v>486</v>
       </c>
-      <c r="F6" s="185"/>
-      <c r="G6" s="185" t="s">
+      <c r="F6" s="177"/>
+      <c r="G6" s="177" t="s">
         <v>489</v>
       </c>
-      <c r="H6" s="185"/>
-      <c r="I6" s="181" t="s">
+      <c r="H6" s="177"/>
+      <c r="I6" s="182" t="s">
         <v>490</v>
       </c>
-      <c r="J6" s="181"/>
-      <c r="K6" s="181"/>
+      <c r="J6" s="182"/>
+      <c r="K6" s="182"/>
       <c r="L6" s="153"/>
     </row>
     <row r="7" spans="1:12" ht="31.5">
@@ -9006,68 +9006,68 @@
     </row>
     <row r="9" spans="1:12" ht="46.5" customHeight="1"/>
     <row r="10" spans="1:12" ht="21" customHeight="1">
-      <c r="A10" s="177" t="s">
+      <c r="A10" s="180" t="s">
         <v>560</v>
       </c>
-      <c r="B10" s="178"/>
-      <c r="C10" s="178"/>
-      <c r="D10" s="178"/>
-      <c r="E10" s="178"/>
-      <c r="F10" s="178"/>
-      <c r="G10" s="178"/>
-      <c r="H10" s="178"/>
-      <c r="I10" s="178"/>
-      <c r="J10" s="178"/>
-      <c r="K10" s="178"/>
-      <c r="L10" s="178"/>
+      <c r="B10" s="181"/>
+      <c r="C10" s="181"/>
+      <c r="D10" s="181"/>
+      <c r="E10" s="181"/>
+      <c r="F10" s="181"/>
+      <c r="G10" s="181"/>
+      <c r="H10" s="181"/>
+      <c r="I10" s="181"/>
+      <c r="J10" s="181"/>
+      <c r="K10" s="181"/>
+      <c r="L10" s="181"/>
     </row>
     <row r="11" spans="1:12" ht="94.5" customHeight="1">
-      <c r="A11" s="179" t="s">
+      <c r="A11" s="175" t="s">
         <v>562</v>
       </c>
-      <c r="B11" s="180"/>
-      <c r="C11" s="180"/>
-      <c r="D11" s="180"/>
-      <c r="E11" s="180"/>
-      <c r="F11" s="180"/>
-      <c r="G11" s="180"/>
-      <c r="H11" s="180"/>
-      <c r="I11" s="180"/>
-      <c r="J11" s="180"/>
-      <c r="K11" s="180"/>
-      <c r="L11" s="180"/>
+      <c r="B11" s="176"/>
+      <c r="C11" s="176"/>
+      <c r="D11" s="176"/>
+      <c r="E11" s="176"/>
+      <c r="F11" s="176"/>
+      <c r="G11" s="176"/>
+      <c r="H11" s="176"/>
+      <c r="I11" s="176"/>
+      <c r="J11" s="176"/>
+      <c r="K11" s="176"/>
+      <c r="L11" s="176"/>
     </row>
     <row r="14" spans="1:12" ht="21" customHeight="1">
-      <c r="A14" s="177" t="s">
+      <c r="A14" s="180" t="s">
         <v>561</v>
       </c>
-      <c r="B14" s="178"/>
-      <c r="C14" s="178"/>
-      <c r="D14" s="178"/>
-      <c r="E14" s="178"/>
-      <c r="F14" s="178"/>
-      <c r="G14" s="178"/>
-      <c r="H14" s="178"/>
-      <c r="I14" s="178"/>
-      <c r="J14" s="178"/>
-      <c r="K14" s="178"/>
-      <c r="L14" s="178"/>
+      <c r="B14" s="181"/>
+      <c r="C14" s="181"/>
+      <c r="D14" s="181"/>
+      <c r="E14" s="181"/>
+      <c r="F14" s="181"/>
+      <c r="G14" s="181"/>
+      <c r="H14" s="181"/>
+      <c r="I14" s="181"/>
+      <c r="J14" s="181"/>
+      <c r="K14" s="181"/>
+      <c r="L14" s="181"/>
     </row>
     <row r="15" spans="1:12" ht="249.75" customHeight="1">
-      <c r="A15" s="179" t="s">
+      <c r="A15" s="175" t="s">
         <v>563</v>
       </c>
-      <c r="B15" s="180"/>
-      <c r="C15" s="180"/>
-      <c r="D15" s="180"/>
-      <c r="E15" s="180"/>
-      <c r="F15" s="180"/>
-      <c r="G15" s="180"/>
-      <c r="H15" s="180"/>
-      <c r="I15" s="180"/>
-      <c r="J15" s="180"/>
-      <c r="K15" s="180"/>
-      <c r="L15" s="180"/>
+      <c r="B15" s="176"/>
+      <c r="C15" s="176"/>
+      <c r="D15" s="176"/>
+      <c r="E15" s="176"/>
+      <c r="F15" s="176"/>
+      <c r="G15" s="176"/>
+      <c r="H15" s="176"/>
+      <c r="I15" s="176"/>
+      <c r="J15" s="176"/>
+      <c r="K15" s="176"/>
+      <c r="L15" s="176"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -9105,8 +9105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9141,15 +9141,15 @@
       <c r="G3" s="46"/>
     </row>
     <row r="4" spans="1:7" ht="23.25">
-      <c r="A4" s="176" t="s">
+      <c r="A4" s="179" t="s">
         <v>496</v>
       </c>
-      <c r="B4" s="176"/>
-      <c r="C4" s="176"/>
-      <c r="D4" s="176"/>
-      <c r="E4" s="176"/>
-      <c r="F4" s="176"/>
-      <c r="G4" s="176"/>
+      <c r="B4" s="179"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="179"/>
+      <c r="E4" s="179"/>
+      <c r="F4" s="179"/>
+      <c r="G4" s="179"/>
     </row>
     <row r="5" spans="1:7" ht="47.25" customHeight="1">
       <c r="A5" s="41"/>
@@ -9637,13 +9637,13 @@
       <c r="E3" s="110"/>
     </row>
     <row r="4" spans="1:5" ht="23.25">
-      <c r="A4" s="176" t="s">
+      <c r="A4" s="179" t="s">
         <v>787</v>
       </c>
-      <c r="B4" s="176"/>
-      <c r="C4" s="176"/>
-      <c r="D4" s="176"/>
-      <c r="E4" s="176"/>
+      <c r="B4" s="179"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="179"/>
+      <c r="E4" s="179"/>
     </row>
     <row r="5" spans="1:5" ht="34.5" customHeight="1">
       <c r="A5" s="41"/>
@@ -9873,29 +9873,29 @@
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="23.25">
-      <c r="A2" s="175" t="str">
+      <c r="A2" s="178" t="str">
         <f>index!A1</f>
         <v>Especificação de Requisitos do SIOP (Sistema Integrado de Operações) - CSSFAA</v>
       </c>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="175"/>
-      <c r="H2" s="175"/>
+      <c r="B2" s="178"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
+      <c r="H2" s="178"/>
     </row>
     <row r="3" spans="1:8" ht="23.25">
-      <c r="A3" s="176" t="s">
+      <c r="A3" s="179" t="s">
         <v>497</v>
       </c>
-      <c r="B3" s="176"/>
-      <c r="C3" s="176"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="176"/>
-      <c r="F3" s="176"/>
-      <c r="G3" s="176"/>
-      <c r="H3" s="176"/>
+      <c r="B3" s="179"/>
+      <c r="C3" s="179"/>
+      <c r="D3" s="179"/>
+      <c r="E3" s="179"/>
+      <c r="F3" s="179"/>
+      <c r="G3" s="179"/>
+      <c r="H3" s="179"/>
     </row>
     <row r="4" spans="1:8" ht="45.75" customHeight="1"/>
     <row r="5" spans="1:8">
@@ -10852,26 +10852,26 @@
     </row>
     <row r="2" spans="1:7" ht="10.5" customHeight="1"/>
     <row r="3" spans="1:7" ht="29.25" customHeight="1">
-      <c r="A3" s="175" t="str">
+      <c r="A3" s="178" t="str">
         <f>index!A1</f>
         <v>Especificação de Requisitos do SIOP (Sistema Integrado de Operações) - CSSFAA</v>
       </c>
-      <c r="B3" s="175"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
+      <c r="B3" s="178"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="178"/>
       <c r="G3" s="111"/>
     </row>
     <row r="4" spans="1:7" ht="29.25" customHeight="1">
-      <c r="A4" s="176" t="s">
+      <c r="A4" s="179" t="s">
         <v>498</v>
       </c>
-      <c r="B4" s="176"/>
-      <c r="C4" s="176"/>
-      <c r="D4" s="176"/>
-      <c r="E4" s="176"/>
-      <c r="F4" s="176"/>
+      <c r="B4" s="179"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="179"/>
+      <c r="E4" s="179"/>
+      <c r="F4" s="179"/>
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:7" ht="39" customHeight="1"/>
@@ -11412,8 +11412,8 @@
   </sheetPr>
   <dimension ref="A1:N99"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11437,60 +11437,60 @@
     </row>
     <row r="2" spans="1:14" ht="11.25" customHeight="1"/>
     <row r="3" spans="1:14" ht="29.25" customHeight="1">
-      <c r="A3" s="175" t="str">
+      <c r="A3" s="178" t="str">
         <f>index!A1</f>
         <v>Especificação de Requisitos do SIOP (Sistema Integrado de Operações) - CSSFAA</v>
       </c>
-      <c r="B3" s="175"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="175"/>
+      <c r="B3" s="178"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="178"/>
+      <c r="G3" s="178"/>
+      <c r="H3" s="178"/>
     </row>
     <row r="4" spans="1:14" ht="23.25">
-      <c r="A4" s="176" t="s">
+      <c r="A4" s="179" t="s">
         <v>499</v>
       </c>
-      <c r="B4" s="176"/>
-      <c r="C4" s="176"/>
-      <c r="D4" s="176"/>
-      <c r="E4" s="176"/>
-      <c r="F4" s="176"/>
-      <c r="G4" s="176"/>
-      <c r="H4" s="176"/>
+      <c r="B4" s="179"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="179"/>
+      <c r="E4" s="179"/>
+      <c r="F4" s="179"/>
+      <c r="G4" s="179"/>
+      <c r="H4" s="179"/>
     </row>
     <row r="5" spans="1:14" ht="18.75" customHeight="1"/>
     <row r="6" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A6" s="201" t="s">
+      <c r="A6" s="200" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="202"/>
+      <c r="B6" s="201"/>
     </row>
     <row r="7" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A7" s="199" t="s">
+      <c r="A7" s="204" t="s">
         <v>605</v>
       </c>
-      <c r="B7" s="199"/>
-      <c r="C7" s="198"/>
-      <c r="D7" s="198"/>
+      <c r="B7" s="204"/>
+      <c r="C7" s="203"/>
+      <c r="D7" s="203"/>
       <c r="E7" s="76"/>
     </row>
     <row r="8" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A8" s="200" t="s">
+      <c r="A8" s="205" t="s">
         <v>606</v>
       </c>
-      <c r="B8" s="200"/>
-      <c r="C8" s="198"/>
-      <c r="D8" s="198"/>
+      <c r="B8" s="205"/>
+      <c r="C8" s="203"/>
+      <c r="D8" s="203"/>
       <c r="E8" s="76"/>
     </row>
     <row r="9" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A9" s="204" t="s">
+      <c r="A9" s="199" t="s">
         <v>607</v>
       </c>
-      <c r="B9" s="204"/>
+      <c r="B9" s="199"/>
       <c r="C9" s="113"/>
       <c r="D9" s="113"/>
       <c r="E9" s="113"/>
@@ -11499,10 +11499,10 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A11" s="201" t="s">
+      <c r="A11" s="200" t="s">
         <v>509</v>
       </c>
-      <c r="B11" s="202"/>
+      <c r="B11" s="201"/>
     </row>
     <row r="12" spans="1:14" ht="33.75" customHeight="1">
       <c r="A12" s="79" t="s">
@@ -11531,15 +11531,15 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="33.75" customHeight="1">
-      <c r="A13" s="203" t="s">
+      <c r="A13" s="198" t="s">
         <v>613</v>
       </c>
-      <c r="B13" s="203"/>
-      <c r="C13" s="203"/>
-      <c r="D13" s="203"/>
-      <c r="E13" s="203"/>
-      <c r="F13" s="203"/>
-      <c r="G13" s="203"/>
+      <c r="B13" s="198"/>
+      <c r="C13" s="198"/>
+      <c r="D13" s="198"/>
+      <c r="E13" s="198"/>
+      <c r="F13" s="198"/>
+      <c r="G13" s="198"/>
       <c r="H13" s="152"/>
     </row>
     <row r="14" spans="1:14" ht="50.25" customHeight="1">
@@ -11952,15 +11952,15 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="33.75" customHeight="1">
-      <c r="A29" s="203" t="s">
+      <c r="A29" s="198" t="s">
         <v>705</v>
       </c>
-      <c r="B29" s="203"/>
-      <c r="C29" s="203"/>
-      <c r="D29" s="203"/>
-      <c r="E29" s="203"/>
-      <c r="F29" s="203"/>
-      <c r="G29" s="203"/>
+      <c r="B29" s="198"/>
+      <c r="C29" s="198"/>
+      <c r="D29" s="198"/>
+      <c r="E29" s="198"/>
+      <c r="F29" s="198"/>
+      <c r="G29" s="198"/>
       <c r="H29" s="14"/>
     </row>
     <row r="30" spans="1:14" ht="50.25" customHeight="1">
@@ -12269,15 +12269,15 @@
       <c r="H40" s="14"/>
     </row>
     <row r="41" spans="1:14" ht="33.75" customHeight="1">
-      <c r="A41" s="203" t="s">
+      <c r="A41" s="198" t="s">
         <v>695</v>
       </c>
-      <c r="B41" s="203"/>
-      <c r="C41" s="203"/>
-      <c r="D41" s="203"/>
-      <c r="E41" s="203"/>
-      <c r="F41" s="203"/>
-      <c r="G41" s="203"/>
+      <c r="B41" s="198"/>
+      <c r="C41" s="198"/>
+      <c r="D41" s="198"/>
+      <c r="E41" s="198"/>
+      <c r="F41" s="198"/>
+      <c r="G41" s="198"/>
       <c r="H41" s="14"/>
     </row>
     <row r="42" spans="1:14" ht="50.25" customHeight="1">
@@ -12903,15 +12903,15 @@
       <c r="N62" s="23"/>
     </row>
     <row r="63" spans="1:14" ht="50.25" customHeight="1">
-      <c r="A63" s="203" t="s">
+      <c r="A63" s="198" t="s">
         <v>400</v>
       </c>
-      <c r="B63" s="203"/>
-      <c r="C63" s="203"/>
-      <c r="D63" s="203"/>
-      <c r="E63" s="203"/>
-      <c r="F63" s="203"/>
-      <c r="G63" s="203"/>
+      <c r="B63" s="198"/>
+      <c r="C63" s="198"/>
+      <c r="D63" s="198"/>
+      <c r="E63" s="198"/>
+      <c r="F63" s="198"/>
+      <c r="G63" s="198"/>
       <c r="H63" s="14"/>
     </row>
     <row r="64" spans="1:14" ht="50.25" customHeight="1">
@@ -13206,15 +13206,15 @@
       <c r="N75" s="23"/>
     </row>
     <row r="76" spans="1:14" ht="33.75" customHeight="1">
-      <c r="A76" s="205" t="s">
+      <c r="A76" s="202" t="s">
         <v>404</v>
       </c>
-      <c r="B76" s="205"/>
-      <c r="C76" s="205"/>
-      <c r="D76" s="205"/>
-      <c r="E76" s="205"/>
-      <c r="F76" s="205"/>
-      <c r="G76" s="205"/>
+      <c r="B76" s="202"/>
+      <c r="C76" s="202"/>
+      <c r="D76" s="202"/>
+      <c r="E76" s="202"/>
+      <c r="F76" s="202"/>
+      <c r="G76" s="202"/>
       <c r="H76" s="14"/>
     </row>
     <row r="77" spans="1:14" ht="50.25" customHeight="1">
@@ -13486,15 +13486,15 @@
       <c r="H87" s="14"/>
     </row>
     <row r="88" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A88" s="203" t="s">
+      <c r="A88" s="198" t="s">
         <v>403</v>
       </c>
-      <c r="B88" s="203"/>
-      <c r="C88" s="203"/>
-      <c r="D88" s="203"/>
-      <c r="E88" s="203"/>
-      <c r="F88" s="203"/>
-      <c r="G88" s="203"/>
+      <c r="B88" s="198"/>
+      <c r="C88" s="198"/>
+      <c r="D88" s="198"/>
+      <c r="E88" s="198"/>
+      <c r="F88" s="198"/>
+      <c r="G88" s="198"/>
       <c r="H88" s="14"/>
     </row>
     <row r="89" spans="1:8" ht="50.25" customHeight="1">
@@ -13564,10 +13564,10 @@
       <c r="H91" s="14"/>
     </row>
     <row r="94" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A94" s="201" t="s">
+      <c r="A94" s="200" t="s">
         <v>381</v>
       </c>
-      <c r="B94" s="202"/>
+      <c r="B94" s="201"/>
     </row>
     <row r="95" spans="1:8" ht="33.75" customHeight="1">
       <c r="A95" s="79" t="s">
@@ -13593,15 +13593,15 @@
       </c>
     </row>
     <row r="96" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A96" s="203" t="s">
+      <c r="A96" s="198" t="s">
         <v>613</v>
       </c>
-      <c r="B96" s="203"/>
-      <c r="C96" s="203"/>
-      <c r="D96" s="203"/>
-      <c r="E96" s="203"/>
-      <c r="F96" s="203"/>
-      <c r="G96" s="203"/>
+      <c r="B96" s="198"/>
+      <c r="C96" s="198"/>
+      <c r="D96" s="198"/>
+      <c r="E96" s="198"/>
+      <c r="F96" s="198"/>
+      <c r="G96" s="198"/>
     </row>
     <row r="97" spans="1:14" ht="50.25" customHeight="1">
       <c r="A97" s="147" t="s">
@@ -13680,6 +13680,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
     <mergeCell ref="A13:G13"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A94:B94"/>
@@ -13690,12 +13696,6 @@
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A29:G29"/>
     <mergeCell ref="A88:G88"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F40">
@@ -13723,8 +13723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13759,14 +13759,14 @@
       <c r="F3" s="110"/>
     </row>
     <row r="4" spans="1:6" ht="23.25">
-      <c r="A4" s="176" t="s">
+      <c r="A4" s="179" t="s">
         <v>786</v>
       </c>
-      <c r="B4" s="176"/>
-      <c r="C4" s="176"/>
-      <c r="D4" s="176"/>
-      <c r="E4" s="176"/>
-      <c r="F4" s="176"/>
+      <c r="B4" s="179"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="179"/>
+      <c r="E4" s="179"/>
+      <c r="F4" s="179"/>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1">
       <c r="A5" s="41"/>

--- a/Templates/SIOP-RSLIL-v2.1.xlsx
+++ b/Templates/SIOP-RSLIL-v2.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr codeName="EsteLivro" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="842" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="842" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -313,7 +313,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="841">
   <si>
     <t>Id</t>
   </si>
@@ -2741,9 +2741,6 @@
   </si>
   <si>
     <t>Concluded</t>
-  </si>
-  <si>
-    <t>Status</t>
   </si>
   <si>
     <t>Not-Plan</t>
@@ -3679,7 +3676,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3690,9 +3686,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3810,30 +3803,30 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3879,9 +3872,75 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3894,72 +3953,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3978,6 +3971,24 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3990,24 +4001,6 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -4025,6 +4018,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4487,66 +4484,66 @@
       <c r="C1" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="23.25">
-      <c r="A3" s="178" t="str">
+      <c r="A3" s="176" t="str">
         <f>index!A1</f>
         <v>Especificação de Requisitos do SIOP (Sistema Integrado de Operações) - CSSFAA</v>
       </c>
-      <c r="B3" s="178"/>
-      <c r="C3" s="178"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="178"/>
-      <c r="G3" s="178"/>
-      <c r="H3" s="178"/>
+      <c r="B3" s="176"/>
+      <c r="C3" s="176"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="176"/>
+      <c r="F3" s="176"/>
+      <c r="G3" s="176"/>
+      <c r="H3" s="176"/>
     </row>
     <row r="4" spans="1:8" ht="23.25">
-      <c r="A4" s="179" t="s">
+      <c r="A4" s="177" t="s">
         <v>504</v>
       </c>
-      <c r="B4" s="179"/>
-      <c r="C4" s="179"/>
-      <c r="D4" s="179"/>
-      <c r="E4" s="179"/>
-      <c r="F4" s="179"/>
-      <c r="G4" s="179"/>
-      <c r="H4" s="179"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
     </row>
     <row r="5" spans="1:8" ht="57" customHeight="1"/>
     <row r="6" spans="1:8" ht="31.5" customHeight="1">
-      <c r="A6" s="213" t="s">
+      <c r="A6" s="211" t="s">
         <v>177</v>
       </c>
-      <c r="B6" s="213" t="s">
+      <c r="B6" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="213" t="s">
+      <c r="C6" s="211" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="213" t="s">
+      <c r="D6" s="211" t="s">
         <v>178</v>
       </c>
-      <c r="E6" s="213" t="s">
+      <c r="E6" s="211" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="213" t="s">
+      <c r="F6" s="211" t="s">
         <v>183</v>
       </c>
-      <c r="G6" s="215" t="s">
+      <c r="G6" s="213" t="s">
         <v>176</v>
       </c>
-      <c r="H6" s="214" t="s">
+      <c r="H6" s="212" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="45" customHeight="1">
-      <c r="A7" s="213"/>
-      <c r="B7" s="213"/>
-      <c r="C7" s="213"/>
-      <c r="D7" s="213"/>
-      <c r="E7" s="213"/>
-      <c r="F7" s="213"/>
-      <c r="G7" s="216"/>
-      <c r="H7" s="214"/>
+      <c r="A7" s="211"/>
+      <c r="B7" s="211"/>
+      <c r="C7" s="211"/>
+      <c r="D7" s="211"/>
+      <c r="E7" s="211"/>
+      <c r="F7" s="211"/>
+      <c r="G7" s="214"/>
+      <c r="H7" s="212"/>
     </row>
     <row r="8" spans="1:8" ht="33.75" customHeight="1">
       <c r="A8" s="15" t="s">
@@ -4720,84 +4717,84 @@
       <c r="G1" s="4"/>
     </row>
     <row r="3" spans="1:11" ht="23.25">
-      <c r="A3" s="178" t="str">
+      <c r="A3" s="176" t="str">
         <f>index!A1</f>
         <v>Especificação de Requisitos do SIOP (Sistema Integrado de Operações) - CSSFAA</v>
       </c>
-      <c r="B3" s="178"/>
-      <c r="C3" s="178"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="178"/>
-      <c r="G3" s="178"/>
-      <c r="H3" s="178"/>
-      <c r="I3" s="178"/>
-      <c r="J3" s="178"/>
-      <c r="K3" s="178"/>
+      <c r="B3" s="176"/>
+      <c r="C3" s="176"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="176"/>
+      <c r="F3" s="176"/>
+      <c r="G3" s="176"/>
+      <c r="H3" s="176"/>
+      <c r="I3" s="176"/>
+      <c r="J3" s="176"/>
+      <c r="K3" s="176"/>
     </row>
     <row r="4" spans="1:11" ht="23.25">
-      <c r="A4" s="179" t="s">
+      <c r="A4" s="177" t="s">
         <v>506</v>
       </c>
-      <c r="B4" s="179"/>
-      <c r="C4" s="179"/>
-      <c r="D4" s="179"/>
-      <c r="E4" s="179"/>
-      <c r="F4" s="179"/>
-      <c r="G4" s="179"/>
-      <c r="H4" s="179"/>
-      <c r="I4" s="179"/>
-      <c r="J4" s="179"/>
-      <c r="K4" s="179"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
+      <c r="J4" s="177"/>
+      <c r="K4" s="177"/>
     </row>
     <row r="6" spans="1:11" ht="30.75" customHeight="1"/>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A7" s="213" t="s">
+      <c r="A7" s="211" t="s">
         <v>177</v>
       </c>
-      <c r="B7" s="213" t="s">
+      <c r="B7" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="213" t="s">
+      <c r="C7" s="211" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="215" t="s">
+      <c r="D7" s="213" t="s">
         <v>179</v>
       </c>
-      <c r="E7" s="215" t="s">
+      <c r="E7" s="213" t="s">
         <v>244</v>
       </c>
-      <c r="F7" s="217" t="s">
+      <c r="F7" s="215" t="s">
         <v>145</v>
       </c>
-      <c r="G7" s="217" t="s">
+      <c r="G7" s="215" t="s">
         <v>146</v>
       </c>
-      <c r="H7" s="213" t="s">
+      <c r="H7" s="211" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="213" t="s">
+      <c r="I7" s="211" t="s">
         <v>183</v>
       </c>
-      <c r="J7" s="219" t="s">
+      <c r="J7" s="217" t="s">
         <v>176</v>
       </c>
-      <c r="K7" s="214" t="s">
+      <c r="K7" s="212" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="31.5" customHeight="1">
-      <c r="A8" s="213"/>
-      <c r="B8" s="213"/>
-      <c r="C8" s="213"/>
-      <c r="D8" s="216"/>
-      <c r="E8" s="216"/>
-      <c r="F8" s="218"/>
-      <c r="G8" s="218"/>
-      <c r="H8" s="213"/>
-      <c r="I8" s="213"/>
-      <c r="J8" s="220"/>
-      <c r="K8" s="214"/>
+      <c r="A8" s="211"/>
+      <c r="B8" s="211"/>
+      <c r="C8" s="211"/>
+      <c r="D8" s="214"/>
+      <c r="E8" s="214"/>
+      <c r="F8" s="216"/>
+      <c r="G8" s="216"/>
+      <c r="H8" s="211"/>
+      <c r="I8" s="211"/>
+      <c r="J8" s="218"/>
+      <c r="K8" s="212"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="15" t="s">
@@ -4818,10 +4815,10 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="15" t="s">
+        <v>787</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>788</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>789</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="13"/>
@@ -4835,10 +4832,10 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="15" t="s">
+        <v>787</v>
+      </c>
+      <c r="B11" s="15" t="s">
         <v>788</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>789</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="13"/>
@@ -4852,10 +4849,10 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="15" t="s">
+        <v>787</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>788</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>789</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="13"/>
@@ -4869,10 +4866,10 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="15" t="s">
+        <v>787</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>788</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>789</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="13"/>
@@ -4886,10 +4883,10 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="15" t="s">
+        <v>787</v>
+      </c>
+      <c r="B14" s="15" t="s">
         <v>788</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>789</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="13"/>
@@ -4903,10 +4900,10 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="15" t="s">
+        <v>787</v>
+      </c>
+      <c r="B15" s="15" t="s">
         <v>788</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>789</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="13"/>
@@ -4920,10 +4917,10 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="15" t="s">
+        <v>787</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>788</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>789</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="13"/>
@@ -4937,10 +4934,10 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="15" t="s">
+        <v>787</v>
+      </c>
+      <c r="B17" s="15" t="s">
         <v>788</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>789</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="13"/>
@@ -4954,10 +4951,10 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="15" t="s">
+        <v>787</v>
+      </c>
+      <c r="B18" s="15" t="s">
         <v>788</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>789</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="13"/>
@@ -5040,72 +5037,72 @@
         <f>index!A1</f>
         <v>Especificação de Requisitos do SIOP (Sistema Integrado de Operações) - CSSFAA</v>
       </c>
-      <c r="B3" s="157"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="157"/>
-      <c r="G3" s="157"/>
-      <c r="H3" s="157"/>
+      <c r="B3" s="156"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
     </row>
     <row r="4" spans="1:8" ht="23.25">
-      <c r="A4" s="179" t="s">
+      <c r="A4" s="177" t="s">
         <v>507</v>
       </c>
-      <c r="B4" s="179"/>
-      <c r="C4" s="179"/>
-      <c r="D4" s="179"/>
-      <c r="E4" s="179"/>
-      <c r="F4" s="179"/>
-      <c r="G4" s="179"/>
-      <c r="H4" s="179"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
     </row>
     <row r="6" spans="1:8" ht="30.75" customHeight="1"/>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A7" s="213" t="s">
+      <c r="A7" s="211" t="s">
         <v>177</v>
       </c>
-      <c r="B7" s="213" t="s">
+      <c r="B7" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="213" t="s">
+      <c r="C7" s="211" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="215" t="s">
+      <c r="D7" s="213" t="s">
         <v>179</v>
       </c>
-      <c r="E7" s="213" t="s">
+      <c r="E7" s="211" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="213" t="s">
+      <c r="F7" s="211" t="s">
         <v>183</v>
       </c>
-      <c r="G7" s="213" t="s">
+      <c r="G7" s="211" t="s">
         <v>176</v>
       </c>
-      <c r="H7" s="214" t="s">
+      <c r="H7" s="212" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A8" s="213"/>
-      <c r="B8" s="213"/>
-      <c r="C8" s="213"/>
-      <c r="D8" s="216"/>
-      <c r="E8" s="213"/>
-      <c r="F8" s="213"/>
-      <c r="G8" s="213"/>
-      <c r="H8" s="214"/>
+      <c r="A8" s="211"/>
+      <c r="B8" s="211"/>
+      <c r="C8" s="211"/>
+      <c r="D8" s="214"/>
+      <c r="E8" s="211"/>
+      <c r="F8" s="211"/>
+      <c r="G8" s="211"/>
+      <c r="H8" s="212"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="15" t="s">
+        <v>789</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>791</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>790</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>792</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>791</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>219</v>
@@ -5278,44 +5275,44 @@
       <c r="F3" s="110"/>
     </row>
     <row r="4" spans="1:6" ht="23.25">
-      <c r="A4" s="179" t="s">
-        <v>785</v>
-      </c>
-      <c r="B4" s="179"/>
-      <c r="C4" s="179"/>
-      <c r="D4" s="179"/>
-      <c r="E4" s="179"/>
-      <c r="F4" s="179"/>
+      <c r="A4" s="177" t="s">
+        <v>784</v>
+      </c>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1">
       <c r="A5" s="41"/>
       <c r="B5" s="41"/>
     </row>
     <row r="6" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A6" s="210" t="s">
-        <v>784</v>
-      </c>
-      <c r="B6" s="211"/>
-      <c r="C6" s="211"/>
-      <c r="D6" s="212"/>
-      <c r="E6" s="206" t="s">
+      <c r="A6" s="208" t="s">
+        <v>783</v>
+      </c>
+      <c r="B6" s="209"/>
+      <c r="C6" s="209"/>
+      <c r="D6" s="210"/>
+      <c r="E6" s="204" t="s">
         <v>609</v>
       </c>
-      <c r="F6" s="206" t="s">
+      <c r="F6" s="204" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75">
-      <c r="A7" s="209" t="s">
+      <c r="A7" s="207" t="s">
         <v>419</v>
       </c>
-      <c r="B7" s="209"/>
-      <c r="C7" s="209" t="s">
+      <c r="B7" s="207"/>
+      <c r="C7" s="207" t="s">
         <v>420</v>
       </c>
-      <c r="D7" s="209"/>
-      <c r="E7" s="207"/>
-      <c r="F7" s="207"/>
+      <c r="D7" s="207"/>
+      <c r="E7" s="205"/>
+      <c r="F7" s="205"/>
     </row>
     <row r="8" spans="1:6" ht="15.75">
       <c r="A8" s="79" t="s">
@@ -5330,8 +5327,8 @@
       <c r="D8" s="148" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="208"/>
-      <c r="F8" s="208"/>
+      <c r="E8" s="206"/>
+      <c r="F8" s="206"/>
     </row>
     <row r="9" spans="1:6" s="49" customFormat="1" ht="38.25" customHeight="1">
       <c r="A9" s="122" t="str">
@@ -5351,7 +5348,7 @@
         <v>YYY</v>
       </c>
       <c r="E9" s="123" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F9" s="122" t="s">
         <v>608</v>
@@ -5375,7 +5372,7 @@
         <v>ZZZ</v>
       </c>
       <c r="E10" s="123" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="F10" s="122" t="s">
         <v>608</v>
@@ -5458,7 +5455,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
@@ -5486,63 +5483,63 @@
       <c r="A2" s="4"/>
     </row>
     <row r="3" spans="1:12" ht="23.25">
-      <c r="A3" s="178" t="str">
+      <c r="A3" s="176" t="str">
         <f>index!A1</f>
         <v>Especificação de Requisitos do SIOP (Sistema Integrado de Operações) - CSSFAA</v>
       </c>
-      <c r="B3" s="178"/>
-      <c r="C3" s="178"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="178"/>
-      <c r="G3" s="178"/>
-      <c r="H3" s="178"/>
-      <c r="I3" s="178"/>
-      <c r="J3" s="178"/>
-      <c r="K3" s="178"/>
-      <c r="L3" s="178"/>
+      <c r="B3" s="176"/>
+      <c r="C3" s="176"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="176"/>
+      <c r="F3" s="176"/>
+      <c r="G3" s="176"/>
+      <c r="H3" s="176"/>
+      <c r="I3" s="176"/>
+      <c r="J3" s="176"/>
+      <c r="K3" s="176"/>
+      <c r="L3" s="176"/>
     </row>
     <row r="4" spans="1:12" ht="23.25">
-      <c r="A4" s="179" t="s">
+      <c r="A4" s="177" t="s">
         <v>500</v>
       </c>
-      <c r="B4" s="179"/>
-      <c r="C4" s="179"/>
-      <c r="D4" s="179"/>
-      <c r="E4" s="179"/>
-      <c r="F4" s="179"/>
-      <c r="G4" s="179"/>
-      <c r="H4" s="179"/>
-      <c r="I4" s="179"/>
-      <c r="J4" s="179"/>
-      <c r="K4" s="179"/>
-      <c r="L4" s="179"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
+      <c r="J4" s="177"/>
+      <c r="K4" s="177"/>
+      <c r="L4" s="177"/>
     </row>
     <row r="5" spans="1:12" ht="18.75" customHeight="1">
       <c r="A5" s="4"/>
     </row>
     <row r="6" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A6" s="200" t="s">
+      <c r="A6" s="199" t="s">
         <v>508</v>
       </c>
-      <c r="B6" s="201"/>
+      <c r="B6" s="200"/>
     </row>
     <row r="7" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A7" s="222" t="s">
+      <c r="A7" s="242" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="223"/>
-      <c r="C7" s="203"/>
-      <c r="D7" s="203"/>
+      <c r="B7" s="243"/>
+      <c r="C7" s="196"/>
+      <c r="D7" s="196"/>
       <c r="E7" s="64"/>
     </row>
     <row r="8" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A8" s="224" t="s">
+      <c r="A8" s="244" t="s">
         <v>208</v>
       </c>
-      <c r="B8" s="225"/>
-      <c r="C8" s="203"/>
-      <c r="D8" s="203"/>
+      <c r="B8" s="245"/>
+      <c r="C8" s="196"/>
+      <c r="D8" s="196"/>
       <c r="E8" s="64"/>
     </row>
     <row r="9" spans="1:12" ht="18.75" customHeight="1">
@@ -5562,10 +5559,10 @@
       <c r="F10" s="90"/>
       <c r="G10" s="90"/>
       <c r="H10" s="90"/>
-      <c r="I10" s="243"/>
-      <c r="J10" s="243"/>
-      <c r="K10" s="243"/>
-      <c r="L10" s="243"/>
+      <c r="I10" s="230"/>
+      <c r="J10" s="230"/>
+      <c r="K10" s="230"/>
+      <c r="L10" s="230"/>
     </row>
     <row r="11" spans="1:12" ht="25.5" customHeight="1">
       <c r="A11" s="85" t="s">
@@ -5583,26 +5580,26 @@
       <c r="E11" s="91" t="s">
         <v>193</v>
       </c>
-      <c r="F11" s="242"/>
-      <c r="G11" s="242"/>
-      <c r="H11" s="242"/>
-      <c r="I11" s="242"/>
-      <c r="J11" s="242"/>
-      <c r="K11" s="242"/>
-      <c r="L11" s="242"/>
+      <c r="F11" s="229"/>
+      <c r="G11" s="229"/>
+      <c r="H11" s="229"/>
+      <c r="I11" s="229"/>
+      <c r="J11" s="229"/>
+      <c r="K11" s="229"/>
+      <c r="L11" s="229"/>
     </row>
     <row r="12" spans="1:12" ht="18.75" customHeight="1">
-      <c r="D12" s="226" t="s">
+      <c r="D12" s="236" t="s">
         <v>195</v>
       </c>
-      <c r="E12" s="227"/>
-      <c r="F12" s="227"/>
-      <c r="G12" s="227"/>
-      <c r="H12" s="227"/>
-      <c r="I12" s="227"/>
-      <c r="J12" s="227"/>
-      <c r="K12" s="227"/>
-      <c r="L12" s="228"/>
+      <c r="E12" s="237"/>
+      <c r="F12" s="237"/>
+      <c r="G12" s="237"/>
+      <c r="H12" s="237"/>
+      <c r="I12" s="237"/>
+      <c r="J12" s="237"/>
+      <c r="K12" s="237"/>
+      <c r="L12" s="238"/>
     </row>
     <row r="13" spans="1:12" ht="18.75" customHeight="1">
       <c r="D13" s="9" t="s">
@@ -5634,17 +5631,17 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="18.75" customHeight="1">
-      <c r="D14" s="226" t="s">
+      <c r="D14" s="236" t="s">
         <v>197</v>
       </c>
-      <c r="E14" s="227"/>
-      <c r="F14" s="227"/>
-      <c r="G14" s="227"/>
-      <c r="H14" s="227"/>
-      <c r="I14" s="227"/>
-      <c r="J14" s="227"/>
-      <c r="K14" s="227"/>
-      <c r="L14" s="228"/>
+      <c r="E14" s="237"/>
+      <c r="F14" s="237"/>
+      <c r="G14" s="237"/>
+      <c r="H14" s="237"/>
+      <c r="I14" s="237"/>
+      <c r="J14" s="237"/>
+      <c r="K14" s="237"/>
+      <c r="L14" s="238"/>
     </row>
     <row r="15" spans="1:12" ht="18.75" customHeight="1">
       <c r="D15" s="9" t="s">
@@ -5656,40 +5653,40 @@
       <c r="F15" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="G15" s="232"/>
-      <c r="H15" s="233"/>
-      <c r="I15" s="233"/>
-      <c r="J15" s="233"/>
-      <c r="K15" s="233"/>
-      <c r="L15" s="234"/>
+      <c r="G15" s="239"/>
+      <c r="H15" s="240"/>
+      <c r="I15" s="240"/>
+      <c r="J15" s="240"/>
+      <c r="K15" s="240"/>
+      <c r="L15" s="241"/>
     </row>
     <row r="16" spans="1:12" ht="18.75" customHeight="1">
-      <c r="D16" s="226" t="s">
+      <c r="D16" s="236" t="s">
         <v>200</v>
       </c>
-      <c r="E16" s="227"/>
-      <c r="F16" s="227"/>
-      <c r="G16" s="227"/>
-      <c r="H16" s="227"/>
-      <c r="I16" s="227"/>
-      <c r="J16" s="227"/>
-      <c r="K16" s="227"/>
-      <c r="L16" s="228"/>
+      <c r="E16" s="237"/>
+      <c r="F16" s="237"/>
+      <c r="G16" s="237"/>
+      <c r="H16" s="237"/>
+      <c r="I16" s="237"/>
+      <c r="J16" s="237"/>
+      <c r="K16" s="237"/>
+      <c r="L16" s="238"/>
     </row>
     <row r="17" spans="1:13" ht="18.75" customHeight="1">
       <c r="D17" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="E17" s="245" t="s">
+      <c r="E17" s="232" t="s">
         <v>202</v>
       </c>
-      <c r="F17" s="246"/>
-      <c r="G17" s="246"/>
-      <c r="H17" s="246"/>
-      <c r="I17" s="246"/>
-      <c r="J17" s="246"/>
-      <c r="K17" s="246"/>
-      <c r="L17" s="247"/>
+      <c r="F17" s="233"/>
+      <c r="G17" s="233"/>
+      <c r="H17" s="233"/>
+      <c r="I17" s="233"/>
+      <c r="J17" s="233"/>
+      <c r="K17" s="233"/>
+      <c r="L17" s="234"/>
     </row>
     <row r="18" spans="1:13" ht="18.75" customHeight="1">
       <c r="A18" s="96" t="s">
@@ -5707,18 +5704,18 @@
       <c r="E18" s="99" t="s">
         <v>194</v>
       </c>
-      <c r="F18" s="229"/>
-      <c r="G18" s="230"/>
-      <c r="H18" s="230"/>
-      <c r="I18" s="230"/>
-      <c r="J18" s="230"/>
-      <c r="K18" s="230"/>
-      <c r="L18" s="231"/>
+      <c r="F18" s="219"/>
+      <c r="G18" s="220"/>
+      <c r="H18" s="220"/>
+      <c r="I18" s="220"/>
+      <c r="J18" s="220"/>
+      <c r="K18" s="220"/>
+      <c r="L18" s="221"/>
     </row>
     <row r="19" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A19" s="237"/>
-      <c r="B19" s="237"/>
-      <c r="C19" s="221" t="s">
+      <c r="A19" s="224"/>
+      <c r="B19" s="224"/>
+      <c r="C19" s="235" t="s">
         <v>196</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -5751,9 +5748,9 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A20" s="244"/>
-      <c r="B20" s="244"/>
-      <c r="C20" s="221"/>
+      <c r="A20" s="231"/>
+      <c r="B20" s="231"/>
+      <c r="C20" s="235"/>
       <c r="D20" s="2" t="s">
         <v>124</v>
       </c>
@@ -5779,9 +5776,9 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A21" s="244"/>
-      <c r="B21" s="244"/>
-      <c r="C21" s="221"/>
+      <c r="A21" s="231"/>
+      <c r="B21" s="231"/>
+      <c r="C21" s="235"/>
       <c r="D21" s="2" t="s">
         <v>175</v>
       </c>
@@ -5805,9 +5802,9 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A22" s="244"/>
-      <c r="B22" s="244"/>
-      <c r="C22" s="221"/>
+      <c r="A22" s="231"/>
+      <c r="B22" s="231"/>
+      <c r="C22" s="235"/>
       <c r="D22" s="2" t="s">
         <v>207</v>
       </c>
@@ -5833,9 +5830,9 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A23" s="244"/>
-      <c r="B23" s="244"/>
-      <c r="C23" s="221" t="s">
+      <c r="A23" s="231"/>
+      <c r="B23" s="231"/>
+      <c r="C23" s="235" t="s">
         <v>197</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -5847,20 +5844,20 @@
       <c r="F23" s="24">
         <v>1</v>
       </c>
-      <c r="G23" s="221"/>
-      <c r="H23" s="221"/>
-      <c r="I23" s="221"/>
-      <c r="J23" s="221"/>
-      <c r="K23" s="221"/>
-      <c r="L23" s="221"/>
+      <c r="G23" s="235"/>
+      <c r="H23" s="235"/>
+      <c r="I23" s="235"/>
+      <c r="J23" s="235"/>
+      <c r="K23" s="235"/>
+      <c r="L23" s="235"/>
       <c r="M23" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A24" s="244"/>
-      <c r="B24" s="244"/>
-      <c r="C24" s="221"/>
+      <c r="A24" s="231"/>
+      <c r="B24" s="231"/>
+      <c r="C24" s="235"/>
       <c r="D24" s="2" t="s">
         <v>205</v>
       </c>
@@ -5870,17 +5867,17 @@
       <c r="F24" s="24">
         <v>1</v>
       </c>
-      <c r="G24" s="221"/>
-      <c r="H24" s="221"/>
-      <c r="I24" s="221"/>
-      <c r="J24" s="221"/>
-      <c r="K24" s="221"/>
-      <c r="L24" s="221"/>
+      <c r="G24" s="235"/>
+      <c r="H24" s="235"/>
+      <c r="I24" s="235"/>
+      <c r="J24" s="235"/>
+      <c r="K24" s="235"/>
+      <c r="L24" s="235"/>
     </row>
     <row r="25" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A25" s="244"/>
-      <c r="B25" s="244"/>
-      <c r="C25" s="221"/>
+      <c r="A25" s="231"/>
+      <c r="B25" s="231"/>
+      <c r="C25" s="235"/>
       <c r="D25" s="2" t="s">
         <v>206</v>
       </c>
@@ -5890,67 +5887,67 @@
       <c r="F25" s="24">
         <v>1</v>
       </c>
-      <c r="G25" s="221"/>
-      <c r="H25" s="221"/>
-      <c r="I25" s="221"/>
-      <c r="J25" s="221"/>
-      <c r="K25" s="221"/>
-      <c r="L25" s="221"/>
+      <c r="G25" s="235"/>
+      <c r="H25" s="235"/>
+      <c r="I25" s="235"/>
+      <c r="J25" s="235"/>
+      <c r="K25" s="235"/>
+      <c r="L25" s="235"/>
     </row>
     <row r="26" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A26" s="244"/>
-      <c r="B26" s="244"/>
-      <c r="C26" s="237" t="s">
+      <c r="A26" s="231"/>
+      <c r="B26" s="231"/>
+      <c r="C26" s="224" t="s">
         <v>200</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E26" s="239" t="s">
+      <c r="E26" s="226" t="s">
         <v>210</v>
       </c>
-      <c r="F26" s="240"/>
-      <c r="G26" s="240"/>
-      <c r="H26" s="240"/>
-      <c r="I26" s="240"/>
-      <c r="J26" s="240"/>
-      <c r="K26" s="240"/>
-      <c r="L26" s="241"/>
+      <c r="F26" s="227"/>
+      <c r="G26" s="227"/>
+      <c r="H26" s="227"/>
+      <c r="I26" s="227"/>
+      <c r="J26" s="227"/>
+      <c r="K26" s="227"/>
+      <c r="L26" s="228"/>
       <c r="M26" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A27" s="238"/>
-      <c r="B27" s="238"/>
-      <c r="C27" s="238"/>
+      <c r="A27" s="225"/>
+      <c r="B27" s="225"/>
+      <c r="C27" s="225"/>
       <c r="D27" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E27" s="239" t="s">
+      <c r="E27" s="226" t="s">
         <v>204</v>
       </c>
-      <c r="F27" s="240"/>
-      <c r="G27" s="240"/>
-      <c r="H27" s="240"/>
-      <c r="I27" s="240"/>
-      <c r="J27" s="240"/>
-      <c r="K27" s="240"/>
-      <c r="L27" s="241"/>
+      <c r="F27" s="227"/>
+      <c r="G27" s="227"/>
+      <c r="H27" s="227"/>
+      <c r="I27" s="227"/>
+      <c r="J27" s="227"/>
+      <c r="K27" s="227"/>
+      <c r="L27" s="228"/>
     </row>
     <row r="28" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A28" s="235"/>
-      <c r="B28" s="236"/>
-      <c r="C28" s="236"/>
-      <c r="D28" s="236"/>
-      <c r="E28" s="236"/>
-      <c r="F28" s="236"/>
-      <c r="G28" s="236"/>
-      <c r="H28" s="236"/>
-      <c r="I28" s="236"/>
-      <c r="J28" s="236"/>
-      <c r="K28" s="236"/>
-      <c r="L28" s="236"/>
+      <c r="A28" s="222"/>
+      <c r="B28" s="223"/>
+      <c r="C28" s="223"/>
+      <c r="D28" s="223"/>
+      <c r="E28" s="223"/>
+      <c r="F28" s="223"/>
+      <c r="G28" s="223"/>
+      <c r="H28" s="223"/>
+      <c r="I28" s="223"/>
+      <c r="J28" s="223"/>
+      <c r="K28" s="223"/>
+      <c r="L28" s="223"/>
     </row>
     <row r="29" spans="1:13" ht="18.75" customHeight="1">
       <c r="A29" s="96" t="s">
@@ -5968,16 +5965,16 @@
       <c r="E29" s="99" t="s">
         <v>194</v>
       </c>
-      <c r="F29" s="229"/>
-      <c r="G29" s="230"/>
-      <c r="H29" s="230"/>
-      <c r="I29" s="230"/>
-      <c r="J29" s="230"/>
-      <c r="K29" s="230"/>
-      <c r="L29" s="231"/>
+      <c r="F29" s="219"/>
+      <c r="G29" s="220"/>
+      <c r="H29" s="220"/>
+      <c r="I29" s="220"/>
+      <c r="J29" s="220"/>
+      <c r="K29" s="220"/>
+      <c r="L29" s="221"/>
     </row>
     <row r="30" spans="1:13" ht="18.75" customHeight="1">
-      <c r="C30" s="221" t="s">
+      <c r="C30" s="235" t="s">
         <v>196</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -6005,7 +6002,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="18.75" customHeight="1">
-      <c r="C31" s="221"/>
+      <c r="C31" s="235"/>
       <c r="D31" s="2" t="s">
         <v>124</v>
       </c>
@@ -6031,7 +6028,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="18.75" customHeight="1">
-      <c r="C32" s="221"/>
+      <c r="C32" s="235"/>
       <c r="D32" s="2" t="s">
         <v>175</v>
       </c>
@@ -6055,7 +6052,7 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="18.75" customHeight="1">
-      <c r="C33" s="221"/>
+      <c r="C33" s="235"/>
       <c r="D33" s="2" t="s">
         <v>207</v>
       </c>
@@ -6094,16 +6091,16 @@
       <c r="E35" s="99" t="s">
         <v>194</v>
       </c>
-      <c r="F35" s="229"/>
-      <c r="G35" s="230"/>
-      <c r="H35" s="230"/>
-      <c r="I35" s="230"/>
-      <c r="J35" s="230"/>
-      <c r="K35" s="230"/>
-      <c r="L35" s="231"/>
+      <c r="F35" s="219"/>
+      <c r="G35" s="220"/>
+      <c r="H35" s="220"/>
+      <c r="I35" s="220"/>
+      <c r="J35" s="220"/>
+      <c r="K35" s="220"/>
+      <c r="L35" s="221"/>
     </row>
     <row r="36" spans="1:12" ht="18.75" customHeight="1">
-      <c r="C36" s="221" t="s">
+      <c r="C36" s="235" t="s">
         <v>196</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -6131,7 +6128,7 @@
       </c>
     </row>
     <row r="37" spans="1:12" ht="18.75" customHeight="1">
-      <c r="C37" s="221"/>
+      <c r="C37" s="235"/>
       <c r="D37" s="2" t="s">
         <v>124</v>
       </c>
@@ -6157,7 +6154,7 @@
       </c>
     </row>
     <row r="38" spans="1:12" ht="18.75" customHeight="1">
-      <c r="C38" s="221"/>
+      <c r="C38" s="235"/>
       <c r="D38" s="2" t="s">
         <v>175</v>
       </c>
@@ -6181,7 +6178,7 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="18.75" customHeight="1">
-      <c r="C39" s="221"/>
+      <c r="C39" s="235"/>
       <c r="D39" s="2" t="s">
         <v>207</v>
       </c>
@@ -6205,7 +6202,7 @@
       </c>
     </row>
     <row r="40" spans="1:12" ht="18.75" customHeight="1">
-      <c r="C40" s="221" t="s">
+      <c r="C40" s="235" t="s">
         <v>197</v>
       </c>
       <c r="D40" s="2" t="s">
@@ -6217,15 +6214,15 @@
       <c r="F40" s="24">
         <v>1</v>
       </c>
-      <c r="G40" s="221"/>
-      <c r="H40" s="221"/>
-      <c r="I40" s="221"/>
-      <c r="J40" s="221"/>
-      <c r="K40" s="221"/>
-      <c r="L40" s="221"/>
+      <c r="G40" s="235"/>
+      <c r="H40" s="235"/>
+      <c r="I40" s="235"/>
+      <c r="J40" s="235"/>
+      <c r="K40" s="235"/>
+      <c r="L40" s="235"/>
     </row>
     <row r="41" spans="1:12" ht="18.75" customHeight="1">
-      <c r="C41" s="221"/>
+      <c r="C41" s="235"/>
       <c r="D41" s="2" t="s">
         <v>205</v>
       </c>
@@ -6235,15 +6232,15 @@
       <c r="F41" s="24">
         <v>1</v>
       </c>
-      <c r="G41" s="221"/>
-      <c r="H41" s="221"/>
-      <c r="I41" s="221"/>
-      <c r="J41" s="221"/>
-      <c r="K41" s="221"/>
-      <c r="L41" s="221"/>
+      <c r="G41" s="235"/>
+      <c r="H41" s="235"/>
+      <c r="I41" s="235"/>
+      <c r="J41" s="235"/>
+      <c r="K41" s="235"/>
+      <c r="L41" s="235"/>
     </row>
     <row r="42" spans="1:12" ht="18.75" customHeight="1">
-      <c r="C42" s="221"/>
+      <c r="C42" s="235"/>
       <c r="D42" s="2" t="s">
         <v>214</v>
       </c>
@@ -6253,16 +6250,33 @@
       <c r="F42" s="24">
         <v>1</v>
       </c>
-      <c r="G42" s="221"/>
-      <c r="H42" s="221"/>
-      <c r="I42" s="221"/>
-      <c r="J42" s="221"/>
-      <c r="K42" s="221"/>
-      <c r="L42" s="221"/>
+      <c r="G42" s="235"/>
+      <c r="H42" s="235"/>
+      <c r="I42" s="235"/>
+      <c r="J42" s="235"/>
+      <c r="K42" s="235"/>
+      <c r="L42" s="235"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="33">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="D16:L16"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="G40:L40"/>
+    <mergeCell ref="G41:L41"/>
+    <mergeCell ref="G42:L42"/>
+    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="F29:L29"/>
+    <mergeCell ref="F18:L18"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="G24:L24"/>
     <mergeCell ref="A3:L3"/>
     <mergeCell ref="A4:L4"/>
     <mergeCell ref="F35:L35"/>
@@ -6279,23 +6293,6 @@
     <mergeCell ref="D14:L14"/>
     <mergeCell ref="G23:L23"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="G40:L40"/>
-    <mergeCell ref="G41:L41"/>
-    <mergeCell ref="G42:L42"/>
-    <mergeCell ref="G25:L25"/>
-    <mergeCell ref="F29:L29"/>
-    <mergeCell ref="F18:L18"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="G24:L24"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="D16:L16"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G19:G22 G30:G33 G36:G39">
@@ -6377,23 +6374,23 @@
       <c r="A6" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="248"/>
+      <c r="E6" s="246"/>
     </row>
     <row r="7" spans="1:9" s="93" customFormat="1" ht="14.25" customHeight="1">
       <c r="A7" s="94" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="248"/>
+      <c r="E7" s="246"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="252" t="s">
+      <c r="A9" s="250" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="252"/>
-      <c r="C9" s="252"/>
-      <c r="D9" s="252"/>
-      <c r="E9" s="252"/>
-      <c r="F9" s="252"/>
+      <c r="B9" s="250"/>
+      <c r="C9" s="250"/>
+      <c r="D9" s="250"/>
+      <c r="E9" s="250"/>
+      <c r="F9" s="250"/>
     </row>
     <row r="10" spans="1:9" ht="15.75">
       <c r="A10" s="7" t="s">
@@ -6426,7 +6423,7 @@
         <v>65</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E11" s="24" t="s">
         <v>66</v>
@@ -6450,7 +6447,7 @@
         <v>185</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
@@ -6464,7 +6461,7 @@
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="24" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
@@ -6478,14 +6475,14 @@
       <c r="F14" s="82"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="249" t="s">
+      <c r="A15" s="247" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="250"/>
-      <c r="C15" s="250"/>
-      <c r="D15" s="250"/>
-      <c r="E15" s="250"/>
-      <c r="F15" s="251"/>
+      <c r="B15" s="248"/>
+      <c r="C15" s="248"/>
+      <c r="D15" s="248"/>
+      <c r="E15" s="248"/>
+      <c r="F15" s="249"/>
     </row>
     <row r="16" spans="1:9" ht="15.75">
       <c r="A16" s="7" t="s">
@@ -6518,7 +6515,7 @@
         <v>102</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E17" s="52" t="s">
         <v>72</v>
@@ -6537,7 +6534,7 @@
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="24" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -6567,7 +6564,7 @@
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A15" sqref="A15:R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6618,25 +6615,25 @@
       <c r="Q3" s="72"/>
     </row>
     <row r="4" spans="1:18" ht="23.25">
-      <c r="A4" s="179" t="s">
+      <c r="A4" s="177" t="s">
         <v>502</v>
       </c>
-      <c r="B4" s="179"/>
-      <c r="C4" s="179"/>
-      <c r="D4" s="179"/>
-      <c r="E4" s="179"/>
-      <c r="F4" s="179"/>
-      <c r="G4" s="179"/>
-      <c r="H4" s="179"/>
-      <c r="I4" s="179"/>
-      <c r="J4" s="179"/>
-      <c r="K4" s="179"/>
-      <c r="L4" s="179"/>
-      <c r="M4" s="179"/>
-      <c r="N4" s="179"/>
-      <c r="O4" s="179"/>
-      <c r="P4" s="179"/>
-      <c r="Q4" s="179"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
+      <c r="J4" s="177"/>
+      <c r="K4" s="177"/>
+      <c r="L4" s="177"/>
+      <c r="M4" s="177"/>
+      <c r="N4" s="177"/>
+      <c r="O4" s="177"/>
+      <c r="P4" s="177"/>
+      <c r="Q4" s="177"/>
     </row>
     <row r="5" spans="1:18" ht="21" customHeight="1"/>
     <row r="6" spans="1:18">
@@ -6650,75 +6647,76 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A9" s="261" t="s">
+      <c r="A9" s="252" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="262"/>
-      <c r="C9" s="262"/>
-      <c r="D9" s="262"/>
-      <c r="E9" s="262"/>
-      <c r="F9" s="262"/>
-      <c r="G9" s="262"/>
-      <c r="H9" s="262"/>
-      <c r="I9" s="262"/>
-      <c r="J9" s="262"/>
-      <c r="K9" s="262"/>
-      <c r="L9" s="262"/>
-      <c r="M9" s="262"/>
-      <c r="N9" s="262"/>
-      <c r="O9" s="262"/>
-      <c r="P9" s="262"/>
-      <c r="Q9" s="263"/>
+      <c r="B9" s="253"/>
+      <c r="C9" s="253"/>
+      <c r="D9" s="253"/>
+      <c r="E9" s="253"/>
+      <c r="F9" s="253"/>
+      <c r="G9" s="253"/>
+      <c r="H9" s="253"/>
+      <c r="I9" s="253"/>
+      <c r="J9" s="253"/>
+      <c r="K9" s="253"/>
+      <c r="L9" s="253"/>
+      <c r="M9" s="253"/>
+      <c r="N9" s="253"/>
+      <c r="O9" s="253"/>
+      <c r="P9" s="253"/>
+      <c r="Q9" s="253"/>
+      <c r="R9" s="254"/>
     </row>
     <row r="10" spans="1:18" ht="33" customHeight="1">
-      <c r="A10" s="254" t="s">
+      <c r="A10" s="258" t="s">
         <v>177</v>
       </c>
-      <c r="B10" s="254" t="s">
+      <c r="B10" s="258" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="254" t="s">
+      <c r="C10" s="258" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="254" t="s">
+      <c r="D10" s="258" t="s">
         <v>178</v>
       </c>
-      <c r="E10" s="258" t="s">
+      <c r="E10" s="255" t="s">
         <v>236</v>
       </c>
-      <c r="F10" s="260"/>
-      <c r="G10" s="259"/>
-      <c r="H10" s="254" t="s">
+      <c r="F10" s="256"/>
+      <c r="G10" s="257"/>
+      <c r="H10" s="258" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="256" t="s">
+      <c r="I10" s="260" t="s">
         <v>239</v>
       </c>
-      <c r="J10" s="257"/>
-      <c r="K10" s="258" t="s">
+      <c r="J10" s="261"/>
+      <c r="K10" s="255" t="s">
         <v>79</v>
       </c>
-      <c r="L10" s="259"/>
-      <c r="M10" s="258" t="s">
+      <c r="L10" s="257"/>
+      <c r="M10" s="255" t="s">
         <v>241</v>
       </c>
-      <c r="N10" s="259"/>
+      <c r="N10" s="257"/>
       <c r="O10" s="100" t="s">
         <v>243</v>
       </c>
-      <c r="P10" s="253" t="s">
+      <c r="P10" s="251" t="s">
         <v>242</v>
       </c>
-      <c r="Q10" s="253"/>
-      <c r="R10" s="214" t="s">
+      <c r="Q10" s="251"/>
+      <c r="R10" s="212" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="33" customHeight="1">
-      <c r="A11" s="255"/>
-      <c r="B11" s="255"/>
-      <c r="C11" s="255"/>
-      <c r="D11" s="255"/>
+      <c r="A11" s="259"/>
+      <c r="B11" s="259"/>
+      <c r="C11" s="259"/>
+      <c r="D11" s="259"/>
       <c r="E11" s="103" t="s">
         <v>233</v>
       </c>
@@ -6728,7 +6726,7 @@
       <c r="G11" s="103" t="s">
         <v>235</v>
       </c>
-      <c r="H11" s="255"/>
+      <c r="H11" s="259"/>
       <c r="I11" s="101" t="s">
         <v>140</v>
       </c>
@@ -6754,7 +6752,7 @@
       <c r="Q11" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="R11" s="214"/>
+      <c r="R11" s="212"/>
     </row>
     <row r="12" spans="1:18" ht="107.25" customHeight="1">
       <c r="A12" s="60" t="s">
@@ -6863,75 +6861,76 @@
       <c r="R14" s="77"/>
     </row>
     <row r="15" spans="1:18" ht="18" customHeight="1">
-      <c r="A15" s="261" t="s">
+      <c r="A15" s="252" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="262"/>
-      <c r="C15" s="262"/>
-      <c r="D15" s="262"/>
-      <c r="E15" s="262"/>
-      <c r="F15" s="262"/>
-      <c r="G15" s="262"/>
-      <c r="H15" s="262"/>
-      <c r="I15" s="262"/>
-      <c r="J15" s="262"/>
-      <c r="K15" s="262"/>
-      <c r="L15" s="262"/>
-      <c r="M15" s="262"/>
-      <c r="N15" s="262"/>
-      <c r="O15" s="262"/>
-      <c r="P15" s="262"/>
-      <c r="Q15" s="263"/>
+      <c r="B15" s="253"/>
+      <c r="C15" s="253"/>
+      <c r="D15" s="253"/>
+      <c r="E15" s="253"/>
+      <c r="F15" s="253"/>
+      <c r="G15" s="253"/>
+      <c r="H15" s="253"/>
+      <c r="I15" s="253"/>
+      <c r="J15" s="253"/>
+      <c r="K15" s="253"/>
+      <c r="L15" s="253"/>
+      <c r="M15" s="253"/>
+      <c r="N15" s="253"/>
+      <c r="O15" s="253"/>
+      <c r="P15" s="253"/>
+      <c r="Q15" s="253"/>
+      <c r="R15" s="254"/>
     </row>
     <row r="16" spans="1:18" ht="33" customHeight="1">
-      <c r="A16" s="254" t="s">
+      <c r="A16" s="258" t="s">
         <v>177</v>
       </c>
-      <c r="B16" s="254" t="s">
+      <c r="B16" s="258" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="254" t="s">
+      <c r="C16" s="258" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="254" t="s">
+      <c r="D16" s="258" t="s">
         <v>178</v>
       </c>
-      <c r="E16" s="258" t="s">
+      <c r="E16" s="255" t="s">
         <v>236</v>
       </c>
-      <c r="F16" s="260"/>
-      <c r="G16" s="259"/>
-      <c r="H16" s="254" t="s">
+      <c r="F16" s="256"/>
+      <c r="G16" s="257"/>
+      <c r="H16" s="258" t="s">
         <v>30</v>
       </c>
-      <c r="I16" s="256" t="s">
+      <c r="I16" s="260" t="s">
         <v>239</v>
       </c>
-      <c r="J16" s="257"/>
-      <c r="K16" s="258" t="s">
+      <c r="J16" s="261"/>
+      <c r="K16" s="255" t="s">
         <v>79</v>
       </c>
-      <c r="L16" s="259"/>
-      <c r="M16" s="258" t="s">
+      <c r="L16" s="257"/>
+      <c r="M16" s="255" t="s">
         <v>241</v>
       </c>
-      <c r="N16" s="259"/>
+      <c r="N16" s="257"/>
       <c r="O16" s="100" t="s">
         <v>243</v>
       </c>
-      <c r="P16" s="253" t="s">
+      <c r="P16" s="251" t="s">
         <v>242</v>
       </c>
-      <c r="Q16" s="253"/>
-      <c r="R16" s="214" t="s">
+      <c r="Q16" s="251"/>
+      <c r="R16" s="212" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="33" customHeight="1">
-      <c r="A17" s="255"/>
-      <c r="B17" s="255"/>
-      <c r="C17" s="255"/>
-      <c r="D17" s="255"/>
+      <c r="A17" s="259"/>
+      <c r="B17" s="259"/>
+      <c r="C17" s="259"/>
+      <c r="D17" s="259"/>
       <c r="E17" s="103" t="s">
         <v>233</v>
       </c>
@@ -6941,7 +6940,7 @@
       <c r="G17" s="103" t="s">
         <v>235</v>
       </c>
-      <c r="H17" s="255"/>
+      <c r="H17" s="259"/>
       <c r="I17" s="101" t="s">
         <v>140</v>
       </c>
@@ -6967,7 +6966,7 @@
       <c r="Q17" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="R17" s="214"/>
+      <c r="R17" s="212"/>
     </row>
     <row r="18" spans="1:18" ht="21" customHeight="1">
       <c r="A18" s="60" t="s">
@@ -7059,21 +7058,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A4:Q4"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A9:Q9"/>
-    <mergeCell ref="A15:Q15"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:H17"/>
     <mergeCell ref="R10:R11"/>
     <mergeCell ref="R16:R17"/>
     <mergeCell ref="P16:Q16"/>
@@ -7084,6 +7068,21 @@
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="K16:L16"/>
     <mergeCell ref="M16:N16"/>
+    <mergeCell ref="A15:R15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="A4:Q4"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A9:R9"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K12:L14 K18:L21">
@@ -7137,33 +7136,33 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="23.25">
-      <c r="A3" s="178" t="str">
+      <c r="A3" s="176" t="str">
         <f>index!A1</f>
         <v>Especificação de Requisitos do SIOP (Sistema Integrado de Operações) - CSSFAA</v>
       </c>
-      <c r="B3" s="178"/>
-      <c r="C3" s="178"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="178"/>
-      <c r="G3" s="178"/>
-      <c r="H3" s="178"/>
-      <c r="I3" s="178"/>
-      <c r="J3" s="178"/>
+      <c r="B3" s="176"/>
+      <c r="C3" s="176"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="176"/>
+      <c r="F3" s="176"/>
+      <c r="G3" s="176"/>
+      <c r="H3" s="176"/>
+      <c r="I3" s="176"/>
+      <c r="J3" s="176"/>
     </row>
     <row r="4" spans="1:10" ht="23.25">
-      <c r="A4" s="179" t="s">
+      <c r="A4" s="177" t="s">
         <v>503</v>
       </c>
-      <c r="B4" s="179"/>
-      <c r="C4" s="179"/>
-      <c r="D4" s="179"/>
-      <c r="E4" s="179"/>
-      <c r="F4" s="179"/>
-      <c r="G4" s="179"/>
-      <c r="H4" s="179"/>
-      <c r="I4" s="179"/>
-      <c r="J4" s="179"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
+      <c r="J4" s="177"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="38" t="s">
@@ -7182,33 +7181,33 @@
     </row>
     <row r="9" spans="1:10" ht="16.5" customHeight="1"/>
     <row r="10" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A10" s="267" t="s">
+      <c r="A10" s="265" t="s">
         <v>555</v>
       </c>
-      <c r="B10" s="267"/>
-      <c r="C10" s="267"/>
-      <c r="D10" s="267"/>
-      <c r="E10" s="267"/>
-      <c r="F10" s="267"/>
-      <c r="G10" s="267"/>
-      <c r="H10" s="267"/>
-      <c r="I10" s="267"/>
+      <c r="B10" s="265"/>
+      <c r="C10" s="265"/>
+      <c r="D10" s="265"/>
+      <c r="E10" s="265"/>
+      <c r="F10" s="265"/>
+      <c r="G10" s="265"/>
+      <c r="H10" s="265"/>
+      <c r="I10" s="265"/>
       <c r="J10" s="65"/>
     </row>
     <row r="11" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A11" s="268" t="s">
+      <c r="A11" s="266" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="268"/>
-      <c r="C11" s="268"/>
-      <c r="D11" s="269" t="s">
+      <c r="B11" s="266"/>
+      <c r="C11" s="266"/>
+      <c r="D11" s="267" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="269"/>
-      <c r="F11" s="269"/>
-      <c r="G11" s="269"/>
-      <c r="H11" s="269"/>
-      <c r="I11" s="269"/>
+      <c r="E11" s="267"/>
+      <c r="F11" s="267"/>
+      <c r="G11" s="267"/>
+      <c r="H11" s="267"/>
+      <c r="I11" s="267"/>
       <c r="J11" s="66"/>
     </row>
     <row r="12" spans="1:10" ht="16.5" customHeight="1">
@@ -7276,9 +7275,9 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="34.5" customHeight="1">
-      <c r="A14" s="264"/>
-      <c r="B14" s="265"/>
-      <c r="C14" s="266"/>
+      <c r="A14" s="262"/>
+      <c r="B14" s="263"/>
+      <c r="C14" s="264"/>
       <c r="D14" s="13">
         <v>2</v>
       </c>
@@ -7356,9 +7355,9 @@
       <c r="J16" s="12"/>
     </row>
     <row r="17" spans="1:10" ht="34.5" customHeight="1">
-      <c r="A17" s="264"/>
-      <c r="B17" s="265"/>
-      <c r="C17" s="266"/>
+      <c r="A17" s="262"/>
+      <c r="B17" s="263"/>
+      <c r="C17" s="264"/>
       <c r="D17" s="13" t="s">
         <v>95</v>
       </c>
@@ -7429,33 +7428,33 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="23.25">
-      <c r="A3" s="178" t="str">
+      <c r="A3" s="176" t="str">
         <f>index!A1</f>
         <v>Especificação de Requisitos do SIOP (Sistema Integrado de Operações) - CSSFAA</v>
       </c>
-      <c r="B3" s="178"/>
-      <c r="C3" s="178"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="178"/>
-      <c r="G3" s="178"/>
-      <c r="H3" s="178"/>
-      <c r="I3" s="178"/>
-      <c r="J3" s="178"/>
+      <c r="B3" s="176"/>
+      <c r="C3" s="176"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="176"/>
+      <c r="F3" s="176"/>
+      <c r="G3" s="176"/>
+      <c r="H3" s="176"/>
+      <c r="I3" s="176"/>
+      <c r="J3" s="176"/>
     </row>
     <row r="4" spans="1:10" ht="23.25">
-      <c r="A4" s="179" t="s">
+      <c r="A4" s="177" t="s">
         <v>505</v>
       </c>
-      <c r="B4" s="179"/>
-      <c r="C4" s="179"/>
-      <c r="D4" s="179"/>
-      <c r="E4" s="179"/>
-      <c r="F4" s="179"/>
-      <c r="G4" s="179"/>
-      <c r="H4" s="179"/>
-      <c r="I4" s="179"/>
-      <c r="J4" s="179"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
+      <c r="J4" s="177"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="38" t="s">
@@ -7474,33 +7473,33 @@
     </row>
     <row r="9" spans="1:10" ht="16.5" customHeight="1"/>
     <row r="10" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A10" s="267" t="s">
+      <c r="A10" s="265" t="s">
         <v>133</v>
       </c>
-      <c r="B10" s="267"/>
-      <c r="C10" s="267"/>
-      <c r="D10" s="267"/>
-      <c r="E10" s="267"/>
-      <c r="F10" s="267"/>
-      <c r="G10" s="267"/>
-      <c r="H10" s="267"/>
-      <c r="I10" s="267"/>
+      <c r="B10" s="265"/>
+      <c r="C10" s="265"/>
+      <c r="D10" s="265"/>
+      <c r="E10" s="265"/>
+      <c r="F10" s="265"/>
+      <c r="G10" s="265"/>
+      <c r="H10" s="265"/>
+      <c r="I10" s="265"/>
       <c r="J10" s="65"/>
     </row>
     <row r="11" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A11" s="268" t="s">
+      <c r="A11" s="266" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="268"/>
-      <c r="C11" s="268"/>
-      <c r="D11" s="269" t="s">
+      <c r="B11" s="266"/>
+      <c r="C11" s="266"/>
+      <c r="D11" s="267" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="269"/>
-      <c r="F11" s="269"/>
-      <c r="G11" s="269"/>
-      <c r="H11" s="269"/>
-      <c r="I11" s="269"/>
+      <c r="E11" s="267"/>
+      <c r="F11" s="267"/>
+      <c r="G11" s="267"/>
+      <c r="H11" s="267"/>
+      <c r="I11" s="267"/>
       <c r="J11" s="66"/>
     </row>
     <row r="12" spans="1:10" ht="16.5" customHeight="1">
@@ -7568,9 +7567,9 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="34.5" customHeight="1">
-      <c r="A14" s="264"/>
-      <c r="B14" s="265"/>
-      <c r="C14" s="266"/>
+      <c r="A14" s="262"/>
+      <c r="B14" s="263"/>
+      <c r="C14" s="264"/>
       <c r="D14" s="13">
         <v>2</v>
       </c>
@@ -7648,9 +7647,9 @@
       <c r="J16" s="12"/>
     </row>
     <row r="17" spans="1:10" ht="34.5" customHeight="1">
-      <c r="A17" s="264"/>
-      <c r="B17" s="265"/>
-      <c r="C17" s="266"/>
+      <c r="A17" s="262"/>
+      <c r="B17" s="263"/>
+      <c r="C17" s="264"/>
       <c r="D17" s="13" t="s">
         <v>95</v>
       </c>
@@ -7722,12 +7721,12 @@
         <v>Especificação de Requisitos do SIOP (Sistema Integrado de Operações) - CSSFAA</v>
       </c>
       <c r="B3" s="48"/>
-      <c r="C3" s="163" t="s">
+      <c r="C3" s="161" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="164"/>
-      <c r="E3" s="164"/>
-      <c r="F3" s="165"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="163"/>
       <c r="H3" s="2" t="s">
         <v>388</v>
       </c>
@@ -7743,10 +7742,10 @@
         <v>96</v>
       </c>
       <c r="B4" s="74"/>
-      <c r="C4" s="166"/>
-      <c r="D4" s="167"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="168"/>
+      <c r="C4" s="164"/>
+      <c r="D4" s="165"/>
+      <c r="E4" s="165"/>
+      <c r="F4" s="166"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="17" t="s">
@@ -7814,25 +7813,25 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>774</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>779</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>780</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>775</v>
@@ -7868,13 +7867,13 @@
         <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>796</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="E12" s="2" t="s">
         <v>797</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>798</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="18"/>
@@ -7885,16 +7884,16 @@
         <v>49</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>794</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>795</v>
-      </c>
       <c r="D13" s="18" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="18"/>
@@ -7905,10 +7904,10 @@
         <v>393</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>831</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>832</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -7921,13 +7920,13 @@
         <v>383</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>831</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>832</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>833</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -7939,19 +7938,19 @@
         <v>384</v>
       </c>
       <c r="B16" s="18" t="s">
+        <v>825</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>826</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>827</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>828</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>829</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>830</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>474</v>
@@ -7978,22 +7977,22 @@
         <v>71</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>800</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>801</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>802</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="18" t="s">
         <v>803</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="H19" s="18" t="s">
         <v>804</v>
-      </c>
-      <c r="H19" s="18" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -8001,16 +8000,16 @@
         <v>43</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>806</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>807</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>808</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>809</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -8067,19 +8066,19 @@
         <v>148</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="C26" s="18" t="s">
         <v>811</v>
       </c>
-      <c r="C26" s="18" t="s">
-        <v>812</v>
-      </c>
       <c r="D26" s="18" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -8093,37 +8092,37 @@
         <v>49</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F27" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>819</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>820</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="I27" s="2" t="s">
         <v>821</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="J27" s="2" t="s">
         <v>822</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="K27" s="2" t="s">
         <v>823</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="L27" s="18" t="s">
         <v>824</v>
-      </c>
-      <c r="L27" s="18" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -8177,19 +8176,19 @@
         <v>138</v>
       </c>
       <c r="B32" s="12" t="s">
+        <v>833</v>
+      </c>
+      <c r="C32" s="12" t="s">
         <v>834</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="D32" s="12" t="s">
         <v>835</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="E32" s="12" t="s">
         <v>836</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="F32" s="12" t="s">
         <v>837</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -8259,18 +8258,18 @@
       <c r="A41" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="161"/>
-      <c r="C41" s="162"/>
-      <c r="D41" s="162"/>
-      <c r="E41" s="162"/>
-      <c r="F41" s="162"/>
-      <c r="G41" s="162"/>
-      <c r="H41" s="162"/>
-      <c r="I41" s="162"/>
-      <c r="J41" s="162"/>
-      <c r="K41" s="162"/>
-      <c r="L41" s="162"/>
-      <c r="M41" s="162"/>
+      <c r="B41" s="159"/>
+      <c r="C41" s="160"/>
+      <c r="D41" s="160"/>
+      <c r="E41" s="160"/>
+      <c r="F41" s="160"/>
+      <c r="G41" s="160"/>
+      <c r="H41" s="160"/>
+      <c r="I41" s="160"/>
+      <c r="J41" s="160"/>
+      <c r="K41" s="160"/>
+      <c r="L41" s="160"/>
+      <c r="M41" s="160"/>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="5" t="s">
@@ -8353,13 +8352,13 @@
         <v>8</v>
       </c>
       <c r="B46" s="22" t="s">
+        <v>838</v>
+      </c>
+      <c r="C46" s="22" t="s">
         <v>839</v>
       </c>
-      <c r="C46" s="22" t="s">
+      <c r="D46" s="22" t="s">
         <v>840</v>
-      </c>
-      <c r="D46" s="22" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -8378,14 +8377,14 @@
       <c r="A49" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B49" s="173"/>
-      <c r="C49" s="174"/>
-      <c r="D49" s="174"/>
-      <c r="E49" s="174"/>
-      <c r="F49" s="174"/>
-      <c r="G49" s="174"/>
-      <c r="H49" s="174"/>
-      <c r="I49" s="174"/>
+      <c r="B49" s="171"/>
+      <c r="C49" s="172"/>
+      <c r="D49" s="172"/>
+      <c r="E49" s="172"/>
+      <c r="F49" s="172"/>
+      <c r="G49" s="172"/>
+      <c r="H49" s="172"/>
+      <c r="I49" s="172"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="5" t="s">
@@ -8433,12 +8432,12 @@
       <c r="A54" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B54" s="159"/>
-      <c r="C54" s="160"/>
-      <c r="D54" s="160"/>
-      <c r="E54" s="160"/>
-      <c r="F54" s="160"/>
-      <c r="G54" s="160"/>
+      <c r="B54" s="157"/>
+      <c r="C54" s="158"/>
+      <c r="D54" s="158"/>
+      <c r="E54" s="158"/>
+      <c r="F54" s="158"/>
+      <c r="G54" s="158"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="51" t="s">
@@ -8467,10 +8466,10 @@
       <c r="A57" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B57" s="161"/>
-      <c r="C57" s="162"/>
-      <c r="D57" s="162"/>
-      <c r="E57" s="172"/>
+      <c r="B57" s="159"/>
+      <c r="C57" s="160"/>
+      <c r="D57" s="160"/>
+      <c r="E57" s="170"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="51" t="s">
@@ -8513,13 +8512,13 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="169" t="s">
+      <c r="A62" s="167" t="s">
         <v>32</v>
       </c>
-      <c r="B62" s="170"/>
-      <c r="C62" s="170"/>
-      <c r="D62" s="170"/>
-      <c r="E62" s="171"/>
+      <c r="B62" s="168"/>
+      <c r="C62" s="168"/>
+      <c r="D62" s="168"/>
+      <c r="E62" s="169"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="2"/>
@@ -8576,13 +8575,13 @@
       <c r="E66" s="2"/>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="169" t="s">
+      <c r="A67" s="167" t="s">
         <v>24</v>
       </c>
-      <c r="B67" s="170"/>
-      <c r="C67" s="170"/>
-      <c r="D67" s="170"/>
-      <c r="E67" s="171"/>
+      <c r="B67" s="168"/>
+      <c r="C67" s="168"/>
+      <c r="D67" s="168"/>
+      <c r="E67" s="169"/>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="2" t="s">
@@ -8845,8 +8844,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8871,37 +8870,37 @@
       <c r="A2" s="41"/>
     </row>
     <row r="3" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A3" s="178" t="str">
+      <c r="A3" s="176" t="str">
         <f>index!A1</f>
         <v>Especificação de Requisitos do SIOP (Sistema Integrado de Operações) - CSSFAA</v>
       </c>
-      <c r="B3" s="178"/>
-      <c r="C3" s="178"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="178"/>
-      <c r="G3" s="178"/>
-      <c r="H3" s="178"/>
-      <c r="I3" s="178"/>
-      <c r="J3" s="178"/>
-      <c r="K3" s="178"/>
-      <c r="L3" s="178"/>
+      <c r="B3" s="176"/>
+      <c r="C3" s="176"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="176"/>
+      <c r="F3" s="176"/>
+      <c r="G3" s="176"/>
+      <c r="H3" s="176"/>
+      <c r="I3" s="176"/>
+      <c r="J3" s="176"/>
+      <c r="K3" s="176"/>
+      <c r="L3" s="176"/>
     </row>
     <row r="4" spans="1:12" ht="23.25">
-      <c r="A4" s="179" t="s">
+      <c r="A4" s="177" t="s">
         <v>469</v>
       </c>
-      <c r="B4" s="179"/>
-      <c r="C4" s="179"/>
-      <c r="D4" s="179"/>
-      <c r="E4" s="179"/>
-      <c r="F4" s="179"/>
-      <c r="G4" s="179"/>
-      <c r="H4" s="179"/>
-      <c r="I4" s="179"/>
-      <c r="J4" s="179"/>
-      <c r="K4" s="179"/>
-      <c r="L4" s="179"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
+      <c r="J4" s="177"/>
+      <c r="K4" s="177"/>
+      <c r="L4" s="177"/>
     </row>
     <row r="5" spans="1:12" ht="43.5" customHeight="1">
       <c r="A5" s="41"/>
@@ -8911,24 +8910,24 @@
       <c r="H5" s="128"/>
     </row>
     <row r="6" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A6" s="183"/>
-      <c r="B6" s="184"/>
-      <c r="C6" s="184"/>
-      <c r="D6" s="185"/>
-      <c r="E6" s="177" t="s">
+      <c r="A6" s="181"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="183"/>
+      <c r="E6" s="175" t="s">
         <v>486</v>
       </c>
-      <c r="F6" s="177"/>
-      <c r="G6" s="177" t="s">
+      <c r="F6" s="175"/>
+      <c r="G6" s="175" t="s">
         <v>489</v>
       </c>
-      <c r="H6" s="177"/>
-      <c r="I6" s="182" t="s">
+      <c r="H6" s="175"/>
+      <c r="I6" s="180" t="s">
         <v>490</v>
       </c>
-      <c r="J6" s="182"/>
-      <c r="K6" s="182"/>
-      <c r="L6" s="153"/>
+      <c r="J6" s="180"/>
+      <c r="K6" s="180"/>
+      <c r="L6" s="268"/>
     </row>
     <row r="7" spans="1:12" ht="31.5">
       <c r="A7" s="26" t="s">
@@ -8965,7 +8964,7 @@
         <v>493</v>
       </c>
       <c r="L7" s="152" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="33.75" customHeight="1">
@@ -9001,73 +9000,73 @@
         <v>495</v>
       </c>
       <c r="L8" s="14" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="46.5" customHeight="1"/>
     <row r="10" spans="1:12" ht="21" customHeight="1">
-      <c r="A10" s="180" t="s">
+      <c r="A10" s="178" t="s">
         <v>560</v>
       </c>
-      <c r="B10" s="181"/>
-      <c r="C10" s="181"/>
-      <c r="D10" s="181"/>
-      <c r="E10" s="181"/>
-      <c r="F10" s="181"/>
-      <c r="G10" s="181"/>
-      <c r="H10" s="181"/>
-      <c r="I10" s="181"/>
-      <c r="J10" s="181"/>
-      <c r="K10" s="181"/>
-      <c r="L10" s="181"/>
+      <c r="B10" s="179"/>
+      <c r="C10" s="179"/>
+      <c r="D10" s="179"/>
+      <c r="E10" s="179"/>
+      <c r="F10" s="179"/>
+      <c r="G10" s="179"/>
+      <c r="H10" s="179"/>
+      <c r="I10" s="179"/>
+      <c r="J10" s="179"/>
+      <c r="K10" s="179"/>
+      <c r="L10" s="179"/>
     </row>
     <row r="11" spans="1:12" ht="94.5" customHeight="1">
-      <c r="A11" s="175" t="s">
+      <c r="A11" s="173" t="s">
         <v>562</v>
       </c>
-      <c r="B11" s="176"/>
-      <c r="C11" s="176"/>
-      <c r="D11" s="176"/>
-      <c r="E11" s="176"/>
-      <c r="F11" s="176"/>
-      <c r="G11" s="176"/>
-      <c r="H11" s="176"/>
-      <c r="I11" s="176"/>
-      <c r="J11" s="176"/>
-      <c r="K11" s="176"/>
-      <c r="L11" s="176"/>
+      <c r="B11" s="174"/>
+      <c r="C11" s="174"/>
+      <c r="D11" s="174"/>
+      <c r="E11" s="174"/>
+      <c r="F11" s="174"/>
+      <c r="G11" s="174"/>
+      <c r="H11" s="174"/>
+      <c r="I11" s="174"/>
+      <c r="J11" s="174"/>
+      <c r="K11" s="174"/>
+      <c r="L11" s="174"/>
     </row>
     <row r="14" spans="1:12" ht="21" customHeight="1">
-      <c r="A14" s="180" t="s">
+      <c r="A14" s="178" t="s">
         <v>561</v>
       </c>
-      <c r="B14" s="181"/>
-      <c r="C14" s="181"/>
-      <c r="D14" s="181"/>
-      <c r="E14" s="181"/>
-      <c r="F14" s="181"/>
-      <c r="G14" s="181"/>
-      <c r="H14" s="181"/>
-      <c r="I14" s="181"/>
-      <c r="J14" s="181"/>
-      <c r="K14" s="181"/>
-      <c r="L14" s="181"/>
+      <c r="B14" s="179"/>
+      <c r="C14" s="179"/>
+      <c r="D14" s="179"/>
+      <c r="E14" s="179"/>
+      <c r="F14" s="179"/>
+      <c r="G14" s="179"/>
+      <c r="H14" s="179"/>
+      <c r="I14" s="179"/>
+      <c r="J14" s="179"/>
+      <c r="K14" s="179"/>
+      <c r="L14" s="179"/>
     </row>
     <row r="15" spans="1:12" ht="249.75" customHeight="1">
-      <c r="A15" s="175" t="s">
+      <c r="A15" s="173" t="s">
         <v>563</v>
       </c>
-      <c r="B15" s="176"/>
-      <c r="C15" s="176"/>
-      <c r="D15" s="176"/>
-      <c r="E15" s="176"/>
-      <c r="F15" s="176"/>
-      <c r="G15" s="176"/>
-      <c r="H15" s="176"/>
-      <c r="I15" s="176"/>
-      <c r="J15" s="176"/>
-      <c r="K15" s="176"/>
-      <c r="L15" s="176"/>
+      <c r="B15" s="174"/>
+      <c r="C15" s="174"/>
+      <c r="D15" s="174"/>
+      <c r="E15" s="174"/>
+      <c r="F15" s="174"/>
+      <c r="G15" s="174"/>
+      <c r="H15" s="174"/>
+      <c r="I15" s="174"/>
+      <c r="J15" s="174"/>
+      <c r="K15" s="174"/>
+      <c r="L15" s="174"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -9105,7 +9104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -9141,15 +9140,15 @@
       <c r="G3" s="46"/>
     </row>
     <row r="4" spans="1:7" ht="23.25">
-      <c r="A4" s="179" t="s">
+      <c r="A4" s="177" t="s">
         <v>496</v>
       </c>
-      <c r="B4" s="179"/>
-      <c r="C4" s="179"/>
-      <c r="D4" s="179"/>
-      <c r="E4" s="179"/>
-      <c r="F4" s="179"/>
-      <c r="G4" s="179"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
     </row>
     <row r="5" spans="1:7" ht="47.25" customHeight="1">
       <c r="A5" s="41"/>
@@ -9194,7 +9193,7 @@
         <v>389</v>
       </c>
       <c r="F7" s="116" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G7" s="116"/>
     </row>
@@ -9209,13 +9208,13 @@
         <v>406</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E8" s="42" t="s">
         <v>389</v>
       </c>
       <c r="F8" s="42" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G8" s="11" t="str">
         <f t="shared" ref="G8:G13" si="0">$A$7</f>
@@ -9233,13 +9232,13 @@
         <v>399</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E9" s="42" t="s">
         <v>389</v>
       </c>
       <c r="F9" s="42" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G9" s="11" t="str">
         <f t="shared" si="0"/>
@@ -9257,13 +9256,13 @@
         <v>401</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E10" s="42" t="s">
         <v>389</v>
       </c>
       <c r="F10" s="42" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G10" s="11" t="str">
         <f t="shared" si="0"/>
@@ -9281,13 +9280,13 @@
         <v>698</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E11" s="42" t="s">
         <v>389</v>
       </c>
       <c r="F11" s="42" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="G11" s="11" t="str">
         <f t="shared" si="0"/>
@@ -9305,13 +9304,13 @@
         <v>402</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E12" s="42" t="s">
         <v>389</v>
       </c>
       <c r="F12" s="42" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G12" s="11" t="str">
         <f t="shared" si="0"/>
@@ -9329,13 +9328,13 @@
         <v>405</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E13" s="42" t="s">
         <v>389</v>
       </c>
       <c r="F13" s="42" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G13" s="11" t="str">
         <f t="shared" si="0"/>
@@ -9359,7 +9358,7 @@
         <v>389</v>
       </c>
       <c r="F14" s="118" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G14" s="118"/>
     </row>
@@ -9374,13 +9373,13 @@
         <v>406</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E15" s="42" t="s">
         <v>389</v>
       </c>
       <c r="F15" s="42" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G15" s="11" t="str">
         <f>$A$14</f>
@@ -9398,13 +9397,13 @@
         <v>399</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E16" s="42" t="s">
         <v>389</v>
       </c>
       <c r="F16" s="42" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G16" s="11" t="str">
         <f t="shared" ref="G16:G17" si="1">$A$14</f>
@@ -9422,13 +9421,13 @@
         <v>405</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E17" s="42" t="s">
         <v>389</v>
       </c>
       <c r="F17" s="42" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G17" s="11" t="str">
         <f t="shared" si="1"/>
@@ -9452,7 +9451,7 @@
         <v>394</v>
       </c>
       <c r="F18" s="118" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G18" s="118"/>
     </row>
@@ -9467,13 +9466,13 @@
         <v>406</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E19" s="42" t="s">
         <v>389</v>
       </c>
       <c r="F19" s="42" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G19" s="11" t="str">
         <f>$A$18</f>
@@ -9491,13 +9490,13 @@
         <v>399</v>
       </c>
       <c r="D20" s="42" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E20" s="42" t="s">
         <v>389</v>
       </c>
       <c r="F20" s="42" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G20" s="11" t="str">
         <f>$A$18</f>
@@ -9505,15 +9504,15 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="43.5" customHeight="1">
-      <c r="A21" s="186" t="s">
+      <c r="A21" s="184" t="s">
         <v>415</v>
       </c>
-      <c r="B21" s="187"/>
-      <c r="C21" s="187"/>
-      <c r="D21" s="187"/>
-      <c r="E21" s="187"/>
-      <c r="F21" s="187"/>
-      <c r="G21" s="188"/>
+      <c r="B21" s="185"/>
+      <c r="C21" s="185"/>
+      <c r="D21" s="185"/>
+      <c r="E21" s="185"/>
+      <c r="F21" s="185"/>
+      <c r="G21" s="186"/>
     </row>
     <row r="22" spans="1:7" ht="45">
       <c r="A22" s="10" t="s">
@@ -9532,7 +9531,7 @@
         <v>389</v>
       </c>
       <c r="F22" s="42" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="G22" s="42"/>
     </row>
@@ -9553,7 +9552,7 @@
         <v>394</v>
       </c>
       <c r="F23" s="42" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="G23" s="42"/>
     </row>
@@ -9574,7 +9573,7 @@
         <v>389</v>
       </c>
       <c r="F24" s="42" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="G24" s="25"/>
     </row>
@@ -9637,29 +9636,29 @@
       <c r="E3" s="110"/>
     </row>
     <row r="4" spans="1:5" ht="23.25">
-      <c r="A4" s="179" t="s">
-        <v>787</v>
-      </c>
-      <c r="B4" s="179"/>
-      <c r="C4" s="179"/>
-      <c r="D4" s="179"/>
-      <c r="E4" s="179"/>
+      <c r="A4" s="177" t="s">
+        <v>786</v>
+      </c>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
     </row>
     <row r="5" spans="1:5" ht="34.5" customHeight="1">
       <c r="A5" s="41"/>
     </row>
     <row r="6" spans="1:5" ht="31.5" customHeight="1">
-      <c r="A6" s="191" t="s">
+      <c r="A6" s="189" t="s">
         <v>385</v>
       </c>
-      <c r="B6" s="192"/>
-      <c r="C6" s="189" t="s">
+      <c r="B6" s="190"/>
+      <c r="C6" s="187" t="s">
         <v>421</v>
       </c>
-      <c r="D6" s="189" t="s">
+      <c r="D6" s="187" t="s">
         <v>422</v>
       </c>
-      <c r="E6" s="189" t="s">
+      <c r="E6" s="187" t="s">
         <v>3</v>
       </c>
     </row>
@@ -9670,9 +9669,9 @@
       <c r="B7" s="79" t="s">
         <v>420</v>
       </c>
-      <c r="C7" s="190"/>
-      <c r="D7" s="190"/>
-      <c r="E7" s="190"/>
+      <c r="C7" s="188"/>
+      <c r="D7" s="188"/>
+      <c r="E7" s="188"/>
     </row>
     <row r="8" spans="1:5" s="49" customFormat="1" ht="38.25" customHeight="1">
       <c r="A8" s="120" t="str">
@@ -9684,10 +9683,10 @@
         <v>S.SIOP-Del</v>
       </c>
       <c r="C8" s="123" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D8" s="123" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E8" s="122" t="s">
         <v>409</v>
@@ -9703,10 +9702,10 @@
         <v>S.SIOP-Mala</v>
       </c>
       <c r="C9" s="123" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D9" s="123" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E9" s="122" t="s">
         <v>410</v>
@@ -9722,10 +9721,10 @@
         <v>S.SAP-FI</v>
       </c>
       <c r="C10" s="123" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D10" s="123" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E10" s="121" t="s">
         <v>411</v>
@@ -9741,10 +9740,10 @@
         <v>S.VisionBox</v>
       </c>
       <c r="C11" s="123" t="s">
+        <v>829</v>
+      </c>
+      <c r="D11" s="123" t="s">
         <v>830</v>
-      </c>
-      <c r="D11" s="123" t="s">
-        <v>831</v>
       </c>
       <c r="E11" s="121" t="s">
         <v>412</v>
@@ -9760,10 +9759,10 @@
         <v>S.SI-Legados</v>
       </c>
       <c r="C12" s="123" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D12" s="123" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E12" s="121" t="s">
         <v>418</v>
@@ -9779,10 +9778,10 @@
         <v>S.VisionBox</v>
       </c>
       <c r="C13" s="123" t="s">
+        <v>829</v>
+      </c>
+      <c r="D13" s="123" t="s">
         <v>830</v>
-      </c>
-      <c r="D13" s="123" t="s">
-        <v>831</v>
       </c>
       <c r="E13" s="121" t="s">
         <v>413</v>
@@ -9798,10 +9797,10 @@
         <v>S.VisionBox</v>
       </c>
       <c r="C14" s="123" t="s">
+        <v>829</v>
+      </c>
+      <c r="D14" s="123" t="s">
         <v>830</v>
-      </c>
-      <c r="D14" s="123" t="s">
-        <v>831</v>
       </c>
       <c r="E14" s="121" t="s">
         <v>414</v>
@@ -9873,29 +9872,29 @@
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="23.25">
-      <c r="A2" s="178" t="str">
+      <c r="A2" s="176" t="str">
         <f>index!A1</f>
         <v>Especificação de Requisitos do SIOP (Sistema Integrado de Operações) - CSSFAA</v>
       </c>
-      <c r="B2" s="178"/>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
-      <c r="G2" s="178"/>
-      <c r="H2" s="178"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
     </row>
     <row r="3" spans="1:8" ht="23.25">
-      <c r="A3" s="179" t="s">
+      <c r="A3" s="177" t="s">
         <v>497</v>
       </c>
-      <c r="B3" s="179"/>
-      <c r="C3" s="179"/>
-      <c r="D3" s="179"/>
-      <c r="E3" s="179"/>
-      <c r="F3" s="179"/>
-      <c r="G3" s="179"/>
-      <c r="H3" s="179"/>
+      <c r="B3" s="177"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="177"/>
+      <c r="F3" s="177"/>
+      <c r="G3" s="177"/>
+      <c r="H3" s="177"/>
     </row>
     <row r="4" spans="1:8" ht="45.75" customHeight="1"/>
     <row r="5" spans="1:8">
@@ -9925,16 +9924,16 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A6" s="193" t="s">
+      <c r="A6" s="191" t="s">
         <v>366</v>
       </c>
-      <c r="B6" s="194"/>
-      <c r="C6" s="194"/>
-      <c r="D6" s="194"/>
-      <c r="E6" s="194"/>
-      <c r="F6" s="194"/>
-      <c r="G6" s="194"/>
-      <c r="H6" s="194"/>
+      <c r="B6" s="192"/>
+      <c r="C6" s="192"/>
+      <c r="D6" s="192"/>
+      <c r="E6" s="192"/>
+      <c r="F6" s="192"/>
+      <c r="G6" s="192"/>
+      <c r="H6" s="192"/>
     </row>
     <row r="7" spans="1:8" ht="86.25" customHeight="1">
       <c r="A7" s="15" t="s">
@@ -9947,11 +9946,11 @@
         <v>336</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="15" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
@@ -9967,11 +9966,11 @@
         <v>335</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="15" t="str">
@@ -9990,11 +9989,11 @@
         <v>338</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="15" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G9" s="15" t="s">
         <v>443</v>
@@ -10015,11 +10014,11 @@
         <v>343</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="15" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G10" s="15" t="s">
         <v>342</v>
@@ -10040,11 +10039,11 @@
         <v>344</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="15" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G11" s="15" t="s">
         <v>263</v>
@@ -10065,11 +10064,11 @@
         <v>266</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="15" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="15" t="str">
@@ -10078,16 +10077,16 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A13" s="195" t="s">
+      <c r="A13" s="193" t="s">
         <v>372</v>
       </c>
-      <c r="B13" s="196"/>
-      <c r="C13" s="196"/>
-      <c r="D13" s="196"/>
-      <c r="E13" s="196"/>
-      <c r="F13" s="196"/>
-      <c r="G13" s="196"/>
-      <c r="H13" s="196"/>
+      <c r="B13" s="194"/>
+      <c r="C13" s="194"/>
+      <c r="D13" s="194"/>
+      <c r="E13" s="194"/>
+      <c r="F13" s="194"/>
+      <c r="G13" s="194"/>
+      <c r="H13" s="194"/>
     </row>
     <row r="14" spans="1:8" ht="60">
       <c r="A14" s="15" t="s">
@@ -10100,13 +10099,13 @@
         <v>287</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>351</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
@@ -10122,11 +10121,11 @@
         <v>330</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="15" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
@@ -10142,11 +10141,11 @@
         <v>333</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E16" s="15"/>
       <c r="F16" s="15" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
@@ -10162,11 +10161,11 @@
         <v>284</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E17" s="15"/>
       <c r="F17" s="15" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
@@ -10182,11 +10181,11 @@
         <v>447</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E18" s="15"/>
       <c r="F18" s="15" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G18" s="15"/>
       <c r="H18" s="15" t="str">
@@ -10205,11 +10204,11 @@
         <v>449</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E19" s="15"/>
       <c r="F19" s="15" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G19" s="15"/>
       <c r="H19" s="15" t="str">
@@ -10228,11 +10227,11 @@
         <v>345</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="15" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G20" s="15" t="s">
         <v>269</v>
@@ -10253,11 +10252,11 @@
         <v>270</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E21" s="15"/>
       <c r="F21" s="15" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="15" t="str">
@@ -10276,11 +10275,11 @@
         <v>272</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E22" s="15"/>
       <c r="F22" s="15" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G22" s="15" t="s">
         <v>455</v>
@@ -10301,11 +10300,11 @@
         <v>274</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E23" s="15"/>
       <c r="F23" s="15" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G23" s="15" t="s">
         <v>457</v>
@@ -10326,11 +10325,11 @@
         <v>276</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E24" s="15"/>
       <c r="F24" s="15" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G24" s="15" t="s">
         <v>460</v>
@@ -10351,11 +10350,11 @@
         <v>278</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E25" s="15"/>
       <c r="F25" s="15" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G25" s="15"/>
       <c r="H25" s="15" t="str">
@@ -10374,11 +10373,11 @@
         <v>279</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E26" s="15"/>
       <c r="F26" s="15" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G26" s="15" t="s">
         <v>465</v>
@@ -10399,11 +10398,11 @@
         <v>282</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G27" s="15" t="s">
         <v>463</v>
@@ -10414,16 +10413,16 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="30.75" customHeight="1">
-      <c r="A28" s="195" t="s">
+      <c r="A28" s="193" t="s">
         <v>371</v>
       </c>
-      <c r="B28" s="196"/>
-      <c r="C28" s="196"/>
-      <c r="D28" s="196"/>
-      <c r="E28" s="196"/>
-      <c r="F28" s="196"/>
-      <c r="G28" s="196"/>
-      <c r="H28" s="196"/>
+      <c r="B28" s="194"/>
+      <c r="C28" s="194"/>
+      <c r="D28" s="194"/>
+      <c r="E28" s="194"/>
+      <c r="F28" s="194"/>
+      <c r="G28" s="194"/>
+      <c r="H28" s="194"/>
     </row>
     <row r="29" spans="1:8" ht="45">
       <c r="A29" s="15" t="s">
@@ -10436,11 +10435,11 @@
         <v>290</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E29" s="15"/>
       <c r="F29" s="15" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
@@ -10456,11 +10455,11 @@
         <v>293</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="15" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
@@ -10476,11 +10475,11 @@
         <v>296</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E31" s="15"/>
       <c r="F31" s="15" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
@@ -10496,11 +10495,11 @@
         <v>299</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="15" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
@@ -10516,11 +10515,11 @@
         <v>302</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E33" s="15"/>
       <c r="F33" s="15" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
@@ -10538,7 +10537,7 @@
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
       <c r="F34" s="15" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
@@ -10554,11 +10553,11 @@
         <v>373</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E35" s="15"/>
       <c r="F35" s="15" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G35" s="15"/>
       <c r="H35" s="15" t="str">
@@ -10577,11 +10576,11 @@
         <v>374</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E36" s="15"/>
       <c r="F36" s="15" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G36" s="15"/>
       <c r="H36" s="15" t="str">
@@ -10600,11 +10599,11 @@
         <v>375</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E37" s="15"/>
       <c r="F37" s="15" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G37" s="15"/>
       <c r="H37" s="15" t="str">
@@ -10623,11 +10622,11 @@
         <v>311</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="15" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G38" s="15"/>
       <c r="H38" s="15" t="str">
@@ -10646,11 +10645,11 @@
         <v>376</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="15" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G39" s="15"/>
       <c r="H39" s="15" t="str">
@@ -10669,11 +10668,11 @@
         <v>316</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E40" s="15"/>
       <c r="F40" s="15" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G40" s="15"/>
       <c r="H40" s="15" t="str">
@@ -10692,11 +10691,11 @@
         <v>319</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E41" s="15"/>
       <c r="F41" s="15" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G41" s="15"/>
       <c r="H41" s="15" t="str">
@@ -10715,11 +10714,11 @@
         <v>322</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E42" s="15"/>
       <c r="F42" s="15" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G42" s="15"/>
       <c r="H42" s="15" t="str">
@@ -10738,11 +10737,11 @@
         <v>377</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E43" s="15"/>
       <c r="F43" s="15" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G43" s="15"/>
       <c r="H43" s="15"/>
@@ -10758,11 +10757,11 @@
         <v>378</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E44" s="15"/>
       <c r="F44" s="15" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G44" s="15"/>
       <c r="H44" s="15"/>
@@ -10778,11 +10777,11 @@
         <v>450</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E45" s="15"/>
       <c r="F45" s="15" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G45" s="15"/>
       <c r="H45" s="15"/>
@@ -10852,26 +10851,26 @@
     </row>
     <row r="2" spans="1:7" ht="10.5" customHeight="1"/>
     <row r="3" spans="1:7" ht="29.25" customHeight="1">
-      <c r="A3" s="178" t="str">
+      <c r="A3" s="176" t="str">
         <f>index!A1</f>
         <v>Especificação de Requisitos do SIOP (Sistema Integrado de Operações) - CSSFAA</v>
       </c>
-      <c r="B3" s="178"/>
-      <c r="C3" s="178"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="178"/>
+      <c r="B3" s="176"/>
+      <c r="C3" s="176"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="176"/>
+      <c r="F3" s="176"/>
       <c r="G3" s="111"/>
     </row>
     <row r="4" spans="1:7" ht="29.25" customHeight="1">
-      <c r="A4" s="179" t="s">
+      <c r="A4" s="177" t="s">
         <v>498</v>
       </c>
-      <c r="B4" s="179"/>
-      <c r="C4" s="179"/>
-      <c r="D4" s="179"/>
-      <c r="E4" s="179"/>
-      <c r="F4" s="179"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:7" ht="39" customHeight="1"/>
@@ -10899,14 +10898,14 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="29.25" customHeight="1">
-      <c r="A7" s="195" t="s">
+      <c r="A7" s="193" t="s">
         <v>366</v>
       </c>
-      <c r="B7" s="196"/>
-      <c r="C7" s="196"/>
-      <c r="D7" s="196"/>
-      <c r="E7" s="196"/>
-      <c r="F7" s="197"/>
+      <c r="B7" s="194"/>
+      <c r="C7" s="194"/>
+      <c r="D7" s="194"/>
+      <c r="E7" s="194"/>
+      <c r="F7" s="195"/>
       <c r="G7" s="124"/>
     </row>
     <row r="8" spans="1:7" ht="30.75" customHeight="1">
@@ -10920,10 +10919,10 @@
         <v>353</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
@@ -10939,10 +10938,10 @@
         <v>353</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
@@ -10958,10 +10957,10 @@
         <v>353</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F10" s="15" t="str">
         <f>A9</f>
@@ -10980,10 +10979,10 @@
         <v>353</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F11" s="15" t="str">
         <f>A10</f>
@@ -11002,10 +11001,10 @@
         <v>353</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F12" s="15" t="str">
         <f>A10</f>
@@ -11024,10 +11023,10 @@
         <v>353</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F13" s="15" t="str">
         <f>A9</f>
@@ -11036,14 +11035,14 @@
       <c r="G13" s="15"/>
     </row>
     <row r="14" spans="1:7" ht="29.25" customHeight="1">
-      <c r="A14" s="195" t="s">
+      <c r="A14" s="193" t="s">
         <v>364</v>
       </c>
-      <c r="B14" s="196"/>
-      <c r="C14" s="196"/>
-      <c r="D14" s="196"/>
-      <c r="E14" s="196"/>
-      <c r="F14" s="197"/>
+      <c r="B14" s="194"/>
+      <c r="C14" s="194"/>
+      <c r="D14" s="194"/>
+      <c r="E14" s="194"/>
+      <c r="F14" s="195"/>
       <c r="G14" s="124"/>
     </row>
     <row r="15" spans="1:7" ht="22.5" customHeight="1">
@@ -11057,10 +11056,10 @@
         <v>353</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
@@ -11076,10 +11075,10 @@
         <v>353</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F16" s="25" t="str">
         <f>A15</f>
@@ -11098,10 +11097,10 @@
         <v>357</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F17" s="25" t="str">
         <f>A16</f>
@@ -11120,10 +11119,10 @@
         <v>359</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F18" s="25" t="str">
         <f>A16</f>
@@ -11142,10 +11141,10 @@
         <v>361</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F19" s="25" t="str">
         <f>A16</f>
@@ -11164,10 +11163,10 @@
         <v>363</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F20" s="25" t="str">
         <f>A16</f>
@@ -11186,10 +11185,10 @@
         <v>428</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F21" s="25" t="str">
         <f>A16</f>
@@ -11208,10 +11207,10 @@
         <v>353</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F22" s="25" t="str">
         <f>A15</f>
@@ -11220,14 +11219,14 @@
       <c r="G22" s="25"/>
     </row>
     <row r="23" spans="1:7" ht="29.25" customHeight="1">
-      <c r="A23" s="195" t="s">
+      <c r="A23" s="193" t="s">
         <v>365</v>
       </c>
-      <c r="B23" s="196"/>
-      <c r="C23" s="196"/>
-      <c r="D23" s="196"/>
-      <c r="E23" s="196"/>
-      <c r="F23" s="197"/>
+      <c r="B23" s="194"/>
+      <c r="C23" s="194"/>
+      <c r="D23" s="194"/>
+      <c r="E23" s="194"/>
+      <c r="F23" s="195"/>
       <c r="G23" s="124"/>
     </row>
     <row r="24" spans="1:7" ht="31.5" customHeight="1">
@@ -11241,10 +11240,10 @@
         <v>436</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
@@ -11260,10 +11259,10 @@
         <v>437</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="15" t="str">
@@ -11282,10 +11281,10 @@
         <v>353</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F26" s="15"/>
       <c r="G26" s="15" t="str">
@@ -11304,10 +11303,10 @@
         <v>434</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F27" s="15"/>
       <c r="G27" s="15" t="str">
@@ -11326,10 +11325,10 @@
         <v>433</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F28" s="15"/>
       <c r="G28" s="15" t="str">
@@ -11348,10 +11347,10 @@
         <v>435</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F29" s="15"/>
       <c r="G29" s="15" t="str">
@@ -11370,10 +11369,10 @@
         <v>440</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="15" t="str">
@@ -11413,7 +11412,7 @@
   <dimension ref="A1:N99"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:B8"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11437,60 +11436,60 @@
     </row>
     <row r="2" spans="1:14" ht="11.25" customHeight="1"/>
     <row r="3" spans="1:14" ht="29.25" customHeight="1">
-      <c r="A3" s="178" t="str">
+      <c r="A3" s="176" t="str">
         <f>index!A1</f>
         <v>Especificação de Requisitos do SIOP (Sistema Integrado de Operações) - CSSFAA</v>
       </c>
-      <c r="B3" s="178"/>
-      <c r="C3" s="178"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="178"/>
-      <c r="G3" s="178"/>
-      <c r="H3" s="178"/>
+      <c r="B3" s="176"/>
+      <c r="C3" s="176"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="176"/>
+      <c r="F3" s="176"/>
+      <c r="G3" s="176"/>
+      <c r="H3" s="176"/>
     </row>
     <row r="4" spans="1:14" ht="23.25">
-      <c r="A4" s="179" t="s">
+      <c r="A4" s="177" t="s">
         <v>499</v>
       </c>
-      <c r="B4" s="179"/>
-      <c r="C4" s="179"/>
-      <c r="D4" s="179"/>
-      <c r="E4" s="179"/>
-      <c r="F4" s="179"/>
-      <c r="G4" s="179"/>
-      <c r="H4" s="179"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
     </row>
     <row r="5" spans="1:14" ht="18.75" customHeight="1"/>
     <row r="6" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A6" s="200" t="s">
+      <c r="A6" s="199" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="201"/>
+      <c r="B6" s="200"/>
     </row>
     <row r="7" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A7" s="204" t="s">
+      <c r="A7" s="197" t="s">
         <v>605</v>
       </c>
-      <c r="B7" s="204"/>
-      <c r="C7" s="203"/>
-      <c r="D7" s="203"/>
+      <c r="B7" s="197"/>
+      <c r="C7" s="196"/>
+      <c r="D7" s="196"/>
       <c r="E7" s="76"/>
     </row>
     <row r="8" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A8" s="205" t="s">
+      <c r="A8" s="198" t="s">
         <v>606</v>
       </c>
-      <c r="B8" s="205"/>
-      <c r="C8" s="203"/>
-      <c r="D8" s="203"/>
+      <c r="B8" s="198"/>
+      <c r="C8" s="196"/>
+      <c r="D8" s="196"/>
       <c r="E8" s="76"/>
     </row>
     <row r="9" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A9" s="199" t="s">
+      <c r="A9" s="202" t="s">
         <v>607</v>
       </c>
-      <c r="B9" s="199"/>
+      <c r="B9" s="202"/>
       <c r="C9" s="113"/>
       <c r="D9" s="113"/>
       <c r="E9" s="113"/>
@@ -11499,10 +11498,10 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A11" s="200" t="s">
+      <c r="A11" s="199" t="s">
         <v>509</v>
       </c>
-      <c r="B11" s="201"/>
+      <c r="B11" s="200"/>
     </row>
     <row r="12" spans="1:14" ht="33.75" customHeight="1">
       <c r="A12" s="79" t="s">
@@ -11526,20 +11525,20 @@
       <c r="G12" s="137" t="s">
         <v>565</v>
       </c>
-      <c r="H12" s="158" t="s">
+      <c r="H12" s="269" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="33.75" customHeight="1">
-      <c r="A13" s="198" t="s">
+      <c r="A13" s="201" t="s">
         <v>613</v>
       </c>
-      <c r="B13" s="198"/>
-      <c r="C13" s="198"/>
-      <c r="D13" s="198"/>
-      <c r="E13" s="198"/>
-      <c r="F13" s="198"/>
-      <c r="G13" s="198"/>
+      <c r="B13" s="201"/>
+      <c r="C13" s="201"/>
+      <c r="D13" s="201"/>
+      <c r="E13" s="201"/>
+      <c r="F13" s="201"/>
+      <c r="G13" s="201"/>
       <c r="H13" s="152"/>
     </row>
     <row r="14" spans="1:14" ht="50.25" customHeight="1">
@@ -11675,8 +11674,8 @@
         <v>G.CC.1</v>
       </c>
       <c r="G18" s="18"/>
-      <c r="H18" s="155" t="s">
-        <v>779</v>
+      <c r="H18" s="154" t="s">
+        <v>778</v>
       </c>
       <c r="I18" s="23"/>
       <c r="J18" s="23"/>
@@ -11822,8 +11821,8 @@
         <v>G.CC</v>
       </c>
       <c r="G23" s="143"/>
-      <c r="H23" s="156" t="s">
-        <v>780</v>
+      <c r="H23" s="155" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="45" customHeight="1">
@@ -11847,8 +11846,8 @@
         <v>G.CC.3</v>
       </c>
       <c r="G24" s="18"/>
-      <c r="H24" s="156" t="s">
-        <v>780</v>
+      <c r="H24" s="155" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="44.25" customHeight="1">
@@ -11872,8 +11871,8 @@
         <v>G.CC.3</v>
       </c>
       <c r="G25" s="18"/>
-      <c r="H25" s="156" t="s">
-        <v>780</v>
+      <c r="H25" s="155" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="44.25" customHeight="1">
@@ -11897,8 +11896,8 @@
         <v>G.CC.3</v>
       </c>
       <c r="G26" s="18"/>
-      <c r="H26" s="156" t="s">
-        <v>780</v>
+      <c r="H26" s="155" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="44.25" customHeight="1">
@@ -11922,8 +11921,8 @@
         <v>G.CC.3.1</v>
       </c>
       <c r="G27" s="18"/>
-      <c r="H27" s="156" t="s">
-        <v>780</v>
+      <c r="H27" s="155" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="44.25" customHeight="1">
@@ -11947,20 +11946,20 @@
         <v>G.CC.3.1</v>
       </c>
       <c r="G28" s="18"/>
-      <c r="H28" s="156" t="s">
-        <v>780</v>
+      <c r="H28" s="155" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="33.75" customHeight="1">
-      <c r="A29" s="198" t="s">
+      <c r="A29" s="201" t="s">
         <v>705</v>
       </c>
-      <c r="B29" s="198"/>
-      <c r="C29" s="198"/>
-      <c r="D29" s="198"/>
-      <c r="E29" s="198"/>
-      <c r="F29" s="198"/>
-      <c r="G29" s="198"/>
+      <c r="B29" s="201"/>
+      <c r="C29" s="201"/>
+      <c r="D29" s="201"/>
+      <c r="E29" s="201"/>
+      <c r="F29" s="201"/>
+      <c r="G29" s="201"/>
       <c r="H29" s="14"/>
     </row>
     <row r="30" spans="1:14" ht="50.25" customHeight="1">
@@ -12004,8 +12003,8 @@
         <v>G.SA</v>
       </c>
       <c r="G31" s="18"/>
-      <c r="H31" s="155" t="s">
-        <v>779</v>
+      <c r="H31" s="154" t="s">
+        <v>778</v>
       </c>
       <c r="I31" s="23"/>
       <c r="J31" s="23"/>
@@ -12035,8 +12034,8 @@
         <v>G.SA</v>
       </c>
       <c r="G32" s="18"/>
-      <c r="H32" s="155" t="s">
-        <v>779</v>
+      <c r="H32" s="154" t="s">
+        <v>778</v>
       </c>
       <c r="I32" s="23"/>
       <c r="J32" s="23"/>
@@ -12095,8 +12094,8 @@
         <v>G.SA</v>
       </c>
       <c r="G34" s="18"/>
-      <c r="H34" s="154" t="s">
-        <v>778</v>
+      <c r="H34" s="153" t="s">
+        <v>777</v>
       </c>
       <c r="I34" s="23"/>
       <c r="J34" s="23"/>
@@ -12126,8 +12125,8 @@
         <v>G.SA</v>
       </c>
       <c r="G35" s="18"/>
-      <c r="H35" s="155" t="s">
-        <v>779</v>
+      <c r="H35" s="154" t="s">
+        <v>778</v>
       </c>
       <c r="I35" s="23"/>
       <c r="J35" s="23"/>
@@ -12186,8 +12185,8 @@
         <v>G.SA.4</v>
       </c>
       <c r="G37" s="18"/>
-      <c r="H37" s="154" t="s">
-        <v>778</v>
+      <c r="H37" s="153" t="s">
+        <v>777</v>
       </c>
       <c r="I37" s="23"/>
       <c r="J37" s="23"/>
@@ -12217,8 +12216,8 @@
         <v>G.SA.4</v>
       </c>
       <c r="G38" s="18"/>
-      <c r="H38" s="154" t="s">
-        <v>778</v>
+      <c r="H38" s="153" t="s">
+        <v>777</v>
       </c>
       <c r="I38" s="23"/>
       <c r="J38" s="23"/>
@@ -12269,15 +12268,15 @@
       <c r="H40" s="14"/>
     </row>
     <row r="41" spans="1:14" ht="33.75" customHeight="1">
-      <c r="A41" s="198" t="s">
+      <c r="A41" s="201" t="s">
         <v>695</v>
       </c>
-      <c r="B41" s="198"/>
-      <c r="C41" s="198"/>
-      <c r="D41" s="198"/>
-      <c r="E41" s="198"/>
-      <c r="F41" s="198"/>
-      <c r="G41" s="198"/>
+      <c r="B41" s="201"/>
+      <c r="C41" s="201"/>
+      <c r="D41" s="201"/>
+      <c r="E41" s="201"/>
+      <c r="F41" s="201"/>
+      <c r="G41" s="201"/>
       <c r="H41" s="14"/>
     </row>
     <row r="42" spans="1:14" ht="50.25" customHeight="1">
@@ -12321,8 +12320,8 @@
         <v>G.BE</v>
       </c>
       <c r="G43" s="143"/>
-      <c r="H43" s="155" t="s">
-        <v>779</v>
+      <c r="H43" s="154" t="s">
+        <v>778</v>
       </c>
       <c r="I43" s="23"/>
       <c r="J43" s="23"/>
@@ -12352,8 +12351,8 @@
         <v>G.BE.1</v>
       </c>
       <c r="G44" s="18"/>
-      <c r="H44" s="155" t="s">
-        <v>779</v>
+      <c r="H44" s="154" t="s">
+        <v>778</v>
       </c>
       <c r="I44" s="23"/>
       <c r="J44" s="23"/>
@@ -12383,8 +12382,8 @@
         <v>G.BE.1</v>
       </c>
       <c r="G45" s="18"/>
-      <c r="H45" s="155" t="s">
-        <v>779</v>
+      <c r="H45" s="154" t="s">
+        <v>778</v>
       </c>
       <c r="I45" s="23"/>
       <c r="J45" s="23"/>
@@ -12414,8 +12413,8 @@
         <v>G.BE.1</v>
       </c>
       <c r="G46" s="18"/>
-      <c r="H46" s="155" t="s">
-        <v>779</v>
+      <c r="H46" s="154" t="s">
+        <v>778</v>
       </c>
       <c r="I46" s="23"/>
       <c r="J46" s="23"/>
@@ -12445,8 +12444,8 @@
         <v>G.BE.1</v>
       </c>
       <c r="G47" s="18"/>
-      <c r="H47" s="155" t="s">
-        <v>779</v>
+      <c r="H47" s="154" t="s">
+        <v>778</v>
       </c>
       <c r="I47" s="23"/>
       <c r="J47" s="23"/>
@@ -12563,8 +12562,8 @@
         <v>G.BE</v>
       </c>
       <c r="G51" s="143"/>
-      <c r="H51" s="154" t="s">
-        <v>778</v>
+      <c r="H51" s="153" t="s">
+        <v>777</v>
       </c>
       <c r="I51" s="23"/>
       <c r="J51" s="23"/>
@@ -12594,8 +12593,8 @@
         <v>G.BE.2</v>
       </c>
       <c r="G52" s="18"/>
-      <c r="H52" s="154" t="s">
-        <v>778</v>
+      <c r="H52" s="153" t="s">
+        <v>777</v>
       </c>
       <c r="I52" s="23"/>
       <c r="J52" s="23"/>
@@ -12625,8 +12624,8 @@
         <v>G.BE.2</v>
       </c>
       <c r="G53" s="18"/>
-      <c r="H53" s="154" t="s">
-        <v>778</v>
+      <c r="H53" s="153" t="s">
+        <v>777</v>
       </c>
       <c r="I53" s="23"/>
       <c r="J53" s="23"/>
@@ -12656,8 +12655,8 @@
         <v>G.BE.2</v>
       </c>
       <c r="G54" s="18"/>
-      <c r="H54" s="154" t="s">
-        <v>778</v>
+      <c r="H54" s="153" t="s">
+        <v>777</v>
       </c>
       <c r="I54" s="23"/>
       <c r="J54" s="23"/>
@@ -12687,8 +12686,8 @@
         <v>G.BE.2</v>
       </c>
       <c r="G55" s="149"/>
-      <c r="H55" s="154" t="s">
-        <v>778</v>
+      <c r="H55" s="153" t="s">
+        <v>777</v>
       </c>
       <c r="I55" s="23"/>
       <c r="J55" s="23"/>
@@ -12757,7 +12756,7 @@
     </row>
     <row r="58" spans="1:14" ht="61.5" customHeight="1">
       <c r="A58" s="138" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B58" s="138" t="s">
         <v>719</v>
@@ -12786,7 +12785,7 @@
     </row>
     <row r="59" spans="1:14" ht="105.75" customHeight="1">
       <c r="A59" s="138" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B59" s="138" t="s">
         <v>722</v>
@@ -12863,8 +12862,8 @@
         <v>G.BE.4</v>
       </c>
       <c r="G61" s="149"/>
-      <c r="H61" s="154" t="s">
-        <v>778</v>
+      <c r="H61" s="153" t="s">
+        <v>777</v>
       </c>
       <c r="I61" s="23"/>
       <c r="J61" s="23"/>
@@ -12903,15 +12902,15 @@
       <c r="N62" s="23"/>
     </row>
     <row r="63" spans="1:14" ht="50.25" customHeight="1">
-      <c r="A63" s="198" t="s">
+      <c r="A63" s="201" t="s">
         <v>400</v>
       </c>
-      <c r="B63" s="198"/>
-      <c r="C63" s="198"/>
-      <c r="D63" s="198"/>
-      <c r="E63" s="198"/>
-      <c r="F63" s="198"/>
-      <c r="G63" s="198"/>
+      <c r="B63" s="201"/>
+      <c r="C63" s="201"/>
+      <c r="D63" s="201"/>
+      <c r="E63" s="201"/>
+      <c r="F63" s="201"/>
+      <c r="G63" s="201"/>
       <c r="H63" s="14"/>
     </row>
     <row r="64" spans="1:14" ht="50.25" customHeight="1">
@@ -13206,15 +13205,15 @@
       <c r="N75" s="23"/>
     </row>
     <row r="76" spans="1:14" ht="33.75" customHeight="1">
-      <c r="A76" s="202" t="s">
+      <c r="A76" s="203" t="s">
         <v>404</v>
       </c>
-      <c r="B76" s="202"/>
-      <c r="C76" s="202"/>
-      <c r="D76" s="202"/>
-      <c r="E76" s="202"/>
-      <c r="F76" s="202"/>
-      <c r="G76" s="202"/>
+      <c r="B76" s="203"/>
+      <c r="C76" s="203"/>
+      <c r="D76" s="203"/>
+      <c r="E76" s="203"/>
+      <c r="F76" s="203"/>
+      <c r="G76" s="203"/>
       <c r="H76" s="14"/>
     </row>
     <row r="77" spans="1:14" ht="50.25" customHeight="1">
@@ -13235,8 +13234,8 @@
       </c>
       <c r="F77" s="145"/>
       <c r="G77" s="145"/>
-      <c r="H77" s="155" t="s">
-        <v>779</v>
+      <c r="H77" s="154" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="50.25" customHeight="1">
@@ -13260,8 +13259,8 @@
         <v>G.DO</v>
       </c>
       <c r="G78" s="138"/>
-      <c r="H78" s="155" t="s">
-        <v>779</v>
+      <c r="H78" s="154" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="50.25" customHeight="1">
@@ -13285,8 +13284,8 @@
         <v>G.DO</v>
       </c>
       <c r="G79" s="138"/>
-      <c r="H79" s="155" t="s">
-        <v>779</v>
+      <c r="H79" s="154" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="50.25" customHeight="1">
@@ -13310,8 +13309,8 @@
         <v>G.DO.2</v>
       </c>
       <c r="G80" s="138"/>
-      <c r="H80" s="155" t="s">
-        <v>779</v>
+      <c r="H80" s="154" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="50.25" customHeight="1">
@@ -13335,8 +13334,8 @@
         <v>G.DO.2</v>
       </c>
       <c r="G81" s="138"/>
-      <c r="H81" s="155" t="s">
-        <v>779</v>
+      <c r="H81" s="154" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="66" customHeight="1">
@@ -13360,8 +13359,8 @@
         <v>G.DO.2</v>
       </c>
       <c r="G82" s="138"/>
-      <c r="H82" s="155" t="s">
-        <v>779</v>
+      <c r="H82" s="154" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="50.25" customHeight="1">
@@ -13408,8 +13407,8 @@
         <v>G.DO</v>
       </c>
       <c r="G84" s="138"/>
-      <c r="H84" s="155" t="s">
-        <v>779</v>
+      <c r="H84" s="154" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="50.25" customHeight="1">
@@ -13433,8 +13432,8 @@
         <v>G.DO.4</v>
       </c>
       <c r="G85" s="138"/>
-      <c r="H85" s="155" t="s">
-        <v>779</v>
+      <c r="H85" s="154" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="50.25" customHeight="1">
@@ -13458,8 +13457,8 @@
         <v>G.DO.4</v>
       </c>
       <c r="G86" s="138"/>
-      <c r="H86" s="155" t="s">
-        <v>779</v>
+      <c r="H86" s="154" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="50.25" customHeight="1">
@@ -13486,15 +13485,15 @@
       <c r="H87" s="14"/>
     </row>
     <row r="88" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A88" s="198" t="s">
+      <c r="A88" s="201" t="s">
         <v>403</v>
       </c>
-      <c r="B88" s="198"/>
-      <c r="C88" s="198"/>
-      <c r="D88" s="198"/>
-      <c r="E88" s="198"/>
-      <c r="F88" s="198"/>
-      <c r="G88" s="198"/>
+      <c r="B88" s="201"/>
+      <c r="C88" s="201"/>
+      <c r="D88" s="201"/>
+      <c r="E88" s="201"/>
+      <c r="F88" s="201"/>
+      <c r="G88" s="201"/>
       <c r="H88" s="14"/>
     </row>
     <row r="89" spans="1:8" ht="50.25" customHeight="1">
@@ -13564,10 +13563,10 @@
       <c r="H91" s="14"/>
     </row>
     <row r="94" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A94" s="200" t="s">
+      <c r="A94" s="199" t="s">
         <v>381</v>
       </c>
-      <c r="B94" s="201"/>
+      <c r="B94" s="200"/>
     </row>
     <row r="95" spans="1:8" ht="33.75" customHeight="1">
       <c r="A95" s="79" t="s">
@@ -13593,15 +13592,15 @@
       </c>
     </row>
     <row r="96" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A96" s="198" t="s">
+      <c r="A96" s="201" t="s">
         <v>613</v>
       </c>
-      <c r="B96" s="198"/>
-      <c r="C96" s="198"/>
-      <c r="D96" s="198"/>
-      <c r="E96" s="198"/>
-      <c r="F96" s="198"/>
-      <c r="G96" s="198"/>
+      <c r="B96" s="201"/>
+      <c r="C96" s="201"/>
+      <c r="D96" s="201"/>
+      <c r="E96" s="201"/>
+      <c r="F96" s="201"/>
+      <c r="G96" s="201"/>
     </row>
     <row r="97" spans="1:14" ht="50.25" customHeight="1">
       <c r="A97" s="147" t="s">
@@ -13680,12 +13679,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
     <mergeCell ref="A13:G13"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A94:B94"/>
@@ -13696,6 +13689,12 @@
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A29:G29"/>
     <mergeCell ref="A88:G88"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F40">
@@ -13759,44 +13758,44 @@
       <c r="F3" s="110"/>
     </row>
     <row r="4" spans="1:6" ht="23.25">
-      <c r="A4" s="179" t="s">
-        <v>786</v>
-      </c>
-      <c r="B4" s="179"/>
-      <c r="C4" s="179"/>
-      <c r="D4" s="179"/>
-      <c r="E4" s="179"/>
-      <c r="F4" s="179"/>
+      <c r="A4" s="177" t="s">
+        <v>785</v>
+      </c>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1">
       <c r="A5" s="41"/>
       <c r="B5" s="41"/>
     </row>
     <row r="6" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A6" s="210" t="s">
+      <c r="A6" s="208" t="s">
         <v>171</v>
       </c>
-      <c r="B6" s="211"/>
-      <c r="C6" s="211"/>
-      <c r="D6" s="212"/>
-      <c r="E6" s="206" t="s">
+      <c r="B6" s="209"/>
+      <c r="C6" s="209"/>
+      <c r="D6" s="210"/>
+      <c r="E6" s="204" t="s">
         <v>609</v>
       </c>
-      <c r="F6" s="206" t="s">
+      <c r="F6" s="204" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75">
-      <c r="A7" s="209" t="s">
+      <c r="A7" s="207" t="s">
         <v>419</v>
       </c>
-      <c r="B7" s="209"/>
-      <c r="C7" s="209" t="s">
+      <c r="B7" s="207"/>
+      <c r="C7" s="207" t="s">
         <v>420</v>
       </c>
-      <c r="D7" s="209"/>
-      <c r="E7" s="207"/>
-      <c r="F7" s="207"/>
+      <c r="D7" s="207"/>
+      <c r="E7" s="205"/>
+      <c r="F7" s="205"/>
     </row>
     <row r="8" spans="1:6" ht="15.75">
       <c r="A8" s="79" t="s">
@@ -13811,8 +13810,8 @@
       <c r="D8" s="148" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="208"/>
-      <c r="F8" s="208"/>
+      <c r="E8" s="206"/>
+      <c r="F8" s="206"/>
     </row>
     <row r="9" spans="1:6" s="49" customFormat="1" ht="38.25" customHeight="1">
       <c r="A9" s="122" t="str">
@@ -13832,7 +13831,7 @@
         <v>Segurança nas comunicações</v>
       </c>
       <c r="E9" s="123" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F9" s="122" t="s">
         <v>608</v>

--- a/Templates/SIOP-RSLIL-v2.1.xlsx
+++ b/Templates/SIOP-RSLIL-v2.1.xlsx
@@ -8842,10 +8842,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9036,48 +9036,49 @@
       <c r="K11" s="174"/>
       <c r="L11" s="174"/>
     </row>
-    <row r="14" spans="1:12" ht="21" customHeight="1">
-      <c r="A14" s="178" t="s">
+    <row r="12" spans="1:12" ht="21" customHeight="1"/>
+    <row r="13" spans="1:12" ht="21" customHeight="1">
+      <c r="A13" s="178" t="s">
         <v>561</v>
       </c>
-      <c r="B14" s="179"/>
-      <c r="C14" s="179"/>
-      <c r="D14" s="179"/>
-      <c r="E14" s="179"/>
-      <c r="F14" s="179"/>
-      <c r="G14" s="179"/>
-      <c r="H14" s="179"/>
-      <c r="I14" s="179"/>
-      <c r="J14" s="179"/>
-      <c r="K14" s="179"/>
-      <c r="L14" s="179"/>
-    </row>
-    <row r="15" spans="1:12" ht="249.75" customHeight="1">
-      <c r="A15" s="173" t="s">
+      <c r="B13" s="179"/>
+      <c r="C13" s="179"/>
+      <c r="D13" s="179"/>
+      <c r="E13" s="179"/>
+      <c r="F13" s="179"/>
+      <c r="G13" s="179"/>
+      <c r="H13" s="179"/>
+      <c r="I13" s="179"/>
+      <c r="J13" s="179"/>
+      <c r="K13" s="179"/>
+      <c r="L13" s="179"/>
+    </row>
+    <row r="14" spans="1:12" ht="249.75" customHeight="1">
+      <c r="A14" s="173" t="s">
         <v>563</v>
       </c>
-      <c r="B15" s="174"/>
-      <c r="C15" s="174"/>
-      <c r="D15" s="174"/>
-      <c r="E15" s="174"/>
-      <c r="F15" s="174"/>
-      <c r="G15" s="174"/>
-      <c r="H15" s="174"/>
-      <c r="I15" s="174"/>
-      <c r="J15" s="174"/>
-      <c r="K15" s="174"/>
-      <c r="L15" s="174"/>
+      <c r="B14" s="174"/>
+      <c r="C14" s="174"/>
+      <c r="D14" s="174"/>
+      <c r="E14" s="174"/>
+      <c r="F14" s="174"/>
+      <c r="G14" s="174"/>
+      <c r="H14" s="174"/>
+      <c r="I14" s="174"/>
+      <c r="J14" s="174"/>
+      <c r="K14" s="174"/>
+      <c r="L14" s="174"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="A14:L14"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="A3:L3"/>
     <mergeCell ref="A4:L4"/>
     <mergeCell ref="A10:L10"/>
     <mergeCell ref="A11:L11"/>
-    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="A13:L13"/>
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="A6:D6"/>
   </mergeCells>

--- a/Templates/SIOP-RSLIL-v2.1.xlsx
+++ b/Templates/SIOP-RSLIL-v2.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr codeName="EsteLivro" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="842" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="842" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -313,7 +313,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="841">
   <si>
     <t>Id</t>
   </si>
@@ -8844,7 +8844,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -9843,8 +9843,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10535,7 +10535,9 @@
       <c r="C34" s="15" t="s">
         <v>424</v>
       </c>
-      <c r="D34" s="15"/>
+      <c r="D34" s="15" t="s">
+        <v>799</v>
+      </c>
       <c r="E34" s="15"/>
       <c r="F34" s="15" t="s">
         <v>807</v>

--- a/Templates/SIOP-RSLIL-v2.1.xlsx
+++ b/Templates/SIOP-RSLIL-v2.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr codeName="EsteLivro" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="842" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="842" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <definedName name="actorsId">actors!$A$11:$A$11</definedName>
     <definedName name="actorsName">actors!$B$11:$B$11</definedName>
     <definedName name="ActorType">config!$B$46:$D$46</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">goals!$A$3:$G$100</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">goals!$A$3:$G$98</definedName>
     <definedName name="att_type" localSheetId="8">entities!#REF!</definedName>
     <definedName name="att_type" localSheetId="11">entities!#REF!</definedName>
     <definedName name="att_type" localSheetId="10">entities!#REF!</definedName>
@@ -3332,7 +3332,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="270">
+  <cellXfs count="271">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -3640,9 +3640,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3686,342 +3683,348 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4484,66 +4487,66 @@
       <c r="C1" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="23.25">
-      <c r="A3" s="176" t="str">
+      <c r="A3" s="177" t="str">
         <f>index!A1</f>
         <v>Especificação de Requisitos do SIOP (Sistema Integrado de Operações) - CSSFAA</v>
       </c>
-      <c r="B3" s="176"/>
-      <c r="C3" s="176"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="176"/>
-      <c r="F3" s="176"/>
-      <c r="G3" s="176"/>
-      <c r="H3" s="176"/>
+      <c r="B3" s="177"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="177"/>
+      <c r="F3" s="177"/>
+      <c r="G3" s="177"/>
+      <c r="H3" s="177"/>
     </row>
     <row r="4" spans="1:8" ht="23.25">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="178" t="s">
         <v>504</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
+      <c r="B4" s="178"/>
+      <c r="C4" s="178"/>
+      <c r="D4" s="178"/>
+      <c r="E4" s="178"/>
+      <c r="F4" s="178"/>
+      <c r="G4" s="178"/>
+      <c r="H4" s="178"/>
     </row>
     <row r="5" spans="1:8" ht="57" customHeight="1"/>
     <row r="6" spans="1:8" ht="31.5" customHeight="1">
-      <c r="A6" s="211" t="s">
+      <c r="A6" s="212" t="s">
         <v>177</v>
       </c>
-      <c r="B6" s="211" t="s">
+      <c r="B6" s="212" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="211" t="s">
+      <c r="C6" s="212" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="211" t="s">
+      <c r="D6" s="212" t="s">
         <v>178</v>
       </c>
-      <c r="E6" s="211" t="s">
+      <c r="E6" s="212" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="211" t="s">
+      <c r="F6" s="212" t="s">
         <v>183</v>
       </c>
-      <c r="G6" s="213" t="s">
+      <c r="G6" s="214" t="s">
         <v>176</v>
       </c>
-      <c r="H6" s="212" t="s">
+      <c r="H6" s="213" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="45" customHeight="1">
-      <c r="A7" s="211"/>
-      <c r="B7" s="211"/>
-      <c r="C7" s="211"/>
-      <c r="D7" s="211"/>
-      <c r="E7" s="211"/>
-      <c r="F7" s="211"/>
-      <c r="G7" s="214"/>
-      <c r="H7" s="212"/>
+      <c r="A7" s="212"/>
+      <c r="B7" s="212"/>
+      <c r="C7" s="212"/>
+      <c r="D7" s="212"/>
+      <c r="E7" s="212"/>
+      <c r="F7" s="212"/>
+      <c r="G7" s="215"/>
+      <c r="H7" s="213"/>
     </row>
     <row r="8" spans="1:8" ht="33.75" customHeight="1">
       <c r="A8" s="15" t="s">
@@ -4717,84 +4720,84 @@
       <c r="G1" s="4"/>
     </row>
     <row r="3" spans="1:11" ht="23.25">
-      <c r="A3" s="176" t="str">
+      <c r="A3" s="177" t="str">
         <f>index!A1</f>
         <v>Especificação de Requisitos do SIOP (Sistema Integrado de Operações) - CSSFAA</v>
       </c>
-      <c r="B3" s="176"/>
-      <c r="C3" s="176"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="176"/>
-      <c r="F3" s="176"/>
-      <c r="G3" s="176"/>
-      <c r="H3" s="176"/>
-      <c r="I3" s="176"/>
-      <c r="J3" s="176"/>
-      <c r="K3" s="176"/>
+      <c r="B3" s="177"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="177"/>
+      <c r="F3" s="177"/>
+      <c r="G3" s="177"/>
+      <c r="H3" s="177"/>
+      <c r="I3" s="177"/>
+      <c r="J3" s="177"/>
+      <c r="K3" s="177"/>
     </row>
     <row r="4" spans="1:11" ht="23.25">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="178" t="s">
         <v>506</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
-      <c r="J4" s="177"/>
-      <c r="K4" s="177"/>
+      <c r="B4" s="178"/>
+      <c r="C4" s="178"/>
+      <c r="D4" s="178"/>
+      <c r="E4" s="178"/>
+      <c r="F4" s="178"/>
+      <c r="G4" s="178"/>
+      <c r="H4" s="178"/>
+      <c r="I4" s="178"/>
+      <c r="J4" s="178"/>
+      <c r="K4" s="178"/>
     </row>
     <row r="6" spans="1:11" ht="30.75" customHeight="1"/>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A7" s="211" t="s">
+      <c r="A7" s="212" t="s">
         <v>177</v>
       </c>
-      <c r="B7" s="211" t="s">
+      <c r="B7" s="212" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="211" t="s">
+      <c r="C7" s="212" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="213" t="s">
+      <c r="D7" s="214" t="s">
         <v>179</v>
       </c>
-      <c r="E7" s="213" t="s">
+      <c r="E7" s="214" t="s">
         <v>244</v>
       </c>
-      <c r="F7" s="215" t="s">
+      <c r="F7" s="216" t="s">
         <v>145</v>
       </c>
-      <c r="G7" s="215" t="s">
+      <c r="G7" s="216" t="s">
         <v>146</v>
       </c>
-      <c r="H7" s="211" t="s">
+      <c r="H7" s="212" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="211" t="s">
+      <c r="I7" s="212" t="s">
         <v>183</v>
       </c>
-      <c r="J7" s="217" t="s">
+      <c r="J7" s="218" t="s">
         <v>176</v>
       </c>
-      <c r="K7" s="212" t="s">
+      <c r="K7" s="213" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="31.5" customHeight="1">
-      <c r="A8" s="211"/>
-      <c r="B8" s="211"/>
-      <c r="C8" s="211"/>
-      <c r="D8" s="214"/>
-      <c r="E8" s="214"/>
-      <c r="F8" s="216"/>
-      <c r="G8" s="216"/>
-      <c r="H8" s="211"/>
-      <c r="I8" s="211"/>
-      <c r="J8" s="218"/>
-      <c r="K8" s="212"/>
+      <c r="A8" s="212"/>
+      <c r="B8" s="212"/>
+      <c r="C8" s="212"/>
+      <c r="D8" s="215"/>
+      <c r="E8" s="215"/>
+      <c r="F8" s="217"/>
+      <c r="G8" s="217"/>
+      <c r="H8" s="212"/>
+      <c r="I8" s="212"/>
+      <c r="J8" s="219"/>
+      <c r="K8" s="213"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="15" t="s">
@@ -5037,62 +5040,62 @@
         <f>index!A1</f>
         <v>Especificação de Requisitos do SIOP (Sistema Integrado de Operações) - CSSFAA</v>
       </c>
-      <c r="B3" s="156"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="156"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
+      <c r="B3" s="155"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
     </row>
     <row r="4" spans="1:8" ht="23.25">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="178" t="s">
         <v>507</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
+      <c r="B4" s="178"/>
+      <c r="C4" s="178"/>
+      <c r="D4" s="178"/>
+      <c r="E4" s="178"/>
+      <c r="F4" s="178"/>
+      <c r="G4" s="178"/>
+      <c r="H4" s="178"/>
     </row>
     <row r="6" spans="1:8" ht="30.75" customHeight="1"/>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A7" s="211" t="s">
+      <c r="A7" s="212" t="s">
         <v>177</v>
       </c>
-      <c r="B7" s="211" t="s">
+      <c r="B7" s="212" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="211" t="s">
+      <c r="C7" s="212" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="213" t="s">
+      <c r="D7" s="214" t="s">
         <v>179</v>
       </c>
-      <c r="E7" s="211" t="s">
+      <c r="E7" s="212" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="211" t="s">
+      <c r="F7" s="212" t="s">
         <v>183</v>
       </c>
-      <c r="G7" s="211" t="s">
+      <c r="G7" s="212" t="s">
         <v>176</v>
       </c>
-      <c r="H7" s="212" t="s">
+      <c r="H7" s="213" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A8" s="211"/>
-      <c r="B8" s="211"/>
-      <c r="C8" s="211"/>
-      <c r="D8" s="214"/>
-      <c r="E8" s="211"/>
-      <c r="F8" s="211"/>
-      <c r="G8" s="211"/>
-      <c r="H8" s="212"/>
+      <c r="A8" s="212"/>
+      <c r="B8" s="212"/>
+      <c r="C8" s="212"/>
+      <c r="D8" s="215"/>
+      <c r="E8" s="212"/>
+      <c r="F8" s="212"/>
+      <c r="G8" s="212"/>
+      <c r="H8" s="213"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="15" t="s">
@@ -5275,44 +5278,44 @@
       <c r="F3" s="110"/>
     </row>
     <row r="4" spans="1:6" ht="23.25">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="178" t="s">
         <v>784</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
+      <c r="B4" s="178"/>
+      <c r="C4" s="178"/>
+      <c r="D4" s="178"/>
+      <c r="E4" s="178"/>
+      <c r="F4" s="178"/>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1">
       <c r="A5" s="41"/>
       <c r="B5" s="41"/>
     </row>
     <row r="6" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A6" s="208" t="s">
+      <c r="A6" s="209" t="s">
         <v>783</v>
       </c>
-      <c r="B6" s="209"/>
-      <c r="C6" s="209"/>
-      <c r="D6" s="210"/>
-      <c r="E6" s="204" t="s">
+      <c r="B6" s="210"/>
+      <c r="C6" s="210"/>
+      <c r="D6" s="211"/>
+      <c r="E6" s="205" t="s">
         <v>609</v>
       </c>
-      <c r="F6" s="204" t="s">
+      <c r="F6" s="205" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75">
-      <c r="A7" s="207" t="s">
+      <c r="A7" s="208" t="s">
         <v>419</v>
       </c>
-      <c r="B7" s="207"/>
-      <c r="C7" s="207" t="s">
+      <c r="B7" s="208"/>
+      <c r="C7" s="208" t="s">
         <v>420</v>
       </c>
-      <c r="D7" s="207"/>
-      <c r="E7" s="205"/>
-      <c r="F7" s="205"/>
+      <c r="D7" s="208"/>
+      <c r="E7" s="206"/>
+      <c r="F7" s="206"/>
     </row>
     <row r="8" spans="1:6" ht="15.75">
       <c r="A8" s="79" t="s">
@@ -5324,11 +5327,11 @@
       <c r="C8" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="148" t="s">
+      <c r="D8" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="206"/>
-      <c r="F8" s="206"/>
+      <c r="E8" s="207"/>
+      <c r="F8" s="207"/>
     </row>
     <row r="9" spans="1:6" s="49" customFormat="1" ht="38.25" customHeight="1">
       <c r="A9" s="122" t="str">
@@ -5483,37 +5486,37 @@
       <c r="A2" s="4"/>
     </row>
     <row r="3" spans="1:12" ht="23.25">
-      <c r="A3" s="176" t="str">
+      <c r="A3" s="177" t="str">
         <f>index!A1</f>
         <v>Especificação de Requisitos do SIOP (Sistema Integrado de Operações) - CSSFAA</v>
       </c>
-      <c r="B3" s="176"/>
-      <c r="C3" s="176"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="176"/>
-      <c r="F3" s="176"/>
-      <c r="G3" s="176"/>
-      <c r="H3" s="176"/>
-      <c r="I3" s="176"/>
-      <c r="J3" s="176"/>
-      <c r="K3" s="176"/>
-      <c r="L3" s="176"/>
+      <c r="B3" s="177"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="177"/>
+      <c r="F3" s="177"/>
+      <c r="G3" s="177"/>
+      <c r="H3" s="177"/>
+      <c r="I3" s="177"/>
+      <c r="J3" s="177"/>
+      <c r="K3" s="177"/>
+      <c r="L3" s="177"/>
     </row>
     <row r="4" spans="1:12" ht="23.25">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="178" t="s">
         <v>500</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
-      <c r="J4" s="177"/>
-      <c r="K4" s="177"/>
-      <c r="L4" s="177"/>
+      <c r="B4" s="178"/>
+      <c r="C4" s="178"/>
+      <c r="D4" s="178"/>
+      <c r="E4" s="178"/>
+      <c r="F4" s="178"/>
+      <c r="G4" s="178"/>
+      <c r="H4" s="178"/>
+      <c r="I4" s="178"/>
+      <c r="J4" s="178"/>
+      <c r="K4" s="178"/>
+      <c r="L4" s="178"/>
     </row>
     <row r="5" spans="1:12" ht="18.75" customHeight="1">
       <c r="A5" s="4"/>
@@ -5525,21 +5528,21 @@
       <c r="B6" s="200"/>
     </row>
     <row r="7" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A7" s="242" t="s">
+      <c r="A7" s="220" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="243"/>
-      <c r="C7" s="196"/>
-      <c r="D7" s="196"/>
+      <c r="B7" s="221"/>
+      <c r="C7" s="202"/>
+      <c r="D7" s="202"/>
       <c r="E7" s="64"/>
     </row>
     <row r="8" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A8" s="244" t="s">
+      <c r="A8" s="222" t="s">
         <v>208</v>
       </c>
-      <c r="B8" s="245"/>
-      <c r="C8" s="196"/>
-      <c r="D8" s="196"/>
+      <c r="B8" s="223"/>
+      <c r="C8" s="202"/>
+      <c r="D8" s="202"/>
       <c r="E8" s="64"/>
     </row>
     <row r="9" spans="1:12" ht="18.75" customHeight="1">
@@ -5559,10 +5562,10 @@
       <c r="F10" s="90"/>
       <c r="G10" s="90"/>
       <c r="H10" s="90"/>
-      <c r="I10" s="230"/>
-      <c r="J10" s="230"/>
-      <c r="K10" s="230"/>
-      <c r="L10" s="230"/>
+      <c r="I10" s="242"/>
+      <c r="J10" s="242"/>
+      <c r="K10" s="242"/>
+      <c r="L10" s="242"/>
     </row>
     <row r="11" spans="1:12" ht="25.5" customHeight="1">
       <c r="A11" s="85" t="s">
@@ -5580,26 +5583,26 @@
       <c r="E11" s="91" t="s">
         <v>193</v>
       </c>
-      <c r="F11" s="229"/>
-      <c r="G11" s="229"/>
-      <c r="H11" s="229"/>
-      <c r="I11" s="229"/>
-      <c r="J11" s="229"/>
-      <c r="K11" s="229"/>
-      <c r="L11" s="229"/>
+      <c r="F11" s="241"/>
+      <c r="G11" s="241"/>
+      <c r="H11" s="241"/>
+      <c r="I11" s="241"/>
+      <c r="J11" s="241"/>
+      <c r="K11" s="241"/>
+      <c r="L11" s="241"/>
     </row>
     <row r="12" spans="1:12" ht="18.75" customHeight="1">
-      <c r="D12" s="236" t="s">
+      <c r="D12" s="225" t="s">
         <v>195</v>
       </c>
-      <c r="E12" s="237"/>
-      <c r="F12" s="237"/>
-      <c r="G12" s="237"/>
-      <c r="H12" s="237"/>
-      <c r="I12" s="237"/>
-      <c r="J12" s="237"/>
-      <c r="K12" s="237"/>
-      <c r="L12" s="238"/>
+      <c r="E12" s="226"/>
+      <c r="F12" s="226"/>
+      <c r="G12" s="226"/>
+      <c r="H12" s="226"/>
+      <c r="I12" s="226"/>
+      <c r="J12" s="226"/>
+      <c r="K12" s="226"/>
+      <c r="L12" s="227"/>
     </row>
     <row r="13" spans="1:12" ht="18.75" customHeight="1">
       <c r="D13" s="9" t="s">
@@ -5631,17 +5634,17 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="18.75" customHeight="1">
-      <c r="D14" s="236" t="s">
+      <c r="D14" s="225" t="s">
         <v>197</v>
       </c>
-      <c r="E14" s="237"/>
-      <c r="F14" s="237"/>
-      <c r="G14" s="237"/>
-      <c r="H14" s="237"/>
-      <c r="I14" s="237"/>
-      <c r="J14" s="237"/>
-      <c r="K14" s="237"/>
-      <c r="L14" s="238"/>
+      <c r="E14" s="226"/>
+      <c r="F14" s="226"/>
+      <c r="G14" s="226"/>
+      <c r="H14" s="226"/>
+      <c r="I14" s="226"/>
+      <c r="J14" s="226"/>
+      <c r="K14" s="226"/>
+      <c r="L14" s="227"/>
     </row>
     <row r="15" spans="1:12" ht="18.75" customHeight="1">
       <c r="D15" s="9" t="s">
@@ -5653,40 +5656,40 @@
       <c r="F15" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="G15" s="239"/>
-      <c r="H15" s="240"/>
-      <c r="I15" s="240"/>
-      <c r="J15" s="240"/>
-      <c r="K15" s="240"/>
-      <c r="L15" s="241"/>
+      <c r="G15" s="231"/>
+      <c r="H15" s="232"/>
+      <c r="I15" s="232"/>
+      <c r="J15" s="232"/>
+      <c r="K15" s="232"/>
+      <c r="L15" s="233"/>
     </row>
     <row r="16" spans="1:12" ht="18.75" customHeight="1">
-      <c r="D16" s="236" t="s">
+      <c r="D16" s="225" t="s">
         <v>200</v>
       </c>
-      <c r="E16" s="237"/>
-      <c r="F16" s="237"/>
-      <c r="G16" s="237"/>
-      <c r="H16" s="237"/>
-      <c r="I16" s="237"/>
-      <c r="J16" s="237"/>
-      <c r="K16" s="237"/>
-      <c r="L16" s="238"/>
+      <c r="E16" s="226"/>
+      <c r="F16" s="226"/>
+      <c r="G16" s="226"/>
+      <c r="H16" s="226"/>
+      <c r="I16" s="226"/>
+      <c r="J16" s="226"/>
+      <c r="K16" s="226"/>
+      <c r="L16" s="227"/>
     </row>
     <row r="17" spans="1:13" ht="18.75" customHeight="1">
       <c r="D17" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="E17" s="232" t="s">
+      <c r="E17" s="244" t="s">
         <v>202</v>
       </c>
-      <c r="F17" s="233"/>
-      <c r="G17" s="233"/>
-      <c r="H17" s="233"/>
-      <c r="I17" s="233"/>
-      <c r="J17" s="233"/>
-      <c r="K17" s="233"/>
-      <c r="L17" s="234"/>
+      <c r="F17" s="245"/>
+      <c r="G17" s="245"/>
+      <c r="H17" s="245"/>
+      <c r="I17" s="245"/>
+      <c r="J17" s="245"/>
+      <c r="K17" s="245"/>
+      <c r="L17" s="246"/>
     </row>
     <row r="18" spans="1:13" ht="18.75" customHeight="1">
       <c r="A18" s="96" t="s">
@@ -5704,18 +5707,18 @@
       <c r="E18" s="99" t="s">
         <v>194</v>
       </c>
-      <c r="F18" s="219"/>
-      <c r="G18" s="220"/>
-      <c r="H18" s="220"/>
-      <c r="I18" s="220"/>
-      <c r="J18" s="220"/>
-      <c r="K18" s="220"/>
-      <c r="L18" s="221"/>
+      <c r="F18" s="228"/>
+      <c r="G18" s="229"/>
+      <c r="H18" s="229"/>
+      <c r="I18" s="229"/>
+      <c r="J18" s="229"/>
+      <c r="K18" s="229"/>
+      <c r="L18" s="230"/>
     </row>
     <row r="19" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A19" s="224"/>
-      <c r="B19" s="224"/>
-      <c r="C19" s="235" t="s">
+      <c r="A19" s="236"/>
+      <c r="B19" s="236"/>
+      <c r="C19" s="224" t="s">
         <v>196</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -5748,9 +5751,9 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A20" s="231"/>
-      <c r="B20" s="231"/>
-      <c r="C20" s="235"/>
+      <c r="A20" s="243"/>
+      <c r="B20" s="243"/>
+      <c r="C20" s="224"/>
       <c r="D20" s="2" t="s">
         <v>124</v>
       </c>
@@ -5776,9 +5779,9 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A21" s="231"/>
-      <c r="B21" s="231"/>
-      <c r="C21" s="235"/>
+      <c r="A21" s="243"/>
+      <c r="B21" s="243"/>
+      <c r="C21" s="224"/>
       <c r="D21" s="2" t="s">
         <v>175</v>
       </c>
@@ -5802,9 +5805,9 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A22" s="231"/>
-      <c r="B22" s="231"/>
-      <c r="C22" s="235"/>
+      <c r="A22" s="243"/>
+      <c r="B22" s="243"/>
+      <c r="C22" s="224"/>
       <c r="D22" s="2" t="s">
         <v>207</v>
       </c>
@@ -5830,9 +5833,9 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A23" s="231"/>
-      <c r="B23" s="231"/>
-      <c r="C23" s="235" t="s">
+      <c r="A23" s="243"/>
+      <c r="B23" s="243"/>
+      <c r="C23" s="224" t="s">
         <v>197</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -5844,20 +5847,20 @@
       <c r="F23" s="24">
         <v>1</v>
       </c>
-      <c r="G23" s="235"/>
-      <c r="H23" s="235"/>
-      <c r="I23" s="235"/>
-      <c r="J23" s="235"/>
-      <c r="K23" s="235"/>
-      <c r="L23" s="235"/>
+      <c r="G23" s="224"/>
+      <c r="H23" s="224"/>
+      <c r="I23" s="224"/>
+      <c r="J23" s="224"/>
+      <c r="K23" s="224"/>
+      <c r="L23" s="224"/>
       <c r="M23" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A24" s="231"/>
-      <c r="B24" s="231"/>
-      <c r="C24" s="235"/>
+      <c r="A24" s="243"/>
+      <c r="B24" s="243"/>
+      <c r="C24" s="224"/>
       <c r="D24" s="2" t="s">
         <v>205</v>
       </c>
@@ -5867,17 +5870,17 @@
       <c r="F24" s="24">
         <v>1</v>
       </c>
-      <c r="G24" s="235"/>
-      <c r="H24" s="235"/>
-      <c r="I24" s="235"/>
-      <c r="J24" s="235"/>
-      <c r="K24" s="235"/>
-      <c r="L24" s="235"/>
+      <c r="G24" s="224"/>
+      <c r="H24" s="224"/>
+      <c r="I24" s="224"/>
+      <c r="J24" s="224"/>
+      <c r="K24" s="224"/>
+      <c r="L24" s="224"/>
     </row>
     <row r="25" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A25" s="231"/>
-      <c r="B25" s="231"/>
-      <c r="C25" s="235"/>
+      <c r="A25" s="243"/>
+      <c r="B25" s="243"/>
+      <c r="C25" s="224"/>
       <c r="D25" s="2" t="s">
         <v>206</v>
       </c>
@@ -5887,67 +5890,67 @@
       <c r="F25" s="24">
         <v>1</v>
       </c>
-      <c r="G25" s="235"/>
-      <c r="H25" s="235"/>
-      <c r="I25" s="235"/>
-      <c r="J25" s="235"/>
-      <c r="K25" s="235"/>
-      <c r="L25" s="235"/>
+      <c r="G25" s="224"/>
+      <c r="H25" s="224"/>
+      <c r="I25" s="224"/>
+      <c r="J25" s="224"/>
+      <c r="K25" s="224"/>
+      <c r="L25" s="224"/>
     </row>
     <row r="26" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A26" s="231"/>
-      <c r="B26" s="231"/>
-      <c r="C26" s="224" t="s">
+      <c r="A26" s="243"/>
+      <c r="B26" s="243"/>
+      <c r="C26" s="236" t="s">
         <v>200</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E26" s="226" t="s">
+      <c r="E26" s="238" t="s">
         <v>210</v>
       </c>
-      <c r="F26" s="227"/>
-      <c r="G26" s="227"/>
-      <c r="H26" s="227"/>
-      <c r="I26" s="227"/>
-      <c r="J26" s="227"/>
-      <c r="K26" s="227"/>
-      <c r="L26" s="228"/>
+      <c r="F26" s="239"/>
+      <c r="G26" s="239"/>
+      <c r="H26" s="239"/>
+      <c r="I26" s="239"/>
+      <c r="J26" s="239"/>
+      <c r="K26" s="239"/>
+      <c r="L26" s="240"/>
       <c r="M26" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A27" s="225"/>
-      <c r="B27" s="225"/>
-      <c r="C27" s="225"/>
+      <c r="A27" s="237"/>
+      <c r="B27" s="237"/>
+      <c r="C27" s="237"/>
       <c r="D27" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E27" s="226" t="s">
+      <c r="E27" s="238" t="s">
         <v>204</v>
       </c>
-      <c r="F27" s="227"/>
-      <c r="G27" s="227"/>
-      <c r="H27" s="227"/>
-      <c r="I27" s="227"/>
-      <c r="J27" s="227"/>
-      <c r="K27" s="227"/>
-      <c r="L27" s="228"/>
+      <c r="F27" s="239"/>
+      <c r="G27" s="239"/>
+      <c r="H27" s="239"/>
+      <c r="I27" s="239"/>
+      <c r="J27" s="239"/>
+      <c r="K27" s="239"/>
+      <c r="L27" s="240"/>
     </row>
     <row r="28" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A28" s="222"/>
-      <c r="B28" s="223"/>
-      <c r="C28" s="223"/>
-      <c r="D28" s="223"/>
-      <c r="E28" s="223"/>
-      <c r="F28" s="223"/>
-      <c r="G28" s="223"/>
-      <c r="H28" s="223"/>
-      <c r="I28" s="223"/>
-      <c r="J28" s="223"/>
-      <c r="K28" s="223"/>
-      <c r="L28" s="223"/>
+      <c r="A28" s="234"/>
+      <c r="B28" s="235"/>
+      <c r="C28" s="235"/>
+      <c r="D28" s="235"/>
+      <c r="E28" s="235"/>
+      <c r="F28" s="235"/>
+      <c r="G28" s="235"/>
+      <c r="H28" s="235"/>
+      <c r="I28" s="235"/>
+      <c r="J28" s="235"/>
+      <c r="K28" s="235"/>
+      <c r="L28" s="235"/>
     </row>
     <row r="29" spans="1:13" ht="18.75" customHeight="1">
       <c r="A29" s="96" t="s">
@@ -5965,16 +5968,16 @@
       <c r="E29" s="99" t="s">
         <v>194</v>
       </c>
-      <c r="F29" s="219"/>
-      <c r="G29" s="220"/>
-      <c r="H29" s="220"/>
-      <c r="I29" s="220"/>
-      <c r="J29" s="220"/>
-      <c r="K29" s="220"/>
-      <c r="L29" s="221"/>
+      <c r="F29" s="228"/>
+      <c r="G29" s="229"/>
+      <c r="H29" s="229"/>
+      <c r="I29" s="229"/>
+      <c r="J29" s="229"/>
+      <c r="K29" s="229"/>
+      <c r="L29" s="230"/>
     </row>
     <row r="30" spans="1:13" ht="18.75" customHeight="1">
-      <c r="C30" s="235" t="s">
+      <c r="C30" s="224" t="s">
         <v>196</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -6002,7 +6005,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="18.75" customHeight="1">
-      <c r="C31" s="235"/>
+      <c r="C31" s="224"/>
       <c r="D31" s="2" t="s">
         <v>124</v>
       </c>
@@ -6028,7 +6031,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="18.75" customHeight="1">
-      <c r="C32" s="235"/>
+      <c r="C32" s="224"/>
       <c r="D32" s="2" t="s">
         <v>175</v>
       </c>
@@ -6052,7 +6055,7 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="18.75" customHeight="1">
-      <c r="C33" s="235"/>
+      <c r="C33" s="224"/>
       <c r="D33" s="2" t="s">
         <v>207</v>
       </c>
@@ -6091,16 +6094,16 @@
       <c r="E35" s="99" t="s">
         <v>194</v>
       </c>
-      <c r="F35" s="219"/>
-      <c r="G35" s="220"/>
-      <c r="H35" s="220"/>
-      <c r="I35" s="220"/>
-      <c r="J35" s="220"/>
-      <c r="K35" s="220"/>
-      <c r="L35" s="221"/>
+      <c r="F35" s="228"/>
+      <c r="G35" s="229"/>
+      <c r="H35" s="229"/>
+      <c r="I35" s="229"/>
+      <c r="J35" s="229"/>
+      <c r="K35" s="229"/>
+      <c r="L35" s="230"/>
     </row>
     <row r="36" spans="1:12" ht="18.75" customHeight="1">
-      <c r="C36" s="235" t="s">
+      <c r="C36" s="224" t="s">
         <v>196</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -6128,7 +6131,7 @@
       </c>
     </row>
     <row r="37" spans="1:12" ht="18.75" customHeight="1">
-      <c r="C37" s="235"/>
+      <c r="C37" s="224"/>
       <c r="D37" s="2" t="s">
         <v>124</v>
       </c>
@@ -6154,7 +6157,7 @@
       </c>
     </row>
     <row r="38" spans="1:12" ht="18.75" customHeight="1">
-      <c r="C38" s="235"/>
+      <c r="C38" s="224"/>
       <c r="D38" s="2" t="s">
         <v>175</v>
       </c>
@@ -6178,7 +6181,7 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="18.75" customHeight="1">
-      <c r="C39" s="235"/>
+      <c r="C39" s="224"/>
       <c r="D39" s="2" t="s">
         <v>207</v>
       </c>
@@ -6202,7 +6205,7 @@
       </c>
     </row>
     <row r="40" spans="1:12" ht="18.75" customHeight="1">
-      <c r="C40" s="235" t="s">
+      <c r="C40" s="224" t="s">
         <v>197</v>
       </c>
       <c r="D40" s="2" t="s">
@@ -6214,15 +6217,15 @@
       <c r="F40" s="24">
         <v>1</v>
       </c>
-      <c r="G40" s="235"/>
-      <c r="H40" s="235"/>
-      <c r="I40" s="235"/>
-      <c r="J40" s="235"/>
-      <c r="K40" s="235"/>
-      <c r="L40" s="235"/>
+      <c r="G40" s="224"/>
+      <c r="H40" s="224"/>
+      <c r="I40" s="224"/>
+      <c r="J40" s="224"/>
+      <c r="K40" s="224"/>
+      <c r="L40" s="224"/>
     </row>
     <row r="41" spans="1:12" ht="18.75" customHeight="1">
-      <c r="C41" s="235"/>
+      <c r="C41" s="224"/>
       <c r="D41" s="2" t="s">
         <v>205</v>
       </c>
@@ -6232,15 +6235,15 @@
       <c r="F41" s="24">
         <v>1</v>
       </c>
-      <c r="G41" s="235"/>
-      <c r="H41" s="235"/>
-      <c r="I41" s="235"/>
-      <c r="J41" s="235"/>
-      <c r="K41" s="235"/>
-      <c r="L41" s="235"/>
+      <c r="G41" s="224"/>
+      <c r="H41" s="224"/>
+      <c r="I41" s="224"/>
+      <c r="J41" s="224"/>
+      <c r="K41" s="224"/>
+      <c r="L41" s="224"/>
     </row>
     <row r="42" spans="1:12" ht="18.75" customHeight="1">
-      <c r="C42" s="235"/>
+      <c r="C42" s="224"/>
       <c r="D42" s="2" t="s">
         <v>214</v>
       </c>
@@ -6250,16 +6253,33 @@
       <c r="F42" s="24">
         <v>1</v>
       </c>
-      <c r="G42" s="235"/>
-      <c r="H42" s="235"/>
-      <c r="I42" s="235"/>
-      <c r="J42" s="235"/>
-      <c r="K42" s="235"/>
-      <c r="L42" s="235"/>
+      <c r="G42" s="224"/>
+      <c r="H42" s="224"/>
+      <c r="I42" s="224"/>
+      <c r="J42" s="224"/>
+      <c r="K42" s="224"/>
+      <c r="L42" s="224"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="33">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="F35:L35"/>
+    <mergeCell ref="A28:L28"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="E26:L26"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="A19:A27"/>
+    <mergeCell ref="B19:B27"/>
+    <mergeCell ref="E27:L27"/>
+    <mergeCell ref="E17:L17"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D14:L14"/>
+    <mergeCell ref="G23:L23"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C36:C39"/>
@@ -6276,23 +6296,6 @@
     <mergeCell ref="F29:L29"/>
     <mergeCell ref="F18:L18"/>
     <mergeCell ref="G15:L15"/>
-    <mergeCell ref="G24:L24"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="F35:L35"/>
-    <mergeCell ref="A28:L28"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="E26:L26"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="A19:A27"/>
-    <mergeCell ref="B19:B27"/>
-    <mergeCell ref="E27:L27"/>
-    <mergeCell ref="E17:L17"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="D14:L14"/>
-    <mergeCell ref="G23:L23"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G19:G22 G30:G33 G36:G39">
@@ -6374,23 +6377,23 @@
       <c r="A6" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="246"/>
+      <c r="E6" s="247"/>
     </row>
     <row r="7" spans="1:9" s="93" customFormat="1" ht="14.25" customHeight="1">
       <c r="A7" s="94" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="246"/>
+      <c r="E7" s="247"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="250" t="s">
+      <c r="A9" s="251" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="250"/>
-      <c r="C9" s="250"/>
-      <c r="D9" s="250"/>
-      <c r="E9" s="250"/>
-      <c r="F9" s="250"/>
+      <c r="B9" s="251"/>
+      <c r="C9" s="251"/>
+      <c r="D9" s="251"/>
+      <c r="E9" s="251"/>
+      <c r="F9" s="251"/>
     </row>
     <row r="10" spans="1:9" ht="15.75">
       <c r="A10" s="7" t="s">
@@ -6475,14 +6478,14 @@
       <c r="F14" s="82"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="247" t="s">
+      <c r="A15" s="248" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="248"/>
-      <c r="C15" s="248"/>
-      <c r="D15" s="248"/>
-      <c r="E15" s="248"/>
-      <c r="F15" s="249"/>
+      <c r="B15" s="249"/>
+      <c r="C15" s="249"/>
+      <c r="D15" s="249"/>
+      <c r="E15" s="249"/>
+      <c r="F15" s="250"/>
     </row>
     <row r="16" spans="1:9" ht="15.75">
       <c r="A16" s="7" t="s">
@@ -6615,25 +6618,25 @@
       <c r="Q3" s="72"/>
     </row>
     <row r="4" spans="1:18" ht="23.25">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="178" t="s">
         <v>502</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
-      <c r="J4" s="177"/>
-      <c r="K4" s="177"/>
-      <c r="L4" s="177"/>
-      <c r="M4" s="177"/>
-      <c r="N4" s="177"/>
-      <c r="O4" s="177"/>
-      <c r="P4" s="177"/>
-      <c r="Q4" s="177"/>
+      <c r="B4" s="178"/>
+      <c r="C4" s="178"/>
+      <c r="D4" s="178"/>
+      <c r="E4" s="178"/>
+      <c r="F4" s="178"/>
+      <c r="G4" s="178"/>
+      <c r="H4" s="178"/>
+      <c r="I4" s="178"/>
+      <c r="J4" s="178"/>
+      <c r="K4" s="178"/>
+      <c r="L4" s="178"/>
+      <c r="M4" s="178"/>
+      <c r="N4" s="178"/>
+      <c r="O4" s="178"/>
+      <c r="P4" s="178"/>
+      <c r="Q4" s="178"/>
     </row>
     <row r="5" spans="1:18" ht="21" customHeight="1"/>
     <row r="6" spans="1:18">
@@ -6647,76 +6650,76 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A9" s="252" t="s">
+      <c r="A9" s="259" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="253"/>
-      <c r="C9" s="253"/>
-      <c r="D9" s="253"/>
-      <c r="E9" s="253"/>
-      <c r="F9" s="253"/>
-      <c r="G9" s="253"/>
-      <c r="H9" s="253"/>
-      <c r="I9" s="253"/>
-      <c r="J9" s="253"/>
-      <c r="K9" s="253"/>
-      <c r="L9" s="253"/>
-      <c r="M9" s="253"/>
-      <c r="N9" s="253"/>
-      <c r="O9" s="253"/>
-      <c r="P9" s="253"/>
-      <c r="Q9" s="253"/>
-      <c r="R9" s="254"/>
+      <c r="B9" s="260"/>
+      <c r="C9" s="260"/>
+      <c r="D9" s="260"/>
+      <c r="E9" s="260"/>
+      <c r="F9" s="260"/>
+      <c r="G9" s="260"/>
+      <c r="H9" s="260"/>
+      <c r="I9" s="260"/>
+      <c r="J9" s="260"/>
+      <c r="K9" s="260"/>
+      <c r="L9" s="260"/>
+      <c r="M9" s="260"/>
+      <c r="N9" s="260"/>
+      <c r="O9" s="260"/>
+      <c r="P9" s="260"/>
+      <c r="Q9" s="260"/>
+      <c r="R9" s="261"/>
     </row>
     <row r="10" spans="1:18" ht="33" customHeight="1">
-      <c r="A10" s="258" t="s">
+      <c r="A10" s="253" t="s">
         <v>177</v>
       </c>
-      <c r="B10" s="258" t="s">
+      <c r="B10" s="253" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="258" t="s">
+      <c r="C10" s="253" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="258" t="s">
+      <c r="D10" s="253" t="s">
         <v>178</v>
       </c>
-      <c r="E10" s="255" t="s">
+      <c r="E10" s="257" t="s">
         <v>236</v>
       </c>
-      <c r="F10" s="256"/>
-      <c r="G10" s="257"/>
-      <c r="H10" s="258" t="s">
+      <c r="F10" s="262"/>
+      <c r="G10" s="258"/>
+      <c r="H10" s="253" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="260" t="s">
+      <c r="I10" s="255" t="s">
         <v>239</v>
       </c>
-      <c r="J10" s="261"/>
-      <c r="K10" s="255" t="s">
+      <c r="J10" s="256"/>
+      <c r="K10" s="257" t="s">
         <v>79</v>
       </c>
-      <c r="L10" s="257"/>
-      <c r="M10" s="255" t="s">
+      <c r="L10" s="258"/>
+      <c r="M10" s="257" t="s">
         <v>241</v>
       </c>
-      <c r="N10" s="257"/>
+      <c r="N10" s="258"/>
       <c r="O10" s="100" t="s">
         <v>243</v>
       </c>
-      <c r="P10" s="251" t="s">
+      <c r="P10" s="252" t="s">
         <v>242</v>
       </c>
-      <c r="Q10" s="251"/>
-      <c r="R10" s="212" t="s">
+      <c r="Q10" s="252"/>
+      <c r="R10" s="213" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="33" customHeight="1">
-      <c r="A11" s="259"/>
-      <c r="B11" s="259"/>
-      <c r="C11" s="259"/>
-      <c r="D11" s="259"/>
+      <c r="A11" s="254"/>
+      <c r="B11" s="254"/>
+      <c r="C11" s="254"/>
+      <c r="D11" s="254"/>
       <c r="E11" s="103" t="s">
         <v>233</v>
       </c>
@@ -6726,7 +6729,7 @@
       <c r="G11" s="103" t="s">
         <v>235</v>
       </c>
-      <c r="H11" s="259"/>
+      <c r="H11" s="254"/>
       <c r="I11" s="101" t="s">
         <v>140</v>
       </c>
@@ -6752,7 +6755,7 @@
       <c r="Q11" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="R11" s="212"/>
+      <c r="R11" s="213"/>
     </row>
     <row r="12" spans="1:18" ht="107.25" customHeight="1">
       <c r="A12" s="60" t="s">
@@ -6861,76 +6864,76 @@
       <c r="R14" s="77"/>
     </row>
     <row r="15" spans="1:18" ht="18" customHeight="1">
-      <c r="A15" s="252" t="s">
+      <c r="A15" s="259" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="253"/>
-      <c r="C15" s="253"/>
-      <c r="D15" s="253"/>
-      <c r="E15" s="253"/>
-      <c r="F15" s="253"/>
-      <c r="G15" s="253"/>
-      <c r="H15" s="253"/>
-      <c r="I15" s="253"/>
-      <c r="J15" s="253"/>
-      <c r="K15" s="253"/>
-      <c r="L15" s="253"/>
-      <c r="M15" s="253"/>
-      <c r="N15" s="253"/>
-      <c r="O15" s="253"/>
-      <c r="P15" s="253"/>
-      <c r="Q15" s="253"/>
-      <c r="R15" s="254"/>
+      <c r="B15" s="260"/>
+      <c r="C15" s="260"/>
+      <c r="D15" s="260"/>
+      <c r="E15" s="260"/>
+      <c r="F15" s="260"/>
+      <c r="G15" s="260"/>
+      <c r="H15" s="260"/>
+      <c r="I15" s="260"/>
+      <c r="J15" s="260"/>
+      <c r="K15" s="260"/>
+      <c r="L15" s="260"/>
+      <c r="M15" s="260"/>
+      <c r="N15" s="260"/>
+      <c r="O15" s="260"/>
+      <c r="P15" s="260"/>
+      <c r="Q15" s="260"/>
+      <c r="R15" s="261"/>
     </row>
     <row r="16" spans="1:18" ht="33" customHeight="1">
-      <c r="A16" s="258" t="s">
+      <c r="A16" s="253" t="s">
         <v>177</v>
       </c>
-      <c r="B16" s="258" t="s">
+      <c r="B16" s="253" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="258" t="s">
+      <c r="C16" s="253" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="258" t="s">
+      <c r="D16" s="253" t="s">
         <v>178</v>
       </c>
-      <c r="E16" s="255" t="s">
+      <c r="E16" s="257" t="s">
         <v>236</v>
       </c>
-      <c r="F16" s="256"/>
-      <c r="G16" s="257"/>
-      <c r="H16" s="258" t="s">
+      <c r="F16" s="262"/>
+      <c r="G16" s="258"/>
+      <c r="H16" s="253" t="s">
         <v>30</v>
       </c>
-      <c r="I16" s="260" t="s">
+      <c r="I16" s="255" t="s">
         <v>239</v>
       </c>
-      <c r="J16" s="261"/>
-      <c r="K16" s="255" t="s">
+      <c r="J16" s="256"/>
+      <c r="K16" s="257" t="s">
         <v>79</v>
       </c>
-      <c r="L16" s="257"/>
-      <c r="M16" s="255" t="s">
+      <c r="L16" s="258"/>
+      <c r="M16" s="257" t="s">
         <v>241</v>
       </c>
-      <c r="N16" s="257"/>
+      <c r="N16" s="258"/>
       <c r="O16" s="100" t="s">
         <v>243</v>
       </c>
-      <c r="P16" s="251" t="s">
+      <c r="P16" s="252" t="s">
         <v>242</v>
       </c>
-      <c r="Q16" s="251"/>
-      <c r="R16" s="212" t="s">
+      <c r="Q16" s="252"/>
+      <c r="R16" s="213" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="33" customHeight="1">
-      <c r="A17" s="259"/>
-      <c r="B17" s="259"/>
-      <c r="C17" s="259"/>
-      <c r="D17" s="259"/>
+      <c r="A17" s="254"/>
+      <c r="B17" s="254"/>
+      <c r="C17" s="254"/>
+      <c r="D17" s="254"/>
       <c r="E17" s="103" t="s">
         <v>233</v>
       </c>
@@ -6940,7 +6943,7 @@
       <c r="G17" s="103" t="s">
         <v>235</v>
       </c>
-      <c r="H17" s="259"/>
+      <c r="H17" s="254"/>
       <c r="I17" s="101" t="s">
         <v>140</v>
       </c>
@@ -6966,7 +6969,7 @@
       <c r="Q17" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="R17" s="212"/>
+      <c r="R17" s="213"/>
     </row>
     <row r="18" spans="1:18" ht="21" customHeight="1">
       <c r="A18" s="60" t="s">
@@ -7058,6 +7061,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A4:Q4"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A9:R9"/>
     <mergeCell ref="R10:R11"/>
     <mergeCell ref="R16:R17"/>
     <mergeCell ref="P16:Q16"/>
@@ -7074,15 +7086,6 @@
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="E16:G16"/>
     <mergeCell ref="H16:H17"/>
-    <mergeCell ref="A4:Q4"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="A9:R9"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K12:L14 K18:L21">
@@ -7136,33 +7139,33 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="23.25">
-      <c r="A3" s="176" t="str">
+      <c r="A3" s="177" t="str">
         <f>index!A1</f>
         <v>Especificação de Requisitos do SIOP (Sistema Integrado de Operações) - CSSFAA</v>
       </c>
-      <c r="B3" s="176"/>
-      <c r="C3" s="176"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="176"/>
-      <c r="F3" s="176"/>
-      <c r="G3" s="176"/>
-      <c r="H3" s="176"/>
-      <c r="I3" s="176"/>
-      <c r="J3" s="176"/>
+      <c r="B3" s="177"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="177"/>
+      <c r="F3" s="177"/>
+      <c r="G3" s="177"/>
+      <c r="H3" s="177"/>
+      <c r="I3" s="177"/>
+      <c r="J3" s="177"/>
     </row>
     <row r="4" spans="1:10" ht="23.25">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="178" t="s">
         <v>503</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
-      <c r="J4" s="177"/>
+      <c r="B4" s="178"/>
+      <c r="C4" s="178"/>
+      <c r="D4" s="178"/>
+      <c r="E4" s="178"/>
+      <c r="F4" s="178"/>
+      <c r="G4" s="178"/>
+      <c r="H4" s="178"/>
+      <c r="I4" s="178"/>
+      <c r="J4" s="178"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="38" t="s">
@@ -7181,33 +7184,33 @@
     </row>
     <row r="9" spans="1:10" ht="16.5" customHeight="1"/>
     <row r="10" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A10" s="265" t="s">
+      <c r="A10" s="266" t="s">
         <v>555</v>
       </c>
-      <c r="B10" s="265"/>
-      <c r="C10" s="265"/>
-      <c r="D10" s="265"/>
-      <c r="E10" s="265"/>
-      <c r="F10" s="265"/>
-      <c r="G10" s="265"/>
-      <c r="H10" s="265"/>
-      <c r="I10" s="265"/>
+      <c r="B10" s="266"/>
+      <c r="C10" s="266"/>
+      <c r="D10" s="266"/>
+      <c r="E10" s="266"/>
+      <c r="F10" s="266"/>
+      <c r="G10" s="266"/>
+      <c r="H10" s="266"/>
+      <c r="I10" s="266"/>
       <c r="J10" s="65"/>
     </row>
     <row r="11" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A11" s="266" t="s">
+      <c r="A11" s="267" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="266"/>
-      <c r="C11" s="266"/>
-      <c r="D11" s="267" t="s">
+      <c r="B11" s="267"/>
+      <c r="C11" s="267"/>
+      <c r="D11" s="268" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="267"/>
-      <c r="F11" s="267"/>
-      <c r="G11" s="267"/>
-      <c r="H11" s="267"/>
-      <c r="I11" s="267"/>
+      <c r="E11" s="268"/>
+      <c r="F11" s="268"/>
+      <c r="G11" s="268"/>
+      <c r="H11" s="268"/>
+      <c r="I11" s="268"/>
       <c r="J11" s="66"/>
     </row>
     <row r="12" spans="1:10" ht="16.5" customHeight="1">
@@ -7275,9 +7278,9 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="34.5" customHeight="1">
-      <c r="A14" s="262"/>
-      <c r="B14" s="263"/>
-      <c r="C14" s="264"/>
+      <c r="A14" s="263"/>
+      <c r="B14" s="264"/>
+      <c r="C14" s="265"/>
       <c r="D14" s="13">
         <v>2</v>
       </c>
@@ -7355,9 +7358,9 @@
       <c r="J16" s="12"/>
     </row>
     <row r="17" spans="1:10" ht="34.5" customHeight="1">
-      <c r="A17" s="262"/>
-      <c r="B17" s="263"/>
-      <c r="C17" s="264"/>
+      <c r="A17" s="263"/>
+      <c r="B17" s="264"/>
+      <c r="C17" s="265"/>
       <c r="D17" s="13" t="s">
         <v>95</v>
       </c>
@@ -7428,33 +7431,33 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="23.25">
-      <c r="A3" s="176" t="str">
+      <c r="A3" s="177" t="str">
         <f>index!A1</f>
         <v>Especificação de Requisitos do SIOP (Sistema Integrado de Operações) - CSSFAA</v>
       </c>
-      <c r="B3" s="176"/>
-      <c r="C3" s="176"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="176"/>
-      <c r="F3" s="176"/>
-      <c r="G3" s="176"/>
-      <c r="H3" s="176"/>
-      <c r="I3" s="176"/>
-      <c r="J3" s="176"/>
+      <c r="B3" s="177"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="177"/>
+      <c r="F3" s="177"/>
+      <c r="G3" s="177"/>
+      <c r="H3" s="177"/>
+      <c r="I3" s="177"/>
+      <c r="J3" s="177"/>
     </row>
     <row r="4" spans="1:10" ht="23.25">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="178" t="s">
         <v>505</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
-      <c r="J4" s="177"/>
+      <c r="B4" s="178"/>
+      <c r="C4" s="178"/>
+      <c r="D4" s="178"/>
+      <c r="E4" s="178"/>
+      <c r="F4" s="178"/>
+      <c r="G4" s="178"/>
+      <c r="H4" s="178"/>
+      <c r="I4" s="178"/>
+      <c r="J4" s="178"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="38" t="s">
@@ -7473,33 +7476,33 @@
     </row>
     <row r="9" spans="1:10" ht="16.5" customHeight="1"/>
     <row r="10" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A10" s="265" t="s">
+      <c r="A10" s="266" t="s">
         <v>133</v>
       </c>
-      <c r="B10" s="265"/>
-      <c r="C10" s="265"/>
-      <c r="D10" s="265"/>
-      <c r="E10" s="265"/>
-      <c r="F10" s="265"/>
-      <c r="G10" s="265"/>
-      <c r="H10" s="265"/>
-      <c r="I10" s="265"/>
+      <c r="B10" s="266"/>
+      <c r="C10" s="266"/>
+      <c r="D10" s="266"/>
+      <c r="E10" s="266"/>
+      <c r="F10" s="266"/>
+      <c r="G10" s="266"/>
+      <c r="H10" s="266"/>
+      <c r="I10" s="266"/>
       <c r="J10" s="65"/>
     </row>
     <row r="11" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A11" s="266" t="s">
+      <c r="A11" s="267" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="266"/>
-      <c r="C11" s="266"/>
-      <c r="D11" s="267" t="s">
+      <c r="B11" s="267"/>
+      <c r="C11" s="267"/>
+      <c r="D11" s="268" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="267"/>
-      <c r="F11" s="267"/>
-      <c r="G11" s="267"/>
-      <c r="H11" s="267"/>
-      <c r="I11" s="267"/>
+      <c r="E11" s="268"/>
+      <c r="F11" s="268"/>
+      <c r="G11" s="268"/>
+      <c r="H11" s="268"/>
+      <c r="I11" s="268"/>
       <c r="J11" s="66"/>
     </row>
     <row r="12" spans="1:10" ht="16.5" customHeight="1">
@@ -7567,9 +7570,9 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="34.5" customHeight="1">
-      <c r="A14" s="262"/>
-      <c r="B14" s="263"/>
-      <c r="C14" s="264"/>
+      <c r="A14" s="263"/>
+      <c r="B14" s="264"/>
+      <c r="C14" s="265"/>
       <c r="D14" s="13">
         <v>2</v>
       </c>
@@ -7647,9 +7650,9 @@
       <c r="J16" s="12"/>
     </row>
     <row r="17" spans="1:10" ht="34.5" customHeight="1">
-      <c r="A17" s="262"/>
-      <c r="B17" s="263"/>
-      <c r="C17" s="264"/>
+      <c r="A17" s="263"/>
+      <c r="B17" s="264"/>
+      <c r="C17" s="265"/>
       <c r="D17" s="13" t="s">
         <v>95</v>
       </c>
@@ -7721,12 +7724,12 @@
         <v>Especificação de Requisitos do SIOP (Sistema Integrado de Operações) - CSSFAA</v>
       </c>
       <c r="B3" s="48"/>
-      <c r="C3" s="161" t="s">
+      <c r="C3" s="162" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="164"/>
       <c r="H3" s="2" t="s">
         <v>388</v>
       </c>
@@ -7742,10 +7745,10 @@
         <v>96</v>
       </c>
       <c r="B4" s="74"/>
-      <c r="C4" s="164"/>
-      <c r="D4" s="165"/>
-      <c r="E4" s="165"/>
-      <c r="F4" s="166"/>
+      <c r="C4" s="165"/>
+      <c r="D4" s="166"/>
+      <c r="E4" s="166"/>
+      <c r="F4" s="167"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="17" t="s">
@@ -8258,18 +8261,18 @@
       <c r="A41" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="159"/>
-      <c r="C41" s="160"/>
-      <c r="D41" s="160"/>
-      <c r="E41" s="160"/>
-      <c r="F41" s="160"/>
-      <c r="G41" s="160"/>
-      <c r="H41" s="160"/>
-      <c r="I41" s="160"/>
-      <c r="J41" s="160"/>
-      <c r="K41" s="160"/>
-      <c r="L41" s="160"/>
-      <c r="M41" s="160"/>
+      <c r="B41" s="160"/>
+      <c r="C41" s="161"/>
+      <c r="D41" s="161"/>
+      <c r="E41" s="161"/>
+      <c r="F41" s="161"/>
+      <c r="G41" s="161"/>
+      <c r="H41" s="161"/>
+      <c r="I41" s="161"/>
+      <c r="J41" s="161"/>
+      <c r="K41" s="161"/>
+      <c r="L41" s="161"/>
+      <c r="M41" s="161"/>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="5" t="s">
@@ -8377,14 +8380,14 @@
       <c r="A49" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B49" s="171"/>
-      <c r="C49" s="172"/>
-      <c r="D49" s="172"/>
-      <c r="E49" s="172"/>
-      <c r="F49" s="172"/>
-      <c r="G49" s="172"/>
-      <c r="H49" s="172"/>
-      <c r="I49" s="172"/>
+      <c r="B49" s="172"/>
+      <c r="C49" s="173"/>
+      <c r="D49" s="173"/>
+      <c r="E49" s="173"/>
+      <c r="F49" s="173"/>
+      <c r="G49" s="173"/>
+      <c r="H49" s="173"/>
+      <c r="I49" s="173"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="5" t="s">
@@ -8432,12 +8435,12 @@
       <c r="A54" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B54" s="157"/>
-      <c r="C54" s="158"/>
-      <c r="D54" s="158"/>
-      <c r="E54" s="158"/>
-      <c r="F54" s="158"/>
-      <c r="G54" s="158"/>
+      <c r="B54" s="158"/>
+      <c r="C54" s="159"/>
+      <c r="D54" s="159"/>
+      <c r="E54" s="159"/>
+      <c r="F54" s="159"/>
+      <c r="G54" s="159"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="51" t="s">
@@ -8466,10 +8469,10 @@
       <c r="A57" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B57" s="159"/>
-      <c r="C57" s="160"/>
-      <c r="D57" s="160"/>
-      <c r="E57" s="170"/>
+      <c r="B57" s="160"/>
+      <c r="C57" s="161"/>
+      <c r="D57" s="161"/>
+      <c r="E57" s="171"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="51" t="s">
@@ -8512,13 +8515,13 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="167" t="s">
+      <c r="A62" s="168" t="s">
         <v>32</v>
       </c>
-      <c r="B62" s="168"/>
-      <c r="C62" s="168"/>
-      <c r="D62" s="168"/>
-      <c r="E62" s="169"/>
+      <c r="B62" s="169"/>
+      <c r="C62" s="169"/>
+      <c r="D62" s="169"/>
+      <c r="E62" s="170"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="2"/>
@@ -8575,13 +8578,13 @@
       <c r="E66" s="2"/>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="167" t="s">
+      <c r="A67" s="168" t="s">
         <v>24</v>
       </c>
-      <c r="B67" s="168"/>
-      <c r="C67" s="168"/>
-      <c r="D67" s="168"/>
-      <c r="E67" s="169"/>
+      <c r="B67" s="169"/>
+      <c r="C67" s="169"/>
+      <c r="D67" s="169"/>
+      <c r="E67" s="170"/>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="2" t="s">
@@ -8870,37 +8873,37 @@
       <c r="A2" s="41"/>
     </row>
     <row r="3" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A3" s="176" t="str">
+      <c r="A3" s="177" t="str">
         <f>index!A1</f>
         <v>Especificação de Requisitos do SIOP (Sistema Integrado de Operações) - CSSFAA</v>
       </c>
-      <c r="B3" s="176"/>
-      <c r="C3" s="176"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="176"/>
-      <c r="F3" s="176"/>
-      <c r="G3" s="176"/>
-      <c r="H3" s="176"/>
-      <c r="I3" s="176"/>
-      <c r="J3" s="176"/>
-      <c r="K3" s="176"/>
-      <c r="L3" s="176"/>
+      <c r="B3" s="177"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="177"/>
+      <c r="F3" s="177"/>
+      <c r="G3" s="177"/>
+      <c r="H3" s="177"/>
+      <c r="I3" s="177"/>
+      <c r="J3" s="177"/>
+      <c r="K3" s="177"/>
+      <c r="L3" s="177"/>
     </row>
     <row r="4" spans="1:12" ht="23.25">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="178" t="s">
         <v>469</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
-      <c r="J4" s="177"/>
-      <c r="K4" s="177"/>
-      <c r="L4" s="177"/>
+      <c r="B4" s="178"/>
+      <c r="C4" s="178"/>
+      <c r="D4" s="178"/>
+      <c r="E4" s="178"/>
+      <c r="F4" s="178"/>
+      <c r="G4" s="178"/>
+      <c r="H4" s="178"/>
+      <c r="I4" s="178"/>
+      <c r="J4" s="178"/>
+      <c r="K4" s="178"/>
+      <c r="L4" s="178"/>
     </row>
     <row r="5" spans="1:12" ht="43.5" customHeight="1">
       <c r="A5" s="41"/>
@@ -8910,24 +8913,24 @@
       <c r="H5" s="128"/>
     </row>
     <row r="6" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A6" s="181"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="183"/>
-      <c r="E6" s="175" t="s">
+      <c r="A6" s="182"/>
+      <c r="B6" s="183"/>
+      <c r="C6" s="183"/>
+      <c r="D6" s="184"/>
+      <c r="E6" s="176" t="s">
         <v>486</v>
       </c>
-      <c r="F6" s="175"/>
-      <c r="G6" s="175" t="s">
+      <c r="F6" s="176"/>
+      <c r="G6" s="176" t="s">
         <v>489</v>
       </c>
-      <c r="H6" s="175"/>
-      <c r="I6" s="180" t="s">
+      <c r="H6" s="176"/>
+      <c r="I6" s="181" t="s">
         <v>490</v>
       </c>
-      <c r="J6" s="180"/>
-      <c r="K6" s="180"/>
-      <c r="L6" s="268"/>
+      <c r="J6" s="181"/>
+      <c r="K6" s="181"/>
+      <c r="L6" s="156"/>
     </row>
     <row r="7" spans="1:12" ht="31.5">
       <c r="A7" s="26" t="s">
@@ -8963,7 +8966,7 @@
       <c r="K7" s="26" t="s">
         <v>493</v>
       </c>
-      <c r="L7" s="152" t="s">
+      <c r="L7" s="151" t="s">
         <v>773</v>
       </c>
     </row>
@@ -9005,69 +9008,69 @@
     </row>
     <row r="9" spans="1:12" ht="46.5" customHeight="1"/>
     <row r="10" spans="1:12" ht="21" customHeight="1">
-      <c r="A10" s="178" t="s">
+      <c r="A10" s="179" t="s">
         <v>560</v>
       </c>
-      <c r="B10" s="179"/>
-      <c r="C10" s="179"/>
-      <c r="D10" s="179"/>
-      <c r="E10" s="179"/>
-      <c r="F10" s="179"/>
-      <c r="G10" s="179"/>
-      <c r="H10" s="179"/>
-      <c r="I10" s="179"/>
-      <c r="J10" s="179"/>
-      <c r="K10" s="179"/>
-      <c r="L10" s="179"/>
+      <c r="B10" s="180"/>
+      <c r="C10" s="180"/>
+      <c r="D10" s="180"/>
+      <c r="E10" s="180"/>
+      <c r="F10" s="180"/>
+      <c r="G10" s="180"/>
+      <c r="H10" s="180"/>
+      <c r="I10" s="180"/>
+      <c r="J10" s="180"/>
+      <c r="K10" s="180"/>
+      <c r="L10" s="180"/>
     </row>
     <row r="11" spans="1:12" ht="94.5" customHeight="1">
-      <c r="A11" s="173" t="s">
+      <c r="A11" s="174" t="s">
         <v>562</v>
       </c>
-      <c r="B11" s="174"/>
-      <c r="C11" s="174"/>
-      <c r="D11" s="174"/>
-      <c r="E11" s="174"/>
-      <c r="F11" s="174"/>
-      <c r="G11" s="174"/>
-      <c r="H11" s="174"/>
-      <c r="I11" s="174"/>
-      <c r="J11" s="174"/>
-      <c r="K11" s="174"/>
-      <c r="L11" s="174"/>
+      <c r="B11" s="175"/>
+      <c r="C11" s="175"/>
+      <c r="D11" s="175"/>
+      <c r="E11" s="175"/>
+      <c r="F11" s="175"/>
+      <c r="G11" s="175"/>
+      <c r="H11" s="175"/>
+      <c r="I11" s="175"/>
+      <c r="J11" s="175"/>
+      <c r="K11" s="175"/>
+      <c r="L11" s="175"/>
     </row>
     <row r="12" spans="1:12" ht="21" customHeight="1"/>
     <row r="13" spans="1:12" ht="21" customHeight="1">
-      <c r="A13" s="178" t="s">
+      <c r="A13" s="179" t="s">
         <v>561</v>
       </c>
-      <c r="B13" s="179"/>
-      <c r="C13" s="179"/>
-      <c r="D13" s="179"/>
-      <c r="E13" s="179"/>
-      <c r="F13" s="179"/>
-      <c r="G13" s="179"/>
-      <c r="H13" s="179"/>
-      <c r="I13" s="179"/>
-      <c r="J13" s="179"/>
-      <c r="K13" s="179"/>
-      <c r="L13" s="179"/>
+      <c r="B13" s="180"/>
+      <c r="C13" s="180"/>
+      <c r="D13" s="180"/>
+      <c r="E13" s="180"/>
+      <c r="F13" s="180"/>
+      <c r="G13" s="180"/>
+      <c r="H13" s="180"/>
+      <c r="I13" s="180"/>
+      <c r="J13" s="180"/>
+      <c r="K13" s="180"/>
+      <c r="L13" s="180"/>
     </row>
     <row r="14" spans="1:12" ht="249.75" customHeight="1">
-      <c r="A14" s="173" t="s">
+      <c r="A14" s="174" t="s">
         <v>563</v>
       </c>
-      <c r="B14" s="174"/>
-      <c r="C14" s="174"/>
-      <c r="D14" s="174"/>
-      <c r="E14" s="174"/>
-      <c r="F14" s="174"/>
-      <c r="G14" s="174"/>
-      <c r="H14" s="174"/>
-      <c r="I14" s="174"/>
-      <c r="J14" s="174"/>
-      <c r="K14" s="174"/>
-      <c r="L14" s="174"/>
+      <c r="B14" s="175"/>
+      <c r="C14" s="175"/>
+      <c r="D14" s="175"/>
+      <c r="E14" s="175"/>
+      <c r="F14" s="175"/>
+      <c r="G14" s="175"/>
+      <c r="H14" s="175"/>
+      <c r="I14" s="175"/>
+      <c r="J14" s="175"/>
+      <c r="K14" s="175"/>
+      <c r="L14" s="175"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -9141,15 +9144,15 @@
       <c r="G3" s="46"/>
     </row>
     <row r="4" spans="1:7" ht="23.25">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="178" t="s">
         <v>496</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
+      <c r="B4" s="178"/>
+      <c r="C4" s="178"/>
+      <c r="D4" s="178"/>
+      <c r="E4" s="178"/>
+      <c r="F4" s="178"/>
+      <c r="G4" s="178"/>
     </row>
     <row r="5" spans="1:7" ht="47.25" customHeight="1">
       <c r="A5" s="41"/>
@@ -9505,15 +9508,15 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="43.5" customHeight="1">
-      <c r="A21" s="184" t="s">
+      <c r="A21" s="185" t="s">
         <v>415</v>
       </c>
-      <c r="B21" s="185"/>
-      <c r="C21" s="185"/>
-      <c r="D21" s="185"/>
-      <c r="E21" s="185"/>
-      <c r="F21" s="185"/>
-      <c r="G21" s="186"/>
+      <c r="B21" s="186"/>
+      <c r="C21" s="186"/>
+      <c r="D21" s="186"/>
+      <c r="E21" s="186"/>
+      <c r="F21" s="186"/>
+      <c r="G21" s="187"/>
     </row>
     <row r="22" spans="1:7" ht="45">
       <c r="A22" s="10" t="s">
@@ -9637,29 +9640,29 @@
       <c r="E3" s="110"/>
     </row>
     <row r="4" spans="1:5" ht="23.25">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="178" t="s">
         <v>786</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
+      <c r="B4" s="178"/>
+      <c r="C4" s="178"/>
+      <c r="D4" s="178"/>
+      <c r="E4" s="178"/>
     </row>
     <row r="5" spans="1:5" ht="34.5" customHeight="1">
       <c r="A5" s="41"/>
     </row>
     <row r="6" spans="1:5" ht="31.5" customHeight="1">
-      <c r="A6" s="189" t="s">
+      <c r="A6" s="190" t="s">
         <v>385</v>
       </c>
-      <c r="B6" s="190"/>
-      <c r="C6" s="187" t="s">
+      <c r="B6" s="191"/>
+      <c r="C6" s="188" t="s">
         <v>421</v>
       </c>
-      <c r="D6" s="187" t="s">
+      <c r="D6" s="188" t="s">
         <v>422</v>
       </c>
-      <c r="E6" s="187" t="s">
+      <c r="E6" s="188" t="s">
         <v>3</v>
       </c>
     </row>
@@ -9670,9 +9673,9 @@
       <c r="B7" s="79" t="s">
         <v>420</v>
       </c>
-      <c r="C7" s="188"/>
-      <c r="D7" s="188"/>
-      <c r="E7" s="188"/>
+      <c r="C7" s="189"/>
+      <c r="D7" s="189"/>
+      <c r="E7" s="189"/>
     </row>
     <row r="8" spans="1:5" s="49" customFormat="1" ht="38.25" customHeight="1">
       <c r="A8" s="120" t="str">
@@ -9843,7 +9846,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -9873,29 +9876,29 @@
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="23.25">
-      <c r="A2" s="176" t="str">
+      <c r="A2" s="177" t="str">
         <f>index!A1</f>
         <v>Especificação de Requisitos do SIOP (Sistema Integrado de Operações) - CSSFAA</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
+      <c r="B2" s="177"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="177"/>
+      <c r="F2" s="177"/>
+      <c r="G2" s="177"/>
+      <c r="H2" s="177"/>
     </row>
     <row r="3" spans="1:8" ht="23.25">
-      <c r="A3" s="177" t="s">
+      <c r="A3" s="178" t="s">
         <v>497</v>
       </c>
-      <c r="B3" s="177"/>
-      <c r="C3" s="177"/>
-      <c r="D3" s="177"/>
-      <c r="E3" s="177"/>
-      <c r="F3" s="177"/>
-      <c r="G3" s="177"/>
-      <c r="H3" s="177"/>
+      <c r="B3" s="178"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="178"/>
+      <c r="G3" s="178"/>
+      <c r="H3" s="178"/>
     </row>
     <row r="4" spans="1:8" ht="45.75" customHeight="1"/>
     <row r="5" spans="1:8">
@@ -9925,16 +9928,16 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A6" s="191" t="s">
+      <c r="A6" s="192" t="s">
         <v>366</v>
       </c>
-      <c r="B6" s="192"/>
-      <c r="C6" s="192"/>
-      <c r="D6" s="192"/>
-      <c r="E6" s="192"/>
-      <c r="F6" s="192"/>
-      <c r="G6" s="192"/>
-      <c r="H6" s="192"/>
+      <c r="B6" s="193"/>
+      <c r="C6" s="193"/>
+      <c r="D6" s="193"/>
+      <c r="E6" s="193"/>
+      <c r="F6" s="193"/>
+      <c r="G6" s="193"/>
+      <c r="H6" s="193"/>
     </row>
     <row r="7" spans="1:8" ht="86.25" customHeight="1">
       <c r="A7" s="15" t="s">
@@ -10078,16 +10081,16 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A13" s="193" t="s">
+      <c r="A13" s="194" t="s">
         <v>372</v>
       </c>
-      <c r="B13" s="194"/>
-      <c r="C13" s="194"/>
-      <c r="D13" s="194"/>
-      <c r="E13" s="194"/>
-      <c r="F13" s="194"/>
-      <c r="G13" s="194"/>
-      <c r="H13" s="194"/>
+      <c r="B13" s="195"/>
+      <c r="C13" s="195"/>
+      <c r="D13" s="195"/>
+      <c r="E13" s="195"/>
+      <c r="F13" s="195"/>
+      <c r="G13" s="195"/>
+      <c r="H13" s="195"/>
     </row>
     <row r="14" spans="1:8" ht="60">
       <c r="A14" s="15" t="s">
@@ -10414,16 +10417,16 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="30.75" customHeight="1">
-      <c r="A28" s="193" t="s">
+      <c r="A28" s="194" t="s">
         <v>371</v>
       </c>
-      <c r="B28" s="194"/>
-      <c r="C28" s="194"/>
-      <c r="D28" s="194"/>
-      <c r="E28" s="194"/>
-      <c r="F28" s="194"/>
-      <c r="G28" s="194"/>
-      <c r="H28" s="194"/>
+      <c r="B28" s="195"/>
+      <c r="C28" s="195"/>
+      <c r="D28" s="195"/>
+      <c r="E28" s="195"/>
+      <c r="F28" s="195"/>
+      <c r="G28" s="195"/>
+      <c r="H28" s="195"/>
     </row>
     <row r="29" spans="1:8" ht="45">
       <c r="A29" s="15" t="s">
@@ -10854,26 +10857,26 @@
     </row>
     <row r="2" spans="1:7" ht="10.5" customHeight="1"/>
     <row r="3" spans="1:7" ht="29.25" customHeight="1">
-      <c r="A3" s="176" t="str">
+      <c r="A3" s="177" t="str">
         <f>index!A1</f>
         <v>Especificação de Requisitos do SIOP (Sistema Integrado de Operações) - CSSFAA</v>
       </c>
-      <c r="B3" s="176"/>
-      <c r="C3" s="176"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="176"/>
-      <c r="F3" s="176"/>
+      <c r="B3" s="177"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="177"/>
+      <c r="F3" s="177"/>
       <c r="G3" s="111"/>
     </row>
     <row r="4" spans="1:7" ht="29.25" customHeight="1">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="178" t="s">
         <v>498</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
+      <c r="B4" s="178"/>
+      <c r="C4" s="178"/>
+      <c r="D4" s="178"/>
+      <c r="E4" s="178"/>
+      <c r="F4" s="178"/>
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:7" ht="39" customHeight="1"/>
@@ -10901,14 +10904,14 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="29.25" customHeight="1">
-      <c r="A7" s="193" t="s">
+      <c r="A7" s="194" t="s">
         <v>366</v>
       </c>
-      <c r="B7" s="194"/>
-      <c r="C7" s="194"/>
-      <c r="D7" s="194"/>
-      <c r="E7" s="194"/>
-      <c r="F7" s="195"/>
+      <c r="B7" s="195"/>
+      <c r="C7" s="195"/>
+      <c r="D7" s="195"/>
+      <c r="E7" s="195"/>
+      <c r="F7" s="196"/>
       <c r="G7" s="124"/>
     </row>
     <row r="8" spans="1:7" ht="30.75" customHeight="1">
@@ -11038,14 +11041,14 @@
       <c r="G13" s="15"/>
     </row>
     <row r="14" spans="1:7" ht="29.25" customHeight="1">
-      <c r="A14" s="193" t="s">
+      <c r="A14" s="194" t="s">
         <v>364</v>
       </c>
-      <c r="B14" s="194"/>
-      <c r="C14" s="194"/>
-      <c r="D14" s="194"/>
-      <c r="E14" s="194"/>
-      <c r="F14" s="195"/>
+      <c r="B14" s="195"/>
+      <c r="C14" s="195"/>
+      <c r="D14" s="195"/>
+      <c r="E14" s="195"/>
+      <c r="F14" s="196"/>
       <c r="G14" s="124"/>
     </row>
     <row r="15" spans="1:7" ht="22.5" customHeight="1">
@@ -11222,14 +11225,14 @@
       <c r="G22" s="25"/>
     </row>
     <row r="23" spans="1:7" ht="29.25" customHeight="1">
-      <c r="A23" s="193" t="s">
+      <c r="A23" s="194" t="s">
         <v>365</v>
       </c>
-      <c r="B23" s="194"/>
-      <c r="C23" s="194"/>
-      <c r="D23" s="194"/>
-      <c r="E23" s="194"/>
-      <c r="F23" s="195"/>
+      <c r="B23" s="195"/>
+      <c r="C23" s="195"/>
+      <c r="D23" s="195"/>
+      <c r="E23" s="195"/>
+      <c r="F23" s="196"/>
       <c r="G23" s="124"/>
     </row>
     <row r="24" spans="1:7" ht="31.5" customHeight="1">
@@ -11412,10 +11415,10 @@
   <sheetPr codeName="Sheet7">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N99"/>
+  <dimension ref="A1:N97"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11439,29 +11442,29 @@
     </row>
     <row r="2" spans="1:14" ht="11.25" customHeight="1"/>
     <row r="3" spans="1:14" ht="29.25" customHeight="1">
-      <c r="A3" s="176" t="str">
+      <c r="A3" s="177" t="str">
         <f>index!A1</f>
         <v>Especificação de Requisitos do SIOP (Sistema Integrado de Operações) - CSSFAA</v>
       </c>
-      <c r="B3" s="176"/>
-      <c r="C3" s="176"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="176"/>
-      <c r="F3" s="176"/>
-      <c r="G3" s="176"/>
-      <c r="H3" s="176"/>
+      <c r="B3" s="177"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="177"/>
+      <c r="F3" s="177"/>
+      <c r="G3" s="177"/>
+      <c r="H3" s="177"/>
     </row>
     <row r="4" spans="1:14" ht="23.25">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="178" t="s">
         <v>499</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
+      <c r="B4" s="178"/>
+      <c r="C4" s="178"/>
+      <c r="D4" s="178"/>
+      <c r="E4" s="178"/>
+      <c r="F4" s="178"/>
+      <c r="G4" s="178"/>
+      <c r="H4" s="178"/>
     </row>
     <row r="5" spans="1:14" ht="18.75" customHeight="1"/>
     <row r="6" spans="1:14" ht="13.5" customHeight="1">
@@ -11471,28 +11474,28 @@
       <c r="B6" s="200"/>
     </row>
     <row r="7" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A7" s="197" t="s">
+      <c r="A7" s="203" t="s">
         <v>605</v>
       </c>
-      <c r="B7" s="197"/>
-      <c r="C7" s="196"/>
-      <c r="D7" s="196"/>
+      <c r="B7" s="203"/>
+      <c r="C7" s="202"/>
+      <c r="D7" s="202"/>
       <c r="E7" s="76"/>
     </row>
     <row r="8" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A8" s="198" t="s">
+      <c r="A8" s="204" t="s">
         <v>606</v>
       </c>
-      <c r="B8" s="198"/>
-      <c r="C8" s="196"/>
-      <c r="D8" s="196"/>
+      <c r="B8" s="204"/>
+      <c r="C8" s="202"/>
+      <c r="D8" s="202"/>
       <c r="E8" s="76"/>
     </row>
     <row r="9" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A9" s="202" t="s">
+      <c r="A9" s="198" t="s">
         <v>607</v>
       </c>
-      <c r="B9" s="202"/>
+      <c r="B9" s="198"/>
       <c r="C9" s="113"/>
       <c r="D9" s="113"/>
       <c r="E9" s="113"/>
@@ -11528,65 +11531,65 @@
       <c r="G12" s="137" t="s">
         <v>565</v>
       </c>
-      <c r="H12" s="269" t="s">
+      <c r="H12" s="157" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="33.75" customHeight="1">
-      <c r="A13" s="201" t="s">
+      <c r="A13" s="197" t="s">
         <v>613</v>
       </c>
-      <c r="B13" s="201"/>
-      <c r="C13" s="201"/>
-      <c r="D13" s="201"/>
-      <c r="E13" s="201"/>
-      <c r="F13" s="201"/>
-      <c r="G13" s="201"/>
-      <c r="H13" s="152"/>
+      <c r="B13" s="197"/>
+      <c r="C13" s="197"/>
+      <c r="D13" s="197"/>
+      <c r="E13" s="197"/>
+      <c r="F13" s="197"/>
+      <c r="G13" s="197"/>
+      <c r="H13" s="269"/>
     </row>
     <row r="14" spans="1:14" ht="50.25" customHeight="1">
-      <c r="A14" s="147" t="s">
+      <c r="A14" s="146" t="s">
         <v>568</v>
       </c>
-      <c r="B14" s="146" t="s">
+      <c r="B14" s="145" t="s">
         <v>625</v>
       </c>
-      <c r="C14" s="144" t="s">
+      <c r="C14" s="143" t="s">
         <v>601</v>
       </c>
-      <c r="D14" s="144" t="str">
+      <c r="D14" s="143" t="str">
         <f>stakeholders!A$21</f>
         <v>stk.administradorsistema</v>
       </c>
-      <c r="E14" s="144" t="s">
+      <c r="E14" s="143" t="s">
         <v>254</v>
       </c>
-      <c r="F14" s="145"/>
-      <c r="G14" s="145"/>
+      <c r="F14" s="144"/>
+      <c r="G14" s="144"/>
       <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:14" ht="44.25" customHeight="1">
-      <c r="A15" s="140" t="s">
+      <c r="A15" s="139" t="s">
         <v>569</v>
       </c>
-      <c r="B15" s="140" t="s">
+      <c r="B15" s="139" t="s">
         <v>567</v>
       </c>
-      <c r="C15" s="140" t="s">
+      <c r="C15" s="139" t="s">
         <v>610</v>
       </c>
-      <c r="D15" s="140" t="str">
+      <c r="D15" s="139" t="str">
         <f>stakeholders!A$21</f>
         <v>stk.administradorsistema</v>
       </c>
-      <c r="E15" s="140" t="s">
+      <c r="E15" s="139" t="s">
         <v>254</v>
       </c>
-      <c r="F15" s="141" t="str">
+      <c r="F15" s="140" t="str">
         <f>A14</f>
         <v>G.CC</v>
       </c>
-      <c r="G15" s="141"/>
+      <c r="G15" s="140"/>
       <c r="H15" s="14"/>
       <c r="I15" s="23"/>
       <c r="J15" s="23"/>
@@ -11677,7 +11680,7 @@
         <v>G.CC.1</v>
       </c>
       <c r="G18" s="18"/>
-      <c r="H18" s="154" t="s">
+      <c r="H18" s="153" t="s">
         <v>778</v>
       </c>
       <c r="I18" s="23"/>
@@ -11688,26 +11691,26 @@
       <c r="N18" s="23"/>
     </row>
     <row r="19" spans="1:14" ht="44.25" customHeight="1">
-      <c r="A19" s="142" t="s">
+      <c r="A19" s="141" t="s">
         <v>570</v>
       </c>
-      <c r="B19" s="142" t="s">
+      <c r="B19" s="141" t="s">
         <v>572</v>
       </c>
-      <c r="C19" s="142" t="s">
+      <c r="C19" s="141" t="s">
         <v>573</v>
       </c>
-      <c r="D19" s="142" t="s">
+      <c r="D19" s="141" t="s">
         <v>350</v>
       </c>
-      <c r="E19" s="142" t="s">
+      <c r="E19" s="141" t="s">
         <v>254</v>
       </c>
-      <c r="F19" s="143" t="str">
+      <c r="F19" s="142" t="str">
         <f>A14</f>
         <v>G.CC</v>
       </c>
-      <c r="G19" s="143"/>
+      <c r="G19" s="142"/>
       <c r="H19" s="14"/>
       <c r="I19" s="23"/>
       <c r="J19" s="23"/>
@@ -11804,27 +11807,27 @@
       <c r="N22" s="23"/>
     </row>
     <row r="23" spans="1:14" ht="36" customHeight="1">
-      <c r="A23" s="142" t="s">
+      <c r="A23" s="141" t="s">
         <v>571</v>
       </c>
-      <c r="B23" s="142" t="s">
+      <c r="B23" s="141" t="s">
         <v>583</v>
       </c>
-      <c r="C23" s="142" t="s">
+      <c r="C23" s="141" t="s">
         <v>584</v>
       </c>
-      <c r="D23" s="142" t="s">
+      <c r="D23" s="141" t="s">
         <v>350</v>
       </c>
-      <c r="E23" s="142" t="s">
+      <c r="E23" s="141" t="s">
         <v>255</v>
       </c>
-      <c r="F23" s="143" t="str">
+      <c r="F23" s="142" t="str">
         <f>A14</f>
         <v>G.CC</v>
       </c>
-      <c r="G23" s="143"/>
-      <c r="H23" s="155" t="s">
+      <c r="G23" s="142"/>
+      <c r="H23" s="154" t="s">
         <v>779</v>
       </c>
     </row>
@@ -11849,7 +11852,7 @@
         <v>G.CC.3</v>
       </c>
       <c r="G24" s="18"/>
-      <c r="H24" s="155" t="s">
+      <c r="H24" s="154" t="s">
         <v>779</v>
       </c>
     </row>
@@ -11874,7 +11877,7 @@
         <v>G.CC.3</v>
       </c>
       <c r="G25" s="18"/>
-      <c r="H25" s="155" t="s">
+      <c r="H25" s="154" t="s">
         <v>779</v>
       </c>
     </row>
@@ -11899,7 +11902,7 @@
         <v>G.CC.3</v>
       </c>
       <c r="G26" s="18"/>
-      <c r="H26" s="155" t="s">
+      <c r="H26" s="154" t="s">
         <v>779</v>
       </c>
     </row>
@@ -11924,7 +11927,7 @@
         <v>G.CC.3.1</v>
       </c>
       <c r="G27" s="18"/>
-      <c r="H27" s="155" t="s">
+      <c r="H27" s="154" t="s">
         <v>779</v>
       </c>
     </row>
@@ -11949,40 +11952,40 @@
         <v>G.CC.3.1</v>
       </c>
       <c r="G28" s="18"/>
-      <c r="H28" s="155" t="s">
+      <c r="H28" s="154" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="33.75" customHeight="1">
-      <c r="A29" s="201" t="s">
+      <c r="A29" s="197" t="s">
         <v>705</v>
       </c>
-      <c r="B29" s="201"/>
-      <c r="C29" s="201"/>
-      <c r="D29" s="201"/>
-      <c r="E29" s="201"/>
-      <c r="F29" s="201"/>
-      <c r="G29" s="201"/>
-      <c r="H29" s="14"/>
+      <c r="B29" s="197"/>
+      <c r="C29" s="197"/>
+      <c r="D29" s="197"/>
+      <c r="E29" s="197"/>
+      <c r="F29" s="197"/>
+      <c r="G29" s="197"/>
+      <c r="H29" s="269"/>
     </row>
     <row r="30" spans="1:14" ht="50.25" customHeight="1">
-      <c r="A30" s="144" t="s">
+      <c r="A30" s="143" t="s">
         <v>600</v>
       </c>
-      <c r="B30" s="147" t="s">
+      <c r="B30" s="146" t="s">
         <v>614</v>
       </c>
-      <c r="C30" s="144" t="s">
+      <c r="C30" s="143" t="s">
         <v>687</v>
       </c>
-      <c r="D30" s="144" t="s">
+      <c r="D30" s="143" t="s">
         <v>350</v>
       </c>
-      <c r="E30" s="144" t="s">
+      <c r="E30" s="143" t="s">
         <v>255</v>
       </c>
-      <c r="F30" s="145"/>
-      <c r="G30" s="145"/>
+      <c r="F30" s="144"/>
+      <c r="G30" s="144"/>
       <c r="H30" s="14"/>
     </row>
     <row r="31" spans="1:14" ht="66.75" customHeight="1">
@@ -12006,7 +12009,7 @@
         <v>G.SA</v>
       </c>
       <c r="G31" s="18"/>
-      <c r="H31" s="154" t="s">
+      <c r="H31" s="153" t="s">
         <v>778</v>
       </c>
       <c r="I31" s="23"/>
@@ -12037,7 +12040,7 @@
         <v>G.SA</v>
       </c>
       <c r="G32" s="18"/>
-      <c r="H32" s="154" t="s">
+      <c r="H32" s="153" t="s">
         <v>778</v>
       </c>
       <c r="I32" s="23"/>
@@ -12097,7 +12100,7 @@
         <v>G.SA</v>
       </c>
       <c r="G34" s="18"/>
-      <c r="H34" s="153" t="s">
+      <c r="H34" s="152" t="s">
         <v>777</v>
       </c>
       <c r="I34" s="23"/>
@@ -12128,7 +12131,7 @@
         <v>G.SA</v>
       </c>
       <c r="G35" s="18"/>
-      <c r="H35" s="154" t="s">
+      <c r="H35" s="153" t="s">
         <v>778</v>
       </c>
       <c r="I35" s="23"/>
@@ -12188,7 +12191,7 @@
         <v>G.SA.4</v>
       </c>
       <c r="G37" s="18"/>
-      <c r="H37" s="153" t="s">
+      <c r="H37" s="152" t="s">
         <v>777</v>
       </c>
       <c r="I37" s="23"/>
@@ -12219,7 +12222,7 @@
         <v>G.SA.4</v>
       </c>
       <c r="G38" s="18"/>
-      <c r="H38" s="153" t="s">
+      <c r="H38" s="152" t="s">
         <v>777</v>
       </c>
       <c r="I38" s="23"/>
@@ -12258,72 +12261,91 @@
       <c r="M39" s="23"/>
       <c r="N39" s="23"/>
     </row>
-    <row r="40" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A40" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="138"/>
-      <c r="E40" s="139"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="14"/>
-    </row>
-    <row r="41" spans="1:14" ht="33.75" customHeight="1">
-      <c r="A41" s="201" t="s">
+    <row r="40" spans="1:14" ht="33.75" customHeight="1">
+      <c r="A40" s="197" t="s">
         <v>695</v>
       </c>
-      <c r="B41" s="201"/>
-      <c r="C41" s="201"/>
-      <c r="D41" s="201"/>
-      <c r="E41" s="201"/>
-      <c r="F41" s="201"/>
-      <c r="G41" s="201"/>
+      <c r="B40" s="197"/>
+      <c r="C40" s="197"/>
+      <c r="D40" s="197"/>
+      <c r="E40" s="197"/>
+      <c r="F40" s="197"/>
+      <c r="G40" s="197"/>
+      <c r="H40" s="269"/>
+    </row>
+    <row r="41" spans="1:14" ht="50.25" customHeight="1">
+      <c r="A41" s="146" t="s">
+        <v>511</v>
+      </c>
+      <c r="B41" s="146" t="s">
+        <v>370</v>
+      </c>
+      <c r="C41" s="143" t="s">
+        <v>703</v>
+      </c>
+      <c r="D41" s="143" t="s">
+        <v>350</v>
+      </c>
+      <c r="E41" s="143" t="s">
+        <v>255</v>
+      </c>
+      <c r="F41" s="144"/>
+      <c r="G41" s="144"/>
       <c r="H41" s="14"/>
     </row>
-    <row r="42" spans="1:14" ht="50.25" customHeight="1">
-      <c r="A42" s="147" t="s">
-        <v>511</v>
-      </c>
-      <c r="B42" s="147" t="s">
-        <v>370</v>
-      </c>
-      <c r="C42" s="144" t="s">
-        <v>703</v>
-      </c>
-      <c r="D42" s="144" t="s">
+    <row r="42" spans="1:14" ht="44.25" customHeight="1">
+      <c r="A42" s="141" t="s">
+        <v>510</v>
+      </c>
+      <c r="B42" s="141" t="s">
+        <v>713</v>
+      </c>
+      <c r="C42" s="141" t="s">
+        <v>512</v>
+      </c>
+      <c r="D42" s="141" t="s">
         <v>350</v>
       </c>
-      <c r="E42" s="144" t="s">
+      <c r="E42" s="141" t="s">
         <v>255</v>
       </c>
-      <c r="F42" s="145"/>
-      <c r="G42" s="145"/>
-      <c r="H42" s="14"/>
-    </row>
-    <row r="43" spans="1:14" ht="44.25" customHeight="1">
-      <c r="A43" s="142" t="s">
-        <v>510</v>
-      </c>
-      <c r="B43" s="142" t="s">
-        <v>713</v>
-      </c>
-      <c r="C43" s="142" t="s">
-        <v>512</v>
-      </c>
-      <c r="D43" s="142" t="s">
+      <c r="F42" s="142" t="str">
+        <f>A41</f>
+        <v>G.BE</v>
+      </c>
+      <c r="G42" s="142"/>
+      <c r="H42" s="153" t="s">
+        <v>778</v>
+      </c>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="23"/>
+      <c r="M42" s="23"/>
+      <c r="N42" s="23"/>
+    </row>
+    <row r="43" spans="1:14" ht="128.25" customHeight="1">
+      <c r="A43" s="138" t="s">
+        <v>666</v>
+      </c>
+      <c r="B43" s="138" t="s">
+        <v>665</v>
+      </c>
+      <c r="C43" s="138" t="s">
+        <v>677</v>
+      </c>
+      <c r="D43" s="138" t="s">
         <v>350</v>
       </c>
-      <c r="E43" s="142" t="s">
+      <c r="E43" s="138" t="s">
         <v>255</v>
       </c>
-      <c r="F43" s="143" t="str">
+      <c r="F43" s="18" t="str">
         <f>A42</f>
-        <v>G.BE</v>
-      </c>
-      <c r="G43" s="143"/>
-      <c r="H43" s="154" t="s">
+        <v>G.BE.1</v>
+      </c>
+      <c r="G43" s="18"/>
+      <c r="H43" s="153" t="s">
         <v>778</v>
       </c>
       <c r="I43" s="23"/>
@@ -12333,15 +12355,15 @@
       <c r="M43" s="23"/>
       <c r="N43" s="23"/>
     </row>
-    <row r="44" spans="1:14" ht="128.25" customHeight="1">
+    <row r="44" spans="1:14" ht="57" customHeight="1">
       <c r="A44" s="138" t="s">
-        <v>666</v>
+        <v>678</v>
       </c>
       <c r="B44" s="138" t="s">
-        <v>665</v>
+        <v>711</v>
       </c>
       <c r="C44" s="138" t="s">
-        <v>677</v>
+        <v>712</v>
       </c>
       <c r="D44" s="138" t="s">
         <v>350</v>
@@ -12350,11 +12372,11 @@
         <v>255</v>
       </c>
       <c r="F44" s="18" t="str">
-        <f>A43</f>
+        <f>A42</f>
         <v>G.BE.1</v>
       </c>
       <c r="G44" s="18"/>
-      <c r="H44" s="154" t="s">
+      <c r="H44" s="153" t="s">
         <v>778</v>
       </c>
       <c r="I44" s="23"/>
@@ -12366,13 +12388,13 @@
     </row>
     <row r="45" spans="1:14" ht="57" customHeight="1">
       <c r="A45" s="138" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B45" s="138" t="s">
-        <v>711</v>
+        <v>669</v>
       </c>
       <c r="C45" s="138" t="s">
-        <v>712</v>
+        <v>670</v>
       </c>
       <c r="D45" s="138" t="s">
         <v>350</v>
@@ -12381,11 +12403,11 @@
         <v>255</v>
       </c>
       <c r="F45" s="18" t="str">
-        <f>A43</f>
+        <f>A42</f>
         <v>G.BE.1</v>
       </c>
       <c r="G45" s="18"/>
-      <c r="H45" s="154" t="s">
+      <c r="H45" s="153" t="s">
         <v>778</v>
       </c>
       <c r="I45" s="23"/>
@@ -12395,15 +12417,15 @@
       <c r="M45" s="23"/>
       <c r="N45" s="23"/>
     </row>
-    <row r="46" spans="1:14" ht="57" customHeight="1">
+    <row r="46" spans="1:14" ht="60.75" customHeight="1">
       <c r="A46" s="138" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B46" s="138" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C46" s="138" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D46" s="138" t="s">
         <v>350</v>
@@ -12412,11 +12434,11 @@
         <v>255</v>
       </c>
       <c r="F46" s="18" t="str">
-        <f>A43</f>
+        <f>A42</f>
         <v>G.BE.1</v>
       </c>
       <c r="G46" s="18"/>
-      <c r="H46" s="154" t="s">
+      <c r="H46" s="153" t="s">
         <v>778</v>
       </c>
       <c r="I46" s="23"/>
@@ -12428,13 +12450,13 @@
     </row>
     <row r="47" spans="1:14" ht="60.75" customHeight="1">
       <c r="A47" s="138" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B47" s="138" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="C47" s="138" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="D47" s="138" t="s">
         <v>350</v>
@@ -12443,13 +12465,11 @@
         <v>255</v>
       </c>
       <c r="F47" s="18" t="str">
-        <f>A43</f>
+        <f>A42</f>
         <v>G.BE.1</v>
       </c>
       <c r="G47" s="18"/>
-      <c r="H47" s="154" t="s">
-        <v>778</v>
-      </c>
+      <c r="H47" s="14"/>
       <c r="I47" s="23"/>
       <c r="J47" s="23"/>
       <c r="K47" s="23"/>
@@ -12459,13 +12479,13 @@
     </row>
     <row r="48" spans="1:14" ht="60.75" customHeight="1">
       <c r="A48" s="138" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B48" s="138" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C48" s="138" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="D48" s="138" t="s">
         <v>350</v>
@@ -12474,7 +12494,7 @@
         <v>255</v>
       </c>
       <c r="F48" s="18" t="str">
-        <f>A43</f>
+        <f>A42</f>
         <v>G.BE.1</v>
       </c>
       <c r="G48" s="18"/>
@@ -12488,13 +12508,13 @@
     </row>
     <row r="49" spans="1:14" ht="60.75" customHeight="1">
       <c r="A49" s="138" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B49" s="138" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="C49" s="138" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="D49" s="138" t="s">
         <v>350</v>
@@ -12503,7 +12523,7 @@
         <v>255</v>
       </c>
       <c r="F49" s="18" t="str">
-        <f>A43</f>
+        <f>A42</f>
         <v>G.BE.1</v>
       </c>
       <c r="G49" s="18"/>
@@ -12515,28 +12535,30 @@
       <c r="M49" s="23"/>
       <c r="N49" s="23"/>
     </row>
-    <row r="50" spans="1:14" ht="60.75" customHeight="1">
-      <c r="A50" s="138" t="s">
-        <v>683</v>
-      </c>
-      <c r="B50" s="138" t="s">
-        <v>675</v>
-      </c>
-      <c r="C50" s="138" t="s">
-        <v>676</v>
-      </c>
-      <c r="D50" s="138" t="s">
+    <row r="50" spans="1:14" ht="44.25" customHeight="1">
+      <c r="A50" s="141" t="s">
+        <v>513</v>
+      </c>
+      <c r="B50" s="141" t="s">
+        <v>369</v>
+      </c>
+      <c r="C50" s="141" t="s">
+        <v>566</v>
+      </c>
+      <c r="D50" s="141" t="s">
         <v>350</v>
       </c>
-      <c r="E50" s="138" t="s">
+      <c r="E50" s="141" t="s">
         <v>255</v>
       </c>
-      <c r="F50" s="18" t="str">
-        <f>A43</f>
-        <v>G.BE.1</v>
-      </c>
-      <c r="G50" s="18"/>
-      <c r="H50" s="14"/>
+      <c r="F50" s="142" t="str">
+        <f>A41</f>
+        <v>G.BE</v>
+      </c>
+      <c r="G50" s="142"/>
+      <c r="H50" s="152" t="s">
+        <v>777</v>
+      </c>
       <c r="I50" s="23"/>
       <c r="J50" s="23"/>
       <c r="K50" s="23"/>
@@ -12545,27 +12567,27 @@
       <c r="N50" s="23"/>
     </row>
     <row r="51" spans="1:14" ht="44.25" customHeight="1">
-      <c r="A51" s="142" t="s">
-        <v>513</v>
-      </c>
-      <c r="B51" s="142" t="s">
-        <v>369</v>
-      </c>
-      <c r="C51" s="142" t="s">
-        <v>566</v>
-      </c>
-      <c r="D51" s="142" t="s">
+      <c r="A51" s="138" t="s">
+        <v>634</v>
+      </c>
+      <c r="B51" s="138" t="s">
+        <v>635</v>
+      </c>
+      <c r="C51" s="138" t="s">
+        <v>635</v>
+      </c>
+      <c r="D51" s="138" t="s">
         <v>350</v>
       </c>
-      <c r="E51" s="142" t="s">
+      <c r="E51" s="138" t="s">
         <v>255</v>
       </c>
-      <c r="F51" s="143" t="str">
-        <f>A42</f>
-        <v>G.BE</v>
-      </c>
-      <c r="G51" s="143"/>
-      <c r="H51" s="153" t="s">
+      <c r="F51" s="18" t="str">
+        <f>A50</f>
+        <v>G.BE.2</v>
+      </c>
+      <c r="G51" s="18"/>
+      <c r="H51" s="152" t="s">
         <v>777</v>
       </c>
       <c r="I51" s="23"/>
@@ -12577,13 +12599,13 @@
     </row>
     <row r="52" spans="1:14" ht="44.25" customHeight="1">
       <c r="A52" s="138" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="B52" s="138" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C52" s="138" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D52" s="138" t="s">
         <v>350</v>
@@ -12592,11 +12614,11 @@
         <v>255</v>
       </c>
       <c r="F52" s="18" t="str">
-        <f>A51</f>
+        <f>A50</f>
         <v>G.BE.2</v>
       </c>
       <c r="G52" s="18"/>
-      <c r="H52" s="153" t="s">
+      <c r="H52" s="152" t="s">
         <v>777</v>
       </c>
       <c r="I52" s="23"/>
@@ -12608,13 +12630,13 @@
     </row>
     <row r="53" spans="1:14" ht="44.25" customHeight="1">
       <c r="A53" s="138" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B53" s="138" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C53" s="138" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="D53" s="138" t="s">
         <v>350</v>
@@ -12623,11 +12645,11 @@
         <v>255</v>
       </c>
       <c r="F53" s="18" t="str">
-        <f>A51</f>
+        <f>A50</f>
         <v>G.BE.2</v>
       </c>
       <c r="G53" s="18"/>
-      <c r="H53" s="153" t="s">
+      <c r="H53" s="152" t="s">
         <v>777</v>
       </c>
       <c r="I53" s="23"/>
@@ -12639,13 +12661,13 @@
     </row>
     <row r="54" spans="1:14" ht="44.25" customHeight="1">
       <c r="A54" s="138" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B54" s="138" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="C54" s="138" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="D54" s="138" t="s">
         <v>350</v>
@@ -12653,12 +12675,12 @@
       <c r="E54" s="138" t="s">
         <v>255</v>
       </c>
-      <c r="F54" s="18" t="str">
-        <f>A51</f>
+      <c r="F54" s="148" t="str">
+        <f>A50</f>
         <v>G.BE.2</v>
       </c>
-      <c r="G54" s="18"/>
-      <c r="H54" s="153" t="s">
+      <c r="G54" s="148"/>
+      <c r="H54" s="152" t="s">
         <v>777</v>
       </c>
       <c r="I54" s="23"/>
@@ -12669,29 +12691,27 @@
       <c r="N54" s="23"/>
     </row>
     <row r="55" spans="1:14" ht="44.25" customHeight="1">
-      <c r="A55" s="138" t="s">
-        <v>641</v>
-      </c>
-      <c r="B55" s="138" t="s">
-        <v>643</v>
-      </c>
-      <c r="C55" s="138" t="s">
-        <v>642</v>
-      </c>
-      <c r="D55" s="138" t="s">
+      <c r="A55" s="141" t="s">
+        <v>655</v>
+      </c>
+      <c r="B55" s="141" t="s">
+        <v>714</v>
+      </c>
+      <c r="C55" s="141" t="s">
+        <v>715</v>
+      </c>
+      <c r="D55" s="141" t="s">
         <v>350</v>
       </c>
-      <c r="E55" s="138" t="s">
-        <v>255</v>
-      </c>
-      <c r="F55" s="149" t="str">
-        <f>A51</f>
-        <v>G.BE.2</v>
-      </c>
-      <c r="G55" s="149"/>
-      <c r="H55" s="153" t="s">
-        <v>777</v>
-      </c>
+      <c r="E55" s="141" t="s">
+        <v>254</v>
+      </c>
+      <c r="F55" s="142" t="str">
+        <f>A41</f>
+        <v>G.BE</v>
+      </c>
+      <c r="G55" s="142"/>
+      <c r="H55" s="14"/>
       <c r="I55" s="23"/>
       <c r="J55" s="23"/>
       <c r="K55" s="23"/>
@@ -12699,27 +12719,27 @@
       <c r="M55" s="23"/>
       <c r="N55" s="23"/>
     </row>
-    <row r="56" spans="1:14" ht="44.25" customHeight="1">
-      <c r="A56" s="142" t="s">
-        <v>655</v>
-      </c>
-      <c r="B56" s="142" t="s">
-        <v>714</v>
-      </c>
-      <c r="C56" s="142" t="s">
-        <v>715</v>
-      </c>
-      <c r="D56" s="142" t="s">
+    <row r="56" spans="1:14" ht="90.75" customHeight="1">
+      <c r="A56" s="138" t="s">
+        <v>657</v>
+      </c>
+      <c r="B56" s="138" t="s">
+        <v>721</v>
+      </c>
+      <c r="C56" s="138" t="s">
+        <v>718</v>
+      </c>
+      <c r="D56" s="138" t="s">
         <v>350</v>
       </c>
-      <c r="E56" s="142" t="s">
+      <c r="E56" s="138" t="s">
         <v>254</v>
       </c>
-      <c r="F56" s="143" t="str">
-        <f>A42</f>
-        <v>G.BE</v>
-      </c>
-      <c r="G56" s="143"/>
+      <c r="F56" s="18" t="str">
+        <f>A55</f>
+        <v>G.BE.3</v>
+      </c>
+      <c r="G56" s="18"/>
       <c r="H56" s="14"/>
       <c r="I56" s="23"/>
       <c r="J56" s="23"/>
@@ -12728,24 +12748,24 @@
       <c r="M56" s="23"/>
       <c r="N56" s="23"/>
     </row>
-    <row r="57" spans="1:14" ht="90.75" customHeight="1">
+    <row r="57" spans="1:14" ht="61.5" customHeight="1">
       <c r="A57" s="138" t="s">
-        <v>657</v>
+        <v>781</v>
       </c>
       <c r="B57" s="138" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C57" s="138" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="D57" s="138" t="s">
         <v>350</v>
       </c>
       <c r="E57" s="138" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F57" s="18" t="str">
-        <f>A56</f>
+        <f>A55</f>
         <v>G.BE.3</v>
       </c>
       <c r="G57" s="18"/>
@@ -12757,24 +12777,24 @@
       <c r="M57" s="23"/>
       <c r="N57" s="23"/>
     </row>
-    <row r="58" spans="1:14" ht="61.5" customHeight="1">
+    <row r="58" spans="1:14" ht="105.75" customHeight="1">
       <c r="A58" s="138" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B58" s="138" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="C58" s="138" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="D58" s="138" t="s">
         <v>350</v>
       </c>
       <c r="E58" s="138" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F58" s="18" t="str">
-        <f>A56</f>
+        <f>A55</f>
         <v>G.BE.3</v>
       </c>
       <c r="G58" s="18"/>
@@ -12786,27 +12806,27 @@
       <c r="M58" s="23"/>
       <c r="N58" s="23"/>
     </row>
-    <row r="59" spans="1:14" ht="105.75" customHeight="1">
-      <c r="A59" s="138" t="s">
-        <v>782</v>
-      </c>
-      <c r="B59" s="138" t="s">
-        <v>722</v>
-      </c>
-      <c r="C59" s="138" t="s">
-        <v>723</v>
-      </c>
-      <c r="D59" s="138" t="s">
+    <row r="59" spans="1:14" ht="44.25" customHeight="1">
+      <c r="A59" s="141" t="s">
+        <v>716</v>
+      </c>
+      <c r="B59" s="141" t="s">
+        <v>658</v>
+      </c>
+      <c r="C59" s="141" t="s">
+        <v>656</v>
+      </c>
+      <c r="D59" s="141" t="s">
         <v>350</v>
       </c>
-      <c r="E59" s="138" t="s">
-        <v>254</v>
-      </c>
-      <c r="F59" s="18" t="str">
-        <f>A56</f>
-        <v>G.BE.3</v>
-      </c>
-      <c r="G59" s="18"/>
+      <c r="E59" s="141" t="s">
+        <v>255</v>
+      </c>
+      <c r="F59" s="149" t="str">
+        <f>A41</f>
+        <v>G.BE</v>
+      </c>
+      <c r="G59" s="149"/>
       <c r="H59" s="14"/>
       <c r="I59" s="23"/>
       <c r="J59" s="23"/>
@@ -12815,28 +12835,30 @@
       <c r="M59" s="23"/>
       <c r="N59" s="23"/>
     </row>
-    <row r="60" spans="1:14" ht="44.25" customHeight="1">
-      <c r="A60" s="142" t="s">
-        <v>716</v>
-      </c>
-      <c r="B60" s="142" t="s">
-        <v>658</v>
-      </c>
-      <c r="C60" s="142" t="s">
-        <v>656</v>
-      </c>
-      <c r="D60" s="142" t="s">
+    <row r="60" spans="1:14" ht="155.25" customHeight="1">
+      <c r="A60" s="138" t="s">
+        <v>717</v>
+      </c>
+      <c r="B60" s="138" t="s">
+        <v>684</v>
+      </c>
+      <c r="C60" s="138" t="s">
+        <v>659</v>
+      </c>
+      <c r="D60" s="138" t="s">
         <v>350</v>
       </c>
-      <c r="E60" s="142" t="s">
-        <v>255</v>
-      </c>
-      <c r="F60" s="150" t="str">
-        <f>A42</f>
-        <v>G.BE</v>
-      </c>
-      <c r="G60" s="150"/>
-      <c r="H60" s="14"/>
+      <c r="E60" s="138" t="s">
+        <v>254</v>
+      </c>
+      <c r="F60" s="148" t="str">
+        <f>A59</f>
+        <v>G.BE.4</v>
+      </c>
+      <c r="G60" s="148"/>
+      <c r="H60" s="152" t="s">
+        <v>777</v>
+      </c>
       <c r="I60" s="23"/>
       <c r="J60" s="23"/>
       <c r="K60" s="23"/>
@@ -12844,30 +12866,28 @@
       <c r="M60" s="23"/>
       <c r="N60" s="23"/>
     </row>
-    <row r="61" spans="1:14" ht="155.25" customHeight="1">
+    <row r="61" spans="1:14" ht="36" customHeight="1">
       <c r="A61" s="138" t="s">
         <v>717</v>
       </c>
       <c r="B61" s="138" t="s">
-        <v>684</v>
-      </c>
-      <c r="C61" s="138" t="s">
-        <v>659</v>
+        <v>685</v>
+      </c>
+      <c r="C61" s="150" t="s">
+        <v>724</v>
       </c>
       <c r="D61" s="138" t="s">
         <v>350</v>
       </c>
       <c r="E61" s="138" t="s">
-        <v>254</v>
-      </c>
-      <c r="F61" s="149" t="str">
+        <v>253</v>
+      </c>
+      <c r="F61" s="148" t="str">
         <f>A60</f>
-        <v>G.BE.4</v>
-      </c>
-      <c r="G61" s="149"/>
-      <c r="H61" s="153" t="s">
-        <v>777</v>
-      </c>
+        <v>G.BE.4.1</v>
+      </c>
+      <c r="G61" s="148"/>
+      <c r="H61" s="14"/>
       <c r="I61" s="23"/>
       <c r="J61" s="23"/>
       <c r="K61" s="23"/>
@@ -12875,76 +12895,70 @@
       <c r="M61" s="23"/>
       <c r="N61" s="23"/>
     </row>
-    <row r="62" spans="1:14" ht="36" customHeight="1">
-      <c r="A62" s="138" t="s">
-        <v>717</v>
-      </c>
-      <c r="B62" s="138" t="s">
-        <v>685</v>
-      </c>
-      <c r="C62" s="151" t="s">
-        <v>724</v>
-      </c>
-      <c r="D62" s="138" t="s">
+    <row r="62" spans="1:14" ht="50.25" customHeight="1">
+      <c r="A62" s="197" t="s">
+        <v>400</v>
+      </c>
+      <c r="B62" s="197"/>
+      <c r="C62" s="197"/>
+      <c r="D62" s="197"/>
+      <c r="E62" s="197"/>
+      <c r="F62" s="197"/>
+      <c r="G62" s="197"/>
+      <c r="H62" s="269"/>
+    </row>
+    <row r="63" spans="1:14" ht="50.25" customHeight="1">
+      <c r="A63" s="146" t="s">
+        <v>626</v>
+      </c>
+      <c r="B63" s="146" t="s">
+        <v>627</v>
+      </c>
+      <c r="C63" s="143" t="s">
+        <v>745</v>
+      </c>
+      <c r="D63" s="143" t="s">
         <v>350</v>
       </c>
-      <c r="E62" s="138" t="s">
-        <v>253</v>
-      </c>
-      <c r="F62" s="149" t="str">
-        <f>A61</f>
-        <v>G.BE.4.1</v>
-      </c>
-      <c r="G62" s="149"/>
-      <c r="H62" s="14"/>
-      <c r="I62" s="23"/>
-      <c r="J62" s="23"/>
-      <c r="K62" s="23"/>
-      <c r="L62" s="23"/>
-      <c r="M62" s="23"/>
-      <c r="N62" s="23"/>
-    </row>
-    <row r="63" spans="1:14" ht="50.25" customHeight="1">
-      <c r="A63" s="201" t="s">
-        <v>400</v>
-      </c>
-      <c r="B63" s="201"/>
-      <c r="C63" s="201"/>
-      <c r="D63" s="201"/>
-      <c r="E63" s="201"/>
-      <c r="F63" s="201"/>
-      <c r="G63" s="201"/>
+      <c r="E63" s="143" t="s">
+        <v>255</v>
+      </c>
+      <c r="F63" s="144"/>
+      <c r="G63" s="144"/>
       <c r="H63" s="14"/>
     </row>
     <row r="64" spans="1:14" ht="50.25" customHeight="1">
-      <c r="A64" s="147" t="s">
-        <v>626</v>
-      </c>
-      <c r="B64" s="147" t="s">
-        <v>627</v>
-      </c>
-      <c r="C64" s="144" t="s">
-        <v>745</v>
-      </c>
-      <c r="D64" s="144" t="s">
+      <c r="A64" s="138" t="s">
+        <v>628</v>
+      </c>
+      <c r="B64" s="138" t="s">
+        <v>632</v>
+      </c>
+      <c r="C64" s="138" t="s">
+        <v>725</v>
+      </c>
+      <c r="D64" s="138" t="s">
         <v>350</v>
       </c>
-      <c r="E64" s="144" t="s">
-        <v>255</v>
-      </c>
-      <c r="F64" s="145"/>
-      <c r="G64" s="145"/>
+      <c r="E64" s="138" t="s">
+        <v>254</v>
+      </c>
+      <c r="F64" s="148" t="str">
+        <f>A63</f>
+        <v>G.PS</v>
+      </c>
+      <c r="G64" s="148"/>
       <c r="H64" s="14"/>
     </row>
-    <row r="65" spans="1:14" ht="50.25" customHeight="1">
+    <row r="65" spans="1:14" ht="64.5" customHeight="1">
       <c r="A65" s="138" t="s">
-        <v>628</v>
+        <v>661</v>
       </c>
       <c r="B65" s="138" t="s">
-        <v>632</v>
+        <v>662</v>
       </c>
       <c r="C65" s="138" t="s">
-        <v>725</v>
+        <v>663</v>
       </c>
       <c r="D65" s="138" t="s">
         <v>350</v>
@@ -12952,22 +12966,22 @@
       <c r="E65" s="138" t="s">
         <v>254</v>
       </c>
-      <c r="F65" s="149" t="str">
-        <f>A64</f>
+      <c r="F65" s="148" t="str">
+        <f>A63</f>
         <v>G.PS</v>
       </c>
-      <c r="G65" s="149"/>
+      <c r="G65" s="148"/>
       <c r="H65" s="14"/>
     </row>
     <row r="66" spans="1:14" ht="64.5" customHeight="1">
       <c r="A66" s="138" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B66" s="138" t="s">
-        <v>662</v>
+        <v>730</v>
       </c>
       <c r="C66" s="138" t="s">
-        <v>663</v>
+        <v>731</v>
       </c>
       <c r="D66" s="138" t="s">
         <v>350</v>
@@ -12975,22 +12989,22 @@
       <c r="E66" s="138" t="s">
         <v>254</v>
       </c>
-      <c r="F66" s="149" t="str">
+      <c r="F66" s="148" t="str">
         <f>A64</f>
-        <v>G.PS</v>
-      </c>
-      <c r="G66" s="149"/>
+        <v>G.PS.1</v>
+      </c>
+      <c r="G66" s="148"/>
       <c r="H66" s="14"/>
     </row>
-    <row r="67" spans="1:14" ht="64.5" customHeight="1">
+    <row r="67" spans="1:14" ht="126" customHeight="1">
       <c r="A67" s="138" t="s">
-        <v>660</v>
+        <v>732</v>
       </c>
       <c r="B67" s="138" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="C67" s="138" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="D67" s="138" t="s">
         <v>350</v>
@@ -12998,19 +13012,19 @@
       <c r="E67" s="138" t="s">
         <v>254</v>
       </c>
-      <c r="F67" s="149" t="str">
-        <f>A65</f>
-        <v>G.PS.1</v>
-      </c>
-      <c r="G67" s="149"/>
+      <c r="F67" s="148" t="str">
+        <f>A66</f>
+        <v>G.PS.3</v>
+      </c>
+      <c r="G67" s="148"/>
       <c r="H67" s="14"/>
     </row>
     <row r="68" spans="1:14" ht="126" customHeight="1">
       <c r="A68" s="138" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
       <c r="B68" s="138" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="C68" s="138" t="s">
         <v>734</v>
@@ -13021,22 +13035,22 @@
       <c r="E68" s="138" t="s">
         <v>254</v>
       </c>
-      <c r="F68" s="149" t="str">
-        <f>A67</f>
+      <c r="F68" s="148" t="str">
+        <f>A66</f>
         <v>G.PS.3</v>
       </c>
-      <c r="G68" s="149"/>
+      <c r="G68" s="148"/>
       <c r="H68" s="14"/>
     </row>
-    <row r="69" spans="1:14" ht="126" customHeight="1">
+    <row r="69" spans="1:14" ht="56.25" customHeight="1">
       <c r="A69" s="138" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B69" s="138" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="C69" s="138" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="D69" s="138" t="s">
         <v>350</v>
@@ -13044,22 +13058,22 @@
       <c r="E69" s="138" t="s">
         <v>254</v>
       </c>
-      <c r="F69" s="149" t="str">
-        <f>A67</f>
+      <c r="F69" s="148" t="str">
+        <f>A66</f>
         <v>G.PS.3</v>
       </c>
-      <c r="G69" s="149"/>
+      <c r="G69" s="148"/>
       <c r="H69" s="14"/>
     </row>
     <row r="70" spans="1:14" ht="56.25" customHeight="1">
       <c r="A70" s="138" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="B70" s="138" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="C70" s="138" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="D70" s="138" t="s">
         <v>350</v>
@@ -13067,22 +13081,22 @@
       <c r="E70" s="138" t="s">
         <v>254</v>
       </c>
-      <c r="F70" s="149" t="str">
-        <f>A67</f>
+      <c r="F70" s="148" t="str">
+        <f>A66</f>
         <v>G.PS.3</v>
       </c>
-      <c r="G70" s="149"/>
+      <c r="G70" s="148"/>
       <c r="H70" s="14"/>
     </row>
-    <row r="71" spans="1:14" ht="56.25" customHeight="1">
+    <row r="71" spans="1:14" ht="54.75" customHeight="1">
       <c r="A71" s="138" t="s">
-        <v>742</v>
+        <v>660</v>
       </c>
       <c r="B71" s="138" t="s">
-        <v>741</v>
+        <v>633</v>
       </c>
       <c r="C71" s="138" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="D71" s="138" t="s">
         <v>350</v>
@@ -13090,57 +13104,63 @@
       <c r="E71" s="138" t="s">
         <v>254</v>
       </c>
-      <c r="F71" s="149" t="str">
-        <f>A67</f>
+      <c r="F71" s="148" t="str">
+        <f>A66</f>
         <v>G.PS.3</v>
       </c>
-      <c r="G71" s="149"/>
+      <c r="G71" s="148"/>
       <c r="H71" s="14"/>
     </row>
-    <row r="72" spans="1:14" ht="54.75" customHeight="1">
-      <c r="A72" s="138" t="s">
-        <v>660</v>
-      </c>
-      <c r="B72" s="138" t="s">
-        <v>633</v>
-      </c>
-      <c r="C72" s="138" t="s">
-        <v>736</v>
-      </c>
-      <c r="D72" s="138" t="s">
+    <row r="72" spans="1:14" ht="44.25" customHeight="1">
+      <c r="A72" s="141" t="s">
+        <v>728</v>
+      </c>
+      <c r="B72" s="141" t="s">
+        <v>658</v>
+      </c>
+      <c r="C72" s="141" t="s">
+        <v>656</v>
+      </c>
+      <c r="D72" s="141" t="s">
         <v>350</v>
       </c>
-      <c r="E72" s="138" t="s">
-        <v>254</v>
+      <c r="E72" s="141" t="s">
+        <v>255</v>
       </c>
       <c r="F72" s="149" t="str">
-        <f>A67</f>
-        <v>G.PS.3</v>
+        <f>A63</f>
+        <v>G.PS</v>
       </c>
       <c r="G72" s="149"/>
       <c r="H72" s="14"/>
-    </row>
-    <row r="73" spans="1:14" ht="44.25" customHeight="1">
-      <c r="A73" s="142" t="s">
-        <v>728</v>
-      </c>
-      <c r="B73" s="142" t="s">
-        <v>658</v>
-      </c>
-      <c r="C73" s="142" t="s">
-        <v>656</v>
-      </c>
-      <c r="D73" s="142" t="s">
+      <c r="I72" s="23"/>
+      <c r="J72" s="23"/>
+      <c r="K72" s="23"/>
+      <c r="L72" s="23"/>
+      <c r="M72" s="23"/>
+      <c r="N72" s="23"/>
+    </row>
+    <row r="73" spans="1:14" ht="54.75" customHeight="1">
+      <c r="A73" s="138" t="s">
+        <v>729</v>
+      </c>
+      <c r="B73" s="138" t="s">
+        <v>684</v>
+      </c>
+      <c r="C73" s="150" t="s">
+        <v>744</v>
+      </c>
+      <c r="D73" s="138" t="s">
         <v>350</v>
       </c>
-      <c r="E73" s="142" t="s">
-        <v>255</v>
-      </c>
-      <c r="F73" s="150" t="str">
-        <f>A64</f>
-        <v>G.PS</v>
-      </c>
-      <c r="G73" s="150"/>
+      <c r="E73" s="138" t="s">
+        <v>254</v>
+      </c>
+      <c r="F73" s="148" t="str">
+        <f>A72</f>
+        <v>G.PS.4</v>
+      </c>
+      <c r="G73" s="148"/>
       <c r="H73" s="14"/>
       <c r="I73" s="23"/>
       <c r="J73" s="23"/>
@@ -13149,27 +13169,27 @@
       <c r="M73" s="23"/>
       <c r="N73" s="23"/>
     </row>
-    <row r="74" spans="1:14" ht="54.75" customHeight="1">
+    <row r="74" spans="1:14" ht="51.75" customHeight="1">
       <c r="A74" s="138" t="s">
-        <v>729</v>
+        <v>717</v>
       </c>
       <c r="B74" s="138" t="s">
-        <v>684</v>
-      </c>
-      <c r="C74" s="151" t="s">
-        <v>744</v>
+        <v>685</v>
+      </c>
+      <c r="C74" s="150" t="s">
+        <v>726</v>
       </c>
       <c r="D74" s="138" t="s">
         <v>350</v>
       </c>
       <c r="E74" s="138" t="s">
-        <v>254</v>
-      </c>
-      <c r="F74" s="149" t="str">
-        <f>A73</f>
+        <v>253</v>
+      </c>
+      <c r="F74" s="148" t="str">
+        <f>A72</f>
         <v>G.PS.4</v>
       </c>
-      <c r="G74" s="149"/>
+      <c r="G74" s="148"/>
       <c r="H74" s="14"/>
       <c r="I74" s="23"/>
       <c r="J74" s="23"/>
@@ -13178,78 +13198,74 @@
       <c r="M74" s="23"/>
       <c r="N74" s="23"/>
     </row>
-    <row r="75" spans="1:14" ht="51.75" customHeight="1">
-      <c r="A75" s="138" t="s">
-        <v>717</v>
-      </c>
-      <c r="B75" s="138" t="s">
-        <v>685</v>
-      </c>
-      <c r="C75" s="151" t="s">
-        <v>726</v>
-      </c>
-      <c r="D75" s="138" t="s">
+    <row r="75" spans="1:14" ht="33.75" customHeight="1">
+      <c r="A75" s="201" t="s">
+        <v>404</v>
+      </c>
+      <c r="B75" s="201"/>
+      <c r="C75" s="201"/>
+      <c r="D75" s="201"/>
+      <c r="E75" s="201"/>
+      <c r="F75" s="201"/>
+      <c r="G75" s="201"/>
+      <c r="H75" s="270"/>
+    </row>
+    <row r="76" spans="1:14" ht="50.25" customHeight="1">
+      <c r="A76" s="143" t="s">
+        <v>651</v>
+      </c>
+      <c r="B76" s="146" t="s">
+        <v>650</v>
+      </c>
+      <c r="C76" s="143" t="s">
+        <v>746</v>
+      </c>
+      <c r="D76" s="143" t="s">
         <v>350</v>
       </c>
-      <c r="E75" s="138" t="s">
-        <v>253</v>
-      </c>
-      <c r="F75" s="149" t="str">
-        <f>A73</f>
-        <v>G.PS.4</v>
-      </c>
-      <c r="G75" s="149"/>
-      <c r="H75" s="14"/>
-      <c r="I75" s="23"/>
-      <c r="J75" s="23"/>
-      <c r="K75" s="23"/>
-      <c r="L75" s="23"/>
-      <c r="M75" s="23"/>
-      <c r="N75" s="23"/>
-    </row>
-    <row r="76" spans="1:14" ht="33.75" customHeight="1">
-      <c r="A76" s="203" t="s">
-        <v>404</v>
-      </c>
-      <c r="B76" s="203"/>
-      <c r="C76" s="203"/>
-      <c r="D76" s="203"/>
-      <c r="E76" s="203"/>
-      <c r="F76" s="203"/>
-      <c r="G76" s="203"/>
-      <c r="H76" s="14"/>
+      <c r="E76" s="143" t="s">
+        <v>254</v>
+      </c>
+      <c r="F76" s="144"/>
+      <c r="G76" s="144"/>
+      <c r="H76" s="153" t="s">
+        <v>778</v>
+      </c>
     </row>
     <row r="77" spans="1:14" ht="50.25" customHeight="1">
-      <c r="A77" s="144" t="s">
-        <v>651</v>
-      </c>
-      <c r="B77" s="147" t="s">
-        <v>650</v>
-      </c>
-      <c r="C77" s="144" t="s">
-        <v>746</v>
-      </c>
-      <c r="D77" s="144" t="s">
+      <c r="A77" s="138" t="s">
+        <v>652</v>
+      </c>
+      <c r="B77" s="138" t="s">
+        <v>747</v>
+      </c>
+      <c r="C77" s="138" t="s">
+        <v>748</v>
+      </c>
+      <c r="D77" s="138" t="s">
         <v>350</v>
       </c>
-      <c r="E77" s="144" t="s">
-        <v>254</v>
-      </c>
-      <c r="F77" s="145"/>
-      <c r="G77" s="145"/>
-      <c r="H77" s="154" t="s">
+      <c r="E77" s="138" t="s">
+        <v>255</v>
+      </c>
+      <c r="F77" s="138" t="str">
+        <f>A76</f>
+        <v>G.DO</v>
+      </c>
+      <c r="G77" s="138"/>
+      <c r="H77" s="153" t="s">
         <v>778</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="50.25" customHeight="1">
       <c r="A78" s="138" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B78" s="138" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="C78" s="138" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="D78" s="138" t="s">
         <v>350</v>
@@ -13258,36 +13274,36 @@
         <v>255</v>
       </c>
       <c r="F78" s="138" t="str">
-        <f>A77</f>
+        <f>A76</f>
         <v>G.DO</v>
       </c>
       <c r="G78" s="138"/>
-      <c r="H78" s="154" t="s">
+      <c r="H78" s="153" t="s">
         <v>778</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="50.25" customHeight="1">
       <c r="A79" s="138" t="s">
-        <v>653</v>
+        <v>759</v>
       </c>
       <c r="B79" s="138" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C79" s="138" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="D79" s="138" t="s">
         <v>350</v>
       </c>
       <c r="E79" s="138" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F79" s="138" t="str">
-        <f>A77</f>
-        <v>G.DO</v>
+        <f>A78</f>
+        <v>G.DO.2</v>
       </c>
       <c r="G79" s="138"/>
-      <c r="H79" s="154" t="s">
+      <c r="H79" s="153" t="s">
         <v>778</v>
       </c>
     </row>
@@ -13296,158 +13312,158 @@
         <v>759</v>
       </c>
       <c r="B80" s="138" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="C80" s="138" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="D80" s="138" t="s">
         <v>350</v>
       </c>
       <c r="E80" s="138" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F80" s="138" t="str">
-        <f>A79</f>
+        <f>A78</f>
         <v>G.DO.2</v>
       </c>
       <c r="G80" s="138"/>
-      <c r="H80" s="154" t="s">
+      <c r="H80" s="153" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="50.25" customHeight="1">
+    <row r="81" spans="1:14" ht="66" customHeight="1">
       <c r="A81" s="138" t="s">
         <v>759</v>
       </c>
       <c r="B81" s="138" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="C81" s="138" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="D81" s="138" t="s">
         <v>350</v>
       </c>
       <c r="E81" s="138" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F81" s="138" t="str">
-        <f>A79</f>
+        <f>A78</f>
         <v>G.DO.2</v>
       </c>
       <c r="G81" s="138"/>
-      <c r="H81" s="154" t="s">
+      <c r="H81" s="153" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="66" customHeight="1">
+    <row r="82" spans="1:14" ht="50.25" customHeight="1">
       <c r="A82" s="138" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B82" s="138" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="C82" s="138" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="D82" s="138" t="s">
         <v>350</v>
       </c>
       <c r="E82" s="138" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F82" s="138" t="str">
-        <f>A79</f>
-        <v>G.DO.2</v>
+        <f>A76</f>
+        <v>G.DO</v>
       </c>
       <c r="G82" s="138"/>
-      <c r="H82" s="154" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="50.25" customHeight="1">
+      <c r="H82" s="14"/>
+    </row>
+    <row r="83" spans="1:14" ht="50.25" customHeight="1">
       <c r="A83" s="138" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B83" s="138" t="s">
-        <v>750</v>
+        <v>762</v>
       </c>
       <c r="C83" s="138" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="D83" s="138" t="s">
         <v>350</v>
       </c>
       <c r="E83" s="138" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F83" s="138" t="str">
-        <f>A77</f>
+        <f>A76</f>
         <v>G.DO</v>
       </c>
       <c r="G83" s="138"/>
-      <c r="H83" s="14"/>
-    </row>
-    <row r="84" spans="1:8" ht="50.25" customHeight="1">
+      <c r="H83" s="153" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" ht="50.25" customHeight="1">
       <c r="A84" s="138" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="B84" s="138" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="C84" s="138" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="D84" s="138" t="s">
         <v>350</v>
       </c>
       <c r="E84" s="138" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F84" s="138" t="str">
-        <f>A77</f>
-        <v>G.DO</v>
+        <f>A83</f>
+        <v>G.DO.4</v>
       </c>
       <c r="G84" s="138"/>
-      <c r="H84" s="154" t="s">
+      <c r="H84" s="153" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="50.25" customHeight="1">
+    <row r="85" spans="1:14" ht="50.25" customHeight="1">
       <c r="A85" s="138" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="B85" s="138" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="C85" s="138" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="D85" s="138" t="s">
         <v>350</v>
       </c>
       <c r="E85" s="138" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F85" s="138" t="str">
-        <f>A84</f>
+        <f>A83</f>
         <v>G.DO.4</v>
       </c>
       <c r="G85" s="138"/>
-      <c r="H85" s="154" t="s">
+      <c r="H85" s="153" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="50.25" customHeight="1">
+    <row r="86" spans="1:14" ht="50.25" customHeight="1">
       <c r="A86" s="138" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="B86" s="138" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="C86" s="138" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="D86" s="138" t="s">
         <v>350</v>
@@ -13456,72 +13472,70 @@
         <v>253</v>
       </c>
       <c r="F86" s="138" t="str">
-        <f>A84</f>
-        <v>G.DO.4</v>
+        <f>A76</f>
+        <v>G.DO</v>
       </c>
       <c r="G86" s="138"/>
-      <c r="H86" s="154" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="50.25" customHeight="1">
-      <c r="A87" s="138" t="s">
-        <v>770</v>
-      </c>
-      <c r="B87" s="138" t="s">
-        <v>771</v>
-      </c>
-      <c r="C87" s="138" t="s">
-        <v>772</v>
-      </c>
-      <c r="D87" s="138" t="s">
+      <c r="H86" s="14"/>
+    </row>
+    <row r="87" spans="1:14" ht="33.75" customHeight="1">
+      <c r="A87" s="197" t="s">
+        <v>403</v>
+      </c>
+      <c r="B87" s="197"/>
+      <c r="C87" s="197"/>
+      <c r="D87" s="197"/>
+      <c r="E87" s="197"/>
+      <c r="F87" s="197"/>
+      <c r="G87" s="197"/>
+      <c r="H87" s="269"/>
+    </row>
+    <row r="88" spans="1:14" ht="50.25" customHeight="1">
+      <c r="A88" s="143" t="s">
+        <v>647</v>
+      </c>
+      <c r="B88" s="146" t="s">
+        <v>646</v>
+      </c>
+      <c r="C88" s="143" t="s">
+        <v>367</v>
+      </c>
+      <c r="D88" s="143" t="s">
         <v>350</v>
       </c>
-      <c r="E87" s="138" t="s">
+      <c r="E88" s="143" t="s">
         <v>253</v>
       </c>
-      <c r="F87" s="138" t="str">
-        <f>A77</f>
-        <v>G.DO</v>
-      </c>
-      <c r="G87" s="138"/>
-      <c r="H87" s="14"/>
-    </row>
-    <row r="88" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A88" s="201" t="s">
-        <v>403</v>
-      </c>
-      <c r="B88" s="201"/>
-      <c r="C88" s="201"/>
-      <c r="D88" s="201"/>
-      <c r="E88" s="201"/>
-      <c r="F88" s="201"/>
-      <c r="G88" s="201"/>
+      <c r="F88" s="144"/>
+      <c r="G88" s="144"/>
       <c r="H88" s="14"/>
     </row>
-    <row r="89" spans="1:8" ht="50.25" customHeight="1">
-      <c r="A89" s="144" t="s">
-        <v>647</v>
-      </c>
-      <c r="B89" s="147" t="s">
-        <v>646</v>
-      </c>
-      <c r="C89" s="144" t="s">
-        <v>367</v>
-      </c>
-      <c r="D89" s="144" t="s">
+    <row r="89" spans="1:14" ht="50.25" customHeight="1">
+      <c r="A89" s="138" t="s">
+        <v>648</v>
+      </c>
+      <c r="B89" s="138" t="s">
+        <v>616</v>
+      </c>
+      <c r="C89" s="138" t="s">
+        <v>616</v>
+      </c>
+      <c r="D89" s="138" t="s">
         <v>350</v>
       </c>
-      <c r="E89" s="144" t="s">
+      <c r="E89" s="138" t="s">
         <v>253</v>
       </c>
-      <c r="F89" s="145"/>
-      <c r="G89" s="145"/>
+      <c r="F89" s="138" t="str">
+        <f>A88</f>
+        <v>G.CF</v>
+      </c>
+      <c r="G89" s="138"/>
       <c r="H89" s="14"/>
     </row>
-    <row r="90" spans="1:8" ht="50.25" customHeight="1">
+    <row r="90" spans="1:14" ht="50.25" customHeight="1">
       <c r="A90" s="138" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B90" s="138" t="s">
         <v>616</v>
@@ -13536,180 +13550,159 @@
         <v>253</v>
       </c>
       <c r="F90" s="138" t="str">
-        <f>A89</f>
+        <f>A88</f>
         <v>G.CF</v>
       </c>
       <c r="G90" s="138"/>
       <c r="H90" s="14"/>
     </row>
-    <row r="91" spans="1:8" ht="50.25" customHeight="1">
-      <c r="A91" s="138" t="s">
-        <v>649</v>
-      </c>
-      <c r="B91" s="138" t="s">
+    <row r="91" spans="1:14" ht="33" customHeight="1"/>
+    <row r="92" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A92" s="199" t="s">
+        <v>381</v>
+      </c>
+      <c r="B92" s="200"/>
+    </row>
+    <row r="93" spans="1:14" ht="33.75" customHeight="1">
+      <c r="A93" s="79" t="s">
+        <v>177</v>
+      </c>
+      <c r="B93" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="D93" s="79" t="s">
+        <v>181</v>
+      </c>
+      <c r="E93" s="79" t="s">
+        <v>183</v>
+      </c>
+      <c r="F93" s="137" t="s">
+        <v>564</v>
+      </c>
+      <c r="G93" s="137" t="s">
+        <v>565</v>
+      </c>
+      <c r="H93" s="157" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" ht="33.75" customHeight="1">
+      <c r="A94" s="197" t="s">
+        <v>613</v>
+      </c>
+      <c r="B94" s="197"/>
+      <c r="C94" s="197"/>
+      <c r="D94" s="197"/>
+      <c r="E94" s="197"/>
+      <c r="F94" s="197"/>
+      <c r="G94" s="197"/>
+      <c r="H94" s="269"/>
+    </row>
+    <row r="95" spans="1:14" ht="50.25" customHeight="1">
+      <c r="A95" s="146" t="s">
+        <v>568</v>
+      </c>
+      <c r="B95" s="145" t="s">
+        <v>625</v>
+      </c>
+      <c r="C95" s="143" t="s">
+        <v>654</v>
+      </c>
+      <c r="D95" s="143" t="s">
+        <v>350</v>
+      </c>
+      <c r="E95" s="143" t="s">
+        <v>254</v>
+      </c>
+      <c r="F95" s="144"/>
+      <c r="G95" s="144"/>
+      <c r="H95" s="14"/>
+    </row>
+    <row r="96" spans="1:14" ht="44.25" customHeight="1">
+      <c r="A96" s="139" t="s">
+        <v>569</v>
+      </c>
+      <c r="B96" s="139" t="s">
+        <v>567</v>
+      </c>
+      <c r="C96" s="139" t="s">
+        <v>610</v>
+      </c>
+      <c r="D96" s="139" t="s">
+        <v>350</v>
+      </c>
+      <c r="E96" s="139" t="s">
+        <v>254</v>
+      </c>
+      <c r="F96" s="140" t="str">
+        <f>A95</f>
+        <v>G.CC</v>
+      </c>
+      <c r="G96" s="140"/>
+      <c r="H96" s="14"/>
+      <c r="I96" s="23"/>
+      <c r="J96" s="23"/>
+      <c r="K96" s="23"/>
+      <c r="L96" s="23"/>
+      <c r="M96" s="23"/>
+      <c r="N96" s="23"/>
+    </row>
+    <row r="97" spans="1:14" ht="44.25" customHeight="1">
+      <c r="A97" s="139" t="s">
+        <v>569</v>
+      </c>
+      <c r="B97" s="139" t="s">
         <v>616</v>
       </c>
-      <c r="C91" s="138" t="s">
+      <c r="C97" s="139" t="s">
         <v>616</v>
       </c>
-      <c r="D91" s="138" t="s">
+      <c r="D97" s="139" t="s">
         <v>350</v>
       </c>
-      <c r="E91" s="138" t="s">
-        <v>253</v>
-      </c>
-      <c r="F91" s="138" t="str">
-        <f>A89</f>
-        <v>G.CF</v>
-      </c>
-      <c r="G91" s="138"/>
-      <c r="H91" s="14"/>
-    </row>
-    <row r="94" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A94" s="199" t="s">
-        <v>381</v>
-      </c>
-      <c r="B94" s="200"/>
-    </row>
-    <row r="95" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A95" s="79" t="s">
-        <v>177</v>
-      </c>
-      <c r="B95" s="79" t="s">
-        <v>1</v>
-      </c>
-      <c r="C95" s="79" t="s">
-        <v>3</v>
-      </c>
-      <c r="D95" s="79" t="s">
-        <v>181</v>
-      </c>
-      <c r="E95" s="79" t="s">
-        <v>183</v>
-      </c>
-      <c r="F95" s="137" t="s">
-        <v>564</v>
-      </c>
-      <c r="G95" s="137" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A96" s="201" t="s">
-        <v>613</v>
-      </c>
-      <c r="B96" s="201"/>
-      <c r="C96" s="201"/>
-      <c r="D96" s="201"/>
-      <c r="E96" s="201"/>
-      <c r="F96" s="201"/>
-      <c r="G96" s="201"/>
-    </row>
-    <row r="97" spans="1:14" ht="50.25" customHeight="1">
-      <c r="A97" s="147" t="s">
-        <v>568</v>
-      </c>
-      <c r="B97" s="146" t="s">
-        <v>625</v>
-      </c>
-      <c r="C97" s="144" t="s">
-        <v>654</v>
-      </c>
-      <c r="D97" s="144" t="s">
-        <v>350</v>
-      </c>
-      <c r="E97" s="144" t="s">
+      <c r="E97" s="139" t="s">
         <v>254</v>
       </c>
-      <c r="F97" s="145"/>
-      <c r="G97" s="145"/>
-    </row>
-    <row r="98" spans="1:14" ht="44.25" customHeight="1">
-      <c r="A98" s="140" t="s">
-        <v>569</v>
-      </c>
-      <c r="B98" s="140" t="s">
-        <v>567</v>
-      </c>
-      <c r="C98" s="140" t="s">
-        <v>610</v>
-      </c>
-      <c r="D98" s="140" t="s">
-        <v>350</v>
-      </c>
-      <c r="E98" s="140" t="s">
-        <v>254</v>
-      </c>
-      <c r="F98" s="141" t="str">
-        <f>A97</f>
+      <c r="F97" s="140" t="str">
+        <f>A95</f>
         <v>G.CC</v>
       </c>
-      <c r="G98" s="141"/>
-      <c r="I98" s="23"/>
-      <c r="J98" s="23"/>
-      <c r="K98" s="23"/>
-      <c r="L98" s="23"/>
-      <c r="M98" s="23"/>
-      <c r="N98" s="23"/>
-    </row>
-    <row r="99" spans="1:14" ht="44.25" customHeight="1">
-      <c r="A99" s="140" t="s">
-        <v>569</v>
-      </c>
-      <c r="B99" s="140" t="s">
-        <v>616</v>
-      </c>
-      <c r="C99" s="140" t="s">
-        <v>616</v>
-      </c>
-      <c r="D99" s="140" t="s">
-        <v>350</v>
-      </c>
-      <c r="E99" s="140" t="s">
-        <v>254</v>
-      </c>
-      <c r="F99" s="141" t="str">
-        <f>A97</f>
-        <v>G.CC</v>
-      </c>
-      <c r="G99" s="141"/>
-      <c r="I99" s="23"/>
-      <c r="J99" s="23"/>
-      <c r="K99" s="23"/>
-      <c r="L99" s="23"/>
-      <c r="M99" s="23"/>
-      <c r="N99" s="23"/>
+      <c r="G97" s="140"/>
+      <c r="H97" s="14"/>
+      <c r="I97" s="23"/>
+      <c r="J97" s="23"/>
+      <c r="K97" s="23"/>
+      <c r="L97" s="23"/>
+      <c r="M97" s="23"/>
+      <c r="N97" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A96:G96"/>
-    <mergeCell ref="A76:G76"/>
-    <mergeCell ref="A63:G63"/>
-    <mergeCell ref="A41:G41"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A88:G88"/>
+    <mergeCell ref="A87:H87"/>
+    <mergeCell ref="A94:H94"/>
     <mergeCell ref="C7:D8"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A40:H40"/>
+    <mergeCell ref="A62:H62"/>
+    <mergeCell ref="A75:H75"/>
   </mergeCells>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F40">
-      <formula1>GoalDependencyType</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D40">
-      <formula1>GoalDecompositionType</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E64:E75 E97:E99 E14:E28 E42:E62 E30:E39 E77:E87 E89:E91">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E95:E97 E63:E74 E41:E61 E76:E86 E88:E90 E30:E39 E14:E28">
       <formula1>CriticalityGoal</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H14:H91">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H95:H97 H14:H28 H30:H39 H41:H61 H63:H74 H76:H86 H88:H90">
       <formula1>ProgressState</formula1>
     </dataValidation>
   </dataValidations>
@@ -13725,7 +13718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -13761,44 +13754,44 @@
       <c r="F3" s="110"/>
     </row>
     <row r="4" spans="1:6" ht="23.25">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="178" t="s">
         <v>785</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
+      <c r="B4" s="178"/>
+      <c r="C4" s="178"/>
+      <c r="D4" s="178"/>
+      <c r="E4" s="178"/>
+      <c r="F4" s="178"/>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1">
       <c r="A5" s="41"/>
       <c r="B5" s="41"/>
     </row>
     <row r="6" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A6" s="208" t="s">
+      <c r="A6" s="209" t="s">
         <v>171</v>
       </c>
-      <c r="B6" s="209"/>
-      <c r="C6" s="209"/>
-      <c r="D6" s="210"/>
-      <c r="E6" s="204" t="s">
+      <c r="B6" s="210"/>
+      <c r="C6" s="210"/>
+      <c r="D6" s="211"/>
+      <c r="E6" s="205" t="s">
         <v>609</v>
       </c>
-      <c r="F6" s="204" t="s">
+      <c r="F6" s="205" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75">
-      <c r="A7" s="207" t="s">
+      <c r="A7" s="208" t="s">
         <v>419</v>
       </c>
-      <c r="B7" s="207"/>
-      <c r="C7" s="207" t="s">
+      <c r="B7" s="208"/>
+      <c r="C7" s="208" t="s">
         <v>420</v>
       </c>
-      <c r="D7" s="207"/>
-      <c r="E7" s="205"/>
-      <c r="F7" s="205"/>
+      <c r="D7" s="208"/>
+      <c r="E7" s="206"/>
+      <c r="F7" s="206"/>
     </row>
     <row r="8" spans="1:6" ht="15.75">
       <c r="A8" s="79" t="s">
@@ -13810,11 +13803,11 @@
       <c r="C8" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="148" t="s">
+      <c r="D8" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="206"/>
-      <c r="F8" s="206"/>
+      <c r="E8" s="207"/>
+      <c r="F8" s="207"/>
     </row>
     <row r="9" spans="1:6" s="49" customFormat="1" ht="38.25" customHeight="1">
       <c r="A9" s="122" t="str">

--- a/Templates/SIOP-RSLIL-v2.1.xlsx
+++ b/Templates/SIOP-RSLIL-v2.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr codeName="EsteLivro" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="842" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="842" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -313,7 +313,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="841">
   <si>
     <t>Id</t>
   </si>
@@ -9109,7 +9109,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10821,8 +10821,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11415,10 +11415,10 @@
   <sheetPr codeName="Sheet7">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N97"/>
+  <dimension ref="A1:N105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11501,7 +11501,7 @@
       <c r="E9" s="113"/>
     </row>
     <row r="10" spans="1:14" ht="18.75" customHeight="1">
-      <c r="I10" s="2"/>
+      <c r="I10" s="67"/>
     </row>
     <row r="11" spans="1:14" ht="18.75" customHeight="1">
       <c r="A11" s="199" t="s">
@@ -13679,10 +13679,149 @@
       <c r="M97" s="23"/>
       <c r="N97" s="23"/>
     </row>
+    <row r="99" spans="1:14">
+      <c r="A99" s="199" t="s">
+        <v>509</v>
+      </c>
+      <c r="B99" s="200"/>
+    </row>
+    <row r="100" spans="1:14" ht="47.25">
+      <c r="A100" s="79" t="s">
+        <v>177</v>
+      </c>
+      <c r="B100" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="D100" s="79" t="s">
+        <v>181</v>
+      </c>
+      <c r="E100" s="79" t="s">
+        <v>183</v>
+      </c>
+      <c r="F100" s="137" t="s">
+        <v>564</v>
+      </c>
+      <c r="G100" s="137" t="s">
+        <v>565</v>
+      </c>
+      <c r="H100" s="157" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
+      <c r="A101" s="197" t="s">
+        <v>613</v>
+      </c>
+      <c r="B101" s="197"/>
+      <c r="C101" s="197"/>
+      <c r="D101" s="197"/>
+      <c r="E101" s="197"/>
+      <c r="F101" s="197"/>
+      <c r="G101" s="197"/>
+      <c r="H101" s="269"/>
+    </row>
+    <row r="102" spans="1:14" ht="30">
+      <c r="A102" s="146" t="s">
+        <v>568</v>
+      </c>
+      <c r="B102" s="145" t="s">
+        <v>625</v>
+      </c>
+      <c r="C102" s="143" t="s">
+        <v>601</v>
+      </c>
+      <c r="D102" s="143" t="str">
+        <f>stakeholders!A$21</f>
+        <v>stk.administradorsistema</v>
+      </c>
+      <c r="E102" s="143" t="s">
+        <v>254</v>
+      </c>
+      <c r="F102" s="144"/>
+      <c r="G102" s="144"/>
+      <c r="H102" s="14"/>
+    </row>
+    <row r="103" spans="1:14" ht="30">
+      <c r="A103" s="139" t="s">
+        <v>569</v>
+      </c>
+      <c r="B103" s="139" t="s">
+        <v>567</v>
+      </c>
+      <c r="C103" s="139" t="s">
+        <v>610</v>
+      </c>
+      <c r="D103" s="139" t="str">
+        <f>stakeholders!A$21</f>
+        <v>stk.administradorsistema</v>
+      </c>
+      <c r="E103" s="139" t="s">
+        <v>254</v>
+      </c>
+      <c r="F103" s="140" t="str">
+        <f>A102</f>
+        <v>G.CC</v>
+      </c>
+      <c r="G103" s="140"/>
+      <c r="H103" s="14"/>
+    </row>
+    <row r="104" spans="1:14" ht="30">
+      <c r="A104" s="138" t="s">
+        <v>602</v>
+      </c>
+      <c r="B104" s="138" t="s">
+        <v>603</v>
+      </c>
+      <c r="C104" s="138" t="s">
+        <v>686</v>
+      </c>
+      <c r="D104" s="138" t="str">
+        <f>stakeholders!A$21</f>
+        <v>stk.administradorsistema</v>
+      </c>
+      <c r="E104" s="138" t="s">
+        <v>254</v>
+      </c>
+      <c r="F104" s="18" t="str">
+        <f>A103</f>
+        <v>G.CC.1</v>
+      </c>
+      <c r="G104" s="18"/>
+      <c r="H104" s="14"/>
+    </row>
+    <row r="105" spans="1:14" ht="30">
+      <c r="A105" s="138" t="s">
+        <v>604</v>
+      </c>
+      <c r="B105" s="138" t="s">
+        <v>611</v>
+      </c>
+      <c r="C105" s="138" t="s">
+        <v>612</v>
+      </c>
+      <c r="D105" s="138" t="str">
+        <f>stakeholders!A$21</f>
+        <v>stk.administradorsistema</v>
+      </c>
+      <c r="E105" s="138" t="s">
+        <v>253</v>
+      </c>
+      <c r="F105" s="18" t="str">
+        <f>A103</f>
+        <v>G.CC.1</v>
+      </c>
+      <c r="G105" s="18"/>
+      <c r="H105" s="14"/>
+    </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="18">
     <mergeCell ref="A87:H87"/>
     <mergeCell ref="A94:H94"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A101:H101"/>
     <mergeCell ref="C7:D8"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
@@ -13699,10 +13838,10 @@
     <mergeCell ref="A75:H75"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E95:E97 E63:E74 E41:E61 E76:E86 E88:E90 E30:E39 E14:E28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E95:E97 E63:E74 E41:E61 E76:E86 E88:E90 E30:E39 E14:E28 E102:E105">
       <formula1>CriticalityGoal</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H95:H97 H14:H28 H30:H39 H41:H61 H63:H74 H76:H86 H88:H90">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H95:H97 H14:H28 H30:H39 H41:H61 H63:H74 H76:H86 H88:H90 H102:H105">
       <formula1>ProgressState</formula1>
     </dataValidation>
   </dataValidations>
@@ -13718,7 +13857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>

--- a/Templates/SIOP-RSLIL-v2.1.xlsx
+++ b/Templates/SIOP-RSLIL-v2.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr codeName="EsteLivro" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="842" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="842" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -313,7 +313,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="841">
   <si>
     <t>Id</t>
   </si>
@@ -11417,8 +11417,8 @@
   </sheetPr>
   <dimension ref="A1:N105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13855,10 +13855,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13972,66 +13972,6 @@
         <v>608</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="49" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A10" s="122"/>
-      <c r="B10" s="122"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="122"/>
-      <c r="E10" s="123"/>
-      <c r="F10" s="122" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="49" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A11" s="122"/>
-      <c r="B11" s="122"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="122" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="49" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A12" s="122"/>
-      <c r="B12" s="122"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="122" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="49" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A13" s="122"/>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="122" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="49" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A14" s="122"/>
-      <c r="B14" s="122"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="122" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="49" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A15" s="122"/>
-      <c r="B15" s="122"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="122" t="s">
-        <v>608</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="E6:E8"/>
@@ -14042,7 +13982,7 @@
     <mergeCell ref="F6:F8"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:E15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9">
       <formula1>GoalDependencyType</formula1>
     </dataValidation>
   </dataValidations>

--- a/Templates/SIOP-RSLIL-v2.1.xlsx
+++ b/Templates/SIOP-RSLIL-v2.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr codeName="EsteLivro" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="842" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="842" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -313,7 +313,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="839">
   <si>
     <t>Id</t>
   </si>
@@ -1534,9 +1534,6 @@
     <t>ScopeType</t>
   </si>
   <si>
-    <t>software; hardware</t>
-  </si>
-  <si>
     <t>SAP-FI</t>
   </si>
   <si>
@@ -1756,9 +1753,6 @@
   </si>
   <si>
     <t>Min-FAA</t>
-  </si>
-  <si>
-    <t>Category (*)</t>
   </si>
   <si>
     <t>Project Definition</t>
@@ -4501,7 +4495,7 @@
     </row>
     <row r="4" spans="1:8" ht="23.25">
       <c r="A4" s="178" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B4" s="178"/>
       <c r="C4" s="178"/>
@@ -4535,7 +4529,7 @@
         <v>176</v>
       </c>
       <c r="H6" s="213" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="45" customHeight="1">
@@ -4550,10 +4544,10 @@
     </row>
     <row r="8" spans="1:8" ht="33.75" customHeight="1">
       <c r="A8" s="15" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="14"/>
@@ -4564,10 +4558,10 @@
     </row>
     <row r="9" spans="1:8" ht="33.75" customHeight="1">
       <c r="A9" s="15" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="14"/>
@@ -4737,7 +4731,7 @@
     </row>
     <row r="4" spans="1:11" ht="23.25">
       <c r="A4" s="178" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B4" s="178"/>
       <c r="C4" s="178"/>
@@ -4783,7 +4777,7 @@
         <v>176</v>
       </c>
       <c r="K7" s="213" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="31.5" customHeight="1">
@@ -4801,10 +4795,10 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="15" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="13"/>
@@ -4818,10 +4812,10 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="15" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="13"/>
@@ -4835,10 +4829,10 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="15" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="13"/>
@@ -4852,10 +4846,10 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="15" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="13"/>
@@ -4869,10 +4863,10 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="15" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="13"/>
@@ -4886,10 +4880,10 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="15" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="13"/>
@@ -4903,10 +4897,10 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="15" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="13"/>
@@ -4920,10 +4914,10 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="15" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="13"/>
@@ -4937,10 +4931,10 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="15" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="13"/>
@@ -4954,10 +4948,10 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="15" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="13"/>
@@ -5050,7 +5044,7 @@
     </row>
     <row r="4" spans="1:8" ht="23.25">
       <c r="A4" s="178" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B4" s="178"/>
       <c r="C4" s="178"/>
@@ -5084,7 +5078,7 @@
         <v>176</v>
       </c>
       <c r="H7" s="213" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1">
@@ -5099,13 +5093,13 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="15" t="s">
+        <v>787</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>789</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>791</v>
-      </c>
       <c r="C9" s="15" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>219</v>
@@ -5279,7 +5273,7 @@
     </row>
     <row r="4" spans="1:6" ht="23.25">
       <c r="A4" s="178" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B4" s="178"/>
       <c r="C4" s="178"/>
@@ -5293,13 +5287,13 @@
     </row>
     <row r="6" spans="1:6" ht="31.5" customHeight="1">
       <c r="A6" s="209" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B6" s="210"/>
       <c r="C6" s="210"/>
       <c r="D6" s="211"/>
       <c r="E6" s="205" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F6" s="205" t="s">
         <v>3</v>
@@ -5307,11 +5301,11 @@
     </row>
     <row r="7" spans="1:6" ht="15.75">
       <c r="A7" s="208" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B7" s="208"/>
       <c r="C7" s="208" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D7" s="208"/>
       <c r="E7" s="206"/>
@@ -5351,10 +5345,10 @@
         <v>YYY</v>
       </c>
       <c r="E9" s="123" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="F9" s="122" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="49" customFormat="1" ht="38.25" customHeight="1">
@@ -5375,10 +5369,10 @@
         <v>ZZZ</v>
       </c>
       <c r="E10" s="123" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="F10" s="122" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="49" customFormat="1" ht="38.25" customHeight="1">
@@ -5388,7 +5382,7 @@
       <c r="D11" s="122"/>
       <c r="E11" s="123"/>
       <c r="F11" s="122" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="49" customFormat="1" ht="38.25" customHeight="1">
@@ -5398,7 +5392,7 @@
       <c r="D12" s="122"/>
       <c r="E12" s="123"/>
       <c r="F12" s="122" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="49" customFormat="1" ht="38.25" customHeight="1">
@@ -5408,7 +5402,7 @@
       <c r="D13" s="122"/>
       <c r="E13" s="123"/>
       <c r="F13" s="122" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="49" customFormat="1" ht="38.25" customHeight="1">
@@ -5418,7 +5412,7 @@
       <c r="D14" s="122"/>
       <c r="E14" s="123"/>
       <c r="F14" s="122" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="49" customFormat="1" ht="38.25" customHeight="1">
@@ -5428,7 +5422,7 @@
       <c r="D15" s="122"/>
       <c r="E15" s="123"/>
       <c r="F15" s="122" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
   </sheetData>
@@ -5504,7 +5498,7 @@
     </row>
     <row r="4" spans="1:12" ht="23.25">
       <c r="A4" s="178" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B4" s="178"/>
       <c r="C4" s="178"/>
@@ -5523,7 +5517,7 @@
     </row>
     <row r="6" spans="1:12" ht="13.5" customHeight="1">
       <c r="A6" s="199" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B6" s="200"/>
     </row>
@@ -6361,7 +6355,7 @@
     </row>
     <row r="4" spans="1:9" ht="20.25" customHeight="1">
       <c r="A4" s="70" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B4" s="71"/>
       <c r="C4" s="73"/>
@@ -6412,12 +6406,12 @@
         <v>71</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1">
       <c r="A11" s="24" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B11" s="24" t="s">
         <v>64</v>
@@ -6426,7 +6420,7 @@
         <v>65</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E11" s="24" t="s">
         <v>66</v>
@@ -6441,7 +6435,7 @@
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1">
       <c r="A12" s="24" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B12" s="24" t="s">
         <v>184</v>
@@ -6450,21 +6444,21 @@
         <v>185</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1">
       <c r="A13" s="24" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B13" s="24" t="s">
         <v>186</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="24" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
@@ -6504,12 +6498,12 @@
         <v>71</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="24" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B17" s="24" t="s">
         <v>101</v>
@@ -6518,7 +6512,7 @@
         <v>102</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E17" s="52" t="s">
         <v>72</v>
@@ -6530,14 +6524,14 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="12" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>215</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="24" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -6619,7 +6613,7 @@
     </row>
     <row r="4" spans="1:18" ht="23.25">
       <c r="A4" s="178" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B4" s="178"/>
       <c r="C4" s="178"/>
@@ -6712,7 +6706,7 @@
       </c>
       <c r="Q10" s="252"/>
       <c r="R10" s="213" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="33" customHeight="1">
@@ -6759,7 +6753,7 @@
     </row>
     <row r="12" spans="1:18" ht="107.25" customHeight="1">
       <c r="A12" s="60" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B12" s="56" t="s">
         <v>126</v>
@@ -6809,7 +6803,7 @@
     </row>
     <row r="13" spans="1:18" ht="47.25" customHeight="1">
       <c r="A13" s="15" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B13" s="106" t="s">
         <v>127</v>
@@ -6926,7 +6920,7 @@
       </c>
       <c r="Q16" s="252"/>
       <c r="R16" s="213" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="33" customHeight="1">
@@ -7155,7 +7149,7 @@
     </row>
     <row r="4" spans="1:10" ht="23.25">
       <c r="A4" s="178" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B4" s="178"/>
       <c r="C4" s="178"/>
@@ -7185,7 +7179,7 @@
     <row r="9" spans="1:10" ht="16.5" customHeight="1"/>
     <row r="10" spans="1:10" ht="16.5" customHeight="1">
       <c r="A10" s="266" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B10" s="266"/>
       <c r="C10" s="266"/>
@@ -7447,7 +7441,7 @@
     </row>
     <row r="4" spans="1:10" ht="23.25">
       <c r="A4" s="178" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B4" s="178"/>
       <c r="C4" s="178"/>
@@ -7752,7 +7746,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="17" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B6" s="27"/>
       <c r="C6" s="27"/>
@@ -7767,77 +7761,77 @@
         <v>148</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="E7" s="18" t="s">
         <v>473</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>475</v>
-      </c>
       <c r="F7" s="18" t="s">
+        <v>470</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="H7" s="18" t="s">
         <v>472</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>475</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>477</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>477</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>479</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="G8" s="18" t="s">
         <v>481</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>483</v>
-      </c>
       <c r="H8" s="18" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>776</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>774</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>792</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>777</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>778</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>779</v>
-      </c>
       <c r="H9" s="2" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="27.75" customHeight="1">
@@ -7870,13 +7864,13 @@
         <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>794</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>795</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>796</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>797</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="18"/>
@@ -7887,16 +7881,16 @@
         <v>49</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="18"/>
@@ -7907,10 +7901,10 @@
         <v>393</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -7923,13 +7917,13 @@
         <v>383</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>830</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>831</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>832</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -7941,22 +7935,22 @@
         <v>384</v>
       </c>
       <c r="B16" s="18" t="s">
+        <v>823</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>825</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>826</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>827</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>828</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>829</v>
-      </c>
       <c r="G16" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H16" s="2"/>
     </row>
@@ -7980,22 +7974,22 @@
         <v>71</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>799</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>800</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="G19" s="18" t="s">
         <v>801</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="H19" s="18" t="s">
         <v>802</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>803</v>
-      </c>
-      <c r="H19" s="18" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -8003,16 +7997,16 @@
         <v>43</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>805</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>806</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>807</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>808</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -8069,19 +8063,19 @@
         <v>148</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C26" s="18" t="s">
+        <v>809</v>
+      </c>
+      <c r="D26" s="18" t="s">
         <v>811</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="E26" s="18" t="s">
         <v>813</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="F26" s="18" t="s">
         <v>815</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>817</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -8095,37 +8089,37 @@
         <v>49</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>812</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>814</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>816</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="G27" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>818</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="I27" s="2" t="s">
         <v>819</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="J27" s="2" t="s">
         <v>820</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="K27" s="2" t="s">
         <v>821</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="L27" s="18" t="s">
         <v>822</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>823</v>
-      </c>
-      <c r="L27" s="18" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -8179,19 +8173,19 @@
         <v>138</v>
       </c>
       <c r="B32" s="12" t="s">
+        <v>831</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>832</v>
+      </c>
+      <c r="D32" s="12" t="s">
         <v>833</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="E32" s="12" t="s">
         <v>834</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="F32" s="12" t="s">
         <v>835</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>836</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -8355,13 +8349,13 @@
         <v>8</v>
       </c>
       <c r="B46" s="22" t="s">
+        <v>836</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>837</v>
+      </c>
+      <c r="D46" s="22" t="s">
         <v>838</v>
-      </c>
-      <c r="C46" s="22" t="s">
-        <v>839</v>
-      </c>
-      <c r="D46" s="22" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -8891,7 +8885,7 @@
     </row>
     <row r="4" spans="1:12" ht="23.25">
       <c r="A4" s="178" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B4" s="178"/>
       <c r="C4" s="178"/>
@@ -8918,15 +8912,15 @@
       <c r="C6" s="183"/>
       <c r="D6" s="184"/>
       <c r="E6" s="176" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F6" s="176"/>
       <c r="G6" s="176" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H6" s="176"/>
       <c r="I6" s="181" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="J6" s="181"/>
       <c r="K6" s="181"/>
@@ -8943,45 +8937,45 @@
         <v>178</v>
       </c>
       <c r="D7" s="26" t="s">
+        <v>483</v>
+      </c>
+      <c r="E7" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="E7" s="26" t="s">
-        <v>487</v>
-      </c>
       <c r="F7" s="26" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H7" s="26" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="I7" s="26" t="s">
+        <v>489</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>490</v>
+      </c>
+      <c r="K7" s="26" t="s">
         <v>491</v>
       </c>
-      <c r="J7" s="26" t="s">
-        <v>492</v>
-      </c>
-      <c r="K7" s="26" t="s">
-        <v>493</v>
-      </c>
       <c r="L7" s="151" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="33.75" customHeight="1">
       <c r="A8" s="11" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>379</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E8" s="134">
         <v>42339</v>
@@ -8997,19 +8991,19 @@
         <v>351</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="L8" s="14" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="46.5" customHeight="1"/>
     <row r="10" spans="1:12" ht="21" customHeight="1">
       <c r="A10" s="179" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B10" s="180"/>
       <c r="C10" s="180"/>
@@ -9025,7 +9019,7 @@
     </row>
     <row r="11" spans="1:12" ht="94.5" customHeight="1">
       <c r="A11" s="174" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B11" s="175"/>
       <c r="C11" s="175"/>
@@ -9042,7 +9036,7 @@
     <row r="12" spans="1:12" ht="21" customHeight="1"/>
     <row r="13" spans="1:12" ht="21" customHeight="1">
       <c r="A13" s="179" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B13" s="180"/>
       <c r="C13" s="180"/>
@@ -9058,7 +9052,7 @@
     </row>
     <row r="14" spans="1:12" ht="249.75" customHeight="1">
       <c r="A14" s="174" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B14" s="175"/>
       <c r="C14" s="175"/>
@@ -9106,10 +9100,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9118,20 +9112,19 @@
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
     <col min="3" max="3" width="93.140625" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="41" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="7.5" customHeight="1">
+    <row r="2" spans="1:6" ht="7.5" customHeight="1">
       <c r="A2" s="41"/>
     </row>
-    <row r="3" spans="1:7" ht="23.25" customHeight="1">
+    <row r="3" spans="1:6" ht="23.25" customHeight="1">
       <c r="A3" s="135" t="str">
         <f>index!A1</f>
         <v>Especificação de Requisitos do SIOP (Sistema Integrado de Operações) - CSSFAA</v>
@@ -9141,23 +9134,21 @@
       <c r="D3" s="46"/>
       <c r="E3" s="46"/>
       <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-    </row>
-    <row r="4" spans="1:7" ht="23.25">
+    </row>
+    <row r="4" spans="1:6" ht="23.25">
       <c r="A4" s="178" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B4" s="178"/>
       <c r="C4" s="178"/>
       <c r="D4" s="178"/>
       <c r="E4" s="178"/>
       <c r="F4" s="178"/>
-      <c r="G4" s="178"/>
-    </row>
-    <row r="5" spans="1:7" ht="47.25" customHeight="1">
+    </row>
+    <row r="5" spans="1:6" ht="47.25" customHeight="1">
       <c r="A5" s="41"/>
     </row>
-    <row r="6" spans="1:7" ht="31.5">
+    <row r="6" spans="1:6" ht="31.5">
       <c r="A6" s="79" t="s">
         <v>177</v>
       </c>
@@ -9171,18 +9162,15 @@
         <v>178</v>
       </c>
       <c r="E6" s="79" t="s">
-        <v>468</v>
+        <v>391</v>
       </c>
       <c r="F6" s="79" t="s">
-        <v>391</v>
-      </c>
-      <c r="G6" s="79" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="81" customHeight="1">
+    <row r="7" spans="1:6" ht="81" customHeight="1">
       <c r="A7" s="114" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B7" s="115" t="s">
         <v>257</v>
@@ -9193,161 +9181,140 @@
       <c r="D7" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="118" t="s">
-        <v>389</v>
-      </c>
-      <c r="F7" s="116" t="s">
-        <v>830</v>
-      </c>
-      <c r="G7" s="116"/>
-    </row>
-    <row r="8" spans="1:7" ht="30">
+      <c r="E7" s="116" t="s">
+        <v>828</v>
+      </c>
+      <c r="F7" s="116"/>
+    </row>
+    <row r="8" spans="1:6" ht="30">
       <c r="A8" s="11" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>389</v>
-      </c>
-      <c r="F8" s="42" t="s">
-        <v>830</v>
-      </c>
-      <c r="G8" s="11" t="str">
-        <f t="shared" ref="G8:G13" si="0">$A$7</f>
+        <v>828</v>
+      </c>
+      <c r="F8" s="11" t="str">
+        <f t="shared" ref="F8:F13" si="0">$A$7</f>
         <v>S.SIOP</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30">
+    <row r="9" spans="1:6" ht="30">
       <c r="A9" s="11" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>389</v>
-      </c>
-      <c r="F9" s="42" t="s">
-        <v>830</v>
-      </c>
-      <c r="G9" s="11" t="str">
+        <v>828</v>
+      </c>
+      <c r="F9" s="11" t="str">
         <f t="shared" si="0"/>
         <v>S.SIOP</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30">
+    <row r="10" spans="1:6" ht="30">
       <c r="A10" s="11" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>400</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>401</v>
-      </c>
       <c r="D10" s="42" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="E10" s="42" t="s">
-        <v>389</v>
-      </c>
-      <c r="F10" s="42" t="s">
-        <v>830</v>
-      </c>
-      <c r="G10" s="11" t="str">
+        <v>828</v>
+      </c>
+      <c r="F10" s="11" t="str">
         <f t="shared" si="0"/>
         <v>S.SIOP</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30">
+    <row r="11" spans="1:6" ht="30">
       <c r="A11" s="11" t="s">
+        <v>694</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>695</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>696</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>697</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>698</v>
-      </c>
       <c r="D11" s="42" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="E11" s="42" t="s">
-        <v>389</v>
-      </c>
-      <c r="F11" s="42" t="s">
-        <v>831</v>
-      </c>
-      <c r="G11" s="11" t="str">
+        <v>829</v>
+      </c>
+      <c r="F11" s="11" t="str">
         <f t="shared" si="0"/>
         <v>S.SIOP</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30">
+    <row r="12" spans="1:6" ht="30">
       <c r="A12" s="11" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>389</v>
-      </c>
-      <c r="F12" s="42" t="s">
-        <v>830</v>
-      </c>
-      <c r="G12" s="11" t="str">
+        <v>828</v>
+      </c>
+      <c r="F12" s="11" t="str">
         <f t="shared" si="0"/>
         <v>S.SIOP</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:6">
       <c r="A13" s="11" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>404</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>405</v>
-      </c>
       <c r="D13" s="42" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>389</v>
-      </c>
-      <c r="F13" s="42" t="s">
-        <v>830</v>
-      </c>
-      <c r="G13" s="11" t="str">
+        <v>828</v>
+      </c>
+      <c r="F13" s="11" t="str">
         <f t="shared" si="0"/>
         <v>S.SIOP</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="90">
+    <row r="14" spans="1:6" ht="90">
       <c r="A14" s="117" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B14" s="117" t="s">
         <v>380</v>
@@ -9359,88 +9326,76 @@
         <v>22</v>
       </c>
       <c r="E14" s="118" t="s">
-        <v>389</v>
-      </c>
-      <c r="F14" s="118" t="s">
-        <v>830</v>
-      </c>
-      <c r="G14" s="118"/>
-    </row>
-    <row r="15" spans="1:7" ht="30">
+        <v>828</v>
+      </c>
+      <c r="F14" s="118"/>
+    </row>
+    <row r="15" spans="1:6" ht="30">
       <c r="A15" s="11" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="E15" s="42" t="s">
-        <v>389</v>
-      </c>
-      <c r="F15" s="42" t="s">
-        <v>830</v>
-      </c>
-      <c r="G15" s="11" t="str">
+        <v>828</v>
+      </c>
+      <c r="F15" s="11" t="str">
         <f>$A$14</f>
         <v>S.SIOP-Del</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30">
+    <row r="16" spans="1:6" ht="30">
       <c r="A16" s="11" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="E16" s="42" t="s">
-        <v>389</v>
-      </c>
-      <c r="F16" s="42" t="s">
-        <v>830</v>
-      </c>
-      <c r="G16" s="11" t="str">
-        <f t="shared" ref="G16:G17" si="1">$A$14</f>
+        <v>828</v>
+      </c>
+      <c r="F16" s="11" t="str">
+        <f t="shared" ref="F16:F17" si="1">$A$14</f>
         <v>S.SIOP-Del</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30">
+    <row r="17" spans="1:6" ht="30">
       <c r="A17" s="11" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B17" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>404</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>405</v>
-      </c>
       <c r="D17" s="42" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>389</v>
-      </c>
-      <c r="F17" s="42" t="s">
-        <v>830</v>
-      </c>
-      <c r="G17" s="11" t="str">
+        <v>828</v>
+      </c>
+      <c r="F17" s="11" t="str">
         <f t="shared" si="1"/>
         <v>S.SIOP-Del</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="135">
+    <row r="18" spans="1:6" ht="135">
       <c r="A18" s="119" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B18" s="117" t="s">
         <v>381</v>
@@ -9452,149 +9407,127 @@
         <v>22</v>
       </c>
       <c r="E18" s="118" t="s">
-        <v>394</v>
-      </c>
-      <c r="F18" s="118" t="s">
-        <v>830</v>
-      </c>
-      <c r="G18" s="118"/>
-    </row>
-    <row r="19" spans="1:7" ht="30">
+        <v>828</v>
+      </c>
+      <c r="F18" s="118"/>
+    </row>
+    <row r="19" spans="1:6" ht="30">
       <c r="A19" s="11" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>389</v>
-      </c>
-      <c r="F19" s="42" t="s">
-        <v>830</v>
-      </c>
-      <c r="G19" s="11" t="str">
+        <v>828</v>
+      </c>
+      <c r="F19" s="11" t="str">
         <f>$A$18</f>
         <v>S.SIOP-Mala</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30">
+    <row r="20" spans="1:6" ht="30">
       <c r="A20" s="11" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D20" s="42" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>389</v>
-      </c>
-      <c r="F20" s="42" t="s">
-        <v>830</v>
-      </c>
-      <c r="G20" s="11" t="str">
+        <v>828</v>
+      </c>
+      <c r="F20" s="11" t="str">
         <f>$A$18</f>
         <v>S.SIOP-Mala</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="43.5" customHeight="1">
+    <row r="21" spans="1:6" ht="43.5" customHeight="1">
       <c r="A21" s="185" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B21" s="186"/>
       <c r="C21" s="186"/>
       <c r="D21" s="186"/>
       <c r="E21" s="186"/>
-      <c r="F21" s="186"/>
-      <c r="G21" s="187"/>
-    </row>
-    <row r="22" spans="1:7" ht="45">
+      <c r="F21" s="187"/>
+    </row>
+    <row r="22" spans="1:6" ht="45">
       <c r="A22" s="10" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B22" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>395</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>396</v>
       </c>
       <c r="D22" s="42" t="s">
         <v>22</v>
       </c>
       <c r="E22" s="42" t="s">
-        <v>389</v>
-      </c>
-      <c r="F22" s="42" t="s">
-        <v>831</v>
-      </c>
-      <c r="G22" s="42"/>
-    </row>
-    <row r="23" spans="1:7" ht="75">
+        <v>829</v>
+      </c>
+      <c r="F22" s="42"/>
+    </row>
+    <row r="23" spans="1:6" ht="75">
       <c r="A23" s="10" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B23" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>397</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>398</v>
       </c>
       <c r="D23" s="42" t="s">
         <v>22</v>
       </c>
       <c r="E23" s="42" t="s">
-        <v>394</v>
-      </c>
-      <c r="F23" s="42" t="s">
-        <v>831</v>
-      </c>
-      <c r="G23" s="42"/>
-    </row>
-    <row r="24" spans="1:7" ht="30">
+        <v>829</v>
+      </c>
+      <c r="F23" s="42"/>
+    </row>
+    <row r="24" spans="1:6" ht="30">
       <c r="A24" s="25" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B24" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="C24" s="25" t="s">
         <v>416</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>417</v>
       </c>
       <c r="D24" s="42" t="s">
         <v>22</v>
       </c>
       <c r="E24" s="42" t="s">
-        <v>389</v>
-      </c>
-      <c r="F24" s="42" t="s">
-        <v>831</v>
-      </c>
-      <c r="G24" s="25"/>
+        <v>829</v>
+      </c>
+      <c r="F24" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A4:F4"/>
   </mergeCells>
-  <dataValidations count="3">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E20 E22:E24">
+      <formula1>ScopeType</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D22:D24 D7:D20">
       <formula1>SystemType</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F20 F22:F24">
-      <formula1>ScopeType</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E22:E24 E7:E20">
-      <formula1>SystemCategory</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -9641,7 +9574,7 @@
     </row>
     <row r="4" spans="1:5" ht="23.25">
       <c r="A4" s="178" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B4" s="178"/>
       <c r="C4" s="178"/>
@@ -9657,10 +9590,10 @@
       </c>
       <c r="B6" s="191"/>
       <c r="C6" s="188" t="s">
+        <v>420</v>
+      </c>
+      <c r="D6" s="188" t="s">
         <v>421</v>
-      </c>
-      <c r="D6" s="188" t="s">
-        <v>422</v>
       </c>
       <c r="E6" s="188" t="s">
         <v>3</v>
@@ -9668,10 +9601,10 @@
     </row>
     <row r="7" spans="1:5" ht="15.75">
       <c r="A7" s="79" t="s">
+        <v>418</v>
+      </c>
+      <c r="B7" s="79" t="s">
         <v>419</v>
-      </c>
-      <c r="B7" s="79" t="s">
-        <v>420</v>
       </c>
       <c r="C7" s="189"/>
       <c r="D7" s="189"/>
@@ -9687,13 +9620,13 @@
         <v>S.SIOP-Del</v>
       </c>
       <c r="C8" s="123" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D8" s="123" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E8" s="122" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="49" customFormat="1" ht="30">
@@ -9706,13 +9639,13 @@
         <v>S.SIOP-Mala</v>
       </c>
       <c r="C9" s="123" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D9" s="123" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E9" s="122" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="49" customFormat="1">
@@ -9725,13 +9658,13 @@
         <v>S.SAP-FI</v>
       </c>
       <c r="C10" s="123" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="D10" s="123" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E10" s="121" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="49" customFormat="1" ht="30">
@@ -9744,13 +9677,13 @@
         <v>S.VisionBox</v>
       </c>
       <c r="C11" s="123" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="D11" s="123" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E11" s="121" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="49" customFormat="1">
@@ -9763,13 +9696,13 @@
         <v>S.SI-Legados</v>
       </c>
       <c r="C12" s="123" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="D12" s="123" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E12" s="121" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="49" customFormat="1" ht="30">
@@ -9782,13 +9715,13 @@
         <v>S.VisionBox</v>
       </c>
       <c r="C13" s="123" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="D13" s="123" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E13" s="121" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="49" customFormat="1" ht="30">
@@ -9801,13 +9734,13 @@
         <v>S.VisionBox</v>
       </c>
       <c r="C14" s="123" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="D14" s="123" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E14" s="121" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="49" customFormat="1">
@@ -9890,7 +9823,7 @@
     </row>
     <row r="3" spans="1:8" ht="23.25">
       <c r="A3" s="178" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B3" s="178"/>
       <c r="C3" s="178"/>
@@ -9918,13 +9851,13 @@
         <v>172</v>
       </c>
       <c r="F5" s="125" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G5" s="125" t="s">
         <v>337</v>
       </c>
       <c r="H5" s="125" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="27.75" customHeight="1">
@@ -9950,11 +9883,11 @@
         <v>336</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="15" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
@@ -9970,11 +9903,11 @@
         <v>335</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="15" t="str">
@@ -9993,14 +9926,14 @@
         <v>338</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="15" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H9" s="15" t="str">
         <f>A7</f>
@@ -10018,11 +9951,11 @@
         <v>343</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="15" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G10" s="15" t="s">
         <v>342</v>
@@ -10043,11 +9976,11 @@
         <v>344</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="15" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G11" s="15" t="s">
         <v>263</v>
@@ -10068,11 +10001,11 @@
         <v>266</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="15" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="15" t="str">
@@ -10103,13 +10036,13 @@
         <v>287</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>351</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
@@ -10125,11 +10058,11 @@
         <v>330</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="15" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
@@ -10145,11 +10078,11 @@
         <v>333</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="E16" s="15"/>
       <c r="F16" s="15" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
@@ -10165,31 +10098,31 @@
         <v>284</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E17" s="15"/>
       <c r="F17" s="15" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
     </row>
     <row r="18" spans="1:8" ht="45">
       <c r="A18" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>450</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>446</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>451</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>447</v>
-      </c>
       <c r="D18" s="15" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E18" s="15"/>
       <c r="F18" s="15" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G18" s="15"/>
       <c r="H18" s="15" t="str">
@@ -10199,20 +10132,20 @@
     </row>
     <row r="19" spans="1:8" ht="30">
       <c r="A19" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>451</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>448</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>449</v>
-      </c>
       <c r="D19" s="15" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E19" s="15"/>
       <c r="F19" s="15" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G19" s="15"/>
       <c r="H19" s="15" t="str">
@@ -10222,20 +10155,20 @@
     </row>
     <row r="20" spans="1:8" ht="83.25" customHeight="1">
       <c r="A20" s="15" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>345</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="15" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G20" s="15" t="s">
         <v>269</v>
@@ -10247,20 +10180,20 @@
     </row>
     <row r="21" spans="1:8" ht="45">
       <c r="A21" s="15" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>270</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="E21" s="15"/>
       <c r="F21" s="15" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="15" t="str">
@@ -10273,20 +10206,20 @@
         <v>271</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>272</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="E22" s="15"/>
       <c r="F22" s="15" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H22" s="15" t="str">
         <f>A19</f>
@@ -10298,20 +10231,20 @@
         <v>273</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>274</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="E23" s="15"/>
       <c r="F23" s="15" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H23" s="15" t="str">
         <f>A19</f>
@@ -10323,20 +10256,20 @@
         <v>275</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>276</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="E24" s="15"/>
       <c r="F24" s="15" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H24" s="15" t="str">
         <f>A19</f>
@@ -10348,17 +10281,17 @@
         <v>277</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>278</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="E25" s="15"/>
       <c r="F25" s="15" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G25" s="15"/>
       <c r="H25" s="15" t="str">
@@ -10368,23 +10301,23 @@
     </row>
     <row r="26" spans="1:8" ht="75">
       <c r="A26" s="15" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>279</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="E26" s="15"/>
       <c r="F26" s="15" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H26" s="15" t="str">
         <f>A19</f>
@@ -10402,14 +10335,14 @@
         <v>282</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H27" s="15" t="str">
         <f>A19</f>
@@ -10439,11 +10372,11 @@
         <v>290</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E29" s="15"/>
       <c r="F29" s="15" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
@@ -10459,11 +10392,11 @@
         <v>293</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="15" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
@@ -10479,11 +10412,11 @@
         <v>296</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E31" s="15"/>
       <c r="F31" s="15" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
@@ -10499,11 +10432,11 @@
         <v>299</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="15" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
@@ -10519,31 +10452,31 @@
         <v>302</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E33" s="15"/>
       <c r="F33" s="15" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
     </row>
     <row r="34" spans="1:8" ht="30">
       <c r="A34" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>323</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E34" s="15"/>
       <c r="F34" s="15" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
@@ -10559,11 +10492,11 @@
         <v>373</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E35" s="15"/>
       <c r="F35" s="15" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G35" s="15"/>
       <c r="H35" s="15" t="str">
@@ -10582,11 +10515,11 @@
         <v>374</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E36" s="15"/>
       <c r="F36" s="15" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G36" s="15"/>
       <c r="H36" s="15" t="str">
@@ -10605,11 +10538,11 @@
         <v>375</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E37" s="15"/>
       <c r="F37" s="15" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G37" s="15"/>
       <c r="H37" s="15" t="str">
@@ -10628,11 +10561,11 @@
         <v>311</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="15" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G38" s="15"/>
       <c r="H38" s="15" t="str">
@@ -10651,11 +10584,11 @@
         <v>376</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="15" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G39" s="15"/>
       <c r="H39" s="15" t="str">
@@ -10674,11 +10607,11 @@
         <v>316</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E40" s="15"/>
       <c r="F40" s="15" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G40" s="15"/>
       <c r="H40" s="15" t="str">
@@ -10697,11 +10630,11 @@
         <v>319</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E41" s="15"/>
       <c r="F41" s="15" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G41" s="15"/>
       <c r="H41" s="15" t="str">
@@ -10720,11 +10653,11 @@
         <v>322</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E42" s="15"/>
       <c r="F42" s="15" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G42" s="15"/>
       <c r="H42" s="15" t="str">
@@ -10743,11 +10676,11 @@
         <v>377</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E43" s="15"/>
       <c r="F43" s="15" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G43" s="15"/>
       <c r="H43" s="15"/>
@@ -10763,31 +10696,31 @@
         <v>378</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E44" s="15"/>
       <c r="F44" s="15" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G44" s="15"/>
       <c r="H44" s="15"/>
     </row>
     <row r="45" spans="1:8" ht="75">
       <c r="A45" s="15" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B45" s="15" t="s">
         <v>369</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E45" s="15"/>
       <c r="F45" s="15" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G45" s="15"/>
       <c r="H45" s="15"/>
@@ -10870,7 +10803,7 @@
     </row>
     <row r="4" spans="1:7" ht="29.25" customHeight="1">
       <c r="A4" s="178" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B4" s="178"/>
       <c r="C4" s="178"/>
@@ -10897,7 +10830,7 @@
         <v>180</v>
       </c>
       <c r="F6" s="127" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G6" s="127" t="s">
         <v>176</v>
@@ -10916,7 +10849,7 @@
     </row>
     <row r="8" spans="1:7" ht="30.75" customHeight="1">
       <c r="A8" s="15" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>346</v>
@@ -10925,17 +10858,17 @@
         <v>353</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
     <row r="9" spans="1:7" ht="23.25" customHeight="1">
       <c r="A9" s="15" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>352</v>
@@ -10944,29 +10877,29 @@
         <v>353</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
     <row r="10" spans="1:7" ht="51" customHeight="1">
       <c r="A10" s="15" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>353</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="F10" s="15" t="str">
         <f>A9</f>
@@ -10976,7 +10909,7 @@
     </row>
     <row r="11" spans="1:7" ht="51" customHeight="1">
       <c r="A11" s="15" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>354</v>
@@ -10985,10 +10918,10 @@
         <v>353</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="F11" s="15" t="str">
         <f>A10</f>
@@ -10998,7 +10931,7 @@
     </row>
     <row r="12" spans="1:7" ht="53.25" customHeight="1">
       <c r="A12" s="15" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>355</v>
@@ -11007,10 +10940,10 @@
         <v>353</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="F12" s="15" t="str">
         <f>A10</f>
@@ -11020,7 +10953,7 @@
     </row>
     <row r="13" spans="1:7" ht="57.75" customHeight="1">
       <c r="A13" s="15" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>347</v>
@@ -11029,10 +10962,10 @@
         <v>353</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="F13" s="15" t="str">
         <f>A9</f>
@@ -11053,7 +10986,7 @@
     </row>
     <row r="15" spans="1:7" ht="22.5" customHeight="1">
       <c r="A15" s="12" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>348</v>
@@ -11062,17 +10995,17 @@
         <v>353</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="12" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>349</v>
@@ -11081,10 +11014,10 @@
         <v>353</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="F16" s="25" t="str">
         <f>A15</f>
@@ -11094,7 +11027,7 @@
     </row>
     <row r="17" spans="1:7" ht="30">
       <c r="A17" s="12" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>356</v>
@@ -11103,10 +11036,10 @@
         <v>357</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="F17" s="25" t="str">
         <f>A16</f>
@@ -11116,7 +11049,7 @@
     </row>
     <row r="18" spans="1:7" ht="30">
       <c r="A18" s="12" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>358</v>
@@ -11125,10 +11058,10 @@
         <v>359</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="F18" s="25" t="str">
         <f>A16</f>
@@ -11138,7 +11071,7 @@
     </row>
     <row r="19" spans="1:7" ht="30">
       <c r="A19" s="12" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>360</v>
@@ -11147,10 +11080,10 @@
         <v>361</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="F19" s="25" t="str">
         <f>A16</f>
@@ -11160,7 +11093,7 @@
     </row>
     <row r="20" spans="1:7" ht="30">
       <c r="A20" s="12" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>362</v>
@@ -11169,10 +11102,10 @@
         <v>363</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="F20" s="25" t="str">
         <f>A16</f>
@@ -11182,19 +11115,19 @@
     </row>
     <row r="21" spans="1:7" ht="40.5" customHeight="1">
       <c r="A21" s="12" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B21" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>427</v>
       </c>
-      <c r="C21" s="15" t="s">
-        <v>428</v>
-      </c>
       <c r="D21" s="15" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="F21" s="25" t="str">
         <f>A16</f>
@@ -11204,19 +11137,19 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="12" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>353</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="F22" s="25" t="str">
         <f>A15</f>
@@ -11237,38 +11170,38 @@
     </row>
     <row r="24" spans="1:7" ht="31.5" customHeight="1">
       <c r="A24" s="15" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
     </row>
     <row r="25" spans="1:7" ht="26.25" customHeight="1">
       <c r="A25" s="15" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>351</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D25" s="15" t="s">
+        <v>808</v>
+      </c>
+      <c r="E25" s="15" t="s">
         <v>810</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>812</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="15" t="str">
@@ -11278,19 +11211,19 @@
     </row>
     <row r="26" spans="1:7" ht="30" customHeight="1">
       <c r="A26" s="15" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>353</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="F26" s="15"/>
       <c r="G26" s="15" t="str">
@@ -11300,19 +11233,19 @@
     </row>
     <row r="27" spans="1:7" ht="30.75" customHeight="1">
       <c r="A27" s="15" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="F27" s="15"/>
       <c r="G27" s="15" t="str">
@@ -11322,19 +11255,19 @@
     </row>
     <row r="28" spans="1:7" ht="30.75" customHeight="1">
       <c r="A28" s="15" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="F28" s="15"/>
       <c r="G28" s="15" t="str">
@@ -11344,19 +11277,19 @@
     </row>
     <row r="29" spans="1:7" ht="37.5" customHeight="1">
       <c r="A29" s="15" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="F29" s="15"/>
       <c r="G29" s="15" t="str">
@@ -11366,19 +11299,19 @@
     </row>
     <row r="30" spans="1:7" ht="31.5" customHeight="1">
       <c r="A30" s="15" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="15" t="str">
@@ -11456,7 +11389,7 @@
     </row>
     <row r="4" spans="1:14" ht="23.25">
       <c r="A4" s="178" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B4" s="178"/>
       <c r="C4" s="178"/>
@@ -11475,7 +11408,7 @@
     </row>
     <row r="7" spans="1:14" ht="18.75" customHeight="1">
       <c r="A7" s="203" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B7" s="203"/>
       <c r="C7" s="202"/>
@@ -11484,7 +11417,7 @@
     </row>
     <row r="8" spans="1:14" ht="18.75" customHeight="1">
       <c r="A8" s="204" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B8" s="204"/>
       <c r="C8" s="202"/>
@@ -11493,7 +11426,7 @@
     </row>
     <row r="9" spans="1:14" ht="18.75" customHeight="1">
       <c r="A9" s="198" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B9" s="198"/>
       <c r="C9" s="113"/>
@@ -11505,7 +11438,7 @@
     </row>
     <row r="11" spans="1:14" ht="18.75" customHeight="1">
       <c r="A11" s="199" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B11" s="200"/>
     </row>
@@ -11526,18 +11459,18 @@
         <v>183</v>
       </c>
       <c r="F12" s="137" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G12" s="137" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="H12" s="157" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="33.75" customHeight="1">
       <c r="A13" s="197" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B13" s="197"/>
       <c r="C13" s="197"/>
@@ -11549,13 +11482,13 @@
     </row>
     <row r="14" spans="1:14" ht="50.25" customHeight="1">
       <c r="A14" s="146" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B14" s="145" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C14" s="143" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D14" s="143" t="str">
         <f>stakeholders!A$21</f>
@@ -11570,13 +11503,13 @@
     </row>
     <row r="15" spans="1:14" ht="44.25" customHeight="1">
       <c r="A15" s="139" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B15" s="139" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C15" s="139" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D15" s="139" t="str">
         <f>stakeholders!A$21</f>
@@ -11600,13 +11533,13 @@
     </row>
     <row r="16" spans="1:14" ht="44.25" customHeight="1">
       <c r="A16" s="138" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B16" s="138" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C16" s="138" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D16" s="138" t="str">
         <f>stakeholders!A$21</f>
@@ -11630,13 +11563,13 @@
     </row>
     <row r="17" spans="1:14" ht="44.25" customHeight="1">
       <c r="A17" s="138" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B17" s="138" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C17" s="138" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D17" s="138" t="str">
         <f>stakeholders!A$21</f>
@@ -11660,10 +11593,10 @@
     </row>
     <row r="18" spans="1:14" ht="44.25" customHeight="1">
       <c r="A18" s="138" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B18" s="138" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C18" s="138" t="s">
         <v>368</v>
@@ -11681,7 +11614,7 @@
       </c>
       <c r="G18" s="18"/>
       <c r="H18" s="153" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="I18" s="23"/>
       <c r="J18" s="23"/>
@@ -11692,13 +11625,13 @@
     </row>
     <row r="19" spans="1:14" ht="44.25" customHeight="1">
       <c r="A19" s="141" t="s">
+        <v>568</v>
+      </c>
+      <c r="B19" s="141" t="s">
         <v>570</v>
       </c>
-      <c r="B19" s="141" t="s">
-        <v>572</v>
-      </c>
       <c r="C19" s="141" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D19" s="141" t="s">
         <v>350</v>
@@ -11721,13 +11654,13 @@
     </row>
     <row r="20" spans="1:14" ht="44.25" customHeight="1">
       <c r="A20" s="138" t="s">
+        <v>572</v>
+      </c>
+      <c r="B20" s="138" t="s">
+        <v>573</v>
+      </c>
+      <c r="C20" s="138" t="s">
         <v>574</v>
-      </c>
-      <c r="B20" s="138" t="s">
-        <v>575</v>
-      </c>
-      <c r="C20" s="138" t="s">
-        <v>576</v>
       </c>
       <c r="D20" s="138" t="s">
         <v>350</v>
@@ -11750,13 +11683,13 @@
     </row>
     <row r="21" spans="1:14" ht="44.25" customHeight="1">
       <c r="A21" s="138" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B21" s="138" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C21" s="138" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D21" s="138" t="s">
         <v>350</v>
@@ -11779,13 +11712,13 @@
     </row>
     <row r="22" spans="1:14" ht="44.25" customHeight="1">
       <c r="A22" s="138" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B22" s="138" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C22" s="138" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D22" s="138" t="s">
         <v>350</v>
@@ -11808,13 +11741,13 @@
     </row>
     <row r="23" spans="1:14" ht="36" customHeight="1">
       <c r="A23" s="141" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B23" s="141" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C23" s="141" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D23" s="141" t="s">
         <v>350</v>
@@ -11828,18 +11761,18 @@
       </c>
       <c r="G23" s="142"/>
       <c r="H23" s="154" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="45" customHeight="1">
       <c r="A24" s="138" t="s">
+        <v>583</v>
+      </c>
+      <c r="B24" s="138" t="s">
+        <v>584</v>
+      </c>
+      <c r="C24" s="138" t="s">
         <v>585</v>
-      </c>
-      <c r="B24" s="138" t="s">
-        <v>586</v>
-      </c>
-      <c r="C24" s="138" t="s">
-        <v>587</v>
       </c>
       <c r="D24" s="138" t="s">
         <v>350</v>
@@ -11853,18 +11786,18 @@
       </c>
       <c r="G24" s="18"/>
       <c r="H24" s="154" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="44.25" customHeight="1">
       <c r="A25" s="138" t="s">
+        <v>586</v>
+      </c>
+      <c r="B25" s="138" t="s">
+        <v>587</v>
+      </c>
+      <c r="C25" s="138" t="s">
         <v>588</v>
-      </c>
-      <c r="B25" s="138" t="s">
-        <v>589</v>
-      </c>
-      <c r="C25" s="138" t="s">
-        <v>590</v>
       </c>
       <c r="D25" s="138" t="s">
         <v>350</v>
@@ -11878,18 +11811,18 @@
       </c>
       <c r="G25" s="18"/>
       <c r="H25" s="154" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="44.25" customHeight="1">
       <c r="A26" s="138" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B26" s="138" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C26" s="138" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D26" s="138" t="s">
         <v>350</v>
@@ -11903,18 +11836,18 @@
       </c>
       <c r="G26" s="18"/>
       <c r="H26" s="154" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="44.25" customHeight="1">
       <c r="A27" s="138" t="s">
+        <v>592</v>
+      </c>
+      <c r="B27" s="138" t="s">
         <v>594</v>
       </c>
-      <c r="B27" s="138" t="s">
-        <v>596</v>
-      </c>
       <c r="C27" s="138" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D27" s="138" t="s">
         <v>350</v>
@@ -11928,18 +11861,18 @@
       </c>
       <c r="G27" s="18"/>
       <c r="H27" s="154" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="44.25" customHeight="1">
       <c r="A28" s="138" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B28" s="138" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C28" s="138" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D28" s="138" t="s">
         <v>350</v>
@@ -11953,12 +11886,12 @@
       </c>
       <c r="G28" s="18"/>
       <c r="H28" s="154" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="33.75" customHeight="1">
       <c r="A29" s="197" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B29" s="197"/>
       <c r="C29" s="197"/>
@@ -11970,13 +11903,13 @@
     </row>
     <row r="30" spans="1:14" ht="50.25" customHeight="1">
       <c r="A30" s="143" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B30" s="146" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C30" s="143" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D30" s="143" t="s">
         <v>350</v>
@@ -11990,13 +11923,13 @@
     </row>
     <row r="31" spans="1:14" ht="66.75" customHeight="1">
       <c r="A31" s="138" t="s">
+        <v>615</v>
+      </c>
+      <c r="B31" s="138" t="s">
         <v>617</v>
       </c>
-      <c r="B31" s="138" t="s">
-        <v>619</v>
-      </c>
       <c r="C31" s="138" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D31" s="138" t="s">
         <v>350</v>
@@ -12010,7 +11943,7 @@
       </c>
       <c r="G31" s="18"/>
       <c r="H31" s="153" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="I31" s="23"/>
       <c r="J31" s="23"/>
@@ -12021,13 +11954,13 @@
     </row>
     <row r="32" spans="1:14" ht="84.75" customHeight="1">
       <c r="A32" s="138" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B32" s="138" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C32" s="138" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D32" s="138" t="s">
         <v>350</v>
@@ -12041,7 +11974,7 @@
       </c>
       <c r="G32" s="18"/>
       <c r="H32" s="153" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="I32" s="23"/>
       <c r="J32" s="23"/>
@@ -12052,13 +11985,13 @@
     </row>
     <row r="33" spans="1:14" ht="53.25" customHeight="1">
       <c r="A33" s="138" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B33" s="138" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C33" s="138" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D33" s="138" t="s">
         <v>350</v>
@@ -12081,13 +12014,13 @@
     </row>
     <row r="34" spans="1:14" ht="53.25" customHeight="1">
       <c r="A34" s="138" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B34" s="138" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C34" s="138" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D34" s="138" t="s">
         <v>350</v>
@@ -12101,7 +12034,7 @@
       </c>
       <c r="G34" s="18"/>
       <c r="H34" s="152" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="I34" s="23"/>
       <c r="J34" s="23"/>
@@ -12112,13 +12045,13 @@
     </row>
     <row r="35" spans="1:14" ht="109.5" customHeight="1">
       <c r="A35" s="138" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B35" s="138" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C35" s="138" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D35" s="138" t="s">
         <v>350</v>
@@ -12132,7 +12065,7 @@
       </c>
       <c r="G35" s="18"/>
       <c r="H35" s="153" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="I35" s="23"/>
       <c r="J35" s="23"/>
@@ -12143,13 +12076,13 @@
     </row>
     <row r="36" spans="1:14" ht="70.5" customHeight="1">
       <c r="A36" s="138" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B36" s="138" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C36" s="138" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D36" s="138" t="s">
         <v>350</v>
@@ -12172,13 +12105,13 @@
     </row>
     <row r="37" spans="1:14" ht="35.25" customHeight="1">
       <c r="A37" s="138" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B37" s="138" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C37" s="138" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D37" s="138" t="s">
         <v>350</v>
@@ -12192,7 +12125,7 @@
       </c>
       <c r="G37" s="18"/>
       <c r="H37" s="152" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="I37" s="23"/>
       <c r="J37" s="23"/>
@@ -12203,13 +12136,13 @@
     </row>
     <row r="38" spans="1:14" ht="36.75" customHeight="1">
       <c r="A38" s="138" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B38" s="138" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C38" s="138" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D38" s="138" t="s">
         <v>350</v>
@@ -12223,7 +12156,7 @@
       </c>
       <c r="G38" s="18"/>
       <c r="H38" s="152" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="I38" s="23"/>
       <c r="J38" s="23"/>
@@ -12234,13 +12167,13 @@
     </row>
     <row r="39" spans="1:14" ht="79.5" customHeight="1">
       <c r="A39" s="138" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B39" s="138" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C39" s="138" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D39" s="138" t="s">
         <v>350</v>
@@ -12263,7 +12196,7 @@
     </row>
     <row r="40" spans="1:14" ht="33.75" customHeight="1">
       <c r="A40" s="197" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B40" s="197"/>
       <c r="C40" s="197"/>
@@ -12275,13 +12208,13 @@
     </row>
     <row r="41" spans="1:14" ht="50.25" customHeight="1">
       <c r="A41" s="146" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B41" s="146" t="s">
         <v>370</v>
       </c>
       <c r="C41" s="143" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D41" s="143" t="s">
         <v>350</v>
@@ -12295,13 +12228,13 @@
     </row>
     <row r="42" spans="1:14" ht="44.25" customHeight="1">
       <c r="A42" s="141" t="s">
+        <v>508</v>
+      </c>
+      <c r="B42" s="141" t="s">
+        <v>711</v>
+      </c>
+      <c r="C42" s="141" t="s">
         <v>510</v>
-      </c>
-      <c r="B42" s="141" t="s">
-        <v>713</v>
-      </c>
-      <c r="C42" s="141" t="s">
-        <v>512</v>
       </c>
       <c r="D42" s="141" t="s">
         <v>350</v>
@@ -12315,7 +12248,7 @@
       </c>
       <c r="G42" s="142"/>
       <c r="H42" s="153" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="I42" s="23"/>
       <c r="J42" s="23"/>
@@ -12326,13 +12259,13 @@
     </row>
     <row r="43" spans="1:14" ht="128.25" customHeight="1">
       <c r="A43" s="138" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B43" s="138" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C43" s="138" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D43" s="138" t="s">
         <v>350</v>
@@ -12346,7 +12279,7 @@
       </c>
       <c r="G43" s="18"/>
       <c r="H43" s="153" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="I43" s="23"/>
       <c r="J43" s="23"/>
@@ -12357,13 +12290,13 @@
     </row>
     <row r="44" spans="1:14" ht="57" customHeight="1">
       <c r="A44" s="138" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B44" s="138" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C44" s="138" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D44" s="138" t="s">
         <v>350</v>
@@ -12377,7 +12310,7 @@
       </c>
       <c r="G44" s="18"/>
       <c r="H44" s="153" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="I44" s="23"/>
       <c r="J44" s="23"/>
@@ -12388,13 +12321,13 @@
     </row>
     <row r="45" spans="1:14" ht="57" customHeight="1">
       <c r="A45" s="138" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B45" s="138" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C45" s="138" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D45" s="138" t="s">
         <v>350</v>
@@ -12408,7 +12341,7 @@
       </c>
       <c r="G45" s="18"/>
       <c r="H45" s="153" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="I45" s="23"/>
       <c r="J45" s="23"/>
@@ -12419,13 +12352,13 @@
     </row>
     <row r="46" spans="1:14" ht="60.75" customHeight="1">
       <c r="A46" s="138" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B46" s="138" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C46" s="138" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D46" s="138" t="s">
         <v>350</v>
@@ -12439,7 +12372,7 @@
       </c>
       <c r="G46" s="18"/>
       <c r="H46" s="153" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="I46" s="23"/>
       <c r="J46" s="23"/>
@@ -12450,13 +12383,13 @@
     </row>
     <row r="47" spans="1:14" ht="60.75" customHeight="1">
       <c r="A47" s="138" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B47" s="138" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C47" s="138" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D47" s="138" t="s">
         <v>350</v>
@@ -12479,13 +12412,13 @@
     </row>
     <row r="48" spans="1:14" ht="60.75" customHeight="1">
       <c r="A48" s="138" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B48" s="138" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C48" s="138" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D48" s="138" t="s">
         <v>350</v>
@@ -12508,13 +12441,13 @@
     </row>
     <row r="49" spans="1:14" ht="60.75" customHeight="1">
       <c r="A49" s="138" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B49" s="138" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C49" s="138" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D49" s="138" t="s">
         <v>350</v>
@@ -12537,13 +12470,13 @@
     </row>
     <row r="50" spans="1:14" ht="44.25" customHeight="1">
       <c r="A50" s="141" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B50" s="141" t="s">
         <v>369</v>
       </c>
       <c r="C50" s="141" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D50" s="141" t="s">
         <v>350</v>
@@ -12557,7 +12490,7 @@
       </c>
       <c r="G50" s="142"/>
       <c r="H50" s="152" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="I50" s="23"/>
       <c r="J50" s="23"/>
@@ -12568,13 +12501,13 @@
     </row>
     <row r="51" spans="1:14" ht="44.25" customHeight="1">
       <c r="A51" s="138" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B51" s="138" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C51" s="138" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D51" s="138" t="s">
         <v>350</v>
@@ -12588,7 +12521,7 @@
       </c>
       <c r="G51" s="18"/>
       <c r="H51" s="152" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="I51" s="23"/>
       <c r="J51" s="23"/>
@@ -12599,13 +12532,13 @@
     </row>
     <row r="52" spans="1:14" ht="44.25" customHeight="1">
       <c r="A52" s="138" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B52" s="138" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C52" s="138" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D52" s="138" t="s">
         <v>350</v>
@@ -12619,7 +12552,7 @@
       </c>
       <c r="G52" s="18"/>
       <c r="H52" s="152" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="I52" s="23"/>
       <c r="J52" s="23"/>
@@ -12630,13 +12563,13 @@
     </row>
     <row r="53" spans="1:14" ht="44.25" customHeight="1">
       <c r="A53" s="138" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B53" s="138" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C53" s="138" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D53" s="138" t="s">
         <v>350</v>
@@ -12650,7 +12583,7 @@
       </c>
       <c r="G53" s="18"/>
       <c r="H53" s="152" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="I53" s="23"/>
       <c r="J53" s="23"/>
@@ -12661,13 +12594,13 @@
     </row>
     <row r="54" spans="1:14" ht="44.25" customHeight="1">
       <c r="A54" s="138" t="s">
+        <v>639</v>
+      </c>
+      <c r="B54" s="138" t="s">
         <v>641</v>
       </c>
-      <c r="B54" s="138" t="s">
-        <v>643</v>
-      </c>
       <c r="C54" s="138" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D54" s="138" t="s">
         <v>350</v>
@@ -12681,7 +12614,7 @@
       </c>
       <c r="G54" s="148"/>
       <c r="H54" s="152" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="I54" s="23"/>
       <c r="J54" s="23"/>
@@ -12692,13 +12625,13 @@
     </row>
     <row r="55" spans="1:14" ht="44.25" customHeight="1">
       <c r="A55" s="141" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B55" s="141" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C55" s="141" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D55" s="141" t="s">
         <v>350</v>
@@ -12721,13 +12654,13 @@
     </row>
     <row r="56" spans="1:14" ht="90.75" customHeight="1">
       <c r="A56" s="138" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B56" s="138" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C56" s="138" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D56" s="138" t="s">
         <v>350</v>
@@ -12750,13 +12683,13 @@
     </row>
     <row r="57" spans="1:14" ht="61.5" customHeight="1">
       <c r="A57" s="138" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B57" s="138" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C57" s="138" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D57" s="138" t="s">
         <v>350</v>
@@ -12779,13 +12712,13 @@
     </row>
     <row r="58" spans="1:14" ht="105.75" customHeight="1">
       <c r="A58" s="138" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B58" s="138" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C58" s="138" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D58" s="138" t="s">
         <v>350</v>
@@ -12808,13 +12741,13 @@
     </row>
     <row r="59" spans="1:14" ht="44.25" customHeight="1">
       <c r="A59" s="141" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B59" s="141" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C59" s="141" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D59" s="141" t="s">
         <v>350</v>
@@ -12837,13 +12770,13 @@
     </row>
     <row r="60" spans="1:14" ht="155.25" customHeight="1">
       <c r="A60" s="138" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B60" s="138" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C60" s="138" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D60" s="138" t="s">
         <v>350</v>
@@ -12857,7 +12790,7 @@
       </c>
       <c r="G60" s="148"/>
       <c r="H60" s="152" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="I60" s="23"/>
       <c r="J60" s="23"/>
@@ -12868,13 +12801,13 @@
     </row>
     <row r="61" spans="1:14" ht="36" customHeight="1">
       <c r="A61" s="138" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B61" s="138" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C61" s="150" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D61" s="138" t="s">
         <v>350</v>
@@ -12897,7 +12830,7 @@
     </row>
     <row r="62" spans="1:14" ht="50.25" customHeight="1">
       <c r="A62" s="197" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B62" s="197"/>
       <c r="C62" s="197"/>
@@ -12909,13 +12842,13 @@
     </row>
     <row r="63" spans="1:14" ht="50.25" customHeight="1">
       <c r="A63" s="146" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B63" s="146" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C63" s="143" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D63" s="143" t="s">
         <v>350</v>
@@ -12929,13 +12862,13 @@
     </row>
     <row r="64" spans="1:14" ht="50.25" customHeight="1">
       <c r="A64" s="138" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B64" s="138" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C64" s="138" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D64" s="138" t="s">
         <v>350</v>
@@ -12952,13 +12885,13 @@
     </row>
     <row r="65" spans="1:14" ht="64.5" customHeight="1">
       <c r="A65" s="138" t="s">
+        <v>659</v>
+      </c>
+      <c r="B65" s="138" t="s">
+        <v>660</v>
+      </c>
+      <c r="C65" s="138" t="s">
         <v>661</v>
-      </c>
-      <c r="B65" s="138" t="s">
-        <v>662</v>
-      </c>
-      <c r="C65" s="138" t="s">
-        <v>663</v>
       </c>
       <c r="D65" s="138" t="s">
         <v>350</v>
@@ -12975,13 +12908,13 @@
     </row>
     <row r="66" spans="1:14" ht="64.5" customHeight="1">
       <c r="A66" s="138" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B66" s="138" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C66" s="138" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D66" s="138" t="s">
         <v>350</v>
@@ -12998,13 +12931,13 @@
     </row>
     <row r="67" spans="1:14" ht="126" customHeight="1">
       <c r="A67" s="138" t="s">
+        <v>730</v>
+      </c>
+      <c r="B67" s="138" t="s">
+        <v>731</v>
+      </c>
+      <c r="C67" s="138" t="s">
         <v>732</v>
-      </c>
-      <c r="B67" s="138" t="s">
-        <v>733</v>
-      </c>
-      <c r="C67" s="138" t="s">
-        <v>734</v>
       </c>
       <c r="D67" s="138" t="s">
         <v>350</v>
@@ -13021,13 +12954,13 @@
     </row>
     <row r="68" spans="1:14" ht="126" customHeight="1">
       <c r="A68" s="138" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B68" s="138" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C68" s="138" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D68" s="138" t="s">
         <v>350</v>
@@ -13044,13 +12977,13 @@
     </row>
     <row r="69" spans="1:14" ht="56.25" customHeight="1">
       <c r="A69" s="138" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B69" s="138" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C69" s="138" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D69" s="138" t="s">
         <v>350</v>
@@ -13067,13 +13000,13 @@
     </row>
     <row r="70" spans="1:14" ht="56.25" customHeight="1">
       <c r="A70" s="138" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B70" s="138" t="s">
+        <v>739</v>
+      </c>
+      <c r="C70" s="138" t="s">
         <v>741</v>
-      </c>
-      <c r="C70" s="138" t="s">
-        <v>743</v>
       </c>
       <c r="D70" s="138" t="s">
         <v>350</v>
@@ -13090,13 +13023,13 @@
     </row>
     <row r="71" spans="1:14" ht="54.75" customHeight="1">
       <c r="A71" s="138" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B71" s="138" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C71" s="138" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D71" s="138" t="s">
         <v>350</v>
@@ -13113,13 +13046,13 @@
     </row>
     <row r="72" spans="1:14" ht="44.25" customHeight="1">
       <c r="A72" s="141" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B72" s="141" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C72" s="141" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D72" s="141" t="s">
         <v>350</v>
@@ -13142,13 +13075,13 @@
     </row>
     <row r="73" spans="1:14" ht="54.75" customHeight="1">
       <c r="A73" s="138" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B73" s="138" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C73" s="150" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="D73" s="138" t="s">
         <v>350</v>
@@ -13171,13 +13104,13 @@
     </row>
     <row r="74" spans="1:14" ht="51.75" customHeight="1">
       <c r="A74" s="138" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B74" s="138" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C74" s="150" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D74" s="138" t="s">
         <v>350</v>
@@ -13200,7 +13133,7 @@
     </row>
     <row r="75" spans="1:14" ht="33.75" customHeight="1">
       <c r="A75" s="201" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B75" s="201"/>
       <c r="C75" s="201"/>
@@ -13212,13 +13145,13 @@
     </row>
     <row r="76" spans="1:14" ht="50.25" customHeight="1">
       <c r="A76" s="143" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B76" s="146" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C76" s="143" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D76" s="143" t="s">
         <v>350</v>
@@ -13229,18 +13162,18 @@
       <c r="F76" s="144"/>
       <c r="G76" s="144"/>
       <c r="H76" s="153" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="50.25" customHeight="1">
       <c r="A77" s="138" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B77" s="138" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C77" s="138" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D77" s="138" t="s">
         <v>350</v>
@@ -13254,18 +13187,18 @@
       </c>
       <c r="G77" s="138"/>
       <c r="H77" s="153" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="50.25" customHeight="1">
       <c r="A78" s="138" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B78" s="138" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C78" s="138" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D78" s="138" t="s">
         <v>350</v>
@@ -13279,18 +13212,18 @@
       </c>
       <c r="G78" s="138"/>
       <c r="H78" s="153" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="50.25" customHeight="1">
       <c r="A79" s="138" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B79" s="138" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C79" s="138" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="D79" s="138" t="s">
         <v>350</v>
@@ -13304,18 +13237,18 @@
       </c>
       <c r="G79" s="138"/>
       <c r="H79" s="153" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="50.25" customHeight="1">
       <c r="A80" s="138" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B80" s="138" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C80" s="138" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D80" s="138" t="s">
         <v>350</v>
@@ -13329,18 +13262,18 @@
       </c>
       <c r="G80" s="138"/>
       <c r="H80" s="153" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="66" customHeight="1">
       <c r="A81" s="138" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B81" s="138" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C81" s="138" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D81" s="138" t="s">
         <v>350</v>
@@ -13354,18 +13287,18 @@
       </c>
       <c r="G81" s="138"/>
       <c r="H81" s="153" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="82" spans="1:14" ht="50.25" customHeight="1">
       <c r="A82" s="138" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B82" s="138" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C82" s="138" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D82" s="138" t="s">
         <v>350</v>
@@ -13382,13 +13315,13 @@
     </row>
     <row r="83" spans="1:14" ht="50.25" customHeight="1">
       <c r="A83" s="138" t="s">
+        <v>759</v>
+      </c>
+      <c r="B83" s="138" t="s">
+        <v>760</v>
+      </c>
+      <c r="C83" s="138" t="s">
         <v>761</v>
-      </c>
-      <c r="B83" s="138" t="s">
-        <v>762</v>
-      </c>
-      <c r="C83" s="138" t="s">
-        <v>763</v>
       </c>
       <c r="D83" s="138" t="s">
         <v>350</v>
@@ -13402,18 +13335,18 @@
       </c>
       <c r="G83" s="138"/>
       <c r="H83" s="153" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="50.25" customHeight="1">
       <c r="A84" s="138" t="s">
+        <v>762</v>
+      </c>
+      <c r="B84" s="138" t="s">
+        <v>763</v>
+      </c>
+      <c r="C84" s="138" t="s">
         <v>764</v>
-      </c>
-      <c r="B84" s="138" t="s">
-        <v>765</v>
-      </c>
-      <c r="C84" s="138" t="s">
-        <v>766</v>
       </c>
       <c r="D84" s="138" t="s">
         <v>350</v>
@@ -13427,18 +13360,18 @@
       </c>
       <c r="G84" s="138"/>
       <c r="H84" s="153" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="85" spans="1:14" ht="50.25" customHeight="1">
       <c r="A85" s="138" t="s">
+        <v>765</v>
+      </c>
+      <c r="B85" s="138" t="s">
+        <v>766</v>
+      </c>
+      <c r="C85" s="138" t="s">
         <v>767</v>
-      </c>
-      <c r="B85" s="138" t="s">
-        <v>768</v>
-      </c>
-      <c r="C85" s="138" t="s">
-        <v>769</v>
       </c>
       <c r="D85" s="138" t="s">
         <v>350</v>
@@ -13452,18 +13385,18 @@
       </c>
       <c r="G85" s="138"/>
       <c r="H85" s="153" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="86" spans="1:14" ht="50.25" customHeight="1">
       <c r="A86" s="138" t="s">
+        <v>768</v>
+      </c>
+      <c r="B86" s="138" t="s">
+        <v>769</v>
+      </c>
+      <c r="C86" s="138" t="s">
         <v>770</v>
-      </c>
-      <c r="B86" s="138" t="s">
-        <v>771</v>
-      </c>
-      <c r="C86" s="138" t="s">
-        <v>772</v>
       </c>
       <c r="D86" s="138" t="s">
         <v>350</v>
@@ -13480,7 +13413,7 @@
     </row>
     <row r="87" spans="1:14" ht="33.75" customHeight="1">
       <c r="A87" s="197" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B87" s="197"/>
       <c r="C87" s="197"/>
@@ -13492,10 +13425,10 @@
     </row>
     <row r="88" spans="1:14" ht="50.25" customHeight="1">
       <c r="A88" s="143" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B88" s="146" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C88" s="143" t="s">
         <v>367</v>
@@ -13512,13 +13445,13 @@
     </row>
     <row r="89" spans="1:14" ht="50.25" customHeight="1">
       <c r="A89" s="138" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B89" s="138" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C89" s="138" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D89" s="138" t="s">
         <v>350</v>
@@ -13535,13 +13468,13 @@
     </row>
     <row r="90" spans="1:14" ht="50.25" customHeight="1">
       <c r="A90" s="138" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B90" s="138" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C90" s="138" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D90" s="138" t="s">
         <v>350</v>
@@ -13580,18 +13513,18 @@
         <v>183</v>
       </c>
       <c r="F93" s="137" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G93" s="137" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="H93" s="157" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="94" spans="1:14" ht="33.75" customHeight="1">
       <c r="A94" s="197" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B94" s="197"/>
       <c r="C94" s="197"/>
@@ -13603,13 +13536,13 @@
     </row>
     <row r="95" spans="1:14" ht="50.25" customHeight="1">
       <c r="A95" s="146" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B95" s="145" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C95" s="143" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D95" s="143" t="s">
         <v>350</v>
@@ -13623,13 +13556,13 @@
     </row>
     <row r="96" spans="1:14" ht="44.25" customHeight="1">
       <c r="A96" s="139" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B96" s="139" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C96" s="139" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D96" s="139" t="s">
         <v>350</v>
@@ -13652,13 +13585,13 @@
     </row>
     <row r="97" spans="1:14" ht="44.25" customHeight="1">
       <c r="A97" s="139" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B97" s="139" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C97" s="139" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D97" s="139" t="s">
         <v>350</v>
@@ -13681,7 +13614,7 @@
     </row>
     <row r="99" spans="1:14">
       <c r="A99" s="199" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B99" s="200"/>
     </row>
@@ -13702,18 +13635,18 @@
         <v>183</v>
       </c>
       <c r="F100" s="137" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G100" s="137" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="H100" s="157" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="101" spans="1:14">
       <c r="A101" s="197" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B101" s="197"/>
       <c r="C101" s="197"/>
@@ -13725,13 +13658,13 @@
     </row>
     <row r="102" spans="1:14" ht="30">
       <c r="A102" s="146" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B102" s="145" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C102" s="143" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D102" s="143" t="str">
         <f>stakeholders!A$21</f>
@@ -13746,13 +13679,13 @@
     </row>
     <row r="103" spans="1:14" ht="30">
       <c r="A103" s="139" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B103" s="139" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C103" s="139" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D103" s="139" t="str">
         <f>stakeholders!A$21</f>
@@ -13770,13 +13703,13 @@
     </row>
     <row r="104" spans="1:14" ht="30">
       <c r="A104" s="138" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B104" s="138" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C104" s="138" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D104" s="138" t="str">
         <f>stakeholders!A$21</f>
@@ -13794,13 +13727,13 @@
     </row>
     <row r="105" spans="1:14" ht="30">
       <c r="A105" s="138" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B105" s="138" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C105" s="138" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D105" s="138" t="str">
         <f>stakeholders!A$21</f>
@@ -13857,7 +13790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -13894,7 +13827,7 @@
     </row>
     <row r="4" spans="1:6" ht="23.25">
       <c r="A4" s="178" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B4" s="178"/>
       <c r="C4" s="178"/>
@@ -13914,7 +13847,7 @@
       <c r="C6" s="210"/>
       <c r="D6" s="211"/>
       <c r="E6" s="205" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F6" s="205" t="s">
         <v>3</v>
@@ -13922,11 +13855,11 @@
     </row>
     <row r="7" spans="1:6" ht="15.75">
       <c r="A7" s="208" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B7" s="208"/>
       <c r="C7" s="208" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D7" s="208"/>
       <c r="E7" s="206"/>
@@ -13966,10 +13899,10 @@
         <v>Segurança nas comunicações</v>
       </c>
       <c r="E9" s="123" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="F9" s="122" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
   </sheetData>

--- a/Templates/SIOP-RSLIL-v2.1.xlsx
+++ b/Templates/SIOP-RSLIL-v2.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr codeName="EsteLivro" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="842" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="842" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -9102,8 +9102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9540,10 +9540,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9742,13 +9742,6 @@
       <c r="E14" s="121" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" s="49" customFormat="1">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -13791,7 +13784,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13914,7 +13907,7 @@
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="F6:F8"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9">
       <formula1>GoalDependencyType</formula1>
     </dataValidation>

--- a/Templates/SIOP-RSLIL-v2.1.xlsx
+++ b/Templates/SIOP-RSLIL-v2.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr codeName="EsteLivro" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="842" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="842" firstSheet="3" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -313,7 +313,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="837">
   <si>
     <t>Id</t>
   </si>
@@ -513,9 +513,6 @@
     <t>A person that order products.</t>
   </si>
   <si>
-    <t>stk-customer</t>
-  </si>
-  <si>
     <t>image</t>
   </si>
   <si>
@@ -529,9 +526,6 @@
   </si>
   <si>
     <t>Stakeholder</t>
-  </si>
-  <si>
-    <t>stk-user</t>
   </si>
   <si>
     <t>S1</t>
@@ -4343,7 +4337,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="23.25">
       <c r="A1" s="47" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B1" s="45"/>
       <c r="C1" s="46"/>
@@ -4357,78 +4351,78 @@
     </row>
     <row r="2" spans="1:10" ht="23.25">
       <c r="A2" s="70" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E2" s="46"/>
     </row>
     <row r="4" spans="1:10" ht="26.25">
       <c r="A4" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="41" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="41" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="41" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="41" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="41" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="41" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="41" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="41" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="41" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="41" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="41" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="41" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -4455,10 +4449,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet13"/>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4475,7 +4469,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="23.25">
       <c r="A1" s="41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -4495,7 +4489,7 @@
     </row>
     <row r="4" spans="1:8" ht="23.25">
       <c r="A4" s="178" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B4" s="178"/>
       <c r="C4" s="178"/>
@@ -4508,7 +4502,7 @@
     <row r="5" spans="1:8" ht="57" customHeight="1"/>
     <row r="6" spans="1:8" ht="31.5" customHeight="1">
       <c r="A6" s="212" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B6" s="212" t="s">
         <v>1</v>
@@ -4517,19 +4511,19 @@
         <v>3</v>
       </c>
       <c r="D6" s="212" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E6" s="212" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="212" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G6" s="214" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H6" s="213" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="45" customHeight="1">
@@ -4544,10 +4538,10 @@
     </row>
     <row r="8" spans="1:8" ht="33.75" customHeight="1">
       <c r="A8" s="15" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="14"/>
@@ -4558,10 +4552,10 @@
     </row>
     <row r="9" spans="1:8" ht="33.75" customHeight="1">
       <c r="A9" s="15" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="14"/>
@@ -4569,86 +4563,6 @@
       <c r="F9" s="14"/>
       <c r="G9" s="2"/>
       <c r="H9" s="14"/>
-    </row>
-    <row r="10" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="14"/>
-    </row>
-    <row r="11" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="14"/>
-    </row>
-    <row r="12" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="14"/>
-    </row>
-    <row r="13" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="14"/>
-    </row>
-    <row r="14" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="14"/>
-    </row>
-    <row r="15" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="14"/>
-    </row>
-    <row r="16" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="14"/>
-    </row>
-    <row r="17" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -4670,7 +4584,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D9">
       <formula1>UseCaseType</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H9">
       <formula1>ProgressState</formula1>
     </dataValidation>
   </dataValidations>
@@ -4683,10 +4597,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4706,7 +4620,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="23.25">
       <c r="A1" s="41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B1" s="4"/>
       <c r="E1" s="4"/>
@@ -4731,7 +4645,7 @@
     </row>
     <row r="4" spans="1:11" ht="23.25">
       <c r="A4" s="178" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B4" s="178"/>
       <c r="C4" s="178"/>
@@ -4747,7 +4661,7 @@
     <row r="6" spans="1:11" ht="30.75" customHeight="1"/>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
       <c r="A7" s="212" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B7" s="212" t="s">
         <v>1</v>
@@ -4756,28 +4670,28 @@
         <v>3</v>
       </c>
       <c r="D7" s="214" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E7" s="214" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F7" s="216" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G7" s="216" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H7" s="212" t="s">
         <v>7</v>
       </c>
       <c r="I7" s="212" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J7" s="218" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K7" s="213" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="31.5" customHeight="1">
@@ -4795,10 +4709,10 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="15" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="13"/>
@@ -4812,10 +4726,10 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="15" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="13"/>
@@ -4826,142 +4740,6 @@
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="15" t="s">
-        <v>785</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>786</v>
-      </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="15" t="s">
-        <v>785</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>786</v>
-      </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="15" t="s">
-        <v>785</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>786</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="15" t="s">
-        <v>785</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>786</v>
-      </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="15" t="s">
-        <v>785</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>786</v>
-      </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="15" t="s">
-        <v>785</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>786</v>
-      </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="15" t="s">
-        <v>785</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>786</v>
-      </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="15" t="s">
-        <v>785</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>786</v>
-      </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -4980,19 +4758,19 @@
     <mergeCell ref="K7:K8"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:J18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:J10">
       <formula1>CriticalityGoal</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:D18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:D10">
       <formula1>QualityRequirementType</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:E18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:E10">
       <formula1>QualityRequirementSubType</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:F18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:F10">
       <formula1>MetricType</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K9:K18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K9:K10">
       <formula1>ProgressState</formula1>
     </dataValidation>
   </dataValidations>
@@ -5025,7 +4803,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="23.25">
       <c r="A1" s="41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B1" s="4"/>
     </row>
@@ -5044,7 +4822,7 @@
     </row>
     <row r="4" spans="1:8" ht="23.25">
       <c r="A4" s="178" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B4" s="178"/>
       <c r="C4" s="178"/>
@@ -5057,7 +4835,7 @@
     <row r="6" spans="1:8" ht="30.75" customHeight="1"/>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
       <c r="A7" s="212" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B7" s="212" t="s">
         <v>1</v>
@@ -5066,19 +4844,19 @@
         <v>3</v>
       </c>
       <c r="D7" s="214" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E7" s="212" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="212" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G7" s="212" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H7" s="213" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1">
@@ -5093,20 +4871,20 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="15" t="s">
+        <v>785</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>787</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>789</v>
-      </c>
       <c r="C9" s="15" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="14"/>
@@ -5252,7 +5030,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B1" s="41"/>
     </row>
@@ -5273,7 +5051,7 @@
     </row>
     <row r="4" spans="1:6" ht="23.25">
       <c r="A4" s="178" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B4" s="178"/>
       <c r="C4" s="178"/>
@@ -5287,13 +5065,13 @@
     </row>
     <row r="6" spans="1:6" ht="31.5" customHeight="1">
       <c r="A6" s="209" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B6" s="210"/>
       <c r="C6" s="210"/>
       <c r="D6" s="211"/>
       <c r="E6" s="205" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F6" s="205" t="s">
         <v>3</v>
@@ -5301,11 +5079,11 @@
     </row>
     <row r="7" spans="1:6" ht="15.75">
       <c r="A7" s="208" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B7" s="208"/>
       <c r="C7" s="208" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D7" s="208"/>
       <c r="E7" s="206"/>
@@ -5345,10 +5123,10 @@
         <v>YYY</v>
       </c>
       <c r="E9" s="123" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="F9" s="122" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="49" customFormat="1" ht="38.25" customHeight="1">
@@ -5369,10 +5147,10 @@
         <v>ZZZ</v>
       </c>
       <c r="E10" s="123" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="F10" s="122" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="49" customFormat="1" ht="38.25" customHeight="1">
@@ -5382,7 +5160,7 @@
       <c r="D11" s="122"/>
       <c r="E11" s="123"/>
       <c r="F11" s="122" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="49" customFormat="1" ht="38.25" customHeight="1">
@@ -5392,7 +5170,7 @@
       <c r="D12" s="122"/>
       <c r="E12" s="123"/>
       <c r="F12" s="122" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="49" customFormat="1" ht="38.25" customHeight="1">
@@ -5402,7 +5180,7 @@
       <c r="D13" s="122"/>
       <c r="E13" s="123"/>
       <c r="F13" s="122" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="49" customFormat="1" ht="38.25" customHeight="1">
@@ -5412,7 +5190,7 @@
       <c r="D14" s="122"/>
       <c r="E14" s="123"/>
       <c r="F14" s="122" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="49" customFormat="1" ht="38.25" customHeight="1">
@@ -5422,7 +5200,7 @@
       <c r="D15" s="122"/>
       <c r="E15" s="123"/>
       <c r="F15" s="122" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
   </sheetData>
@@ -5473,7 +5251,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="13.5" customHeight="1">
@@ -5498,7 +5276,7 @@
     </row>
     <row r="4" spans="1:12" ht="23.25">
       <c r="A4" s="178" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B4" s="178"/>
       <c r="C4" s="178"/>
@@ -5517,13 +5295,13 @@
     </row>
     <row r="6" spans="1:12" ht="13.5" customHeight="1">
       <c r="A6" s="199" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B6" s="200"/>
     </row>
     <row r="7" spans="1:12" ht="13.5" customHeight="1">
       <c r="A7" s="220" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B7" s="221"/>
       <c r="C7" s="202"/>
@@ -5532,7 +5310,7 @@
     </row>
     <row r="8" spans="1:12" ht="13.5" customHeight="1">
       <c r="A8" s="222" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B8" s="223"/>
       <c r="C8" s="202"/>
@@ -5547,7 +5325,7 @@
     </row>
     <row r="10" spans="1:12" ht="21" customHeight="1">
       <c r="A10" s="89" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B10" s="90"/>
       <c r="C10" s="90"/>
@@ -5563,7 +5341,7 @@
     </row>
     <row r="11" spans="1:12" ht="25.5" customHeight="1">
       <c r="A11" s="85" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B11" s="85" t="s">
         <v>1</v>
@@ -5575,7 +5353,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="91" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F11" s="241"/>
       <c r="G11" s="241"/>
@@ -5587,7 +5365,7 @@
     </row>
     <row r="12" spans="1:12" ht="18.75" customHeight="1">
       <c r="D12" s="225" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E12" s="226"/>
       <c r="F12" s="226"/>
@@ -5600,7 +5378,7 @@
     </row>
     <row r="13" spans="1:12" ht="18.75" customHeight="1">
       <c r="D13" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>1</v>
@@ -5612,24 +5390,24 @@
         <v>8</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>9</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="18.75" customHeight="1">
       <c r="D14" s="225" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E14" s="226"/>
       <c r="F14" s="226"/>
@@ -5642,13 +5420,13 @@
     </row>
     <row r="15" spans="1:12" ht="18.75" customHeight="1">
       <c r="D15" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G15" s="231"/>
       <c r="H15" s="232"/>
@@ -5659,7 +5437,7 @@
     </row>
     <row r="16" spans="1:12" ht="18.75" customHeight="1">
       <c r="D16" s="225" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E16" s="226"/>
       <c r="F16" s="226"/>
@@ -5672,10 +5450,10 @@
     </row>
     <row r="17" spans="1:13" ht="18.75" customHeight="1">
       <c r="D17" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E17" s="244" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F17" s="245"/>
       <c r="G17" s="245"/>
@@ -5690,16 +5468,16 @@
         <v>15</v>
       </c>
       <c r="B18" s="97" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" s="98" t="s">
         <v>119</v>
       </c>
-      <c r="C18" s="98" t="s">
-        <v>121</v>
-      </c>
       <c r="D18" s="96" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E18" s="99" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F18" s="228"/>
       <c r="G18" s="229"/>
@@ -5713,16 +5491,16 @@
       <c r="A19" s="236"/>
       <c r="B19" s="236"/>
       <c r="C19" s="224" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>12</v>
@@ -5735,13 +5513,13 @@
       </c>
       <c r="J19" s="24"/>
       <c r="K19" s="24" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L19" s="24" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M19" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="18.75" customHeight="1">
@@ -5749,16 +5527,16 @@
       <c r="B20" s="243"/>
       <c r="C20" s="224"/>
       <c r="D20" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H20" s="24"/>
       <c r="I20" s="24">
@@ -5766,10 +5544,10 @@
       </c>
       <c r="J20" s="24"/>
       <c r="K20" s="24" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L20" s="24" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="18.75" customHeight="1">
@@ -5777,10 +5555,10 @@
       <c r="B21" s="243"/>
       <c r="C21" s="224"/>
       <c r="D21" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2" t="s">
@@ -5788,14 +5566,14 @@
       </c>
       <c r="H21" s="24"/>
       <c r="I21" s="24" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J21" s="24"/>
       <c r="K21" s="24" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="L21" s="24" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="18.75" customHeight="1">
@@ -5803,10 +5581,10 @@
       <c r="B22" s="243"/>
       <c r="C22" s="224"/>
       <c r="D22" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2" t="s">
@@ -5816,27 +5594,27 @@
         <v>10.199999999999999</v>
       </c>
       <c r="I22" s="24" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J22" s="24"/>
       <c r="K22" s="24" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L22" s="24" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="18.75" customHeight="1">
       <c r="A23" s="243"/>
       <c r="B23" s="243"/>
       <c r="C23" s="224" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F23" s="24">
         <v>1</v>
@@ -5848,7 +5626,7 @@
       <c r="K23" s="224"/>
       <c r="L23" s="224"/>
       <c r="M23" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="18.75" customHeight="1">
@@ -5856,10 +5634,10 @@
       <c r="B24" s="243"/>
       <c r="C24" s="224"/>
       <c r="D24" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F24" s="24">
         <v>1</v>
@@ -5876,10 +5654,10 @@
       <c r="B25" s="243"/>
       <c r="C25" s="224"/>
       <c r="D25" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F25" s="24">
         <v>1</v>
@@ -5895,13 +5673,13 @@
       <c r="A26" s="243"/>
       <c r="B26" s="243"/>
       <c r="C26" s="236" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E26" s="238" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F26" s="239"/>
       <c r="G26" s="239"/>
@@ -5911,7 +5689,7 @@
       <c r="K26" s="239"/>
       <c r="L26" s="240"/>
       <c r="M26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" customHeight="1">
@@ -5919,10 +5697,10 @@
       <c r="B27" s="237"/>
       <c r="C27" s="237"/>
       <c r="D27" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E27" s="238" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F27" s="239"/>
       <c r="G27" s="239"/>
@@ -5951,16 +5729,16 @@
         <v>16</v>
       </c>
       <c r="B29" s="97" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="98" t="s">
         <v>120</v>
       </c>
-      <c r="C29" s="98" t="s">
-        <v>122</v>
-      </c>
       <c r="D29" s="96" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E29" s="99" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F29" s="228"/>
       <c r="G29" s="229"/>
@@ -5972,16 +5750,16 @@
     </row>
     <row r="30" spans="1:13" ht="18.75" customHeight="1">
       <c r="C30" s="224" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>12</v>
@@ -5992,25 +5770,25 @@
       </c>
       <c r="J30" s="24"/>
       <c r="K30" s="24" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L30" s="24" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="18.75" customHeight="1">
       <c r="C31" s="224"/>
       <c r="D31" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H31" s="24"/>
       <c r="I31" s="24">
@@ -6018,19 +5796,19 @@
       </c>
       <c r="J31" s="24"/>
       <c r="K31" s="24" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L31" s="24" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="18.75" customHeight="1">
       <c r="C32" s="224"/>
       <c r="D32" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2" t="s">
@@ -6038,23 +5816,23 @@
       </c>
       <c r="H32" s="24"/>
       <c r="I32" s="24" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J32" s="24"/>
       <c r="K32" s="24" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L32" s="24" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="18.75" customHeight="1">
       <c r="C33" s="224"/>
       <c r="D33" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2" t="s">
@@ -6062,31 +5840,31 @@
       </c>
       <c r="H33" s="24"/>
       <c r="I33" s="24" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J33" s="24"/>
       <c r="K33" s="24" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L33" s="24" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="18.75" customHeight="1">
       <c r="A35" s="96" t="s">
+        <v>209</v>
+      </c>
+      <c r="B35" s="97" t="s">
+        <v>210</v>
+      </c>
+      <c r="C35" s="98" t="s">
         <v>211</v>
       </c>
-      <c r="B35" s="97" t="s">
-        <v>212</v>
-      </c>
-      <c r="C35" s="98" t="s">
-        <v>213</v>
-      </c>
       <c r="D35" s="96" t="s">
+        <v>190</v>
+      </c>
+      <c r="E35" s="99" t="s">
         <v>192</v>
-      </c>
-      <c r="E35" s="99" t="s">
-        <v>194</v>
       </c>
       <c r="F35" s="228"/>
       <c r="G35" s="229"/>
@@ -6098,16 +5876,16 @@
     </row>
     <row r="36" spans="1:12" ht="18.75" customHeight="1">
       <c r="C36" s="224" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>12</v>
@@ -6118,25 +5896,25 @@
       </c>
       <c r="J36" s="24"/>
       <c r="K36" s="24" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L36" s="24" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="18.75" customHeight="1">
       <c r="C37" s="224"/>
       <c r="D37" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H37" s="24"/>
       <c r="I37" s="24">
@@ -6144,19 +5922,19 @@
       </c>
       <c r="J37" s="24"/>
       <c r="K37" s="24" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L37" s="24" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="18.75" customHeight="1">
       <c r="C38" s="224"/>
       <c r="D38" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2" t="s">
@@ -6164,23 +5942,23 @@
       </c>
       <c r="H38" s="24"/>
       <c r="I38" s="24" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J38" s="24"/>
       <c r="K38" s="24" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L38" s="24" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="18.75" customHeight="1">
       <c r="C39" s="224"/>
       <c r="D39" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2" t="s">
@@ -6188,25 +5966,25 @@
       </c>
       <c r="H39" s="24"/>
       <c r="I39" s="24" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J39" s="24"/>
       <c r="K39" s="24" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L39" s="24" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="18.75" customHeight="1">
       <c r="C40" s="224" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F40" s="24">
         <v>1</v>
@@ -6221,10 +5999,10 @@
     <row r="41" spans="1:12" ht="18.75" customHeight="1">
       <c r="C41" s="224"/>
       <c r="D41" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F41" s="24">
         <v>1</v>
@@ -6239,10 +6017,10 @@
     <row r="42" spans="1:12" ht="18.75" customHeight="1">
       <c r="C42" s="224"/>
       <c r="D42" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F42" s="24">
         <v>1</v>
@@ -6317,8 +6095,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6335,7 +6113,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="7.5" customHeight="1"/>
@@ -6355,7 +6133,7 @@
     </row>
     <row r="4" spans="1:9" ht="20.25" customHeight="1">
       <c r="A4" s="70" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B4" s="71"/>
       <c r="C4" s="73"/>
@@ -6375,13 +6153,13 @@
     </row>
     <row r="7" spans="1:9" s="93" customFormat="1" ht="14.25" customHeight="1">
       <c r="A7" s="94" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E7" s="247"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="251" t="s">
-        <v>73</v>
+        <v>511</v>
       </c>
       <c r="B9" s="251"/>
       <c r="C9" s="251"/>
@@ -6391,7 +6169,7 @@
     </row>
     <row r="10" spans="1:9" ht="15.75">
       <c r="A10" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>1</v>
@@ -6400,18 +6178,18 @@
         <v>3</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1">
       <c r="A11" s="24" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B11" s="24" t="s">
         <v>64</v>
@@ -6420,45 +6198,45 @@
         <v>65</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>836</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>66</v>
+        <v>834</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>533</v>
       </c>
       <c r="F11" s="24" t="str">
         <f>A12</f>
         <v>a.Operator</v>
       </c>
       <c r="G11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1">
       <c r="A12" s="24" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1">
       <c r="A13" s="24" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="24" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
@@ -6473,7 +6251,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="248" t="s">
-        <v>74</v>
+        <v>515</v>
       </c>
       <c r="B15" s="249"/>
       <c r="C15" s="249"/>
@@ -6483,7 +6261,7 @@
     </row>
     <row r="16" spans="1:9" ht="15.75">
       <c r="A16" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>1</v>
@@ -6492,46 +6270,46 @@
         <v>3</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="24" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>836</v>
-      </c>
-      <c r="E17" s="52" t="s">
-        <v>72</v>
+        <v>834</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>524</v>
       </c>
       <c r="F17" s="52"/>
       <c r="G17" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="12" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="24" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -6585,7 +6363,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="8.25" customHeight="1"/>
@@ -6613,7 +6391,7 @@
     </row>
     <row r="4" spans="1:18" ht="23.25">
       <c r="A4" s="178" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B4" s="178"/>
       <c r="C4" s="178"/>
@@ -6640,12 +6418,12 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="96" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="15.75" customHeight="1">
       <c r="A9" s="259" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B9" s="260"/>
       <c r="C9" s="260"/>
@@ -6667,7 +6445,7 @@
     </row>
     <row r="10" spans="1:18" ht="33" customHeight="1">
       <c r="A10" s="253" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B10" s="253" t="s">
         <v>1</v>
@@ -6676,10 +6454,10 @@
         <v>3</v>
       </c>
       <c r="D10" s="253" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E10" s="257" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F10" s="262"/>
       <c r="G10" s="258"/>
@@ -6687,26 +6465,26 @@
         <v>30</v>
       </c>
       <c r="I10" s="255" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J10" s="256"/>
       <c r="K10" s="257" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L10" s="258"/>
       <c r="M10" s="257" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="N10" s="258"/>
       <c r="O10" s="100" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="P10" s="252" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="Q10" s="252"/>
       <c r="R10" s="213" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="33" customHeight="1">
@@ -6715,32 +6493,32 @@
       <c r="C11" s="254"/>
       <c r="D11" s="254"/>
       <c r="E11" s="103" t="s">
+        <v>231</v>
+      </c>
+      <c r="F11" s="103" t="s">
+        <v>232</v>
+      </c>
+      <c r="G11" s="103" t="s">
         <v>233</v>
-      </c>
-      <c r="F11" s="103" t="s">
-        <v>234</v>
-      </c>
-      <c r="G11" s="103" t="s">
-        <v>235</v>
       </c>
       <c r="H11" s="254"/>
       <c r="I11" s="101" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J11" s="101" t="s">
         <v>23</v>
       </c>
       <c r="K11" s="100" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L11" s="101" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M11" s="100" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N11" s="100" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O11" s="100"/>
       <c r="P11" s="102" t="s">
@@ -6753,48 +6531,48 @@
     </row>
     <row r="12" spans="1:18" ht="107.25" customHeight="1">
       <c r="A12" s="60" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B12" s="56" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C12" s="60" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D12" s="56" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E12" s="60" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F12" s="60" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G12" s="60"/>
       <c r="H12" s="60"/>
       <c r="I12" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="J12" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="J12" s="50" t="s">
+      <c r="K12" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="M12" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="K12" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="M12" s="50" t="s">
-        <v>132</v>
-      </c>
       <c r="N12" s="50" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O12" s="50" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="P12" s="107" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="Q12" s="11" t="s">
         <v>24</v>
@@ -6803,32 +6581,32 @@
     </row>
     <row r="13" spans="1:18" ht="47.25" customHeight="1">
       <c r="A13" s="15" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B13" s="106" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D13" s="56"/>
       <c r="E13" s="60" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F13" s="60"/>
       <c r="G13" s="60" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H13" s="15"/>
       <c r="I13" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J13" s="15"/>
       <c r="K13" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="15"/>
@@ -6859,7 +6637,7 @@
     </row>
     <row r="15" spans="1:18" ht="18" customHeight="1">
       <c r="A15" s="259" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B15" s="260"/>
       <c r="C15" s="260"/>
@@ -6881,7 +6659,7 @@
     </row>
     <row r="16" spans="1:18" ht="33" customHeight="1">
       <c r="A16" s="253" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B16" s="253" t="s">
         <v>1</v>
@@ -6890,10 +6668,10 @@
         <v>3</v>
       </c>
       <c r="D16" s="253" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E16" s="257" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F16" s="262"/>
       <c r="G16" s="258"/>
@@ -6901,26 +6679,26 @@
         <v>30</v>
       </c>
       <c r="I16" s="255" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J16" s="256"/>
       <c r="K16" s="257" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L16" s="258"/>
       <c r="M16" s="257" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="N16" s="258"/>
       <c r="O16" s="100" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="P16" s="252" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="Q16" s="252"/>
       <c r="R16" s="213" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="33" customHeight="1">
@@ -6929,32 +6707,32 @@
       <c r="C17" s="254"/>
       <c r="D17" s="254"/>
       <c r="E17" s="103" t="s">
+        <v>231</v>
+      </c>
+      <c r="F17" s="103" t="s">
+        <v>232</v>
+      </c>
+      <c r="G17" s="103" t="s">
         <v>233</v>
-      </c>
-      <c r="F17" s="103" t="s">
-        <v>234</v>
-      </c>
-      <c r="G17" s="103" t="s">
-        <v>235</v>
       </c>
       <c r="H17" s="254"/>
       <c r="I17" s="101" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J17" s="101" t="s">
         <v>23</v>
       </c>
       <c r="K17" s="100" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L17" s="101" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M17" s="100" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N17" s="100" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O17" s="100"/>
       <c r="P17" s="102" t="s">
@@ -6967,7 +6745,7 @@
     </row>
     <row r="18" spans="1:18" ht="21" customHeight="1">
       <c r="A18" s="60" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B18" s="56"/>
       <c r="C18" s="57"/>
@@ -6989,7 +6767,7 @@
     </row>
     <row r="19" spans="1:18" ht="21" customHeight="1">
       <c r="A19" s="60" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B19" s="56"/>
       <c r="C19" s="57"/>
@@ -7011,7 +6789,7 @@
     </row>
     <row r="20" spans="1:18" ht="21" customHeight="1">
       <c r="A20" s="60" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B20" s="56"/>
       <c r="C20" s="57"/>
@@ -7033,7 +6811,7 @@
     </row>
     <row r="21" spans="1:18" ht="21" customHeight="1">
       <c r="A21" s="60" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B21" s="56"/>
       <c r="C21" s="57"/>
@@ -7129,7 +6907,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="23.25">
@@ -7149,7 +6927,7 @@
     </row>
     <row r="4" spans="1:10" ht="23.25">
       <c r="A4" s="178" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B4" s="178"/>
       <c r="C4" s="178"/>
@@ -7163,23 +6941,23 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
       <c r="A8" s="40" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="16.5" customHeight="1"/>
     <row r="10" spans="1:10" ht="16.5" customHeight="1">
       <c r="A10" s="266" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B10" s="266"/>
       <c r="C10" s="266"/>
@@ -7193,12 +6971,12 @@
     </row>
     <row r="11" spans="1:10" ht="16.5" customHeight="1">
       <c r="A11" s="267" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B11" s="267"/>
       <c r="C11" s="267"/>
       <c r="D11" s="268" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E11" s="268"/>
       <c r="F11" s="268"/>
@@ -7218,10 +6996,10 @@
         <v>27</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>3</v>
@@ -7241,31 +7019,31 @@
     </row>
     <row r="13" spans="1:10" ht="48.75" customHeight="1">
       <c r="A13" s="59" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B13" s="59" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C13" s="59" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D13" s="13">
         <v>1</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J13" s="12">
         <v>2</v>
@@ -7279,22 +7057,22 @@
         <v>2</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16.5" customHeight="1">
@@ -7311,7 +7089,7 @@
         <v>29</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F15" s="44" t="s">
         <v>28</v>
@@ -7331,20 +7109,20 @@
     </row>
     <row r="16" spans="1:10" ht="16.5" customHeight="1">
       <c r="A16" s="59" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B16" s="59" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C16" s="59" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
@@ -7356,11 +7134,11 @@
       <c r="B17" s="264"/>
       <c r="C17" s="265"/>
       <c r="D17" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
@@ -7421,7 +7199,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="23.25">
@@ -7441,7 +7219,7 @@
     </row>
     <row r="4" spans="1:10" ht="23.25">
       <c r="A4" s="178" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B4" s="178"/>
       <c r="C4" s="178"/>
@@ -7455,23 +7233,23 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
       <c r="A8" s="40" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="16.5" customHeight="1"/>
     <row r="10" spans="1:10" ht="16.5" customHeight="1">
       <c r="A10" s="266" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B10" s="266"/>
       <c r="C10" s="266"/>
@@ -7485,12 +7263,12 @@
     </row>
     <row r="11" spans="1:10" ht="16.5" customHeight="1">
       <c r="A11" s="267" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B11" s="267"/>
       <c r="C11" s="267"/>
       <c r="D11" s="268" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E11" s="268"/>
       <c r="F11" s="268"/>
@@ -7510,10 +7288,10 @@
         <v>27</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>3</v>
@@ -7533,31 +7311,31 @@
     </row>
     <row r="13" spans="1:10" ht="48.75" customHeight="1">
       <c r="A13" s="54" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B13" s="54" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C13" s="54" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D13" s="13">
         <v>1</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J13" s="12">
         <v>2</v>
@@ -7571,22 +7349,22 @@
         <v>2</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16.5" customHeight="1">
@@ -7603,7 +7381,7 @@
         <v>29</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F15" s="44" t="s">
         <v>28</v>
@@ -7623,20 +7401,20 @@
     </row>
     <row r="16" spans="1:10" ht="16.5" customHeight="1">
       <c r="A16" s="54" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B16" s="54" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C16" s="54" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
@@ -7648,11 +7426,11 @@
       <c r="B17" s="264"/>
       <c r="C17" s="265"/>
       <c r="D17" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
@@ -7709,7 +7487,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="23.25" customHeight="1">
@@ -7719,24 +7497,24 @@
       </c>
       <c r="B3" s="48"/>
       <c r="C3" s="162" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D3" s="163"/>
       <c r="E3" s="163"/>
       <c r="F3" s="164"/>
       <c r="H3" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>388</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="23.25">
       <c r="A4" s="74" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B4" s="74"/>
       <c r="C4" s="165"/>
@@ -7746,7 +7524,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="17" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B6" s="27"/>
       <c r="C6" s="27"/>
@@ -7758,80 +7536,80 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="E7" s="18" t="s">
         <v>471</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>473</v>
-      </c>
       <c r="F7" s="18" t="s">
+        <v>468</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="H7" s="18" t="s">
         <v>470</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>473</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>475</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>475</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>477</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="G8" s="18" t="s">
         <v>479</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>481</v>
-      </c>
       <c r="H8" s="18" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>772</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>790</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>775</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>776</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>777</v>
-      </c>
       <c r="H9" s="2" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="27.75" customHeight="1">
@@ -7846,7 +7624,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="17" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
@@ -7858,19 +7636,19 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>792</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>793</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>794</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>795</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="18"/>
@@ -7881,16 +7659,16 @@
         <v>49</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="18"/>
@@ -7898,13 +7676,13 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -7914,16 +7692,16 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>828</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>829</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>830</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -7932,25 +7710,25 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B16" s="18" t="s">
+        <v>821</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>823</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>824</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>825</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>826</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>827</v>
-      </c>
       <c r="G16" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H16" s="2"/>
     </row>
@@ -7968,28 +7746,28 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>797</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>798</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="G19" s="18" t="s">
         <v>799</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="H19" s="18" t="s">
         <v>800</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>801</v>
-      </c>
-      <c r="H19" s="18" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -7997,16 +7775,16 @@
         <v>43</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>804</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>805</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>806</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -8060,22 +7838,22 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C26" s="18" t="s">
+        <v>807</v>
+      </c>
+      <c r="D26" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="E26" s="18" t="s">
         <v>811</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="F26" s="18" t="s">
         <v>813</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>815</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -8089,45 +7867,45 @@
         <v>49</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>810</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>812</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>814</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="G27" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>816</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="I27" s="2" t="s">
         <v>817</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="J27" s="2" t="s">
         <v>818</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="K27" s="2" t="s">
         <v>819</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="L27" s="18" t="s">
         <v>820</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>821</v>
-      </c>
-      <c r="L27" s="18" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="2"/>
@@ -8155,42 +7933,42 @@
         <v>50</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C31" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="E31" s="22" t="s">
         <v>254</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>256</v>
       </c>
       <c r="F31" s="22"/>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B32" s="12" t="s">
+        <v>829</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>830</v>
+      </c>
+      <c r="D32" s="12" t="s">
         <v>831</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="E32" s="12" t="s">
         <v>832</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="F32" s="12" t="s">
         <v>833</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>834</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>53</v>
@@ -8220,20 +7998,20 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B38" s="87"/>
       <c r="C38" s="88"/>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -8306,7 +8084,7 @@
         <v>61</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -8320,13 +8098,13 @@
         <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>60</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
@@ -8338,7 +8116,7 @@
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B45" s="32"/>
       <c r="C45" s="33"/>
@@ -8349,30 +8127,30 @@
         <v>8</v>
       </c>
       <c r="B46" s="22" t="s">
+        <v>834</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>835</v>
+      </c>
+      <c r="D46" s="22" t="s">
         <v>836</v>
-      </c>
-      <c r="C46" s="22" t="s">
-        <v>837</v>
-      </c>
-      <c r="D46" s="22" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D47" s="2"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B49" s="172"/>
       <c r="C49" s="173"/>
@@ -8388,25 +8166,25 @@
         <v>8</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D50" t="s">
         <v>156</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="E50" t="s">
         <v>157</v>
-      </c>
-      <c r="D50" t="s">
-        <v>158</v>
-      </c>
-      <c r="E50" t="s">
-        <v>159</v>
       </c>
       <c r="F50" t="s">
         <v>24</v>
       </c>
       <c r="G50" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H50" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -8414,10 +8192,10 @@
         <v>27</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -8427,7 +8205,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B54" s="158"/>
       <c r="C54" s="159"/>
@@ -8441,27 +8219,27 @@
         <v>8</v>
       </c>
       <c r="B55" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="C55" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D55" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="C55" s="52" t="s">
+      <c r="E55" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="D55" s="52" t="s">
-        <v>108</v>
-      </c>
-      <c r="E55" s="52" t="s">
-        <v>109</v>
-      </c>
       <c r="F55" s="52" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G55" s="52" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B57" s="160"/>
       <c r="C57" s="161"/>
@@ -8473,13 +8251,13 @@
         <v>8</v>
       </c>
       <c r="B58" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="C58" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="D58" s="52" t="s">
         <v>111</v>
-      </c>
-      <c r="C58" s="52" t="s">
-        <v>112</v>
-      </c>
-      <c r="D58" s="52" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -8598,7 +8376,7 @@
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="20" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B71" s="32"/>
       <c r="C71" s="33"/>
@@ -8608,13 +8386,13 @@
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B72" s="12" t="s">
         <v>51</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D72" s="12" t="s">
         <v>52</v>
@@ -8624,7 +8402,7 @@
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="20" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B74" s="32"/>
       <c r="C74" s="33"/>
@@ -8642,58 +8420,58 @@
         <v>8</v>
       </c>
       <c r="B75" s="22" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C75" s="22" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D75" s="22" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E75" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="F75" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="G75" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="F75" s="22" t="s">
+      <c r="H75" s="22" t="s">
         <v>228</v>
-      </c>
-      <c r="G75" s="22" t="s">
-        <v>229</v>
-      </c>
-      <c r="H75" s="22" t="s">
-        <v>230</v>
       </c>
       <c r="I75" s="22"/>
       <c r="J75" s="22" t="s">
         <v>24</v>
       </c>
       <c r="K75" s="22" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="21" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B76" s="22" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C76" s="22" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D76" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="E76" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="F76" s="22" t="s">
         <v>221</v>
-      </c>
-      <c r="E76" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="F76" s="22" t="s">
-        <v>223</v>
       </c>
       <c r="G76" s="22" t="s">
         <v>24</v>
       </c>
       <c r="H76" s="22" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I76" s="22"/>
       <c r="J76" s="22"/>
@@ -8701,28 +8479,28 @@
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="21" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B77" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="C77" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="D77" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="C77" s="22" t="s">
+      <c r="E77" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="D77" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="E77" s="22" t="s">
-        <v>170</v>
-      </c>
       <c r="F77" s="22" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G77" s="22" t="s">
         <v>24</v>
       </c>
       <c r="H77" s="22" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I77" s="22"/>
       <c r="J77" s="22"/>
@@ -8730,13 +8508,13 @@
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B78" s="12" t="s">
         <v>51</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D78" s="12" t="s">
         <v>52</v>
@@ -8748,7 +8526,7 @@
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="20" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B80" s="32"/>
       <c r="C80" s="33"/>
@@ -8763,36 +8541,36 @@
         <v>8</v>
       </c>
       <c r="B81" s="22" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C81" s="22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D81" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="E81" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="F81" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="E81" s="22" t="s">
+      <c r="G81" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="F81" s="22" t="s">
-        <v>219</v>
-      </c>
-      <c r="G81" s="22" t="s">
-        <v>220</v>
-      </c>
       <c r="H81" s="22" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B82" s="12" t="s">
         <v>51</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D82" s="12" t="s">
         <v>52</v>
@@ -8802,20 +8580,20 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="20" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B85" s="32"/>
       <c r="C85" s="33"/>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="B86" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="C86" s="22" t="s">
         <v>247</v>
-      </c>
-      <c r="B86" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="C86" s="22" t="s">
-        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -8860,7 +8638,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="7.5" customHeight="1">
@@ -8885,7 +8663,7 @@
     </row>
     <row r="4" spans="1:12" ht="23.25">
       <c r="A4" s="178" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B4" s="178"/>
       <c r="C4" s="178"/>
@@ -8912,15 +8690,15 @@
       <c r="C6" s="183"/>
       <c r="D6" s="184"/>
       <c r="E6" s="176" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F6" s="176"/>
       <c r="G6" s="176" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H6" s="176"/>
       <c r="I6" s="181" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="J6" s="181"/>
       <c r="K6" s="181"/>
@@ -8928,54 +8706,54 @@
     </row>
     <row r="7" spans="1:12" ht="31.5">
       <c r="A7" s="26" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B7" s="26" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D7" s="26" t="s">
+        <v>481</v>
+      </c>
+      <c r="E7" s="26" t="s">
         <v>483</v>
       </c>
-      <c r="E7" s="26" t="s">
-        <v>485</v>
-      </c>
       <c r="F7" s="26" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H7" s="26" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="I7" s="26" t="s">
+        <v>487</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>488</v>
+      </c>
+      <c r="K7" s="26" t="s">
         <v>489</v>
       </c>
-      <c r="J7" s="26" t="s">
-        <v>490</v>
-      </c>
-      <c r="K7" s="26" t="s">
-        <v>491</v>
-      </c>
       <c r="L7" s="151" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="33.75" customHeight="1">
       <c r="A8" s="11" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E8" s="134">
         <v>42339</v>
@@ -8988,22 +8766,22 @@
       </c>
       <c r="H8" s="134"/>
       <c r="I8" s="14" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="L8" s="14" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="46.5" customHeight="1"/>
     <row r="10" spans="1:12" ht="21" customHeight="1">
       <c r="A10" s="179" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B10" s="180"/>
       <c r="C10" s="180"/>
@@ -9019,7 +8797,7 @@
     </row>
     <row r="11" spans="1:12" ht="94.5" customHeight="1">
       <c r="A11" s="174" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B11" s="175"/>
       <c r="C11" s="175"/>
@@ -9036,7 +8814,7 @@
     <row r="12" spans="1:12" ht="21" customHeight="1"/>
     <row r="13" spans="1:12" ht="21" customHeight="1">
       <c r="A13" s="179" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B13" s="180"/>
       <c r="C13" s="180"/>
@@ -9052,7 +8830,7 @@
     </row>
     <row r="14" spans="1:12" ht="249.75" customHeight="1">
       <c r="A14" s="174" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B14" s="175"/>
       <c r="C14" s="175"/>
@@ -9102,7 +8880,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
@@ -9118,7 +8896,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="7.5" customHeight="1">
@@ -9137,7 +8915,7 @@
     </row>
     <row r="4" spans="1:6" ht="23.25">
       <c r="A4" s="178" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B4" s="178"/>
       <c r="C4" s="178"/>
@@ -9150,7 +8928,7 @@
     </row>
     <row r="6" spans="1:6" ht="31.5">
       <c r="A6" s="79" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B6" s="79" t="s">
         <v>1</v>
@@ -9159,48 +8937,48 @@
         <v>3</v>
       </c>
       <c r="D6" s="79" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E6" s="79" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F6" s="79" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="81" customHeight="1">
       <c r="A7" s="114" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B7" s="115" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C7" s="115" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D7" s="116" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="116" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="F7" s="116"/>
     </row>
     <row r="8" spans="1:6" ht="30">
       <c r="A8" s="11" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="F8" s="11" t="str">
         <f t="shared" ref="F8:F13" si="0">$A$7</f>
@@ -9209,19 +8987,19 @@
     </row>
     <row r="9" spans="1:6" ht="30">
       <c r="A9" s="11" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="F9" s="11" t="str">
         <f t="shared" si="0"/>
@@ -9230,19 +9008,19 @@
     </row>
     <row r="10" spans="1:6" ht="30">
       <c r="A10" s="11" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E10" s="42" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="F10" s="11" t="str">
         <f t="shared" si="0"/>
@@ -9251,19 +9029,19 @@
     </row>
     <row r="11" spans="1:6" ht="30">
       <c r="A11" s="11" t="s">
+        <v>692</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>693</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>694</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>695</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>696</v>
-      </c>
       <c r="D11" s="42" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E11" s="42" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="F11" s="11" t="str">
         <f t="shared" si="0"/>
@@ -9272,19 +9050,19 @@
     </row>
     <row r="12" spans="1:6" ht="30">
       <c r="A12" s="11" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="F12" s="11" t="str">
         <f t="shared" si="0"/>
@@ -9293,19 +9071,19 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="11" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="F13" s="11" t="str">
         <f t="shared" si="0"/>
@@ -9314,37 +9092,37 @@
     </row>
     <row r="14" spans="1:6" ht="90">
       <c r="A14" s="117" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B14" s="117" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C14" s="117" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D14" s="118" t="s">
         <v>22</v>
       </c>
       <c r="E14" s="118" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="F14" s="118"/>
     </row>
     <row r="15" spans="1:6" ht="30">
       <c r="A15" s="11" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E15" s="42" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="F15" s="11" t="str">
         <f>$A$14</f>
@@ -9353,19 +9131,19 @@
     </row>
     <row r="16" spans="1:6" ht="30">
       <c r="A16" s="11" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E16" s="42" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="F16" s="11" t="str">
         <f t="shared" ref="F16:F17" si="1">$A$14</f>
@@ -9374,19 +9152,19 @@
     </row>
     <row r="17" spans="1:6" ht="30">
       <c r="A17" s="11" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="F17" s="11" t="str">
         <f t="shared" si="1"/>
@@ -9395,37 +9173,37 @@
     </row>
     <row r="18" spans="1:6" ht="135">
       <c r="A18" s="119" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B18" s="117" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C18" s="117" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D18" s="118" t="s">
         <v>22</v>
       </c>
       <c r="E18" s="118" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="F18" s="118"/>
     </row>
     <row r="19" spans="1:6" ht="30">
       <c r="A19" s="11" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="F19" s="11" t="str">
         <f>$A$18</f>
@@ -9434,19 +9212,19 @@
     </row>
     <row r="20" spans="1:6" ht="30">
       <c r="A20" s="11" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D20" s="42" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="F20" s="11" t="str">
         <f>$A$18</f>
@@ -9455,7 +9233,7 @@
     </row>
     <row r="21" spans="1:6" ht="43.5" customHeight="1">
       <c r="A21" s="185" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B21" s="186"/>
       <c r="C21" s="186"/>
@@ -9465,55 +9243,55 @@
     </row>
     <row r="22" spans="1:6" ht="45">
       <c r="A22" s="10" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D22" s="42" t="s">
         <v>22</v>
       </c>
       <c r="E22" s="42" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="F22" s="42"/>
     </row>
     <row r="23" spans="1:6" ht="75">
       <c r="A23" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D23" s="42" t="s">
         <v>22</v>
       </c>
       <c r="E23" s="42" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="F23" s="42"/>
     </row>
     <row r="24" spans="1:6" ht="30">
       <c r="A24" s="25" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D24" s="42" t="s">
         <v>22</v>
       </c>
       <c r="E24" s="42" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="F24" s="25"/>
     </row>
@@ -9542,7 +9320,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -9556,7 +9334,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="7.5" customHeight="1">
@@ -9574,7 +9352,7 @@
     </row>
     <row r="4" spans="1:5" ht="23.25">
       <c r="A4" s="178" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B4" s="178"/>
       <c r="C4" s="178"/>
@@ -9586,14 +9364,14 @@
     </row>
     <row r="6" spans="1:5" ht="31.5" customHeight="1">
       <c r="A6" s="190" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B6" s="191"/>
       <c r="C6" s="188" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D6" s="188" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E6" s="188" t="s">
         <v>3</v>
@@ -9601,10 +9379,10 @@
     </row>
     <row r="7" spans="1:5" ht="15.75">
       <c r="A7" s="79" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B7" s="79" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C7" s="189"/>
       <c r="D7" s="189"/>
@@ -9620,13 +9398,13 @@
         <v>S.SIOP-Del</v>
       </c>
       <c r="C8" s="123" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="D8" s="123" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E8" s="122" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="49" customFormat="1" ht="30">
@@ -9639,13 +9417,13 @@
         <v>S.SIOP-Mala</v>
       </c>
       <c r="C9" s="123" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="D9" s="123" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E9" s="122" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="49" customFormat="1">
@@ -9658,13 +9436,13 @@
         <v>S.SAP-FI</v>
       </c>
       <c r="C10" s="123" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="D10" s="123" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E10" s="121" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="49" customFormat="1" ht="30">
@@ -9677,13 +9455,13 @@
         <v>S.VisionBox</v>
       </c>
       <c r="C11" s="123" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="D11" s="123" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="E11" s="121" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="49" customFormat="1">
@@ -9696,13 +9474,13 @@
         <v>S.SI-Legados</v>
       </c>
       <c r="C12" s="123" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D12" s="123" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="E12" s="121" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="49" customFormat="1" ht="30">
@@ -9715,13 +9493,13 @@
         <v>S.VisionBox</v>
       </c>
       <c r="C13" s="123" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="D13" s="123" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="E13" s="121" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="49" customFormat="1" ht="30">
@@ -9734,13 +9512,13 @@
         <v>S.VisionBox</v>
       </c>
       <c r="C14" s="123" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="D14" s="123" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="E14" s="121" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -9794,7 +9572,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="23.25">
       <c r="A1" s="41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -9816,7 +9594,7 @@
     </row>
     <row r="3" spans="1:8" ht="23.25">
       <c r="A3" s="178" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B3" s="178"/>
       <c r="C3" s="178"/>
@@ -9829,7 +9607,7 @@
     <row r="4" spans="1:8" ht="45.75" customHeight="1"/>
     <row r="5" spans="1:8">
       <c r="A5" s="125" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B5" s="126" t="s">
         <v>1</v>
@@ -9838,24 +9616,24 @@
         <v>3</v>
       </c>
       <c r="D5" s="125" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E5" s="125" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F5" s="125" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G5" s="125" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H5" s="125" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="27.75" customHeight="1">
       <c r="A6" s="192" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B6" s="193"/>
       <c r="C6" s="193"/>
@@ -9867,40 +9645,40 @@
     </row>
     <row r="7" spans="1:8" ht="86.25" customHeight="1">
       <c r="A7" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="15" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:8" ht="51.75" customHeight="1">
       <c r="A8" s="15" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="15" t="str">
@@ -9910,23 +9688,23 @@
     </row>
     <row r="9" spans="1:8" ht="66" customHeight="1">
       <c r="A9" s="15" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="15" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H9" s="15" t="str">
         <f>A7</f>
@@ -9935,23 +9713,23 @@
     </row>
     <row r="10" spans="1:8" ht="96" customHeight="1">
       <c r="A10" s="15" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="15" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="H10" s="15" t="str">
         <f>A9</f>
@@ -9960,23 +9738,23 @@
     </row>
     <row r="11" spans="1:8" ht="90">
       <c r="A11" s="15" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="15" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H11" s="15" t="str">
         <f>A9</f>
@@ -9985,20 +9763,20 @@
     </row>
     <row r="12" spans="1:8" ht="105" customHeight="1">
       <c r="A12" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>266</v>
-      </c>
       <c r="D12" s="15" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="15" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="15" t="str">
@@ -10008,7 +9786,7 @@
     </row>
     <row r="13" spans="1:8" ht="35.25" customHeight="1">
       <c r="A13" s="194" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B13" s="195"/>
       <c r="C13" s="195"/>
@@ -10020,102 +9798,102 @@
     </row>
     <row r="14" spans="1:8" ht="60">
       <c r="A14" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>287</v>
-      </c>
       <c r="D14" s="15" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:8" ht="45">
       <c r="A15" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>329</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>330</v>
-      </c>
       <c r="D15" s="15" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="15" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
     </row>
     <row r="16" spans="1:8" ht="75">
       <c r="A16" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>332</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>333</v>
-      </c>
       <c r="D16" s="15" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="E16" s="15"/>
       <c r="F16" s="15" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
     </row>
     <row r="17" spans="1:8" ht="90">
       <c r="A17" s="15" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="E17" s="15"/>
       <c r="F17" s="15" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
     </row>
     <row r="18" spans="1:8" ht="45">
       <c r="A18" s="15" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="E18" s="15"/>
       <c r="F18" s="15" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="G18" s="15"/>
       <c r="H18" s="15" t="str">
@@ -10125,20 +9903,20 @@
     </row>
     <row r="19" spans="1:8" ht="30">
       <c r="A19" s="15" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="E19" s="15"/>
       <c r="F19" s="15" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="G19" s="15"/>
       <c r="H19" s="15" t="str">
@@ -10148,23 +9926,23 @@
     </row>
     <row r="20" spans="1:8" ht="83.25" customHeight="1">
       <c r="A20" s="15" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="15" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H20" s="15" t="str">
         <f>A18</f>
@@ -10173,20 +9951,20 @@
     </row>
     <row r="21" spans="1:8" ht="45">
       <c r="A21" s="15" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E21" s="15"/>
       <c r="F21" s="15" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="15" t="str">
@@ -10196,23 +9974,23 @@
     </row>
     <row r="22" spans="1:8" ht="60">
       <c r="A22" s="15" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E22" s="15"/>
       <c r="F22" s="15" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="H22" s="15" t="str">
         <f>A19</f>
@@ -10221,23 +9999,23 @@
     </row>
     <row r="23" spans="1:8" ht="60">
       <c r="A23" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E23" s="15"/>
       <c r="F23" s="15" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="H23" s="15" t="str">
         <f>A19</f>
@@ -10246,23 +10024,23 @@
     </row>
     <row r="24" spans="1:8" ht="75">
       <c r="A24" s="15" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E24" s="15"/>
       <c r="F24" s="15" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="H24" s="15" t="str">
         <f>A19</f>
@@ -10271,20 +10049,20 @@
     </row>
     <row r="25" spans="1:8" ht="75">
       <c r="A25" s="15" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E25" s="15"/>
       <c r="F25" s="15" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="G25" s="15"/>
       <c r="H25" s="15" t="str">
@@ -10294,23 +10072,23 @@
     </row>
     <row r="26" spans="1:8" ht="75">
       <c r="A26" s="15" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E26" s="15"/>
       <c r="F26" s="15" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="H26" s="15" t="str">
         <f>A19</f>
@@ -10319,23 +10097,23 @@
     </row>
     <row r="27" spans="1:8" ht="90">
       <c r="A27" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="C27" s="108" t="s">
         <v>280</v>
       </c>
-      <c r="B27" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="C27" s="108" t="s">
-        <v>282</v>
-      </c>
       <c r="D27" s="15" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="H27" s="15" t="str">
         <f>A19</f>
@@ -10344,7 +10122,7 @@
     </row>
     <row r="28" spans="1:8" ht="30.75" customHeight="1">
       <c r="A28" s="194" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B28" s="195"/>
       <c r="C28" s="195"/>
@@ -10356,140 +10134,140 @@
     </row>
     <row r="29" spans="1:8" ht="45">
       <c r="A29" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="C29" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="B29" s="15" t="s">
-        <v>289</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>290</v>
-      </c>
       <c r="D29" s="15" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E29" s="15"/>
       <c r="F29" s="15" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
     </row>
     <row r="30" spans="1:8" ht="30">
       <c r="A30" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="C30" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="B30" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>293</v>
-      </c>
       <c r="D30" s="15" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="15" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
     </row>
     <row r="31" spans="1:8" ht="45">
       <c r="A31" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="C31" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="B31" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>296</v>
-      </c>
       <c r="D31" s="15" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E31" s="15"/>
       <c r="F31" s="15" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
     </row>
     <row r="32" spans="1:8" ht="30">
       <c r="A32" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="C32" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="B32" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>299</v>
-      </c>
       <c r="D32" s="15" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="15" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
     </row>
     <row r="33" spans="1:8" ht="45">
       <c r="A33" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="C33" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="B33" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>302</v>
-      </c>
       <c r="D33" s="15" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E33" s="15"/>
       <c r="F33" s="15" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
     </row>
     <row r="34" spans="1:8" ht="30">
       <c r="A34" s="15" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E34" s="15"/>
       <c r="F34" s="15" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
     </row>
     <row r="35" spans="1:8" ht="112.5" customHeight="1">
       <c r="A35" s="15" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C35" s="109" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E35" s="15"/>
       <c r="F35" s="15" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="G35" s="15"/>
       <c r="H35" s="15" t="str">
@@ -10499,20 +10277,20 @@
     </row>
     <row r="36" spans="1:8" ht="30">
       <c r="A36" s="15" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E36" s="15"/>
       <c r="F36" s="15" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="G36" s="15"/>
       <c r="H36" s="15" t="str">
@@ -10522,20 +10300,20 @@
     </row>
     <row r="37" spans="1:8" ht="30">
       <c r="A37" s="15" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E37" s="15"/>
       <c r="F37" s="15" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="G37" s="15"/>
       <c r="H37" s="15" t="str">
@@ -10545,20 +10323,20 @@
     </row>
     <row r="38" spans="1:8" ht="45">
       <c r="A38" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="C38" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="B38" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>311</v>
-      </c>
       <c r="D38" s="15" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="15" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="G38" s="15"/>
       <c r="H38" s="15" t="str">
@@ -10568,20 +10346,20 @@
     </row>
     <row r="39" spans="1:8" ht="105">
       <c r="A39" s="15" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="15" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="G39" s="15"/>
       <c r="H39" s="15" t="str">
@@ -10591,20 +10369,20 @@
     </row>
     <row r="40" spans="1:8" ht="33.75" customHeight="1">
       <c r="A40" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="C40" s="109" t="s">
         <v>314</v>
       </c>
-      <c r="B40" s="15" t="s">
-        <v>315</v>
-      </c>
-      <c r="C40" s="109" t="s">
-        <v>316</v>
-      </c>
       <c r="D40" s="15" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E40" s="15"/>
       <c r="F40" s="15" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="G40" s="15"/>
       <c r="H40" s="15" t="str">
@@ -10614,20 +10392,20 @@
     </row>
     <row r="41" spans="1:8" ht="30">
       <c r="A41" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="C41" s="109" t="s">
         <v>317</v>
       </c>
-      <c r="B41" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="C41" s="109" t="s">
-        <v>319</v>
-      </c>
       <c r="D41" s="15" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E41" s="15"/>
       <c r="F41" s="15" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="G41" s="15"/>
       <c r="H41" s="15" t="str">
@@ -10637,20 +10415,20 @@
     </row>
     <row r="42" spans="1:8" ht="60">
       <c r="A42" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="C42" s="109" t="s">
         <v>320</v>
       </c>
-      <c r="B42" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="C42" s="109" t="s">
-        <v>322</v>
-      </c>
       <c r="D42" s="15" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E42" s="15"/>
       <c r="F42" s="15" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="G42" s="15"/>
       <c r="H42" s="15" t="str">
@@ -10660,60 +10438,60 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="15" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E43" s="15"/>
       <c r="F43" s="15" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="G43" s="15"/>
       <c r="H43" s="15"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E44" s="15"/>
       <c r="F44" s="15" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="G44" s="15"/>
       <c r="H44" s="15"/>
     </row>
     <row r="45" spans="1:8" ht="75">
       <c r="A45" s="15" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E45" s="15"/>
       <c r="F45" s="15" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="G45" s="15"/>
       <c r="H45" s="15"/>
@@ -10747,8 +10525,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10777,7 +10555,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="23.25">
       <c r="A1" s="41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B1" s="4"/>
     </row>
@@ -10796,7 +10574,7 @@
     </row>
     <row r="4" spans="1:7" ht="29.25" customHeight="1">
       <c r="A4" s="178" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B4" s="178"/>
       <c r="C4" s="178"/>
@@ -10808,7 +10586,7 @@
     <row r="5" spans="1:7" ht="39" customHeight="1"/>
     <row r="6" spans="1:7" ht="18.75" customHeight="1">
       <c r="A6" s="127" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B6" s="127" t="s">
         <v>1</v>
@@ -10817,21 +10595,21 @@
         <v>3</v>
       </c>
       <c r="D6" s="127" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E6" s="127" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F6" s="127" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G6" s="127" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="29.25" customHeight="1">
       <c r="A7" s="194" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B7" s="195"/>
       <c r="C7" s="195"/>
@@ -10842,57 +10620,57 @@
     </row>
     <row r="8" spans="1:7" ht="30.75" customHeight="1">
       <c r="A8" s="15" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
     <row r="9" spans="1:7" ht="23.25" customHeight="1">
       <c r="A9" s="15" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
     <row r="10" spans="1:7" ht="51" customHeight="1">
       <c r="A10" s="15" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="F10" s="15" t="str">
         <f>A9</f>
@@ -10902,19 +10680,19 @@
     </row>
     <row r="11" spans="1:7" ht="51" customHeight="1">
       <c r="A11" s="15" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="F11" s="15" t="str">
         <f>A10</f>
@@ -10924,19 +10702,19 @@
     </row>
     <row r="12" spans="1:7" ht="53.25" customHeight="1">
       <c r="A12" s="15" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="F12" s="15" t="str">
         <f>A10</f>
@@ -10946,19 +10724,19 @@
     </row>
     <row r="13" spans="1:7" ht="57.75" customHeight="1">
       <c r="A13" s="15" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="F13" s="15" t="str">
         <f>A9</f>
@@ -10968,7 +10746,7 @@
     </row>
     <row r="14" spans="1:7" ht="29.25" customHeight="1">
       <c r="A14" s="194" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B14" s="195"/>
       <c r="C14" s="195"/>
@@ -10979,38 +10757,38 @@
     </row>
     <row r="15" spans="1:7" ht="22.5" customHeight="1">
       <c r="A15" s="12" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="12" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="F16" s="25" t="str">
         <f>A15</f>
@@ -11020,19 +10798,19 @@
     </row>
     <row r="17" spans="1:7" ht="30">
       <c r="A17" s="12" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="F17" s="25" t="str">
         <f>A16</f>
@@ -11042,19 +10820,19 @@
     </row>
     <row r="18" spans="1:7" ht="30">
       <c r="A18" s="12" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="F18" s="25" t="str">
         <f>A16</f>
@@ -11064,19 +10842,19 @@
     </row>
     <row r="19" spans="1:7" ht="30">
       <c r="A19" s="12" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="F19" s="25" t="str">
         <f>A16</f>
@@ -11086,19 +10864,19 @@
     </row>
     <row r="20" spans="1:7" ht="30">
       <c r="A20" s="12" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="F20" s="25" t="str">
         <f>A16</f>
@@ -11108,19 +10886,19 @@
     </row>
     <row r="21" spans="1:7" ht="40.5" customHeight="1">
       <c r="A21" s="12" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="F21" s="25" t="str">
         <f>A16</f>
@@ -11130,19 +10908,19 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="12" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="F22" s="25" t="str">
         <f>A15</f>
@@ -11152,7 +10930,7 @@
     </row>
     <row r="23" spans="1:7" ht="29.25" customHeight="1">
       <c r="A23" s="194" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B23" s="195"/>
       <c r="C23" s="195"/>
@@ -11163,38 +10941,38 @@
     </row>
     <row r="24" spans="1:7" ht="31.5" customHeight="1">
       <c r="A24" s="15" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
     </row>
     <row r="25" spans="1:7" ht="26.25" customHeight="1">
       <c r="A25" s="15" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D25" s="15" t="s">
+        <v>806</v>
+      </c>
+      <c r="E25" s="15" t="s">
         <v>808</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>810</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="15" t="str">
@@ -11204,19 +10982,19 @@
     </row>
     <row r="26" spans="1:7" ht="30" customHeight="1">
       <c r="A26" s="15" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F26" s="15"/>
       <c r="G26" s="15" t="str">
@@ -11226,19 +11004,19 @@
     </row>
     <row r="27" spans="1:7" ht="30.75" customHeight="1">
       <c r="A27" s="15" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B27" s="15" t="s">
+        <v>429</v>
+      </c>
+      <c r="C27" s="15" t="s">
         <v>431</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>433</v>
-      </c>
       <c r="D27" s="15" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F27" s="15"/>
       <c r="G27" s="15" t="str">
@@ -11248,19 +11026,19 @@
     </row>
     <row r="28" spans="1:7" ht="30.75" customHeight="1">
       <c r="A28" s="15" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F28" s="15"/>
       <c r="G28" s="15" t="str">
@@ -11270,19 +11048,19 @@
     </row>
     <row r="29" spans="1:7" ht="37.5" customHeight="1">
       <c r="A29" s="15" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F29" s="15"/>
       <c r="G29" s="15" t="str">
@@ -11292,19 +11070,19 @@
     </row>
     <row r="30" spans="1:7" ht="31.5" customHeight="1">
       <c r="A30" s="15" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="15" t="str">
@@ -11362,7 +11140,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B1" s="41"/>
     </row>
@@ -11382,7 +11160,7 @@
     </row>
     <row r="4" spans="1:14" ht="23.25">
       <c r="A4" s="178" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B4" s="178"/>
       <c r="C4" s="178"/>
@@ -11401,7 +11179,7 @@
     </row>
     <row r="7" spans="1:14" ht="18.75" customHeight="1">
       <c r="A7" s="203" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B7" s="203"/>
       <c r="C7" s="202"/>
@@ -11410,7 +11188,7 @@
     </row>
     <row r="8" spans="1:14" ht="18.75" customHeight="1">
       <c r="A8" s="204" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B8" s="204"/>
       <c r="C8" s="202"/>
@@ -11419,7 +11197,7 @@
     </row>
     <row r="9" spans="1:14" ht="18.75" customHeight="1">
       <c r="A9" s="198" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B9" s="198"/>
       <c r="C9" s="113"/>
@@ -11431,13 +11209,13 @@
     </row>
     <row r="11" spans="1:14" ht="18.75" customHeight="1">
       <c r="A11" s="199" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B11" s="200"/>
     </row>
     <row r="12" spans="1:14" ht="33.75" customHeight="1">
       <c r="A12" s="79" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B12" s="79" t="s">
         <v>1</v>
@@ -11446,24 +11224,24 @@
         <v>3</v>
       </c>
       <c r="D12" s="79" t="s">
+        <v>179</v>
+      </c>
+      <c r="E12" s="79" t="s">
         <v>181</v>
       </c>
-      <c r="E12" s="79" t="s">
-        <v>183</v>
-      </c>
       <c r="F12" s="137" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G12" s="137" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="H12" s="157" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="33.75" customHeight="1">
       <c r="A13" s="197" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B13" s="197"/>
       <c r="C13" s="197"/>
@@ -11475,20 +11253,20 @@
     </row>
     <row r="14" spans="1:14" ht="50.25" customHeight="1">
       <c r="A14" s="146" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B14" s="145" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C14" s="143" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D14" s="143" t="str">
         <f>stakeholders!A$21</f>
         <v>stk.administradorsistema</v>
       </c>
       <c r="E14" s="143" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F14" s="144"/>
       <c r="G14" s="144"/>
@@ -11496,20 +11274,20 @@
     </row>
     <row r="15" spans="1:14" ht="44.25" customHeight="1">
       <c r="A15" s="139" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B15" s="139" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C15" s="139" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D15" s="139" t="str">
         <f>stakeholders!A$21</f>
         <v>stk.administradorsistema</v>
       </c>
       <c r="E15" s="139" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F15" s="140" t="str">
         <f>A14</f>
@@ -11526,20 +11304,20 @@
     </row>
     <row r="16" spans="1:14" ht="44.25" customHeight="1">
       <c r="A16" s="138" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B16" s="138" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C16" s="138" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D16" s="138" t="str">
         <f>stakeholders!A$21</f>
         <v>stk.administradorsistema</v>
       </c>
       <c r="E16" s="138" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F16" s="18" t="str">
         <f>A15</f>
@@ -11556,20 +11334,20 @@
     </row>
     <row r="17" spans="1:14" ht="44.25" customHeight="1">
       <c r="A17" s="138" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B17" s="138" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C17" s="138" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D17" s="138" t="str">
         <f>stakeholders!A$21</f>
         <v>stk.administradorsistema</v>
       </c>
       <c r="E17" s="138" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F17" s="18" t="str">
         <f>A15</f>
@@ -11586,20 +11364,20 @@
     </row>
     <row r="18" spans="1:14" ht="44.25" customHeight="1">
       <c r="A18" s="138" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B18" s="138" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C18" s="138" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D18" s="138" t="str">
         <f>stakeholders!A$21</f>
         <v>stk.administradorsistema</v>
       </c>
       <c r="E18" s="138" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F18" s="18" t="str">
         <f>A15</f>
@@ -11607,7 +11385,7 @@
       </c>
       <c r="G18" s="18"/>
       <c r="H18" s="153" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="I18" s="23"/>
       <c r="J18" s="23"/>
@@ -11618,19 +11396,19 @@
     </row>
     <row r="19" spans="1:14" ht="44.25" customHeight="1">
       <c r="A19" s="141" t="s">
+        <v>566</v>
+      </c>
+      <c r="B19" s="141" t="s">
         <v>568</v>
       </c>
-      <c r="B19" s="141" t="s">
-        <v>570</v>
-      </c>
       <c r="C19" s="141" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D19" s="141" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E19" s="141" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F19" s="142" t="str">
         <f>A14</f>
@@ -11647,19 +11425,19 @@
     </row>
     <row r="20" spans="1:14" ht="44.25" customHeight="1">
       <c r="A20" s="138" t="s">
+        <v>570</v>
+      </c>
+      <c r="B20" s="138" t="s">
+        <v>571</v>
+      </c>
+      <c r="C20" s="138" t="s">
         <v>572</v>
       </c>
-      <c r="B20" s="138" t="s">
-        <v>573</v>
-      </c>
-      <c r="C20" s="138" t="s">
-        <v>574</v>
-      </c>
       <c r="D20" s="138" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E20" s="138" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F20" s="18" t="str">
         <f>A19</f>
@@ -11676,19 +11454,19 @@
     </row>
     <row r="21" spans="1:14" ht="44.25" customHeight="1">
       <c r="A21" s="138" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B21" s="138" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C21" s="138" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D21" s="138" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E21" s="138" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F21" s="18" t="str">
         <f>A19</f>
@@ -11705,19 +11483,19 @@
     </row>
     <row r="22" spans="1:14" ht="44.25" customHeight="1">
       <c r="A22" s="138" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B22" s="138" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C22" s="138" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D22" s="138" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E22" s="138" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F22" s="18" t="str">
         <f>A19</f>
@@ -11734,19 +11512,19 @@
     </row>
     <row r="23" spans="1:14" ht="36" customHeight="1">
       <c r="A23" s="141" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B23" s="141" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C23" s="141" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D23" s="141" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E23" s="141" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F23" s="142" t="str">
         <f>A14</f>
@@ -11754,24 +11532,24 @@
       </c>
       <c r="G23" s="142"/>
       <c r="H23" s="154" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="45" customHeight="1">
       <c r="A24" s="138" t="s">
+        <v>581</v>
+      </c>
+      <c r="B24" s="138" t="s">
+        <v>582</v>
+      </c>
+      <c r="C24" s="138" t="s">
         <v>583</v>
       </c>
-      <c r="B24" s="138" t="s">
-        <v>584</v>
-      </c>
-      <c r="C24" s="138" t="s">
-        <v>585</v>
-      </c>
       <c r="D24" s="138" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E24" s="138" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F24" s="18" t="str">
         <f>A23</f>
@@ -11779,24 +11557,24 @@
       </c>
       <c r="G24" s="18"/>
       <c r="H24" s="154" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="44.25" customHeight="1">
       <c r="A25" s="138" t="s">
+        <v>584</v>
+      </c>
+      <c r="B25" s="138" t="s">
+        <v>585</v>
+      </c>
+      <c r="C25" s="138" t="s">
         <v>586</v>
       </c>
-      <c r="B25" s="138" t="s">
-        <v>587</v>
-      </c>
-      <c r="C25" s="138" t="s">
-        <v>588</v>
-      </c>
       <c r="D25" s="138" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E25" s="138" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F25" s="18" t="str">
         <f>A23</f>
@@ -11804,24 +11582,24 @@
       </c>
       <c r="G25" s="18"/>
       <c r="H25" s="154" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="44.25" customHeight="1">
       <c r="A26" s="138" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B26" s="138" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C26" s="138" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D26" s="138" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E26" s="138" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F26" s="18" t="str">
         <f>A23</f>
@@ -11829,24 +11607,24 @@
       </c>
       <c r="G26" s="18"/>
       <c r="H26" s="154" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="44.25" customHeight="1">
       <c r="A27" s="138" t="s">
+        <v>590</v>
+      </c>
+      <c r="B27" s="138" t="s">
         <v>592</v>
       </c>
-      <c r="B27" s="138" t="s">
-        <v>594</v>
-      </c>
       <c r="C27" s="138" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D27" s="138" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E27" s="138" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F27" s="18" t="str">
         <f>A24</f>
@@ -11854,24 +11632,24 @@
       </c>
       <c r="G27" s="18"/>
       <c r="H27" s="154" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="44.25" customHeight="1">
       <c r="A28" s="138" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B28" s="138" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C28" s="138" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D28" s="138" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E28" s="138" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F28" s="18" t="str">
         <f>A24</f>
@@ -11879,12 +11657,12 @@
       </c>
       <c r="G28" s="18"/>
       <c r="H28" s="154" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="33.75" customHeight="1">
       <c r="A29" s="197" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B29" s="197"/>
       <c r="C29" s="197"/>
@@ -11896,19 +11674,19 @@
     </row>
     <row r="30" spans="1:14" ht="50.25" customHeight="1">
       <c r="A30" s="143" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B30" s="146" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C30" s="143" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D30" s="143" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E30" s="143" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F30" s="144"/>
       <c r="G30" s="144"/>
@@ -11916,19 +11694,19 @@
     </row>
     <row r="31" spans="1:14" ht="66.75" customHeight="1">
       <c r="A31" s="138" t="s">
+        <v>613</v>
+      </c>
+      <c r="B31" s="138" t="s">
         <v>615</v>
       </c>
-      <c r="B31" s="138" t="s">
-        <v>617</v>
-      </c>
       <c r="C31" s="138" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D31" s="138" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E31" s="138" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F31" s="18" t="str">
         <f>A30</f>
@@ -11936,7 +11714,7 @@
       </c>
       <c r="G31" s="18"/>
       <c r="H31" s="153" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="I31" s="23"/>
       <c r="J31" s="23"/>
@@ -11947,19 +11725,19 @@
     </row>
     <row r="32" spans="1:14" ht="84.75" customHeight="1">
       <c r="A32" s="138" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B32" s="138" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C32" s="138" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D32" s="138" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E32" s="138" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F32" s="18" t="str">
         <f>A30</f>
@@ -11967,7 +11745,7 @@
       </c>
       <c r="G32" s="18"/>
       <c r="H32" s="153" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="I32" s="23"/>
       <c r="J32" s="23"/>
@@ -11978,19 +11756,19 @@
     </row>
     <row r="33" spans="1:14" ht="53.25" customHeight="1">
       <c r="A33" s="138" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B33" s="138" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C33" s="138" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D33" s="138" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E33" s="138" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F33" s="18" t="str">
         <f>A30</f>
@@ -12007,19 +11785,19 @@
     </row>
     <row r="34" spans="1:14" ht="53.25" customHeight="1">
       <c r="A34" s="138" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B34" s="138" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C34" s="138" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D34" s="138" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E34" s="138" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F34" s="18" t="str">
         <f>A30</f>
@@ -12027,7 +11805,7 @@
       </c>
       <c r="G34" s="18"/>
       <c r="H34" s="152" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="I34" s="23"/>
       <c r="J34" s="23"/>
@@ -12038,19 +11816,19 @@
     </row>
     <row r="35" spans="1:14" ht="109.5" customHeight="1">
       <c r="A35" s="138" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B35" s="138" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C35" s="138" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D35" s="138" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E35" s="138" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F35" s="18" t="str">
         <f>A30</f>
@@ -12058,7 +11836,7 @@
       </c>
       <c r="G35" s="18"/>
       <c r="H35" s="153" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="I35" s="23"/>
       <c r="J35" s="23"/>
@@ -12069,19 +11847,19 @@
     </row>
     <row r="36" spans="1:14" ht="70.5" customHeight="1">
       <c r="A36" s="138" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B36" s="138" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C36" s="138" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D36" s="138" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E36" s="138" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F36" s="18" t="str">
         <f>A30</f>
@@ -12098,19 +11876,19 @@
     </row>
     <row r="37" spans="1:14" ht="35.25" customHeight="1">
       <c r="A37" s="138" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B37" s="138" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C37" s="138" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D37" s="138" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E37" s="138" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F37" s="18" t="str">
         <f>A36</f>
@@ -12118,7 +11896,7 @@
       </c>
       <c r="G37" s="18"/>
       <c r="H37" s="152" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="I37" s="23"/>
       <c r="J37" s="23"/>
@@ -12129,19 +11907,19 @@
     </row>
     <row r="38" spans="1:14" ht="36.75" customHeight="1">
       <c r="A38" s="138" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B38" s="138" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C38" s="138" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D38" s="138" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E38" s="138" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F38" s="18" t="str">
         <f>A36</f>
@@ -12149,7 +11927,7 @@
       </c>
       <c r="G38" s="18"/>
       <c r="H38" s="152" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="I38" s="23"/>
       <c r="J38" s="23"/>
@@ -12160,19 +11938,19 @@
     </row>
     <row r="39" spans="1:14" ht="79.5" customHeight="1">
       <c r="A39" s="138" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B39" s="138" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C39" s="138" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D39" s="138" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E39" s="138" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F39" s="18" t="str">
         <f>A30</f>
@@ -12189,7 +11967,7 @@
     </row>
     <row r="40" spans="1:14" ht="33.75" customHeight="1">
       <c r="A40" s="197" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B40" s="197"/>
       <c r="C40" s="197"/>
@@ -12201,19 +11979,19 @@
     </row>
     <row r="41" spans="1:14" ht="50.25" customHeight="1">
       <c r="A41" s="146" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B41" s="146" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C41" s="143" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D41" s="143" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E41" s="143" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F41" s="144"/>
       <c r="G41" s="144"/>
@@ -12221,19 +11999,19 @@
     </row>
     <row r="42" spans="1:14" ht="44.25" customHeight="1">
       <c r="A42" s="141" t="s">
+        <v>506</v>
+      </c>
+      <c r="B42" s="141" t="s">
+        <v>709</v>
+      </c>
+      <c r="C42" s="141" t="s">
         <v>508</v>
       </c>
-      <c r="B42" s="141" t="s">
-        <v>711</v>
-      </c>
-      <c r="C42" s="141" t="s">
-        <v>510</v>
-      </c>
       <c r="D42" s="141" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E42" s="141" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F42" s="142" t="str">
         <f>A41</f>
@@ -12241,7 +12019,7 @@
       </c>
       <c r="G42" s="142"/>
       <c r="H42" s="153" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="I42" s="23"/>
       <c r="J42" s="23"/>
@@ -12252,19 +12030,19 @@
     </row>
     <row r="43" spans="1:14" ht="128.25" customHeight="1">
       <c r="A43" s="138" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B43" s="138" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C43" s="138" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D43" s="138" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E43" s="138" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F43" s="18" t="str">
         <f>A42</f>
@@ -12272,7 +12050,7 @@
       </c>
       <c r="G43" s="18"/>
       <c r="H43" s="153" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="I43" s="23"/>
       <c r="J43" s="23"/>
@@ -12283,19 +12061,19 @@
     </row>
     <row r="44" spans="1:14" ht="57" customHeight="1">
       <c r="A44" s="138" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B44" s="138" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C44" s="138" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D44" s="138" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E44" s="138" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F44" s="18" t="str">
         <f>A42</f>
@@ -12303,7 +12081,7 @@
       </c>
       <c r="G44" s="18"/>
       <c r="H44" s="153" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="I44" s="23"/>
       <c r="J44" s="23"/>
@@ -12314,19 +12092,19 @@
     </row>
     <row r="45" spans="1:14" ht="57" customHeight="1">
       <c r="A45" s="138" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B45" s="138" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C45" s="138" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D45" s="138" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E45" s="138" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F45" s="18" t="str">
         <f>A42</f>
@@ -12334,7 +12112,7 @@
       </c>
       <c r="G45" s="18"/>
       <c r="H45" s="153" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="I45" s="23"/>
       <c r="J45" s="23"/>
@@ -12345,19 +12123,19 @@
     </row>
     <row r="46" spans="1:14" ht="60.75" customHeight="1">
       <c r="A46" s="138" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B46" s="138" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C46" s="138" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D46" s="138" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E46" s="138" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F46" s="18" t="str">
         <f>A42</f>
@@ -12365,7 +12143,7 @@
       </c>
       <c r="G46" s="18"/>
       <c r="H46" s="153" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="I46" s="23"/>
       <c r="J46" s="23"/>
@@ -12376,19 +12154,19 @@
     </row>
     <row r="47" spans="1:14" ht="60.75" customHeight="1">
       <c r="A47" s="138" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B47" s="138" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C47" s="138" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D47" s="138" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E47" s="138" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F47" s="18" t="str">
         <f>A42</f>
@@ -12405,19 +12183,19 @@
     </row>
     <row r="48" spans="1:14" ht="60.75" customHeight="1">
       <c r="A48" s="138" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B48" s="138" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C48" s="138" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D48" s="138" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E48" s="138" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F48" s="18" t="str">
         <f>A42</f>
@@ -12434,19 +12212,19 @@
     </row>
     <row r="49" spans="1:14" ht="60.75" customHeight="1">
       <c r="A49" s="138" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B49" s="138" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C49" s="138" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D49" s="138" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E49" s="138" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F49" s="18" t="str">
         <f>A42</f>
@@ -12463,19 +12241,19 @@
     </row>
     <row r="50" spans="1:14" ht="44.25" customHeight="1">
       <c r="A50" s="141" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B50" s="141" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C50" s="141" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D50" s="141" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E50" s="141" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F50" s="142" t="str">
         <f>A41</f>
@@ -12483,7 +12261,7 @@
       </c>
       <c r="G50" s="142"/>
       <c r="H50" s="152" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="I50" s="23"/>
       <c r="J50" s="23"/>
@@ -12494,19 +12272,19 @@
     </row>
     <row r="51" spans="1:14" ht="44.25" customHeight="1">
       <c r="A51" s="138" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B51" s="138" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C51" s="138" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D51" s="138" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E51" s="138" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F51" s="18" t="str">
         <f>A50</f>
@@ -12514,7 +12292,7 @@
       </c>
       <c r="G51" s="18"/>
       <c r="H51" s="152" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="I51" s="23"/>
       <c r="J51" s="23"/>
@@ -12525,19 +12303,19 @@
     </row>
     <row r="52" spans="1:14" ht="44.25" customHeight="1">
       <c r="A52" s="138" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B52" s="138" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C52" s="138" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D52" s="138" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E52" s="138" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F52" s="18" t="str">
         <f>A50</f>
@@ -12545,7 +12323,7 @@
       </c>
       <c r="G52" s="18"/>
       <c r="H52" s="152" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="I52" s="23"/>
       <c r="J52" s="23"/>
@@ -12556,19 +12334,19 @@
     </row>
     <row r="53" spans="1:14" ht="44.25" customHeight="1">
       <c r="A53" s="138" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B53" s="138" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C53" s="138" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D53" s="138" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E53" s="138" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F53" s="18" t="str">
         <f>A50</f>
@@ -12576,7 +12354,7 @@
       </c>
       <c r="G53" s="18"/>
       <c r="H53" s="152" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="I53" s="23"/>
       <c r="J53" s="23"/>
@@ -12587,19 +12365,19 @@
     </row>
     <row r="54" spans="1:14" ht="44.25" customHeight="1">
       <c r="A54" s="138" t="s">
+        <v>637</v>
+      </c>
+      <c r="B54" s="138" t="s">
         <v>639</v>
       </c>
-      <c r="B54" s="138" t="s">
-        <v>641</v>
-      </c>
       <c r="C54" s="138" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D54" s="138" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E54" s="138" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F54" s="148" t="str">
         <f>A50</f>
@@ -12607,7 +12385,7 @@
       </c>
       <c r="G54" s="148"/>
       <c r="H54" s="152" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="I54" s="23"/>
       <c r="J54" s="23"/>
@@ -12618,19 +12396,19 @@
     </row>
     <row r="55" spans="1:14" ht="44.25" customHeight="1">
       <c r="A55" s="141" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B55" s="141" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C55" s="141" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D55" s="141" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E55" s="141" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F55" s="142" t="str">
         <f>A41</f>
@@ -12647,19 +12425,19 @@
     </row>
     <row r="56" spans="1:14" ht="90.75" customHeight="1">
       <c r="A56" s="138" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B56" s="138" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C56" s="138" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D56" s="138" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E56" s="138" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F56" s="18" t="str">
         <f>A55</f>
@@ -12676,19 +12454,19 @@
     </row>
     <row r="57" spans="1:14" ht="61.5" customHeight="1">
       <c r="A57" s="138" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B57" s="138" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C57" s="138" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D57" s="138" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E57" s="138" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F57" s="18" t="str">
         <f>A55</f>
@@ -12705,19 +12483,19 @@
     </row>
     <row r="58" spans="1:14" ht="105.75" customHeight="1">
       <c r="A58" s="138" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B58" s="138" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C58" s="138" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D58" s="138" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E58" s="138" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F58" s="18" t="str">
         <f>A55</f>
@@ -12734,19 +12512,19 @@
     </row>
     <row r="59" spans="1:14" ht="44.25" customHeight="1">
       <c r="A59" s="141" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B59" s="141" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C59" s="141" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D59" s="141" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E59" s="141" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F59" s="149" t="str">
         <f>A41</f>
@@ -12763,19 +12541,19 @@
     </row>
     <row r="60" spans="1:14" ht="155.25" customHeight="1">
       <c r="A60" s="138" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B60" s="138" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C60" s="138" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D60" s="138" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E60" s="138" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F60" s="148" t="str">
         <f>A59</f>
@@ -12783,7 +12561,7 @@
       </c>
       <c r="G60" s="148"/>
       <c r="H60" s="152" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="I60" s="23"/>
       <c r="J60" s="23"/>
@@ -12794,19 +12572,19 @@
     </row>
     <row r="61" spans="1:14" ht="36" customHeight="1">
       <c r="A61" s="138" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B61" s="138" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C61" s="150" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D61" s="138" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E61" s="138" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F61" s="148" t="str">
         <f>A60</f>
@@ -12823,7 +12601,7 @@
     </row>
     <row r="62" spans="1:14" ht="50.25" customHeight="1">
       <c r="A62" s="197" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B62" s="197"/>
       <c r="C62" s="197"/>
@@ -12835,19 +12613,19 @@
     </row>
     <row r="63" spans="1:14" ht="50.25" customHeight="1">
       <c r="A63" s="146" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B63" s="146" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C63" s="143" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D63" s="143" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E63" s="143" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F63" s="144"/>
       <c r="G63" s="144"/>
@@ -12855,19 +12633,19 @@
     </row>
     <row r="64" spans="1:14" ht="50.25" customHeight="1">
       <c r="A64" s="138" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B64" s="138" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C64" s="138" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D64" s="138" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E64" s="138" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F64" s="148" t="str">
         <f>A63</f>
@@ -12878,19 +12656,19 @@
     </row>
     <row r="65" spans="1:14" ht="64.5" customHeight="1">
       <c r="A65" s="138" t="s">
+        <v>657</v>
+      </c>
+      <c r="B65" s="138" t="s">
+        <v>658</v>
+      </c>
+      <c r="C65" s="138" t="s">
         <v>659</v>
       </c>
-      <c r="B65" s="138" t="s">
-        <v>660</v>
-      </c>
-      <c r="C65" s="138" t="s">
-        <v>661</v>
-      </c>
       <c r="D65" s="138" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E65" s="138" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F65" s="148" t="str">
         <f>A63</f>
@@ -12901,19 +12679,19 @@
     </row>
     <row r="66" spans="1:14" ht="64.5" customHeight="1">
       <c r="A66" s="138" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B66" s="138" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C66" s="138" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D66" s="138" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E66" s="138" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F66" s="148" t="str">
         <f>A64</f>
@@ -12924,19 +12702,19 @@
     </row>
     <row r="67" spans="1:14" ht="126" customHeight="1">
       <c r="A67" s="138" t="s">
+        <v>728</v>
+      </c>
+      <c r="B67" s="138" t="s">
+        <v>729</v>
+      </c>
+      <c r="C67" s="138" t="s">
         <v>730</v>
       </c>
-      <c r="B67" s="138" t="s">
-        <v>731</v>
-      </c>
-      <c r="C67" s="138" t="s">
-        <v>732</v>
-      </c>
       <c r="D67" s="138" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E67" s="138" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F67" s="148" t="str">
         <f>A66</f>
@@ -12947,19 +12725,19 @@
     </row>
     <row r="68" spans="1:14" ht="126" customHeight="1">
       <c r="A68" s="138" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B68" s="138" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C68" s="138" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D68" s="138" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E68" s="138" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F68" s="148" t="str">
         <f>A66</f>
@@ -12970,19 +12748,19 @@
     </row>
     <row r="69" spans="1:14" ht="56.25" customHeight="1">
       <c r="A69" s="138" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B69" s="138" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C69" s="138" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D69" s="138" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E69" s="138" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F69" s="148" t="str">
         <f>A66</f>
@@ -12993,19 +12771,19 @@
     </row>
     <row r="70" spans="1:14" ht="56.25" customHeight="1">
       <c r="A70" s="138" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B70" s="138" t="s">
+        <v>737</v>
+      </c>
+      <c r="C70" s="138" t="s">
         <v>739</v>
       </c>
-      <c r="C70" s="138" t="s">
-        <v>741</v>
-      </c>
       <c r="D70" s="138" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E70" s="138" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F70" s="148" t="str">
         <f>A66</f>
@@ -13016,19 +12794,19 @@
     </row>
     <row r="71" spans="1:14" ht="54.75" customHeight="1">
       <c r="A71" s="138" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B71" s="138" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C71" s="138" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D71" s="138" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E71" s="138" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F71" s="148" t="str">
         <f>A66</f>
@@ -13039,19 +12817,19 @@
     </row>
     <row r="72" spans="1:14" ht="44.25" customHeight="1">
       <c r="A72" s="141" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B72" s="141" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C72" s="141" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D72" s="141" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E72" s="141" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F72" s="149" t="str">
         <f>A63</f>
@@ -13068,19 +12846,19 @@
     </row>
     <row r="73" spans="1:14" ht="54.75" customHeight="1">
       <c r="A73" s="138" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B73" s="138" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C73" s="150" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D73" s="138" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E73" s="138" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F73" s="148" t="str">
         <f>A72</f>
@@ -13097,19 +12875,19 @@
     </row>
     <row r="74" spans="1:14" ht="51.75" customHeight="1">
       <c r="A74" s="138" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B74" s="138" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C74" s="150" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D74" s="138" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E74" s="138" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F74" s="148" t="str">
         <f>A72</f>
@@ -13126,7 +12904,7 @@
     </row>
     <row r="75" spans="1:14" ht="33.75" customHeight="1">
       <c r="A75" s="201" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B75" s="201"/>
       <c r="C75" s="201"/>
@@ -13138,41 +12916,41 @@
     </row>
     <row r="76" spans="1:14" ht="50.25" customHeight="1">
       <c r="A76" s="143" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B76" s="146" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C76" s="143" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="D76" s="143" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E76" s="143" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F76" s="144"/>
       <c r="G76" s="144"/>
       <c r="H76" s="153" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="50.25" customHeight="1">
       <c r="A77" s="138" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B77" s="138" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C77" s="138" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D77" s="138" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E77" s="138" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F77" s="138" t="str">
         <f>A76</f>
@@ -13180,24 +12958,24 @@
       </c>
       <c r="G77" s="138"/>
       <c r="H77" s="153" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="50.25" customHeight="1">
       <c r="A78" s="138" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B78" s="138" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C78" s="138" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D78" s="138" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E78" s="138" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F78" s="138" t="str">
         <f>A76</f>
@@ -13205,24 +12983,24 @@
       </c>
       <c r="G78" s="138"/>
       <c r="H78" s="153" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="50.25" customHeight="1">
       <c r="A79" s="138" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B79" s="138" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C79" s="138" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D79" s="138" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E79" s="138" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F79" s="138" t="str">
         <f>A78</f>
@@ -13230,24 +13008,24 @@
       </c>
       <c r="G79" s="138"/>
       <c r="H79" s="153" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="50.25" customHeight="1">
       <c r="A80" s="138" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B80" s="138" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C80" s="138" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="D80" s="138" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E80" s="138" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F80" s="138" t="str">
         <f>A78</f>
@@ -13255,24 +13033,24 @@
       </c>
       <c r="G80" s="138"/>
       <c r="H80" s="153" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="66" customHeight="1">
       <c r="A81" s="138" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B81" s="138" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C81" s="138" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D81" s="138" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E81" s="138" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F81" s="138" t="str">
         <f>A78</f>
@@ -13280,24 +13058,24 @@
       </c>
       <c r="G81" s="138"/>
       <c r="H81" s="153" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="82" spans="1:14" ht="50.25" customHeight="1">
       <c r="A82" s="138" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B82" s="138" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C82" s="138" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="D82" s="138" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E82" s="138" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F82" s="138" t="str">
         <f>A76</f>
@@ -13308,19 +13086,19 @@
     </row>
     <row r="83" spans="1:14" ht="50.25" customHeight="1">
       <c r="A83" s="138" t="s">
+        <v>757</v>
+      </c>
+      <c r="B83" s="138" t="s">
+        <v>758</v>
+      </c>
+      <c r="C83" s="138" t="s">
         <v>759</v>
       </c>
-      <c r="B83" s="138" t="s">
-        <v>760</v>
-      </c>
-      <c r="C83" s="138" t="s">
-        <v>761</v>
-      </c>
       <c r="D83" s="138" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E83" s="138" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F83" s="138" t="str">
         <f>A76</f>
@@ -13328,24 +13106,24 @@
       </c>
       <c r="G83" s="138"/>
       <c r="H83" s="153" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="50.25" customHeight="1">
       <c r="A84" s="138" t="s">
+        <v>760</v>
+      </c>
+      <c r="B84" s="138" t="s">
+        <v>761</v>
+      </c>
+      <c r="C84" s="138" t="s">
         <v>762</v>
       </c>
-      <c r="B84" s="138" t="s">
-        <v>763</v>
-      </c>
-      <c r="C84" s="138" t="s">
-        <v>764</v>
-      </c>
       <c r="D84" s="138" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E84" s="138" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F84" s="138" t="str">
         <f>A83</f>
@@ -13353,24 +13131,24 @@
       </c>
       <c r="G84" s="138"/>
       <c r="H84" s="153" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="85" spans="1:14" ht="50.25" customHeight="1">
       <c r="A85" s="138" t="s">
+        <v>763</v>
+      </c>
+      <c r="B85" s="138" t="s">
+        <v>764</v>
+      </c>
+      <c r="C85" s="138" t="s">
         <v>765</v>
       </c>
-      <c r="B85" s="138" t="s">
-        <v>766</v>
-      </c>
-      <c r="C85" s="138" t="s">
-        <v>767</v>
-      </c>
       <c r="D85" s="138" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E85" s="138" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F85" s="138" t="str">
         <f>A83</f>
@@ -13378,24 +13156,24 @@
       </c>
       <c r="G85" s="138"/>
       <c r="H85" s="153" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="86" spans="1:14" ht="50.25" customHeight="1">
       <c r="A86" s="138" t="s">
+        <v>766</v>
+      </c>
+      <c r="B86" s="138" t="s">
+        <v>767</v>
+      </c>
+      <c r="C86" s="138" t="s">
         <v>768</v>
       </c>
-      <c r="B86" s="138" t="s">
-        <v>769</v>
-      </c>
-      <c r="C86" s="138" t="s">
-        <v>770</v>
-      </c>
       <c r="D86" s="138" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E86" s="138" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F86" s="138" t="str">
         <f>A76</f>
@@ -13406,7 +13184,7 @@
     </row>
     <row r="87" spans="1:14" ht="33.75" customHeight="1">
       <c r="A87" s="197" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B87" s="197"/>
       <c r="C87" s="197"/>
@@ -13418,19 +13196,19 @@
     </row>
     <row r="88" spans="1:14" ht="50.25" customHeight="1">
       <c r="A88" s="143" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B88" s="146" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C88" s="143" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D88" s="143" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E88" s="143" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F88" s="144"/>
       <c r="G88" s="144"/>
@@ -13438,19 +13216,19 @@
     </row>
     <row r="89" spans="1:14" ht="50.25" customHeight="1">
       <c r="A89" s="138" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B89" s="138" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C89" s="138" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D89" s="138" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E89" s="138" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F89" s="138" t="str">
         <f>A88</f>
@@ -13461,19 +13239,19 @@
     </row>
     <row r="90" spans="1:14" ht="50.25" customHeight="1">
       <c r="A90" s="138" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B90" s="138" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C90" s="138" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D90" s="138" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E90" s="138" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F90" s="138" t="str">
         <f>A88</f>
@@ -13485,13 +13263,13 @@
     <row r="91" spans="1:14" ht="33" customHeight="1"/>
     <row r="92" spans="1:14" ht="18.75" customHeight="1">
       <c r="A92" s="199" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B92" s="200"/>
     </row>
     <row r="93" spans="1:14" ht="33.75" customHeight="1">
       <c r="A93" s="79" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B93" s="79" t="s">
         <v>1</v>
@@ -13500,24 +13278,24 @@
         <v>3</v>
       </c>
       <c r="D93" s="79" t="s">
+        <v>179</v>
+      </c>
+      <c r="E93" s="79" t="s">
         <v>181</v>
       </c>
-      <c r="E93" s="79" t="s">
-        <v>183</v>
-      </c>
       <c r="F93" s="137" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G93" s="137" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="H93" s="157" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="94" spans="1:14" ht="33.75" customHeight="1">
       <c r="A94" s="197" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B94" s="197"/>
       <c r="C94" s="197"/>
@@ -13529,19 +13307,19 @@
     </row>
     <row r="95" spans="1:14" ht="50.25" customHeight="1">
       <c r="A95" s="146" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B95" s="145" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C95" s="143" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D95" s="143" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E95" s="143" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F95" s="144"/>
       <c r="G95" s="144"/>
@@ -13549,19 +13327,19 @@
     </row>
     <row r="96" spans="1:14" ht="44.25" customHeight="1">
       <c r="A96" s="139" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B96" s="139" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C96" s="139" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D96" s="139" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E96" s="139" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F96" s="140" t="str">
         <f>A95</f>
@@ -13578,19 +13356,19 @@
     </row>
     <row r="97" spans="1:14" ht="44.25" customHeight="1">
       <c r="A97" s="139" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B97" s="139" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C97" s="139" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D97" s="139" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E97" s="139" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F97" s="140" t="str">
         <f>A95</f>
@@ -13607,13 +13385,13 @@
     </row>
     <row r="99" spans="1:14">
       <c r="A99" s="199" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B99" s="200"/>
     </row>
     <row r="100" spans="1:14" ht="47.25">
       <c r="A100" s="79" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B100" s="79" t="s">
         <v>1</v>
@@ -13622,24 +13400,24 @@
         <v>3</v>
       </c>
       <c r="D100" s="79" t="s">
+        <v>179</v>
+      </c>
+      <c r="E100" s="79" t="s">
         <v>181</v>
       </c>
-      <c r="E100" s="79" t="s">
-        <v>183</v>
-      </c>
       <c r="F100" s="137" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G100" s="137" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="H100" s="157" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="101" spans="1:14">
       <c r="A101" s="197" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B101" s="197"/>
       <c r="C101" s="197"/>
@@ -13651,20 +13429,20 @@
     </row>
     <row r="102" spans="1:14" ht="30">
       <c r="A102" s="146" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B102" s="145" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C102" s="143" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D102" s="143" t="str">
         <f>stakeholders!A$21</f>
         <v>stk.administradorsistema</v>
       </c>
       <c r="E102" s="143" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F102" s="144"/>
       <c r="G102" s="144"/>
@@ -13672,20 +13450,20 @@
     </row>
     <row r="103" spans="1:14" ht="30">
       <c r="A103" s="139" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B103" s="139" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C103" s="139" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D103" s="139" t="str">
         <f>stakeholders!A$21</f>
         <v>stk.administradorsistema</v>
       </c>
       <c r="E103" s="139" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F103" s="140" t="str">
         <f>A102</f>
@@ -13696,20 +13474,20 @@
     </row>
     <row r="104" spans="1:14" ht="30">
       <c r="A104" s="138" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B104" s="138" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C104" s="138" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D104" s="138" t="str">
         <f>stakeholders!A$21</f>
         <v>stk.administradorsistema</v>
       </c>
       <c r="E104" s="138" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F104" s="18" t="str">
         <f>A103</f>
@@ -13720,20 +13498,20 @@
     </row>
     <row r="105" spans="1:14" ht="30">
       <c r="A105" s="138" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B105" s="138" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C105" s="138" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D105" s="138" t="str">
         <f>stakeholders!A$21</f>
         <v>stk.administradorsistema</v>
       </c>
       <c r="E105" s="138" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F105" s="18" t="str">
         <f>A103</f>
@@ -13799,7 +13577,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B1" s="41"/>
     </row>
@@ -13820,7 +13598,7 @@
     </row>
     <row r="4" spans="1:6" ht="23.25">
       <c r="A4" s="178" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B4" s="178"/>
       <c r="C4" s="178"/>
@@ -13834,13 +13612,13 @@
     </row>
     <row r="6" spans="1:6" ht="31.5" customHeight="1">
       <c r="A6" s="209" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B6" s="210"/>
       <c r="C6" s="210"/>
       <c r="D6" s="211"/>
       <c r="E6" s="205" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F6" s="205" t="s">
         <v>3</v>
@@ -13848,11 +13626,11 @@
     </row>
     <row r="7" spans="1:6" ht="15.75">
       <c r="A7" s="208" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B7" s="208"/>
       <c r="C7" s="208" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D7" s="208"/>
       <c r="E7" s="206"/>
@@ -13892,10 +13670,10 @@
         <v>Segurança nas comunicações</v>
       </c>
       <c r="E9" s="123" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="F9" s="122" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
   </sheetData>

--- a/Templates/SIOP-RSLIL-v2.1.xlsx
+++ b/Templates/SIOP-RSLIL-v2.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr codeName="EsteLivro" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="842" firstSheet="3" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="842" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -3702,324 +3702,6 @@
     <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -4037,6 +3719,324 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
@@ -4474,7 +4474,7 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
@@ -4498,29 +4498,29 @@
       <c r="C1" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="23.25">
-      <c r="A3" s="175" t="str">
+      <c r="A3" s="182" t="str">
         <f>index!A1</f>
         <v>Especificação de Requisitos do SIOP (Sistema Integrado de Operações) - CSSFAA</v>
       </c>
-      <c r="B3" s="175"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="175"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="182"/>
+      <c r="G3" s="182"/>
+      <c r="H3" s="182"/>
     </row>
     <row r="4" spans="1:8" ht="23.25">
-      <c r="A4" s="176" t="s">
+      <c r="A4" s="183" t="s">
         <v>471</v>
       </c>
-      <c r="B4" s="176"/>
-      <c r="C4" s="176"/>
-      <c r="D4" s="176"/>
-      <c r="E4" s="176"/>
-      <c r="F4" s="176"/>
-      <c r="G4" s="176"/>
-      <c r="H4" s="176"/>
+      <c r="B4" s="183"/>
+      <c r="C4" s="183"/>
+      <c r="D4" s="183"/>
+      <c r="E4" s="183"/>
+      <c r="F4" s="183"/>
+      <c r="G4" s="183"/>
+      <c r="H4" s="183"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="90" t="s">
@@ -4534,40 +4534,40 @@
     </row>
     <row r="8" spans="1:8" ht="39" customHeight="1"/>
     <row r="9" spans="1:8">
-      <c r="A9" s="239" t="s">
+      <c r="A9" s="219" t="s">
         <v>482</v>
       </c>
-      <c r="B9" s="240"/>
-      <c r="C9" s="240"/>
-      <c r="D9" s="240"/>
-      <c r="E9" s="240"/>
-      <c r="F9" s="240"/>
-      <c r="G9" s="240"/>
-      <c r="H9" s="241"/>
+      <c r="B9" s="220"/>
+      <c r="C9" s="220"/>
+      <c r="D9" s="220"/>
+      <c r="E9" s="220"/>
+      <c r="F9" s="220"/>
+      <c r="G9" s="220"/>
+      <c r="H9" s="221"/>
     </row>
     <row r="10" spans="1:8" ht="31.5" customHeight="1">
-      <c r="A10" s="266" t="s">
+      <c r="A10" s="160" t="s">
         <v>163</v>
       </c>
-      <c r="B10" s="266" t="s">
+      <c r="B10" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="266" t="s">
+      <c r="C10" s="160" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="266" t="s">
+      <c r="D10" s="160" t="s">
         <v>164</v>
       </c>
-      <c r="E10" s="266" t="s">
+      <c r="E10" s="160" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="266" t="s">
+      <c r="F10" s="160" t="s">
         <v>169</v>
       </c>
-      <c r="G10" s="266" t="s">
+      <c r="G10" s="160" t="s">
         <v>162</v>
       </c>
-      <c r="H10" s="267" t="s">
+      <c r="H10" s="161" t="s">
         <v>737</v>
       </c>
     </row>
@@ -4635,8 +4635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A7"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4664,35 +4664,35 @@
       <c r="G1" s="4"/>
     </row>
     <row r="3" spans="1:11" ht="23.25">
-      <c r="A3" s="175" t="str">
+      <c r="A3" s="182" t="str">
         <f>index!A1</f>
         <v>Especificação de Requisitos do SIOP (Sistema Integrado de Operações) - CSSFAA</v>
       </c>
-      <c r="B3" s="175"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="175"/>
-      <c r="I3" s="175"/>
-      <c r="J3" s="175"/>
-      <c r="K3" s="175"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="182"/>
+      <c r="G3" s="182"/>
+      <c r="H3" s="182"/>
+      <c r="I3" s="182"/>
+      <c r="J3" s="182"/>
+      <c r="K3" s="182"/>
     </row>
     <row r="4" spans="1:11" ht="23.25">
-      <c r="A4" s="176" t="s">
+      <c r="A4" s="183" t="s">
         <v>473</v>
       </c>
-      <c r="B4" s="176"/>
-      <c r="C4" s="176"/>
-      <c r="D4" s="176"/>
-      <c r="E4" s="176"/>
-      <c r="F4" s="176"/>
-      <c r="G4" s="176"/>
-      <c r="H4" s="176"/>
-      <c r="I4" s="176"/>
-      <c r="J4" s="176"/>
-      <c r="K4" s="176"/>
+      <c r="B4" s="183"/>
+      <c r="C4" s="183"/>
+      <c r="D4" s="183"/>
+      <c r="E4" s="183"/>
+      <c r="F4" s="183"/>
+      <c r="G4" s="183"/>
+      <c r="H4" s="183"/>
+      <c r="I4" s="183"/>
+      <c r="J4" s="183"/>
+      <c r="K4" s="183"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="90" t="s">
@@ -4706,52 +4706,52 @@
     </row>
     <row r="8" spans="1:11" ht="30.75" customHeight="1"/>
     <row r="9" spans="1:11">
-      <c r="A9" s="239" t="s">
+      <c r="A9" s="219" t="s">
         <v>482</v>
       </c>
-      <c r="B9" s="240"/>
-      <c r="C9" s="240"/>
-      <c r="D9" s="240"/>
-      <c r="E9" s="240"/>
-      <c r="F9" s="240"/>
-      <c r="G9" s="240"/>
-      <c r="H9" s="240"/>
-      <c r="I9" s="240"/>
-      <c r="J9" s="240"/>
-      <c r="K9" s="241"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A10" s="266" t="s">
+      <c r="B9" s="220"/>
+      <c r="C9" s="220"/>
+      <c r="D9" s="220"/>
+      <c r="E9" s="220"/>
+      <c r="F9" s="220"/>
+      <c r="G9" s="220"/>
+      <c r="H9" s="220"/>
+      <c r="I9" s="220"/>
+      <c r="J9" s="220"/>
+      <c r="K9" s="221"/>
+    </row>
+    <row r="10" spans="1:11" ht="32.25" customHeight="1">
+      <c r="A10" s="160" t="s">
         <v>163</v>
       </c>
-      <c r="B10" s="266" t="s">
+      <c r="B10" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="266" t="s">
+      <c r="C10" s="160" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="266" t="s">
-        <v>165</v>
-      </c>
-      <c r="E10" s="266" t="s">
+      <c r="D10" s="160" t="s">
+        <v>164</v>
+      </c>
+      <c r="E10" s="160" t="s">
         <v>812</v>
       </c>
-      <c r="F10" s="268" t="s">
+      <c r="F10" s="162" t="s">
         <v>140</v>
       </c>
-      <c r="G10" s="268" t="s">
+      <c r="G10" s="162" t="s">
         <v>141</v>
       </c>
-      <c r="H10" s="266" t="s">
+      <c r="H10" s="160" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="266" t="s">
+      <c r="I10" s="160" t="s">
         <v>169</v>
       </c>
-      <c r="J10" s="266" t="s">
+      <c r="J10" s="160" t="s">
         <v>162</v>
       </c>
-      <c r="K10" s="267" t="s">
+      <c r="K10" s="161" t="s">
         <v>737</v>
       </c>
     </row>
@@ -4841,8 +4841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4877,16 +4877,16 @@
       <c r="H3" s="153"/>
     </row>
     <row r="4" spans="1:8" ht="23.25">
-      <c r="A4" s="176" t="s">
+      <c r="A4" s="183" t="s">
         <v>474</v>
       </c>
-      <c r="B4" s="176"/>
-      <c r="C4" s="176"/>
-      <c r="D4" s="176"/>
-      <c r="E4" s="176"/>
-      <c r="F4" s="176"/>
-      <c r="G4" s="176"/>
-      <c r="H4" s="176"/>
+      <c r="B4" s="183"/>
+      <c r="C4" s="183"/>
+      <c r="D4" s="183"/>
+      <c r="E4" s="183"/>
+      <c r="F4" s="183"/>
+      <c r="G4" s="183"/>
+      <c r="H4" s="183"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="90" t="s">
@@ -4900,40 +4900,40 @@
     </row>
     <row r="8" spans="1:8" ht="30.75" customHeight="1"/>
     <row r="9" spans="1:8">
-      <c r="A9" s="239" t="s">
+      <c r="A9" s="219" t="s">
         <v>482</v>
       </c>
-      <c r="B9" s="240"/>
-      <c r="C9" s="240"/>
-      <c r="D9" s="240"/>
-      <c r="E9" s="240"/>
-      <c r="F9" s="240"/>
-      <c r="G9" s="240"/>
-      <c r="H9" s="241"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="266" t="s">
+      <c r="B9" s="220"/>
+      <c r="C9" s="220"/>
+      <c r="D9" s="220"/>
+      <c r="E9" s="220"/>
+      <c r="F9" s="220"/>
+      <c r="G9" s="220"/>
+      <c r="H9" s="221"/>
+    </row>
+    <row r="10" spans="1:8" ht="30.75" customHeight="1">
+      <c r="A10" s="160" t="s">
         <v>163</v>
       </c>
-      <c r="B10" s="266" t="s">
+      <c r="B10" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="266" t="s">
+      <c r="C10" s="160" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="266" t="s">
-        <v>165</v>
-      </c>
-      <c r="E10" s="266" t="s">
+      <c r="D10" s="160" t="s">
+        <v>164</v>
+      </c>
+      <c r="E10" s="160" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="266" t="s">
+      <c r="F10" s="160" t="s">
         <v>169</v>
       </c>
-      <c r="G10" s="266" t="s">
+      <c r="G10" s="160" t="s">
         <v>162</v>
       </c>
-      <c r="H10" s="267" t="s">
+      <c r="H10" s="161" t="s">
         <v>737</v>
       </c>
     </row>
@@ -4986,7 +4986,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5021,44 +5021,44 @@
       <c r="F3" s="108"/>
     </row>
     <row r="4" spans="1:6" ht="23.25">
-      <c r="A4" s="176" t="s">
+      <c r="A4" s="183" t="s">
         <v>748</v>
       </c>
-      <c r="B4" s="176"/>
-      <c r="C4" s="176"/>
-      <c r="D4" s="176"/>
-      <c r="E4" s="176"/>
-      <c r="F4" s="176"/>
+      <c r="B4" s="183"/>
+      <c r="C4" s="183"/>
+      <c r="D4" s="183"/>
+      <c r="E4" s="183"/>
+      <c r="F4" s="183"/>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1">
       <c r="A5" s="40"/>
       <c r="B5" s="40"/>
     </row>
     <row r="6" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A6" s="207" t="s">
+      <c r="A6" s="216" t="s">
         <v>747</v>
       </c>
-      <c r="B6" s="208"/>
-      <c r="C6" s="208"/>
-      <c r="D6" s="209"/>
-      <c r="E6" s="203" t="s">
+      <c r="B6" s="217"/>
+      <c r="C6" s="217"/>
+      <c r="D6" s="218"/>
+      <c r="E6" s="212" t="s">
         <v>573</v>
       </c>
-      <c r="F6" s="203" t="s">
+      <c r="F6" s="212" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75">
-      <c r="A7" s="206" t="s">
+      <c r="A7" s="215" t="s">
         <v>387</v>
       </c>
-      <c r="B7" s="206"/>
-      <c r="C7" s="206" t="s">
+      <c r="B7" s="215"/>
+      <c r="C7" s="215" t="s">
         <v>388</v>
       </c>
-      <c r="D7" s="206"/>
-      <c r="E7" s="204"/>
-      <c r="F7" s="204"/>
+      <c r="D7" s="215"/>
+      <c r="E7" s="213"/>
+      <c r="F7" s="213"/>
     </row>
     <row r="8" spans="1:6" ht="15.75">
       <c r="A8" s="77" t="s">
@@ -5073,8 +5073,8 @@
       <c r="D8" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="205"/>
-      <c r="F8" s="205"/>
+      <c r="E8" s="214"/>
+      <c r="F8" s="214"/>
     </row>
     <row r="9" spans="1:6" s="48" customFormat="1" ht="38.25" customHeight="1">
       <c r="A9" s="120" t="str">
@@ -5179,63 +5179,63 @@
       <c r="A2" s="4"/>
     </row>
     <row r="3" spans="1:12" ht="23.25">
-      <c r="A3" s="175" t="str">
+      <c r="A3" s="182" t="str">
         <f>index!A1</f>
         <v>Especificação de Requisitos do SIOP (Sistema Integrado de Operações) - CSSFAA</v>
       </c>
-      <c r="B3" s="175"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="175"/>
-      <c r="I3" s="175"/>
-      <c r="J3" s="175"/>
-      <c r="K3" s="175"/>
-      <c r="L3" s="175"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="182"/>
+      <c r="G3" s="182"/>
+      <c r="H3" s="182"/>
+      <c r="I3" s="182"/>
+      <c r="J3" s="182"/>
+      <c r="K3" s="182"/>
+      <c r="L3" s="182"/>
     </row>
     <row r="4" spans="1:12" ht="23.25">
-      <c r="A4" s="176" t="s">
+      <c r="A4" s="183" t="s">
         <v>467</v>
       </c>
-      <c r="B4" s="176"/>
-      <c r="C4" s="176"/>
-      <c r="D4" s="176"/>
-      <c r="E4" s="176"/>
-      <c r="F4" s="176"/>
-      <c r="G4" s="176"/>
-      <c r="H4" s="176"/>
-      <c r="I4" s="176"/>
-      <c r="J4" s="176"/>
-      <c r="K4" s="176"/>
-      <c r="L4" s="176"/>
+      <c r="B4" s="183"/>
+      <c r="C4" s="183"/>
+      <c r="D4" s="183"/>
+      <c r="E4" s="183"/>
+      <c r="F4" s="183"/>
+      <c r="G4" s="183"/>
+      <c r="H4" s="183"/>
+      <c r="I4" s="183"/>
+      <c r="J4" s="183"/>
+      <c r="K4" s="183"/>
+      <c r="L4" s="183"/>
     </row>
     <row r="5" spans="1:12" ht="18.75" customHeight="1">
       <c r="A5" s="4"/>
     </row>
     <row r="6" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A6" s="197" t="s">
+      <c r="A6" s="204" t="s">
         <v>475</v>
       </c>
-      <c r="B6" s="198"/>
+      <c r="B6" s="205"/>
     </row>
     <row r="7" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A7" s="211" t="s">
+      <c r="A7" s="242" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="212"/>
-      <c r="C7" s="200"/>
-      <c r="D7" s="200"/>
+      <c r="B7" s="243"/>
+      <c r="C7" s="206"/>
+      <c r="D7" s="206"/>
       <c r="E7" s="63"/>
     </row>
     <row r="8" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A8" s="213" t="s">
+      <c r="A8" s="244" t="s">
         <v>194</v>
       </c>
-      <c r="B8" s="214"/>
-      <c r="C8" s="200"/>
-      <c r="D8" s="200"/>
+      <c r="B8" s="245"/>
+      <c r="C8" s="206"/>
+      <c r="D8" s="206"/>
       <c r="E8" s="63"/>
     </row>
     <row r="9" spans="1:12" ht="18.75" customHeight="1">
@@ -5255,10 +5255,10 @@
       <c r="F10" s="88"/>
       <c r="G10" s="88"/>
       <c r="H10" s="88"/>
-      <c r="I10" s="233"/>
-      <c r="J10" s="233"/>
-      <c r="K10" s="233"/>
-      <c r="L10" s="233"/>
+      <c r="I10" s="234"/>
+      <c r="J10" s="234"/>
+      <c r="K10" s="234"/>
+      <c r="L10" s="234"/>
     </row>
     <row r="11" spans="1:12" ht="25.5" customHeight="1">
       <c r="A11" s="83" t="s">
@@ -5276,26 +5276,26 @@
       <c r="E11" s="89" t="s">
         <v>179</v>
       </c>
-      <c r="F11" s="232"/>
-      <c r="G11" s="232"/>
-      <c r="H11" s="232"/>
-      <c r="I11" s="232"/>
-      <c r="J11" s="232"/>
-      <c r="K11" s="232"/>
-      <c r="L11" s="232"/>
+      <c r="F11" s="233"/>
+      <c r="G11" s="233"/>
+      <c r="H11" s="233"/>
+      <c r="I11" s="233"/>
+      <c r="J11" s="233"/>
+      <c r="K11" s="233"/>
+      <c r="L11" s="233"/>
     </row>
     <row r="12" spans="1:12" ht="18.75" customHeight="1">
-      <c r="D12" s="216" t="s">
+      <c r="D12" s="239" t="s">
         <v>181</v>
       </c>
-      <c r="E12" s="217"/>
-      <c r="F12" s="217"/>
-      <c r="G12" s="217"/>
-      <c r="H12" s="217"/>
-      <c r="I12" s="217"/>
-      <c r="J12" s="217"/>
-      <c r="K12" s="217"/>
-      <c r="L12" s="218"/>
+      <c r="E12" s="240"/>
+      <c r="F12" s="240"/>
+      <c r="G12" s="240"/>
+      <c r="H12" s="240"/>
+      <c r="I12" s="240"/>
+      <c r="J12" s="240"/>
+      <c r="K12" s="240"/>
+      <c r="L12" s="241"/>
     </row>
     <row r="13" spans="1:12" ht="18.75" customHeight="1">
       <c r="D13" s="9" t="s">
@@ -5327,17 +5327,17 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="18.75" customHeight="1">
-      <c r="D14" s="216" t="s">
+      <c r="D14" s="239" t="s">
         <v>183</v>
       </c>
-      <c r="E14" s="217"/>
-      <c r="F14" s="217"/>
-      <c r="G14" s="217"/>
-      <c r="H14" s="217"/>
-      <c r="I14" s="217"/>
-      <c r="J14" s="217"/>
-      <c r="K14" s="217"/>
-      <c r="L14" s="218"/>
+      <c r="E14" s="240"/>
+      <c r="F14" s="240"/>
+      <c r="G14" s="240"/>
+      <c r="H14" s="240"/>
+      <c r="I14" s="240"/>
+      <c r="J14" s="240"/>
+      <c r="K14" s="240"/>
+      <c r="L14" s="241"/>
     </row>
     <row r="15" spans="1:12" ht="18.75" customHeight="1">
       <c r="D15" s="9" t="s">
@@ -5349,40 +5349,40 @@
       <c r="F15" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="G15" s="222"/>
-      <c r="H15" s="223"/>
-      <c r="I15" s="223"/>
-      <c r="J15" s="223"/>
-      <c r="K15" s="223"/>
-      <c r="L15" s="224"/>
+      <c r="G15" s="246"/>
+      <c r="H15" s="247"/>
+      <c r="I15" s="247"/>
+      <c r="J15" s="247"/>
+      <c r="K15" s="247"/>
+      <c r="L15" s="248"/>
     </row>
     <row r="16" spans="1:12" ht="18.75" customHeight="1">
-      <c r="D16" s="216" t="s">
+      <c r="D16" s="239" t="s">
         <v>186</v>
       </c>
-      <c r="E16" s="217"/>
-      <c r="F16" s="217"/>
-      <c r="G16" s="217"/>
-      <c r="H16" s="217"/>
-      <c r="I16" s="217"/>
-      <c r="J16" s="217"/>
-      <c r="K16" s="217"/>
-      <c r="L16" s="218"/>
+      <c r="E16" s="240"/>
+      <c r="F16" s="240"/>
+      <c r="G16" s="240"/>
+      <c r="H16" s="240"/>
+      <c r="I16" s="240"/>
+      <c r="J16" s="240"/>
+      <c r="K16" s="240"/>
+      <c r="L16" s="241"/>
     </row>
     <row r="17" spans="1:13" ht="18.75" customHeight="1">
       <c r="D17" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="E17" s="235" t="s">
+      <c r="E17" s="236" t="s">
         <v>188</v>
       </c>
-      <c r="F17" s="236"/>
-      <c r="G17" s="236"/>
-      <c r="H17" s="236"/>
-      <c r="I17" s="236"/>
-      <c r="J17" s="236"/>
-      <c r="K17" s="236"/>
-      <c r="L17" s="237"/>
+      <c r="F17" s="237"/>
+      <c r="G17" s="237"/>
+      <c r="H17" s="237"/>
+      <c r="I17" s="237"/>
+      <c r="J17" s="237"/>
+      <c r="K17" s="237"/>
+      <c r="L17" s="238"/>
     </row>
     <row r="18" spans="1:13" ht="18.75" customHeight="1">
       <c r="A18" s="94" t="s">
@@ -5400,18 +5400,18 @@
       <c r="E18" s="97" t="s">
         <v>180</v>
       </c>
-      <c r="F18" s="219"/>
-      <c r="G18" s="220"/>
-      <c r="H18" s="220"/>
-      <c r="I18" s="220"/>
-      <c r="J18" s="220"/>
-      <c r="K18" s="220"/>
-      <c r="L18" s="221"/>
+      <c r="F18" s="223"/>
+      <c r="G18" s="224"/>
+      <c r="H18" s="224"/>
+      <c r="I18" s="224"/>
+      <c r="J18" s="224"/>
+      <c r="K18" s="224"/>
+      <c r="L18" s="225"/>
     </row>
     <row r="19" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A19" s="227"/>
-      <c r="B19" s="227"/>
-      <c r="C19" s="215" t="s">
+      <c r="A19" s="228"/>
+      <c r="B19" s="228"/>
+      <c r="C19" s="222" t="s">
         <v>182</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -5444,9 +5444,9 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A20" s="234"/>
-      <c r="B20" s="234"/>
-      <c r="C20" s="215"/>
+      <c r="A20" s="235"/>
+      <c r="B20" s="235"/>
+      <c r="C20" s="222"/>
       <c r="D20" s="2" t="s">
         <v>119</v>
       </c>
@@ -5472,9 +5472,9 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A21" s="234"/>
-      <c r="B21" s="234"/>
-      <c r="C21" s="215"/>
+      <c r="A21" s="235"/>
+      <c r="B21" s="235"/>
+      <c r="C21" s="222"/>
       <c r="D21" s="2" t="s">
         <v>161</v>
       </c>
@@ -5498,9 +5498,9 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A22" s="234"/>
-      <c r="B22" s="234"/>
-      <c r="C22" s="215"/>
+      <c r="A22" s="235"/>
+      <c r="B22" s="235"/>
+      <c r="C22" s="222"/>
       <c r="D22" s="2" t="s">
         <v>193</v>
       </c>
@@ -5526,9 +5526,9 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A23" s="234"/>
-      <c r="B23" s="234"/>
-      <c r="C23" s="215" t="s">
+      <c r="A23" s="235"/>
+      <c r="B23" s="235"/>
+      <c r="C23" s="222" t="s">
         <v>183</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -5540,20 +5540,20 @@
       <c r="F23" s="24">
         <v>1</v>
       </c>
-      <c r="G23" s="215"/>
-      <c r="H23" s="215"/>
-      <c r="I23" s="215"/>
-      <c r="J23" s="215"/>
-      <c r="K23" s="215"/>
-      <c r="L23" s="215"/>
+      <c r="G23" s="222"/>
+      <c r="H23" s="222"/>
+      <c r="I23" s="222"/>
+      <c r="J23" s="222"/>
+      <c r="K23" s="222"/>
+      <c r="L23" s="222"/>
       <c r="M23" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A24" s="234"/>
-      <c r="B24" s="234"/>
-      <c r="C24" s="215"/>
+      <c r="A24" s="235"/>
+      <c r="B24" s="235"/>
+      <c r="C24" s="222"/>
       <c r="D24" s="2" t="s">
         <v>191</v>
       </c>
@@ -5563,17 +5563,17 @@
       <c r="F24" s="24">
         <v>1</v>
       </c>
-      <c r="G24" s="215"/>
-      <c r="H24" s="215"/>
-      <c r="I24" s="215"/>
-      <c r="J24" s="215"/>
-      <c r="K24" s="215"/>
-      <c r="L24" s="215"/>
+      <c r="G24" s="222"/>
+      <c r="H24" s="222"/>
+      <c r="I24" s="222"/>
+      <c r="J24" s="222"/>
+      <c r="K24" s="222"/>
+      <c r="L24" s="222"/>
     </row>
     <row r="25" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A25" s="234"/>
-      <c r="B25" s="234"/>
-      <c r="C25" s="215"/>
+      <c r="A25" s="235"/>
+      <c r="B25" s="235"/>
+      <c r="C25" s="222"/>
       <c r="D25" s="2" t="s">
         <v>192</v>
       </c>
@@ -5583,67 +5583,67 @@
       <c r="F25" s="24">
         <v>1</v>
       </c>
-      <c r="G25" s="215"/>
-      <c r="H25" s="215"/>
-      <c r="I25" s="215"/>
-      <c r="J25" s="215"/>
-      <c r="K25" s="215"/>
-      <c r="L25" s="215"/>
+      <c r="G25" s="222"/>
+      <c r="H25" s="222"/>
+      <c r="I25" s="222"/>
+      <c r="J25" s="222"/>
+      <c r="K25" s="222"/>
+      <c r="L25" s="222"/>
     </row>
     <row r="26" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A26" s="234"/>
-      <c r="B26" s="234"/>
-      <c r="C26" s="227" t="s">
+      <c r="A26" s="235"/>
+      <c r="B26" s="235"/>
+      <c r="C26" s="228" t="s">
         <v>186</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E26" s="229" t="s">
+      <c r="E26" s="230" t="s">
         <v>196</v>
       </c>
-      <c r="F26" s="230"/>
-      <c r="G26" s="230"/>
-      <c r="H26" s="230"/>
-      <c r="I26" s="230"/>
-      <c r="J26" s="230"/>
-      <c r="K26" s="230"/>
-      <c r="L26" s="231"/>
+      <c r="F26" s="231"/>
+      <c r="G26" s="231"/>
+      <c r="H26" s="231"/>
+      <c r="I26" s="231"/>
+      <c r="J26" s="231"/>
+      <c r="K26" s="231"/>
+      <c r="L26" s="232"/>
       <c r="M26" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A27" s="228"/>
-      <c r="B27" s="228"/>
-      <c r="C27" s="228"/>
+      <c r="A27" s="229"/>
+      <c r="B27" s="229"/>
+      <c r="C27" s="229"/>
       <c r="D27" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="E27" s="229" t="s">
+      <c r="E27" s="230" t="s">
         <v>190</v>
       </c>
-      <c r="F27" s="230"/>
-      <c r="G27" s="230"/>
-      <c r="H27" s="230"/>
-      <c r="I27" s="230"/>
-      <c r="J27" s="230"/>
-      <c r="K27" s="230"/>
-      <c r="L27" s="231"/>
+      <c r="F27" s="231"/>
+      <c r="G27" s="231"/>
+      <c r="H27" s="231"/>
+      <c r="I27" s="231"/>
+      <c r="J27" s="231"/>
+      <c r="K27" s="231"/>
+      <c r="L27" s="232"/>
     </row>
     <row r="28" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A28" s="225"/>
-      <c r="B28" s="226"/>
-      <c r="C28" s="226"/>
-      <c r="D28" s="226"/>
-      <c r="E28" s="226"/>
-      <c r="F28" s="226"/>
-      <c r="G28" s="226"/>
-      <c r="H28" s="226"/>
-      <c r="I28" s="226"/>
-      <c r="J28" s="226"/>
-      <c r="K28" s="226"/>
-      <c r="L28" s="226"/>
+      <c r="A28" s="226"/>
+      <c r="B28" s="227"/>
+      <c r="C28" s="227"/>
+      <c r="D28" s="227"/>
+      <c r="E28" s="227"/>
+      <c r="F28" s="227"/>
+      <c r="G28" s="227"/>
+      <c r="H28" s="227"/>
+      <c r="I28" s="227"/>
+      <c r="J28" s="227"/>
+      <c r="K28" s="227"/>
+      <c r="L28" s="227"/>
     </row>
     <row r="29" spans="1:13" ht="18.75" customHeight="1">
       <c r="A29" s="94" t="s">
@@ -5661,16 +5661,16 @@
       <c r="E29" s="97" t="s">
         <v>180</v>
       </c>
-      <c r="F29" s="219"/>
-      <c r="G29" s="220"/>
-      <c r="H29" s="220"/>
-      <c r="I29" s="220"/>
-      <c r="J29" s="220"/>
-      <c r="K29" s="220"/>
-      <c r="L29" s="221"/>
+      <c r="F29" s="223"/>
+      <c r="G29" s="224"/>
+      <c r="H29" s="224"/>
+      <c r="I29" s="224"/>
+      <c r="J29" s="224"/>
+      <c r="K29" s="224"/>
+      <c r="L29" s="225"/>
     </row>
     <row r="30" spans="1:13" ht="18.75" customHeight="1">
-      <c r="C30" s="215" t="s">
+      <c r="C30" s="222" t="s">
         <v>182</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -5698,7 +5698,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="18.75" customHeight="1">
-      <c r="C31" s="215"/>
+      <c r="C31" s="222"/>
       <c r="D31" s="2" t="s">
         <v>119</v>
       </c>
@@ -5724,7 +5724,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="18.75" customHeight="1">
-      <c r="C32" s="215"/>
+      <c r="C32" s="222"/>
       <c r="D32" s="2" t="s">
         <v>161</v>
       </c>
@@ -5748,7 +5748,7 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="18.75" customHeight="1">
-      <c r="C33" s="215"/>
+      <c r="C33" s="222"/>
       <c r="D33" s="2" t="s">
         <v>193</v>
       </c>
@@ -5787,16 +5787,16 @@
       <c r="E35" s="97" t="s">
         <v>180</v>
       </c>
-      <c r="F35" s="219"/>
-      <c r="G35" s="220"/>
-      <c r="H35" s="220"/>
-      <c r="I35" s="220"/>
-      <c r="J35" s="220"/>
-      <c r="K35" s="220"/>
-      <c r="L35" s="221"/>
+      <c r="F35" s="223"/>
+      <c r="G35" s="224"/>
+      <c r="H35" s="224"/>
+      <c r="I35" s="224"/>
+      <c r="J35" s="224"/>
+      <c r="K35" s="224"/>
+      <c r="L35" s="225"/>
     </row>
     <row r="36" spans="1:12" ht="18.75" customHeight="1">
-      <c r="C36" s="215" t="s">
+      <c r="C36" s="222" t="s">
         <v>182</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -5824,7 +5824,7 @@
       </c>
     </row>
     <row r="37" spans="1:12" ht="18.75" customHeight="1">
-      <c r="C37" s="215"/>
+      <c r="C37" s="222"/>
       <c r="D37" s="2" t="s">
         <v>119</v>
       </c>
@@ -5850,7 +5850,7 @@
       </c>
     </row>
     <row r="38" spans="1:12" ht="18.75" customHeight="1">
-      <c r="C38" s="215"/>
+      <c r="C38" s="222"/>
       <c r="D38" s="2" t="s">
         <v>161</v>
       </c>
@@ -5874,7 +5874,7 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="18.75" customHeight="1">
-      <c r="C39" s="215"/>
+      <c r="C39" s="222"/>
       <c r="D39" s="2" t="s">
         <v>193</v>
       </c>
@@ -5898,7 +5898,7 @@
       </c>
     </row>
     <row r="40" spans="1:12" ht="18.75" customHeight="1">
-      <c r="C40" s="215" t="s">
+      <c r="C40" s="222" t="s">
         <v>183</v>
       </c>
       <c r="D40" s="2" t="s">
@@ -5910,15 +5910,15 @@
       <c r="F40" s="24">
         <v>1</v>
       </c>
-      <c r="G40" s="215"/>
-      <c r="H40" s="215"/>
-      <c r="I40" s="215"/>
-      <c r="J40" s="215"/>
-      <c r="K40" s="215"/>
-      <c r="L40" s="215"/>
+      <c r="G40" s="222"/>
+      <c r="H40" s="222"/>
+      <c r="I40" s="222"/>
+      <c r="J40" s="222"/>
+      <c r="K40" s="222"/>
+      <c r="L40" s="222"/>
     </row>
     <row r="41" spans="1:12" ht="18.75" customHeight="1">
-      <c r="C41" s="215"/>
+      <c r="C41" s="222"/>
       <c r="D41" s="2" t="s">
         <v>191</v>
       </c>
@@ -5928,15 +5928,15 @@
       <c r="F41" s="24">
         <v>1</v>
       </c>
-      <c r="G41" s="215"/>
-      <c r="H41" s="215"/>
-      <c r="I41" s="215"/>
-      <c r="J41" s="215"/>
-      <c r="K41" s="215"/>
-      <c r="L41" s="215"/>
+      <c r="G41" s="222"/>
+      <c r="H41" s="222"/>
+      <c r="I41" s="222"/>
+      <c r="J41" s="222"/>
+      <c r="K41" s="222"/>
+      <c r="L41" s="222"/>
     </row>
     <row r="42" spans="1:12" ht="18.75" customHeight="1">
-      <c r="C42" s="215"/>
+      <c r="C42" s="222"/>
       <c r="D42" s="2" t="s">
         <v>200</v>
       </c>
@@ -5946,16 +5946,33 @@
       <c r="F42" s="24">
         <v>1</v>
       </c>
-      <c r="G42" s="215"/>
-      <c r="H42" s="215"/>
-      <c r="I42" s="215"/>
-      <c r="J42" s="215"/>
-      <c r="K42" s="215"/>
-      <c r="L42" s="215"/>
+      <c r="G42" s="222"/>
+      <c r="H42" s="222"/>
+      <c r="I42" s="222"/>
+      <c r="J42" s="222"/>
+      <c r="K42" s="222"/>
+      <c r="L42" s="222"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="33">
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="G40:L40"/>
+    <mergeCell ref="G41:L41"/>
+    <mergeCell ref="G42:L42"/>
+    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="F29:L29"/>
+    <mergeCell ref="F18:L18"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="G23:L23"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="D16:L16"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="G24:L24"/>
     <mergeCell ref="A3:L3"/>
@@ -5972,23 +5989,6 @@
     <mergeCell ref="E17:L17"/>
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="D14:L14"/>
-    <mergeCell ref="G23:L23"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="D16:L16"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="G40:L40"/>
-    <mergeCell ref="G41:L41"/>
-    <mergeCell ref="G42:L42"/>
-    <mergeCell ref="G25:L25"/>
-    <mergeCell ref="F29:L29"/>
-    <mergeCell ref="F18:L18"/>
-    <mergeCell ref="G15:L15"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G19:G22 G30:G33 G36:G39">
@@ -6070,23 +6070,23 @@
       <c r="A6" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="238"/>
+      <c r="E6" s="249"/>
     </row>
     <row r="7" spans="1:9" s="91" customFormat="1" ht="14.25" customHeight="1">
       <c r="A7" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="238"/>
+      <c r="E7" s="249"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="242" t="s">
+      <c r="A9" s="250" t="s">
         <v>482</v>
       </c>
-      <c r="B9" s="242"/>
-      <c r="C9" s="242"/>
-      <c r="D9" s="242"/>
-      <c r="E9" s="242"/>
-      <c r="F9" s="242"/>
+      <c r="B9" s="250"/>
+      <c r="C9" s="250"/>
+      <c r="D9" s="250"/>
+      <c r="E9" s="250"/>
+      <c r="F9" s="250"/>
     </row>
     <row r="10" spans="1:9" ht="15.75">
       <c r="A10" s="7" t="s">
@@ -6171,14 +6171,14 @@
       <c r="F14" s="80"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="239" t="s">
+      <c r="A15" s="219" t="s">
         <v>486</v>
       </c>
-      <c r="B15" s="240"/>
-      <c r="C15" s="240"/>
-      <c r="D15" s="240"/>
-      <c r="E15" s="240"/>
-      <c r="F15" s="241"/>
+      <c r="B15" s="220"/>
+      <c r="C15" s="220"/>
+      <c r="D15" s="220"/>
+      <c r="E15" s="220"/>
+      <c r="F15" s="221"/>
     </row>
     <row r="16" spans="1:9" ht="15.75">
       <c r="A16" s="7" t="s">
@@ -6311,25 +6311,25 @@
       <c r="Q3" s="70"/>
     </row>
     <row r="4" spans="1:18" ht="23.25">
-      <c r="A4" s="176" t="s">
+      <c r="A4" s="183" t="s">
         <v>469</v>
       </c>
-      <c r="B4" s="176"/>
-      <c r="C4" s="176"/>
-      <c r="D4" s="176"/>
-      <c r="E4" s="176"/>
-      <c r="F4" s="176"/>
-      <c r="G4" s="176"/>
-      <c r="H4" s="176"/>
-      <c r="I4" s="176"/>
-      <c r="J4" s="176"/>
-      <c r="K4" s="176"/>
-      <c r="L4" s="176"/>
-      <c r="M4" s="176"/>
-      <c r="N4" s="176"/>
-      <c r="O4" s="176"/>
-      <c r="P4" s="176"/>
-      <c r="Q4" s="176"/>
+      <c r="B4" s="183"/>
+      <c r="C4" s="183"/>
+      <c r="D4" s="183"/>
+      <c r="E4" s="183"/>
+      <c r="F4" s="183"/>
+      <c r="G4" s="183"/>
+      <c r="H4" s="183"/>
+      <c r="I4" s="183"/>
+      <c r="J4" s="183"/>
+      <c r="K4" s="183"/>
+      <c r="L4" s="183"/>
+      <c r="M4" s="183"/>
+      <c r="N4" s="183"/>
+      <c r="O4" s="183"/>
+      <c r="P4" s="183"/>
+      <c r="Q4" s="183"/>
     </row>
     <row r="5" spans="1:18" ht="21" customHeight="1"/>
     <row r="6" spans="1:18">
@@ -6343,76 +6343,76 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A9" s="250" t="s">
+      <c r="A9" s="257" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="251"/>
-      <c r="C9" s="251"/>
-      <c r="D9" s="251"/>
-      <c r="E9" s="251"/>
-      <c r="F9" s="251"/>
-      <c r="G9" s="251"/>
-      <c r="H9" s="251"/>
-      <c r="I9" s="251"/>
-      <c r="J9" s="251"/>
-      <c r="K9" s="251"/>
-      <c r="L9" s="251"/>
-      <c r="M9" s="251"/>
-      <c r="N9" s="251"/>
-      <c r="O9" s="251"/>
-      <c r="P9" s="251"/>
-      <c r="Q9" s="251"/>
-      <c r="R9" s="252"/>
+      <c r="B9" s="258"/>
+      <c r="C9" s="258"/>
+      <c r="D9" s="258"/>
+      <c r="E9" s="258"/>
+      <c r="F9" s="258"/>
+      <c r="G9" s="258"/>
+      <c r="H9" s="258"/>
+      <c r="I9" s="258"/>
+      <c r="J9" s="258"/>
+      <c r="K9" s="258"/>
+      <c r="L9" s="258"/>
+      <c r="M9" s="258"/>
+      <c r="N9" s="258"/>
+      <c r="O9" s="258"/>
+      <c r="P9" s="258"/>
+      <c r="Q9" s="258"/>
+      <c r="R9" s="259"/>
     </row>
     <row r="10" spans="1:18" ht="33" customHeight="1">
-      <c r="A10" s="244" t="s">
+      <c r="A10" s="255" t="s">
         <v>163</v>
       </c>
-      <c r="B10" s="244" t="s">
+      <c r="B10" s="255" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="244" t="s">
+      <c r="C10" s="255" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="244" t="s">
+      <c r="D10" s="255" t="s">
         <v>164</v>
       </c>
-      <c r="E10" s="248" t="s">
+      <c r="E10" s="252" t="s">
         <v>208</v>
       </c>
       <c r="F10" s="253"/>
-      <c r="G10" s="249"/>
-      <c r="H10" s="244" t="s">
+      <c r="G10" s="254"/>
+      <c r="H10" s="255" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="246" t="s">
+      <c r="I10" s="261" t="s">
         <v>211</v>
       </c>
-      <c r="J10" s="247"/>
-      <c r="K10" s="248" t="s">
+      <c r="J10" s="262"/>
+      <c r="K10" s="252" t="s">
         <v>74</v>
       </c>
-      <c r="L10" s="249"/>
-      <c r="M10" s="248" t="s">
+      <c r="L10" s="254"/>
+      <c r="M10" s="252" t="s">
         <v>213</v>
       </c>
-      <c r="N10" s="249"/>
+      <c r="N10" s="254"/>
       <c r="O10" s="98" t="s">
         <v>215</v>
       </c>
-      <c r="P10" s="243" t="s">
+      <c r="P10" s="251" t="s">
         <v>214</v>
       </c>
-      <c r="Q10" s="243"/>
-      <c r="R10" s="210" t="s">
+      <c r="Q10" s="251"/>
+      <c r="R10" s="260" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="33" customHeight="1">
-      <c r="A11" s="245"/>
-      <c r="B11" s="245"/>
-      <c r="C11" s="245"/>
-      <c r="D11" s="245"/>
+      <c r="A11" s="256"/>
+      <c r="B11" s="256"/>
+      <c r="C11" s="256"/>
+      <c r="D11" s="256"/>
       <c r="E11" s="101" t="s">
         <v>205</v>
       </c>
@@ -6422,7 +6422,7 @@
       <c r="G11" s="101" t="s">
         <v>207</v>
       </c>
-      <c r="H11" s="245"/>
+      <c r="H11" s="256"/>
       <c r="I11" s="99" t="s">
         <v>135</v>
       </c>
@@ -6448,7 +6448,7 @@
       <c r="Q11" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="R11" s="210"/>
+      <c r="R11" s="260"/>
     </row>
     <row r="12" spans="1:18" ht="107.25" customHeight="1">
       <c r="A12" s="59" t="s">
@@ -6557,76 +6557,76 @@
       <c r="R14" s="75"/>
     </row>
     <row r="15" spans="1:18" ht="18" customHeight="1">
-      <c r="A15" s="250" t="s">
+      <c r="A15" s="257" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="251"/>
-      <c r="C15" s="251"/>
-      <c r="D15" s="251"/>
-      <c r="E15" s="251"/>
-      <c r="F15" s="251"/>
-      <c r="G15" s="251"/>
-      <c r="H15" s="251"/>
-      <c r="I15" s="251"/>
-      <c r="J15" s="251"/>
-      <c r="K15" s="251"/>
-      <c r="L15" s="251"/>
-      <c r="M15" s="251"/>
-      <c r="N15" s="251"/>
-      <c r="O15" s="251"/>
-      <c r="P15" s="251"/>
-      <c r="Q15" s="251"/>
-      <c r="R15" s="252"/>
+      <c r="B15" s="258"/>
+      <c r="C15" s="258"/>
+      <c r="D15" s="258"/>
+      <c r="E15" s="258"/>
+      <c r="F15" s="258"/>
+      <c r="G15" s="258"/>
+      <c r="H15" s="258"/>
+      <c r="I15" s="258"/>
+      <c r="J15" s="258"/>
+      <c r="K15" s="258"/>
+      <c r="L15" s="258"/>
+      <c r="M15" s="258"/>
+      <c r="N15" s="258"/>
+      <c r="O15" s="258"/>
+      <c r="P15" s="258"/>
+      <c r="Q15" s="258"/>
+      <c r="R15" s="259"/>
     </row>
     <row r="16" spans="1:18" ht="33" customHeight="1">
-      <c r="A16" s="244" t="s">
+      <c r="A16" s="255" t="s">
         <v>163</v>
       </c>
-      <c r="B16" s="244" t="s">
+      <c r="B16" s="255" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="244" t="s">
+      <c r="C16" s="255" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="244" t="s">
+      <c r="D16" s="255" t="s">
         <v>164</v>
       </c>
-      <c r="E16" s="248" t="s">
+      <c r="E16" s="252" t="s">
         <v>208</v>
       </c>
       <c r="F16" s="253"/>
-      <c r="G16" s="249"/>
-      <c r="H16" s="244" t="s">
+      <c r="G16" s="254"/>
+      <c r="H16" s="255" t="s">
         <v>30</v>
       </c>
-      <c r="I16" s="246" t="s">
+      <c r="I16" s="261" t="s">
         <v>211</v>
       </c>
-      <c r="J16" s="247"/>
-      <c r="K16" s="248" t="s">
+      <c r="J16" s="262"/>
+      <c r="K16" s="252" t="s">
         <v>74</v>
       </c>
-      <c r="L16" s="249"/>
-      <c r="M16" s="248" t="s">
+      <c r="L16" s="254"/>
+      <c r="M16" s="252" t="s">
         <v>213</v>
       </c>
-      <c r="N16" s="249"/>
+      <c r="N16" s="254"/>
       <c r="O16" s="98" t="s">
         <v>215</v>
       </c>
-      <c r="P16" s="243" t="s">
+      <c r="P16" s="251" t="s">
         <v>214</v>
       </c>
-      <c r="Q16" s="243"/>
-      <c r="R16" s="210" t="s">
+      <c r="Q16" s="251"/>
+      <c r="R16" s="260" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="33" customHeight="1">
-      <c r="A17" s="245"/>
-      <c r="B17" s="245"/>
-      <c r="C17" s="245"/>
-      <c r="D17" s="245"/>
+      <c r="A17" s="256"/>
+      <c r="B17" s="256"/>
+      <c r="C17" s="256"/>
+      <c r="D17" s="256"/>
       <c r="E17" s="101" t="s">
         <v>205</v>
       </c>
@@ -6636,7 +6636,7 @@
       <c r="G17" s="101" t="s">
         <v>207</v>
       </c>
-      <c r="H17" s="245"/>
+      <c r="H17" s="256"/>
       <c r="I17" s="99" t="s">
         <v>135</v>
       </c>
@@ -6662,7 +6662,7 @@
       <c r="Q17" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="R17" s="210"/>
+      <c r="R17" s="260"/>
     </row>
     <row r="18" spans="1:18" ht="21" customHeight="1">
       <c r="A18" s="59" t="s">
@@ -6754,16 +6754,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A4:Q4"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="A9:R9"/>
-    <mergeCell ref="R10:R11"/>
     <mergeCell ref="R16:R17"/>
     <mergeCell ref="P16:Q16"/>
     <mergeCell ref="C10:C11"/>
@@ -6779,6 +6769,16 @@
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="E16:G16"/>
     <mergeCell ref="H16:H17"/>
+    <mergeCell ref="A4:Q4"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A9:R9"/>
+    <mergeCell ref="R10:R11"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K12:L14 K18:L21">
@@ -6832,33 +6832,33 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="23.25">
-      <c r="A3" s="175" t="str">
+      <c r="A3" s="182" t="str">
         <f>index!A1</f>
         <v>Especificação de Requisitos do SIOP (Sistema Integrado de Operações) - CSSFAA</v>
       </c>
-      <c r="B3" s="175"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="175"/>
-      <c r="I3" s="175"/>
-      <c r="J3" s="175"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="182"/>
+      <c r="G3" s="182"/>
+      <c r="H3" s="182"/>
+      <c r="I3" s="182"/>
+      <c r="J3" s="182"/>
     </row>
     <row r="4" spans="1:10" ht="23.25">
-      <c r="A4" s="176" t="s">
+      <c r="A4" s="183" t="s">
         <v>470</v>
       </c>
-      <c r="B4" s="176"/>
-      <c r="C4" s="176"/>
-      <c r="D4" s="176"/>
-      <c r="E4" s="176"/>
-      <c r="F4" s="176"/>
-      <c r="G4" s="176"/>
-      <c r="H4" s="176"/>
-      <c r="I4" s="176"/>
-      <c r="J4" s="176"/>
+      <c r="B4" s="183"/>
+      <c r="C4" s="183"/>
+      <c r="D4" s="183"/>
+      <c r="E4" s="183"/>
+      <c r="F4" s="183"/>
+      <c r="G4" s="183"/>
+      <c r="H4" s="183"/>
+      <c r="I4" s="183"/>
+      <c r="J4" s="183"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="37" t="s">
@@ -6877,33 +6877,33 @@
     </row>
     <row r="9" spans="1:10" ht="16.5" customHeight="1"/>
     <row r="10" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A10" s="257" t="s">
+      <c r="A10" s="266" t="s">
         <v>522</v>
       </c>
-      <c r="B10" s="257"/>
-      <c r="C10" s="257"/>
-      <c r="D10" s="257"/>
-      <c r="E10" s="257"/>
-      <c r="F10" s="257"/>
-      <c r="G10" s="257"/>
-      <c r="H10" s="257"/>
-      <c r="I10" s="257"/>
+      <c r="B10" s="266"/>
+      <c r="C10" s="266"/>
+      <c r="D10" s="266"/>
+      <c r="E10" s="266"/>
+      <c r="F10" s="266"/>
+      <c r="G10" s="266"/>
+      <c r="H10" s="266"/>
+      <c r="I10" s="266"/>
       <c r="J10" s="64"/>
     </row>
     <row r="11" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A11" s="258" t="s">
+      <c r="A11" s="267" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="258"/>
-      <c r="C11" s="258"/>
-      <c r="D11" s="259" t="s">
+      <c r="B11" s="267"/>
+      <c r="C11" s="267"/>
+      <c r="D11" s="268" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="259"/>
-      <c r="F11" s="259"/>
-      <c r="G11" s="259"/>
-      <c r="H11" s="259"/>
-      <c r="I11" s="259"/>
+      <c r="E11" s="268"/>
+      <c r="F11" s="268"/>
+      <c r="G11" s="268"/>
+      <c r="H11" s="268"/>
+      <c r="I11" s="268"/>
       <c r="J11" s="65"/>
     </row>
     <row r="12" spans="1:10" ht="16.5" customHeight="1">
@@ -6971,9 +6971,9 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="34.5" customHeight="1">
-      <c r="A14" s="254"/>
-      <c r="B14" s="255"/>
-      <c r="C14" s="256"/>
+      <c r="A14" s="263"/>
+      <c r="B14" s="264"/>
+      <c r="C14" s="265"/>
       <c r="D14" s="13">
         <v>2</v>
       </c>
@@ -7051,9 +7051,9 @@
       <c r="J16" s="12"/>
     </row>
     <row r="17" spans="1:10" ht="34.5" customHeight="1">
-      <c r="A17" s="254"/>
-      <c r="B17" s="255"/>
-      <c r="C17" s="256"/>
+      <c r="A17" s="263"/>
+      <c r="B17" s="264"/>
+      <c r="C17" s="265"/>
       <c r="D17" s="13" t="s">
         <v>90</v>
       </c>
@@ -7124,33 +7124,33 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="23.25">
-      <c r="A3" s="175" t="str">
+      <c r="A3" s="182" t="str">
         <f>index!A1</f>
         <v>Especificação de Requisitos do SIOP (Sistema Integrado de Operações) - CSSFAA</v>
       </c>
-      <c r="B3" s="175"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="175"/>
-      <c r="I3" s="175"/>
-      <c r="J3" s="175"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="182"/>
+      <c r="G3" s="182"/>
+      <c r="H3" s="182"/>
+      <c r="I3" s="182"/>
+      <c r="J3" s="182"/>
     </row>
     <row r="4" spans="1:10" ht="23.25">
-      <c r="A4" s="176" t="s">
+      <c r="A4" s="183" t="s">
         <v>472</v>
       </c>
-      <c r="B4" s="176"/>
-      <c r="C4" s="176"/>
-      <c r="D4" s="176"/>
-      <c r="E4" s="176"/>
-      <c r="F4" s="176"/>
-      <c r="G4" s="176"/>
-      <c r="H4" s="176"/>
-      <c r="I4" s="176"/>
-      <c r="J4" s="176"/>
+      <c r="B4" s="183"/>
+      <c r="C4" s="183"/>
+      <c r="D4" s="183"/>
+      <c r="E4" s="183"/>
+      <c r="F4" s="183"/>
+      <c r="G4" s="183"/>
+      <c r="H4" s="183"/>
+      <c r="I4" s="183"/>
+      <c r="J4" s="183"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="37" t="s">
@@ -7169,33 +7169,33 @@
     </row>
     <row r="9" spans="1:10" ht="16.5" customHeight="1"/>
     <row r="10" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A10" s="257" t="s">
+      <c r="A10" s="266" t="s">
         <v>128</v>
       </c>
-      <c r="B10" s="257"/>
-      <c r="C10" s="257"/>
-      <c r="D10" s="257"/>
-      <c r="E10" s="257"/>
-      <c r="F10" s="257"/>
-      <c r="G10" s="257"/>
-      <c r="H10" s="257"/>
-      <c r="I10" s="257"/>
+      <c r="B10" s="266"/>
+      <c r="C10" s="266"/>
+      <c r="D10" s="266"/>
+      <c r="E10" s="266"/>
+      <c r="F10" s="266"/>
+      <c r="G10" s="266"/>
+      <c r="H10" s="266"/>
+      <c r="I10" s="266"/>
       <c r="J10" s="64"/>
     </row>
     <row r="11" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A11" s="258" t="s">
+      <c r="A11" s="267" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="258"/>
-      <c r="C11" s="258"/>
-      <c r="D11" s="259" t="s">
+      <c r="B11" s="267"/>
+      <c r="C11" s="267"/>
+      <c r="D11" s="268" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="259"/>
-      <c r="F11" s="259"/>
-      <c r="G11" s="259"/>
-      <c r="H11" s="259"/>
-      <c r="I11" s="259"/>
+      <c r="E11" s="268"/>
+      <c r="F11" s="268"/>
+      <c r="G11" s="268"/>
+      <c r="H11" s="268"/>
+      <c r="I11" s="268"/>
       <c r="J11" s="65"/>
     </row>
     <row r="12" spans="1:10" ht="16.5" customHeight="1">
@@ -7263,9 +7263,9 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="34.5" customHeight="1">
-      <c r="A14" s="254"/>
-      <c r="B14" s="255"/>
-      <c r="C14" s="256"/>
+      <c r="A14" s="263"/>
+      <c r="B14" s="264"/>
+      <c r="C14" s="265"/>
       <c r="D14" s="13">
         <v>2</v>
       </c>
@@ -7343,9 +7343,9 @@
       <c r="J16" s="12"/>
     </row>
     <row r="17" spans="1:10" ht="34.5" customHeight="1">
-      <c r="A17" s="254"/>
-      <c r="B17" s="255"/>
-      <c r="C17" s="256"/>
+      <c r="A17" s="263"/>
+      <c r="B17" s="264"/>
+      <c r="C17" s="265"/>
       <c r="D17" s="13" t="s">
         <v>90</v>
       </c>
@@ -7421,12 +7421,12 @@
         <v>Especificação de Requisitos do SIOP (Sistema Integrado de Operações) - CSSFAA</v>
       </c>
       <c r="B3" s="47"/>
-      <c r="C3" s="160" t="s">
+      <c r="C3" s="167" t="s">
         <v>112</v>
       </c>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="162"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="169"/>
       <c r="H3" s="2" t="s">
         <v>357</v>
       </c>
@@ -7442,10 +7442,10 @@
         <v>91</v>
       </c>
       <c r="B4" s="72"/>
-      <c r="C4" s="163"/>
-      <c r="D4" s="164"/>
-      <c r="E4" s="164"/>
-      <c r="F4" s="165"/>
+      <c r="C4" s="170"/>
+      <c r="D4" s="171"/>
+      <c r="E4" s="171"/>
+      <c r="F4" s="172"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="17" t="s">
@@ -7951,17 +7951,17 @@
       <c r="A41" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="158"/>
-      <c r="C41" s="159"/>
-      <c r="D41" s="159"/>
-      <c r="E41" s="159"/>
-      <c r="F41" s="159"/>
-      <c r="G41" s="159"/>
-      <c r="H41" s="159"/>
-      <c r="I41" s="159"/>
-      <c r="J41" s="159"/>
-      <c r="K41" s="159"/>
-      <c r="L41" s="159"/>
+      <c r="B41" s="165"/>
+      <c r="C41" s="166"/>
+      <c r="D41" s="166"/>
+      <c r="E41" s="166"/>
+      <c r="F41" s="166"/>
+      <c r="G41" s="166"/>
+      <c r="H41" s="166"/>
+      <c r="I41" s="166"/>
+      <c r="J41" s="166"/>
+      <c r="K41" s="166"/>
+      <c r="L41" s="166"/>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="5" t="s">
@@ -8065,14 +8065,14 @@
       <c r="A49" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B49" s="170"/>
-      <c r="C49" s="171"/>
-      <c r="D49" s="171"/>
-      <c r="E49" s="171"/>
-      <c r="F49" s="171"/>
-      <c r="G49" s="171"/>
-      <c r="H49" s="171"/>
-      <c r="I49" s="171"/>
+      <c r="B49" s="177"/>
+      <c r="C49" s="178"/>
+      <c r="D49" s="178"/>
+      <c r="E49" s="178"/>
+      <c r="F49" s="178"/>
+      <c r="G49" s="178"/>
+      <c r="H49" s="178"/>
+      <c r="I49" s="178"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="5" t="s">
@@ -8120,12 +8120,12 @@
       <c r="A54" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B54" s="156"/>
-      <c r="C54" s="157"/>
-      <c r="D54" s="157"/>
-      <c r="E54" s="157"/>
-      <c r="F54" s="157"/>
-      <c r="G54" s="157"/>
+      <c r="B54" s="163"/>
+      <c r="C54" s="164"/>
+      <c r="D54" s="164"/>
+      <c r="E54" s="164"/>
+      <c r="F54" s="164"/>
+      <c r="G54" s="164"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="50" t="s">
@@ -8154,10 +8154,10 @@
       <c r="A57" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B57" s="158"/>
-      <c r="C57" s="159"/>
-      <c r="D57" s="159"/>
-      <c r="E57" s="169"/>
+      <c r="B57" s="165"/>
+      <c r="C57" s="166"/>
+      <c r="D57" s="166"/>
+      <c r="E57" s="176"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="50" t="s">
@@ -8200,13 +8200,13 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="166" t="s">
+      <c r="A62" s="173" t="s">
         <v>32</v>
       </c>
-      <c r="B62" s="167"/>
-      <c r="C62" s="167"/>
-      <c r="D62" s="167"/>
-      <c r="E62" s="168"/>
+      <c r="B62" s="174"/>
+      <c r="C62" s="174"/>
+      <c r="D62" s="174"/>
+      <c r="E62" s="175"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="2"/>
@@ -8263,13 +8263,13 @@
       <c r="E66" s="2"/>
     </row>
     <row r="67" spans="1:15">
-      <c r="A67" s="166" t="s">
+      <c r="A67" s="173" t="s">
         <v>24</v>
       </c>
-      <c r="B67" s="167"/>
-      <c r="C67" s="167"/>
-      <c r="D67" s="167"/>
-      <c r="E67" s="168"/>
+      <c r="B67" s="174"/>
+      <c r="C67" s="174"/>
+      <c r="D67" s="174"/>
+      <c r="E67" s="175"/>
     </row>
     <row r="68" spans="1:15">
       <c r="A68" s="2" t="s">
@@ -8425,7 +8425,7 @@
       <c r="M77" s="22" t="s">
         <v>441</v>
       </c>
-      <c r="N77" s="265"/>
+      <c r="N77" s="159"/>
     </row>
     <row r="78" spans="1:15">
       <c r="A78" s="21" t="s">
@@ -8452,13 +8452,13 @@
       <c r="H78" s="22" t="s">
         <v>441</v>
       </c>
-      <c r="I78" s="262"/>
-      <c r="J78" s="263"/>
-      <c r="K78" s="263"/>
-      <c r="L78" s="263"/>
-      <c r="M78" s="263"/>
-      <c r="N78" s="263"/>
-      <c r="O78" s="264"/>
+      <c r="I78" s="156"/>
+      <c r="J78" s="157"/>
+      <c r="K78" s="157"/>
+      <c r="L78" s="157"/>
+      <c r="M78" s="157"/>
+      <c r="N78" s="157"/>
+      <c r="O78" s="158"/>
     </row>
     <row r="79" spans="1:15">
       <c r="A79" s="19" t="s">
@@ -8597,37 +8597,37 @@
       <c r="A2" s="40"/>
     </row>
     <row r="3" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A3" s="175" t="str">
+      <c r="A3" s="182" t="str">
         <f>index!A1</f>
         <v>Especificação de Requisitos do SIOP (Sistema Integrado de Operações) - CSSFAA</v>
       </c>
-      <c r="B3" s="175"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="175"/>
-      <c r="I3" s="175"/>
-      <c r="J3" s="175"/>
-      <c r="K3" s="175"/>
-      <c r="L3" s="175"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="182"/>
+      <c r="G3" s="182"/>
+      <c r="H3" s="182"/>
+      <c r="I3" s="182"/>
+      <c r="J3" s="182"/>
+      <c r="K3" s="182"/>
+      <c r="L3" s="182"/>
     </row>
     <row r="4" spans="1:12" ht="23.25">
-      <c r="A4" s="176" t="s">
+      <c r="A4" s="183" t="s">
         <v>436</v>
       </c>
-      <c r="B4" s="176"/>
-      <c r="C4" s="176"/>
-      <c r="D4" s="176"/>
-      <c r="E4" s="176"/>
-      <c r="F4" s="176"/>
-      <c r="G4" s="176"/>
-      <c r="H4" s="176"/>
-      <c r="I4" s="176"/>
-      <c r="J4" s="176"/>
-      <c r="K4" s="176"/>
-      <c r="L4" s="176"/>
+      <c r="B4" s="183"/>
+      <c r="C4" s="183"/>
+      <c r="D4" s="183"/>
+      <c r="E4" s="183"/>
+      <c r="F4" s="183"/>
+      <c r="G4" s="183"/>
+      <c r="H4" s="183"/>
+      <c r="I4" s="183"/>
+      <c r="J4" s="183"/>
+      <c r="K4" s="183"/>
+      <c r="L4" s="183"/>
     </row>
     <row r="5" spans="1:12" ht="43.5" customHeight="1">
       <c r="A5" s="40"/>
@@ -8637,23 +8637,23 @@
       <c r="H5" s="126"/>
     </row>
     <row r="6" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A6" s="180"/>
-      <c r="B6" s="181"/>
-      <c r="C6" s="181"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="174" t="s">
+      <c r="A6" s="187"/>
+      <c r="B6" s="188"/>
+      <c r="C6" s="188"/>
+      <c r="D6" s="189"/>
+      <c r="E6" s="181" t="s">
         <v>453</v>
       </c>
-      <c r="F6" s="174"/>
-      <c r="G6" s="174" t="s">
+      <c r="F6" s="181"/>
+      <c r="G6" s="181" t="s">
         <v>456</v>
       </c>
-      <c r="H6" s="174"/>
-      <c r="I6" s="179" t="s">
+      <c r="H6" s="181"/>
+      <c r="I6" s="186" t="s">
         <v>457</v>
       </c>
-      <c r="J6" s="179"/>
-      <c r="K6" s="179"/>
+      <c r="J6" s="186"/>
+      <c r="K6" s="186"/>
       <c r="L6" s="154"/>
     </row>
     <row r="7" spans="1:12" ht="31.5">
@@ -8732,69 +8732,69 @@
     </row>
     <row r="9" spans="1:12" ht="46.5" customHeight="1"/>
     <row r="10" spans="1:12" ht="21" customHeight="1">
-      <c r="A10" s="177" t="s">
+      <c r="A10" s="184" t="s">
         <v>524</v>
       </c>
-      <c r="B10" s="178"/>
-      <c r="C10" s="178"/>
-      <c r="D10" s="178"/>
-      <c r="E10" s="178"/>
-      <c r="F10" s="178"/>
-      <c r="G10" s="178"/>
-      <c r="H10" s="178"/>
-      <c r="I10" s="178"/>
-      <c r="J10" s="178"/>
-      <c r="K10" s="178"/>
-      <c r="L10" s="178"/>
+      <c r="B10" s="185"/>
+      <c r="C10" s="185"/>
+      <c r="D10" s="185"/>
+      <c r="E10" s="185"/>
+      <c r="F10" s="185"/>
+      <c r="G10" s="185"/>
+      <c r="H10" s="185"/>
+      <c r="I10" s="185"/>
+      <c r="J10" s="185"/>
+      <c r="K10" s="185"/>
+      <c r="L10" s="185"/>
     </row>
     <row r="11" spans="1:12" ht="94.5" customHeight="1">
-      <c r="A11" s="172" t="s">
+      <c r="A11" s="179" t="s">
         <v>526</v>
       </c>
-      <c r="B11" s="173"/>
-      <c r="C11" s="173"/>
-      <c r="D11" s="173"/>
-      <c r="E11" s="173"/>
-      <c r="F11" s="173"/>
-      <c r="G11" s="173"/>
-      <c r="H11" s="173"/>
-      <c r="I11" s="173"/>
-      <c r="J11" s="173"/>
-      <c r="K11" s="173"/>
-      <c r="L11" s="173"/>
+      <c r="B11" s="180"/>
+      <c r="C11" s="180"/>
+      <c r="D11" s="180"/>
+      <c r="E11" s="180"/>
+      <c r="F11" s="180"/>
+      <c r="G11" s="180"/>
+      <c r="H11" s="180"/>
+      <c r="I11" s="180"/>
+      <c r="J11" s="180"/>
+      <c r="K11" s="180"/>
+      <c r="L11" s="180"/>
     </row>
     <row r="12" spans="1:12" ht="21" customHeight="1"/>
     <row r="13" spans="1:12" ht="21" customHeight="1">
-      <c r="A13" s="177" t="s">
+      <c r="A13" s="184" t="s">
         <v>525</v>
       </c>
-      <c r="B13" s="178"/>
-      <c r="C13" s="178"/>
-      <c r="D13" s="178"/>
-      <c r="E13" s="178"/>
-      <c r="F13" s="178"/>
-      <c r="G13" s="178"/>
-      <c r="H13" s="178"/>
-      <c r="I13" s="178"/>
-      <c r="J13" s="178"/>
-      <c r="K13" s="178"/>
-      <c r="L13" s="178"/>
+      <c r="B13" s="185"/>
+      <c r="C13" s="185"/>
+      <c r="D13" s="185"/>
+      <c r="E13" s="185"/>
+      <c r="F13" s="185"/>
+      <c r="G13" s="185"/>
+      <c r="H13" s="185"/>
+      <c r="I13" s="185"/>
+      <c r="J13" s="185"/>
+      <c r="K13" s="185"/>
+      <c r="L13" s="185"/>
     </row>
     <row r="14" spans="1:12" ht="249.75" customHeight="1">
-      <c r="A14" s="172" t="s">
+      <c r="A14" s="179" t="s">
         <v>527</v>
       </c>
-      <c r="B14" s="173"/>
-      <c r="C14" s="173"/>
-      <c r="D14" s="173"/>
-      <c r="E14" s="173"/>
-      <c r="F14" s="173"/>
-      <c r="G14" s="173"/>
-      <c r="H14" s="173"/>
-      <c r="I14" s="173"/>
-      <c r="J14" s="173"/>
-      <c r="K14" s="173"/>
-      <c r="L14" s="173"/>
+      <c r="B14" s="180"/>
+      <c r="C14" s="180"/>
+      <c r="D14" s="180"/>
+      <c r="E14" s="180"/>
+      <c r="F14" s="180"/>
+      <c r="G14" s="180"/>
+      <c r="H14" s="180"/>
+      <c r="I14" s="180"/>
+      <c r="J14" s="180"/>
+      <c r="K14" s="180"/>
+      <c r="L14" s="180"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -8866,14 +8866,14 @@
       <c r="F3" s="45"/>
     </row>
     <row r="4" spans="1:6" ht="23.25">
-      <c r="A4" s="176" t="s">
+      <c r="A4" s="183" t="s">
         <v>463</v>
       </c>
-      <c r="B4" s="176"/>
-      <c r="C4" s="176"/>
-      <c r="D4" s="176"/>
-      <c r="E4" s="176"/>
-      <c r="F4" s="176"/>
+      <c r="B4" s="183"/>
+      <c r="C4" s="183"/>
+      <c r="D4" s="183"/>
+      <c r="E4" s="183"/>
+      <c r="F4" s="183"/>
     </row>
     <row r="5" spans="1:6" ht="47.25" customHeight="1">
       <c r="A5" s="40"/>
@@ -9184,14 +9184,14 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="43.5" customHeight="1">
-      <c r="A21" s="183" t="s">
+      <c r="A21" s="190" t="s">
         <v>383</v>
       </c>
-      <c r="B21" s="184"/>
-      <c r="C21" s="184"/>
-      <c r="D21" s="184"/>
-      <c r="E21" s="184"/>
-      <c r="F21" s="185"/>
+      <c r="B21" s="191"/>
+      <c r="C21" s="191"/>
+      <c r="D21" s="191"/>
+      <c r="E21" s="191"/>
+      <c r="F21" s="192"/>
     </row>
     <row r="22" spans="1:6" ht="45">
       <c r="A22" s="10" t="s">
@@ -9303,29 +9303,29 @@
       <c r="E3" s="108"/>
     </row>
     <row r="4" spans="1:5" ht="23.25">
-      <c r="A4" s="176" t="s">
+      <c r="A4" s="183" t="s">
         <v>750</v>
       </c>
-      <c r="B4" s="176"/>
-      <c r="C4" s="176"/>
-      <c r="D4" s="176"/>
-      <c r="E4" s="176"/>
+      <c r="B4" s="183"/>
+      <c r="C4" s="183"/>
+      <c r="D4" s="183"/>
+      <c r="E4" s="183"/>
     </row>
     <row r="5" spans="1:5" ht="34.5" customHeight="1">
       <c r="A5" s="40"/>
     </row>
     <row r="6" spans="1:5" ht="31.5" customHeight="1">
-      <c r="A6" s="188" t="s">
+      <c r="A6" s="195" t="s">
         <v>354</v>
       </c>
-      <c r="B6" s="189"/>
-      <c r="C6" s="186" t="s">
+      <c r="B6" s="196"/>
+      <c r="C6" s="193" t="s">
         <v>389</v>
       </c>
-      <c r="D6" s="186" t="s">
+      <c r="D6" s="193" t="s">
         <v>390</v>
       </c>
-      <c r="E6" s="186" t="s">
+      <c r="E6" s="193" t="s">
         <v>3</v>
       </c>
     </row>
@@ -9336,9 +9336,9 @@
       <c r="B7" s="77" t="s">
         <v>388</v>
       </c>
-      <c r="C7" s="187"/>
-      <c r="D7" s="187"/>
-      <c r="E7" s="187"/>
+      <c r="C7" s="194"/>
+      <c r="D7" s="194"/>
+      <c r="E7" s="194"/>
     </row>
     <row r="8" spans="1:5" s="48" customFormat="1" ht="38.25" customHeight="1">
       <c r="A8" s="118" t="str">
@@ -9532,29 +9532,29 @@
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="23.25">
-      <c r="A2" s="175" t="str">
+      <c r="A2" s="182" t="str">
         <f>index!A1</f>
         <v>Especificação de Requisitos do SIOP (Sistema Integrado de Operações) - CSSFAA</v>
       </c>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="175"/>
-      <c r="H2" s="175"/>
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="182"/>
+      <c r="G2" s="182"/>
+      <c r="H2" s="182"/>
     </row>
     <row r="3" spans="1:8" ht="23.25">
-      <c r="A3" s="176" t="s">
+      <c r="A3" s="183" t="s">
         <v>464</v>
       </c>
-      <c r="B3" s="176"/>
-      <c r="C3" s="176"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="176"/>
-      <c r="F3" s="176"/>
-      <c r="G3" s="176"/>
-      <c r="H3" s="176"/>
+      <c r="B3" s="183"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="183"/>
+      <c r="F3" s="183"/>
+      <c r="G3" s="183"/>
+      <c r="H3" s="183"/>
     </row>
     <row r="4" spans="1:8" ht="45.75" customHeight="1"/>
     <row r="5" spans="1:8">
@@ -9584,16 +9584,16 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A6" s="190" t="s">
+      <c r="A6" s="197" t="s">
         <v>335</v>
       </c>
-      <c r="B6" s="191"/>
-      <c r="C6" s="191"/>
-      <c r="D6" s="191"/>
-      <c r="E6" s="191"/>
-      <c r="F6" s="191"/>
-      <c r="G6" s="191"/>
-      <c r="H6" s="191"/>
+      <c r="B6" s="198"/>
+      <c r="C6" s="198"/>
+      <c r="D6" s="198"/>
+      <c r="E6" s="198"/>
+      <c r="F6" s="198"/>
+      <c r="G6" s="198"/>
+      <c r="H6" s="198"/>
     </row>
     <row r="7" spans="1:8" ht="86.25" customHeight="1">
       <c r="A7" s="15" t="s">
@@ -9737,16 +9737,16 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A13" s="192" t="s">
+      <c r="A13" s="199" t="s">
         <v>341</v>
       </c>
-      <c r="B13" s="193"/>
-      <c r="C13" s="193"/>
-      <c r="D13" s="193"/>
-      <c r="E13" s="193"/>
-      <c r="F13" s="193"/>
-      <c r="G13" s="193"/>
-      <c r="H13" s="193"/>
+      <c r="B13" s="200"/>
+      <c r="C13" s="200"/>
+      <c r="D13" s="200"/>
+      <c r="E13" s="200"/>
+      <c r="F13" s="200"/>
+      <c r="G13" s="200"/>
+      <c r="H13" s="200"/>
     </row>
     <row r="14" spans="1:8" ht="60">
       <c r="A14" s="15" t="s">
@@ -10073,16 +10073,16 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="30.75" customHeight="1">
-      <c r="A28" s="192" t="s">
+      <c r="A28" s="199" t="s">
         <v>340</v>
       </c>
-      <c r="B28" s="193"/>
-      <c r="C28" s="193"/>
-      <c r="D28" s="193"/>
-      <c r="E28" s="193"/>
-      <c r="F28" s="193"/>
-      <c r="G28" s="193"/>
-      <c r="H28" s="193"/>
+      <c r="B28" s="200"/>
+      <c r="C28" s="200"/>
+      <c r="D28" s="200"/>
+      <c r="E28" s="200"/>
+      <c r="F28" s="200"/>
+      <c r="G28" s="200"/>
+      <c r="H28" s="200"/>
     </row>
     <row r="29" spans="1:8" ht="45">
       <c r="A29" s="15" t="s">
@@ -10513,26 +10513,26 @@
     </row>
     <row r="2" spans="1:7" ht="10.5" customHeight="1"/>
     <row r="3" spans="1:7" ht="29.25" customHeight="1">
-      <c r="A3" s="175" t="str">
+      <c r="A3" s="182" t="str">
         <f>index!A1</f>
         <v>Especificação de Requisitos do SIOP (Sistema Integrado de Operações) - CSSFAA</v>
       </c>
-      <c r="B3" s="175"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="182"/>
       <c r="G3" s="109"/>
     </row>
     <row r="4" spans="1:7" ht="29.25" customHeight="1">
-      <c r="A4" s="176" t="s">
+      <c r="A4" s="183" t="s">
         <v>465</v>
       </c>
-      <c r="B4" s="176"/>
-      <c r="C4" s="176"/>
-      <c r="D4" s="176"/>
-      <c r="E4" s="176"/>
-      <c r="F4" s="176"/>
+      <c r="B4" s="183"/>
+      <c r="C4" s="183"/>
+      <c r="D4" s="183"/>
+      <c r="E4" s="183"/>
+      <c r="F4" s="183"/>
       <c r="G4" s="110"/>
     </row>
     <row r="5" spans="1:7" ht="39" customHeight="1"/>
@@ -10560,14 +10560,14 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="29.25" customHeight="1">
-      <c r="A7" s="192" t="s">
+      <c r="A7" s="199" t="s">
         <v>335</v>
       </c>
-      <c r="B7" s="193"/>
-      <c r="C7" s="193"/>
-      <c r="D7" s="193"/>
-      <c r="E7" s="193"/>
-      <c r="F7" s="194"/>
+      <c r="B7" s="200"/>
+      <c r="C7" s="200"/>
+      <c r="D7" s="200"/>
+      <c r="E7" s="200"/>
+      <c r="F7" s="201"/>
       <c r="G7" s="122"/>
     </row>
     <row r="8" spans="1:7" ht="30.75" customHeight="1">
@@ -10697,14 +10697,14 @@
       <c r="G13" s="15"/>
     </row>
     <row r="14" spans="1:7" ht="29.25" customHeight="1">
-      <c r="A14" s="192" t="s">
+      <c r="A14" s="199" t="s">
         <v>333</v>
       </c>
-      <c r="B14" s="193"/>
-      <c r="C14" s="193"/>
-      <c r="D14" s="193"/>
-      <c r="E14" s="193"/>
-      <c r="F14" s="194"/>
+      <c r="B14" s="200"/>
+      <c r="C14" s="200"/>
+      <c r="D14" s="200"/>
+      <c r="E14" s="200"/>
+      <c r="F14" s="201"/>
       <c r="G14" s="122"/>
     </row>
     <row r="15" spans="1:7" ht="22.5" customHeight="1">
@@ -10881,14 +10881,14 @@
       <c r="G22" s="25"/>
     </row>
     <row r="23" spans="1:7" ht="29.25" customHeight="1">
-      <c r="A23" s="192" t="s">
+      <c r="A23" s="199" t="s">
         <v>334</v>
       </c>
-      <c r="B23" s="193"/>
-      <c r="C23" s="193"/>
-      <c r="D23" s="193"/>
-      <c r="E23" s="193"/>
-      <c r="F23" s="194"/>
+      <c r="B23" s="200"/>
+      <c r="C23" s="200"/>
+      <c r="D23" s="200"/>
+      <c r="E23" s="200"/>
+      <c r="F23" s="201"/>
       <c r="G23" s="122"/>
     </row>
     <row r="24" spans="1:7" ht="31.5" customHeight="1">
@@ -11098,60 +11098,60 @@
     </row>
     <row r="2" spans="1:14" ht="11.25" customHeight="1"/>
     <row r="3" spans="1:14" ht="29.25" customHeight="1">
-      <c r="A3" s="175" t="str">
+      <c r="A3" s="182" t="str">
         <f>index!A1</f>
         <v>Especificação de Requisitos do SIOP (Sistema Integrado de Operações) - CSSFAA</v>
       </c>
-      <c r="B3" s="175"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="175"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="182"/>
+      <c r="G3" s="182"/>
+      <c r="H3" s="182"/>
     </row>
     <row r="4" spans="1:14" ht="23.25">
-      <c r="A4" s="176" t="s">
+      <c r="A4" s="183" t="s">
         <v>466</v>
       </c>
-      <c r="B4" s="176"/>
-      <c r="C4" s="176"/>
-      <c r="D4" s="176"/>
-      <c r="E4" s="176"/>
-      <c r="F4" s="176"/>
-      <c r="G4" s="176"/>
-      <c r="H4" s="176"/>
+      <c r="B4" s="183"/>
+      <c r="C4" s="183"/>
+      <c r="D4" s="183"/>
+      <c r="E4" s="183"/>
+      <c r="F4" s="183"/>
+      <c r="G4" s="183"/>
+      <c r="H4" s="183"/>
     </row>
     <row r="5" spans="1:14" ht="18.75" customHeight="1"/>
     <row r="6" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A6" s="197" t="s">
+      <c r="A6" s="204" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="198"/>
+      <c r="B6" s="205"/>
     </row>
     <row r="7" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A7" s="201" t="s">
+      <c r="A7" s="207" t="s">
         <v>569</v>
       </c>
-      <c r="B7" s="201"/>
-      <c r="C7" s="200"/>
-      <c r="D7" s="200"/>
+      <c r="B7" s="207"/>
+      <c r="C7" s="206"/>
+      <c r="D7" s="206"/>
       <c r="E7" s="74"/>
     </row>
     <row r="8" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A8" s="202" t="s">
+      <c r="A8" s="208" t="s">
         <v>570</v>
       </c>
-      <c r="B8" s="202"/>
-      <c r="C8" s="200"/>
-      <c r="D8" s="200"/>
+      <c r="B8" s="208"/>
+      <c r="C8" s="206"/>
+      <c r="D8" s="206"/>
       <c r="E8" s="74"/>
     </row>
     <row r="9" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A9" s="196" t="s">
+      <c r="A9" s="209" t="s">
         <v>571</v>
       </c>
-      <c r="B9" s="196"/>
+      <c r="B9" s="209"/>
       <c r="C9" s="111"/>
       <c r="D9" s="111"/>
       <c r="E9" s="111"/>
@@ -11160,10 +11160,10 @@
       <c r="I10" s="66"/>
     </row>
     <row r="11" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A11" s="197" t="s">
+      <c r="A11" s="204" t="s">
         <v>476</v>
       </c>
-      <c r="B11" s="198"/>
+      <c r="B11" s="205"/>
     </row>
     <row r="12" spans="1:14" ht="33.75" customHeight="1">
       <c r="A12" s="77" t="s">
@@ -11192,16 +11192,16 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="33.75" customHeight="1">
-      <c r="A13" s="195" t="s">
+      <c r="A13" s="202" t="s">
         <v>577</v>
       </c>
-      <c r="B13" s="195"/>
-      <c r="C13" s="195"/>
-      <c r="D13" s="195"/>
-      <c r="E13" s="195"/>
-      <c r="F13" s="195"/>
-      <c r="G13" s="195"/>
-      <c r="H13" s="260"/>
+      <c r="B13" s="202"/>
+      <c r="C13" s="202"/>
+      <c r="D13" s="202"/>
+      <c r="E13" s="202"/>
+      <c r="F13" s="202"/>
+      <c r="G13" s="202"/>
+      <c r="H13" s="203"/>
     </row>
     <row r="14" spans="1:14" ht="50.25" customHeight="1">
       <c r="A14" s="144" t="s">
@@ -11613,16 +11613,16 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="33.75" customHeight="1">
-      <c r="A29" s="195" t="s">
+      <c r="A29" s="202" t="s">
         <v>669</v>
       </c>
-      <c r="B29" s="195"/>
-      <c r="C29" s="195"/>
-      <c r="D29" s="195"/>
-      <c r="E29" s="195"/>
-      <c r="F29" s="195"/>
-      <c r="G29" s="195"/>
-      <c r="H29" s="260"/>
+      <c r="B29" s="202"/>
+      <c r="C29" s="202"/>
+      <c r="D29" s="202"/>
+      <c r="E29" s="202"/>
+      <c r="F29" s="202"/>
+      <c r="G29" s="202"/>
+      <c r="H29" s="203"/>
     </row>
     <row r="30" spans="1:14" ht="50.25" customHeight="1">
       <c r="A30" s="141" t="s">
@@ -11918,16 +11918,16 @@
       <c r="N39" s="23"/>
     </row>
     <row r="40" spans="1:14" ht="33.75" customHeight="1">
-      <c r="A40" s="195" t="s">
+      <c r="A40" s="202" t="s">
         <v>659</v>
       </c>
-      <c r="B40" s="195"/>
-      <c r="C40" s="195"/>
-      <c r="D40" s="195"/>
-      <c r="E40" s="195"/>
-      <c r="F40" s="195"/>
-      <c r="G40" s="195"/>
-      <c r="H40" s="260"/>
+      <c r="B40" s="202"/>
+      <c r="C40" s="202"/>
+      <c r="D40" s="202"/>
+      <c r="E40" s="202"/>
+      <c r="F40" s="202"/>
+      <c r="G40" s="202"/>
+      <c r="H40" s="203"/>
     </row>
     <row r="41" spans="1:14" ht="50.25" customHeight="1">
       <c r="A41" s="144" t="s">
@@ -12552,16 +12552,16 @@
       <c r="N61" s="23"/>
     </row>
     <row r="62" spans="1:14" ht="50.25" customHeight="1">
-      <c r="A62" s="195" t="s">
+      <c r="A62" s="202" t="s">
         <v>368</v>
       </c>
-      <c r="B62" s="195"/>
-      <c r="C62" s="195"/>
-      <c r="D62" s="195"/>
-      <c r="E62" s="195"/>
-      <c r="F62" s="195"/>
-      <c r="G62" s="195"/>
-      <c r="H62" s="260"/>
+      <c r="B62" s="202"/>
+      <c r="C62" s="202"/>
+      <c r="D62" s="202"/>
+      <c r="E62" s="202"/>
+      <c r="F62" s="202"/>
+      <c r="G62" s="202"/>
+      <c r="H62" s="203"/>
     </row>
     <row r="63" spans="1:14" ht="50.25" customHeight="1">
       <c r="A63" s="144" t="s">
@@ -12855,16 +12855,16 @@
       <c r="N74" s="23"/>
     </row>
     <row r="75" spans="1:14" ht="33.75" customHeight="1">
-      <c r="A75" s="199" t="s">
+      <c r="A75" s="210" t="s">
         <v>372</v>
       </c>
-      <c r="B75" s="199"/>
-      <c r="C75" s="199"/>
-      <c r="D75" s="199"/>
-      <c r="E75" s="199"/>
-      <c r="F75" s="199"/>
-      <c r="G75" s="199"/>
-      <c r="H75" s="261"/>
+      <c r="B75" s="210"/>
+      <c r="C75" s="210"/>
+      <c r="D75" s="210"/>
+      <c r="E75" s="210"/>
+      <c r="F75" s="210"/>
+      <c r="G75" s="210"/>
+      <c r="H75" s="211"/>
     </row>
     <row r="76" spans="1:14" ht="50.25" customHeight="1">
       <c r="A76" s="141" t="s">
@@ -13135,16 +13135,16 @@
       <c r="H86" s="14"/>
     </row>
     <row r="87" spans="1:14" ht="33.75" customHeight="1">
-      <c r="A87" s="195" t="s">
+      <c r="A87" s="202" t="s">
         <v>371</v>
       </c>
-      <c r="B87" s="195"/>
-      <c r="C87" s="195"/>
-      <c r="D87" s="195"/>
-      <c r="E87" s="195"/>
-      <c r="F87" s="195"/>
-      <c r="G87" s="195"/>
-      <c r="H87" s="260"/>
+      <c r="B87" s="202"/>
+      <c r="C87" s="202"/>
+      <c r="D87" s="202"/>
+      <c r="E87" s="202"/>
+      <c r="F87" s="202"/>
+      <c r="G87" s="202"/>
+      <c r="H87" s="203"/>
     </row>
     <row r="88" spans="1:14" ht="50.25" customHeight="1">
       <c r="A88" s="141" t="s">
@@ -13214,10 +13214,10 @@
     </row>
     <row r="91" spans="1:14" ht="33" customHeight="1"/>
     <row r="92" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A92" s="197" t="s">
+      <c r="A92" s="204" t="s">
         <v>350</v>
       </c>
-      <c r="B92" s="198"/>
+      <c r="B92" s="205"/>
     </row>
     <row r="93" spans="1:14" ht="33.75" customHeight="1">
       <c r="A93" s="77" t="s">
@@ -13246,16 +13246,16 @@
       </c>
     </row>
     <row r="94" spans="1:14" ht="33.75" customHeight="1">
-      <c r="A94" s="195" t="s">
+      <c r="A94" s="202" t="s">
         <v>577</v>
       </c>
-      <c r="B94" s="195"/>
-      <c r="C94" s="195"/>
-      <c r="D94" s="195"/>
-      <c r="E94" s="195"/>
-      <c r="F94" s="195"/>
-      <c r="G94" s="195"/>
-      <c r="H94" s="260"/>
+      <c r="B94" s="202"/>
+      <c r="C94" s="202"/>
+      <c r="D94" s="202"/>
+      <c r="E94" s="202"/>
+      <c r="F94" s="202"/>
+      <c r="G94" s="202"/>
+      <c r="H94" s="203"/>
     </row>
     <row r="95" spans="1:14" ht="50.25" customHeight="1">
       <c r="A95" s="144" t="s">
@@ -13336,10 +13336,10 @@
       <c r="N97" s="23"/>
     </row>
     <row r="99" spans="1:14">
-      <c r="A99" s="197" t="s">
+      <c r="A99" s="204" t="s">
         <v>476</v>
       </c>
-      <c r="B99" s="198"/>
+      <c r="B99" s="205"/>
     </row>
     <row r="100" spans="1:14" ht="47.25">
       <c r="A100" s="77" t="s">
@@ -13368,16 +13368,16 @@
       </c>
     </row>
     <row r="101" spans="1:14">
-      <c r="A101" s="195" t="s">
+      <c r="A101" s="202" t="s">
         <v>577</v>
       </c>
-      <c r="B101" s="195"/>
-      <c r="C101" s="195"/>
-      <c r="D101" s="195"/>
-      <c r="E101" s="195"/>
-      <c r="F101" s="195"/>
-      <c r="G101" s="195"/>
-      <c r="H101" s="260"/>
+      <c r="B101" s="202"/>
+      <c r="C101" s="202"/>
+      <c r="D101" s="202"/>
+      <c r="E101" s="202"/>
+      <c r="F101" s="202"/>
+      <c r="G101" s="202"/>
+      <c r="H101" s="203"/>
     </row>
     <row r="102" spans="1:14" ht="30">
       <c r="A102" s="144" t="s">
@@ -13474,13 +13474,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A87:H87"/>
-    <mergeCell ref="A94:H94"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A101:H101"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A4:H4"/>
@@ -13492,6 +13485,13 @@
     <mergeCell ref="A40:H40"/>
     <mergeCell ref="A62:H62"/>
     <mergeCell ref="A75:H75"/>
+    <mergeCell ref="A87:H87"/>
+    <mergeCell ref="A94:H94"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A101:H101"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E95:E97 E63:E74 E41:E61 E76:E86 E88:E90 E30:E39 E14:E28 E102:E105">
@@ -13549,44 +13549,44 @@
       <c r="F3" s="108"/>
     </row>
     <row r="4" spans="1:6" ht="23.25">
-      <c r="A4" s="176" t="s">
+      <c r="A4" s="183" t="s">
         <v>749</v>
       </c>
-      <c r="B4" s="176"/>
-      <c r="C4" s="176"/>
-      <c r="D4" s="176"/>
-      <c r="E4" s="176"/>
-      <c r="F4" s="176"/>
+      <c r="B4" s="183"/>
+      <c r="C4" s="183"/>
+      <c r="D4" s="183"/>
+      <c r="E4" s="183"/>
+      <c r="F4" s="183"/>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1">
       <c r="A5" s="40"/>
       <c r="B5" s="40"/>
     </row>
     <row r="6" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A6" s="207" t="s">
+      <c r="A6" s="216" t="s">
         <v>157</v>
       </c>
-      <c r="B6" s="208"/>
-      <c r="C6" s="208"/>
-      <c r="D6" s="209"/>
-      <c r="E6" s="203" t="s">
+      <c r="B6" s="217"/>
+      <c r="C6" s="217"/>
+      <c r="D6" s="218"/>
+      <c r="E6" s="212" t="s">
         <v>573</v>
       </c>
-      <c r="F6" s="203" t="s">
+      <c r="F6" s="212" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75">
-      <c r="A7" s="206" t="s">
+      <c r="A7" s="215" t="s">
         <v>387</v>
       </c>
-      <c r="B7" s="206"/>
-      <c r="C7" s="206" t="s">
+      <c r="B7" s="215"/>
+      <c r="C7" s="215" t="s">
         <v>388</v>
       </c>
-      <c r="D7" s="206"/>
-      <c r="E7" s="204"/>
-      <c r="F7" s="204"/>
+      <c r="D7" s="215"/>
+      <c r="E7" s="213"/>
+      <c r="F7" s="213"/>
     </row>
     <row r="8" spans="1:6" ht="15.75">
       <c r="A8" s="77" t="s">
@@ -13601,8 +13601,8 @@
       <c r="D8" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="205"/>
-      <c r="F8" s="205"/>
+      <c r="E8" s="214"/>
+      <c r="F8" s="214"/>
     </row>
     <row r="9" spans="1:6" s="48" customFormat="1" ht="38.25" customHeight="1">
       <c r="A9" s="120" t="str">

--- a/Templates/SIOP-RSLIL-v2.1.xlsx
+++ b/Templates/SIOP-RSLIL-v2.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr codeName="EsteLivro" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="842" firstSheet="3" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="842" firstSheet="3" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -314,7 +314,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1655" uniqueCount="847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="848">
   <si>
     <t>Id</t>
   </si>
@@ -2955,6 +2955,9 @@
   </si>
   <si>
     <t>Constraint</t>
+  </si>
+  <si>
+    <t>Requirement Relation</t>
   </si>
 </sst>
 </file>
@@ -3836,16 +3839,25 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3857,15 +3869,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3899,6 +3902,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3908,6 +3920,27 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3947,77 +3980,47 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4635,7 +4638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -4842,7 +4845,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A9" sqref="A9:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4983,15 +4986,15 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" customWidth="1"/>
@@ -5030,111 +5033,132 @@
       <c r="E4" s="183"/>
       <c r="F4" s="183"/>
     </row>
-    <row r="5" spans="1:6" ht="18" customHeight="1">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-    </row>
-    <row r="6" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A6" s="216" t="s">
+    <row r="6" spans="1:6">
+      <c r="A6" s="90" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="92" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18" customHeight="1">
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="219" t="s">
+        <v>482</v>
+      </c>
+      <c r="B9" s="220"/>
+      <c r="C9" s="220"/>
+      <c r="D9" s="220"/>
+      <c r="E9" s="220"/>
+      <c r="F9" s="221"/>
+    </row>
+    <row r="10" spans="1:6" ht="31.5" customHeight="1">
+      <c r="A10" s="216" t="s">
         <v>747</v>
       </c>
-      <c r="B6" s="217"/>
-      <c r="C6" s="217"/>
-      <c r="D6" s="218"/>
-      <c r="E6" s="212" t="s">
+      <c r="B10" s="217"/>
+      <c r="C10" s="217"/>
+      <c r="D10" s="218"/>
+      <c r="E10" s="212" t="s">
         <v>573</v>
       </c>
-      <c r="F6" s="212" t="s">
+      <c r="F10" s="212" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75">
-      <c r="A7" s="215" t="s">
+    <row r="11" spans="1:6" ht="15.75">
+      <c r="A11" s="215" t="s">
         <v>387</v>
       </c>
-      <c r="B7" s="215"/>
-      <c r="C7" s="215" t="s">
+      <c r="B11" s="215"/>
+      <c r="C11" s="215" t="s">
         <v>388</v>
       </c>
-      <c r="D7" s="215"/>
-      <c r="E7" s="213"/>
-      <c r="F7" s="213"/>
-    </row>
-    <row r="8" spans="1:6" ht="15.75">
-      <c r="A8" s="77" t="s">
+      <c r="D11" s="215"/>
+      <c r="E11" s="213"/>
+      <c r="F11" s="213"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75">
+      <c r="A12" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="77" t="s">
+      <c r="B12" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="77" t="s">
+      <c r="C12" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="145" t="s">
+      <c r="D12" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="214"/>
-      <c r="F8" s="214"/>
-    </row>
-    <row r="9" spans="1:6" s="48" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A9" s="120" t="str">
+      <c r="E12" s="214"/>
+      <c r="F12" s="214"/>
+    </row>
+    <row r="13" spans="1:6" s="48" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A13" s="120" t="str">
         <f>reqs.functional!A11</f>
         <v>fr1</v>
       </c>
-      <c r="B9" s="120" t="str">
+      <c r="B13" s="120" t="str">
         <f>reqs.functional!B11</f>
         <v>Functional Requirement 1</v>
       </c>
-      <c r="C9" s="120" t="str">
+      <c r="C13" s="120" t="str">
         <f>reqs.quality!A11</f>
         <v>QR1</v>
       </c>
-      <c r="D9" s="120" t="str">
+      <c r="D13" s="120" t="str">
         <f>reqs.quality!B11</f>
         <v>YYY</v>
       </c>
-      <c r="E9" s="121" t="s">
+      <c r="E13" s="121" t="s">
         <v>796</v>
       </c>
-      <c r="F9" s="120" t="s">
+      <c r="F13" s="120" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="48" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A10" s="120" t="str">
+    <row r="14" spans="1:6" s="48" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A14" s="120" t="str">
         <f>reqs.quality!A11</f>
         <v>QR1</v>
       </c>
-      <c r="B10" s="120" t="str">
+      <c r="B14" s="120" t="str">
         <f>reqs.quality!B11</f>
         <v>YYY</v>
       </c>
-      <c r="C10" s="120" t="str">
+      <c r="C14" s="120" t="str">
         <f>reqs.quality!A12</f>
         <v>QR2</v>
       </c>
-      <c r="D10" s="120" t="str">
+      <c r="D14" s="120" t="str">
         <f>reqs.quality!B12</f>
         <v>ZZZ</v>
       </c>
-      <c r="E10" s="121" t="s">
+      <c r="E14" s="121" t="s">
         <v>798</v>
       </c>
-      <c r="F10" s="120" t="s">
+      <c r="F14" s="120" t="s">
         <v>572</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A9:F9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:E10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13:E14">
       <formula1>GoalDependencyType</formula1>
     </dataValidation>
   </dataValidations>
@@ -5215,27 +5239,27 @@
       <c r="A5" s="4"/>
     </row>
     <row r="6" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A6" s="204" t="s">
+      <c r="A6" s="202" t="s">
         <v>475</v>
       </c>
-      <c r="B6" s="205"/>
+      <c r="B6" s="203"/>
     </row>
     <row r="7" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A7" s="242" t="s">
+      <c r="A7" s="232" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="243"/>
-      <c r="C7" s="206"/>
-      <c r="D7" s="206"/>
+      <c r="B7" s="233"/>
+      <c r="C7" s="209"/>
+      <c r="D7" s="209"/>
       <c r="E7" s="63"/>
     </row>
     <row r="8" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A8" s="244" t="s">
+      <c r="A8" s="234" t="s">
         <v>194</v>
       </c>
-      <c r="B8" s="245"/>
-      <c r="C8" s="206"/>
-      <c r="D8" s="206"/>
+      <c r="B8" s="235"/>
+      <c r="C8" s="209"/>
+      <c r="D8" s="209"/>
       <c r="E8" s="63"/>
     </row>
     <row r="9" spans="1:12" ht="18.75" customHeight="1">
@@ -5255,10 +5279,10 @@
       <c r="F10" s="88"/>
       <c r="G10" s="88"/>
       <c r="H10" s="88"/>
-      <c r="I10" s="234"/>
-      <c r="J10" s="234"/>
-      <c r="K10" s="234"/>
-      <c r="L10" s="234"/>
+      <c r="I10" s="244"/>
+      <c r="J10" s="244"/>
+      <c r="K10" s="244"/>
+      <c r="L10" s="244"/>
     </row>
     <row r="11" spans="1:12" ht="25.5" customHeight="1">
       <c r="A11" s="83" t="s">
@@ -5276,26 +5300,26 @@
       <c r="E11" s="89" t="s">
         <v>179</v>
       </c>
-      <c r="F11" s="233"/>
-      <c r="G11" s="233"/>
-      <c r="H11" s="233"/>
-      <c r="I11" s="233"/>
-      <c r="J11" s="233"/>
-      <c r="K11" s="233"/>
-      <c r="L11" s="233"/>
+      <c r="F11" s="243"/>
+      <c r="G11" s="243"/>
+      <c r="H11" s="243"/>
+      <c r="I11" s="243"/>
+      <c r="J11" s="243"/>
+      <c r="K11" s="243"/>
+      <c r="L11" s="243"/>
     </row>
     <row r="12" spans="1:12" ht="18.75" customHeight="1">
-      <c r="D12" s="239" t="s">
+      <c r="D12" s="223" t="s">
         <v>181</v>
       </c>
-      <c r="E12" s="240"/>
-      <c r="F12" s="240"/>
-      <c r="G12" s="240"/>
-      <c r="H12" s="240"/>
-      <c r="I12" s="240"/>
-      <c r="J12" s="240"/>
-      <c r="K12" s="240"/>
-      <c r="L12" s="241"/>
+      <c r="E12" s="224"/>
+      <c r="F12" s="224"/>
+      <c r="G12" s="224"/>
+      <c r="H12" s="224"/>
+      <c r="I12" s="224"/>
+      <c r="J12" s="224"/>
+      <c r="K12" s="224"/>
+      <c r="L12" s="225"/>
     </row>
     <row r="13" spans="1:12" ht="18.75" customHeight="1">
       <c r="D13" s="9" t="s">
@@ -5327,17 +5351,17 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="18.75" customHeight="1">
-      <c r="D14" s="239" t="s">
+      <c r="D14" s="223" t="s">
         <v>183</v>
       </c>
-      <c r="E14" s="240"/>
-      <c r="F14" s="240"/>
-      <c r="G14" s="240"/>
-      <c r="H14" s="240"/>
-      <c r="I14" s="240"/>
-      <c r="J14" s="240"/>
-      <c r="K14" s="240"/>
-      <c r="L14" s="241"/>
+      <c r="E14" s="224"/>
+      <c r="F14" s="224"/>
+      <c r="G14" s="224"/>
+      <c r="H14" s="224"/>
+      <c r="I14" s="224"/>
+      <c r="J14" s="224"/>
+      <c r="K14" s="224"/>
+      <c r="L14" s="225"/>
     </row>
     <row r="15" spans="1:12" ht="18.75" customHeight="1">
       <c r="D15" s="9" t="s">
@@ -5349,40 +5373,40 @@
       <c r="F15" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="G15" s="246"/>
-      <c r="H15" s="247"/>
-      <c r="I15" s="247"/>
-      <c r="J15" s="247"/>
-      <c r="K15" s="247"/>
-      <c r="L15" s="248"/>
+      <c r="G15" s="229"/>
+      <c r="H15" s="230"/>
+      <c r="I15" s="230"/>
+      <c r="J15" s="230"/>
+      <c r="K15" s="230"/>
+      <c r="L15" s="231"/>
     </row>
     <row r="16" spans="1:12" ht="18.75" customHeight="1">
-      <c r="D16" s="239" t="s">
+      <c r="D16" s="223" t="s">
         <v>186</v>
       </c>
-      <c r="E16" s="240"/>
-      <c r="F16" s="240"/>
-      <c r="G16" s="240"/>
-      <c r="H16" s="240"/>
-      <c r="I16" s="240"/>
-      <c r="J16" s="240"/>
-      <c r="K16" s="240"/>
-      <c r="L16" s="241"/>
+      <c r="E16" s="224"/>
+      <c r="F16" s="224"/>
+      <c r="G16" s="224"/>
+      <c r="H16" s="224"/>
+      <c r="I16" s="224"/>
+      <c r="J16" s="224"/>
+      <c r="K16" s="224"/>
+      <c r="L16" s="225"/>
     </row>
     <row r="17" spans="1:13" ht="18.75" customHeight="1">
       <c r="D17" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="E17" s="236" t="s">
+      <c r="E17" s="246" t="s">
         <v>188</v>
       </c>
-      <c r="F17" s="237"/>
-      <c r="G17" s="237"/>
-      <c r="H17" s="237"/>
-      <c r="I17" s="237"/>
-      <c r="J17" s="237"/>
-      <c r="K17" s="237"/>
-      <c r="L17" s="238"/>
+      <c r="F17" s="247"/>
+      <c r="G17" s="247"/>
+      <c r="H17" s="247"/>
+      <c r="I17" s="247"/>
+      <c r="J17" s="247"/>
+      <c r="K17" s="247"/>
+      <c r="L17" s="248"/>
     </row>
     <row r="18" spans="1:13" ht="18.75" customHeight="1">
       <c r="A18" s="94" t="s">
@@ -5400,17 +5424,17 @@
       <c r="E18" s="97" t="s">
         <v>180</v>
       </c>
-      <c r="F18" s="223"/>
-      <c r="G18" s="224"/>
-      <c r="H18" s="224"/>
-      <c r="I18" s="224"/>
-      <c r="J18" s="224"/>
-      <c r="K18" s="224"/>
-      <c r="L18" s="225"/>
+      <c r="F18" s="226"/>
+      <c r="G18" s="227"/>
+      <c r="H18" s="227"/>
+      <c r="I18" s="227"/>
+      <c r="J18" s="227"/>
+      <c r="K18" s="227"/>
+      <c r="L18" s="228"/>
     </row>
     <row r="19" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A19" s="228"/>
-      <c r="B19" s="228"/>
+      <c r="A19" s="238"/>
+      <c r="B19" s="238"/>
       <c r="C19" s="222" t="s">
         <v>182</v>
       </c>
@@ -5444,8 +5468,8 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A20" s="235"/>
-      <c r="B20" s="235"/>
+      <c r="A20" s="245"/>
+      <c r="B20" s="245"/>
       <c r="C20" s="222"/>
       <c r="D20" s="2" t="s">
         <v>119</v>
@@ -5472,8 +5496,8 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A21" s="235"/>
-      <c r="B21" s="235"/>
+      <c r="A21" s="245"/>
+      <c r="B21" s="245"/>
       <c r="C21" s="222"/>
       <c r="D21" s="2" t="s">
         <v>161</v>
@@ -5498,8 +5522,8 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A22" s="235"/>
-      <c r="B22" s="235"/>
+      <c r="A22" s="245"/>
+      <c r="B22" s="245"/>
       <c r="C22" s="222"/>
       <c r="D22" s="2" t="s">
         <v>193</v>
@@ -5526,8 +5550,8 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A23" s="235"/>
-      <c r="B23" s="235"/>
+      <c r="A23" s="245"/>
+      <c r="B23" s="245"/>
       <c r="C23" s="222" t="s">
         <v>183</v>
       </c>
@@ -5551,8 +5575,8 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A24" s="235"/>
-      <c r="B24" s="235"/>
+      <c r="A24" s="245"/>
+      <c r="B24" s="245"/>
       <c r="C24" s="222"/>
       <c r="D24" s="2" t="s">
         <v>191</v>
@@ -5571,8 +5595,8 @@
       <c r="L24" s="222"/>
     </row>
     <row r="25" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A25" s="235"/>
-      <c r="B25" s="235"/>
+      <c r="A25" s="245"/>
+      <c r="B25" s="245"/>
       <c r="C25" s="222"/>
       <c r="D25" s="2" t="s">
         <v>192</v>
@@ -5591,59 +5615,59 @@
       <c r="L25" s="222"/>
     </row>
     <row r="26" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A26" s="235"/>
-      <c r="B26" s="235"/>
-      <c r="C26" s="228" t="s">
+      <c r="A26" s="245"/>
+      <c r="B26" s="245"/>
+      <c r="C26" s="238" t="s">
         <v>186</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E26" s="230" t="s">
+      <c r="E26" s="240" t="s">
         <v>196</v>
       </c>
-      <c r="F26" s="231"/>
-      <c r="G26" s="231"/>
-      <c r="H26" s="231"/>
-      <c r="I26" s="231"/>
-      <c r="J26" s="231"/>
-      <c r="K26" s="231"/>
-      <c r="L26" s="232"/>
+      <c r="F26" s="241"/>
+      <c r="G26" s="241"/>
+      <c r="H26" s="241"/>
+      <c r="I26" s="241"/>
+      <c r="J26" s="241"/>
+      <c r="K26" s="241"/>
+      <c r="L26" s="242"/>
       <c r="M26" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A27" s="229"/>
-      <c r="B27" s="229"/>
-      <c r="C27" s="229"/>
+      <c r="A27" s="239"/>
+      <c r="B27" s="239"/>
+      <c r="C27" s="239"/>
       <c r="D27" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="E27" s="230" t="s">
+      <c r="E27" s="240" t="s">
         <v>190</v>
       </c>
-      <c r="F27" s="231"/>
-      <c r="G27" s="231"/>
-      <c r="H27" s="231"/>
-      <c r="I27" s="231"/>
-      <c r="J27" s="231"/>
-      <c r="K27" s="231"/>
-      <c r="L27" s="232"/>
+      <c r="F27" s="241"/>
+      <c r="G27" s="241"/>
+      <c r="H27" s="241"/>
+      <c r="I27" s="241"/>
+      <c r="J27" s="241"/>
+      <c r="K27" s="241"/>
+      <c r="L27" s="242"/>
     </row>
     <row r="28" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A28" s="226"/>
-      <c r="B28" s="227"/>
-      <c r="C28" s="227"/>
-      <c r="D28" s="227"/>
-      <c r="E28" s="227"/>
-      <c r="F28" s="227"/>
-      <c r="G28" s="227"/>
-      <c r="H28" s="227"/>
-      <c r="I28" s="227"/>
-      <c r="J28" s="227"/>
-      <c r="K28" s="227"/>
-      <c r="L28" s="227"/>
+      <c r="A28" s="236"/>
+      <c r="B28" s="237"/>
+      <c r="C28" s="237"/>
+      <c r="D28" s="237"/>
+      <c r="E28" s="237"/>
+      <c r="F28" s="237"/>
+      <c r="G28" s="237"/>
+      <c r="H28" s="237"/>
+      <c r="I28" s="237"/>
+      <c r="J28" s="237"/>
+      <c r="K28" s="237"/>
+      <c r="L28" s="237"/>
     </row>
     <row r="29" spans="1:13" ht="18.75" customHeight="1">
       <c r="A29" s="94" t="s">
@@ -5661,13 +5685,13 @@
       <c r="E29" s="97" t="s">
         <v>180</v>
       </c>
-      <c r="F29" s="223"/>
-      <c r="G29" s="224"/>
-      <c r="H29" s="224"/>
-      <c r="I29" s="224"/>
-      <c r="J29" s="224"/>
-      <c r="K29" s="224"/>
-      <c r="L29" s="225"/>
+      <c r="F29" s="226"/>
+      <c r="G29" s="227"/>
+      <c r="H29" s="227"/>
+      <c r="I29" s="227"/>
+      <c r="J29" s="227"/>
+      <c r="K29" s="227"/>
+      <c r="L29" s="228"/>
     </row>
     <row r="30" spans="1:13" ht="18.75" customHeight="1">
       <c r="C30" s="222" t="s">
@@ -5787,13 +5811,13 @@
       <c r="E35" s="97" t="s">
         <v>180</v>
       </c>
-      <c r="F35" s="223"/>
-      <c r="G35" s="224"/>
-      <c r="H35" s="224"/>
-      <c r="I35" s="224"/>
-      <c r="J35" s="224"/>
-      <c r="K35" s="224"/>
-      <c r="L35" s="225"/>
+      <c r="F35" s="226"/>
+      <c r="G35" s="227"/>
+      <c r="H35" s="227"/>
+      <c r="I35" s="227"/>
+      <c r="J35" s="227"/>
+      <c r="K35" s="227"/>
+      <c r="L35" s="228"/>
     </row>
     <row r="36" spans="1:12" ht="18.75" customHeight="1">
       <c r="C36" s="222" t="s">
@@ -5956,25 +5980,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="33">
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="G40:L40"/>
-    <mergeCell ref="G41:L41"/>
-    <mergeCell ref="G42:L42"/>
-    <mergeCell ref="G25:L25"/>
-    <mergeCell ref="F29:L29"/>
-    <mergeCell ref="F18:L18"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="G23:L23"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="D16:L16"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="G24:L24"/>
     <mergeCell ref="A3:L3"/>
     <mergeCell ref="A4:L4"/>
     <mergeCell ref="F35:L35"/>
@@ -5989,6 +5994,25 @@
     <mergeCell ref="E17:L17"/>
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="D14:L14"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="D16:L16"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="G40:L40"/>
+    <mergeCell ref="G41:L41"/>
+    <mergeCell ref="G42:L42"/>
+    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="F29:L29"/>
+    <mergeCell ref="F18:L18"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="G23:L23"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G19:G22 G30:G33 G36:G39">
@@ -6343,76 +6367,76 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A9" s="257" t="s">
+      <c r="A9" s="259" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="258"/>
-      <c r="C9" s="258"/>
-      <c r="D9" s="258"/>
-      <c r="E9" s="258"/>
-      <c r="F9" s="258"/>
-      <c r="G9" s="258"/>
-      <c r="H9" s="258"/>
-      <c r="I9" s="258"/>
-      <c r="J9" s="258"/>
-      <c r="K9" s="258"/>
-      <c r="L9" s="258"/>
-      <c r="M9" s="258"/>
-      <c r="N9" s="258"/>
-      <c r="O9" s="258"/>
-      <c r="P9" s="258"/>
-      <c r="Q9" s="258"/>
-      <c r="R9" s="259"/>
+      <c r="B9" s="260"/>
+      <c r="C9" s="260"/>
+      <c r="D9" s="260"/>
+      <c r="E9" s="260"/>
+      <c r="F9" s="260"/>
+      <c r="G9" s="260"/>
+      <c r="H9" s="260"/>
+      <c r="I9" s="260"/>
+      <c r="J9" s="260"/>
+      <c r="K9" s="260"/>
+      <c r="L9" s="260"/>
+      <c r="M9" s="260"/>
+      <c r="N9" s="260"/>
+      <c r="O9" s="260"/>
+      <c r="P9" s="260"/>
+      <c r="Q9" s="260"/>
+      <c r="R9" s="261"/>
     </row>
     <row r="10" spans="1:18" ht="33" customHeight="1">
-      <c r="A10" s="255" t="s">
+      <c r="A10" s="253" t="s">
         <v>163</v>
       </c>
-      <c r="B10" s="255" t="s">
+      <c r="B10" s="253" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="255" t="s">
+      <c r="C10" s="253" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="255" t="s">
+      <c r="D10" s="253" t="s">
         <v>164</v>
       </c>
-      <c r="E10" s="252" t="s">
+      <c r="E10" s="257" t="s">
         <v>208</v>
       </c>
-      <c r="F10" s="253"/>
-      <c r="G10" s="254"/>
-      <c r="H10" s="255" t="s">
+      <c r="F10" s="262"/>
+      <c r="G10" s="258"/>
+      <c r="H10" s="253" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="261" t="s">
+      <c r="I10" s="255" t="s">
         <v>211</v>
       </c>
-      <c r="J10" s="262"/>
-      <c r="K10" s="252" t="s">
+      <c r="J10" s="256"/>
+      <c r="K10" s="257" t="s">
         <v>74</v>
       </c>
-      <c r="L10" s="254"/>
-      <c r="M10" s="252" t="s">
+      <c r="L10" s="258"/>
+      <c r="M10" s="257" t="s">
         <v>213</v>
       </c>
-      <c r="N10" s="254"/>
+      <c r="N10" s="258"/>
       <c r="O10" s="98" t="s">
         <v>215</v>
       </c>
-      <c r="P10" s="251" t="s">
+      <c r="P10" s="252" t="s">
         <v>214</v>
       </c>
-      <c r="Q10" s="251"/>
-      <c r="R10" s="260" t="s">
+      <c r="Q10" s="252"/>
+      <c r="R10" s="251" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="33" customHeight="1">
-      <c r="A11" s="256"/>
-      <c r="B11" s="256"/>
-      <c r="C11" s="256"/>
-      <c r="D11" s="256"/>
+      <c r="A11" s="254"/>
+      <c r="B11" s="254"/>
+      <c r="C11" s="254"/>
+      <c r="D11" s="254"/>
       <c r="E11" s="101" t="s">
         <v>205</v>
       </c>
@@ -6422,7 +6446,7 @@
       <c r="G11" s="101" t="s">
         <v>207</v>
       </c>
-      <c r="H11" s="256"/>
+      <c r="H11" s="254"/>
       <c r="I11" s="99" t="s">
         <v>135</v>
       </c>
@@ -6448,7 +6472,7 @@
       <c r="Q11" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="R11" s="260"/>
+      <c r="R11" s="251"/>
     </row>
     <row r="12" spans="1:18" ht="107.25" customHeight="1">
       <c r="A12" s="59" t="s">
@@ -6557,76 +6581,76 @@
       <c r="R14" s="75"/>
     </row>
     <row r="15" spans="1:18" ht="18" customHeight="1">
-      <c r="A15" s="257" t="s">
+      <c r="A15" s="259" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="258"/>
-      <c r="C15" s="258"/>
-      <c r="D15" s="258"/>
-      <c r="E15" s="258"/>
-      <c r="F15" s="258"/>
-      <c r="G15" s="258"/>
-      <c r="H15" s="258"/>
-      <c r="I15" s="258"/>
-      <c r="J15" s="258"/>
-      <c r="K15" s="258"/>
-      <c r="L15" s="258"/>
-      <c r="M15" s="258"/>
-      <c r="N15" s="258"/>
-      <c r="O15" s="258"/>
-      <c r="P15" s="258"/>
-      <c r="Q15" s="258"/>
-      <c r="R15" s="259"/>
+      <c r="B15" s="260"/>
+      <c r="C15" s="260"/>
+      <c r="D15" s="260"/>
+      <c r="E15" s="260"/>
+      <c r="F15" s="260"/>
+      <c r="G15" s="260"/>
+      <c r="H15" s="260"/>
+      <c r="I15" s="260"/>
+      <c r="J15" s="260"/>
+      <c r="K15" s="260"/>
+      <c r="L15" s="260"/>
+      <c r="M15" s="260"/>
+      <c r="N15" s="260"/>
+      <c r="O15" s="260"/>
+      <c r="P15" s="260"/>
+      <c r="Q15" s="260"/>
+      <c r="R15" s="261"/>
     </row>
     <row r="16" spans="1:18" ht="33" customHeight="1">
-      <c r="A16" s="255" t="s">
+      <c r="A16" s="253" t="s">
         <v>163</v>
       </c>
-      <c r="B16" s="255" t="s">
+      <c r="B16" s="253" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="255" t="s">
+      <c r="C16" s="253" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="255" t="s">
+      <c r="D16" s="253" t="s">
         <v>164</v>
       </c>
-      <c r="E16" s="252" t="s">
+      <c r="E16" s="257" t="s">
         <v>208</v>
       </c>
-      <c r="F16" s="253"/>
-      <c r="G16" s="254"/>
-      <c r="H16" s="255" t="s">
+      <c r="F16" s="262"/>
+      <c r="G16" s="258"/>
+      <c r="H16" s="253" t="s">
         <v>30</v>
       </c>
-      <c r="I16" s="261" t="s">
+      <c r="I16" s="255" t="s">
         <v>211</v>
       </c>
-      <c r="J16" s="262"/>
-      <c r="K16" s="252" t="s">
+      <c r="J16" s="256"/>
+      <c r="K16" s="257" t="s">
         <v>74</v>
       </c>
-      <c r="L16" s="254"/>
-      <c r="M16" s="252" t="s">
+      <c r="L16" s="258"/>
+      <c r="M16" s="257" t="s">
         <v>213</v>
       </c>
-      <c r="N16" s="254"/>
+      <c r="N16" s="258"/>
       <c r="O16" s="98" t="s">
         <v>215</v>
       </c>
-      <c r="P16" s="251" t="s">
+      <c r="P16" s="252" t="s">
         <v>214</v>
       </c>
-      <c r="Q16" s="251"/>
-      <c r="R16" s="260" t="s">
+      <c r="Q16" s="252"/>
+      <c r="R16" s="251" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="33" customHeight="1">
-      <c r="A17" s="256"/>
-      <c r="B17" s="256"/>
-      <c r="C17" s="256"/>
-      <c r="D17" s="256"/>
+      <c r="A17" s="254"/>
+      <c r="B17" s="254"/>
+      <c r="C17" s="254"/>
+      <c r="D17" s="254"/>
       <c r="E17" s="101" t="s">
         <v>205</v>
       </c>
@@ -6636,7 +6660,7 @@
       <c r="G17" s="101" t="s">
         <v>207</v>
       </c>
-      <c r="H17" s="256"/>
+      <c r="H17" s="254"/>
       <c r="I17" s="99" t="s">
         <v>135</v>
       </c>
@@ -6662,7 +6686,7 @@
       <c r="Q17" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="R17" s="260"/>
+      <c r="R17" s="251"/>
     </row>
     <row r="18" spans="1:18" ht="21" customHeight="1">
       <c r="A18" s="59" t="s">
@@ -6754,6 +6778,16 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A4:Q4"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A9:R9"/>
+    <mergeCell ref="R10:R11"/>
     <mergeCell ref="R16:R17"/>
     <mergeCell ref="P16:Q16"/>
     <mergeCell ref="C10:C11"/>
@@ -6769,16 +6803,6 @@
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="E16:G16"/>
     <mergeCell ref="H16:H17"/>
-    <mergeCell ref="A4:Q4"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="A9:R9"/>
-    <mergeCell ref="R10:R11"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K12:L14 K18:L21">
@@ -11124,34 +11148,34 @@
     </row>
     <row r="5" spans="1:14" ht="18.75" customHeight="1"/>
     <row r="6" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A6" s="204" t="s">
+      <c r="A6" s="202" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="205"/>
+      <c r="B6" s="203"/>
     </row>
     <row r="7" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A7" s="207" t="s">
+      <c r="A7" s="210" t="s">
         <v>569</v>
       </c>
-      <c r="B7" s="207"/>
-      <c r="C7" s="206"/>
-      <c r="D7" s="206"/>
+      <c r="B7" s="210"/>
+      <c r="C7" s="209"/>
+      <c r="D7" s="209"/>
       <c r="E7" s="74"/>
     </row>
     <row r="8" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A8" s="208" t="s">
+      <c r="A8" s="211" t="s">
         <v>570</v>
       </c>
-      <c r="B8" s="208"/>
-      <c r="C8" s="206"/>
-      <c r="D8" s="206"/>
+      <c r="B8" s="211"/>
+      <c r="C8" s="209"/>
+      <c r="D8" s="209"/>
       <c r="E8" s="74"/>
     </row>
     <row r="9" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A9" s="209" t="s">
+      <c r="A9" s="204" t="s">
         <v>571</v>
       </c>
-      <c r="B9" s="209"/>
+      <c r="B9" s="204"/>
       <c r="C9" s="111"/>
       <c r="D9" s="111"/>
       <c r="E9" s="111"/>
@@ -11160,10 +11184,10 @@
       <c r="I10" s="66"/>
     </row>
     <row r="11" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A11" s="204" t="s">
+      <c r="A11" s="202" t="s">
         <v>476</v>
       </c>
-      <c r="B11" s="205"/>
+      <c r="B11" s="203"/>
     </row>
     <row r="12" spans="1:14" ht="33.75" customHeight="1">
       <c r="A12" s="77" t="s">
@@ -11192,16 +11216,16 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="33.75" customHeight="1">
-      <c r="A13" s="202" t="s">
+      <c r="A13" s="205" t="s">
         <v>577</v>
       </c>
-      <c r="B13" s="202"/>
-      <c r="C13" s="202"/>
-      <c r="D13" s="202"/>
-      <c r="E13" s="202"/>
-      <c r="F13" s="202"/>
-      <c r="G13" s="202"/>
-      <c r="H13" s="203"/>
+      <c r="B13" s="205"/>
+      <c r="C13" s="205"/>
+      <c r="D13" s="205"/>
+      <c r="E13" s="205"/>
+      <c r="F13" s="205"/>
+      <c r="G13" s="205"/>
+      <c r="H13" s="206"/>
     </row>
     <row r="14" spans="1:14" ht="50.25" customHeight="1">
       <c r="A14" s="144" t="s">
@@ -11613,16 +11637,16 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="33.75" customHeight="1">
-      <c r="A29" s="202" t="s">
+      <c r="A29" s="205" t="s">
         <v>669</v>
       </c>
-      <c r="B29" s="202"/>
-      <c r="C29" s="202"/>
-      <c r="D29" s="202"/>
-      <c r="E29" s="202"/>
-      <c r="F29" s="202"/>
-      <c r="G29" s="202"/>
-      <c r="H29" s="203"/>
+      <c r="B29" s="205"/>
+      <c r="C29" s="205"/>
+      <c r="D29" s="205"/>
+      <c r="E29" s="205"/>
+      <c r="F29" s="205"/>
+      <c r="G29" s="205"/>
+      <c r="H29" s="206"/>
     </row>
     <row r="30" spans="1:14" ht="50.25" customHeight="1">
       <c r="A30" s="141" t="s">
@@ -11918,16 +11942,16 @@
       <c r="N39" s="23"/>
     </row>
     <row r="40" spans="1:14" ht="33.75" customHeight="1">
-      <c r="A40" s="202" t="s">
+      <c r="A40" s="205" t="s">
         <v>659</v>
       </c>
-      <c r="B40" s="202"/>
-      <c r="C40" s="202"/>
-      <c r="D40" s="202"/>
-      <c r="E40" s="202"/>
-      <c r="F40" s="202"/>
-      <c r="G40" s="202"/>
-      <c r="H40" s="203"/>
+      <c r="B40" s="205"/>
+      <c r="C40" s="205"/>
+      <c r="D40" s="205"/>
+      <c r="E40" s="205"/>
+      <c r="F40" s="205"/>
+      <c r="G40" s="205"/>
+      <c r="H40" s="206"/>
     </row>
     <row r="41" spans="1:14" ht="50.25" customHeight="1">
       <c r="A41" s="144" t="s">
@@ -12552,16 +12576,16 @@
       <c r="N61" s="23"/>
     </row>
     <row r="62" spans="1:14" ht="50.25" customHeight="1">
-      <c r="A62" s="202" t="s">
+      <c r="A62" s="205" t="s">
         <v>368</v>
       </c>
-      <c r="B62" s="202"/>
-      <c r="C62" s="202"/>
-      <c r="D62" s="202"/>
-      <c r="E62" s="202"/>
-      <c r="F62" s="202"/>
-      <c r="G62" s="202"/>
-      <c r="H62" s="203"/>
+      <c r="B62" s="205"/>
+      <c r="C62" s="205"/>
+      <c r="D62" s="205"/>
+      <c r="E62" s="205"/>
+      <c r="F62" s="205"/>
+      <c r="G62" s="205"/>
+      <c r="H62" s="206"/>
     </row>
     <row r="63" spans="1:14" ht="50.25" customHeight="1">
       <c r="A63" s="144" t="s">
@@ -12855,16 +12879,16 @@
       <c r="N74" s="23"/>
     </row>
     <row r="75" spans="1:14" ht="33.75" customHeight="1">
-      <c r="A75" s="210" t="s">
+      <c r="A75" s="207" t="s">
         <v>372</v>
       </c>
-      <c r="B75" s="210"/>
-      <c r="C75" s="210"/>
-      <c r="D75" s="210"/>
-      <c r="E75" s="210"/>
-      <c r="F75" s="210"/>
-      <c r="G75" s="210"/>
-      <c r="H75" s="211"/>
+      <c r="B75" s="207"/>
+      <c r="C75" s="207"/>
+      <c r="D75" s="207"/>
+      <c r="E75" s="207"/>
+      <c r="F75" s="207"/>
+      <c r="G75" s="207"/>
+      <c r="H75" s="208"/>
     </row>
     <row r="76" spans="1:14" ht="50.25" customHeight="1">
       <c r="A76" s="141" t="s">
@@ -13135,16 +13159,16 @@
       <c r="H86" s="14"/>
     </row>
     <row r="87" spans="1:14" ht="33.75" customHeight="1">
-      <c r="A87" s="202" t="s">
+      <c r="A87" s="205" t="s">
         <v>371</v>
       </c>
-      <c r="B87" s="202"/>
-      <c r="C87" s="202"/>
-      <c r="D87" s="202"/>
-      <c r="E87" s="202"/>
-      <c r="F87" s="202"/>
-      <c r="G87" s="202"/>
-      <c r="H87" s="203"/>
+      <c r="B87" s="205"/>
+      <c r="C87" s="205"/>
+      <c r="D87" s="205"/>
+      <c r="E87" s="205"/>
+      <c r="F87" s="205"/>
+      <c r="G87" s="205"/>
+      <c r="H87" s="206"/>
     </row>
     <row r="88" spans="1:14" ht="50.25" customHeight="1">
       <c r="A88" s="141" t="s">
@@ -13214,10 +13238,10 @@
     </row>
     <row r="91" spans="1:14" ht="33" customHeight="1"/>
     <row r="92" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A92" s="204" t="s">
+      <c r="A92" s="202" t="s">
         <v>350</v>
       </c>
-      <c r="B92" s="205"/>
+      <c r="B92" s="203"/>
     </row>
     <row r="93" spans="1:14" ht="33.75" customHeight="1">
       <c r="A93" s="77" t="s">
@@ -13246,16 +13270,16 @@
       </c>
     </row>
     <row r="94" spans="1:14" ht="33.75" customHeight="1">
-      <c r="A94" s="202" t="s">
+      <c r="A94" s="205" t="s">
         <v>577</v>
       </c>
-      <c r="B94" s="202"/>
-      <c r="C94" s="202"/>
-      <c r="D94" s="202"/>
-      <c r="E94" s="202"/>
-      <c r="F94" s="202"/>
-      <c r="G94" s="202"/>
-      <c r="H94" s="203"/>
+      <c r="B94" s="205"/>
+      <c r="C94" s="205"/>
+      <c r="D94" s="205"/>
+      <c r="E94" s="205"/>
+      <c r="F94" s="205"/>
+      <c r="G94" s="205"/>
+      <c r="H94" s="206"/>
     </row>
     <row r="95" spans="1:14" ht="50.25" customHeight="1">
       <c r="A95" s="144" t="s">
@@ -13336,10 +13360,10 @@
       <c r="N97" s="23"/>
     </row>
     <row r="99" spans="1:14">
-      <c r="A99" s="204" t="s">
+      <c r="A99" s="202" t="s">
         <v>476</v>
       </c>
-      <c r="B99" s="205"/>
+      <c r="B99" s="203"/>
     </row>
     <row r="100" spans="1:14" ht="47.25">
       <c r="A100" s="77" t="s">
@@ -13368,16 +13392,16 @@
       </c>
     </row>
     <row r="101" spans="1:14">
-      <c r="A101" s="202" t="s">
+      <c r="A101" s="205" t="s">
         <v>577</v>
       </c>
-      <c r="B101" s="202"/>
-      <c r="C101" s="202"/>
-      <c r="D101" s="202"/>
-      <c r="E101" s="202"/>
-      <c r="F101" s="202"/>
-      <c r="G101" s="202"/>
-      <c r="H101" s="203"/>
+      <c r="B101" s="205"/>
+      <c r="C101" s="205"/>
+      <c r="D101" s="205"/>
+      <c r="E101" s="205"/>
+      <c r="F101" s="205"/>
+      <c r="G101" s="205"/>
+      <c r="H101" s="206"/>
     </row>
     <row r="102" spans="1:14" ht="30">
       <c r="A102" s="144" t="s">
@@ -13474,6 +13498,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A94:H94"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A101:H101"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A4:H4"/>
@@ -13486,12 +13516,6 @@
     <mergeCell ref="A62:H62"/>
     <mergeCell ref="A75:H75"/>
     <mergeCell ref="A87:H87"/>
-    <mergeCell ref="A94:H94"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A101:H101"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E95:E97 E63:E74 E41:E61 E76:E86 E88:E90 E30:E39 E14:E28 E102:E105">
@@ -13637,7 +13661,7 @@
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="F6:F8"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9">
       <formula1>GoalDependencyType</formula1>
     </dataValidation>
